--- a/conformancelib/testdata/PIV_Production_Cards.xlsx
+++ b/conformancelib/testdata/PIV_Production_Cards.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bob.fontana\Documents\GitRepos\piv-conformance\conformancelib\testdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\GSA\GSA_GIT\piv-conformance-swing\conformancelib\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BCBD598-EB8E-44C0-AA4A-AD66D3219A8F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{156DBB3F-6CD0-4048-9DD6-55D82C2D1F48}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2310" yWindow="1275" windowWidth="26025" windowHeight="14550" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SP 800-85B Reference" sheetId="1" r:id="rId1"/>
@@ -24,14 +24,14 @@
     <sheet name="Placeholders" sheetId="9" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Steps Overview'!$D$1:$D$477</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Steps Overview'!$D$1:$D$476</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3677" uniqueCount="1269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3680" uniqueCount="1273">
   <si>
     <t>BER_TLV_Test_Assertions</t>
   </si>
@@ -3839,6 +3839,18 @@
   </si>
   <si>
     <t>11.7.2.6.5</t>
+  </si>
+  <si>
+    <t>PKIX.27</t>
+  </si>
+  <si>
+    <t>PKIX_Test_27</t>
+  </si>
+  <si>
+    <t>PKIX.28</t>
+  </si>
+  <si>
+    <t>PKIX_Test_28</t>
   </si>
 </sst>
 </file>
@@ -4107,7 +4119,7 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -4370,6 +4382,9 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="9" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -8455,10 +8470,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:G477"/>
+  <dimension ref="A1:G476"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="B417" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="D440" sqref="D440"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -14388,43 +14403,43 @@
         <v>586</v>
       </c>
       <c r="D359" s="39" t="s">
-        <v>582</v>
+        <v>1269</v>
       </c>
       <c r="E359" s="43"/>
       <c r="F359" s="38" t="s">
         <v>1095</v>
       </c>
     </row>
-    <row r="360" spans="1:6" ht="37.5" customHeight="1">
+    <row r="360" spans="1:6" ht="30">
       <c r="A360" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B360" s="38" t="s">
-        <v>587</v>
-      </c>
-      <c r="C360" s="39" t="s">
-        <v>588</v>
+        <v>589</v>
+      </c>
+      <c r="C360" s="43" t="s">
+        <v>590</v>
       </c>
       <c r="D360" s="39" t="s">
-        <v>1083</v>
-      </c>
-      <c r="E360" s="38"/>
+        <v>591</v>
+      </c>
+      <c r="E360" s="43"/>
       <c r="F360" s="38" t="s">
         <v>1095</v>
       </c>
     </row>
-    <row r="361" spans="1:6" ht="30">
+    <row r="361" spans="1:6">
       <c r="A361" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B361" s="38" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
       <c r="C361" s="43" t="s">
-        <v>590</v>
-      </c>
-      <c r="D361" s="39" t="s">
-        <v>591</v>
+        <v>593</v>
+      </c>
+      <c r="D361" s="38" t="s">
+        <v>594</v>
       </c>
       <c r="E361" s="43"/>
       <c r="F361" s="38" t="s">
@@ -14436,45 +14451,45 @@
         <v>56</v>
       </c>
       <c r="B362" s="38" t="s">
-        <v>592</v>
-      </c>
-      <c r="C362" s="43" t="s">
-        <v>593</v>
-      </c>
-      <c r="D362" s="38" t="s">
-        <v>594</v>
-      </c>
-      <c r="E362" s="43"/>
-      <c r="F362" s="38" t="s">
-        <v>1095</v>
-      </c>
+        <v>595</v>
+      </c>
+      <c r="C362" s="40" t="s">
+        <v>596</v>
+      </c>
+      <c r="D362" s="40"/>
+      <c r="E362" s="40"/>
+      <c r="F362" s="40"/>
     </row>
     <row r="363" spans="1:6">
       <c r="A363" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B363" s="38" t="s">
-        <v>595</v>
-      </c>
-      <c r="C363" s="40" t="s">
-        <v>596</v>
-      </c>
-      <c r="D363" s="40"/>
-      <c r="E363" s="40"/>
-      <c r="F363" s="40"/>
+        <v>597</v>
+      </c>
+      <c r="C363" s="43" t="s">
+        <v>598</v>
+      </c>
+      <c r="D363" s="38" t="s">
+        <v>573</v>
+      </c>
+      <c r="E363" s="38"/>
+      <c r="F363" s="38" t="s">
+        <v>1095</v>
+      </c>
     </row>
     <row r="364" spans="1:6">
       <c r="A364" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B364" s="38" t="s">
-        <v>597</v>
-      </c>
-      <c r="C364" s="43" t="s">
-        <v>598</v>
-      </c>
-      <c r="D364" s="38" t="s">
-        <v>573</v>
+        <v>599</v>
+      </c>
+      <c r="C364" s="39" t="s">
+        <v>600</v>
+      </c>
+      <c r="D364" s="39" t="s">
+        <v>1062</v>
       </c>
       <c r="E364" s="38"/>
       <c r="F364" s="38" t="s">
@@ -14486,45 +14501,45 @@
         <v>56</v>
       </c>
       <c r="B365" s="38" t="s">
-        <v>599</v>
-      </c>
-      <c r="C365" s="39" t="s">
-        <v>600</v>
-      </c>
-      <c r="D365" s="39" t="s">
-        <v>1062</v>
-      </c>
-      <c r="E365" s="38"/>
-      <c r="F365" s="38" t="s">
-        <v>1095</v>
-      </c>
+        <v>601</v>
+      </c>
+      <c r="C365" s="40" t="s">
+        <v>602</v>
+      </c>
+      <c r="D365" s="40"/>
+      <c r="E365" s="40"/>
+      <c r="F365" s="40"/>
     </row>
     <row r="366" spans="1:6">
       <c r="A366" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B366" s="38" t="s">
-        <v>601</v>
-      </c>
-      <c r="C366" s="40" t="s">
-        <v>602</v>
-      </c>
-      <c r="D366" s="40"/>
-      <c r="E366" s="40"/>
-      <c r="F366" s="40"/>
+        <v>603</v>
+      </c>
+      <c r="C366" s="43" t="s">
+        <v>566</v>
+      </c>
+      <c r="D366" s="38" t="s">
+        <v>567</v>
+      </c>
+      <c r="E366" s="43"/>
+      <c r="F366" s="38" t="s">
+        <v>1095</v>
+      </c>
     </row>
     <row r="367" spans="1:6">
       <c r="A367" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B367" s="38" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="C367" s="43" t="s">
-        <v>566</v>
+        <v>605</v>
       </c>
       <c r="D367" s="38" t="s">
-        <v>567</v>
+        <v>1067</v>
       </c>
       <c r="E367" s="43"/>
       <c r="F367" s="38" t="s">
@@ -14536,13 +14551,13 @@
         <v>56</v>
       </c>
       <c r="B368" s="38" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="C368" s="43" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="D368" s="38" t="s">
-        <v>1067</v>
+        <v>573</v>
       </c>
       <c r="E368" s="43"/>
       <c r="F368" s="38" t="s">
@@ -14554,13 +14569,13 @@
         <v>56</v>
       </c>
       <c r="B369" s="38" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="C369" s="43" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="D369" s="38" t="s">
-        <v>573</v>
+        <v>1065</v>
       </c>
       <c r="E369" s="43"/>
       <c r="F369" s="38" t="s">
@@ -14572,15 +14587,15 @@
         <v>56</v>
       </c>
       <c r="B370" s="38" t="s">
-        <v>608</v>
-      </c>
-      <c r="C370" s="43" t="s">
-        <v>609</v>
+        <v>610</v>
+      </c>
+      <c r="C370" s="39" t="s">
+        <v>611</v>
       </c>
       <c r="D370" s="38" t="s">
-        <v>1065</v>
-      </c>
-      <c r="E370" s="43"/>
+        <v>1063</v>
+      </c>
+      <c r="E370" s="38"/>
       <c r="F370" s="38" t="s">
         <v>1095</v>
       </c>
@@ -14589,60 +14604,60 @@
       <c r="A371" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="B371" s="38" t="s">
-        <v>610</v>
-      </c>
-      <c r="C371" s="39" t="s">
-        <v>611</v>
-      </c>
-      <c r="D371" s="38" t="s">
-        <v>1063</v>
-      </c>
-      <c r="E371" s="38"/>
-      <c r="F371" s="38" t="s">
-        <v>1095</v>
-      </c>
+      <c r="B371" s="38">
+        <v>11.2</v>
+      </c>
+      <c r="C371" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="D371" s="40"/>
+      <c r="E371" s="40"/>
+      <c r="F371" s="40"/>
     </row>
     <row r="372" spans="1:6">
       <c r="A372" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="B372" s="38">
-        <v>11.2</v>
-      </c>
-      <c r="C372" s="37" t="s">
-        <v>44</v>
+      <c r="B372" s="38" t="s">
+        <v>612</v>
+      </c>
+      <c r="C372" s="40" t="s">
+        <v>42</v>
       </c>
       <c r="D372" s="40"/>
       <c r="E372" s="40"/>
       <c r="F372" s="40"/>
     </row>
-    <row r="373" spans="1:6">
+    <row r="373" spans="1:6" ht="60">
       <c r="A373" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B373" s="38" t="s">
-        <v>612</v>
-      </c>
-      <c r="C373" s="40" t="s">
-        <v>42</v>
-      </c>
-      <c r="D373" s="40"/>
-      <c r="E373" s="40"/>
-      <c r="F373" s="40"/>
-    </row>
-    <row r="374" spans="1:6" ht="60">
+        <v>613</v>
+      </c>
+      <c r="C373" s="43" t="s">
+        <v>545</v>
+      </c>
+      <c r="D373" s="39" t="s">
+        <v>1002</v>
+      </c>
+      <c r="E373" s="43"/>
+      <c r="F373" s="38" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="374" spans="1:6">
       <c r="A374" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B374" s="38" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="C374" s="43" t="s">
-        <v>545</v>
+        <v>615</v>
       </c>
       <c r="D374" s="39" t="s">
-        <v>1002</v>
+        <v>997</v>
       </c>
       <c r="E374" s="43"/>
       <c r="F374" s="38" t="s">
@@ -14654,13 +14669,13 @@
         <v>56</v>
       </c>
       <c r="B375" s="38" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="C375" s="43" t="s">
-        <v>615</v>
-      </c>
-      <c r="D375" s="39" t="s">
-        <v>997</v>
+        <v>549</v>
+      </c>
+      <c r="D375" s="38">
+        <v>78.099999999999994</v>
       </c>
       <c r="E375" s="43"/>
       <c r="F375" s="38" t="s">
@@ -14672,28 +14687,24 @@
         <v>56</v>
       </c>
       <c r="B376" s="38" t="s">
-        <v>616</v>
-      </c>
-      <c r="C376" s="43" t="s">
-        <v>549</v>
-      </c>
-      <c r="D376" s="38">
-        <v>78.099999999999994</v>
-      </c>
-      <c r="E376" s="43"/>
-      <c r="F376" s="38" t="s">
-        <v>1099</v>
-      </c>
+        <v>617</v>
+      </c>
+      <c r="C376" s="40" t="s">
+        <v>43</v>
+      </c>
+      <c r="D376" s="40"/>
+      <c r="E376" s="40"/>
+      <c r="F376" s="40"/>
     </row>
     <row r="377" spans="1:6">
       <c r="A377" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B377" s="38" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="C377" s="40" t="s">
-        <v>43</v>
+        <v>619</v>
       </c>
       <c r="D377" s="40"/>
       <c r="E377" s="40"/>
@@ -14704,45 +14715,49 @@
         <v>56</v>
       </c>
       <c r="B378" s="38" t="s">
-        <v>618</v>
-      </c>
-      <c r="C378" s="40" t="s">
-        <v>619</v>
-      </c>
-      <c r="D378" s="40"/>
-      <c r="E378" s="40"/>
-      <c r="F378" s="40"/>
+        <v>620</v>
+      </c>
+      <c r="C378" s="38" t="s">
+        <v>621</v>
+      </c>
+      <c r="D378" s="38" t="s">
+        <v>622</v>
+      </c>
+      <c r="E378" s="43"/>
+      <c r="F378" s="38" t="s">
+        <v>1099</v>
+      </c>
     </row>
     <row r="379" spans="1:6">
       <c r="A379" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B379" s="38" t="s">
-        <v>620</v>
-      </c>
-      <c r="C379" s="38" t="s">
-        <v>621</v>
+        <v>623</v>
+      </c>
+      <c r="C379" s="43" t="s">
+        <v>624</v>
       </c>
       <c r="D379" s="38" t="s">
-        <v>622</v>
+        <v>625</v>
       </c>
       <c r="E379" s="43"/>
       <c r="F379" s="38" t="s">
         <v>1099</v>
       </c>
     </row>
-    <row r="380" spans="1:6">
+    <row r="380" spans="1:6" ht="30">
       <c r="A380" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B380" s="38" t="s">
-        <v>623</v>
+        <v>626</v>
       </c>
       <c r="C380" s="43" t="s">
-        <v>624</v>
+        <v>627</v>
       </c>
       <c r="D380" s="38" t="s">
-        <v>625</v>
+        <v>579</v>
       </c>
       <c r="E380" s="43"/>
       <c r="F380" s="38" t="s">
@@ -14754,101 +14769,101 @@
         <v>56</v>
       </c>
       <c r="B381" s="38" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="C381" s="43" t="s">
-        <v>627</v>
-      </c>
-      <c r="D381" s="38" t="s">
-        <v>579</v>
+        <v>629</v>
+      </c>
+      <c r="D381" s="39" t="s">
+        <v>591</v>
       </c>
       <c r="E381" s="43"/>
       <c r="F381" s="38" t="s">
         <v>1099</v>
       </c>
     </row>
-    <row r="382" spans="1:6" ht="30">
+    <row r="382" spans="1:6">
       <c r="A382" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B382" s="38" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="C382" s="43" t="s">
-        <v>629</v>
-      </c>
-      <c r="D382" s="39" t="s">
-        <v>591</v>
+        <v>631</v>
+      </c>
+      <c r="D382" s="38" t="s">
+        <v>594</v>
       </c>
       <c r="E382" s="43"/>
       <c r="F382" s="38" t="s">
         <v>1099</v>
       </c>
     </row>
-    <row r="383" spans="1:6">
+    <row r="383" spans="1:6" ht="30">
       <c r="A383" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B383" s="38" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="C383" s="43" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="D383" s="38" t="s">
-        <v>594</v>
+        <v>562</v>
       </c>
       <c r="E383" s="43"/>
       <c r="F383" s="38" t="s">
         <v>1099</v>
       </c>
     </row>
-    <row r="384" spans="1:6" ht="30">
+    <row r="384" spans="1:6">
       <c r="A384" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B384" s="38" t="s">
-        <v>632</v>
-      </c>
-      <c r="C384" s="43" t="s">
-        <v>633</v>
-      </c>
-      <c r="D384" s="38" t="s">
-        <v>562</v>
-      </c>
-      <c r="E384" s="43"/>
-      <c r="F384" s="38" t="s">
-        <v>1099</v>
-      </c>
+        <v>634</v>
+      </c>
+      <c r="C384" s="40" t="s">
+        <v>596</v>
+      </c>
+      <c r="D384" s="40"/>
+      <c r="E384" s="40"/>
+      <c r="F384" s="40"/>
     </row>
     <row r="385" spans="1:6">
       <c r="A385" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B385" s="38" t="s">
-        <v>634</v>
-      </c>
-      <c r="C385" s="40" t="s">
-        <v>596</v>
-      </c>
-      <c r="D385" s="40"/>
-      <c r="E385" s="40"/>
-      <c r="F385" s="40"/>
+        <v>635</v>
+      </c>
+      <c r="C385" s="43" t="s">
+        <v>598</v>
+      </c>
+      <c r="D385" s="38" t="s">
+        <v>573</v>
+      </c>
+      <c r="E385" s="43"/>
+      <c r="F385" s="38" t="s">
+        <v>1099</v>
+      </c>
     </row>
     <row r="386" spans="1:6">
       <c r="A386" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B386" s="38" t="s">
-        <v>635</v>
-      </c>
-      <c r="C386" s="43" t="s">
-        <v>598</v>
-      </c>
-      <c r="D386" s="38" t="s">
-        <v>573</v>
-      </c>
-      <c r="E386" s="43"/>
+        <v>636</v>
+      </c>
+      <c r="C386" s="39" t="s">
+        <v>600</v>
+      </c>
+      <c r="D386" s="39" t="s">
+        <v>1062</v>
+      </c>
+      <c r="E386" s="38"/>
       <c r="F386" s="38" t="s">
         <v>1099</v>
       </c>
@@ -14858,45 +14873,45 @@
         <v>56</v>
       </c>
       <c r="B387" s="38" t="s">
-        <v>636</v>
-      </c>
-      <c r="C387" s="39" t="s">
-        <v>600</v>
-      </c>
-      <c r="D387" s="39" t="s">
-        <v>1062</v>
-      </c>
-      <c r="E387" s="38"/>
-      <c r="F387" s="38" t="s">
-        <v>1099</v>
-      </c>
+        <v>637</v>
+      </c>
+      <c r="C387" s="40" t="s">
+        <v>602</v>
+      </c>
+      <c r="D387" s="40"/>
+      <c r="E387" s="40"/>
+      <c r="F387" s="40"/>
     </row>
     <row r="388" spans="1:6">
       <c r="A388" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B388" s="38" t="s">
-        <v>637</v>
-      </c>
-      <c r="C388" s="40" t="s">
-        <v>602</v>
-      </c>
-      <c r="D388" s="40"/>
-      <c r="E388" s="40"/>
-      <c r="F388" s="40"/>
+        <v>638</v>
+      </c>
+      <c r="C388" s="43" t="s">
+        <v>566</v>
+      </c>
+      <c r="D388" s="38" t="s">
+        <v>567</v>
+      </c>
+      <c r="E388" s="43"/>
+      <c r="F388" s="38" t="s">
+        <v>1099</v>
+      </c>
     </row>
     <row r="389" spans="1:6">
       <c r="A389" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B389" s="38" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="C389" s="43" t="s">
-        <v>566</v>
+        <v>640</v>
       </c>
       <c r="D389" s="38" t="s">
-        <v>567</v>
+        <v>1067</v>
       </c>
       <c r="E389" s="43"/>
       <c r="F389" s="38" t="s">
@@ -14908,13 +14923,13 @@
         <v>56</v>
       </c>
       <c r="B390" s="38" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="C390" s="43" t="s">
-        <v>640</v>
+        <v>607</v>
       </c>
       <c r="D390" s="38" t="s">
-        <v>1067</v>
+        <v>573</v>
       </c>
       <c r="E390" s="43"/>
       <c r="F390" s="38" t="s">
@@ -14926,15 +14941,15 @@
         <v>56</v>
       </c>
       <c r="B391" s="38" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="C391" s="43" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="D391" s="38" t="s">
-        <v>573</v>
-      </c>
-      <c r="E391" s="43"/>
+        <v>1065</v>
+      </c>
+      <c r="E391" s="38"/>
       <c r="F391" s="38" t="s">
         <v>1099</v>
       </c>
@@ -14944,13 +14959,13 @@
         <v>56</v>
       </c>
       <c r="B392" s="38" t="s">
-        <v>642</v>
-      </c>
-      <c r="C392" s="43" t="s">
-        <v>609</v>
+        <v>643</v>
+      </c>
+      <c r="C392" s="39" t="s">
+        <v>611</v>
       </c>
       <c r="D392" s="38" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="E392" s="38"/>
       <c r="F392" s="38" t="s">
@@ -14961,62 +14976,62 @@
       <c r="A393" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="B393" s="38" t="s">
-        <v>643</v>
-      </c>
-      <c r="C393" s="39" t="s">
-        <v>611</v>
-      </c>
-      <c r="D393" s="38" t="s">
-        <v>1063</v>
-      </c>
-      <c r="E393" s="38"/>
-      <c r="F393" s="38" t="s">
-        <v>1099</v>
-      </c>
+      <c r="B393" s="38">
+        <v>11.3</v>
+      </c>
+      <c r="C393" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="D393" s="40"/>
+      <c r="E393" s="40"/>
+      <c r="F393" s="40"/>
     </row>
     <row r="394" spans="1:6">
       <c r="A394" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="B394" s="38">
-        <v>11.3</v>
-      </c>
-      <c r="C394" s="37" t="s">
-        <v>45</v>
+      <c r="B394" s="38" t="s">
+        <v>644</v>
+      </c>
+      <c r="C394" s="40" t="s">
+        <v>42</v>
       </c>
       <c r="D394" s="40"/>
       <c r="E394" s="40"/>
       <c r="F394" s="40"/>
     </row>
-    <row r="395" spans="1:6">
+    <row r="395" spans="1:6" ht="45">
       <c r="A395" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B395" s="38" t="s">
-        <v>644</v>
-      </c>
-      <c r="C395" s="40" t="s">
-        <v>42</v>
-      </c>
-      <c r="D395" s="40"/>
-      <c r="E395" s="40"/>
-      <c r="F395" s="40"/>
-    </row>
-    <row r="396" spans="1:6" ht="45">
+        <v>645</v>
+      </c>
+      <c r="C395" s="43" t="s">
+        <v>646</v>
+      </c>
+      <c r="D395" s="38">
+        <v>78.3</v>
+      </c>
+      <c r="E395" s="43"/>
+      <c r="F395" s="38" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="396" spans="1:6">
       <c r="A396" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B396" s="38" t="s">
-        <v>645</v>
-      </c>
-      <c r="C396" s="43" t="s">
-        <v>646</v>
-      </c>
-      <c r="D396" s="38">
-        <v>78.3</v>
-      </c>
-      <c r="E396" s="43"/>
+        <v>647</v>
+      </c>
+      <c r="C396" s="38" t="s">
+        <v>648</v>
+      </c>
+      <c r="D396" s="38" t="s">
+        <v>997</v>
+      </c>
+      <c r="E396" s="38"/>
       <c r="F396" s="38" t="s">
         <v>1100</v>
       </c>
@@ -15026,15 +15041,15 @@
         <v>56</v>
       </c>
       <c r="B397" s="38" t="s">
-        <v>647</v>
-      </c>
-      <c r="C397" s="38" t="s">
-        <v>648</v>
-      </c>
-      <c r="D397" s="38" t="s">
-        <v>997</v>
-      </c>
-      <c r="E397" s="38"/>
+        <v>649</v>
+      </c>
+      <c r="C397" s="43" t="s">
+        <v>650</v>
+      </c>
+      <c r="D397" s="38">
+        <v>78.099999999999994</v>
+      </c>
+      <c r="E397" s="43"/>
       <c r="F397" s="38" t="s">
         <v>1100</v>
       </c>
@@ -15044,28 +15059,24 @@
         <v>56</v>
       </c>
       <c r="B398" s="38" t="s">
-        <v>649</v>
-      </c>
-      <c r="C398" s="43" t="s">
-        <v>650</v>
-      </c>
-      <c r="D398" s="38">
-        <v>78.099999999999994</v>
-      </c>
-      <c r="E398" s="43"/>
-      <c r="F398" s="38" t="s">
-        <v>1100</v>
-      </c>
+        <v>651</v>
+      </c>
+      <c r="C398" s="40" t="s">
+        <v>43</v>
+      </c>
+      <c r="D398" s="40"/>
+      <c r="E398" s="40"/>
+      <c r="F398" s="40"/>
     </row>
     <row r="399" spans="1:6">
       <c r="A399" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B399" s="38" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="C399" s="40" t="s">
-        <v>43</v>
+        <v>619</v>
       </c>
       <c r="D399" s="40"/>
       <c r="E399" s="40"/>
@@ -15076,27 +15087,31 @@
         <v>56</v>
       </c>
       <c r="B400" s="38" t="s">
-        <v>652</v>
-      </c>
-      <c r="C400" s="40" t="s">
-        <v>619</v>
-      </c>
-      <c r="D400" s="40"/>
-      <c r="E400" s="40"/>
-      <c r="F400" s="40"/>
+        <v>653</v>
+      </c>
+      <c r="C400" s="43" t="s">
+        <v>654</v>
+      </c>
+      <c r="D400" s="38" t="s">
+        <v>1037</v>
+      </c>
+      <c r="E400" s="43"/>
+      <c r="F400" s="38" t="s">
+        <v>1100</v>
+      </c>
     </row>
     <row r="401" spans="1:6">
       <c r="A401" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B401" s="38" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="C401" s="43" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="D401" s="38" t="s">
-        <v>1037</v>
+        <v>657</v>
       </c>
       <c r="E401" s="43"/>
       <c r="F401" s="38" t="s">
@@ -15108,119 +15123,119 @@
         <v>56</v>
       </c>
       <c r="B402" s="38" t="s">
-        <v>655</v>
+        <v>658</v>
       </c>
       <c r="C402" s="43" t="s">
-        <v>656</v>
+        <v>659</v>
       </c>
       <c r="D402" s="38" t="s">
-        <v>657</v>
+        <v>556</v>
       </c>
       <c r="E402" s="43"/>
       <c r="F402" s="38" t="s">
         <v>1100</v>
       </c>
     </row>
-    <row r="403" spans="1:6">
+    <row r="403" spans="1:6" ht="30">
       <c r="A403" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B403" s="38" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="C403" s="43" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="D403" s="38" t="s">
-        <v>556</v>
+        <v>579</v>
       </c>
       <c r="E403" s="43"/>
       <c r="F403" s="38" t="s">
         <v>1100</v>
       </c>
     </row>
-    <row r="404" spans="1:6" ht="30">
+    <row r="404" spans="1:6">
       <c r="A404" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B404" s="38" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="C404" s="43" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="D404" s="38" t="s">
-        <v>579</v>
+        <v>594</v>
       </c>
       <c r="E404" s="43"/>
       <c r="F404" s="38" t="s">
         <v>1100</v>
       </c>
     </row>
-    <row r="405" spans="1:6">
+    <row r="405" spans="1:6" ht="30">
       <c r="A405" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B405" s="38" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="C405" s="43" t="s">
-        <v>663</v>
+        <v>633</v>
       </c>
       <c r="D405" s="38" t="s">
-        <v>594</v>
+        <v>562</v>
       </c>
       <c r="E405" s="43"/>
       <c r="F405" s="38" t="s">
         <v>1100</v>
       </c>
     </row>
-    <row r="406" spans="1:6" ht="30">
+    <row r="406" spans="1:6">
       <c r="A406" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B406" s="38" t="s">
-        <v>664</v>
-      </c>
-      <c r="C406" s="43" t="s">
-        <v>633</v>
-      </c>
-      <c r="D406" s="38" t="s">
-        <v>562</v>
-      </c>
-      <c r="E406" s="43"/>
-      <c r="F406" s="38" t="s">
-        <v>1100</v>
-      </c>
+        <v>665</v>
+      </c>
+      <c r="C406" s="40" t="s">
+        <v>596</v>
+      </c>
+      <c r="D406" s="40"/>
+      <c r="E406" s="40"/>
+      <c r="F406" s="40"/>
     </row>
     <row r="407" spans="1:6">
       <c r="A407" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B407" s="38" t="s">
-        <v>665</v>
-      </c>
-      <c r="C407" s="40" t="s">
-        <v>596</v>
-      </c>
-      <c r="D407" s="40"/>
-      <c r="E407" s="40"/>
-      <c r="F407" s="40"/>
+        <v>666</v>
+      </c>
+      <c r="C407" s="43" t="s">
+        <v>598</v>
+      </c>
+      <c r="D407" s="38" t="s">
+        <v>573</v>
+      </c>
+      <c r="E407" s="43"/>
+      <c r="F407" s="38" t="s">
+        <v>1100</v>
+      </c>
     </row>
     <row r="408" spans="1:6">
       <c r="A408" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B408" s="38" t="s">
-        <v>666</v>
-      </c>
-      <c r="C408" s="43" t="s">
-        <v>598</v>
-      </c>
-      <c r="D408" s="38" t="s">
-        <v>573</v>
-      </c>
-      <c r="E408" s="43"/>
+        <v>667</v>
+      </c>
+      <c r="C408" s="39" t="s">
+        <v>600</v>
+      </c>
+      <c r="D408" s="39" t="s">
+        <v>1062</v>
+      </c>
+      <c r="E408" s="38"/>
       <c r="F408" s="38" t="s">
         <v>1100</v>
       </c>
@@ -15230,45 +15245,45 @@
         <v>56</v>
       </c>
       <c r="B409" s="38" t="s">
-        <v>667</v>
-      </c>
-      <c r="C409" s="39" t="s">
-        <v>600</v>
-      </c>
-      <c r="D409" s="39" t="s">
-        <v>1062</v>
-      </c>
-      <c r="E409" s="38"/>
-      <c r="F409" s="38" t="s">
-        <v>1100</v>
-      </c>
+        <v>668</v>
+      </c>
+      <c r="C409" s="40" t="s">
+        <v>602</v>
+      </c>
+      <c r="D409" s="40"/>
+      <c r="E409" s="40"/>
+      <c r="F409" s="40"/>
     </row>
     <row r="410" spans="1:6">
       <c r="A410" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B410" s="38" t="s">
-        <v>668</v>
-      </c>
-      <c r="C410" s="40" t="s">
-        <v>602</v>
-      </c>
-      <c r="D410" s="40"/>
-      <c r="E410" s="40"/>
-      <c r="F410" s="40"/>
+        <v>669</v>
+      </c>
+      <c r="C410" s="43" t="s">
+        <v>566</v>
+      </c>
+      <c r="D410" s="38" t="s">
+        <v>567</v>
+      </c>
+      <c r="E410" s="43"/>
+      <c r="F410" s="38" t="s">
+        <v>1100</v>
+      </c>
     </row>
     <row r="411" spans="1:6">
       <c r="A411" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B411" s="38" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="C411" s="43" t="s">
-        <v>566</v>
+        <v>640</v>
       </c>
       <c r="D411" s="38" t="s">
-        <v>567</v>
+        <v>1067</v>
       </c>
       <c r="E411" s="43"/>
       <c r="F411" s="38" t="s">
@@ -15280,13 +15295,13 @@
         <v>56</v>
       </c>
       <c r="B412" s="38" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="C412" s="43" t="s">
-        <v>640</v>
+        <v>607</v>
       </c>
       <c r="D412" s="38" t="s">
-        <v>1067</v>
+        <v>573</v>
       </c>
       <c r="E412" s="43"/>
       <c r="F412" s="38" t="s">
@@ -15298,15 +15313,15 @@
         <v>56</v>
       </c>
       <c r="B413" s="38" t="s">
-        <v>671</v>
-      </c>
-      <c r="C413" s="43" t="s">
-        <v>607</v>
+        <v>672</v>
+      </c>
+      <c r="C413" s="38" t="s">
+        <v>609</v>
       </c>
       <c r="D413" s="38" t="s">
-        <v>573</v>
-      </c>
-      <c r="E413" s="43"/>
+        <v>1065</v>
+      </c>
+      <c r="E413" s="38"/>
       <c r="F413" s="38" t="s">
         <v>1100</v>
       </c>
@@ -15316,13 +15331,13 @@
         <v>56</v>
       </c>
       <c r="B414" s="38" t="s">
-        <v>672</v>
-      </c>
-      <c r="C414" s="38" t="s">
-        <v>609</v>
+        <v>673</v>
+      </c>
+      <c r="C414" s="39" t="s">
+        <v>611</v>
       </c>
       <c r="D414" s="38" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="E414" s="38"/>
       <c r="F414" s="38" t="s">
@@ -15333,60 +15348,60 @@
       <c r="A415" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="B415" s="38" t="s">
-        <v>673</v>
-      </c>
-      <c r="C415" s="39" t="s">
-        <v>611</v>
-      </c>
-      <c r="D415" s="38" t="s">
-        <v>1063</v>
-      </c>
-      <c r="E415" s="38"/>
-      <c r="F415" s="38" t="s">
-        <v>1100</v>
-      </c>
+      <c r="B415" s="38">
+        <v>11.4</v>
+      </c>
+      <c r="C415" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="D415" s="40"/>
+      <c r="E415" s="40"/>
+      <c r="F415" s="40"/>
     </row>
     <row r="416" spans="1:6">
       <c r="A416" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="B416" s="38">
-        <v>11.4</v>
-      </c>
-      <c r="C416" s="37" t="s">
-        <v>46</v>
+      <c r="B416" s="38" t="s">
+        <v>674</v>
+      </c>
+      <c r="C416" s="40" t="s">
+        <v>42</v>
       </c>
       <c r="D416" s="40"/>
       <c r="E416" s="40"/>
       <c r="F416" s="40"/>
     </row>
-    <row r="417" spans="1:6">
+    <row r="417" spans="1:6" ht="45">
       <c r="A417" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B417" s="38" t="s">
-        <v>674</v>
-      </c>
-      <c r="C417" s="40" t="s">
-        <v>42</v>
-      </c>
-      <c r="D417" s="40"/>
-      <c r="E417" s="40"/>
-      <c r="F417" s="40"/>
-    </row>
-    <row r="418" spans="1:6" ht="45">
+        <v>675</v>
+      </c>
+      <c r="C417" s="43" t="s">
+        <v>646</v>
+      </c>
+      <c r="D417" s="38">
+        <v>78.3</v>
+      </c>
+      <c r="E417" s="43"/>
+      <c r="F417" s="38" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="418" spans="1:6">
       <c r="A418" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B418" s="38" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="C418" s="43" t="s">
-        <v>646</v>
+        <v>677</v>
       </c>
       <c r="D418" s="38">
-        <v>78.3</v>
+        <v>78.099999999999994</v>
       </c>
       <c r="E418" s="43"/>
       <c r="F418" s="38" t="s">
@@ -15398,10 +15413,10 @@
         <v>56</v>
       </c>
       <c r="B419" s="38" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="C419" s="43" t="s">
-        <v>677</v>
+        <v>650</v>
       </c>
       <c r="D419" s="38">
         <v>78.099999999999994</v>
@@ -15416,28 +15431,24 @@
         <v>56</v>
       </c>
       <c r="B420" s="38" t="s">
-        <v>678</v>
-      </c>
-      <c r="C420" s="43" t="s">
-        <v>650</v>
-      </c>
-      <c r="D420" s="38">
-        <v>78.099999999999994</v>
-      </c>
-      <c r="E420" s="43"/>
-      <c r="F420" s="38" t="s">
-        <v>1101</v>
-      </c>
+        <v>679</v>
+      </c>
+      <c r="C420" s="40" t="s">
+        <v>43</v>
+      </c>
+      <c r="D420" s="40"/>
+      <c r="E420" s="40"/>
+      <c r="F420" s="40"/>
     </row>
     <row r="421" spans="1:6">
       <c r="A421" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B421" s="38" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="C421" s="40" t="s">
-        <v>43</v>
+        <v>619</v>
       </c>
       <c r="D421" s="40"/>
       <c r="E421" s="40"/>
@@ -15448,29 +15459,33 @@
         <v>56</v>
       </c>
       <c r="B422" s="38" t="s">
-        <v>680</v>
-      </c>
-      <c r="C422" s="40" t="s">
-        <v>619</v>
-      </c>
-      <c r="D422" s="40"/>
-      <c r="E422" s="40"/>
-      <c r="F422" s="40"/>
+        <v>681</v>
+      </c>
+      <c r="C422" s="38" t="s">
+        <v>621</v>
+      </c>
+      <c r="D422" s="38" t="s">
+        <v>622</v>
+      </c>
+      <c r="E422" s="38"/>
+      <c r="F422" s="38" t="s">
+        <v>1101</v>
+      </c>
     </row>
     <row r="423" spans="1:6">
       <c r="A423" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B423" s="38" t="s">
-        <v>681</v>
-      </c>
-      <c r="C423" s="38" t="s">
-        <v>621</v>
+        <v>682</v>
+      </c>
+      <c r="C423" s="43" t="s">
+        <v>683</v>
       </c>
       <c r="D423" s="38" t="s">
-        <v>622</v>
-      </c>
-      <c r="E423" s="38"/>
+        <v>553</v>
+      </c>
+      <c r="E423" s="43"/>
       <c r="F423" s="38" t="s">
         <v>1101</v>
       </c>
@@ -15480,13 +15495,13 @@
         <v>56</v>
       </c>
       <c r="B424" s="38" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="C424" s="43" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="D424" s="38" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="E424" s="43"/>
       <c r="F424" s="38" t="s">
@@ -15498,15 +15513,15 @@
         <v>56</v>
       </c>
       <c r="B425" s="38" t="s">
-        <v>684</v>
-      </c>
-      <c r="C425" s="43" t="s">
-        <v>685</v>
+        <v>686</v>
+      </c>
+      <c r="C425" s="38" t="s">
+        <v>687</v>
       </c>
       <c r="D425" s="38" t="s">
-        <v>556</v>
-      </c>
-      <c r="E425" s="43"/>
+        <v>562</v>
+      </c>
+      <c r="E425" s="38"/>
       <c r="F425" s="38" t="s">
         <v>1101</v>
       </c>
@@ -15516,45 +15531,45 @@
         <v>56</v>
       </c>
       <c r="B426" s="38" t="s">
-        <v>686</v>
-      </c>
-      <c r="C426" s="38" t="s">
-        <v>687</v>
-      </c>
-      <c r="D426" s="38" t="s">
-        <v>562</v>
-      </c>
-      <c r="E426" s="38"/>
-      <c r="F426" s="38" t="s">
-        <v>1101</v>
-      </c>
+        <v>688</v>
+      </c>
+      <c r="C426" s="40" t="s">
+        <v>689</v>
+      </c>
+      <c r="D426" s="40"/>
+      <c r="E426" s="40"/>
+      <c r="F426" s="40"/>
     </row>
     <row r="427" spans="1:6">
       <c r="A427" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B427" s="38" t="s">
-        <v>688</v>
-      </c>
-      <c r="C427" s="40" t="s">
-        <v>689</v>
-      </c>
-      <c r="D427" s="40"/>
-      <c r="E427" s="40"/>
-      <c r="F427" s="40"/>
+        <v>690</v>
+      </c>
+      <c r="C427" s="38" t="s">
+        <v>1244</v>
+      </c>
+      <c r="D427" s="38" t="s">
+        <v>692</v>
+      </c>
+      <c r="E427" s="38"/>
+      <c r="F427" s="38" t="s">
+        <v>1101</v>
+      </c>
     </row>
     <row r="428" spans="1:6">
       <c r="A428" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B428" s="38" t="s">
-        <v>690</v>
+        <v>693</v>
       </c>
       <c r="C428" s="38" t="s">
-        <v>1244</v>
-      </c>
-      <c r="D428" s="38" t="s">
-        <v>692</v>
+        <v>1242</v>
+      </c>
+      <c r="D428" s="39" t="s">
+        <v>695</v>
       </c>
       <c r="E428" s="38"/>
       <c r="F428" s="38" t="s">
@@ -15566,10 +15581,10 @@
         <v>56</v>
       </c>
       <c r="B429" s="38" t="s">
-        <v>693</v>
+        <v>696</v>
       </c>
       <c r="C429" s="38" t="s">
-        <v>1242</v>
+        <v>697</v>
       </c>
       <c r="D429" s="39" t="s">
         <v>695</v>
@@ -15584,45 +15599,45 @@
         <v>56</v>
       </c>
       <c r="B430" s="38" t="s">
-        <v>696</v>
-      </c>
-      <c r="C430" s="38" t="s">
-        <v>697</v>
-      </c>
-      <c r="D430" s="39" t="s">
-        <v>695</v>
-      </c>
-      <c r="E430" s="38"/>
-      <c r="F430" s="38" t="s">
-        <v>1101</v>
-      </c>
+        <v>698</v>
+      </c>
+      <c r="C430" s="40" t="s">
+        <v>602</v>
+      </c>
+      <c r="D430" s="40"/>
+      <c r="E430" s="40"/>
+      <c r="F430" s="40"/>
     </row>
     <row r="431" spans="1:6">
       <c r="A431" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B431" s="38" t="s">
-        <v>698</v>
-      </c>
-      <c r="C431" s="40" t="s">
-        <v>602</v>
-      </c>
-      <c r="D431" s="40"/>
-      <c r="E431" s="40"/>
-      <c r="F431" s="40"/>
+        <v>699</v>
+      </c>
+      <c r="C431" s="43" t="s">
+        <v>566</v>
+      </c>
+      <c r="D431" s="39" t="s">
+        <v>567</v>
+      </c>
+      <c r="E431" s="43"/>
+      <c r="F431" s="38" t="s">
+        <v>1101</v>
+      </c>
     </row>
     <row r="432" spans="1:6">
       <c r="A432" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B432" s="38" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="C432" s="43" t="s">
-        <v>566</v>
+        <v>701</v>
       </c>
       <c r="D432" s="39" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
       <c r="E432" s="43"/>
       <c r="F432" s="38" t="s">
@@ -15634,13 +15649,13 @@
         <v>56</v>
       </c>
       <c r="B433" s="38" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="C433" s="43" t="s">
-        <v>701</v>
+        <v>607</v>
       </c>
       <c r="D433" s="39" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
       <c r="E433" s="43"/>
       <c r="F433" s="38" t="s">
@@ -15652,15 +15667,15 @@
         <v>56</v>
       </c>
       <c r="B434" s="38" t="s">
-        <v>702</v>
-      </c>
-      <c r="C434" s="43" t="s">
-        <v>607</v>
+        <v>703</v>
+      </c>
+      <c r="C434" s="38" t="s">
+        <v>609</v>
       </c>
       <c r="D434" s="39" t="s">
         <v>573</v>
       </c>
-      <c r="E434" s="43"/>
+      <c r="E434" s="38"/>
       <c r="F434" s="38" t="s">
         <v>1101</v>
       </c>
@@ -15670,99 +15685,99 @@
         <v>56</v>
       </c>
       <c r="B435" s="38" t="s">
-        <v>703</v>
-      </c>
-      <c r="C435" s="38" t="s">
-        <v>609</v>
+        <v>704</v>
+      </c>
+      <c r="C435" s="43" t="s">
+        <v>575</v>
       </c>
       <c r="D435" s="39" t="s">
-        <v>573</v>
-      </c>
-      <c r="E435" s="38"/>
+        <v>576</v>
+      </c>
+      <c r="E435" s="43"/>
       <c r="F435" s="38" t="s">
         <v>1101</v>
       </c>
     </row>
-    <row r="436" spans="1:6">
+    <row r="436" spans="1:6" ht="30">
       <c r="A436" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B436" s="38" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="C436" s="43" t="s">
-        <v>575</v>
+        <v>661</v>
       </c>
       <c r="D436" s="39" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
       <c r="E436" s="43"/>
       <c r="F436" s="38" t="s">
         <v>1101</v>
       </c>
     </row>
-    <row r="437" spans="1:6" ht="30">
+    <row r="437" spans="1:6">
       <c r="A437" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B437" s="38" t="s">
-        <v>705</v>
-      </c>
-      <c r="C437" s="43" t="s">
-        <v>661</v>
-      </c>
-      <c r="D437" s="39" t="s">
-        <v>579</v>
-      </c>
-      <c r="E437" s="43"/>
-      <c r="F437" s="38" t="s">
+        <v>706</v>
+      </c>
+      <c r="C437" s="40" t="s">
+        <v>581</v>
+      </c>
+      <c r="D437" s="40"/>
+      <c r="E437" s="40"/>
+      <c r="F437" s="40"/>
+    </row>
+    <row r="438" spans="1:6" ht="45">
+      <c r="A438" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="B438" s="38" t="s">
+        <v>707</v>
+      </c>
+      <c r="C438" s="43" t="s">
+        <v>584</v>
+      </c>
+      <c r="D438" s="39" t="s">
+        <v>582</v>
+      </c>
+      <c r="E438" s="43"/>
+      <c r="F438" s="38" t="s">
         <v>1101</v>
       </c>
     </row>
-    <row r="438" spans="1:6">
-      <c r="A438" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="B438" s="38" t="s">
-        <v>706</v>
-      </c>
-      <c r="C438" s="40" t="s">
-        <v>581</v>
-      </c>
-      <c r="D438" s="40"/>
-      <c r="E438" s="40"/>
-      <c r="F438" s="40"/>
-    </row>
-    <row r="439" spans="1:6" ht="45">
+    <row r="439" spans="1:6" ht="30">
       <c r="A439" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B439" s="38" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="C439" s="43" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="D439" s="39" t="s">
-        <v>582</v>
+        <v>1269</v>
       </c>
       <c r="E439" s="43"/>
       <c r="F439" s="38" t="s">
         <v>1101</v>
       </c>
     </row>
-    <row r="440" spans="1:6" ht="30">
+    <row r="440" spans="1:6">
       <c r="A440" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B440" s="38" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="C440" s="43" t="s">
-        <v>586</v>
+        <v>710</v>
       </c>
       <c r="D440" s="39" t="s">
-        <v>582</v>
+        <v>1271</v>
       </c>
       <c r="E440" s="43"/>
       <c r="F440" s="38" t="s">
@@ -15774,13 +15789,13 @@
         <v>56</v>
       </c>
       <c r="B441" s="38" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="C441" s="43" t="s">
-        <v>710</v>
-      </c>
-      <c r="D441" s="39" t="s">
-        <v>582</v>
+        <v>663</v>
+      </c>
+      <c r="D441" s="38" t="s">
+        <v>594</v>
       </c>
       <c r="E441" s="43"/>
       <c r="F441" s="38" t="s">
@@ -15792,47 +15807,47 @@
         <v>56</v>
       </c>
       <c r="B442" s="38" t="s">
-        <v>711</v>
-      </c>
-      <c r="C442" s="43" t="s">
-        <v>663</v>
-      </c>
-      <c r="D442" s="38" t="s">
-        <v>594</v>
-      </c>
-      <c r="E442" s="43"/>
-      <c r="F442" s="38" t="s">
-        <v>1101</v>
-      </c>
+        <v>712</v>
+      </c>
+      <c r="C442" s="40" t="s">
+        <v>596</v>
+      </c>
+      <c r="D442" s="40"/>
+      <c r="E442" s="40"/>
+      <c r="F442" s="40"/>
     </row>
     <row r="443" spans="1:6">
       <c r="A443" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B443" s="38" t="s">
-        <v>712</v>
-      </c>
-      <c r="C443" s="40" t="s">
-        <v>596</v>
-      </c>
-      <c r="D443" s="40"/>
-      <c r="E443" s="40"/>
-      <c r="F443" s="40"/>
+        <v>713</v>
+      </c>
+      <c r="C443" s="43" t="s">
+        <v>598</v>
+      </c>
+      <c r="D443" s="38" t="s">
+        <v>573</v>
+      </c>
+      <c r="E443" s="43"/>
+      <c r="F443" s="38" t="s">
+        <v>1101</v>
+      </c>
     </row>
     <row r="444" spans="1:6">
       <c r="A444" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B444" s="38" t="s">
-        <v>713</v>
-      </c>
-      <c r="C444" s="43" t="s">
-        <v>598</v>
-      </c>
-      <c r="D444" s="38" t="s">
-        <v>573</v>
-      </c>
-      <c r="E444" s="43"/>
+        <v>714</v>
+      </c>
+      <c r="C444" s="39" t="s">
+        <v>600</v>
+      </c>
+      <c r="D444" s="39" t="s">
+        <v>1062</v>
+      </c>
+      <c r="E444" s="38"/>
       <c r="F444" s="38" t="s">
         <v>1101</v>
       </c>
@@ -15842,74 +15857,70 @@
         <v>56</v>
       </c>
       <c r="B445" s="38" t="s">
-        <v>714</v>
-      </c>
-      <c r="C445" s="39" t="s">
-        <v>600</v>
-      </c>
-      <c r="D445" s="39" t="s">
-        <v>1062</v>
-      </c>
-      <c r="E445" s="38"/>
-      <c r="F445" s="38" t="s">
-        <v>1101</v>
-      </c>
+        <v>715</v>
+      </c>
+      <c r="C445" s="40" t="s">
+        <v>1072</v>
+      </c>
+      <c r="D445" s="40"/>
+      <c r="E445" s="40"/>
+      <c r="F445" s="40"/>
     </row>
     <row r="446" spans="1:6">
       <c r="A446" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B446" s="38" t="s">
-        <v>715</v>
-      </c>
-      <c r="C446" s="40" t="s">
-        <v>1072</v>
-      </c>
-      <c r="D446" s="40"/>
-      <c r="E446" s="40"/>
-      <c r="F446" s="40"/>
+        <v>720</v>
+      </c>
+      <c r="C446" s="39" t="s">
+        <v>611</v>
+      </c>
+      <c r="D446" s="38" t="s">
+        <v>1063</v>
+      </c>
+      <c r="E446" s="38"/>
+      <c r="F446" s="38" t="s">
+        <v>1101</v>
+      </c>
     </row>
     <row r="447" spans="1:6">
       <c r="A447" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="B447" s="38" t="s">
-        <v>720</v>
-      </c>
-      <c r="C447" s="39" t="s">
-        <v>611</v>
-      </c>
-      <c r="D447" s="38" t="s">
-        <v>1063</v>
-      </c>
-      <c r="E447" s="38"/>
-      <c r="F447" s="38" t="s">
-        <v>1101</v>
-      </c>
+      <c r="B447" s="38">
+        <v>11.5</v>
+      </c>
+      <c r="C447" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="D447" s="40"/>
+      <c r="E447" s="37"/>
+      <c r="F447" s="40"/>
     </row>
     <row r="448" spans="1:6">
       <c r="A448" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="B448" s="38">
-        <v>11.5</v>
-      </c>
-      <c r="C448" s="37" t="s">
-        <v>47</v>
-      </c>
-      <c r="D448" s="40"/>
-      <c r="E448" s="37"/>
-      <c r="F448" s="40"/>
+      <c r="B448" s="38" t="s">
+        <v>721</v>
+      </c>
+      <c r="C448" s="43" t="s">
+        <v>48</v>
+      </c>
+      <c r="D448" s="38"/>
+      <c r="E448" s="43"/>
+      <c r="F448" s="38"/>
     </row>
     <row r="449" spans="1:6">
       <c r="A449" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B449" s="38" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="C449" s="43" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="D449" s="38"/>
       <c r="E449" s="43"/>
@@ -15920,10 +15931,10 @@
         <v>56</v>
       </c>
       <c r="B450" s="38" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="C450" s="43" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D450" s="38"/>
       <c r="E450" s="43"/>
@@ -15933,39 +15944,39 @@
       <c r="A451" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="B451" s="38" t="s">
-        <v>723</v>
-      </c>
-      <c r="C451" s="43" t="s">
-        <v>43</v>
-      </c>
-      <c r="D451" s="38"/>
-      <c r="E451" s="43"/>
-      <c r="F451" s="38"/>
+      <c r="B451" s="38">
+        <v>11.6</v>
+      </c>
+      <c r="C451" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="D451" s="40"/>
+      <c r="E451" s="37"/>
+      <c r="F451" s="40"/>
     </row>
     <row r="452" spans="1:6">
       <c r="A452" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="B452" s="38">
-        <v>11.6</v>
-      </c>
-      <c r="C452" s="37" t="s">
-        <v>49</v>
-      </c>
-      <c r="D452" s="40"/>
-      <c r="E452" s="37"/>
-      <c r="F452" s="40"/>
+      <c r="B452" s="38" t="s">
+        <v>724</v>
+      </c>
+      <c r="C452" s="43" t="s">
+        <v>50</v>
+      </c>
+      <c r="D452" s="38"/>
+      <c r="E452" s="43"/>
+      <c r="F452" s="38"/>
     </row>
     <row r="453" spans="1:6">
       <c r="A453" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B453" s="38" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="C453" s="43" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="D453" s="38"/>
       <c r="E453" s="43"/>
@@ -15975,56 +15986,60 @@
       <c r="A454" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="B454" s="38" t="s">
-        <v>725</v>
-      </c>
-      <c r="C454" s="43" t="s">
-        <v>42</v>
-      </c>
-      <c r="D454" s="38"/>
-      <c r="E454" s="43"/>
-      <c r="F454" s="38"/>
+      <c r="B454" s="38">
+        <v>11.7</v>
+      </c>
+      <c r="C454" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="D454" s="40"/>
+      <c r="E454" s="37"/>
+      <c r="F454" s="40"/>
     </row>
     <row r="455" spans="1:6">
       <c r="A455" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="B455" s="38">
-        <v>11.7</v>
-      </c>
-      <c r="C455" s="37" t="s">
-        <v>51</v>
+      <c r="B455" s="38" t="s">
+        <v>726</v>
+      </c>
+      <c r="C455" s="40" t="s">
+        <v>42</v>
       </c>
       <c r="D455" s="40"/>
-      <c r="E455" s="37"/>
+      <c r="E455" s="40"/>
       <c r="F455" s="40"/>
     </row>
-    <row r="456" spans="1:6">
+    <row r="456" spans="1:6" ht="45">
       <c r="A456" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B456" s="38" t="s">
-        <v>726</v>
-      </c>
-      <c r="C456" s="40" t="s">
-        <v>42</v>
-      </c>
-      <c r="D456" s="40"/>
-      <c r="E456" s="40"/>
-      <c r="F456" s="40"/>
-    </row>
-    <row r="457" spans="1:6" ht="45">
+        <v>727</v>
+      </c>
+      <c r="C456" s="43" t="s">
+        <v>646</v>
+      </c>
+      <c r="D456" s="38">
+        <v>78.3</v>
+      </c>
+      <c r="E456" s="43"/>
+      <c r="F456" s="58" t="s">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="457" spans="1:6">
       <c r="A457" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B457" s="38" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="C457" s="43" t="s">
-        <v>646</v>
+        <v>677</v>
       </c>
       <c r="D457" s="38">
-        <v>78.3</v>
+        <v>78.099999999999994</v>
       </c>
       <c r="E457" s="43"/>
       <c r="F457" s="58" t="s">
@@ -16036,10 +16051,10 @@
         <v>56</v>
       </c>
       <c r="B458" s="38" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="C458" s="43" t="s">
-        <v>677</v>
+        <v>650</v>
       </c>
       <c r="D458" s="38">
         <v>78.099999999999994</v>
@@ -16054,28 +16069,24 @@
         <v>56</v>
       </c>
       <c r="B459" s="38" t="s">
-        <v>729</v>
-      </c>
-      <c r="C459" s="43" t="s">
-        <v>650</v>
-      </c>
-      <c r="D459" s="38">
-        <v>78.099999999999994</v>
-      </c>
-      <c r="E459" s="43"/>
-      <c r="F459" s="58" t="s">
-        <v>1094</v>
-      </c>
+        <v>730</v>
+      </c>
+      <c r="C459" s="40" t="s">
+        <v>43</v>
+      </c>
+      <c r="D459" s="40"/>
+      <c r="E459" s="40"/>
+      <c r="F459" s="40"/>
     </row>
     <row r="460" spans="1:6">
       <c r="A460" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B460" s="38" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="C460" s="40" t="s">
-        <v>43</v>
+        <v>619</v>
       </c>
       <c r="D460" s="40"/>
       <c r="E460" s="40"/>
@@ -16086,27 +16097,31 @@
         <v>56</v>
       </c>
       <c r="B461" s="38" t="s">
-        <v>731</v>
-      </c>
-      <c r="C461" s="40" t="s">
-        <v>619</v>
-      </c>
-      <c r="D461" s="40"/>
-      <c r="E461" s="40"/>
-      <c r="F461" s="40"/>
+        <v>732</v>
+      </c>
+      <c r="C461" s="43" t="s">
+        <v>733</v>
+      </c>
+      <c r="D461" s="38" t="s">
+        <v>553</v>
+      </c>
+      <c r="E461" s="43"/>
+      <c r="F461" s="58" t="s">
+        <v>1094</v>
+      </c>
     </row>
     <row r="462" spans="1:6">
       <c r="A462" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B462" s="38" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="C462" s="43" t="s">
-        <v>733</v>
+        <v>685</v>
       </c>
       <c r="D462" s="38" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="E462" s="43"/>
       <c r="F462" s="58" t="s">
@@ -16118,15 +16133,15 @@
         <v>56</v>
       </c>
       <c r="B463" s="38" t="s">
-        <v>734</v>
-      </c>
-      <c r="C463" s="43" t="s">
-        <v>685</v>
+        <v>735</v>
+      </c>
+      <c r="C463" s="39" t="s">
+        <v>736</v>
       </c>
       <c r="D463" s="38" t="s">
-        <v>556</v>
-      </c>
-      <c r="E463" s="43"/>
+        <v>1064</v>
+      </c>
+      <c r="E463" s="38"/>
       <c r="F463" s="58" t="s">
         <v>1094</v>
       </c>
@@ -16136,13 +16151,13 @@
         <v>56</v>
       </c>
       <c r="B464" s="38" t="s">
-        <v>735</v>
-      </c>
-      <c r="C464" s="39" t="s">
-        <v>736</v>
+        <v>737</v>
+      </c>
+      <c r="C464" s="38" t="s">
+        <v>738</v>
       </c>
       <c r="D464" s="38" t="s">
-        <v>1064</v>
+        <v>594</v>
       </c>
       <c r="E464" s="38"/>
       <c r="F464" s="58" t="s">
@@ -16154,47 +16169,47 @@
         <v>56</v>
       </c>
       <c r="B465" s="38" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="C465" s="38" t="s">
-        <v>738</v>
-      </c>
-      <c r="D465" s="38" t="s">
-        <v>594</v>
-      </c>
+        <v>1080</v>
+      </c>
+      <c r="D465" s="38"/>
       <c r="E465" s="38"/>
       <c r="F465" s="58" t="s">
         <v>1094</v>
       </c>
     </row>
-    <row r="466" spans="1:6">
+    <row r="466" spans="1:6" ht="30">
       <c r="A466" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B466" s="38" t="s">
-        <v>739</v>
+        <v>1081</v>
       </c>
       <c r="C466" s="38" t="s">
-        <v>1080</v>
-      </c>
-      <c r="D466" s="38"/>
+        <v>740</v>
+      </c>
+      <c r="D466" s="38" t="s">
+        <v>562</v>
+      </c>
       <c r="E466" s="38"/>
       <c r="F466" s="58" t="s">
         <v>1094</v>
       </c>
     </row>
-    <row r="467" spans="1:6" ht="30">
+    <row r="467" spans="1:6">
       <c r="A467" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B467" s="38" t="s">
-        <v>1081</v>
+        <v>1082</v>
       </c>
       <c r="C467" s="38" t="s">
-        <v>740</v>
+        <v>1079</v>
       </c>
       <c r="D467" s="38" t="s">
-        <v>562</v>
+        <v>695</v>
       </c>
       <c r="E467" s="38"/>
       <c r="F467" s="58" t="s">
@@ -16206,47 +16221,47 @@
         <v>56</v>
       </c>
       <c r="B468" s="38" t="s">
-        <v>1082</v>
-      </c>
-      <c r="C468" s="38" t="s">
-        <v>1079</v>
-      </c>
-      <c r="D468" s="38" t="s">
-        <v>695</v>
-      </c>
-      <c r="E468" s="38"/>
-      <c r="F468" s="58" t="s">
-        <v>1094</v>
-      </c>
+        <v>742</v>
+      </c>
+      <c r="C468" s="40" t="s">
+        <v>596</v>
+      </c>
+      <c r="D468" s="40"/>
+      <c r="E468" s="40"/>
+      <c r="F468" s="40"/>
     </row>
     <row r="469" spans="1:6">
       <c r="A469" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B469" s="38" t="s">
-        <v>742</v>
-      </c>
-      <c r="C469" s="40" t="s">
-        <v>596</v>
-      </c>
-      <c r="D469" s="40"/>
-      <c r="E469" s="40"/>
-      <c r="F469" s="40"/>
+        <v>743</v>
+      </c>
+      <c r="C469" s="43" t="s">
+        <v>598</v>
+      </c>
+      <c r="D469" s="38" t="s">
+        <v>573</v>
+      </c>
+      <c r="E469" s="43"/>
+      <c r="F469" s="58" t="s">
+        <v>1094</v>
+      </c>
     </row>
     <row r="470" spans="1:6">
       <c r="A470" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B470" s="38" t="s">
-        <v>743</v>
-      </c>
-      <c r="C470" s="43" t="s">
-        <v>598</v>
-      </c>
-      <c r="D470" s="38" t="s">
-        <v>573</v>
-      </c>
-      <c r="E470" s="43"/>
+        <v>744</v>
+      </c>
+      <c r="C470" s="39" t="s">
+        <v>600</v>
+      </c>
+      <c r="D470" s="39" t="s">
+        <v>1062</v>
+      </c>
+      <c r="E470" s="38"/>
       <c r="F470" s="58" t="s">
         <v>1094</v>
       </c>
@@ -16256,45 +16271,45 @@
         <v>56</v>
       </c>
       <c r="B471" s="38" t="s">
-        <v>744</v>
-      </c>
-      <c r="C471" s="39" t="s">
-        <v>600</v>
-      </c>
-      <c r="D471" s="39" t="s">
-        <v>1062</v>
-      </c>
-      <c r="E471" s="38"/>
-      <c r="F471" s="58" t="s">
-        <v>1094</v>
-      </c>
+        <v>745</v>
+      </c>
+      <c r="C471" s="40" t="s">
+        <v>602</v>
+      </c>
+      <c r="D471" s="40"/>
+      <c r="E471" s="40"/>
+      <c r="F471" s="40"/>
     </row>
     <row r="472" spans="1:6">
       <c r="A472" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B472" s="38" t="s">
-        <v>745</v>
-      </c>
-      <c r="C472" s="40" t="s">
-        <v>602</v>
-      </c>
-      <c r="D472" s="40"/>
-      <c r="E472" s="40"/>
-      <c r="F472" s="40"/>
+        <v>746</v>
+      </c>
+      <c r="C472" s="43" t="s">
+        <v>566</v>
+      </c>
+      <c r="D472" s="38" t="s">
+        <v>567</v>
+      </c>
+      <c r="E472" s="43"/>
+      <c r="F472" s="58" t="s">
+        <v>1094</v>
+      </c>
     </row>
     <row r="473" spans="1:6">
       <c r="A473" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B473" s="38" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="C473" s="43" t="s">
-        <v>566</v>
+        <v>640</v>
       </c>
       <c r="D473" s="38" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
       <c r="E473" s="43"/>
       <c r="F473" s="58" t="s">
@@ -16306,13 +16321,13 @@
         <v>56</v>
       </c>
       <c r="B474" s="38" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="C474" s="43" t="s">
-        <v>640</v>
+        <v>607</v>
       </c>
       <c r="D474" s="38" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
       <c r="E474" s="43"/>
       <c r="F474" s="58" t="s">
@@ -16324,15 +16339,15 @@
         <v>56</v>
       </c>
       <c r="B475" s="38" t="s">
-        <v>748</v>
-      </c>
-      <c r="C475" s="43" t="s">
-        <v>607</v>
+        <v>749</v>
+      </c>
+      <c r="C475" s="38" t="s">
+        <v>609</v>
       </c>
       <c r="D475" s="38" t="s">
-        <v>573</v>
-      </c>
-      <c r="E475" s="43"/>
+        <v>1065</v>
+      </c>
+      <c r="E475" s="38"/>
       <c r="F475" s="58" t="s">
         <v>1094</v>
       </c>
@@ -16342,34 +16357,16 @@
         <v>56</v>
       </c>
       <c r="B476" s="38" t="s">
-        <v>749</v>
-      </c>
-      <c r="C476" s="38" t="s">
-        <v>609</v>
+        <v>1268</v>
+      </c>
+      <c r="C476" s="39" t="s">
+        <v>611</v>
       </c>
       <c r="D476" s="38" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="E476" s="38"/>
       <c r="F476" s="58" t="s">
-        <v>1094</v>
-      </c>
-    </row>
-    <row r="477" spans="1:6">
-      <c r="A477" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="B477" s="38" t="s">
-        <v>1268</v>
-      </c>
-      <c r="C477" s="39" t="s">
-        <v>611</v>
-      </c>
-      <c r="D477" s="38" t="s">
-        <v>1063</v>
-      </c>
-      <c r="E477" s="38"/>
-      <c r="F477" s="58" t="s">
         <v>1094</v>
       </c>
     </row>
@@ -21306,10 +21303,10 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:IV27"/>
+  <dimension ref="A1:IV29"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="A28" sqref="A28:G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -22106,6 +22103,40 @@
       <c r="F27" s="30"/>
       <c r="G27" s="30"/>
     </row>
+    <row r="28" spans="1:7" ht="60">
+      <c r="A28" s="62" t="s">
+        <v>1269</v>
+      </c>
+      <c r="B28" s="62" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C28" s="62" t="s">
+        <v>1270</v>
+      </c>
+      <c r="D28" s="74" t="s">
+        <v>586</v>
+      </c>
+      <c r="E28" s="62"/>
+      <c r="F28" s="62"/>
+      <c r="G28" s="62"/>
+    </row>
+    <row r="29" spans="1:7" ht="30">
+      <c r="A29" s="88" t="s">
+        <v>1271</v>
+      </c>
+      <c r="B29" s="62" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C29" s="61" t="s">
+        <v>1272</v>
+      </c>
+      <c r="D29" s="58" t="s">
+        <v>588</v>
+      </c>
+      <c r="E29" s="62"/>
+      <c r="F29" s="62"/>
+      <c r="G29" s="62"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/conformancelib/testdata/PIV_Production_Cards.xlsx
+++ b/conformancelib/testdata/PIV_Production_Cards.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\GSA\GSA_GIT\piv-conformance-swing\conformancelib\testdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bob.fontana\Documents\GitRepos\piv-conformance\conformancelib\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{156DBB3F-6CD0-4048-9DD6-55D82C2D1F48}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBE2682A-E06B-479E-85A3-376E3704137A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3210" yWindow="1620" windowWidth="28410" windowHeight="14550" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SP 800-85B Reference" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3680" uniqueCount="1273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3681" uniqueCount="1275">
   <si>
     <t>BER_TLV_Test_Assertions</t>
   </si>
@@ -3851,6 +3851,12 @@
   </si>
   <si>
     <t>PKIX_Test_28</t>
+  </si>
+  <si>
+    <t>2.16.840.1.101.3.6.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.3.6.1.1.16.4</t>
   </si>
 </sst>
 </file>
@@ -8472,8 +8478,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:G476"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B417" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="D440" sqref="D440"/>
+    <sheetView tabSelected="1" topLeftCell="B421" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="C439" sqref="C439"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -16526,8 +16532,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:AMK55"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView showGridLines="0" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -20096,8 +20102,8 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:IV30"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView showGridLines="0" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -21306,7 +21312,7 @@
   <dimension ref="A1:IV29"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28:G29"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -21821,8 +21827,8 @@
       <c r="D13" s="30" t="s">
         <v>1028</v>
       </c>
-      <c r="E13" s="30" t="s">
-        <v>986</v>
+      <c r="E13" s="31" t="s">
+        <v>1273</v>
       </c>
       <c r="F13" s="30" t="s">
         <v>759</v>
@@ -22116,7 +22122,9 @@
       <c r="D28" s="74" t="s">
         <v>586</v>
       </c>
-      <c r="E28" s="62"/>
+      <c r="E28" s="62" t="s">
+        <v>1274</v>
+      </c>
       <c r="F28" s="62"/>
       <c r="G28" s="62"/>
     </row>

--- a/conformancelib/testdata/PIV_Production_Cards.xlsx
+++ b/conformancelib/testdata/PIV_Production_Cards.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bob.fontana\Documents\GitRepos\piv-conformance\conformancelib\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBE2682A-E06B-479E-85A3-376E3704137A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E3B8506-9EF5-4438-8195-75F16E69CED8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3210" yWindow="1620" windowWidth="28410" windowHeight="14550" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1140" yWindow="795" windowWidth="31020" windowHeight="14550" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SP 800-85B Reference" sheetId="1" r:id="rId1"/>
@@ -2838,9 +2838,6 @@
     <t>Verify that for the modality, the CBEFF Biometric Data Type encoding value shall be 128, 32, or 2 which corresponds to cardholder fingerprints, facial image, and iris.</t>
   </si>
   <si>
-    <t>CARDHOLDER_FINGERPRINTS_OID:128,CARDHOLDER_FACIAL_IMAGE_OID:32:2,CARDHOLDER_IRIS_IMAGES_OID:64</t>
-  </si>
-  <si>
     <t>76.43</t>
   </si>
   <si>
@@ -3857,6 +3854,9 @@
   </si>
   <si>
     <t xml:space="preserve"> 1.3.6.1.1.16.4</t>
+  </si>
+  <si>
+    <t>CARDHOLDER_FINGERPRINTS_OID:128,CARDHOLDER_FACIAL_IMAGE_OID:32,CARDHOLDER_IRIS_IMAGES_OID:64</t>
   </si>
 </sst>
 </file>
@@ -8478,8 +8478,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:G476"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B421" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="C439" sqref="C439"/>
+    <sheetView tabSelected="1" topLeftCell="B154" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="D173" sqref="D173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -8509,10 +8509,10 @@
         <v>55</v>
       </c>
       <c r="E1" s="77" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="F1" s="33" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="G1" s="47"/>
     </row>
@@ -8521,7 +8521,7 @@
         <v>56</v>
       </c>
       <c r="B2" s="35" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="C2" s="36" t="s">
         <v>0</v>
@@ -8549,10 +8549,10 @@
         <v>56</v>
       </c>
       <c r="B4" s="38" t="s">
+        <v>1200</v>
+      </c>
+      <c r="C4" s="37" t="s">
         <v>1201</v>
-      </c>
-      <c r="C4" s="37" t="s">
-        <v>1202</v>
       </c>
       <c r="D4" s="37"/>
       <c r="E4" s="37"/>
@@ -8573,7 +8573,7 @@
       </c>
       <c r="E5" s="38"/>
       <c r="F5" s="38" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -8591,7 +8591,7 @@
       </c>
       <c r="E6" s="38"/>
       <c r="F6" s="38" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -8609,7 +8609,7 @@
       </c>
       <c r="E7" s="38"/>
       <c r="F7" s="38" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -8627,7 +8627,7 @@
       </c>
       <c r="E8" s="38"/>
       <c r="F8" s="38" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -8645,7 +8645,7 @@
       </c>
       <c r="E9" s="38"/>
       <c r="F9" s="38" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -8663,7 +8663,7 @@
       </c>
       <c r="E10" s="38"/>
       <c r="F10" s="38" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="30">
@@ -8681,7 +8681,7 @@
       </c>
       <c r="E11" s="38"/>
       <c r="F11" s="38" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="30">
@@ -8699,7 +8699,7 @@
       </c>
       <c r="E12" s="38"/>
       <c r="F12" s="38" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -8717,7 +8717,7 @@
       </c>
       <c r="E13" s="38"/>
       <c r="F13" s="38" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -8735,7 +8735,7 @@
       </c>
       <c r="E14" s="38"/>
       <c r="F14" s="38" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -8753,7 +8753,7 @@
       </c>
       <c r="E15" s="38"/>
       <c r="F15" s="38" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -8775,10 +8775,10 @@
         <v>56</v>
       </c>
       <c r="B17" s="38" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="C17" s="37" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="D17" s="37"/>
       <c r="E17" s="37"/>
@@ -8799,7 +8799,7 @@
       </c>
       <c r="E18" s="38"/>
       <c r="F18" s="38" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -8817,7 +8817,7 @@
       </c>
       <c r="E19" s="38"/>
       <c r="F19" s="38" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -8835,7 +8835,7 @@
       </c>
       <c r="E20" s="38"/>
       <c r="F20" s="38" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -8853,7 +8853,7 @@
       </c>
       <c r="E21" s="38"/>
       <c r="F21" s="38" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -8871,7 +8871,7 @@
       </c>
       <c r="E22" s="38"/>
       <c r="F22" s="38" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -8882,14 +8882,14 @@
         <v>98</v>
       </c>
       <c r="C23" s="38" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="D23" s="38" t="s">
         <v>100</v>
       </c>
       <c r="E23" s="38"/>
       <c r="F23" s="38" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="24" spans="1:7" s="69" customFormat="1">
@@ -8900,14 +8900,14 @@
         <v>101</v>
       </c>
       <c r="C24" s="76" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="D24" s="76" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="E24" s="76"/>
       <c r="F24" s="76" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="G24" s="68"/>
     </row>
@@ -8926,7 +8926,7 @@
       </c>
       <c r="E25" s="39"/>
       <c r="F25" s="39" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="G25" s="68"/>
     </row>
@@ -8938,14 +8938,14 @@
         <v>107</v>
       </c>
       <c r="C26" s="39" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="D26" s="39" t="s">
         <v>106</v>
       </c>
       <c r="E26" s="39"/>
       <c r="F26" s="39" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="G26" s="68"/>
     </row>
@@ -8957,14 +8957,14 @@
         <v>110</v>
       </c>
       <c r="C27" s="76" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="D27" s="76" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="E27" s="76"/>
       <c r="F27" s="76" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="G27" s="68"/>
     </row>
@@ -8976,14 +8976,14 @@
         <v>113</v>
       </c>
       <c r="C28" s="76" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="D28" s="76" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="E28" s="76"/>
       <c r="F28" s="76" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="G28" s="68"/>
     </row>
@@ -8992,34 +8992,34 @@
         <v>56</v>
       </c>
       <c r="B29" s="76" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="C29" s="76" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="D29" s="76" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="E29" s="76"/>
       <c r="F29" s="76" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="G29" s="68"/>
     </row>
     <row r="30" spans="1:7" s="69" customFormat="1">
       <c r="A30" s="76"/>
       <c r="B30" s="76" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="C30" s="76" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="D30" s="76" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="E30" s="76"/>
       <c r="F30" s="76" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="G30" s="68"/>
     </row>
@@ -9028,17 +9028,17 @@
         <v>56</v>
       </c>
       <c r="B31" s="39" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="C31" s="39" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="D31" s="39" t="s">
         <v>109</v>
       </c>
       <c r="E31" s="39"/>
       <c r="F31" s="39" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="G31" s="68"/>
     </row>
@@ -9047,7 +9047,7 @@
         <v>56</v>
       </c>
       <c r="B32" s="39" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="C32" s="39" t="s">
         <v>111</v>
@@ -9057,7 +9057,7 @@
       </c>
       <c r="E32" s="39"/>
       <c r="F32" s="39" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="G32" s="68"/>
     </row>
@@ -9066,17 +9066,17 @@
         <v>56</v>
       </c>
       <c r="B33" s="76" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="C33" s="76" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="D33" s="76" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="E33" s="76"/>
       <c r="F33" s="76" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="G33" s="68"/>
     </row>
@@ -9085,17 +9085,17 @@
         <v>56</v>
       </c>
       <c r="B34" s="76" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="C34" s="76" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="D34" s="76" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="E34" s="76"/>
       <c r="F34" s="76" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="G34" s="68"/>
     </row>
@@ -9104,17 +9104,17 @@
         <v>56</v>
       </c>
       <c r="B35" s="76" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="C35" s="76" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="D35" s="76" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="E35" s="76"/>
       <c r="F35" s="76" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="G35" s="68"/>
     </row>
@@ -9123,17 +9123,17 @@
         <v>56</v>
       </c>
       <c r="B36" s="76" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="C36" s="76" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="D36" s="76" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="E36" s="76"/>
       <c r="F36" s="76" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="G36" s="68"/>
     </row>
@@ -9142,7 +9142,7 @@
         <v>56</v>
       </c>
       <c r="B37" s="38" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="C37" s="38" t="s">
         <v>114</v>
@@ -9152,7 +9152,7 @@
       </c>
       <c r="E37" s="38"/>
       <c r="F37" s="38" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -9170,7 +9170,7 @@
       </c>
       <c r="E38" s="38"/>
       <c r="F38" s="38" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -9188,7 +9188,7 @@
       </c>
       <c r="E39" s="38"/>
       <c r="F39" s="38" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="30">
@@ -9206,7 +9206,7 @@
       </c>
       <c r="E40" s="38"/>
       <c r="F40" s="38" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -9224,7 +9224,7 @@
       </c>
       <c r="E41" s="38"/>
       <c r="F41" s="38" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -9232,7 +9232,7 @@
         <v>127</v>
       </c>
       <c r="B42" s="38" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="C42" s="38" t="s">
         <v>129</v>
@@ -9242,7 +9242,7 @@
       </c>
       <c r="E42" s="38"/>
       <c r="F42" s="38" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -9264,10 +9264,10 @@
         <v>56</v>
       </c>
       <c r="B44" s="38" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="C44" s="37" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="D44" s="37"/>
       <c r="E44" s="37"/>
@@ -9288,7 +9288,7 @@
       </c>
       <c r="E45" s="38"/>
       <c r="F45" s="38" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -9306,7 +9306,7 @@
       </c>
       <c r="E46" s="38"/>
       <c r="F46" s="38" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -9324,7 +9324,7 @@
       </c>
       <c r="E47" s="38"/>
       <c r="F47" s="38" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -9342,7 +9342,7 @@
       </c>
       <c r="E48" s="38"/>
       <c r="F48" s="38" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -9356,11 +9356,11 @@
         <v>136</v>
       </c>
       <c r="D49" s="38" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="E49" s="38"/>
       <c r="F49" s="38" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -9378,7 +9378,7 @@
       </c>
       <c r="E50" s="38"/>
       <c r="F50" s="38" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -9396,7 +9396,7 @@
       </c>
       <c r="E51" s="38"/>
       <c r="F51" s="38" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -9414,7 +9414,7 @@
       </c>
       <c r="E52" s="38"/>
       <c r="F52" s="38" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -9432,7 +9432,7 @@
       </c>
       <c r="E53" s="38"/>
       <c r="F53" s="38" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -9440,7 +9440,7 @@
         <v>127</v>
       </c>
       <c r="B54" s="38" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="C54" s="38" t="s">
         <v>129</v>
@@ -9450,7 +9450,7 @@
       </c>
       <c r="E54" s="38"/>
       <c r="F54" s="38" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -9472,10 +9472,10 @@
         <v>56</v>
       </c>
       <c r="B56" s="38" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="C56" s="37" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="D56" s="37"/>
       <c r="E56" s="37"/>
@@ -9496,7 +9496,7 @@
       </c>
       <c r="E57" s="38"/>
       <c r="F57" s="38" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -9514,7 +9514,7 @@
       </c>
       <c r="E58" s="38"/>
       <c r="F58" s="38" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -9532,7 +9532,7 @@
       </c>
       <c r="E59" s="38"/>
       <c r="F59" s="38" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -9550,7 +9550,7 @@
       </c>
       <c r="E60" s="38"/>
       <c r="F60" s="38" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -9568,7 +9568,7 @@
       </c>
       <c r="E61" s="38"/>
       <c r="F61" s="38" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -9586,7 +9586,7 @@
       </c>
       <c r="E62" s="38"/>
       <c r="F62" s="38" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -9604,7 +9604,7 @@
       </c>
       <c r="E63" s="38"/>
       <c r="F63" s="38" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -9622,7 +9622,7 @@
       </c>
       <c r="E64" s="38"/>
       <c r="F64" s="38" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -9640,7 +9640,7 @@
       </c>
       <c r="E65" s="38"/>
       <c r="F65" s="38" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -9662,10 +9662,10 @@
         <v>56</v>
       </c>
       <c r="B67" s="38" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="C67" s="37" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="D67" s="37"/>
       <c r="E67" s="37"/>
@@ -9686,7 +9686,7 @@
       </c>
       <c r="E68" s="38"/>
       <c r="F68" s="38" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -9704,7 +9704,7 @@
       </c>
       <c r="E69" s="38"/>
       <c r="F69" s="38" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -9722,7 +9722,7 @@
       </c>
       <c r="E70" s="38"/>
       <c r="F70" s="38" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -9740,7 +9740,7 @@
       </c>
       <c r="E71" s="38"/>
       <c r="F71" s="38" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -9758,7 +9758,7 @@
       </c>
       <c r="E72" s="38"/>
       <c r="F72" s="38" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -9776,7 +9776,7 @@
       </c>
       <c r="E73" s="38"/>
       <c r="F73" s="38" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="74" spans="1:7" s="69" customFormat="1">
@@ -9787,14 +9787,14 @@
         <v>172</v>
       </c>
       <c r="C74" s="76" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="D74" s="76" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="E74" s="76"/>
       <c r="F74" s="76" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="G74" s="68"/>
     </row>
@@ -9806,14 +9806,14 @@
         <v>175</v>
       </c>
       <c r="C75" s="76" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="D75" s="76" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="E75" s="76"/>
       <c r="F75" s="76" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="G75" s="68"/>
     </row>
@@ -9832,7 +9832,7 @@
       </c>
       <c r="E76" s="38"/>
       <c r="F76" s="38" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -9840,7 +9840,7 @@
         <v>56</v>
       </c>
       <c r="B77" s="38" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="C77" s="38" t="s">
         <v>176</v>
@@ -9850,7 +9850,7 @@
       </c>
       <c r="E77" s="38"/>
       <c r="F77" s="38" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -9858,7 +9858,7 @@
         <v>56</v>
       </c>
       <c r="B78" s="38" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="C78" s="38" t="s">
         <v>179</v>
@@ -9868,7 +9868,7 @@
       </c>
       <c r="E78" s="38"/>
       <c r="F78" s="38" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -9876,7 +9876,7 @@
         <v>127</v>
       </c>
       <c r="B79" s="38" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="C79" s="38" t="s">
         <v>129</v>
@@ -9886,7 +9886,7 @@
       </c>
       <c r="E79" s="38"/>
       <c r="F79" s="38" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -9894,7 +9894,7 @@
         <v>56</v>
       </c>
       <c r="B80" s="38" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="C80" s="37" t="s">
         <v>6</v>
@@ -9908,10 +9908,10 @@
         <v>56</v>
       </c>
       <c r="B81" s="38" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="C81" s="37" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="D81" s="37"/>
       <c r="E81" s="37"/>
@@ -9932,7 +9932,7 @@
       </c>
       <c r="E82" s="38"/>
       <c r="F82" s="38" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -9950,7 +9950,7 @@
       </c>
       <c r="E83" s="38"/>
       <c r="F83" s="38" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -9968,7 +9968,7 @@
       </c>
       <c r="E84" s="38"/>
       <c r="F84" s="38" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -9986,7 +9986,7 @@
       </c>
       <c r="E85" s="38"/>
       <c r="F85" s="38" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -10004,7 +10004,7 @@
       </c>
       <c r="E86" s="38"/>
       <c r="F86" s="38" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -10022,7 +10022,7 @@
       </c>
       <c r="E87" s="38"/>
       <c r="F87" s="38" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -10040,7 +10040,7 @@
       </c>
       <c r="E88" s="38"/>
       <c r="F88" s="38" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -10048,7 +10048,7 @@
         <v>127</v>
       </c>
       <c r="B89" s="38" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="C89" s="38" t="s">
         <v>129</v>
@@ -10058,7 +10058,7 @@
       </c>
       <c r="E89" s="38"/>
       <c r="F89" s="38" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -10080,10 +10080,10 @@
         <v>56</v>
       </c>
       <c r="B91" s="38" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="C91" s="37" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="D91" s="37"/>
       <c r="E91" s="37"/>
@@ -10104,7 +10104,7 @@
       </c>
       <c r="E92" s="38"/>
       <c r="F92" s="38" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -10122,7 +10122,7 @@
       </c>
       <c r="E93" s="38"/>
       <c r="F93" s="38" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -10140,7 +10140,7 @@
       </c>
       <c r="E94" s="38"/>
       <c r="F94" s="38" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -10158,7 +10158,7 @@
       </c>
       <c r="E95" s="38"/>
       <c r="F95" s="38" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -10172,11 +10172,11 @@
         <v>136</v>
       </c>
       <c r="D96" s="38" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="E96" s="38"/>
       <c r="F96" s="38" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -10194,7 +10194,7 @@
       </c>
       <c r="E97" s="38"/>
       <c r="F97" s="38" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -10212,7 +10212,7 @@
       </c>
       <c r="E98" s="38"/>
       <c r="F98" s="38" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -10230,7 +10230,7 @@
       </c>
       <c r="E99" s="38"/>
       <c r="F99" s="38" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -10248,7 +10248,7 @@
       </c>
       <c r="E100" s="38"/>
       <c r="F100" s="38" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -10256,7 +10256,7 @@
         <v>127</v>
       </c>
       <c r="B101" s="38" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="C101" s="38" t="s">
         <v>129</v>
@@ -10266,7 +10266,7 @@
       </c>
       <c r="E101" s="38"/>
       <c r="F101" s="38" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -10288,10 +10288,10 @@
         <v>56</v>
       </c>
       <c r="B103" s="38" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="C103" s="37" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="D103" s="37"/>
       <c r="E103" s="37"/>
@@ -10312,7 +10312,7 @@
       </c>
       <c r="E104" s="38"/>
       <c r="F104" s="38" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -10330,7 +10330,7 @@
       </c>
       <c r="E105" s="38"/>
       <c r="F105" s="38" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -10348,7 +10348,7 @@
       </c>
       <c r="E106" s="38"/>
       <c r="F106" s="38" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -10366,7 +10366,7 @@
       </c>
       <c r="E107" s="38"/>
       <c r="F107" s="38" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -10380,11 +10380,11 @@
         <v>136</v>
       </c>
       <c r="D108" s="38" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="E108" s="38"/>
       <c r="F108" s="38" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -10402,7 +10402,7 @@
       </c>
       <c r="E109" s="38"/>
       <c r="F109" s="38" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -10420,7 +10420,7 @@
       </c>
       <c r="E110" s="38"/>
       <c r="F110" s="38" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -10438,7 +10438,7 @@
       </c>
       <c r="E111" s="38"/>
       <c r="F111" s="38" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -10456,7 +10456,7 @@
       </c>
       <c r="E112" s="38"/>
       <c r="F112" s="38" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -10464,7 +10464,7 @@
         <v>127</v>
       </c>
       <c r="B113" s="38" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="C113" s="38" t="s">
         <v>129</v>
@@ -10474,7 +10474,7 @@
       </c>
       <c r="E113" s="38"/>
       <c r="F113" s="38" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -10496,10 +10496,10 @@
         <v>56</v>
       </c>
       <c r="B115" s="38" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="C115" s="37" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="D115" s="37"/>
       <c r="E115" s="37"/>
@@ -10520,7 +10520,7 @@
       </c>
       <c r="E116" s="38"/>
       <c r="F116" s="38" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -10538,7 +10538,7 @@
       </c>
       <c r="E117" s="38"/>
       <c r="F117" s="38" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -10556,7 +10556,7 @@
       </c>
       <c r="E118" s="38"/>
       <c r="F118" s="38" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -10574,7 +10574,7 @@
       </c>
       <c r="E119" s="38"/>
       <c r="F119" s="38" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -10588,11 +10588,11 @@
         <v>136</v>
       </c>
       <c r="D120" s="38" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="E120" s="38"/>
       <c r="F120" s="38" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -10610,7 +10610,7 @@
       </c>
       <c r="E121" s="38"/>
       <c r="F121" s="38" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -10628,7 +10628,7 @@
       </c>
       <c r="E122" s="38"/>
       <c r="F122" s="38" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -10646,7 +10646,7 @@
       </c>
       <c r="E123" s="38"/>
       <c r="F123" s="38" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -10664,7 +10664,7 @@
       </c>
       <c r="E124" s="38"/>
       <c r="F124" s="38" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -10672,7 +10672,7 @@
         <v>127</v>
       </c>
       <c r="B125" s="38" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="C125" s="38" t="s">
         <v>129</v>
@@ -10682,7 +10682,7 @@
       </c>
       <c r="E125" s="38"/>
       <c r="F125" s="38" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -10690,7 +10690,7 @@
         <v>56</v>
       </c>
       <c r="B126" s="38" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="C126" s="37" t="s">
         <v>10</v>
@@ -10704,10 +10704,10 @@
         <v>56</v>
       </c>
       <c r="B127" s="38" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="C127" s="37" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="D127" s="37"/>
       <c r="E127" s="37"/>
@@ -10728,7 +10728,7 @@
       </c>
       <c r="E128" s="38"/>
       <c r="F128" s="38" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="129" spans="1:7">
@@ -10746,7 +10746,7 @@
       </c>
       <c r="E129" s="38"/>
       <c r="F129" s="38" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="130" spans="1:7">
@@ -10764,7 +10764,7 @@
       </c>
       <c r="E130" s="38"/>
       <c r="F130" s="38" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="131" spans="1:7">
@@ -10782,7 +10782,7 @@
       </c>
       <c r="E131" s="38"/>
       <c r="F131" s="38" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="132" spans="1:7">
@@ -10800,7 +10800,7 @@
       </c>
       <c r="E132" s="38"/>
       <c r="F132" s="38" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="133" spans="1:7">
@@ -10811,14 +10811,14 @@
         <v>238</v>
       </c>
       <c r="C133" s="38" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="D133" s="38" t="s">
         <v>240</v>
       </c>
       <c r="E133" s="38"/>
       <c r="F133" s="38" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="134" spans="1:7" s="69" customFormat="1">
@@ -10829,14 +10829,14 @@
         <v>241</v>
       </c>
       <c r="C134" s="76" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="D134" s="76" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="E134" s="76"/>
       <c r="F134" s="76" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="G134" s="68"/>
     </row>
@@ -10855,7 +10855,7 @@
       </c>
       <c r="E135" s="38"/>
       <c r="F135" s="38" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="136" spans="1:7" ht="30">
@@ -10863,7 +10863,7 @@
         <v>56</v>
       </c>
       <c r="B136" s="38" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="C136" s="38" t="s">
         <v>245</v>
@@ -10873,7 +10873,7 @@
       </c>
       <c r="E136" s="38"/>
       <c r="F136" s="38" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="137" spans="1:7">
@@ -10895,10 +10895,10 @@
         <v>56</v>
       </c>
       <c r="B138" s="38" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="C138" s="37" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="D138" s="37"/>
       <c r="E138" s="37"/>
@@ -10919,7 +10919,7 @@
       </c>
       <c r="E139" s="38"/>
       <c r="F139" s="38" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="140" spans="1:7">
@@ -10937,7 +10937,7 @@
       </c>
       <c r="E140" s="38"/>
       <c r="F140" s="38" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="141" spans="1:7">
@@ -10955,7 +10955,7 @@
       </c>
       <c r="E141" s="38"/>
       <c r="F141" s="38" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="142" spans="1:7">
@@ -10973,7 +10973,7 @@
       </c>
       <c r="E142" s="38"/>
       <c r="F142" s="38" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="143" spans="1:7">
@@ -10984,14 +10984,14 @@
         <v>255</v>
       </c>
       <c r="C143" s="38" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="D143" s="38" t="s">
         <v>257</v>
       </c>
       <c r="E143" s="38"/>
       <c r="F143" s="38" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="144" spans="1:7">
@@ -11002,14 +11002,14 @@
         <v>258</v>
       </c>
       <c r="C144" s="38" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="D144" s="38" t="s">
         <v>254</v>
       </c>
       <c r="E144" s="38"/>
       <c r="F144" s="38" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="145" spans="1:7" s="69" customFormat="1" ht="15" customHeight="1">
@@ -11020,14 +11020,14 @@
         <v>260</v>
       </c>
       <c r="C145" s="76" t="s">
+        <v>1189</v>
+      </c>
+      <c r="D145" s="76" t="s">
         <v>1190</v>
-      </c>
-      <c r="D145" s="76" t="s">
-        <v>1191</v>
       </c>
       <c r="E145" s="76"/>
       <c r="F145" s="76" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="G145" s="68"/>
     </row>
@@ -11036,17 +11036,17 @@
         <v>56</v>
       </c>
       <c r="B146" s="38" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="C146" s="38" t="s">
         <v>259</v>
       </c>
       <c r="D146" s="38" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="E146" s="38"/>
       <c r="F146" s="38" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="147" spans="1:7" ht="45">
@@ -11054,7 +11054,7 @@
         <v>56</v>
       </c>
       <c r="B147" s="38" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="C147" s="38" t="s">
         <v>261</v>
@@ -11064,7 +11064,7 @@
       </c>
       <c r="E147" s="38"/>
       <c r="F147" s="38" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="148" spans="1:7">
@@ -11072,17 +11072,17 @@
         <v>127</v>
       </c>
       <c r="B148" s="38" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="C148" s="38" t="s">
         <v>129</v>
       </c>
       <c r="D148" s="38" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="E148" s="38"/>
       <c r="F148" s="38" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="149" spans="1:7">
@@ -11090,7 +11090,7 @@
         <v>127</v>
       </c>
       <c r="B149" s="38" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="C149" s="38" t="s">
         <v>265</v>
@@ -11100,7 +11100,7 @@
       </c>
       <c r="E149" s="38"/>
       <c r="F149" s="38" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="150" spans="1:7">
@@ -11142,7 +11142,7 @@
         <v>14</v>
       </c>
       <c r="D152" s="38" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="E152" s="38"/>
       <c r="F152" s="38"/>
@@ -11158,7 +11158,7 @@
         <v>15</v>
       </c>
       <c r="D153" s="38" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="E153" s="38"/>
       <c r="F153" s="38"/>
@@ -11174,7 +11174,7 @@
         <v>269</v>
       </c>
       <c r="D154" s="38" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="E154" s="38"/>
       <c r="F154" s="38"/>
@@ -11274,7 +11274,7 @@
         <v>273</v>
       </c>
       <c r="C161" s="58" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="D161" s="58">
         <v>76.2</v>
@@ -11306,10 +11306,10 @@
         <v>277</v>
       </c>
       <c r="C163" s="58" t="s">
+        <v>1245</v>
+      </c>
+      <c r="D163" s="58" t="s">
         <v>1246</v>
-      </c>
-      <c r="D163" s="58" t="s">
-        <v>1247</v>
       </c>
       <c r="E163" s="38"/>
       <c r="F163" s="38"/>
@@ -11319,7 +11319,7 @@
         <v>56</v>
       </c>
       <c r="B164" s="38" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="C164" s="38" t="s">
         <v>281</v>
@@ -11352,7 +11352,7 @@
         <v>280</v>
       </c>
       <c r="C166" s="58" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="D166" s="58" t="s">
         <v>837</v>
@@ -11400,7 +11400,7 @@
         <v>286</v>
       </c>
       <c r="C169" s="38" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="D169" s="39" t="s">
         <v>918</v>
@@ -11698,7 +11698,7 @@
         <v>313</v>
       </c>
       <c r="C188" s="38" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="D188" s="39" t="s">
         <v>918</v>
@@ -12009,7 +12009,7 @@
         <v>56</v>
       </c>
       <c r="B208" s="38" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="C208" s="38" t="s">
         <v>289</v>
@@ -12280,10 +12280,10 @@
         <v>364</v>
       </c>
       <c r="C225" s="39" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="D225" s="39" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="E225" s="38"/>
       <c r="F225" s="38"/>
@@ -12299,7 +12299,7 @@
         <v>367</v>
       </c>
       <c r="D226" s="39" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="E226" s="38"/>
       <c r="F226" s="38"/>
@@ -12312,7 +12312,7 @@
         <v>368</v>
       </c>
       <c r="C227" s="38" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="D227" s="38">
         <v>76.16</v>
@@ -12441,7 +12441,7 @@
         <v>386</v>
       </c>
       <c r="D235" s="39" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="E235" s="38"/>
       <c r="F235" s="39"/>
@@ -12705,7 +12705,7 @@
         <v>56</v>
       </c>
       <c r="B253" s="71" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="C253" s="72" t="s">
         <v>35</v>
@@ -12862,7 +12862,7 @@
         <v>434</v>
       </c>
       <c r="C263" s="74" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="D263" s="58" t="s">
         <v>436</v>
@@ -12875,13 +12875,13 @@
         <v>56</v>
       </c>
       <c r="B264" s="58" t="s">
+        <v>1227</v>
+      </c>
+      <c r="C264" s="74" t="s">
         <v>1228</v>
       </c>
-      <c r="C264" s="74" t="s">
-        <v>1229</v>
-      </c>
       <c r="D264" s="58" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="E264" s="74"/>
       <c r="F264" s="58"/>
@@ -12929,7 +12929,7 @@
         <v>444</v>
       </c>
       <c r="D267" s="58" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="E267" s="74"/>
       <c r="F267" s="58"/>
@@ -12939,7 +12939,7 @@
         <v>56</v>
       </c>
       <c r="B268" s="58" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="C268" s="74" t="s">
         <v>447</v>
@@ -13133,7 +13133,7 @@
         <v>469</v>
       </c>
       <c r="D280" s="58" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="E280" s="74"/>
       <c r="F280" s="58"/>
@@ -13197,7 +13197,7 @@
         <v>478</v>
       </c>
       <c r="D284" s="45" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="E284" s="58"/>
       <c r="F284" s="58"/>
@@ -13217,7 +13217,7 @@
       </c>
       <c r="E285" s="74"/>
       <c r="F285" s="58" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="286" spans="1:6" s="45" customFormat="1" ht="30">
@@ -13235,7 +13235,7 @@
       </c>
       <c r="E286" s="74"/>
       <c r="F286" s="38" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="287" spans="1:6" s="45" customFormat="1">
@@ -13243,13 +13243,13 @@
         <v>56</v>
       </c>
       <c r="B287" s="58" t="s">
+        <v>1256</v>
+      </c>
+      <c r="C287" s="74" t="s">
         <v>1257</v>
       </c>
-      <c r="C287" s="74" t="s">
-        <v>1258</v>
-      </c>
       <c r="D287" s="58" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="E287" s="74"/>
       <c r="F287" s="58"/>
@@ -13259,13 +13259,13 @@
         <v>56</v>
       </c>
       <c r="B288" s="58" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="C288" s="74" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="D288" s="58" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="E288" s="74"/>
       <c r="F288" s="58"/>
@@ -13453,7 +13453,7 @@
         <v>469</v>
       </c>
       <c r="D300" s="58" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="E300" s="74"/>
       <c r="F300" s="58"/>
@@ -13517,7 +13517,7 @@
         <v>478</v>
       </c>
       <c r="D304" s="58" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="E304" s="58"/>
       <c r="F304" s="58"/>
@@ -13537,7 +13537,7 @@
       </c>
       <c r="E305" s="74"/>
       <c r="F305" s="58" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="306" spans="1:6" s="45" customFormat="1">
@@ -13548,14 +13548,14 @@
         <v>501</v>
       </c>
       <c r="C306" s="74" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="D306" s="58" t="s">
         <v>484</v>
       </c>
       <c r="E306" s="74"/>
       <c r="F306" s="58" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="307" spans="1:6" s="45" customFormat="1">
@@ -13563,13 +13563,13 @@
         <v>56</v>
       </c>
       <c r="B307" s="58" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="C307" s="74" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="D307" s="58" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="E307" s="74"/>
       <c r="F307" s="58"/>
@@ -13579,13 +13579,13 @@
         <v>56</v>
       </c>
       <c r="B308" s="58" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="C308" s="74" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="D308" s="58" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="E308" s="74"/>
       <c r="F308" s="58"/>
@@ -13612,7 +13612,7 @@
         <v>502</v>
       </c>
       <c r="C310" s="60" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="D310" s="60"/>
       <c r="E310" s="60"/>
@@ -13889,7 +13889,7 @@
         <v>56</v>
       </c>
       <c r="B328" s="58" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="C328" s="58" t="s">
         <v>462</v>
@@ -13905,7 +13905,7 @@
         <v>56</v>
       </c>
       <c r="B329" s="58" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="C329" s="58" t="s">
         <v>464</v>
@@ -13943,7 +13943,7 @@
         <v>469</v>
       </c>
       <c r="D331" s="58" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="E331" s="58"/>
       <c r="F331" s="58"/>
@@ -14007,7 +14007,7 @@
         <v>478</v>
       </c>
       <c r="D335" s="58" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="E335" s="58"/>
       <c r="F335" s="58"/>
@@ -14017,7 +14017,7 @@
         <v>56</v>
       </c>
       <c r="B336" s="58" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="C336" s="58" t="s">
         <v>480</v>
@@ -14027,7 +14027,7 @@
       </c>
       <c r="E336" s="58"/>
       <c r="F336" s="58" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="337" spans="1:6" s="45" customFormat="1">
@@ -14035,17 +14035,17 @@
         <v>56</v>
       </c>
       <c r="B337" s="58" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="C337" s="74" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="D337" s="58" t="s">
         <v>484</v>
       </c>
       <c r="E337" s="74"/>
       <c r="F337" s="58" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="338" spans="1:6" s="45" customFormat="1">
@@ -14053,13 +14053,13 @@
         <v>56</v>
       </c>
       <c r="B338" s="58" t="s">
+        <v>1259</v>
+      </c>
+      <c r="C338" s="74" t="s">
         <v>1260</v>
       </c>
-      <c r="C338" s="74" t="s">
-        <v>1261</v>
-      </c>
       <c r="D338" s="58" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="E338" s="74"/>
       <c r="F338" s="58"/>
@@ -14069,13 +14069,13 @@
         <v>56</v>
       </c>
       <c r="B339" s="58" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="C339" s="74" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="D339" s="58" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="E339" s="74"/>
       <c r="F339" s="58"/>
@@ -14085,7 +14085,7 @@
         <v>56</v>
       </c>
       <c r="B340" s="35" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="C340" s="85" t="s">
         <v>40</v>
@@ -14137,7 +14137,7 @@
       </c>
       <c r="E343" s="43"/>
       <c r="F343" s="38" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="344" spans="1:6">
@@ -14155,7 +14155,7 @@
       </c>
       <c r="E344" s="43"/>
       <c r="F344" s="38" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="345" spans="1:6">
@@ -14166,14 +14166,14 @@
         <v>548</v>
       </c>
       <c r="C345" s="43" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="D345" s="38">
         <v>78.099999999999994</v>
       </c>
       <c r="E345" s="43"/>
       <c r="F345" s="38" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="346" spans="1:6">
@@ -14205,7 +14205,7 @@
       </c>
       <c r="E347" s="43"/>
       <c r="F347" s="38" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="348" spans="1:6">
@@ -14223,7 +14223,7 @@
       </c>
       <c r="E348" s="43"/>
       <c r="F348" s="38" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="349" spans="1:6">
@@ -14241,7 +14241,7 @@
       </c>
       <c r="E349" s="38"/>
       <c r="F349" s="38" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="350" spans="1:6">
@@ -14259,7 +14259,7 @@
       </c>
       <c r="E350" s="43"/>
       <c r="F350" s="38" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="351" spans="1:6">
@@ -14291,7 +14291,7 @@
       </c>
       <c r="E352" s="43"/>
       <c r="F352" s="38" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="353" spans="1:6">
@@ -14309,7 +14309,7 @@
       </c>
       <c r="E353" s="43"/>
       <c r="F353" s="38" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="354" spans="1:6">
@@ -14320,14 +14320,14 @@
         <v>571</v>
       </c>
       <c r="C354" s="43" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="D354" s="38" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E354" s="43"/>
       <c r="F354" s="38" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="355" spans="1:6">
@@ -14345,7 +14345,7 @@
       </c>
       <c r="E355" s="43"/>
       <c r="F355" s="38" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="356" spans="1:6">
@@ -14363,7 +14363,7 @@
       </c>
       <c r="E356" s="43"/>
       <c r="F356" s="38" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="357" spans="1:6">
@@ -14395,7 +14395,7 @@
       </c>
       <c r="E358" s="43"/>
       <c r="F358" s="38" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="359" spans="1:6" ht="30">
@@ -14409,11 +14409,11 @@
         <v>586</v>
       </c>
       <c r="D359" s="39" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="E359" s="43"/>
       <c r="F359" s="38" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="360" spans="1:6" ht="30">
@@ -14431,7 +14431,7 @@
       </c>
       <c r="E360" s="43"/>
       <c r="F360" s="38" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="361" spans="1:6">
@@ -14449,7 +14449,7 @@
       </c>
       <c r="E361" s="43"/>
       <c r="F361" s="38" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="362" spans="1:6">
@@ -14481,7 +14481,7 @@
       </c>
       <c r="E363" s="38"/>
       <c r="F363" s="38" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="364" spans="1:6">
@@ -14495,11 +14495,11 @@
         <v>600</v>
       </c>
       <c r="D364" s="39" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="E364" s="38"/>
       <c r="F364" s="38" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="365" spans="1:6">
@@ -14531,7 +14531,7 @@
       </c>
       <c r="E366" s="43"/>
       <c r="F366" s="38" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="367" spans="1:6">
@@ -14545,11 +14545,11 @@
         <v>605</v>
       </c>
       <c r="D367" s="38" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="E367" s="43"/>
       <c r="F367" s="38" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="368" spans="1:6">
@@ -14567,7 +14567,7 @@
       </c>
       <c r="E368" s="43"/>
       <c r="F368" s="38" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="369" spans="1:6">
@@ -14581,11 +14581,11 @@
         <v>609</v>
       </c>
       <c r="D369" s="38" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E369" s="43"/>
       <c r="F369" s="38" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="370" spans="1:6">
@@ -14599,11 +14599,11 @@
         <v>611</v>
       </c>
       <c r="D370" s="38" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="E370" s="38"/>
       <c r="F370" s="38" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="371" spans="1:6">
@@ -14645,11 +14645,11 @@
         <v>545</v>
       </c>
       <c r="D373" s="39" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="E373" s="43"/>
       <c r="F373" s="38" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="374" spans="1:6">
@@ -14663,11 +14663,11 @@
         <v>615</v>
       </c>
       <c r="D374" s="39" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="E374" s="43"/>
       <c r="F374" s="38" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="375" spans="1:6">
@@ -14685,7 +14685,7 @@
       </c>
       <c r="E375" s="43"/>
       <c r="F375" s="38" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="376" spans="1:6">
@@ -14731,7 +14731,7 @@
       </c>
       <c r="E378" s="43"/>
       <c r="F378" s="38" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="379" spans="1:6">
@@ -14749,7 +14749,7 @@
       </c>
       <c r="E379" s="43"/>
       <c r="F379" s="38" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="380" spans="1:6" ht="30">
@@ -14767,7 +14767,7 @@
       </c>
       <c r="E380" s="43"/>
       <c r="F380" s="38" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="381" spans="1:6" ht="30">
@@ -14785,7 +14785,7 @@
       </c>
       <c r="E381" s="43"/>
       <c r="F381" s="38" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="382" spans="1:6">
@@ -14803,7 +14803,7 @@
       </c>
       <c r="E382" s="43"/>
       <c r="F382" s="38" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="383" spans="1:6" ht="30">
@@ -14821,7 +14821,7 @@
       </c>
       <c r="E383" s="43"/>
       <c r="F383" s="38" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="384" spans="1:6">
@@ -14853,7 +14853,7 @@
       </c>
       <c r="E385" s="43"/>
       <c r="F385" s="38" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="386" spans="1:6">
@@ -14867,11 +14867,11 @@
         <v>600</v>
       </c>
       <c r="D386" s="39" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="E386" s="38"/>
       <c r="F386" s="38" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="387" spans="1:6">
@@ -14903,7 +14903,7 @@
       </c>
       <c r="E388" s="43"/>
       <c r="F388" s="38" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="389" spans="1:6">
@@ -14917,11 +14917,11 @@
         <v>640</v>
       </c>
       <c r="D389" s="38" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="E389" s="43"/>
       <c r="F389" s="38" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="390" spans="1:6">
@@ -14939,7 +14939,7 @@
       </c>
       <c r="E390" s="43"/>
       <c r="F390" s="38" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="391" spans="1:6">
@@ -14953,11 +14953,11 @@
         <v>609</v>
       </c>
       <c r="D391" s="38" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E391" s="38"/>
       <c r="F391" s="38" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="392" spans="1:6">
@@ -14971,11 +14971,11 @@
         <v>611</v>
       </c>
       <c r="D392" s="38" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="E392" s="38"/>
       <c r="F392" s="38" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="393" spans="1:6">
@@ -15021,7 +15021,7 @@
       </c>
       <c r="E395" s="43"/>
       <c r="F395" s="38" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="396" spans="1:6">
@@ -15035,11 +15035,11 @@
         <v>648</v>
       </c>
       <c r="D396" s="38" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="E396" s="38"/>
       <c r="F396" s="38" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="397" spans="1:6">
@@ -15057,7 +15057,7 @@
       </c>
       <c r="E397" s="43"/>
       <c r="F397" s="38" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="398" spans="1:6">
@@ -15099,11 +15099,11 @@
         <v>654</v>
       </c>
       <c r="D400" s="38" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="E400" s="43"/>
       <c r="F400" s="38" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="401" spans="1:6">
@@ -15121,7 +15121,7 @@
       </c>
       <c r="E401" s="43"/>
       <c r="F401" s="38" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="402" spans="1:6">
@@ -15139,7 +15139,7 @@
       </c>
       <c r="E402" s="43"/>
       <c r="F402" s="38" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="403" spans="1:6" ht="30">
@@ -15157,7 +15157,7 @@
       </c>
       <c r="E403" s="43"/>
       <c r="F403" s="38" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="404" spans="1:6">
@@ -15175,7 +15175,7 @@
       </c>
       <c r="E404" s="43"/>
       <c r="F404" s="38" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="405" spans="1:6" ht="30">
@@ -15193,7 +15193,7 @@
       </c>
       <c r="E405" s="43"/>
       <c r="F405" s="38" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="406" spans="1:6">
@@ -15225,7 +15225,7 @@
       </c>
       <c r="E407" s="43"/>
       <c r="F407" s="38" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="408" spans="1:6">
@@ -15239,11 +15239,11 @@
         <v>600</v>
       </c>
       <c r="D408" s="39" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="E408" s="38"/>
       <c r="F408" s="38" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="409" spans="1:6">
@@ -15275,7 +15275,7 @@
       </c>
       <c r="E410" s="43"/>
       <c r="F410" s="38" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="411" spans="1:6">
@@ -15289,11 +15289,11 @@
         <v>640</v>
       </c>
       <c r="D411" s="38" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="E411" s="43"/>
       <c r="F411" s="38" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="412" spans="1:6">
@@ -15311,7 +15311,7 @@
       </c>
       <c r="E412" s="43"/>
       <c r="F412" s="38" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="413" spans="1:6">
@@ -15325,11 +15325,11 @@
         <v>609</v>
       </c>
       <c r="D413" s="38" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E413" s="38"/>
       <c r="F413" s="38" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="414" spans="1:6">
@@ -15343,11 +15343,11 @@
         <v>611</v>
       </c>
       <c r="D414" s="38" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="E414" s="38"/>
       <c r="F414" s="38" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="415" spans="1:6">
@@ -15393,7 +15393,7 @@
       </c>
       <c r="E417" s="43"/>
       <c r="F417" s="38" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="418" spans="1:6">
@@ -15411,7 +15411,7 @@
       </c>
       <c r="E418" s="43"/>
       <c r="F418" s="38" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="419" spans="1:6">
@@ -15429,7 +15429,7 @@
       </c>
       <c r="E419" s="43"/>
       <c r="F419" s="38" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="420" spans="1:6">
@@ -15475,7 +15475,7 @@
       </c>
       <c r="E422" s="38"/>
       <c r="F422" s="38" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="423" spans="1:6">
@@ -15493,7 +15493,7 @@
       </c>
       <c r="E423" s="43"/>
       <c r="F423" s="38" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="424" spans="1:6">
@@ -15511,7 +15511,7 @@
       </c>
       <c r="E424" s="43"/>
       <c r="F424" s="38" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="425" spans="1:6">
@@ -15529,7 +15529,7 @@
       </c>
       <c r="E425" s="38"/>
       <c r="F425" s="38" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="426" spans="1:6">
@@ -15554,14 +15554,14 @@
         <v>690</v>
       </c>
       <c r="C427" s="38" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="D427" s="38" t="s">
         <v>692</v>
       </c>
       <c r="E427" s="38"/>
       <c r="F427" s="38" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="428" spans="1:6">
@@ -15572,14 +15572,14 @@
         <v>693</v>
       </c>
       <c r="C428" s="38" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="D428" s="39" t="s">
         <v>695</v>
       </c>
       <c r="E428" s="38"/>
       <c r="F428" s="38" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="429" spans="1:6">
@@ -15597,7 +15597,7 @@
       </c>
       <c r="E429" s="38"/>
       <c r="F429" s="38" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="430" spans="1:6">
@@ -15629,7 +15629,7 @@
       </c>
       <c r="E431" s="43"/>
       <c r="F431" s="38" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="432" spans="1:6">
@@ -15647,7 +15647,7 @@
       </c>
       <c r="E432" s="43"/>
       <c r="F432" s="38" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="433" spans="1:6">
@@ -15665,7 +15665,7 @@
       </c>
       <c r="E433" s="43"/>
       <c r="F433" s="38" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="434" spans="1:6">
@@ -15683,7 +15683,7 @@
       </c>
       <c r="E434" s="38"/>
       <c r="F434" s="38" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="435" spans="1:6">
@@ -15701,7 +15701,7 @@
       </c>
       <c r="E435" s="43"/>
       <c r="F435" s="38" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="436" spans="1:6" ht="30">
@@ -15719,7 +15719,7 @@
       </c>
       <c r="E436" s="43"/>
       <c r="F436" s="38" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="437" spans="1:6">
@@ -15751,7 +15751,7 @@
       </c>
       <c r="E438" s="43"/>
       <c r="F438" s="38" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="439" spans="1:6" ht="30">
@@ -15765,11 +15765,11 @@
         <v>586</v>
       </c>
       <c r="D439" s="39" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="E439" s="43"/>
       <c r="F439" s="38" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="440" spans="1:6">
@@ -15783,11 +15783,11 @@
         <v>710</v>
       </c>
       <c r="D440" s="39" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="E440" s="43"/>
       <c r="F440" s="38" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="441" spans="1:6">
@@ -15805,7 +15805,7 @@
       </c>
       <c r="E441" s="43"/>
       <c r="F441" s="38" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="442" spans="1:6">
@@ -15837,7 +15837,7 @@
       </c>
       <c r="E443" s="43"/>
       <c r="F443" s="38" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="444" spans="1:6">
@@ -15851,11 +15851,11 @@
         <v>600</v>
       </c>
       <c r="D444" s="39" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="E444" s="38"/>
       <c r="F444" s="38" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="445" spans="1:6">
@@ -15866,7 +15866,7 @@
         <v>715</v>
       </c>
       <c r="C445" s="40" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="D445" s="40"/>
       <c r="E445" s="40"/>
@@ -15883,11 +15883,11 @@
         <v>611</v>
       </c>
       <c r="D446" s="38" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="E446" s="38"/>
       <c r="F446" s="38" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="447" spans="1:6">
@@ -16031,7 +16031,7 @@
       </c>
       <c r="E456" s="43"/>
       <c r="F456" s="58" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="457" spans="1:6">
@@ -16049,7 +16049,7 @@
       </c>
       <c r="E457" s="43"/>
       <c r="F457" s="58" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="458" spans="1:6">
@@ -16067,7 +16067,7 @@
       </c>
       <c r="E458" s="43"/>
       <c r="F458" s="58" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="459" spans="1:6">
@@ -16113,7 +16113,7 @@
       </c>
       <c r="E461" s="43"/>
       <c r="F461" s="58" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="462" spans="1:6">
@@ -16131,7 +16131,7 @@
       </c>
       <c r="E462" s="43"/>
       <c r="F462" s="58" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="463" spans="1:6">
@@ -16145,11 +16145,11 @@
         <v>736</v>
       </c>
       <c r="D463" s="38" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E463" s="38"/>
       <c r="F463" s="58" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="464" spans="1:6">
@@ -16167,7 +16167,7 @@
       </c>
       <c r="E464" s="38"/>
       <c r="F464" s="58" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="465" spans="1:6">
@@ -16178,12 +16178,12 @@
         <v>739</v>
       </c>
       <c r="C465" s="38" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="D465" s="38"/>
       <c r="E465" s="38"/>
       <c r="F465" s="58" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="466" spans="1:6" ht="30">
@@ -16191,7 +16191,7 @@
         <v>56</v>
       </c>
       <c r="B466" s="38" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="C466" s="38" t="s">
         <v>740</v>
@@ -16201,7 +16201,7 @@
       </c>
       <c r="E466" s="38"/>
       <c r="F466" s="58" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="467" spans="1:6">
@@ -16209,17 +16209,17 @@
         <v>56</v>
       </c>
       <c r="B467" s="38" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="C467" s="38" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="D467" s="38" t="s">
         <v>695</v>
       </c>
       <c r="E467" s="38"/>
       <c r="F467" s="58" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="468" spans="1:6">
@@ -16251,7 +16251,7 @@
       </c>
       <c r="E469" s="43"/>
       <c r="F469" s="58" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="470" spans="1:6">
@@ -16265,11 +16265,11 @@
         <v>600</v>
       </c>
       <c r="D470" s="39" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="E470" s="38"/>
       <c r="F470" s="58" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="471" spans="1:6">
@@ -16301,7 +16301,7 @@
       </c>
       <c r="E472" s="43"/>
       <c r="F472" s="58" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="473" spans="1:6">
@@ -16319,7 +16319,7 @@
       </c>
       <c r="E473" s="43"/>
       <c r="F473" s="58" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="474" spans="1:6">
@@ -16337,7 +16337,7 @@
       </c>
       <c r="E474" s="43"/>
       <c r="F474" s="58" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="475" spans="1:6">
@@ -16351,11 +16351,11 @@
         <v>609</v>
       </c>
       <c r="D475" s="38" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E475" s="38"/>
       <c r="F475" s="58" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="476" spans="1:6">
@@ -16363,17 +16363,17 @@
         <v>56</v>
       </c>
       <c r="B476" s="38" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="C476" s="39" t="s">
         <v>611</v>
       </c>
       <c r="D476" s="38" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="E476" s="38"/>
       <c r="F476" s="58" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
     </row>
   </sheetData>
@@ -16428,7 +16428,7 @@
         <v>59</v>
       </c>
       <c r="B2" s="28" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>758</v>
@@ -16447,7 +16447,7 @@
         <v>62</v>
       </c>
       <c r="B3" s="28" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>760</v>
@@ -16466,7 +16466,7 @@
         <v>65</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>761</v>
@@ -16485,7 +16485,7 @@
         <v>68</v>
       </c>
       <c r="B5" s="28" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>762</v>
@@ -16504,7 +16504,7 @@
         <v>765</v>
       </c>
       <c r="B6" s="28" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>766</v>
@@ -16532,7 +16532,7 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:AMK55"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
@@ -17889,7 +17889,7 @@
         <v>120</v>
       </c>
       <c r="E17" s="28" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>759</v>
@@ -18302,7 +18302,7 @@
         <v>266</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>823</v>
@@ -18321,13 +18321,13 @@
         <v>257</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="C40" s="28" t="s">
         <v>824</v>
       </c>
       <c r="D40" s="28" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="E40" s="3"/>
       <c r="F40" s="3" t="s">
@@ -18340,13 +18340,13 @@
         <v>254</v>
       </c>
       <c r="B41" s="28" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>825</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="E41" s="3"/>
       <c r="F41" s="3" t="s">
@@ -18359,7 +18359,7 @@
         <v>262</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>826</v>
@@ -18375,16 +18375,16 @@
     </row>
     <row r="43" spans="1:7" ht="31.5">
       <c r="A43" s="32" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="B43" s="32" t="s">
         <v>782</v>
       </c>
       <c r="C43" s="32" t="s">
+        <v>1124</v>
+      </c>
+      <c r="D43" s="32" t="s">
         <v>1125</v>
-      </c>
-      <c r="D43" s="32" t="s">
-        <v>1126</v>
       </c>
       <c r="E43" s="32"/>
       <c r="F43" s="32" t="s">
@@ -18394,16 +18394,16 @@
     </row>
     <row r="44" spans="1:7" ht="31.5">
       <c r="A44" s="32" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="B44" s="32" t="s">
         <v>782</v>
       </c>
       <c r="C44" s="32" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="D44" s="32" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="E44" s="32"/>
       <c r="F44" s="32" t="s">
@@ -18413,16 +18413,16 @@
     </row>
     <row r="45" spans="1:7" ht="31.5">
       <c r="A45" s="32" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="B45" s="32" t="s">
         <v>782</v>
       </c>
       <c r="C45" s="32" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="D45" s="32" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="E45" s="32"/>
       <c r="F45" s="32" t="s">
@@ -18432,16 +18432,16 @@
     </row>
     <row r="46" spans="1:7" ht="31.5">
       <c r="A46" s="32" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="B46" s="32" t="s">
         <v>782</v>
       </c>
       <c r="C46" s="32" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="D46" s="32" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="E46" s="32"/>
       <c r="F46" s="32" t="s">
@@ -18451,16 +18451,16 @@
     </row>
     <row r="47" spans="1:7" ht="31.5">
       <c r="A47" s="32" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="B47" s="32" t="s">
         <v>782</v>
       </c>
       <c r="C47" s="32" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="D47" s="32" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="E47" s="32"/>
       <c r="F47" s="32" t="s">
@@ -18470,16 +18470,16 @@
     </row>
     <row r="48" spans="1:7" ht="31.5">
       <c r="A48" s="32" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="B48" s="32" t="s">
         <v>782</v>
       </c>
       <c r="C48" s="32" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="D48" s="32" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="E48" s="32"/>
       <c r="F48" s="32" t="s">
@@ -18489,16 +18489,16 @@
     </row>
     <row r="49" spans="1:7" ht="31.5">
       <c r="A49" s="32" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="B49" s="32" t="s">
         <v>782</v>
       </c>
       <c r="C49" s="32" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="D49" s="32" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="E49" s="32"/>
       <c r="F49" s="32" t="s">
@@ -18508,16 +18508,16 @@
     </row>
     <row r="50" spans="1:7" ht="31.5">
       <c r="A50" s="32" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="B50" s="32" t="s">
         <v>782</v>
       </c>
       <c r="C50" s="32" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="D50" s="32" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="E50" s="32"/>
       <c r="F50" s="32" t="s">
@@ -18527,16 +18527,16 @@
     </row>
     <row r="51" spans="1:7" ht="31.5">
       <c r="A51" s="32" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="B51" s="32" t="s">
         <v>782</v>
       </c>
       <c r="C51" s="32" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="D51" s="32" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="E51" s="32"/>
       <c r="F51" s="32" t="s">
@@ -18546,16 +18546,16 @@
     </row>
     <row r="52" spans="1:7" ht="31.5">
       <c r="A52" s="32" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="B52" s="32" t="s">
         <v>808</v>
       </c>
       <c r="C52" s="32" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="D52" s="32" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="E52" s="32"/>
       <c r="F52" s="32" t="s">
@@ -18565,16 +18565,16 @@
     </row>
     <row r="53" spans="1:7" ht="31.5">
       <c r="A53" s="32" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="B53" s="32" t="s">
         <v>808</v>
       </c>
       <c r="C53" s="32" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="D53" s="32" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="E53" s="32"/>
       <c r="F53" s="32" t="s">
@@ -18584,16 +18584,16 @@
     </row>
     <row r="54" spans="1:7" ht="31.5">
       <c r="A54" s="32" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="B54" s="32" t="s">
         <v>816</v>
       </c>
       <c r="C54" s="32" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="D54" s="32" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="E54" s="32"/>
       <c r="F54" s="32" t="s">
@@ -18603,16 +18603,16 @@
     </row>
     <row r="55" spans="1:7" ht="31.5">
       <c r="A55" s="32" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="B55" s="32" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="C55" s="32" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="D55" s="32" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="E55" s="32"/>
       <c r="F55" s="32" t="s">
@@ -18634,8 +18634,8 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:IV50"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:D50"/>
+    <sheetView showGridLines="0" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -18952,7 +18952,7 @@
         <v>832</v>
       </c>
       <c r="D3" s="62" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="E3" s="30"/>
       <c r="F3" s="30" t="s">
@@ -19190,16 +19190,16 @@
     </row>
     <row r="16" spans="1:256" ht="31.5" customHeight="1">
       <c r="A16" s="61" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="B16" s="62" t="s">
         <v>829</v>
       </c>
       <c r="C16" s="61" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="D16" s="61" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="E16" s="30"/>
       <c r="F16" s="30" t="s">
@@ -19209,16 +19209,16 @@
     </row>
     <row r="17" spans="1:7" ht="31.5" customHeight="1">
       <c r="A17" s="61" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="B17" s="62" t="s">
         <v>829</v>
       </c>
       <c r="C17" s="61" t="s">
+        <v>1056</v>
+      </c>
+      <c r="D17" s="61" t="s">
         <v>1057</v>
-      </c>
-      <c r="D17" s="61" t="s">
-        <v>1058</v>
       </c>
       <c r="E17" s="30"/>
       <c r="F17" s="30" t="s">
@@ -19237,7 +19237,7 @@
         <v>863</v>
       </c>
       <c r="D18" s="61" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="E18" s="30"/>
       <c r="F18" s="30" t="s">
@@ -19729,43 +19729,43 @@
       <c r="D44" s="62" t="s">
         <v>934</v>
       </c>
-      <c r="E44" s="30" t="s">
-        <v>935</v>
+      <c r="E44" s="31" t="s">
+        <v>1274</v>
       </c>
       <c r="F44" s="30"/>
       <c r="G44" s="30"/>
     </row>
     <row r="45" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A45" s="62" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="B45" s="62" t="s">
         <v>829</v>
       </c>
       <c r="C45" s="62" t="s">
+        <v>936</v>
+      </c>
+      <c r="D45" s="62" t="s">
         <v>937</v>
       </c>
-      <c r="D45" s="62" t="s">
+      <c r="E45" s="30" t="s">
         <v>938</v>
-      </c>
-      <c r="E45" s="30" t="s">
-        <v>939</v>
       </c>
       <c r="F45" s="30"/>
       <c r="G45" s="30"/>
     </row>
     <row r="46" spans="1:7" ht="31.5" customHeight="1">
       <c r="A46" s="62" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="B46" s="62" t="s">
         <v>829</v>
       </c>
       <c r="C46" s="62" t="s">
+        <v>940</v>
+      </c>
+      <c r="D46" s="62" t="s">
         <v>941</v>
-      </c>
-      <c r="D46" s="62" t="s">
-        <v>942</v>
       </c>
       <c r="E46" s="30"/>
       <c r="F46" s="30"/>
@@ -19773,16 +19773,16 @@
     </row>
     <row r="47" spans="1:7" ht="31.5" customHeight="1">
       <c r="A47" s="62" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="B47" s="62" t="s">
         <v>829</v>
       </c>
       <c r="C47" s="62" t="s">
+        <v>943</v>
+      </c>
+      <c r="D47" s="62" t="s">
         <v>944</v>
-      </c>
-      <c r="D47" s="62" t="s">
-        <v>945</v>
       </c>
       <c r="E47" s="30"/>
       <c r="F47" s="30"/>
@@ -19790,16 +19790,16 @@
     </row>
     <row r="48" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A48" s="62" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="B48" s="62" t="s">
         <v>829</v>
       </c>
       <c r="C48" s="62" t="s">
+        <v>946</v>
+      </c>
+      <c r="D48" s="62" t="s">
         <v>947</v>
-      </c>
-      <c r="D48" s="62" t="s">
-        <v>948</v>
       </c>
       <c r="E48" s="30"/>
       <c r="F48" s="30"/>
@@ -19807,16 +19807,16 @@
     </row>
     <row r="49" spans="1:256" s="51" customFormat="1" ht="31.5">
       <c r="A49" s="61" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="B49" s="62" t="s">
         <v>829</v>
       </c>
       <c r="C49" s="65" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="D49" s="65" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="E49" s="30"/>
       <c r="F49" s="30"/>
@@ -20073,16 +20073,16 @@
     </row>
     <row r="50" spans="1:256" s="64" customFormat="1">
       <c r="A50" s="61" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="B50" s="62" t="s">
         <v>829</v>
       </c>
       <c r="C50" s="62" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="D50" s="62" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="E50" s="62"/>
       <c r="F50" s="62"/>
@@ -20397,13 +20397,13 @@
         <v>415</v>
       </c>
       <c r="B2" s="30" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="C2" s="30" t="s">
+        <v>950</v>
+      </c>
+      <c r="D2" s="30" t="s">
         <v>951</v>
-      </c>
-      <c r="D2" s="30" t="s">
-        <v>952</v>
       </c>
       <c r="E2" s="30"/>
       <c r="F2" s="30" t="s">
@@ -20416,13 +20416,13 @@
         <v>418</v>
       </c>
       <c r="B3" s="30" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="C3" s="30" t="s">
+        <v>952</v>
+      </c>
+      <c r="D3" s="30" t="s">
         <v>953</v>
-      </c>
-      <c r="D3" s="30" t="s">
-        <v>954</v>
       </c>
       <c r="E3" s="30"/>
       <c r="F3" s="30" t="s">
@@ -20435,13 +20435,13 @@
         <v>421</v>
       </c>
       <c r="B4" s="30" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="C4" s="30" t="s">
+        <v>954</v>
+      </c>
+      <c r="D4" s="30" t="s">
         <v>955</v>
-      </c>
-      <c r="D4" s="30" t="s">
-        <v>956</v>
       </c>
       <c r="E4" s="30"/>
       <c r="F4" s="30" t="s">
@@ -20454,13 +20454,13 @@
         <v>436</v>
       </c>
       <c r="B5" s="30" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="C5" s="30" t="s">
+        <v>956</v>
+      </c>
+      <c r="D5" s="30" t="s">
         <v>957</v>
-      </c>
-      <c r="D5" s="30" t="s">
-        <v>958</v>
       </c>
       <c r="E5" s="30"/>
       <c r="F5" s="30" t="s">
@@ -20473,13 +20473,13 @@
         <v>424</v>
       </c>
       <c r="B6" s="30" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="C6" s="30" t="s">
+        <v>958</v>
+      </c>
+      <c r="D6" s="30" t="s">
         <v>959</v>
-      </c>
-      <c r="D6" s="30" t="s">
-        <v>960</v>
       </c>
       <c r="E6" s="30"/>
       <c r="F6" s="30" t="s">
@@ -20492,13 +20492,13 @@
         <v>427</v>
       </c>
       <c r="B7" s="30" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="C7" s="30" t="s">
+        <v>960</v>
+      </c>
+      <c r="D7" s="30" t="s">
         <v>961</v>
-      </c>
-      <c r="D7" s="30" t="s">
-        <v>962</v>
       </c>
       <c r="E7" s="30"/>
       <c r="F7" s="30" t="s">
@@ -20511,13 +20511,13 @@
         <v>430</v>
       </c>
       <c r="B8" s="30" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="C8" s="30" t="s">
+        <v>962</v>
+      </c>
+      <c r="D8" s="30" t="s">
         <v>963</v>
-      </c>
-      <c r="D8" s="30" t="s">
-        <v>964</v>
       </c>
       <c r="E8" s="30"/>
       <c r="F8" s="30" t="s">
@@ -20530,13 +20530,13 @@
         <v>433</v>
       </c>
       <c r="B9" s="30" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="C9" s="30" t="s">
+        <v>964</v>
+      </c>
+      <c r="D9" s="30" t="s">
         <v>965</v>
-      </c>
-      <c r="D9" s="30" t="s">
-        <v>966</v>
       </c>
       <c r="E9" s="30"/>
       <c r="F9" s="30" t="s">
@@ -20549,13 +20549,13 @@
         <v>439</v>
       </c>
       <c r="B10" s="30" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="C10" s="30" t="s">
+        <v>966</v>
+      </c>
+      <c r="D10" s="30" t="s">
         <v>967</v>
-      </c>
-      <c r="D10" s="30" t="s">
-        <v>968</v>
       </c>
       <c r="E10" s="30"/>
       <c r="F10" s="30" t="s">
@@ -20565,16 +20565,16 @@
     </row>
     <row r="11" spans="1:256" ht="47.25" customHeight="1">
       <c r="A11" s="30" t="s">
+        <v>968</v>
+      </c>
+      <c r="B11" s="30" t="s">
+        <v>1077</v>
+      </c>
+      <c r="C11" s="30" t="s">
         <v>969</v>
       </c>
-      <c r="B11" s="30" t="s">
-        <v>1078</v>
-      </c>
-      <c r="C11" s="30" t="s">
+      <c r="D11" s="30" t="s">
         <v>970</v>
-      </c>
-      <c r="D11" s="30" t="s">
-        <v>971</v>
       </c>
       <c r="E11" s="30"/>
       <c r="F11" s="30" t="s">
@@ -20587,13 +20587,13 @@
         <v>442</v>
       </c>
       <c r="B12" s="30" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="C12" s="30" t="s">
+        <v>971</v>
+      </c>
+      <c r="D12" s="30" t="s">
         <v>972</v>
-      </c>
-      <c r="D12" s="30" t="s">
-        <v>973</v>
       </c>
       <c r="E12" s="30"/>
       <c r="F12" s="30" t="s">
@@ -20606,20 +20606,20 @@
         <v>445</v>
       </c>
       <c r="B13" s="30" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="C13" s="30" t="s">
+        <v>973</v>
+      </c>
+      <c r="D13" s="30" t="s">
         <v>974</v>
-      </c>
-      <c r="D13" s="30" t="s">
-        <v>975</v>
       </c>
       <c r="E13" s="30"/>
       <c r="F13" s="30" t="s">
         <v>759</v>
       </c>
       <c r="G13" s="30" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
     </row>
     <row r="14" spans="1:256" ht="31.5" customHeight="1">
@@ -20627,13 +20627,13 @@
         <v>448</v>
       </c>
       <c r="B14" s="30" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="C14" s="30" t="s">
+        <v>976</v>
+      </c>
+      <c r="D14" s="30" t="s">
         <v>977</v>
-      </c>
-      <c r="D14" s="30" t="s">
-        <v>978</v>
       </c>
       <c r="E14" s="30"/>
       <c r="F14" s="30" t="s">
@@ -20646,22 +20646,22 @@
         <v>481</v>
       </c>
       <c r="B15" s="30" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="C15" s="30" t="s">
+        <v>978</v>
+      </c>
+      <c r="D15" s="30" t="s">
         <v>979</v>
       </c>
-      <c r="D15" s="30" t="s">
+      <c r="E15" s="30" t="s">
         <v>980</v>
-      </c>
-      <c r="E15" s="30" t="s">
-        <v>981</v>
       </c>
       <c r="F15" s="30" t="s">
         <v>759</v>
       </c>
       <c r="G15" s="30" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="16" spans="1:256" ht="47.25" customHeight="1">
@@ -20669,13 +20669,13 @@
         <v>472</v>
       </c>
       <c r="B16" s="30" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="C16" s="30" t="s">
+        <v>981</v>
+      </c>
+      <c r="D16" s="30" t="s">
         <v>982</v>
-      </c>
-      <c r="D16" s="30" t="s">
-        <v>983</v>
       </c>
       <c r="E16" s="30"/>
       <c r="F16" s="30" t="s">
@@ -20688,22 +20688,22 @@
         <v>484</v>
       </c>
       <c r="B17" s="30" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="C17" s="30" t="s">
+        <v>983</v>
+      </c>
+      <c r="D17" s="30" t="s">
         <v>984</v>
       </c>
-      <c r="D17" s="30" t="s">
+      <c r="E17" s="30" t="s">
         <v>985</v>
-      </c>
-      <c r="E17" s="30" t="s">
-        <v>986</v>
       </c>
       <c r="F17" s="30" t="s">
         <v>759</v>
       </c>
       <c r="G17" s="30" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="31.5" customHeight="1">
@@ -20711,10 +20711,10 @@
         <v>511</v>
       </c>
       <c r="B18" s="30" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="C18" s="30" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="D18" s="30" t="s">
         <v>510</v>
@@ -20730,10 +20730,10 @@
         <v>514</v>
       </c>
       <c r="B19" s="30" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="C19" s="30" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="D19" s="30" t="s">
         <v>513</v>
@@ -20749,13 +20749,13 @@
         <v>517</v>
       </c>
       <c r="B20" s="30" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="C20" s="30" t="s">
+        <v>989</v>
+      </c>
+      <c r="D20" s="30" t="s">
         <v>990</v>
-      </c>
-      <c r="D20" s="30" t="s">
-        <v>991</v>
       </c>
       <c r="E20" s="30"/>
       <c r="F20" s="30" t="s">
@@ -20768,13 +20768,13 @@
         <v>520</v>
       </c>
       <c r="B21" s="30" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="C21" s="30" t="s">
+        <v>991</v>
+      </c>
+      <c r="D21" s="30" t="s">
         <v>992</v>
-      </c>
-      <c r="D21" s="30" t="s">
-        <v>993</v>
       </c>
       <c r="E21" s="30"/>
       <c r="F21" s="30" t="s">
@@ -20787,13 +20787,13 @@
         <v>525</v>
       </c>
       <c r="B22" s="30" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="C22" s="30" t="s">
+        <v>993</v>
+      </c>
+      <c r="D22" s="30" t="s">
         <v>994</v>
-      </c>
-      <c r="D22" s="30" t="s">
-        <v>995</v>
       </c>
       <c r="E22" s="30"/>
       <c r="F22" s="30" t="s">
@@ -20806,10 +20806,10 @@
         <v>467</v>
       </c>
       <c r="B23" s="30" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="C23" s="30" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="D23" s="30" t="s">
         <v>522</v>
@@ -20820,16 +20820,16 @@
     </row>
     <row r="24" spans="1:7" ht="31.5">
       <c r="A24" s="70" t="s">
+        <v>1103</v>
+      </c>
+      <c r="B24" s="70" t="s">
         <v>1104</v>
       </c>
-      <c r="B24" s="70" t="s">
+      <c r="C24" s="70" t="s">
         <v>1105</v>
       </c>
-      <c r="C24" s="70" t="s">
+      <c r="D24" s="70" t="s">
         <v>1106</v>
-      </c>
-      <c r="D24" s="70" t="s">
-        <v>1107</v>
       </c>
       <c r="E24" s="70"/>
       <c r="F24" s="70"/>
@@ -20837,16 +20837,16 @@
     </row>
     <row r="25" spans="1:7" ht="47.25">
       <c r="A25" s="70" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B25" s="70" t="s">
+        <v>1104</v>
+      </c>
+      <c r="C25" s="70" t="s">
         <v>1108</v>
       </c>
-      <c r="B25" s="70" t="s">
-        <v>1105</v>
-      </c>
-      <c r="C25" s="70" t="s">
-        <v>1109</v>
-      </c>
       <c r="D25" s="70" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="E25" s="70"/>
       <c r="F25" s="70"/>
@@ -20854,16 +20854,16 @@
     </row>
     <row r="26" spans="1:7" ht="31.5">
       <c r="A26" s="70" t="s">
+        <v>1109</v>
+      </c>
+      <c r="B26" s="70" t="s">
+        <v>1104</v>
+      </c>
+      <c r="C26" s="70" t="s">
         <v>1110</v>
       </c>
-      <c r="B26" s="70" t="s">
-        <v>1105</v>
-      </c>
-      <c r="C26" s="70" t="s">
+      <c r="D26" s="70" t="s">
         <v>1111</v>
-      </c>
-      <c r="D26" s="70" t="s">
-        <v>1112</v>
       </c>
       <c r="E26" s="70"/>
       <c r="F26" s="70"/>
@@ -20871,16 +20871,16 @@
     </row>
     <row r="27" spans="1:7" ht="47.25">
       <c r="A27" s="70" t="s">
+        <v>1112</v>
+      </c>
+      <c r="B27" s="70" t="s">
+        <v>1104</v>
+      </c>
+      <c r="C27" s="70" t="s">
         <v>1113</v>
       </c>
-      <c r="B27" s="70" t="s">
-        <v>1105</v>
-      </c>
-      <c r="C27" s="70" t="s">
+      <c r="D27" s="70" t="s">
         <v>1114</v>
-      </c>
-      <c r="D27" s="70" t="s">
-        <v>1115</v>
       </c>
       <c r="E27" s="70"/>
       <c r="F27" s="70"/>
@@ -20888,16 +20888,16 @@
     </row>
     <row r="28" spans="1:7" ht="47.25">
       <c r="A28" s="70" t="s">
+        <v>1115</v>
+      </c>
+      <c r="B28" s="70" t="s">
+        <v>1104</v>
+      </c>
+      <c r="C28" s="70" t="s">
         <v>1116</v>
       </c>
-      <c r="B28" s="70" t="s">
-        <v>1105</v>
-      </c>
-      <c r="C28" s="70" t="s">
+      <c r="D28" s="70" t="s">
         <v>1117</v>
-      </c>
-      <c r="D28" s="70" t="s">
-        <v>1118</v>
       </c>
       <c r="E28" s="70"/>
       <c r="F28" s="70"/>
@@ -20905,16 +20905,16 @@
     </row>
     <row r="29" spans="1:7" ht="31.5">
       <c r="A29" s="70" t="s">
+        <v>1118</v>
+      </c>
+      <c r="B29" s="70" t="s">
+        <v>1104</v>
+      </c>
+      <c r="C29" s="70" t="s">
         <v>1119</v>
       </c>
-      <c r="B29" s="70" t="s">
-        <v>1105</v>
-      </c>
-      <c r="C29" s="70" t="s">
+      <c r="D29" s="70" t="s">
         <v>1120</v>
-      </c>
-      <c r="D29" s="70" t="s">
-        <v>1121</v>
       </c>
       <c r="E29" s="70"/>
       <c r="F29" s="70"/>
@@ -20922,16 +20922,16 @@
     </row>
     <row r="30" spans="1:7" ht="47.25">
       <c r="A30" s="70" t="s">
+        <v>1121</v>
+      </c>
+      <c r="B30" s="70" t="s">
+        <v>1104</v>
+      </c>
+      <c r="C30" s="70" t="s">
         <v>1122</v>
       </c>
-      <c r="B30" s="70" t="s">
-        <v>1105</v>
-      </c>
-      <c r="C30" s="70" t="s">
+      <c r="D30" s="70" t="s">
         <v>1123</v>
-      </c>
-      <c r="D30" s="70" t="s">
-        <v>1124</v>
       </c>
       <c r="E30" s="70"/>
       <c r="F30" s="70"/>
@@ -20993,16 +20993,16 @@
     </row>
     <row r="2" spans="1:256" s="54" customFormat="1">
       <c r="A2" s="8" t="s">
+        <v>996</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>997</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="C2" s="8" t="s">
         <v>998</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>999</v>
-      </c>
       <c r="D2" s="8" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="E2" s="56"/>
       <c r="F2" s="28" t="s">
@@ -21261,16 +21261,16 @@
     </row>
     <row r="3" spans="1:256">
       <c r="A3" s="5" t="s">
+        <v>999</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>997</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>1000</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>998</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>1001</v>
-      </c>
       <c r="D3" s="5" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="E3" s="57"/>
       <c r="F3" s="3" t="s">
@@ -21280,16 +21280,16 @@
     </row>
     <row r="4" spans="1:256" ht="63">
       <c r="A4" s="5" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>997</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>1002</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>998</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>1003</v>
-      </c>
       <c r="D4" s="8" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="E4" s="56"/>
       <c r="F4" s="3" t="s">
@@ -21311,8 +21311,8 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:IV29"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -21603,23 +21603,23 @@
     </row>
     <row r="2" spans="1:256" ht="31.5" customHeight="1">
       <c r="A2" s="30" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B2" s="30" t="s">
         <v>1004</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="C2" s="30" t="s">
         <v>1005</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="D2" s="30" t="s">
         <v>1006</v>
-      </c>
-      <c r="D2" s="30" t="s">
-        <v>1007</v>
       </c>
       <c r="E2" s="30"/>
       <c r="F2" s="30" t="s">
         <v>759</v>
       </c>
       <c r="G2" s="30" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="3" spans="1:256" ht="17.100000000000001" customHeight="1">
@@ -21627,13 +21627,13 @@
         <v>622</v>
       </c>
       <c r="B3" s="30" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="C3" s="30" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D3" s="30" t="s">
         <v>1009</v>
-      </c>
-      <c r="D3" s="30" t="s">
-        <v>1010</v>
       </c>
       <c r="E3" s="30"/>
       <c r="F3" s="30" t="s">
@@ -21646,13 +21646,13 @@
         <v>553</v>
       </c>
       <c r="B4" s="30" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="C4" s="30" t="s">
+        <v>1010</v>
+      </c>
+      <c r="D4" s="30" t="s">
         <v>1011</v>
-      </c>
-      <c r="D4" s="30" t="s">
-        <v>1012</v>
       </c>
       <c r="E4" s="30"/>
       <c r="F4" s="30" t="s">
@@ -21665,13 +21665,13 @@
         <v>556</v>
       </c>
       <c r="B5" s="30" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="C5" s="30" t="s">
+        <v>1012</v>
+      </c>
+      <c r="D5" s="30" t="s">
         <v>1013</v>
-      </c>
-      <c r="D5" s="30" t="s">
-        <v>1014</v>
       </c>
       <c r="E5" s="30"/>
       <c r="F5" s="30" t="s">
@@ -21684,13 +21684,13 @@
         <v>559</v>
       </c>
       <c r="B6" s="30" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="C6" s="30" t="s">
+        <v>1014</v>
+      </c>
+      <c r="D6" s="30" t="s">
         <v>1015</v>
-      </c>
-      <c r="D6" s="30" t="s">
-        <v>1016</v>
       </c>
       <c r="E6" s="30"/>
       <c r="F6" s="30" t="s">
@@ -21703,16 +21703,16 @@
         <v>562</v>
       </c>
       <c r="B7" s="30" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="C7" s="30" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="D7" s="31" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="E7" s="61" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="F7" s="30" t="s">
         <v>759</v>
@@ -21724,13 +21724,13 @@
         <v>567</v>
       </c>
       <c r="B8" s="30" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="C8" s="30" t="s">
+        <v>1017</v>
+      </c>
+      <c r="D8" s="30" t="s">
         <v>1018</v>
-      </c>
-      <c r="D8" s="30" t="s">
-        <v>1019</v>
       </c>
       <c r="E8" s="30"/>
       <c r="F8" s="30" t="s">
@@ -21743,13 +21743,13 @@
         <v>570</v>
       </c>
       <c r="B9" s="30" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="C9" s="30" t="s">
+        <v>1019</v>
+      </c>
+      <c r="D9" s="30" t="s">
         <v>1020</v>
-      </c>
-      <c r="D9" s="30" t="s">
-        <v>1021</v>
       </c>
       <c r="E9" s="30"/>
       <c r="F9" s="30" t="s">
@@ -21762,13 +21762,13 @@
         <v>573</v>
       </c>
       <c r="B10" s="30" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="C10" s="30" t="s">
+        <v>1021</v>
+      </c>
+      <c r="D10" s="30" t="s">
         <v>1022</v>
-      </c>
-      <c r="D10" s="30" t="s">
-        <v>1023</v>
       </c>
       <c r="E10" s="30"/>
       <c r="F10" s="30" t="s">
@@ -21781,13 +21781,13 @@
         <v>576</v>
       </c>
       <c r="B11" s="30" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="C11" s="30" t="s">
+        <v>1023</v>
+      </c>
+      <c r="D11" s="30" t="s">
         <v>1024</v>
-      </c>
-      <c r="D11" s="30" t="s">
-        <v>1025</v>
       </c>
       <c r="E11" s="30"/>
       <c r="F11" s="30" t="s">
@@ -21800,10 +21800,10 @@
         <v>579</v>
       </c>
       <c r="B12" s="30" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="C12" s="30" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="D12" s="30" t="s">
         <v>578</v>
@@ -21819,22 +21819,22 @@
         <v>582</v>
       </c>
       <c r="B13" s="30" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="C13" s="30" t="s">
+        <v>1026</v>
+      </c>
+      <c r="D13" s="30" t="s">
         <v>1027</v>
       </c>
-      <c r="D13" s="30" t="s">
-        <v>1028</v>
-      </c>
       <c r="E13" s="31" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="F13" s="30" t="s">
         <v>759</v>
       </c>
       <c r="G13" s="30" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="14" spans="1:256" ht="31.5" customHeight="1">
@@ -21842,20 +21842,20 @@
         <v>591</v>
       </c>
       <c r="B14" s="30" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="C14" s="30" t="s">
+        <v>1029</v>
+      </c>
+      <c r="D14" s="30" t="s">
         <v>1030</v>
-      </c>
-      <c r="D14" s="30" t="s">
-        <v>1031</v>
       </c>
       <c r="E14" s="30"/>
       <c r="F14" s="30" t="s">
         <v>759</v>
       </c>
       <c r="G14" s="30" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="15" spans="1:256" ht="31.5" customHeight="1">
@@ -21863,13 +21863,13 @@
         <v>594</v>
       </c>
       <c r="B15" s="30" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="C15" s="30" t="s">
+        <v>1032</v>
+      </c>
+      <c r="D15" s="30" t="s">
         <v>1033</v>
-      </c>
-      <c r="D15" s="30" t="s">
-        <v>1034</v>
       </c>
       <c r="E15" s="30"/>
       <c r="F15" s="30" t="s">
@@ -21882,13 +21882,13 @@
         <v>625</v>
       </c>
       <c r="B16" s="30" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="C16" s="30" t="s">
+        <v>1034</v>
+      </c>
+      <c r="D16" s="30" t="s">
         <v>1035</v>
-      </c>
-      <c r="D16" s="30" t="s">
-        <v>1036</v>
       </c>
       <c r="E16" s="30"/>
       <c r="F16" s="30" t="s">
@@ -21898,16 +21898,16 @@
     </row>
     <row r="17" spans="1:7" ht="31.5" customHeight="1">
       <c r="A17" s="30" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B17" s="30" t="s">
+        <v>1004</v>
+      </c>
+      <c r="C17" s="30" t="s">
         <v>1037</v>
       </c>
-      <c r="B17" s="30" t="s">
-        <v>1005</v>
-      </c>
-      <c r="C17" s="30" t="s">
+      <c r="D17" s="30" t="s">
         <v>1038</v>
-      </c>
-      <c r="D17" s="30" t="s">
-        <v>1039</v>
       </c>
       <c r="E17" s="30"/>
       <c r="F17" s="30" t="s">
@@ -21920,13 +21920,13 @@
         <v>657</v>
       </c>
       <c r="B18" s="30" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="C18" s="30" t="s">
+        <v>1039</v>
+      </c>
+      <c r="D18" s="30" t="s">
         <v>1040</v>
-      </c>
-      <c r="D18" s="30" t="s">
-        <v>1041</v>
       </c>
       <c r="E18" s="30"/>
       <c r="F18" s="30" t="s">
@@ -21936,25 +21936,25 @@
     </row>
     <row r="19" spans="1:7" ht="31.5" customHeight="1">
       <c r="A19" s="30" t="s">
+        <v>1041</v>
+      </c>
+      <c r="B19" s="30" t="s">
+        <v>1004</v>
+      </c>
+      <c r="C19" s="30" t="s">
         <v>1042</v>
       </c>
-      <c r="B19" s="30" t="s">
-        <v>1005</v>
-      </c>
-      <c r="C19" s="30" t="s">
-        <v>1043</v>
-      </c>
       <c r="D19" s="30" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="E19" s="55" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="F19" s="30" t="s">
         <v>759</v>
       </c>
       <c r="G19" s="31" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="31.5">
@@ -21962,13 +21962,13 @@
         <v>692</v>
       </c>
       <c r="B20" s="30" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="C20" s="30" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="D20" s="30" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="E20"/>
       <c r="F20" s="30" t="s">
@@ -21981,56 +21981,56 @@
         <v>695</v>
       </c>
       <c r="B21" s="30" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="C21" s="30" t="s">
+        <v>1044</v>
+      </c>
+      <c r="D21" s="31" t="s">
         <v>1045</v>
       </c>
-      <c r="D21" s="31" t="s">
-        <v>1046</v>
-      </c>
       <c r="E21" s="31" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="F21" s="30" t="s">
         <v>759</v>
       </c>
       <c r="G21" s="30" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="31.5" customHeight="1">
       <c r="A22" s="30" t="s">
+        <v>1047</v>
+      </c>
+      <c r="B22" s="30" t="s">
+        <v>1004</v>
+      </c>
+      <c r="C22" s="30" t="s">
         <v>1048</v>
       </c>
-      <c r="B22" s="30" t="s">
-        <v>1005</v>
-      </c>
-      <c r="C22" s="30" t="s">
+      <c r="D22" s="30" t="s">
         <v>1049</v>
       </c>
-      <c r="D22" s="30" t="s">
-        <v>1050</v>
-      </c>
       <c r="E22" s="55" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="F22" s="30" t="s">
         <v>778</v>
       </c>
       <c r="G22" s="30" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="31.5">
       <c r="A23" s="30" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B23" s="30" t="s">
+        <v>1004</v>
+      </c>
+      <c r="C23" s="30" t="s">
         <v>1067</v>
-      </c>
-      <c r="B23" s="30" t="s">
-        <v>1005</v>
-      </c>
-      <c r="C23" s="30" t="s">
-        <v>1068</v>
       </c>
       <c r="D23" s="30" t="s">
         <v>605</v>
@@ -22041,13 +22041,13 @@
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="30" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="B24" s="30" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="C24" s="30" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="D24" s="30" t="s">
         <v>609</v>
@@ -22058,32 +22058,32 @@
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="30" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="B25" s="30" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="C25" s="30" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="D25" s="30" t="s">
         <v>600</v>
       </c>
       <c r="E25" s="30" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="F25" s="30"/>
       <c r="G25" s="30"/>
     </row>
     <row r="26" spans="1:7" ht="31.5">
       <c r="A26" s="30" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="B26" s="30" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="C26" s="30" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="D26" s="30" t="s">
         <v>611</v>
@@ -22094,13 +22094,13 @@
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="52" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="B27" s="30" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="C27" s="31" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="D27" s="30" t="s">
         <v>736</v>
@@ -22111,32 +22111,32 @@
     </row>
     <row r="28" spans="1:7" ht="60">
       <c r="A28" s="62" t="s">
+        <v>1268</v>
+      </c>
+      <c r="B28" s="62" t="s">
+        <v>1004</v>
+      </c>
+      <c r="C28" s="62" t="s">
         <v>1269</v>
-      </c>
-      <c r="B28" s="62" t="s">
-        <v>1005</v>
-      </c>
-      <c r="C28" s="62" t="s">
-        <v>1270</v>
       </c>
       <c r="D28" s="74" t="s">
         <v>586</v>
       </c>
       <c r="E28" s="62" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="F28" s="62"/>
       <c r="G28" s="62"/>
     </row>
     <row r="29" spans="1:7" ht="30">
       <c r="A29" s="88" t="s">
+        <v>1270</v>
+      </c>
+      <c r="B29" s="62" t="s">
+        <v>1004</v>
+      </c>
+      <c r="C29" s="61" t="s">
         <v>1271</v>
-      </c>
-      <c r="B29" s="62" t="s">
-        <v>1005</v>
-      </c>
-      <c r="C29" s="61" t="s">
-        <v>1272</v>
       </c>
       <c r="D29" s="58" t="s">
         <v>588</v>
@@ -22448,40 +22448,40 @@
     </row>
     <row r="2" spans="1:256">
       <c r="A2" s="7" t="s">
+        <v>1082</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>1083</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>1091</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>1084</v>
-      </c>
       <c r="D2" s="7" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="E2" s="6"/>
       <c r="F2" s="6" t="s">
         <v>759</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="3" spans="1:256">
       <c r="A3" s="7" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="C3" s="6" t="s">
+        <v>1084</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>1050</v>
+      </c>
+      <c r="E3" s="6" t="s">
         <v>1085</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>1051</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>1086</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>778</v>
@@ -22490,19 +22490,19 @@
     </row>
     <row r="4" spans="1:256">
       <c r="A4" s="6" t="s">
+        <v>1089</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>1090</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>1091</v>
-      </c>
       <c r="C4" s="6" t="s">
+        <v>1087</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>1050</v>
+      </c>
+      <c r="E4" s="6" t="s">
         <v>1088</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>1051</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>1089</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>778</v>

--- a/conformancelib/testdata/PIV_Production_Cards.xlsx
+++ b/conformancelib/testdata/PIV_Production_Cards.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bob.fontana\Documents\GitRepos\piv-conformance\conformancelib\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E3B8506-9EF5-4438-8195-75F16E69CED8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7737BCE-5F84-4423-8785-53AAD6595791}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1140" yWindow="795" windowWidth="31020" windowHeight="14550" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7575" yWindow="255" windowWidth="28725" windowHeight="16515" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SP 800-85B Reference" sheetId="1" r:id="rId1"/>
@@ -24,14 +24,14 @@
     <sheet name="Placeholders" sheetId="9" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Steps Overview'!$D$1:$D$476</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Steps Overview'!$D$1:$D$477</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3681" uniqueCount="1275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3684" uniqueCount="1277">
   <si>
     <t>BER_TLV_Test_Assertions</t>
   </si>
@@ -3857,6 +3857,12 @@
   </si>
   <si>
     <t>CARDHOLDER_FINGERPRINTS_OID:128,CARDHOLDER_FACIAL_IMAGE_OID:32,CARDHOLDER_IRIS_IMAGES_OID:64</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>Length field encoded as shown in SP800-85B Table 8.1</t>
   </si>
 </sst>
 </file>
@@ -8476,10 +8482,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:G476"/>
+  <dimension ref="A1:G477"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B154" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="D173" sqref="D173"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="C147" sqref="C147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -8565,8 +8571,8 @@
       <c r="B5" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="C5" s="38" t="s">
-        <v>58</v>
+      <c r="C5" s="58" t="s">
+        <v>1276</v>
       </c>
       <c r="D5" s="38" t="s">
         <v>59</v>
@@ -8583,8 +8589,8 @@
       <c r="B6" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="C6" s="38" t="s">
-        <v>61</v>
+      <c r="C6" s="58" t="s">
+        <v>64</v>
       </c>
       <c r="D6" s="38" t="s">
         <v>62</v>
@@ -8601,8 +8607,8 @@
       <c r="B7" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="C7" s="38" t="s">
-        <v>64</v>
+      <c r="C7" s="58" t="s">
+        <v>67</v>
       </c>
       <c r="D7" s="38" t="s">
         <v>65</v>
@@ -8619,8 +8625,8 @@
       <c r="B8" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="C8" s="38" t="s">
-        <v>67</v>
+      <c r="C8" s="45" t="s">
+        <v>763</v>
       </c>
       <c r="D8" s="38" t="s">
         <v>68</v>
@@ -8791,8 +8797,8 @@
       <c r="B18" s="38" t="s">
         <v>90</v>
       </c>
-      <c r="C18" s="38" t="s">
-        <v>91</v>
+      <c r="C18" s="58" t="s">
+        <v>1276</v>
       </c>
       <c r="D18" s="38" t="s">
         <v>59</v>
@@ -8809,8 +8815,8 @@
       <c r="B19" s="38" t="s">
         <v>92</v>
       </c>
-      <c r="C19" s="38" t="s">
-        <v>61</v>
+      <c r="C19" s="58" t="s">
+        <v>64</v>
       </c>
       <c r="D19" s="38" t="s">
         <v>62</v>
@@ -8827,8 +8833,8 @@
       <c r="B20" s="38" t="s">
         <v>93</v>
       </c>
-      <c r="C20" s="38" t="s">
-        <v>64</v>
+      <c r="C20" s="58" t="s">
+        <v>67</v>
       </c>
       <c r="D20" s="38" t="s">
         <v>65</v>
@@ -8845,8 +8851,8 @@
       <c r="B21" s="38" t="s">
         <v>94</v>
       </c>
-      <c r="C21" s="38" t="s">
-        <v>67</v>
+      <c r="C21" s="45" t="s">
+        <v>763</v>
       </c>
       <c r="D21" s="38" t="s">
         <v>68</v>
@@ -9280,8 +9286,8 @@
       <c r="B45" s="38" t="s">
         <v>130</v>
       </c>
-      <c r="C45" s="38" t="s">
-        <v>131</v>
+      <c r="C45" s="58" t="s">
+        <v>1276</v>
       </c>
       <c r="D45" s="38" t="s">
         <v>59</v>
@@ -9298,8 +9304,8 @@
       <c r="B46" s="38" t="s">
         <v>132</v>
       </c>
-      <c r="C46" s="38" t="s">
-        <v>61</v>
+      <c r="C46" s="58" t="s">
+        <v>64</v>
       </c>
       <c r="D46" s="38" t="s">
         <v>62</v>
@@ -9316,8 +9322,8 @@
       <c r="B47" s="38" t="s">
         <v>133</v>
       </c>
-      <c r="C47" s="38" t="s">
-        <v>64</v>
+      <c r="C47" s="58" t="s">
+        <v>67</v>
       </c>
       <c r="D47" s="38" t="s">
         <v>65</v>
@@ -9334,8 +9340,8 @@
       <c r="B48" s="38" t="s">
         <v>134</v>
       </c>
-      <c r="C48" s="38" t="s">
-        <v>67</v>
+      <c r="C48" s="45" t="s">
+        <v>763</v>
       </c>
       <c r="D48" s="38" t="s">
         <v>68</v>
@@ -9488,8 +9494,8 @@
       <c r="B57" s="38" t="s">
         <v>151</v>
       </c>
-      <c r="C57" s="38" t="s">
-        <v>152</v>
+      <c r="C57" s="58" t="s">
+        <v>1276</v>
       </c>
       <c r="D57" s="38" t="s">
         <v>59</v>
@@ -9506,8 +9512,8 @@
       <c r="B58" s="38" t="s">
         <v>153</v>
       </c>
-      <c r="C58" s="38" t="s">
-        <v>61</v>
+      <c r="C58" s="58" t="s">
+        <v>64</v>
       </c>
       <c r="D58" s="38" t="s">
         <v>62</v>
@@ -9524,8 +9530,8 @@
       <c r="B59" s="38" t="s">
         <v>154</v>
       </c>
-      <c r="C59" s="38" t="s">
-        <v>64</v>
+      <c r="C59" s="58" t="s">
+        <v>67</v>
       </c>
       <c r="D59" s="38" t="s">
         <v>65</v>
@@ -9542,8 +9548,8 @@
       <c r="B60" s="38" t="s">
         <v>155</v>
       </c>
-      <c r="C60" s="38" t="s">
-        <v>67</v>
+      <c r="C60" s="45" t="s">
+        <v>763</v>
       </c>
       <c r="D60" s="38" t="s">
         <v>68</v>
@@ -9678,8 +9684,8 @@
       <c r="B68" s="38" t="s">
         <v>161</v>
       </c>
-      <c r="C68" s="38" t="s">
-        <v>162</v>
+      <c r="C68" s="58" t="s">
+        <v>1276</v>
       </c>
       <c r="D68" s="38" t="s">
         <v>59</v>
@@ -9696,8 +9702,8 @@
       <c r="B69" s="38" t="s">
         <v>163</v>
       </c>
-      <c r="C69" s="38" t="s">
-        <v>61</v>
+      <c r="C69" s="58" t="s">
+        <v>64</v>
       </c>
       <c r="D69" s="38" t="s">
         <v>62</v>
@@ -9714,8 +9720,8 @@
       <c r="B70" s="38" t="s">
         <v>164</v>
       </c>
-      <c r="C70" s="38" t="s">
-        <v>64</v>
+      <c r="C70" s="58" t="s">
+        <v>67</v>
       </c>
       <c r="D70" s="38" t="s">
         <v>65</v>
@@ -9732,8 +9738,8 @@
       <c r="B71" s="38" t="s">
         <v>165</v>
       </c>
-      <c r="C71" s="38" t="s">
-        <v>67</v>
+      <c r="C71" s="45" t="s">
+        <v>763</v>
       </c>
       <c r="D71" s="38" t="s">
         <v>68</v>
@@ -9924,8 +9930,8 @@
       <c r="B82" s="38" t="s">
         <v>182</v>
       </c>
-      <c r="C82" s="38" t="s">
-        <v>183</v>
+      <c r="C82" s="58" t="s">
+        <v>1276</v>
       </c>
       <c r="D82" s="38" t="s">
         <v>59</v>
@@ -9942,8 +9948,8 @@
       <c r="B83" s="38" t="s">
         <v>184</v>
       </c>
-      <c r="C83" s="38" t="s">
-        <v>61</v>
+      <c r="C83" s="58" t="s">
+        <v>64</v>
       </c>
       <c r="D83" s="38" t="s">
         <v>62</v>
@@ -9960,8 +9966,8 @@
       <c r="B84" s="38" t="s">
         <v>185</v>
       </c>
-      <c r="C84" s="38" t="s">
-        <v>64</v>
+      <c r="C84" s="58" t="s">
+        <v>67</v>
       </c>
       <c r="D84" s="38" t="s">
         <v>65</v>
@@ -9978,8 +9984,8 @@
       <c r="B85" s="38" t="s">
         <v>186</v>
       </c>
-      <c r="C85" s="38" t="s">
-        <v>67</v>
+      <c r="C85" s="45" t="s">
+        <v>763</v>
       </c>
       <c r="D85" s="38" t="s">
         <v>68</v>
@@ -10096,8 +10102,8 @@
       <c r="B92" s="38" t="s">
         <v>197</v>
       </c>
-      <c r="C92" s="38" t="s">
-        <v>198</v>
+      <c r="C92" s="58" t="s">
+        <v>1276</v>
       </c>
       <c r="D92" s="38" t="s">
         <v>59</v>
@@ -10114,8 +10120,8 @@
       <c r="B93" s="38" t="s">
         <v>199</v>
       </c>
-      <c r="C93" s="38" t="s">
-        <v>61</v>
+      <c r="C93" s="58" t="s">
+        <v>64</v>
       </c>
       <c r="D93" s="38" t="s">
         <v>62</v>
@@ -10132,8 +10138,8 @@
       <c r="B94" s="38" t="s">
         <v>200</v>
       </c>
-      <c r="C94" s="38" t="s">
-        <v>64</v>
+      <c r="C94" s="58" t="s">
+        <v>67</v>
       </c>
       <c r="D94" s="38" t="s">
         <v>65</v>
@@ -10150,8 +10156,8 @@
       <c r="B95" s="38" t="s">
         <v>201</v>
       </c>
-      <c r="C95" s="38" t="s">
-        <v>67</v>
+      <c r="C95" s="45" t="s">
+        <v>763</v>
       </c>
       <c r="D95" s="38" t="s">
         <v>68</v>
@@ -10304,8 +10310,8 @@
       <c r="B104" s="38" t="s">
         <v>208</v>
       </c>
-      <c r="C104" s="38" t="s">
-        <v>209</v>
+      <c r="C104" s="58" t="s">
+        <v>1276</v>
       </c>
       <c r="D104" s="38" t="s">
         <v>59</v>
@@ -10322,8 +10328,8 @@
       <c r="B105" s="38" t="s">
         <v>210</v>
       </c>
-      <c r="C105" s="38" t="s">
-        <v>61</v>
+      <c r="C105" s="58" t="s">
+        <v>64</v>
       </c>
       <c r="D105" s="38" t="s">
         <v>62</v>
@@ -10340,8 +10346,8 @@
       <c r="B106" s="38" t="s">
         <v>211</v>
       </c>
-      <c r="C106" s="38" t="s">
-        <v>64</v>
+      <c r="C106" s="58" t="s">
+        <v>67</v>
       </c>
       <c r="D106" s="38" t="s">
         <v>65</v>
@@ -10358,8 +10364,8 @@
       <c r="B107" s="38" t="s">
         <v>212</v>
       </c>
-      <c r="C107" s="38" t="s">
-        <v>67</v>
+      <c r="C107" s="45" t="s">
+        <v>763</v>
       </c>
       <c r="D107" s="38" t="s">
         <v>68</v>
@@ -10512,8 +10518,8 @@
       <c r="B116" s="38" t="s">
         <v>219</v>
       </c>
-      <c r="C116" s="38" t="s">
-        <v>220</v>
+      <c r="C116" s="58" t="s">
+        <v>1276</v>
       </c>
       <c r="D116" s="38" t="s">
         <v>59</v>
@@ -10530,8 +10536,8 @@
       <c r="B117" s="38" t="s">
         <v>221</v>
       </c>
-      <c r="C117" s="38" t="s">
-        <v>61</v>
+      <c r="C117" s="58" t="s">
+        <v>64</v>
       </c>
       <c r="D117" s="38" t="s">
         <v>62</v>
@@ -10548,8 +10554,8 @@
       <c r="B118" s="38" t="s">
         <v>222</v>
       </c>
-      <c r="C118" s="38" t="s">
-        <v>64</v>
+      <c r="C118" s="58" t="s">
+        <v>67</v>
       </c>
       <c r="D118" s="38" t="s">
         <v>65</v>
@@ -10566,8 +10572,8 @@
       <c r="B119" s="38" t="s">
         <v>223</v>
       </c>
-      <c r="C119" s="38" t="s">
-        <v>67</v>
+      <c r="C119" s="45" t="s">
+        <v>763</v>
       </c>
       <c r="D119" s="38" t="s">
         <v>68</v>
@@ -10720,8 +10726,8 @@
       <c r="B128" s="38" t="s">
         <v>230</v>
       </c>
-      <c r="C128" s="38" t="s">
-        <v>231</v>
+      <c r="C128" s="58" t="s">
+        <v>1276</v>
       </c>
       <c r="D128" s="38" t="s">
         <v>59</v>
@@ -10738,8 +10744,8 @@
       <c r="B129" s="38" t="s">
         <v>232</v>
       </c>
-      <c r="C129" s="38" t="s">
-        <v>61</v>
+      <c r="C129" s="58" t="s">
+        <v>64</v>
       </c>
       <c r="D129" s="38" t="s">
         <v>62</v>
@@ -10756,8 +10762,8 @@
       <c r="B130" s="38" t="s">
         <v>233</v>
       </c>
-      <c r="C130" s="38" t="s">
-        <v>64</v>
+      <c r="C130" s="58" t="s">
+        <v>67</v>
       </c>
       <c r="D130" s="38" t="s">
         <v>65</v>
@@ -10774,8 +10780,8 @@
       <c r="B131" s="38" t="s">
         <v>234</v>
       </c>
-      <c r="C131" s="38" t="s">
-        <v>67</v>
+      <c r="C131" s="45" t="s">
+        <v>763</v>
       </c>
       <c r="D131" s="38" t="s">
         <v>68</v>
@@ -10911,8 +10917,8 @@
       <c r="B139" s="38" t="s">
         <v>247</v>
       </c>
-      <c r="C139" s="38" t="s">
-        <v>248</v>
+      <c r="C139" s="58" t="s">
+        <v>1276</v>
       </c>
       <c r="D139" s="38" t="s">
         <v>59</v>
@@ -10929,8 +10935,8 @@
       <c r="B140" s="38" t="s">
         <v>249</v>
       </c>
-      <c r="C140" s="38" t="s">
-        <v>61</v>
+      <c r="C140" s="58" t="s">
+        <v>64</v>
       </c>
       <c r="D140" s="38" t="s">
         <v>62</v>
@@ -10947,8 +10953,8 @@
       <c r="B141" s="38" t="s">
         <v>250</v>
       </c>
-      <c r="C141" s="38" t="s">
-        <v>64</v>
+      <c r="C141" s="58" t="s">
+        <v>67</v>
       </c>
       <c r="D141" s="38" t="s">
         <v>65</v>
@@ -10965,8 +10971,8 @@
       <c r="B142" s="38" t="s">
         <v>251</v>
       </c>
-      <c r="C142" s="38" t="s">
-        <v>67</v>
+      <c r="C142" s="45" t="s">
+        <v>763</v>
       </c>
       <c r="D142" s="38" t="s">
         <v>68</v>
@@ -11221,317 +11227,315 @@
       <c r="E157" s="40"/>
       <c r="F157" s="37"/>
     </row>
-    <row r="158" spans="1:7" ht="15.75">
-      <c r="A158" s="58" t="s">
-        <v>56</v>
-      </c>
-      <c r="B158" s="58">
+    <row r="158" spans="1:7" s="45" customFormat="1" ht="15.75">
+      <c r="A158" s="71" t="s">
+        <v>56</v>
+      </c>
+      <c r="B158" s="71" t="s">
+        <v>1275</v>
+      </c>
+      <c r="C158" s="72" t="s">
+        <v>19</v>
+      </c>
+      <c r="D158" s="59"/>
+      <c r="E158" s="72"/>
+      <c r="F158" s="59"/>
+    </row>
+    <row r="159" spans="1:7" ht="15.75">
+      <c r="A159" s="58" t="s">
+        <v>56</v>
+      </c>
+      <c r="B159" s="58">
         <v>9.1</v>
       </c>
-      <c r="C158" s="59" t="s">
+      <c r="C159" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="D158" s="59"/>
-      <c r="E158" s="36"/>
-      <c r="F158" s="37"/>
-    </row>
-    <row r="159" spans="1:7">
-      <c r="A159" s="58" t="s">
-        <v>56</v>
-      </c>
-      <c r="B159" s="58" t="s">
+      <c r="D159" s="59"/>
+      <c r="E159" s="36"/>
+      <c r="F159" s="37"/>
+    </row>
+    <row r="160" spans="1:7">
+      <c r="A160" s="58" t="s">
+        <v>56</v>
+      </c>
+      <c r="B160" s="58" t="s">
         <v>270</v>
       </c>
-      <c r="C159" s="60" t="s">
+      <c r="C160" s="60" t="s">
         <v>21</v>
       </c>
-      <c r="D159" s="59"/>
-      <c r="E159" s="37"/>
-      <c r="F159" s="37"/>
-    </row>
-    <row r="160" spans="1:7" s="69" customFormat="1">
-      <c r="A160" s="66" t="s">
-        <v>56</v>
-      </c>
-      <c r="B160" s="66" t="s">
+      <c r="D160" s="59"/>
+      <c r="E160" s="37"/>
+      <c r="F160" s="37"/>
+    </row>
+    <row r="161" spans="1:7" s="69" customFormat="1">
+      <c r="A161" s="66" t="s">
+        <v>56</v>
+      </c>
+      <c r="B161" s="66" t="s">
         <v>271</v>
       </c>
-      <c r="C160" s="66" t="s">
+      <c r="C161" s="66" t="s">
         <v>274</v>
       </c>
-      <c r="D160" s="66">
+      <c r="D161" s="66">
         <v>76.099999999999994</v>
       </c>
-      <c r="E160" s="39"/>
-      <c r="F160" s="67"/>
-      <c r="G160" s="68"/>
-    </row>
-    <row r="161" spans="1:6">
-      <c r="A161" s="58" t="s">
-        <v>56</v>
-      </c>
-      <c r="B161" s="58" t="s">
+      <c r="E161" s="39"/>
+      <c r="F161" s="67"/>
+      <c r="G161" s="68"/>
+    </row>
+    <row r="162" spans="1:7">
+      <c r="A162" s="58" t="s">
+        <v>56</v>
+      </c>
+      <c r="B162" s="58" t="s">
         <v>273</v>
       </c>
-      <c r="C161" s="58" t="s">
+      <c r="C162" s="58" t="s">
         <v>1244</v>
       </c>
-      <c r="D161" s="58">
+      <c r="D162" s="58">
         <v>76.2</v>
-      </c>
-      <c r="E161" s="38"/>
-      <c r="F161" s="38"/>
-    </row>
-    <row r="162" spans="1:6">
-      <c r="A162" s="58" t="s">
-        <v>56</v>
-      </c>
-      <c r="B162" s="58" t="s">
-        <v>275</v>
-      </c>
-      <c r="C162" s="58" t="s">
-        <v>278</v>
-      </c>
-      <c r="D162" s="58" t="s">
-        <v>833</v>
       </c>
       <c r="E162" s="38"/>
       <c r="F162" s="38"/>
     </row>
-    <row r="163" spans="1:6">
+    <row r="163" spans="1:7">
       <c r="A163" s="58" t="s">
         <v>56</v>
       </c>
       <c r="B163" s="58" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C163" s="58" t="s">
-        <v>1245</v>
+        <v>278</v>
       </c>
       <c r="D163" s="58" t="s">
-        <v>1246</v>
+        <v>833</v>
       </c>
       <c r="E163" s="38"/>
       <c r="F163" s="38"/>
     </row>
-    <row r="164" spans="1:6">
-      <c r="A164" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="B164" s="38" t="s">
-        <v>1248</v>
-      </c>
-      <c r="C164" s="38" t="s">
-        <v>281</v>
-      </c>
-      <c r="D164" s="38" t="s">
-        <v>835</v>
+    <row r="164" spans="1:7">
+      <c r="A164" s="58" t="s">
+        <v>56</v>
+      </c>
+      <c r="B164" s="58" t="s">
+        <v>277</v>
+      </c>
+      <c r="C164" s="58" t="s">
+        <v>1245</v>
+      </c>
+      <c r="D164" s="58" t="s">
+        <v>1246</v>
       </c>
       <c r="E164" s="38"/>
       <c r="F164" s="38"/>
     </row>
-    <row r="165" spans="1:6">
+    <row r="165" spans="1:7">
       <c r="A165" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B165" s="38" t="s">
+        <v>1248</v>
+      </c>
+      <c r="C165" s="38" t="s">
+        <v>281</v>
+      </c>
+      <c r="D165" s="38" t="s">
+        <v>835</v>
+      </c>
+      <c r="E165" s="38"/>
+      <c r="F165" s="38"/>
+    </row>
+    <row r="166" spans="1:7">
+      <c r="A166" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="B166" s="38" t="s">
         <v>279</v>
       </c>
-      <c r="C165" s="40" t="s">
+      <c r="C166" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="D165" s="40"/>
-      <c r="E165" s="40"/>
-      <c r="F165" s="40"/>
-    </row>
-    <row r="166" spans="1:6" s="45" customFormat="1">
-      <c r="A166" s="58" t="s">
-        <v>56</v>
-      </c>
-      <c r="B166" s="58" t="s">
+      <c r="D166" s="40"/>
+      <c r="E166" s="40"/>
+      <c r="F166" s="40"/>
+    </row>
+    <row r="167" spans="1:7" s="45" customFormat="1">
+      <c r="A167" s="58" t="s">
+        <v>56</v>
+      </c>
+      <c r="B167" s="58" t="s">
         <v>280</v>
       </c>
-      <c r="C166" s="58" t="s">
+      <c r="C167" s="58" t="s">
         <v>1249</v>
       </c>
-      <c r="D166" s="58" t="s">
+      <c r="D167" s="58" t="s">
         <v>837</v>
       </c>
-      <c r="E166" s="58"/>
-      <c r="F166" s="58"/>
-    </row>
-    <row r="167" spans="1:6">
-      <c r="A167" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="B167" s="38" t="s">
+      <c r="E167" s="58"/>
+      <c r="F167" s="58"/>
+    </row>
+    <row r="168" spans="1:7">
+      <c r="A168" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="B168" s="38" t="s">
         <v>282</v>
       </c>
-      <c r="C167" s="38" t="s">
+      <c r="C168" s="38" t="s">
         <v>283</v>
       </c>
-      <c r="D167" s="38">
+      <c r="D168" s="38">
         <v>76.599999999999994</v>
-      </c>
-      <c r="E167" s="38"/>
-      <c r="F167" s="38"/>
-    </row>
-    <row r="168" spans="1:6" ht="30">
-      <c r="A168" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="B168" s="38" t="s">
-        <v>284</v>
-      </c>
-      <c r="C168" s="38" t="s">
-        <v>285</v>
-      </c>
-      <c r="D168" s="38">
-        <v>76.7</v>
       </c>
       <c r="E168" s="38"/>
       <c r="F168" s="38"/>
     </row>
-    <row r="169" spans="1:6">
+    <row r="169" spans="1:7" ht="30">
       <c r="A169" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B169" s="38" t="s">
+        <v>284</v>
+      </c>
+      <c r="C169" s="38" t="s">
+        <v>285</v>
+      </c>
+      <c r="D169" s="38">
+        <v>76.7</v>
+      </c>
+      <c r="E169" s="38"/>
+      <c r="F169" s="38"/>
+    </row>
+    <row r="170" spans="1:7">
+      <c r="A170" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="B170" s="38" t="s">
         <v>286</v>
       </c>
-      <c r="C169" s="38" t="s">
+      <c r="C170" s="38" t="s">
         <v>1074</v>
       </c>
-      <c r="D169" s="39" t="s">
+      <c r="D170" s="39" t="s">
         <v>918</v>
-      </c>
-      <c r="E169" s="38"/>
-      <c r="F169" s="39"/>
-    </row>
-    <row r="170" spans="1:6" ht="30">
-      <c r="A170" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="B170" s="38" t="s">
-        <v>288</v>
-      </c>
-      <c r="C170" s="38" t="s">
-        <v>289</v>
-      </c>
-      <c r="D170" s="39">
-        <v>76.39</v>
       </c>
       <c r="E170" s="38"/>
       <c r="F170" s="39"/>
     </row>
-    <row r="171" spans="1:6">
+    <row r="171" spans="1:7" ht="30">
       <c r="A171" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B171" s="38" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C171" s="38" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D171" s="39">
-        <v>76.400000000000006</v>
+        <v>76.39</v>
       </c>
       <c r="E171" s="38"/>
       <c r="F171" s="39"/>
     </row>
-    <row r="172" spans="1:6">
+    <row r="172" spans="1:7">
       <c r="A172" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B172" s="38" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C172" s="38" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D172" s="39">
-        <v>76.41</v>
+        <v>76.400000000000006</v>
       </c>
       <c r="E172" s="38"/>
       <c r="F172" s="39"/>
     </row>
-    <row r="173" spans="1:6" ht="30">
+    <row r="173" spans="1:7">
       <c r="A173" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B173" s="38" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C173" s="38" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D173" s="39">
-        <v>76.42</v>
+        <v>76.41</v>
       </c>
       <c r="E173" s="38"/>
       <c r="F173" s="39"/>
     </row>
-    <row r="174" spans="1:6">
+    <row r="174" spans="1:7" ht="30">
       <c r="A174" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B174" s="38" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C174" s="38" t="s">
-        <v>322</v>
+        <v>295</v>
       </c>
       <c r="D174" s="39">
-        <v>76.430000000000007</v>
+        <v>76.42</v>
       </c>
       <c r="E174" s="38"/>
       <c r="F174" s="39"/>
     </row>
-    <row r="175" spans="1:6" ht="30">
+    <row r="175" spans="1:7">
       <c r="A175" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B175" s="38" t="s">
+        <v>296</v>
+      </c>
+      <c r="C175" s="38" t="s">
+        <v>322</v>
+      </c>
+      <c r="D175" s="39">
+        <v>76.430000000000007</v>
+      </c>
+      <c r="E175" s="38"/>
+      <c r="F175" s="39"/>
+    </row>
+    <row r="176" spans="1:7" ht="30">
+      <c r="A176" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="B176" s="38" t="s">
         <v>298</v>
       </c>
-      <c r="C175" s="38" t="s">
+      <c r="C176" s="38" t="s">
         <v>299</v>
       </c>
-      <c r="D175" s="38">
+      <c r="D176" s="38">
         <v>76.44</v>
-      </c>
-      <c r="E175" s="38"/>
-      <c r="F175" s="38"/>
-    </row>
-    <row r="176" spans="1:6" ht="30">
-      <c r="A176" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="B176" s="38" t="s">
-        <v>300</v>
-      </c>
-      <c r="C176" s="38" t="s">
-        <v>301</v>
-      </c>
-      <c r="D176" s="38">
-        <v>76.45</v>
       </c>
       <c r="E176" s="38"/>
       <c r="F176" s="38"/>
     </row>
-    <row r="177" spans="1:6">
+    <row r="177" spans="1:6" ht="30">
       <c r="A177" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B177" s="38" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C177" s="38" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D177" s="38">
-        <v>76.459999999999994</v>
+        <v>76.45</v>
       </c>
       <c r="E177" s="38"/>
       <c r="F177" s="38"/>
@@ -11540,28 +11544,30 @@
       <c r="A178" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="B178" s="38">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="C178" s="41" t="s">
-        <v>23</v>
-      </c>
-      <c r="D178" s="40"/>
-      <c r="E178" s="41"/>
-      <c r="F178" s="40"/>
+      <c r="B178" s="38" t="s">
+        <v>302</v>
+      </c>
+      <c r="C178" s="38" t="s">
+        <v>303</v>
+      </c>
+      <c r="D178" s="38">
+        <v>76.459999999999994</v>
+      </c>
+      <c r="E178" s="38"/>
+      <c r="F178" s="38"/>
     </row>
     <row r="179" spans="1:6">
       <c r="A179" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="B179" s="38" t="s">
-        <v>304</v>
-      </c>
-      <c r="C179" s="40" t="s">
-        <v>24</v>
+      <c r="B179" s="38">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="C179" s="41" t="s">
+        <v>23</v>
       </c>
       <c r="D179" s="40"/>
-      <c r="E179" s="40"/>
+      <c r="E179" s="41"/>
       <c r="F179" s="40"/>
     </row>
     <row r="180" spans="1:6">
@@ -11569,29 +11575,27 @@
         <v>56</v>
       </c>
       <c r="B180" s="38" t="s">
-        <v>305</v>
-      </c>
-      <c r="C180" s="38" t="s">
-        <v>272</v>
-      </c>
-      <c r="D180" s="38">
-        <v>76.099999999999994</v>
-      </c>
-      <c r="E180" s="38"/>
-      <c r="F180" s="38"/>
+        <v>304</v>
+      </c>
+      <c r="C180" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="D180" s="40"/>
+      <c r="E180" s="40"/>
+      <c r="F180" s="40"/>
     </row>
     <row r="181" spans="1:6">
       <c r="A181" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B181" s="38" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C181" s="38" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D181" s="38">
-        <v>76.2</v>
+        <v>76.099999999999994</v>
       </c>
       <c r="E181" s="38"/>
       <c r="F181" s="38"/>
@@ -11601,13 +11605,13 @@
         <v>56</v>
       </c>
       <c r="B182" s="38" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C182" s="38" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D182" s="38">
-        <v>76.3</v>
+        <v>76.2</v>
       </c>
       <c r="E182" s="38"/>
       <c r="F182" s="38"/>
@@ -11617,13 +11621,13 @@
         <v>56</v>
       </c>
       <c r="B183" s="38" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C183" s="38" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D183" s="38">
-        <v>76.400000000000006</v>
+        <v>76.3</v>
       </c>
       <c r="E183" s="38"/>
       <c r="F183" s="38"/>
@@ -11633,107 +11637,107 @@
         <v>56</v>
       </c>
       <c r="B184" s="38" t="s">
-        <v>309</v>
-      </c>
-      <c r="C184" s="40" t="s">
-        <v>25</v>
-      </c>
-      <c r="D184" s="40"/>
-      <c r="E184" s="40"/>
-      <c r="F184" s="40"/>
+        <v>308</v>
+      </c>
+      <c r="C184" s="38" t="s">
+        <v>278</v>
+      </c>
+      <c r="D184" s="38">
+        <v>76.400000000000006</v>
+      </c>
+      <c r="E184" s="38"/>
+      <c r="F184" s="38"/>
     </row>
     <row r="185" spans="1:6">
       <c r="A185" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B185" s="38" t="s">
-        <v>310</v>
-      </c>
-      <c r="C185" s="38" t="s">
-        <v>281</v>
-      </c>
-      <c r="D185" s="38">
-        <v>76.5</v>
-      </c>
-      <c r="E185" s="38"/>
-      <c r="F185" s="38"/>
+        <v>309</v>
+      </c>
+      <c r="C185" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="D185" s="40"/>
+      <c r="E185" s="40"/>
+      <c r="F185" s="40"/>
     </row>
     <row r="186" spans="1:6">
       <c r="A186" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B186" s="38" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C186" s="38" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D186" s="38">
-        <v>76.599999999999994</v>
+        <v>76.5</v>
       </c>
       <c r="E186" s="38"/>
       <c r="F186" s="38"/>
     </row>
-    <row r="187" spans="1:6" ht="30">
+    <row r="187" spans="1:6">
       <c r="A187" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B187" s="38" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C187" s="38" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D187" s="38">
-        <v>76.7</v>
+        <v>76.599999999999994</v>
       </c>
       <c r="E187" s="38"/>
       <c r="F187" s="38"/>
     </row>
-    <row r="188" spans="1:6">
+    <row r="188" spans="1:6" ht="30">
       <c r="A188" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B188" s="38" t="s">
+        <v>312</v>
+      </c>
+      <c r="C188" s="38" t="s">
+        <v>285</v>
+      </c>
+      <c r="D188" s="38">
+        <v>76.7</v>
+      </c>
+      <c r="E188" s="38"/>
+      <c r="F188" s="38"/>
+    </row>
+    <row r="189" spans="1:6">
+      <c r="A189" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="B189" s="38" t="s">
         <v>313</v>
       </c>
-      <c r="C188" s="38" t="s">
+      <c r="C189" s="38" t="s">
         <v>1073</v>
       </c>
-      <c r="D188" s="39" t="s">
+      <c r="D189" s="39" t="s">
         <v>918</v>
-      </c>
-      <c r="E188" s="38"/>
-      <c r="F188" s="39"/>
-    </row>
-    <row r="189" spans="1:6" ht="30">
-      <c r="A189" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="B189" s="38" t="s">
-        <v>315</v>
-      </c>
-      <c r="C189" s="38" t="s">
-        <v>289</v>
-      </c>
-      <c r="D189" s="39">
-        <v>76.39</v>
       </c>
       <c r="E189" s="38"/>
       <c r="F189" s="39"/>
     </row>
-    <row r="190" spans="1:6">
+    <row r="190" spans="1:6" ht="30">
       <c r="A190" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B190" s="38" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C190" s="38" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D190" s="39">
-        <v>76.400000000000006</v>
+        <v>76.39</v>
       </c>
       <c r="E190" s="38"/>
       <c r="F190" s="39"/>
@@ -11743,93 +11747,93 @@
         <v>56</v>
       </c>
       <c r="B191" s="38" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C191" s="38" t="s">
-        <v>318</v>
+        <v>291</v>
       </c>
       <c r="D191" s="39">
-        <v>76.41</v>
+        <v>76.400000000000006</v>
       </c>
       <c r="E191" s="38"/>
       <c r="F191" s="39"/>
     </row>
-    <row r="192" spans="1:6" ht="30">
+    <row r="192" spans="1:6">
       <c r="A192" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B192" s="38" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C192" s="38" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D192" s="39">
-        <v>76.42</v>
+        <v>76.41</v>
       </c>
       <c r="E192" s="38"/>
       <c r="F192" s="39"/>
     </row>
-    <row r="193" spans="1:6">
+    <row r="193" spans="1:6" ht="30">
       <c r="A193" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B193" s="38" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C193" s="38" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D193" s="39">
-        <v>76.430000000000007</v>
+        <v>76.42</v>
       </c>
       <c r="E193" s="38"/>
       <c r="F193" s="39"/>
     </row>
-    <row r="194" spans="1:6" ht="30">
+    <row r="194" spans="1:6">
       <c r="A194" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B194" s="38" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C194" s="38" t="s">
-        <v>299</v>
-      </c>
-      <c r="D194" s="38">
-        <v>76.44</v>
+        <v>322</v>
+      </c>
+      <c r="D194" s="39">
+        <v>76.430000000000007</v>
       </c>
       <c r="E194" s="38"/>
-      <c r="F194" s="38"/>
+      <c r="F194" s="39"/>
     </row>
     <row r="195" spans="1:6" ht="30">
       <c r="A195" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B195" s="38" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C195" s="38" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D195" s="38">
-        <v>76.45</v>
+        <v>76.44</v>
       </c>
       <c r="E195" s="38"/>
       <c r="F195" s="38"/>
     </row>
-    <row r="196" spans="1:6">
+    <row r="196" spans="1:6" ht="30">
       <c r="A196" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B196" s="38" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C196" s="38" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D196" s="38">
-        <v>76.459999999999994</v>
+        <v>76.45</v>
       </c>
       <c r="E196" s="38"/>
       <c r="F196" s="38"/>
@@ -11838,25 +11842,27 @@
       <c r="A197" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="B197" s="38">
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="C197" s="37" t="s">
-        <v>26</v>
-      </c>
-      <c r="D197" s="40"/>
-      <c r="E197" s="40"/>
-      <c r="F197" s="40"/>
+      <c r="B197" s="38" t="s">
+        <v>325</v>
+      </c>
+      <c r="C197" s="38" t="s">
+        <v>303</v>
+      </c>
+      <c r="D197" s="38">
+        <v>76.459999999999994</v>
+      </c>
+      <c r="E197" s="38"/>
+      <c r="F197" s="38"/>
     </row>
     <row r="198" spans="1:6">
       <c r="A198" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="B198" s="38" t="s">
-        <v>326</v>
-      </c>
-      <c r="C198" s="40" t="s">
-        <v>27</v>
+      <c r="B198" s="38">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="C198" s="37" t="s">
+        <v>26</v>
       </c>
       <c r="D198" s="40"/>
       <c r="E198" s="40"/>
@@ -11867,29 +11873,27 @@
         <v>56</v>
       </c>
       <c r="B199" s="38" t="s">
-        <v>327</v>
-      </c>
-      <c r="C199" s="38" t="s">
-        <v>272</v>
-      </c>
-      <c r="D199" s="38">
-        <v>76.099999999999994</v>
-      </c>
-      <c r="E199" s="38"/>
-      <c r="F199" s="38"/>
+        <v>326</v>
+      </c>
+      <c r="C199" s="40" t="s">
+        <v>27</v>
+      </c>
+      <c r="D199" s="40"/>
+      <c r="E199" s="40"/>
+      <c r="F199" s="40"/>
     </row>
     <row r="200" spans="1:6">
       <c r="A200" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B200" s="38" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C200" s="38" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D200" s="38">
-        <v>76.2</v>
+        <v>76.099999999999994</v>
       </c>
       <c r="E200" s="38"/>
       <c r="F200" s="38"/>
@@ -11899,13 +11903,13 @@
         <v>56</v>
       </c>
       <c r="B201" s="38" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C201" s="38" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D201" s="38">
-        <v>76.3</v>
+        <v>76.2</v>
       </c>
       <c r="E201" s="38"/>
       <c r="F201" s="38"/>
@@ -11915,13 +11919,13 @@
         <v>56</v>
       </c>
       <c r="B202" s="38" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C202" s="38" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D202" s="38">
-        <v>76.400000000000006</v>
+        <v>76.3</v>
       </c>
       <c r="E202" s="38"/>
       <c r="F202" s="38"/>
@@ -11931,107 +11935,107 @@
         <v>56</v>
       </c>
       <c r="B203" s="38" t="s">
+        <v>330</v>
+      </c>
+      <c r="C203" s="38" t="s">
+        <v>278</v>
+      </c>
+      <c r="D203" s="38">
+        <v>76.400000000000006</v>
+      </c>
+      <c r="E203" s="38"/>
+      <c r="F203" s="38"/>
+    </row>
+    <row r="204" spans="1:6">
+      <c r="A204" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="B204" s="38" t="s">
         <v>331</v>
       </c>
-      <c r="C203" s="40" t="s">
+      <c r="C204" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="D203" s="40"/>
-      <c r="E203" s="40"/>
-      <c r="F203" s="40"/>
-    </row>
-    <row r="204" spans="1:6" ht="42" customHeight="1">
-      <c r="A204" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="B204" s="38" t="s">
+      <c r="D204" s="40"/>
+      <c r="E204" s="40"/>
+      <c r="F204" s="40"/>
+    </row>
+    <row r="205" spans="1:6" ht="42" customHeight="1">
+      <c r="A205" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="B205" s="38" t="s">
         <v>332</v>
       </c>
-      <c r="C204" s="38" t="s">
+      <c r="C205" s="38" t="s">
         <v>333</v>
       </c>
-      <c r="D204" s="38" t="s">
+      <c r="D205" s="38" t="s">
         <v>837</v>
-      </c>
-      <c r="E204" s="38"/>
-      <c r="F204" s="38"/>
-    </row>
-    <row r="205" spans="1:6">
-      <c r="A205" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="B205" s="38" t="s">
-        <v>334</v>
-      </c>
-      <c r="C205" s="38" t="s">
-        <v>283</v>
-      </c>
-      <c r="D205" s="38">
-        <v>76.599999999999994</v>
       </c>
       <c r="E205" s="38"/>
       <c r="F205" s="38"/>
     </row>
-    <row r="206" spans="1:6" ht="36.75" customHeight="1">
+    <row r="206" spans="1:6">
       <c r="A206" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B206" s="38" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C206" s="38" t="s">
-        <v>336</v>
+        <v>283</v>
       </c>
       <c r="D206" s="38">
-        <v>76.7</v>
+        <v>76.599999999999994</v>
       </c>
       <c r="E206" s="38"/>
       <c r="F206" s="38"/>
     </row>
-    <row r="207" spans="1:6">
+    <row r="207" spans="1:6" ht="36.75" customHeight="1">
       <c r="A207" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B207" s="38" t="s">
+        <v>335</v>
+      </c>
+      <c r="C207" s="38" t="s">
+        <v>336</v>
+      </c>
+      <c r="D207" s="38">
+        <v>76.7</v>
+      </c>
+      <c r="E207" s="38"/>
+      <c r="F207" s="38"/>
+    </row>
+    <row r="208" spans="1:6">
+      <c r="A208" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="B208" s="38" t="s">
         <v>337</v>
       </c>
-      <c r="C207" s="38" t="s">
+      <c r="C208" s="38" t="s">
         <v>338</v>
       </c>
-      <c r="D207" s="39" t="s">
+      <c r="D208" s="39" t="s">
         <v>918</v>
-      </c>
-      <c r="E207" s="38"/>
-      <c r="F207" s="39"/>
-    </row>
-    <row r="208" spans="1:6" ht="30">
-      <c r="A208" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="B208" s="38" t="s">
-        <v>1251</v>
-      </c>
-      <c r="C208" s="38" t="s">
-        <v>289</v>
-      </c>
-      <c r="D208" s="39">
-        <v>76.39</v>
       </c>
       <c r="E208" s="38"/>
       <c r="F208" s="39"/>
     </row>
-    <row r="209" spans="1:6">
+    <row r="209" spans="1:6" ht="30">
       <c r="A209" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B209" s="38" t="s">
-        <v>339</v>
+        <v>1251</v>
       </c>
       <c r="C209" s="38" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D209" s="39">
-        <v>76.400000000000006</v>
+        <v>76.39</v>
       </c>
       <c r="E209" s="38"/>
       <c r="F209" s="39"/>
@@ -12041,93 +12045,93 @@
         <v>56</v>
       </c>
       <c r="B210" s="38" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C210" s="38" t="s">
-        <v>341</v>
+        <v>291</v>
       </c>
       <c r="D210" s="39">
-        <v>76.41</v>
+        <v>76.400000000000006</v>
       </c>
       <c r="E210" s="38"/>
       <c r="F210" s="39"/>
     </row>
-    <row r="211" spans="1:6" ht="30">
+    <row r="211" spans="1:6">
       <c r="A211" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B211" s="38" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C211" s="38" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D211" s="39">
-        <v>76.42</v>
+        <v>76.41</v>
       </c>
       <c r="E211" s="38"/>
       <c r="F211" s="39"/>
     </row>
-    <row r="212" spans="1:6">
+    <row r="212" spans="1:6" ht="30">
       <c r="A212" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B212" s="38" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C212" s="38" t="s">
-        <v>322</v>
+        <v>343</v>
       </c>
       <c r="D212" s="39">
-        <v>76.430000000000007</v>
+        <v>76.42</v>
       </c>
       <c r="E212" s="38"/>
       <c r="F212" s="39"/>
     </row>
-    <row r="213" spans="1:6" ht="30">
+    <row r="213" spans="1:6">
       <c r="A213" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B213" s="38" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C213" s="38" t="s">
-        <v>299</v>
-      </c>
-      <c r="D213" s="38">
-        <v>76.44</v>
+        <v>322</v>
+      </c>
+      <c r="D213" s="39">
+        <v>76.430000000000007</v>
       </c>
       <c r="E213" s="38"/>
-      <c r="F213" s="38"/>
+      <c r="F213" s="39"/>
     </row>
     <row r="214" spans="1:6" ht="30">
       <c r="A214" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B214" s="38" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C214" s="38" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D214" s="38">
-        <v>76.45</v>
+        <v>76.44</v>
       </c>
       <c r="E214" s="38"/>
       <c r="F214" s="38"/>
     </row>
-    <row r="215" spans="1:6">
+    <row r="215" spans="1:6" ht="30">
       <c r="A215" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B215" s="38" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C215" s="38" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D215" s="38">
-        <v>76.459999999999994</v>
+        <v>76.45</v>
       </c>
       <c r="E215" s="38"/>
       <c r="F215" s="38"/>
@@ -12136,28 +12140,30 @@
       <c r="A216" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="B216" s="38">
-        <v>9.4</v>
-      </c>
-      <c r="C216" s="41" t="s">
-        <v>348</v>
-      </c>
-      <c r="D216" s="40"/>
-      <c r="E216" s="42"/>
-      <c r="F216" s="40"/>
+      <c r="B216" s="38" t="s">
+        <v>347</v>
+      </c>
+      <c r="C216" s="38" t="s">
+        <v>303</v>
+      </c>
+      <c r="D216" s="38">
+        <v>76.459999999999994</v>
+      </c>
+      <c r="E216" s="38"/>
+      <c r="F216" s="38"/>
     </row>
     <row r="217" spans="1:6">
       <c r="A217" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="B217" s="38" t="s">
-        <v>349</v>
-      </c>
-      <c r="C217" s="40" t="s">
-        <v>350</v>
+      <c r="B217" s="38">
+        <v>9.4</v>
+      </c>
+      <c r="C217" s="41" t="s">
+        <v>348</v>
       </c>
       <c r="D217" s="40"/>
-      <c r="E217" s="40"/>
+      <c r="E217" s="42"/>
       <c r="F217" s="40"/>
     </row>
     <row r="218" spans="1:6">
@@ -12165,29 +12171,27 @@
         <v>56</v>
       </c>
       <c r="B218" s="38" t="s">
-        <v>351</v>
-      </c>
-      <c r="C218" s="38" t="s">
-        <v>352</v>
-      </c>
-      <c r="D218" s="38">
-        <v>76.900000000000006</v>
-      </c>
-      <c r="E218" s="38"/>
-      <c r="F218" s="38"/>
+        <v>349</v>
+      </c>
+      <c r="C218" s="40" t="s">
+        <v>350</v>
+      </c>
+      <c r="D218" s="40"/>
+      <c r="E218" s="40"/>
+      <c r="F218" s="40"/>
     </row>
     <row r="219" spans="1:6">
       <c r="A219" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B219" s="38" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C219" s="38" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D219" s="38">
-        <v>76.099999999999994</v>
+        <v>76.900000000000006</v>
       </c>
       <c r="E219" s="38"/>
       <c r="F219" s="38"/>
@@ -12197,29 +12201,29 @@
         <v>56</v>
       </c>
       <c r="B220" s="38" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C220" s="38" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D220" s="38">
-        <v>76.11</v>
+        <v>76.099999999999994</v>
       </c>
       <c r="E220" s="38"/>
       <c r="F220" s="38"/>
     </row>
-    <row r="221" spans="1:6" ht="30">
+    <row r="221" spans="1:6">
       <c r="A221" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B221" s="38" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C221" s="38" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D221" s="38">
-        <v>76.12</v>
+        <v>76.11</v>
       </c>
       <c r="E221" s="38"/>
       <c r="F221" s="38"/>
@@ -12229,7 +12233,7 @@
         <v>56</v>
       </c>
       <c r="B222" s="38" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C222" s="38" t="s">
         <v>358</v>
@@ -12240,50 +12244,50 @@
       <c r="E222" s="38"/>
       <c r="F222" s="38"/>
     </row>
-    <row r="223" spans="1:6">
+    <row r="223" spans="1:6" ht="30">
       <c r="A223" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B223" s="38" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C223" s="38" t="s">
-        <v>361</v>
-      </c>
-      <c r="D223" s="39" t="s">
-        <v>858</v>
+        <v>358</v>
+      </c>
+      <c r="D223" s="38">
+        <v>76.12</v>
       </c>
       <c r="E223" s="38"/>
-      <c r="F223" s="39"/>
+      <c r="F223" s="38"/>
     </row>
     <row r="224" spans="1:6">
       <c r="A224" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B224" s="38" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C224" s="38" t="s">
-        <v>363</v>
-      </c>
-      <c r="D224" s="38">
-        <v>76.14</v>
+        <v>361</v>
+      </c>
+      <c r="D224" s="39" t="s">
+        <v>858</v>
       </c>
       <c r="E224" s="38"/>
-      <c r="F224" s="38"/>
+      <c r="F224" s="39"/>
     </row>
     <row r="225" spans="1:6">
       <c r="A225" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B225" s="38" t="s">
-        <v>364</v>
-      </c>
-      <c r="C225" s="39" t="s">
-        <v>1054</v>
-      </c>
-      <c r="D225" s="39" t="s">
-        <v>1082</v>
+        <v>362</v>
+      </c>
+      <c r="C225" s="38" t="s">
+        <v>363</v>
+      </c>
+      <c r="D225" s="38">
+        <v>76.14</v>
       </c>
       <c r="E225" s="38"/>
       <c r="F225" s="38"/>
@@ -12293,10 +12297,10 @@
         <v>56</v>
       </c>
       <c r="B226" s="38" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C226" s="39" t="s">
-        <v>367</v>
+        <v>1054</v>
       </c>
       <c r="D226" s="39" t="s">
         <v>1082</v>
@@ -12309,13 +12313,13 @@
         <v>56</v>
       </c>
       <c r="B227" s="38" t="s">
-        <v>368</v>
-      </c>
-      <c r="C227" s="38" t="s">
-        <v>1060</v>
-      </c>
-      <c r="D227" s="38">
-        <v>76.16</v>
+        <v>366</v>
+      </c>
+      <c r="C227" s="39" t="s">
+        <v>367</v>
+      </c>
+      <c r="D227" s="39" t="s">
+        <v>1082</v>
       </c>
       <c r="E227" s="38"/>
       <c r="F227" s="38"/>
@@ -12325,13 +12329,13 @@
         <v>56</v>
       </c>
       <c r="B228" s="38" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="C228" s="38" t="s">
-        <v>372</v>
+        <v>1060</v>
       </c>
       <c r="D228" s="38">
-        <v>76.17</v>
+        <v>76.16</v>
       </c>
       <c r="E228" s="38"/>
       <c r="F228" s="38"/>
@@ -12341,13 +12345,13 @@
         <v>56</v>
       </c>
       <c r="B229" s="38" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C229" s="38" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D229" s="38">
-        <v>76.180000000000007</v>
+        <v>76.17</v>
       </c>
       <c r="E229" s="38"/>
       <c r="F229" s="38"/>
@@ -12357,43 +12361,43 @@
         <v>56</v>
       </c>
       <c r="B230" s="38" t="s">
-        <v>375</v>
-      </c>
-      <c r="C230" s="40" t="s">
-        <v>376</v>
-      </c>
-      <c r="D230" s="40"/>
-      <c r="E230" s="40"/>
-      <c r="F230" s="40"/>
+        <v>373</v>
+      </c>
+      <c r="C230" s="38" t="s">
+        <v>374</v>
+      </c>
+      <c r="D230" s="38">
+        <v>76.180000000000007</v>
+      </c>
+      <c r="E230" s="38"/>
+      <c r="F230" s="38"/>
     </row>
     <row r="231" spans="1:6">
       <c r="A231" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B231" s="38" t="s">
-        <v>377</v>
-      </c>
-      <c r="C231" s="38" t="s">
-        <v>378</v>
-      </c>
-      <c r="D231" s="38">
-        <v>76.19</v>
-      </c>
-      <c r="E231" s="38"/>
-      <c r="F231" s="38"/>
+        <v>375</v>
+      </c>
+      <c r="C231" s="40" t="s">
+        <v>376</v>
+      </c>
+      <c r="D231" s="40"/>
+      <c r="E231" s="40"/>
+      <c r="F231" s="40"/>
     </row>
     <row r="232" spans="1:6">
       <c r="A232" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B232" s="38" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C232" s="38" t="s">
-        <v>380</v>
-      </c>
-      <c r="D232" s="38" t="s">
-        <v>871</v>
+        <v>378</v>
+      </c>
+      <c r="D232" s="38">
+        <v>76.19</v>
       </c>
       <c r="E232" s="38"/>
       <c r="F232" s="38"/>
@@ -12403,13 +12407,13 @@
         <v>56</v>
       </c>
       <c r="B233" s="38" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C233" s="38" t="s">
-        <v>382</v>
-      </c>
-      <c r="D233" s="38">
-        <v>76.209999999999994</v>
+        <v>380</v>
+      </c>
+      <c r="D233" s="38" t="s">
+        <v>871</v>
       </c>
       <c r="E233" s="38"/>
       <c r="F233" s="38"/>
@@ -12419,13 +12423,13 @@
         <v>56</v>
       </c>
       <c r="B234" s="38" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C234" s="38" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="D234" s="38">
-        <v>76.22</v>
+        <v>76.209999999999994</v>
       </c>
       <c r="E234" s="38"/>
       <c r="F234" s="38"/>
@@ -12435,45 +12439,45 @@
         <v>56</v>
       </c>
       <c r="B235" s="38" t="s">
-        <v>385</v>
-      </c>
-      <c r="C235" s="39" t="s">
-        <v>386</v>
-      </c>
-      <c r="D235" s="39" t="s">
-        <v>948</v>
+        <v>383</v>
+      </c>
+      <c r="C235" s="38" t="s">
+        <v>384</v>
+      </c>
+      <c r="D235" s="38">
+        <v>76.22</v>
       </c>
       <c r="E235" s="38"/>
-      <c r="F235" s="39"/>
+      <c r="F235" s="38"/>
     </row>
     <row r="236" spans="1:6">
       <c r="A236" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B236" s="38" t="s">
-        <v>387</v>
-      </c>
-      <c r="C236" s="38" t="s">
-        <v>388</v>
-      </c>
-      <c r="D236" s="38">
-        <v>76.23</v>
+        <v>385</v>
+      </c>
+      <c r="C236" s="39" t="s">
+        <v>386</v>
+      </c>
+      <c r="D236" s="39" t="s">
+        <v>948</v>
       </c>
       <c r="E236" s="38"/>
-      <c r="F236" s="38"/>
+      <c r="F236" s="39"/>
     </row>
     <row r="237" spans="1:6">
       <c r="A237" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B237" s="38" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C237" s="38" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="D237" s="38">
-        <v>76.239999999999995</v>
+        <v>76.23</v>
       </c>
       <c r="E237" s="38"/>
       <c r="F237" s="38"/>
@@ -12483,13 +12487,13 @@
         <v>56</v>
       </c>
       <c r="B238" s="38" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C238" s="38" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D238" s="38">
-        <v>76.25</v>
+        <v>76.239999999999995</v>
       </c>
       <c r="E238" s="38"/>
       <c r="F238" s="38"/>
@@ -12499,13 +12503,13 @@
         <v>56</v>
       </c>
       <c r="B239" s="38" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C239" s="38" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="D239" s="38">
-        <v>76.260000000000005</v>
+        <v>76.25</v>
       </c>
       <c r="E239" s="38"/>
       <c r="F239" s="38"/>
@@ -12515,13 +12519,13 @@
         <v>56</v>
       </c>
       <c r="B240" s="38" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C240" s="38" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="D240" s="38">
-        <v>76.27</v>
+        <v>76.260000000000005</v>
       </c>
       <c r="E240" s="38"/>
       <c r="F240" s="38"/>
@@ -12531,13 +12535,13 @@
         <v>56</v>
       </c>
       <c r="B241" s="38" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C241" s="38" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="D241" s="38">
-        <v>76.28</v>
+        <v>76.27</v>
       </c>
       <c r="E241" s="38"/>
       <c r="F241" s="38"/>
@@ -12547,43 +12551,43 @@
         <v>56</v>
       </c>
       <c r="B242" s="38" t="s">
-        <v>399</v>
-      </c>
-      <c r="C242" s="40" t="s">
-        <v>400</v>
-      </c>
-      <c r="D242" s="40"/>
-      <c r="E242" s="40"/>
-      <c r="F242" s="40"/>
+        <v>397</v>
+      </c>
+      <c r="C242" s="38" t="s">
+        <v>398</v>
+      </c>
+      <c r="D242" s="38">
+        <v>76.28</v>
+      </c>
+      <c r="E242" s="38"/>
+      <c r="F242" s="38"/>
     </row>
     <row r="243" spans="1:6">
       <c r="A243" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B243" s="38" t="s">
-        <v>401</v>
-      </c>
-      <c r="C243" s="38" t="s">
-        <v>402</v>
-      </c>
-      <c r="D243" s="38">
-        <v>76.239999999999995</v>
-      </c>
-      <c r="E243" s="38"/>
-      <c r="F243" s="38"/>
+        <v>399</v>
+      </c>
+      <c r="C243" s="40" t="s">
+        <v>400</v>
+      </c>
+      <c r="D243" s="40"/>
+      <c r="E243" s="40"/>
+      <c r="F243" s="40"/>
     </row>
     <row r="244" spans="1:6">
       <c r="A244" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B244" s="38" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C244" s="38" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="D244" s="38">
-        <v>76.28</v>
+        <v>76.239999999999995</v>
       </c>
       <c r="E244" s="38"/>
       <c r="F244" s="38"/>
@@ -12592,67 +12596,69 @@
       <c r="A245" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="B245" s="38">
-        <v>9.5</v>
-      </c>
-      <c r="C245" s="37" t="s">
-        <v>405</v>
-      </c>
-      <c r="D245" s="40"/>
-      <c r="E245" s="40"/>
-      <c r="F245" s="40"/>
+      <c r="B245" s="38" t="s">
+        <v>403</v>
+      </c>
+      <c r="C245" s="38" t="s">
+        <v>404</v>
+      </c>
+      <c r="D245" s="38">
+        <v>76.28</v>
+      </c>
+      <c r="E245" s="38"/>
+      <c r="F245" s="38"/>
     </row>
     <row r="246" spans="1:6">
       <c r="A246" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="B246" s="38" t="s">
-        <v>406</v>
-      </c>
-      <c r="C246" s="43" t="s">
-        <v>407</v>
-      </c>
-      <c r="D246" s="38"/>
-      <c r="E246" s="38"/>
-      <c r="F246" s="38"/>
+      <c r="B246" s="38">
+        <v>9.5</v>
+      </c>
+      <c r="C246" s="37" t="s">
+        <v>405</v>
+      </c>
+      <c r="D246" s="40"/>
+      <c r="E246" s="40"/>
+      <c r="F246" s="40"/>
     </row>
     <row r="247" spans="1:6">
       <c r="A247" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="B247" s="38">
-        <v>9.6</v>
-      </c>
-      <c r="C247" s="80" t="s">
-        <v>29</v>
-      </c>
-      <c r="D247" s="79"/>
-      <c r="E247" s="81"/>
-      <c r="F247" s="81"/>
+      <c r="B247" s="38" t="s">
+        <v>406</v>
+      </c>
+      <c r="C247" s="43" t="s">
+        <v>407</v>
+      </c>
+      <c r="D247" s="38"/>
+      <c r="E247" s="38"/>
+      <c r="F247" s="38"/>
     </row>
     <row r="248" spans="1:6">
       <c r="A248" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="B248" s="38" t="s">
-        <v>408</v>
-      </c>
-      <c r="C248" s="43" t="s">
-        <v>30</v>
-      </c>
-      <c r="D248" s="38"/>
-      <c r="E248" s="38"/>
-      <c r="F248" s="38"/>
+      <c r="B248" s="38">
+        <v>9.6</v>
+      </c>
+      <c r="C248" s="80" t="s">
+        <v>29</v>
+      </c>
+      <c r="D248" s="79"/>
+      <c r="E248" s="81"/>
+      <c r="F248" s="81"/>
     </row>
     <row r="249" spans="1:6">
       <c r="A249" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B249" s="38" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C249" s="43" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D249" s="38"/>
       <c r="E249" s="38"/>
@@ -12662,114 +12668,112 @@
       <c r="A250" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="B250" s="38">
-        <v>9.6999999999999993</v>
-      </c>
-      <c r="C250" s="37" t="s">
-        <v>32</v>
-      </c>
-      <c r="D250" s="78"/>
-      <c r="E250" s="40"/>
-      <c r="F250" s="40"/>
+      <c r="B250" s="38" t="s">
+        <v>409</v>
+      </c>
+      <c r="C250" s="43" t="s">
+        <v>31</v>
+      </c>
+      <c r="D250" s="38"/>
+      <c r="E250" s="38"/>
+      <c r="F250" s="38"/>
     </row>
     <row r="251" spans="1:6">
       <c r="A251" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="B251" s="38" t="s">
-        <v>410</v>
-      </c>
-      <c r="C251" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="D251" s="38"/>
-      <c r="E251" s="38"/>
-      <c r="F251" s="38"/>
+      <c r="B251" s="38">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="C251" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="D251" s="78"/>
+      <c r="E251" s="40"/>
+      <c r="F251" s="40"/>
     </row>
     <row r="252" spans="1:6">
       <c r="A252" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B252" s="38" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C252" s="43" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D252" s="38"/>
       <c r="E252" s="38"/>
       <c r="F252" s="38"/>
     </row>
-    <row r="253" spans="1:6" s="45" customFormat="1" ht="15.75">
-      <c r="A253" s="58" t="s">
-        <v>56</v>
-      </c>
-      <c r="B253" s="71" t="s">
+    <row r="253" spans="1:6">
+      <c r="A253" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="B253" s="38" t="s">
+        <v>411</v>
+      </c>
+      <c r="C253" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="D253" s="38"/>
+      <c r="E253" s="38"/>
+      <c r="F253" s="38"/>
+    </row>
+    <row r="254" spans="1:6" s="45" customFormat="1" ht="15.75">
+      <c r="A254" s="58" t="s">
+        <v>56</v>
+      </c>
+      <c r="B254" s="71" t="s">
         <v>1216</v>
       </c>
-      <c r="C253" s="72" t="s">
+      <c r="C254" s="72" t="s">
         <v>35</v>
       </c>
-      <c r="D253" s="60"/>
-      <c r="E253" s="73"/>
-      <c r="F253" s="60"/>
-    </row>
-    <row r="254" spans="1:6" s="45" customFormat="1">
-      <c r="A254" s="58" t="s">
-        <v>56</v>
-      </c>
-      <c r="B254" s="58">
-        <v>10.1</v>
-      </c>
-      <c r="C254" s="59" t="s">
-        <v>2</v>
-      </c>
       <c r="D254" s="60"/>
-      <c r="E254" s="60"/>
+      <c r="E254" s="73"/>
       <c r="F254" s="60"/>
     </row>
     <row r="255" spans="1:6" s="45" customFormat="1">
       <c r="A255" s="58" t="s">
         <v>56</v>
       </c>
-      <c r="B255" s="58" t="s">
-        <v>412</v>
-      </c>
-      <c r="C255" s="60" t="s">
-        <v>36</v>
+      <c r="B255" s="58">
+        <v>10.1</v>
+      </c>
+      <c r="C255" s="59" t="s">
+        <v>2</v>
       </c>
       <c r="D255" s="60"/>
       <c r="E255" s="60"/>
       <c r="F255" s="60"/>
     </row>
-    <row r="256" spans="1:6" s="45" customFormat="1" ht="30">
+    <row r="256" spans="1:6" s="45" customFormat="1">
       <c r="A256" s="58" t="s">
         <v>56</v>
       </c>
       <c r="B256" s="58" t="s">
+        <v>412</v>
+      </c>
+      <c r="C256" s="60" t="s">
+        <v>36</v>
+      </c>
+      <c r="D256" s="60"/>
+      <c r="E256" s="60"/>
+      <c r="F256" s="60"/>
+    </row>
+    <row r="257" spans="1:6" s="45" customFormat="1" ht="30">
+      <c r="A257" s="58" t="s">
+        <v>56</v>
+      </c>
+      <c r="B257" s="58" t="s">
         <v>413</v>
       </c>
-      <c r="C256" s="74" t="s">
+      <c r="C257" s="74" t="s">
         <v>414</v>
       </c>
-      <c r="D256" s="58" t="s">
+      <c r="D257" s="58" t="s">
         <v>415</v>
-      </c>
-      <c r="E256" s="74"/>
-      <c r="F256" s="58"/>
-    </row>
-    <row r="257" spans="1:6" s="45" customFormat="1">
-      <c r="A257" s="58" t="s">
-        <v>56</v>
-      </c>
-      <c r="B257" s="58" t="s">
-        <v>416</v>
-      </c>
-      <c r="C257" s="74" t="s">
-        <v>417</v>
-      </c>
-      <c r="D257" s="58" t="s">
-        <v>418</v>
       </c>
       <c r="E257" s="74"/>
       <c r="F257" s="58"/>
@@ -12779,45 +12783,45 @@
         <v>56</v>
       </c>
       <c r="B258" s="58" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="C258" s="74" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="D258" s="58" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="E258" s="74"/>
       <c r="F258" s="58"/>
     </row>
-    <row r="259" spans="1:6" s="45" customFormat="1" ht="30">
+    <row r="259" spans="1:6" s="45" customFormat="1">
       <c r="A259" s="58" t="s">
         <v>56</v>
       </c>
       <c r="B259" s="58" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="C259" s="74" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="D259" s="58" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="E259" s="74"/>
       <c r="F259" s="58"/>
     </row>
-    <row r="260" spans="1:6" s="45" customFormat="1">
+    <row r="260" spans="1:6" s="45" customFormat="1" ht="30">
       <c r="A260" s="58" t="s">
         <v>56</v>
       </c>
       <c r="B260" s="58" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="C260" s="74" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="D260" s="58" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="E260" s="74"/>
       <c r="F260" s="58"/>
@@ -12827,125 +12831,125 @@
         <v>56</v>
       </c>
       <c r="B261" s="58" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="C261" s="74" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="D261" s="58" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="E261" s="74"/>
       <c r="F261" s="58"/>
     </row>
-    <row r="262" spans="1:6" s="45" customFormat="1" ht="30">
+    <row r="262" spans="1:6" s="45" customFormat="1">
       <c r="A262" s="58" t="s">
         <v>56</v>
       </c>
       <c r="B262" s="58" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="C262" s="74" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="D262" s="58" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="E262" s="74"/>
       <c r="F262" s="58"/>
     </row>
-    <row r="263" spans="1:6" s="45" customFormat="1">
+    <row r="263" spans="1:6" s="45" customFormat="1" ht="30">
       <c r="A263" s="58" t="s">
         <v>56</v>
       </c>
       <c r="B263" s="58" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="C263" s="74" t="s">
-        <v>1226</v>
+        <v>432</v>
       </c>
       <c r="D263" s="58" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="E263" s="74"/>
       <c r="F263" s="58"/>
     </row>
-    <row r="264" spans="1:6" s="45" customFormat="1" ht="30">
+    <row r="264" spans="1:6" s="45" customFormat="1">
       <c r="A264" s="58" t="s">
         <v>56</v>
       </c>
       <c r="B264" s="58" t="s">
-        <v>1227</v>
+        <v>434</v>
       </c>
       <c r="C264" s="74" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
       <c r="D264" s="58" t="s">
-        <v>1107</v>
+        <v>436</v>
       </c>
       <c r="E264" s="74"/>
       <c r="F264" s="58"/>
     </row>
-    <row r="265" spans="1:6" s="45" customFormat="1" ht="45">
+    <row r="265" spans="1:6" s="45" customFormat="1" ht="30">
       <c r="A265" s="58" t="s">
         <v>56</v>
       </c>
       <c r="B265" s="58" t="s">
-        <v>437</v>
+        <v>1227</v>
       </c>
       <c r="C265" s="74" t="s">
-        <v>438</v>
+        <v>1228</v>
       </c>
       <c r="D265" s="58" t="s">
-        <v>439</v>
+        <v>1107</v>
       </c>
       <c r="E265" s="74"/>
       <c r="F265" s="58"/>
     </row>
-    <row r="266" spans="1:6" s="45" customFormat="1" ht="30">
+    <row r="266" spans="1:6" s="45" customFormat="1" ht="45">
       <c r="A266" s="58" t="s">
         <v>56</v>
       </c>
       <c r="B266" s="58" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="C266" s="74" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="D266" s="58" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="E266" s="74"/>
       <c r="F266" s="58"/>
     </row>
-    <row r="267" spans="1:6" s="45" customFormat="1" ht="45">
+    <row r="267" spans="1:6" s="45" customFormat="1" ht="30">
       <c r="A267" s="58" t="s">
         <v>56</v>
       </c>
       <c r="B267" s="58" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="C267" s="74" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="D267" s="58" t="s">
-        <v>1001</v>
+        <v>442</v>
       </c>
       <c r="E267" s="74"/>
       <c r="F267" s="58"/>
     </row>
-    <row r="268" spans="1:6" s="45" customFormat="1">
+    <row r="268" spans="1:6" s="45" customFormat="1" ht="45">
       <c r="A268" s="58" t="s">
         <v>56</v>
       </c>
       <c r="B268" s="58" t="s">
-        <v>1230</v>
+        <v>446</v>
       </c>
       <c r="C268" s="74" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="D268" s="58" t="s">
-        <v>448</v>
+        <v>1001</v>
       </c>
       <c r="E268" s="74"/>
       <c r="F268" s="58"/>
@@ -12954,58 +12958,58 @@
       <c r="A269" s="58" t="s">
         <v>56</v>
       </c>
-      <c r="B269" s="58">
-        <v>10.199999999999999</v>
-      </c>
-      <c r="C269" s="59" t="s">
-        <v>449</v>
-      </c>
-      <c r="D269" s="60"/>
-      <c r="E269" s="60"/>
-      <c r="F269" s="60"/>
+      <c r="B269" s="58" t="s">
+        <v>1230</v>
+      </c>
+      <c r="C269" s="74" t="s">
+        <v>447</v>
+      </c>
+      <c r="D269" s="58" t="s">
+        <v>448</v>
+      </c>
+      <c r="E269" s="74"/>
+      <c r="F269" s="58"/>
     </row>
     <row r="270" spans="1:6" s="45" customFormat="1">
       <c r="A270" s="58" t="s">
         <v>56</v>
       </c>
-      <c r="B270" s="58" t="s">
-        <v>450</v>
-      </c>
-      <c r="C270" s="60" t="s">
-        <v>36</v>
+      <c r="B270" s="58">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="C270" s="59" t="s">
+        <v>449</v>
       </c>
       <c r="D270" s="60"/>
       <c r="E270" s="60"/>
       <c r="F270" s="60"/>
     </row>
-    <row r="271" spans="1:6" s="45" customFormat="1" ht="30">
+    <row r="271" spans="1:6" s="45" customFormat="1">
       <c r="A271" s="58" t="s">
         <v>56</v>
       </c>
       <c r="B271" s="58" t="s">
+        <v>450</v>
+      </c>
+      <c r="C271" s="60" t="s">
+        <v>36</v>
+      </c>
+      <c r="D271" s="60"/>
+      <c r="E271" s="60"/>
+      <c r="F271" s="60"/>
+    </row>
+    <row r="272" spans="1:6" s="45" customFormat="1" ht="30">
+      <c r="A272" s="58" t="s">
+        <v>56</v>
+      </c>
+      <c r="B272" s="58" t="s">
         <v>451</v>
       </c>
-      <c r="C271" s="74" t="s">
+      <c r="C272" s="74" t="s">
         <v>452</v>
       </c>
-      <c r="D271" s="58" t="s">
+      <c r="D272" s="58" t="s">
         <v>415</v>
-      </c>
-      <c r="E271" s="74"/>
-      <c r="F271" s="58"/>
-    </row>
-    <row r="272" spans="1:6" s="45" customFormat="1">
-      <c r="A272" s="58" t="s">
-        <v>56</v>
-      </c>
-      <c r="B272" s="58" t="s">
-        <v>453</v>
-      </c>
-      <c r="C272" s="74" t="s">
-        <v>454</v>
-      </c>
-      <c r="D272" s="58" t="s">
-        <v>418</v>
       </c>
       <c r="E272" s="74"/>
       <c r="F272" s="58"/>
@@ -13015,45 +13019,45 @@
         <v>56</v>
       </c>
       <c r="B273" s="58" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="C273" s="74" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="D273" s="58" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="E273" s="74"/>
       <c r="F273" s="58"/>
     </row>
-    <row r="274" spans="1:6" s="45" customFormat="1" ht="30">
+    <row r="274" spans="1:6" s="45" customFormat="1">
       <c r="A274" s="58" t="s">
         <v>56</v>
       </c>
       <c r="B274" s="58" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="C274" s="74" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="D274" s="58" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="E274" s="74"/>
       <c r="F274" s="58"/>
     </row>
-    <row r="275" spans="1:6" s="45" customFormat="1">
+    <row r="275" spans="1:6" s="45" customFormat="1" ht="30">
       <c r="A275" s="58" t="s">
         <v>56</v>
       </c>
       <c r="B275" s="58" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="C275" s="74" t="s">
-        <v>426</v>
+        <v>458</v>
       </c>
       <c r="D275" s="58" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="E275" s="74"/>
       <c r="F275" s="58"/>
@@ -13063,13 +13067,13 @@
         <v>56</v>
       </c>
       <c r="B276" s="58" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C276" s="74" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="D276" s="58" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="E276" s="74"/>
       <c r="F276" s="58"/>
@@ -13079,13 +13083,13 @@
         <v>56</v>
       </c>
       <c r="B277" s="58" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C277" s="74" t="s">
-        <v>462</v>
+        <v>429</v>
       </c>
       <c r="D277" s="58" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="E277" s="74"/>
       <c r="F277" s="58"/>
@@ -13095,13 +13099,13 @@
         <v>56</v>
       </c>
       <c r="B278" s="58" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C278" s="74" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="D278" s="58" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="E278" s="74"/>
       <c r="F278" s="58"/>
@@ -13111,29 +13115,29 @@
         <v>56</v>
       </c>
       <c r="B279" s="58" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C279" s="74" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="D279" s="58" t="s">
-        <v>467</v>
+        <v>439</v>
       </c>
       <c r="E279" s="74"/>
       <c r="F279" s="58"/>
     </row>
-    <row r="280" spans="1:6" s="45" customFormat="1" ht="30">
+    <row r="280" spans="1:6" s="45" customFormat="1">
       <c r="A280" s="58" t="s">
         <v>56</v>
       </c>
       <c r="B280" s="58" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="C280" s="74" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="D280" s="58" t="s">
-        <v>1107</v>
+        <v>467</v>
       </c>
       <c r="E280" s="74"/>
       <c r="F280" s="58"/>
@@ -13143,13 +13147,13 @@
         <v>56</v>
       </c>
       <c r="B281" s="58" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="C281" s="74" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="D281" s="58" t="s">
-        <v>472</v>
+        <v>1107</v>
       </c>
       <c r="E281" s="74"/>
       <c r="F281" s="58"/>
@@ -13159,31 +13163,31 @@
         <v>56</v>
       </c>
       <c r="B282" s="58" t="s">
+        <v>470</v>
+      </c>
+      <c r="C282" s="74" t="s">
+        <v>471</v>
+      </c>
+      <c r="D282" s="58" t="s">
+        <v>472</v>
+      </c>
+      <c r="E282" s="74"/>
+      <c r="F282" s="58"/>
+    </row>
+    <row r="283" spans="1:6" s="45" customFormat="1" ht="30">
+      <c r="A283" s="58" t="s">
+        <v>56</v>
+      </c>
+      <c r="B283" s="58" t="s">
         <v>473</v>
       </c>
-      <c r="C282" s="58" t="s">
+      <c r="C283" s="58" t="s">
         <v>474</v>
       </c>
-      <c r="D282" s="58" t="s">
+      <c r="D283" s="58" t="s">
         <v>442</v>
       </c>
-      <c r="E282" s="58"/>
-      <c r="F282" s="58"/>
-    </row>
-    <row r="283" spans="1:6" s="45" customFormat="1" ht="45">
-      <c r="A283" s="58" t="s">
-        <v>56</v>
-      </c>
-      <c r="B283" s="58" t="s">
-        <v>475</v>
-      </c>
-      <c r="C283" s="74" t="s">
-        <v>476</v>
-      </c>
-      <c r="D283" s="58" t="s">
-        <v>445</v>
-      </c>
-      <c r="E283" s="74"/>
+      <c r="E283" s="58"/>
       <c r="F283" s="58"/>
     </row>
     <row r="284" spans="1:6" s="45" customFormat="1" ht="45">
@@ -13191,15 +13195,15 @@
         <v>56</v>
       </c>
       <c r="B284" s="58" t="s">
-        <v>477</v>
-      </c>
-      <c r="C284" s="58" t="s">
-        <v>478</v>
-      </c>
-      <c r="D284" s="45" t="s">
-        <v>1001</v>
-      </c>
-      <c r="E284" s="58"/>
+        <v>475</v>
+      </c>
+      <c r="C284" s="74" t="s">
+        <v>476</v>
+      </c>
+      <c r="D284" s="58" t="s">
+        <v>445</v>
+      </c>
+      <c r="E284" s="74"/>
       <c r="F284" s="58"/>
     </row>
     <row r="285" spans="1:6" s="45" customFormat="1" ht="45">
@@ -13207,65 +13211,65 @@
         <v>56</v>
       </c>
       <c r="B285" s="58" t="s">
+        <v>477</v>
+      </c>
+      <c r="C285" s="58" t="s">
+        <v>478</v>
+      </c>
+      <c r="D285" s="45" t="s">
+        <v>1001</v>
+      </c>
+      <c r="E285" s="58"/>
+      <c r="F285" s="58"/>
+    </row>
+    <row r="286" spans="1:6" s="45" customFormat="1" ht="45">
+      <c r="A286" s="58" t="s">
+        <v>56</v>
+      </c>
+      <c r="B286" s="58" t="s">
         <v>479</v>
       </c>
-      <c r="C285" s="74" t="s">
+      <c r="C286" s="74" t="s">
         <v>480</v>
       </c>
-      <c r="D285" s="58" t="s">
+      <c r="D286" s="58" t="s">
         <v>448</v>
       </c>
-      <c r="E285" s="74"/>
-      <c r="F285" s="58" t="s">
+      <c r="E286" s="74"/>
+      <c r="F286" s="58" t="s">
         <v>1093</v>
       </c>
     </row>
-    <row r="286" spans="1:6" s="45" customFormat="1" ht="30">
-      <c r="A286" s="58" t="s">
-        <v>56</v>
-      </c>
-      <c r="B286" s="58" t="s">
+    <row r="287" spans="1:6" s="45" customFormat="1" ht="30">
+      <c r="A287" s="58" t="s">
+        <v>56</v>
+      </c>
+      <c r="B287" s="58" t="s">
         <v>482</v>
       </c>
-      <c r="C286" s="74" t="s">
+      <c r="C287" s="74" t="s">
         <v>483</v>
       </c>
-      <c r="D286" s="58" t="s">
+      <c r="D287" s="58" t="s">
         <v>484</v>
       </c>
-      <c r="E286" s="74"/>
-      <c r="F286" s="38" t="s">
+      <c r="E287" s="74"/>
+      <c r="F287" s="38" t="s">
         <v>1095</v>
       </c>
-    </row>
-    <row r="287" spans="1:6" s="45" customFormat="1">
-      <c r="A287" s="58" t="s">
-        <v>56</v>
-      </c>
-      <c r="B287" s="58" t="s">
-        <v>1256</v>
-      </c>
-      <c r="C287" s="74" t="s">
-        <v>1257</v>
-      </c>
-      <c r="D287" s="58" t="s">
-        <v>1121</v>
-      </c>
-      <c r="E287" s="74"/>
-      <c r="F287" s="58"/>
     </row>
     <row r="288" spans="1:6" s="45" customFormat="1">
       <c r="A288" s="58" t="s">
         <v>56</v>
       </c>
       <c r="B288" s="58" t="s">
-        <v>1265</v>
+        <v>1256</v>
       </c>
       <c r="C288" s="74" t="s">
-        <v>1260</v>
+        <v>1257</v>
       </c>
       <c r="D288" s="58" t="s">
-        <v>1118</v>
+        <v>1121</v>
       </c>
       <c r="E288" s="74"/>
       <c r="F288" s="58"/>
@@ -13274,58 +13278,58 @@
       <c r="A289" s="58" t="s">
         <v>56</v>
       </c>
-      <c r="B289" s="58">
-        <v>10.3</v>
-      </c>
-      <c r="C289" s="59" t="s">
-        <v>37</v>
-      </c>
-      <c r="D289" s="60"/>
-      <c r="E289" s="60"/>
-      <c r="F289" s="60"/>
+      <c r="B289" s="58" t="s">
+        <v>1265</v>
+      </c>
+      <c r="C289" s="74" t="s">
+        <v>1260</v>
+      </c>
+      <c r="D289" s="58" t="s">
+        <v>1118</v>
+      </c>
+      <c r="E289" s="74"/>
+      <c r="F289" s="58"/>
     </row>
     <row r="290" spans="1:6" s="45" customFormat="1">
       <c r="A290" s="58" t="s">
         <v>56</v>
       </c>
-      <c r="B290" s="58" t="s">
-        <v>485</v>
-      </c>
-      <c r="C290" s="60" t="s">
-        <v>36</v>
+      <c r="B290" s="58">
+        <v>10.3</v>
+      </c>
+      <c r="C290" s="59" t="s">
+        <v>37</v>
       </c>
       <c r="D290" s="60"/>
       <c r="E290" s="60"/>
       <c r="F290" s="60"/>
     </row>
-    <row r="291" spans="1:6" s="45" customFormat="1" ht="30">
+    <row r="291" spans="1:6" s="45" customFormat="1">
       <c r="A291" s="58" t="s">
         <v>56</v>
       </c>
       <c r="B291" s="58" t="s">
+        <v>485</v>
+      </c>
+      <c r="C291" s="60" t="s">
+        <v>36</v>
+      </c>
+      <c r="D291" s="60"/>
+      <c r="E291" s="60"/>
+      <c r="F291" s="60"/>
+    </row>
+    <row r="292" spans="1:6" s="45" customFormat="1" ht="30">
+      <c r="A292" s="58" t="s">
+        <v>56</v>
+      </c>
+      <c r="B292" s="58" t="s">
         <v>486</v>
       </c>
-      <c r="C291" s="74" t="s">
+      <c r="C292" s="74" t="s">
         <v>452</v>
       </c>
-      <c r="D291" s="58" t="s">
+      <c r="D292" s="58" t="s">
         <v>415</v>
-      </c>
-      <c r="E291" s="74"/>
-      <c r="F291" s="58"/>
-    </row>
-    <row r="292" spans="1:6" s="45" customFormat="1">
-      <c r="A292" s="58" t="s">
-        <v>56</v>
-      </c>
-      <c r="B292" s="58" t="s">
-        <v>487</v>
-      </c>
-      <c r="C292" s="74" t="s">
-        <v>454</v>
-      </c>
-      <c r="D292" s="58" t="s">
-        <v>418</v>
       </c>
       <c r="E292" s="74"/>
       <c r="F292" s="58"/>
@@ -13335,45 +13339,45 @@
         <v>56</v>
       </c>
       <c r="B293" s="58" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C293" s="74" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="D293" s="58" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="E293" s="74"/>
       <c r="F293" s="58"/>
     </row>
-    <row r="294" spans="1:6" s="45" customFormat="1" ht="30">
+    <row r="294" spans="1:6" s="45" customFormat="1">
       <c r="A294" s="58" t="s">
         <v>56</v>
       </c>
       <c r="B294" s="58" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C294" s="74" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="D294" s="58" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="E294" s="74"/>
       <c r="F294" s="58"/>
     </row>
-    <row r="295" spans="1:6" s="45" customFormat="1">
+    <row r="295" spans="1:6" s="45" customFormat="1" ht="30">
       <c r="A295" s="58" t="s">
         <v>56</v>
       </c>
       <c r="B295" s="58" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C295" s="74" t="s">
-        <v>426</v>
+        <v>458</v>
       </c>
       <c r="D295" s="58" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="E295" s="74"/>
       <c r="F295" s="58"/>
@@ -13383,13 +13387,13 @@
         <v>56</v>
       </c>
       <c r="B296" s="58" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C296" s="74" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="D296" s="58" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="E296" s="74"/>
       <c r="F296" s="58"/>
@@ -13399,13 +13403,13 @@
         <v>56</v>
       </c>
       <c r="B297" s="58" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C297" s="74" t="s">
-        <v>462</v>
+        <v>429</v>
       </c>
       <c r="D297" s="58" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="E297" s="74"/>
       <c r="F297" s="58"/>
@@ -13415,13 +13419,13 @@
         <v>56</v>
       </c>
       <c r="B298" s="58" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C298" s="74" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="D298" s="58" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="E298" s="74"/>
       <c r="F298" s="58"/>
@@ -13431,29 +13435,29 @@
         <v>56</v>
       </c>
       <c r="B299" s="58" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C299" s="74" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="D299" s="58" t="s">
-        <v>467</v>
+        <v>439</v>
       </c>
       <c r="E299" s="74"/>
       <c r="F299" s="58"/>
     </row>
-    <row r="300" spans="1:6" s="45" customFormat="1" ht="30">
+    <row r="300" spans="1:6" s="45" customFormat="1">
       <c r="A300" s="58" t="s">
         <v>56</v>
       </c>
       <c r="B300" s="58" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C300" s="74" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="D300" s="58" t="s">
-        <v>1107</v>
+        <v>467</v>
       </c>
       <c r="E300" s="74"/>
       <c r="F300" s="58"/>
@@ -13463,13 +13467,13 @@
         <v>56</v>
       </c>
       <c r="B301" s="58" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C301" s="74" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="D301" s="58" t="s">
-        <v>472</v>
+        <v>1107</v>
       </c>
       <c r="E301" s="74"/>
       <c r="F301" s="58"/>
@@ -13479,31 +13483,31 @@
         <v>56</v>
       </c>
       <c r="B302" s="58" t="s">
+        <v>496</v>
+      </c>
+      <c r="C302" s="74" t="s">
+        <v>471</v>
+      </c>
+      <c r="D302" s="58" t="s">
+        <v>472</v>
+      </c>
+      <c r="E302" s="74"/>
+      <c r="F302" s="58"/>
+    </row>
+    <row r="303" spans="1:6" s="45" customFormat="1" ht="30">
+      <c r="A303" s="58" t="s">
+        <v>56</v>
+      </c>
+      <c r="B303" s="58" t="s">
         <v>497</v>
       </c>
-      <c r="C302" s="58" t="s">
+      <c r="C303" s="58" t="s">
         <v>474</v>
       </c>
-      <c r="D302" s="58" t="s">
+      <c r="D303" s="58" t="s">
         <v>442</v>
       </c>
-      <c r="E302" s="58"/>
-      <c r="F302" s="58"/>
-    </row>
-    <row r="303" spans="1:6" s="45" customFormat="1" ht="45">
-      <c r="A303" s="58" t="s">
-        <v>56</v>
-      </c>
-      <c r="B303" s="58" t="s">
-        <v>498</v>
-      </c>
-      <c r="C303" s="74" t="s">
-        <v>476</v>
-      </c>
-      <c r="D303" s="58" t="s">
-        <v>445</v>
-      </c>
-      <c r="E303" s="74"/>
+      <c r="E303" s="58"/>
       <c r="F303" s="58"/>
     </row>
     <row r="304" spans="1:6" s="45" customFormat="1" ht="45">
@@ -13511,15 +13515,15 @@
         <v>56</v>
       </c>
       <c r="B304" s="58" t="s">
-        <v>499</v>
-      </c>
-      <c r="C304" s="58" t="s">
-        <v>478</v>
+        <v>498</v>
+      </c>
+      <c r="C304" s="74" t="s">
+        <v>476</v>
       </c>
       <c r="D304" s="58" t="s">
-        <v>1001</v>
-      </c>
-      <c r="E304" s="58"/>
+        <v>445</v>
+      </c>
+      <c r="E304" s="74"/>
       <c r="F304" s="58"/>
     </row>
     <row r="305" spans="1:6" s="45" customFormat="1" ht="45">
@@ -13527,35 +13531,33 @@
         <v>56</v>
       </c>
       <c r="B305" s="58" t="s">
+        <v>499</v>
+      </c>
+      <c r="C305" s="58" t="s">
+        <v>478</v>
+      </c>
+      <c r="D305" s="58" t="s">
+        <v>1001</v>
+      </c>
+      <c r="E305" s="58"/>
+      <c r="F305" s="58"/>
+    </row>
+    <row r="306" spans="1:6" s="45" customFormat="1" ht="45">
+      <c r="A306" s="58" t="s">
+        <v>56</v>
+      </c>
+      <c r="B306" s="58" t="s">
         <v>500</v>
       </c>
-      <c r="C305" s="74" t="s">
+      <c r="C306" s="74" t="s">
         <v>480</v>
       </c>
-      <c r="D305" s="58" t="s">
+      <c r="D306" s="58" t="s">
         <v>448</v>
-      </c>
-      <c r="E305" s="74"/>
-      <c r="F305" s="58" t="s">
-        <v>1093</v>
-      </c>
-    </row>
-    <row r="306" spans="1:6" s="45" customFormat="1">
-      <c r="A306" s="58" t="s">
-        <v>56</v>
-      </c>
-      <c r="B306" s="58" t="s">
-        <v>501</v>
-      </c>
-      <c r="C306" s="74" t="s">
-        <v>1263</v>
-      </c>
-      <c r="D306" s="58" t="s">
-        <v>484</v>
       </c>
       <c r="E306" s="74"/>
       <c r="F306" s="58" t="s">
-        <v>1097</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="307" spans="1:6" s="45" customFormat="1">
@@ -13563,29 +13565,31 @@
         <v>56</v>
       </c>
       <c r="B307" s="58" t="s">
-        <v>1258</v>
+        <v>501</v>
       </c>
       <c r="C307" s="74" t="s">
-        <v>1260</v>
+        <v>1263</v>
       </c>
       <c r="D307" s="58" t="s">
-        <v>1118</v>
+        <v>484</v>
       </c>
       <c r="E307" s="74"/>
-      <c r="F307" s="58"/>
+      <c r="F307" s="58" t="s">
+        <v>1097</v>
+      </c>
     </row>
     <row r="308" spans="1:6" s="45" customFormat="1">
       <c r="A308" s="58" t="s">
         <v>56</v>
       </c>
       <c r="B308" s="58" t="s">
-        <v>1262</v>
+        <v>1258</v>
       </c>
       <c r="C308" s="74" t="s">
-        <v>1257</v>
+        <v>1260</v>
       </c>
       <c r="D308" s="58" t="s">
-        <v>1121</v>
+        <v>1118</v>
       </c>
       <c r="E308" s="74"/>
       <c r="F308" s="58"/>
@@ -13594,136 +13598,136 @@
       <c r="A309" s="58" t="s">
         <v>56</v>
       </c>
-      <c r="B309" s="58">
-        <v>10.4</v>
-      </c>
-      <c r="C309" s="59" t="s">
-        <v>10</v>
-      </c>
-      <c r="D309" s="60"/>
-      <c r="E309" s="60"/>
-      <c r="F309" s="60"/>
+      <c r="B309" s="58" t="s">
+        <v>1262</v>
+      </c>
+      <c r="C309" s="74" t="s">
+        <v>1257</v>
+      </c>
+      <c r="D309" s="58" t="s">
+        <v>1121</v>
+      </c>
+      <c r="E309" s="74"/>
+      <c r="F309" s="58"/>
     </row>
     <row r="310" spans="1:6" s="45" customFormat="1">
       <c r="A310" s="58" t="s">
         <v>56</v>
       </c>
-      <c r="B310" s="58" t="s">
-        <v>502</v>
-      </c>
-      <c r="C310" s="60" t="s">
-        <v>1261</v>
+      <c r="B310" s="58">
+        <v>10.4</v>
+      </c>
+      <c r="C310" s="59" t="s">
+        <v>10</v>
       </c>
       <c r="D310" s="60"/>
       <c r="E310" s="60"/>
       <c r="F310" s="60"/>
     </row>
-    <row r="311" spans="1:6" s="45" customFormat="1" ht="30">
+    <row r="311" spans="1:6" s="45" customFormat="1">
       <c r="A311" s="58" t="s">
         <v>56</v>
       </c>
       <c r="B311" s="58" t="s">
+        <v>502</v>
+      </c>
+      <c r="C311" s="60" t="s">
+        <v>1261</v>
+      </c>
+      <c r="D311" s="60"/>
+      <c r="E311" s="60"/>
+      <c r="F311" s="60"/>
+    </row>
+    <row r="312" spans="1:6" s="45" customFormat="1" ht="30">
+      <c r="A312" s="58" t="s">
+        <v>56</v>
+      </c>
+      <c r="B312" s="58" t="s">
         <v>503</v>
       </c>
-      <c r="C311" s="74" t="s">
+      <c r="C312" s="74" t="s">
         <v>504</v>
       </c>
-      <c r="D311" s="58" t="s">
+      <c r="D312" s="58" t="s">
         <v>505</v>
       </c>
-      <c r="E311" s="74"/>
-      <c r="F311" s="58"/>
-    </row>
-    <row r="312" spans="1:6" s="45" customFormat="1">
-      <c r="A312" s="58" t="s">
-        <v>56</v>
-      </c>
-      <c r="B312" s="58" t="s">
+      <c r="E312" s="74"/>
+      <c r="F312" s="58"/>
+    </row>
+    <row r="313" spans="1:6" s="45" customFormat="1">
+      <c r="A313" s="58" t="s">
+        <v>56</v>
+      </c>
+      <c r="B313" s="58" t="s">
         <v>506</v>
       </c>
-      <c r="C312" s="60" t="s">
+      <c r="C313" s="60" t="s">
         <v>36</v>
       </c>
-      <c r="D312" s="60"/>
-      <c r="E312" s="60"/>
-      <c r="F312" s="60"/>
-    </row>
-    <row r="313" spans="1:6" s="45" customFormat="1" ht="30">
-      <c r="A313" s="58" t="s">
-        <v>56</v>
-      </c>
-      <c r="B313" s="58" t="s">
+      <c r="D313" s="60"/>
+      <c r="E313" s="60"/>
+      <c r="F313" s="60"/>
+    </row>
+    <row r="314" spans="1:6" s="45" customFormat="1" ht="30">
+      <c r="A314" s="58" t="s">
+        <v>56</v>
+      </c>
+      <c r="B314" s="58" t="s">
         <v>507</v>
       </c>
-      <c r="C313" s="58" t="s">
+      <c r="C314" s="58" t="s">
         <v>508</v>
       </c>
-      <c r="D313" s="58" t="s">
+      <c r="D314" s="58" t="s">
         <v>415</v>
       </c>
-      <c r="E313" s="58"/>
-      <c r="F313" s="75"/>
-    </row>
-    <row r="314" spans="1:6" s="45" customFormat="1">
-      <c r="A314" s="58" t="s">
-        <v>56</v>
-      </c>
-      <c r="B314" s="58" t="s">
-        <v>509</v>
-      </c>
-      <c r="C314" s="74" t="s">
-        <v>510</v>
-      </c>
-      <c r="D314" s="58" t="s">
-        <v>511</v>
-      </c>
-      <c r="E314" s="74"/>
-      <c r="F314" s="58"/>
+      <c r="E314" s="58"/>
+      <c r="F314" s="75"/>
     </row>
     <row r="315" spans="1:6" s="45" customFormat="1">
       <c r="A315" s="58" t="s">
         <v>56</v>
       </c>
       <c r="B315" s="58" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="C315" s="74" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="D315" s="58" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="E315" s="74"/>
       <c r="F315" s="58"/>
     </row>
-    <row r="316" spans="1:6" s="45" customFormat="1" ht="30">
+    <row r="316" spans="1:6" s="45" customFormat="1">
       <c r="A316" s="58" t="s">
         <v>56</v>
       </c>
       <c r="B316" s="58" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="C316" s="74" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="D316" s="58" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="E316" s="74"/>
       <c r="F316" s="58"/>
     </row>
-    <row r="317" spans="1:6" s="45" customFormat="1">
+    <row r="317" spans="1:6" s="45" customFormat="1" ht="30">
       <c r="A317" s="58" t="s">
         <v>56</v>
       </c>
       <c r="B317" s="58" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="C317" s="74" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="D317" s="58" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="E317" s="74"/>
       <c r="F317" s="58"/>
@@ -13733,89 +13737,89 @@
         <v>56</v>
       </c>
       <c r="B318" s="58" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="C318" s="74" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="D318" s="58" t="s">
-        <v>467</v>
+        <v>520</v>
       </c>
       <c r="E318" s="74"/>
       <c r="F318" s="58"/>
     </row>
-    <row r="319" spans="1:6" s="45" customFormat="1" ht="45">
+    <row r="319" spans="1:6" s="45" customFormat="1">
       <c r="A319" s="58" t="s">
         <v>56</v>
       </c>
       <c r="B319" s="58" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="C319" s="74" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="D319" s="58" t="s">
-        <v>525</v>
+        <v>467</v>
       </c>
       <c r="E319" s="74"/>
       <c r="F319" s="58"/>
     </row>
-    <row r="320" spans="1:6" s="45" customFormat="1">
+    <row r="320" spans="1:6" s="45" customFormat="1" ht="45">
       <c r="A320" s="58" t="s">
         <v>56</v>
       </c>
-      <c r="B320" s="58">
-        <v>10.5</v>
-      </c>
-      <c r="C320" s="82" t="s">
-        <v>39</v>
-      </c>
-      <c r="D320" s="83"/>
-      <c r="E320" s="84"/>
-      <c r="F320" s="83"/>
+      <c r="B320" s="58" t="s">
+        <v>523</v>
+      </c>
+      <c r="C320" s="74" t="s">
+        <v>524</v>
+      </c>
+      <c r="D320" s="58" t="s">
+        <v>525</v>
+      </c>
+      <c r="E320" s="74"/>
+      <c r="F320" s="58"/>
     </row>
     <row r="321" spans="1:6" s="45" customFormat="1">
       <c r="A321" s="58" t="s">
         <v>56</v>
       </c>
-      <c r="B321" s="58" t="s">
-        <v>526</v>
-      </c>
-      <c r="C321" s="84" t="s">
-        <v>36</v>
+      <c r="B321" s="58">
+        <v>10.5</v>
+      </c>
+      <c r="C321" s="82" t="s">
+        <v>39</v>
       </c>
       <c r="D321" s="83"/>
       <c r="E321" s="84"/>
       <c r="F321" s="83"/>
     </row>
-    <row r="322" spans="1:6" s="45" customFormat="1" ht="30">
+    <row r="322" spans="1:6" s="45" customFormat="1">
       <c r="A322" s="58" t="s">
         <v>56</v>
       </c>
       <c r="B322" s="58" t="s">
+        <v>526</v>
+      </c>
+      <c r="C322" s="84" t="s">
+        <v>36</v>
+      </c>
+      <c r="D322" s="83"/>
+      <c r="E322" s="84"/>
+      <c r="F322" s="83"/>
+    </row>
+    <row r="323" spans="1:6" s="45" customFormat="1" ht="30">
+      <c r="A323" s="58" t="s">
+        <v>56</v>
+      </c>
+      <c r="B323" s="58" t="s">
         <v>527</v>
       </c>
-      <c r="C322" s="58" t="s">
+      <c r="C323" s="58" t="s">
         <v>452</v>
       </c>
-      <c r="D322" s="58" t="s">
+      <c r="D323" s="58" t="s">
         <v>415</v>
-      </c>
-      <c r="E322" s="58"/>
-      <c r="F322" s="58"/>
-    </row>
-    <row r="323" spans="1:6" s="45" customFormat="1">
-      <c r="A323" s="58" t="s">
-        <v>56</v>
-      </c>
-      <c r="B323" s="58" t="s">
-        <v>528</v>
-      </c>
-      <c r="C323" s="58" t="s">
-        <v>454</v>
-      </c>
-      <c r="D323" s="58" t="s">
-        <v>418</v>
       </c>
       <c r="E323" s="58"/>
       <c r="F323" s="58"/>
@@ -13825,45 +13829,45 @@
         <v>56</v>
       </c>
       <c r="B324" s="58" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C324" s="58" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="D324" s="58" t="s">
-        <v>436</v>
+        <v>418</v>
       </c>
       <c r="E324" s="58"/>
       <c r="F324" s="58"/>
     </row>
-    <row r="325" spans="1:6" s="45" customFormat="1" ht="30">
+    <row r="325" spans="1:6" s="45" customFormat="1">
       <c r="A325" s="58" t="s">
         <v>56</v>
       </c>
       <c r="B325" s="58" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C325" s="58" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="D325" s="58" t="s">
-        <v>424</v>
+        <v>436</v>
       </c>
       <c r="E325" s="58"/>
       <c r="F325" s="58"/>
     </row>
-    <row r="326" spans="1:6" s="45" customFormat="1">
+    <row r="326" spans="1:6" s="45" customFormat="1" ht="30">
       <c r="A326" s="58" t="s">
         <v>56</v>
       </c>
       <c r="B326" s="58" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C326" s="58" t="s">
-        <v>426</v>
+        <v>458</v>
       </c>
       <c r="D326" s="58" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="E326" s="58"/>
       <c r="F326" s="58"/>
@@ -13873,13 +13877,13 @@
         <v>56</v>
       </c>
       <c r="B327" s="58" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C327" s="58" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="D327" s="58" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="E327" s="58"/>
       <c r="F327" s="58"/>
@@ -13889,13 +13893,13 @@
         <v>56</v>
       </c>
       <c r="B328" s="58" t="s">
-        <v>1234</v>
+        <v>532</v>
       </c>
       <c r="C328" s="58" t="s">
-        <v>462</v>
+        <v>429</v>
       </c>
       <c r="D328" s="58" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="E328" s="58"/>
       <c r="F328" s="58"/>
@@ -13905,13 +13909,13 @@
         <v>56</v>
       </c>
       <c r="B329" s="58" t="s">
-        <v>1233</v>
+        <v>1234</v>
       </c>
       <c r="C329" s="58" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="D329" s="58" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="E329" s="58"/>
       <c r="F329" s="58"/>
@@ -13921,29 +13925,29 @@
         <v>56</v>
       </c>
       <c r="B330" s="58" t="s">
-        <v>537</v>
+        <v>1233</v>
       </c>
       <c r="C330" s="58" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="D330" s="58" t="s">
-        <v>467</v>
+        <v>439</v>
       </c>
       <c r="E330" s="58"/>
       <c r="F330" s="58"/>
     </row>
-    <row r="331" spans="1:6" s="45" customFormat="1" ht="30">
+    <row r="331" spans="1:6" s="45" customFormat="1">
       <c r="A331" s="58" t="s">
         <v>56</v>
       </c>
       <c r="B331" s="58" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C331" s="58" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="D331" s="58" t="s">
-        <v>1107</v>
+        <v>467</v>
       </c>
       <c r="E331" s="58"/>
       <c r="F331" s="58"/>
@@ -13953,13 +13957,13 @@
         <v>56</v>
       </c>
       <c r="B332" s="58" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C332" s="58" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="D332" s="58" t="s">
-        <v>472</v>
+        <v>1107</v>
       </c>
       <c r="E332" s="58"/>
       <c r="F332" s="58"/>
@@ -13969,29 +13973,29 @@
         <v>56</v>
       </c>
       <c r="B333" s="58" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C333" s="58" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="D333" s="58" t="s">
-        <v>442</v>
+        <v>472</v>
       </c>
       <c r="E333" s="58"/>
       <c r="F333" s="58"/>
     </row>
-    <row r="334" spans="1:6" s="45" customFormat="1" ht="45">
+    <row r="334" spans="1:6" s="45" customFormat="1" ht="30">
       <c r="A334" s="58" t="s">
         <v>56</v>
       </c>
       <c r="B334" s="58" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C334" s="58" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="D334" s="58" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="E334" s="58"/>
       <c r="F334" s="58"/>
@@ -14001,13 +14005,13 @@
         <v>56</v>
       </c>
       <c r="B335" s="58" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C335" s="58" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D335" s="58" t="s">
-        <v>1001</v>
+        <v>445</v>
       </c>
       <c r="E335" s="58"/>
       <c r="F335" s="58"/>
@@ -14017,35 +14021,33 @@
         <v>56</v>
       </c>
       <c r="B336" s="58" t="s">
+        <v>542</v>
+      </c>
+      <c r="C336" s="58" t="s">
+        <v>478</v>
+      </c>
+      <c r="D336" s="58" t="s">
+        <v>1001</v>
+      </c>
+      <c r="E336" s="58"/>
+      <c r="F336" s="58"/>
+    </row>
+    <row r="337" spans="1:6" s="45" customFormat="1" ht="45">
+      <c r="A337" s="58" t="s">
+        <v>56</v>
+      </c>
+      <c r="B337" s="58" t="s">
         <v>1232</v>
       </c>
-      <c r="C336" s="58" t="s">
+      <c r="C337" s="58" t="s">
         <v>480</v>
       </c>
-      <c r="D336" s="58" t="s">
+      <c r="D337" s="58" t="s">
         <v>448</v>
       </c>
-      <c r="E336" s="58"/>
-      <c r="F336" s="58" t="s">
+      <c r="E337" s="58"/>
+      <c r="F337" s="58" t="s">
         <v>1093</v>
-      </c>
-    </row>
-    <row r="337" spans="1:6" s="45" customFormat="1">
-      <c r="A337" s="58" t="s">
-        <v>56</v>
-      </c>
-      <c r="B337" s="58" t="s">
-        <v>1231</v>
-      </c>
-      <c r="C337" s="74" t="s">
-        <v>1263</v>
-      </c>
-      <c r="D337" s="58" t="s">
-        <v>484</v>
-      </c>
-      <c r="E337" s="74"/>
-      <c r="F337" s="58" t="s">
-        <v>1250</v>
       </c>
     </row>
     <row r="338" spans="1:6" s="45" customFormat="1">
@@ -14053,105 +14055,105 @@
         <v>56</v>
       </c>
       <c r="B338" s="58" t="s">
-        <v>1259</v>
+        <v>1231</v>
       </c>
       <c r="C338" s="74" t="s">
-        <v>1260</v>
+        <v>1263</v>
       </c>
       <c r="D338" s="58" t="s">
-        <v>1118</v>
+        <v>484</v>
       </c>
       <c r="E338" s="74"/>
-      <c r="F338" s="58"/>
+      <c r="F338" s="58" t="s">
+        <v>1250</v>
+      </c>
     </row>
     <row r="339" spans="1:6" s="45" customFormat="1">
       <c r="A339" s="58" t="s">
         <v>56</v>
       </c>
       <c r="B339" s="58" t="s">
-        <v>1264</v>
+        <v>1259</v>
       </c>
       <c r="C339" s="74" t="s">
-        <v>1257</v>
+        <v>1260</v>
       </c>
       <c r="D339" s="58" t="s">
-        <v>1121</v>
+        <v>1118</v>
       </c>
       <c r="E339" s="74"/>
       <c r="F339" s="58"/>
     </row>
-    <row r="340" spans="1:6" ht="15.75">
-      <c r="A340" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="B340" s="35" t="s">
+    <row r="340" spans="1:6" s="45" customFormat="1">
+      <c r="A340" s="58" t="s">
+        <v>56</v>
+      </c>
+      <c r="B340" s="58" t="s">
+        <v>1264</v>
+      </c>
+      <c r="C340" s="74" t="s">
+        <v>1257</v>
+      </c>
+      <c r="D340" s="58" t="s">
+        <v>1121</v>
+      </c>
+      <c r="E340" s="74"/>
+      <c r="F340" s="58"/>
+    </row>
+    <row r="341" spans="1:6" ht="15.75">
+      <c r="A341" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="B341" s="35" t="s">
         <v>1217</v>
       </c>
-      <c r="C340" s="85" t="s">
+      <c r="C341" s="85" t="s">
         <v>40</v>
       </c>
-      <c r="D340" s="78"/>
-      <c r="E340" s="85"/>
-      <c r="F340" s="78"/>
-    </row>
-    <row r="341" spans="1:6">
-      <c r="A341" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="B341" s="38">
-        <v>11.1</v>
-      </c>
-      <c r="C341" s="86" t="s">
-        <v>41</v>
-      </c>
       <c r="D341" s="78"/>
-      <c r="E341" s="87"/>
+      <c r="E341" s="85"/>
       <c r="F341" s="78"/>
     </row>
     <row r="342" spans="1:6">
       <c r="A342" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="B342" s="38" t="s">
-        <v>543</v>
-      </c>
-      <c r="C342" s="87" t="s">
-        <v>42</v>
+      <c r="B342" s="38">
+        <v>11.1</v>
+      </c>
+      <c r="C342" s="86" t="s">
+        <v>41</v>
       </c>
       <c r="D342" s="78"/>
       <c r="E342" s="87"/>
       <c r="F342" s="78"/>
     </row>
-    <row r="343" spans="1:6" ht="60">
+    <row r="343" spans="1:6">
       <c r="A343" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B343" s="38" t="s">
+        <v>543</v>
+      </c>
+      <c r="C343" s="87" t="s">
+        <v>42</v>
+      </c>
+      <c r="D343" s="78"/>
+      <c r="E343" s="87"/>
+      <c r="F343" s="78"/>
+    </row>
+    <row r="344" spans="1:6" ht="60">
+      <c r="A344" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="B344" s="38" t="s">
         <v>544</v>
       </c>
-      <c r="C343" s="43" t="s">
+      <c r="C344" s="43" t="s">
         <v>545</v>
       </c>
-      <c r="D343" s="38">
+      <c r="D344" s="38">
         <v>78.3</v>
-      </c>
-      <c r="E343" s="43"/>
-      <c r="F343" s="38" t="s">
-        <v>1094</v>
-      </c>
-    </row>
-    <row r="344" spans="1:6">
-      <c r="A344" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="B344" s="38" t="s">
-        <v>546</v>
-      </c>
-      <c r="C344" s="43" t="s">
-        <v>547</v>
-      </c>
-      <c r="D344" s="38">
-        <v>78.099999999999994</v>
       </c>
       <c r="E344" s="43"/>
       <c r="F344" s="38" t="s">
@@ -14163,10 +14165,10 @@
         <v>56</v>
       </c>
       <c r="B345" s="38" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="C345" s="43" t="s">
-        <v>1235</v>
+        <v>547</v>
       </c>
       <c r="D345" s="38">
         <v>78.099999999999994</v>
@@ -14181,45 +14183,45 @@
         <v>56</v>
       </c>
       <c r="B346" s="38" t="s">
-        <v>550</v>
-      </c>
-      <c r="C346" s="40" t="s">
-        <v>43</v>
-      </c>
-      <c r="D346" s="40"/>
-      <c r="E346" s="40"/>
-      <c r="F346" s="40"/>
+        <v>548</v>
+      </c>
+      <c r="C346" s="43" t="s">
+        <v>1235</v>
+      </c>
+      <c r="D346" s="38">
+        <v>78.099999999999994</v>
+      </c>
+      <c r="E346" s="43"/>
+      <c r="F346" s="38" t="s">
+        <v>1094</v>
+      </c>
     </row>
     <row r="347" spans="1:6">
       <c r="A347" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B347" s="38" t="s">
-        <v>551</v>
-      </c>
-      <c r="C347" s="43" t="s">
-        <v>552</v>
-      </c>
-      <c r="D347" s="38" t="s">
-        <v>553</v>
-      </c>
-      <c r="E347" s="43"/>
-      <c r="F347" s="38" t="s">
-        <v>1094</v>
-      </c>
+        <v>550</v>
+      </c>
+      <c r="C347" s="40" t="s">
+        <v>43</v>
+      </c>
+      <c r="D347" s="40"/>
+      <c r="E347" s="40"/>
+      <c r="F347" s="40"/>
     </row>
     <row r="348" spans="1:6">
       <c r="A348" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B348" s="38" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="C348" s="43" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="D348" s="38" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="E348" s="43"/>
       <c r="F348" s="38" t="s">
@@ -14231,15 +14233,15 @@
         <v>56</v>
       </c>
       <c r="B349" s="38" t="s">
-        <v>557</v>
-      </c>
-      <c r="C349" s="38" t="s">
-        <v>558</v>
+        <v>554</v>
+      </c>
+      <c r="C349" s="43" t="s">
+        <v>555</v>
       </c>
       <c r="D349" s="38" t="s">
-        <v>559</v>
-      </c>
-      <c r="E349" s="38"/>
+        <v>556</v>
+      </c>
+      <c r="E349" s="43"/>
       <c r="F349" s="38" t="s">
         <v>1094</v>
       </c>
@@ -14249,15 +14251,15 @@
         <v>56</v>
       </c>
       <c r="B350" s="38" t="s">
-        <v>560</v>
-      </c>
-      <c r="C350" s="43" t="s">
-        <v>561</v>
+        <v>557</v>
+      </c>
+      <c r="C350" s="38" t="s">
+        <v>558</v>
       </c>
       <c r="D350" s="38" t="s">
-        <v>562</v>
-      </c>
-      <c r="E350" s="43"/>
+        <v>559</v>
+      </c>
+      <c r="E350" s="38"/>
       <c r="F350" s="38" t="s">
         <v>1094</v>
       </c>
@@ -14267,45 +14269,45 @@
         <v>56</v>
       </c>
       <c r="B351" s="38" t="s">
-        <v>563</v>
-      </c>
-      <c r="C351" s="40" t="s">
-        <v>564</v>
-      </c>
-      <c r="D351" s="40"/>
-      <c r="E351" s="40"/>
-      <c r="F351" s="40"/>
+        <v>560</v>
+      </c>
+      <c r="C351" s="43" t="s">
+        <v>561</v>
+      </c>
+      <c r="D351" s="38" t="s">
+        <v>562</v>
+      </c>
+      <c r="E351" s="43"/>
+      <c r="F351" s="38" t="s">
+        <v>1094</v>
+      </c>
     </row>
     <row r="352" spans="1:6">
       <c r="A352" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B352" s="38" t="s">
-        <v>565</v>
-      </c>
-      <c r="C352" s="43" t="s">
-        <v>566</v>
-      </c>
-      <c r="D352" s="38" t="s">
-        <v>567</v>
-      </c>
-      <c r="E352" s="43"/>
-      <c r="F352" s="38" t="s">
-        <v>1094</v>
-      </c>
+        <v>563</v>
+      </c>
+      <c r="C352" s="40" t="s">
+        <v>564</v>
+      </c>
+      <c r="D352" s="40"/>
+      <c r="E352" s="40"/>
+      <c r="F352" s="40"/>
     </row>
     <row r="353" spans="1:6">
       <c r="A353" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B353" s="38" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="C353" s="43" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="D353" s="38" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="E353" s="43"/>
       <c r="F353" s="38" t="s">
@@ -14317,13 +14319,13 @@
         <v>56</v>
       </c>
       <c r="B354" s="38" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="C354" s="43" t="s">
-        <v>1065</v>
+        <v>569</v>
       </c>
       <c r="D354" s="38" t="s">
-        <v>1064</v>
+        <v>570</v>
       </c>
       <c r="E354" s="43"/>
       <c r="F354" s="38" t="s">
@@ -14335,13 +14337,13 @@
         <v>56</v>
       </c>
       <c r="B355" s="38" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="C355" s="43" t="s">
-        <v>575</v>
+        <v>1065</v>
       </c>
       <c r="D355" s="38" t="s">
-        <v>576</v>
+        <v>1064</v>
       </c>
       <c r="E355" s="43"/>
       <c r="F355" s="38" t="s">
@@ -14353,13 +14355,13 @@
         <v>56</v>
       </c>
       <c r="B356" s="38" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="C356" s="43" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="D356" s="38" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="E356" s="43"/>
       <c r="F356" s="38" t="s">
@@ -14371,45 +14373,45 @@
         <v>56</v>
       </c>
       <c r="B357" s="38" t="s">
+        <v>577</v>
+      </c>
+      <c r="C357" s="43" t="s">
+        <v>578</v>
+      </c>
+      <c r="D357" s="38" t="s">
+        <v>579</v>
+      </c>
+      <c r="E357" s="43"/>
+      <c r="F357" s="38" t="s">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="358" spans="1:6">
+      <c r="A358" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="B358" s="38" t="s">
         <v>580</v>
       </c>
-      <c r="C357" s="40" t="s">
+      <c r="C358" s="40" t="s">
         <v>581</v>
       </c>
-      <c r="D357" s="40"/>
-      <c r="E357" s="40"/>
-      <c r="F357" s="40"/>
-    </row>
-    <row r="358" spans="1:6" ht="45">
-      <c r="A358" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="B358" s="38" t="s">
+      <c r="D358" s="40"/>
+      <c r="E358" s="40"/>
+      <c r="F358" s="40"/>
+    </row>
+    <row r="359" spans="1:6" ht="45">
+      <c r="A359" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="B359" s="38" t="s">
         <v>583</v>
       </c>
-      <c r="C358" s="43" t="s">
+      <c r="C359" s="43" t="s">
         <v>584</v>
       </c>
-      <c r="D358" s="39" t="s">
+      <c r="D359" s="39" t="s">
         <v>582</v>
-      </c>
-      <c r="E358" s="43"/>
-      <c r="F358" s="38" t="s">
-        <v>1094</v>
-      </c>
-    </row>
-    <row r="359" spans="1:6" ht="30">
-      <c r="A359" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="B359" s="38" t="s">
-        <v>585</v>
-      </c>
-      <c r="C359" s="43" t="s">
-        <v>586</v>
-      </c>
-      <c r="D359" s="39" t="s">
-        <v>1268</v>
       </c>
       <c r="E359" s="43"/>
       <c r="F359" s="38" t="s">
@@ -14421,31 +14423,31 @@
         <v>56</v>
       </c>
       <c r="B360" s="38" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="C360" s="43" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="D360" s="39" t="s">
-        <v>591</v>
+        <v>1268</v>
       </c>
       <c r="E360" s="43"/>
       <c r="F360" s="38" t="s">
         <v>1094</v>
       </c>
     </row>
-    <row r="361" spans="1:6">
+    <row r="361" spans="1:6" ht="30">
       <c r="A361" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B361" s="38" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="C361" s="43" t="s">
-        <v>593</v>
-      </c>
-      <c r="D361" s="38" t="s">
-        <v>594</v>
+        <v>590</v>
+      </c>
+      <c r="D361" s="39" t="s">
+        <v>591</v>
       </c>
       <c r="E361" s="43"/>
       <c r="F361" s="38" t="s">
@@ -14457,45 +14459,45 @@
         <v>56</v>
       </c>
       <c r="B362" s="38" t="s">
-        <v>595</v>
-      </c>
-      <c r="C362" s="40" t="s">
-        <v>596</v>
-      </c>
-      <c r="D362" s="40"/>
-      <c r="E362" s="40"/>
-      <c r="F362" s="40"/>
+        <v>592</v>
+      </c>
+      <c r="C362" s="43" t="s">
+        <v>593</v>
+      </c>
+      <c r="D362" s="38" t="s">
+        <v>594</v>
+      </c>
+      <c r="E362" s="43"/>
+      <c r="F362" s="38" t="s">
+        <v>1094</v>
+      </c>
     </row>
     <row r="363" spans="1:6">
       <c r="A363" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B363" s="38" t="s">
-        <v>597</v>
-      </c>
-      <c r="C363" s="43" t="s">
-        <v>598</v>
-      </c>
-      <c r="D363" s="38" t="s">
-        <v>573</v>
-      </c>
-      <c r="E363" s="38"/>
-      <c r="F363" s="38" t="s">
-        <v>1094</v>
-      </c>
+        <v>595</v>
+      </c>
+      <c r="C363" s="40" t="s">
+        <v>596</v>
+      </c>
+      <c r="D363" s="40"/>
+      <c r="E363" s="40"/>
+      <c r="F363" s="40"/>
     </row>
     <row r="364" spans="1:6">
       <c r="A364" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B364" s="38" t="s">
-        <v>599</v>
-      </c>
-      <c r="C364" s="39" t="s">
-        <v>600</v>
-      </c>
-      <c r="D364" s="39" t="s">
-        <v>1061</v>
+        <v>597</v>
+      </c>
+      <c r="C364" s="43" t="s">
+        <v>598</v>
+      </c>
+      <c r="D364" s="38" t="s">
+        <v>573</v>
       </c>
       <c r="E364" s="38"/>
       <c r="F364" s="38" t="s">
@@ -14507,45 +14509,45 @@
         <v>56</v>
       </c>
       <c r="B365" s="38" t="s">
-        <v>601</v>
-      </c>
-      <c r="C365" s="40" t="s">
-        <v>602</v>
-      </c>
-      <c r="D365" s="40"/>
-      <c r="E365" s="40"/>
-      <c r="F365" s="40"/>
+        <v>599</v>
+      </c>
+      <c r="C365" s="39" t="s">
+        <v>600</v>
+      </c>
+      <c r="D365" s="39" t="s">
+        <v>1061</v>
+      </c>
+      <c r="E365" s="38"/>
+      <c r="F365" s="38" t="s">
+        <v>1094</v>
+      </c>
     </row>
     <row r="366" spans="1:6">
       <c r="A366" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B366" s="38" t="s">
-        <v>603</v>
-      </c>
-      <c r="C366" s="43" t="s">
-        <v>566</v>
-      </c>
-      <c r="D366" s="38" t="s">
-        <v>567</v>
-      </c>
-      <c r="E366" s="43"/>
-      <c r="F366" s="38" t="s">
-        <v>1094</v>
-      </c>
+        <v>601</v>
+      </c>
+      <c r="C366" s="40" t="s">
+        <v>602</v>
+      </c>
+      <c r="D366" s="40"/>
+      <c r="E366" s="40"/>
+      <c r="F366" s="40"/>
     </row>
     <row r="367" spans="1:6">
       <c r="A367" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B367" s="38" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="C367" s="43" t="s">
-        <v>605</v>
+        <v>566</v>
       </c>
       <c r="D367" s="38" t="s">
-        <v>1066</v>
+        <v>567</v>
       </c>
       <c r="E367" s="43"/>
       <c r="F367" s="38" t="s">
@@ -14557,13 +14559,13 @@
         <v>56</v>
       </c>
       <c r="B368" s="38" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="C368" s="43" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="D368" s="38" t="s">
-        <v>573</v>
+        <v>1066</v>
       </c>
       <c r="E368" s="43"/>
       <c r="F368" s="38" t="s">
@@ -14575,13 +14577,13 @@
         <v>56</v>
       </c>
       <c r="B369" s="38" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="C369" s="43" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="D369" s="38" t="s">
-        <v>1064</v>
+        <v>573</v>
       </c>
       <c r="E369" s="43"/>
       <c r="F369" s="38" t="s">
@@ -14593,15 +14595,15 @@
         <v>56</v>
       </c>
       <c r="B370" s="38" t="s">
-        <v>610</v>
-      </c>
-      <c r="C370" s="39" t="s">
-        <v>611</v>
+        <v>608</v>
+      </c>
+      <c r="C370" s="43" t="s">
+        <v>609</v>
       </c>
       <c r="D370" s="38" t="s">
-        <v>1062</v>
-      </c>
-      <c r="E370" s="38"/>
+        <v>1064</v>
+      </c>
+      <c r="E370" s="43"/>
       <c r="F370" s="38" t="s">
         <v>1094</v>
       </c>
@@ -14610,60 +14612,60 @@
       <c r="A371" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="B371" s="38">
-        <v>11.2</v>
-      </c>
-      <c r="C371" s="37" t="s">
-        <v>44</v>
-      </c>
-      <c r="D371" s="40"/>
-      <c r="E371" s="40"/>
-      <c r="F371" s="40"/>
+      <c r="B371" s="38" t="s">
+        <v>610</v>
+      </c>
+      <c r="C371" s="39" t="s">
+        <v>611</v>
+      </c>
+      <c r="D371" s="38" t="s">
+        <v>1062</v>
+      </c>
+      <c r="E371" s="38"/>
+      <c r="F371" s="38" t="s">
+        <v>1094</v>
+      </c>
     </row>
     <row r="372" spans="1:6">
       <c r="A372" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="B372" s="38" t="s">
-        <v>612</v>
-      </c>
-      <c r="C372" s="40" t="s">
-        <v>42</v>
+      <c r="B372" s="38">
+        <v>11.2</v>
+      </c>
+      <c r="C372" s="37" t="s">
+        <v>44</v>
       </c>
       <c r="D372" s="40"/>
       <c r="E372" s="40"/>
       <c r="F372" s="40"/>
     </row>
-    <row r="373" spans="1:6" ht="60">
+    <row r="373" spans="1:6">
       <c r="A373" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B373" s="38" t="s">
+        <v>612</v>
+      </c>
+      <c r="C373" s="40" t="s">
+        <v>42</v>
+      </c>
+      <c r="D373" s="40"/>
+      <c r="E373" s="40"/>
+      <c r="F373" s="40"/>
+    </row>
+    <row r="374" spans="1:6" ht="60">
+      <c r="A374" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="B374" s="38" t="s">
         <v>613</v>
       </c>
-      <c r="C373" s="43" t="s">
+      <c r="C374" s="43" t="s">
         <v>545</v>
       </c>
-      <c r="D373" s="39" t="s">
+      <c r="D374" s="39" t="s">
         <v>1001</v>
-      </c>
-      <c r="E373" s="43"/>
-      <c r="F373" s="38" t="s">
-        <v>1098</v>
-      </c>
-    </row>
-    <row r="374" spans="1:6">
-      <c r="A374" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="B374" s="38" t="s">
-        <v>614</v>
-      </c>
-      <c r="C374" s="43" t="s">
-        <v>615</v>
-      </c>
-      <c r="D374" s="39" t="s">
-        <v>996</v>
       </c>
       <c r="E374" s="43"/>
       <c r="F374" s="38" t="s">
@@ -14675,13 +14677,13 @@
         <v>56</v>
       </c>
       <c r="B375" s="38" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="C375" s="43" t="s">
-        <v>549</v>
-      </c>
-      <c r="D375" s="38">
-        <v>78.099999999999994</v>
+        <v>615</v>
+      </c>
+      <c r="D375" s="39" t="s">
+        <v>996</v>
       </c>
       <c r="E375" s="43"/>
       <c r="F375" s="38" t="s">
@@ -14693,24 +14695,28 @@
         <v>56</v>
       </c>
       <c r="B376" s="38" t="s">
-        <v>617</v>
-      </c>
-      <c r="C376" s="40" t="s">
-        <v>43</v>
-      </c>
-      <c r="D376" s="40"/>
-      <c r="E376" s="40"/>
-      <c r="F376" s="40"/>
+        <v>616</v>
+      </c>
+      <c r="C376" s="43" t="s">
+        <v>549</v>
+      </c>
+      <c r="D376" s="38">
+        <v>78.099999999999994</v>
+      </c>
+      <c r="E376" s="43"/>
+      <c r="F376" s="38" t="s">
+        <v>1098</v>
+      </c>
     </row>
     <row r="377" spans="1:6">
       <c r="A377" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B377" s="38" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="C377" s="40" t="s">
-        <v>619</v>
+        <v>43</v>
       </c>
       <c r="D377" s="40"/>
       <c r="E377" s="40"/>
@@ -14721,49 +14727,45 @@
         <v>56</v>
       </c>
       <c r="B378" s="38" t="s">
-        <v>620</v>
-      </c>
-      <c r="C378" s="38" t="s">
-        <v>621</v>
-      </c>
-      <c r="D378" s="38" t="s">
-        <v>622</v>
-      </c>
-      <c r="E378" s="43"/>
-      <c r="F378" s="38" t="s">
-        <v>1098</v>
-      </c>
+        <v>618</v>
+      </c>
+      <c r="C378" s="40" t="s">
+        <v>619</v>
+      </c>
+      <c r="D378" s="40"/>
+      <c r="E378" s="40"/>
+      <c r="F378" s="40"/>
     </row>
     <row r="379" spans="1:6">
       <c r="A379" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B379" s="38" t="s">
-        <v>623</v>
-      </c>
-      <c r="C379" s="43" t="s">
-        <v>624</v>
+        <v>620</v>
+      </c>
+      <c r="C379" s="38" t="s">
+        <v>621</v>
       </c>
       <c r="D379" s="38" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="E379" s="43"/>
       <c r="F379" s="38" t="s">
         <v>1098</v>
       </c>
     </row>
-    <row r="380" spans="1:6" ht="30">
+    <row r="380" spans="1:6">
       <c r="A380" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B380" s="38" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="C380" s="43" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="D380" s="38" t="s">
-        <v>579</v>
+        <v>625</v>
       </c>
       <c r="E380" s="43"/>
       <c r="F380" s="38" t="s">
@@ -14775,101 +14777,101 @@
         <v>56</v>
       </c>
       <c r="B381" s="38" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="C381" s="43" t="s">
-        <v>629</v>
-      </c>
-      <c r="D381" s="39" t="s">
-        <v>591</v>
+        <v>627</v>
+      </c>
+      <c r="D381" s="38" t="s">
+        <v>579</v>
       </c>
       <c r="E381" s="43"/>
       <c r="F381" s="38" t="s">
         <v>1098</v>
       </c>
     </row>
-    <row r="382" spans="1:6">
+    <row r="382" spans="1:6" ht="30">
       <c r="A382" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B382" s="38" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="C382" s="43" t="s">
-        <v>631</v>
-      </c>
-      <c r="D382" s="38" t="s">
-        <v>594</v>
+        <v>629</v>
+      </c>
+      <c r="D382" s="39" t="s">
+        <v>591</v>
       </c>
       <c r="E382" s="43"/>
       <c r="F382" s="38" t="s">
         <v>1098</v>
       </c>
     </row>
-    <row r="383" spans="1:6" ht="30">
+    <row r="383" spans="1:6">
       <c r="A383" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B383" s="38" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="C383" s="43" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="D383" s="38" t="s">
-        <v>562</v>
+        <v>594</v>
       </c>
       <c r="E383" s="43"/>
       <c r="F383" s="38" t="s">
         <v>1098</v>
       </c>
     </row>
-    <row r="384" spans="1:6">
+    <row r="384" spans="1:6" ht="30">
       <c r="A384" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B384" s="38" t="s">
-        <v>634</v>
-      </c>
-      <c r="C384" s="40" t="s">
-        <v>596</v>
-      </c>
-      <c r="D384" s="40"/>
-      <c r="E384" s="40"/>
-      <c r="F384" s="40"/>
+        <v>632</v>
+      </c>
+      <c r="C384" s="43" t="s">
+        <v>633</v>
+      </c>
+      <c r="D384" s="38" t="s">
+        <v>562</v>
+      </c>
+      <c r="E384" s="43"/>
+      <c r="F384" s="38" t="s">
+        <v>1098</v>
+      </c>
     </row>
     <row r="385" spans="1:6">
       <c r="A385" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B385" s="38" t="s">
-        <v>635</v>
-      </c>
-      <c r="C385" s="43" t="s">
-        <v>598</v>
-      </c>
-      <c r="D385" s="38" t="s">
-        <v>573</v>
-      </c>
-      <c r="E385" s="43"/>
-      <c r="F385" s="38" t="s">
-        <v>1098</v>
-      </c>
+        <v>634</v>
+      </c>
+      <c r="C385" s="40" t="s">
+        <v>596</v>
+      </c>
+      <c r="D385" s="40"/>
+      <c r="E385" s="40"/>
+      <c r="F385" s="40"/>
     </row>
     <row r="386" spans="1:6">
       <c r="A386" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B386" s="38" t="s">
-        <v>636</v>
-      </c>
-      <c r="C386" s="39" t="s">
-        <v>600</v>
-      </c>
-      <c r="D386" s="39" t="s">
-        <v>1061</v>
-      </c>
-      <c r="E386" s="38"/>
+        <v>635</v>
+      </c>
+      <c r="C386" s="43" t="s">
+        <v>598</v>
+      </c>
+      <c r="D386" s="38" t="s">
+        <v>573</v>
+      </c>
+      <c r="E386" s="43"/>
       <c r="F386" s="38" t="s">
         <v>1098</v>
       </c>
@@ -14879,45 +14881,45 @@
         <v>56</v>
       </c>
       <c r="B387" s="38" t="s">
-        <v>637</v>
-      </c>
-      <c r="C387" s="40" t="s">
-        <v>602</v>
-      </c>
-      <c r="D387" s="40"/>
-      <c r="E387" s="40"/>
-      <c r="F387" s="40"/>
+        <v>636</v>
+      </c>
+      <c r="C387" s="39" t="s">
+        <v>600</v>
+      </c>
+      <c r="D387" s="39" t="s">
+        <v>1061</v>
+      </c>
+      <c r="E387" s="38"/>
+      <c r="F387" s="38" t="s">
+        <v>1098</v>
+      </c>
     </row>
     <row r="388" spans="1:6">
       <c r="A388" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B388" s="38" t="s">
-        <v>638</v>
-      </c>
-      <c r="C388" s="43" t="s">
-        <v>566</v>
-      </c>
-      <c r="D388" s="38" t="s">
-        <v>567</v>
-      </c>
-      <c r="E388" s="43"/>
-      <c r="F388" s="38" t="s">
-        <v>1098</v>
-      </c>
+        <v>637</v>
+      </c>
+      <c r="C388" s="40" t="s">
+        <v>602</v>
+      </c>
+      <c r="D388" s="40"/>
+      <c r="E388" s="40"/>
+      <c r="F388" s="40"/>
     </row>
     <row r="389" spans="1:6">
       <c r="A389" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B389" s="38" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="C389" s="43" t="s">
-        <v>640</v>
+        <v>566</v>
       </c>
       <c r="D389" s="38" t="s">
-        <v>1066</v>
+        <v>567</v>
       </c>
       <c r="E389" s="43"/>
       <c r="F389" s="38" t="s">
@@ -14929,13 +14931,13 @@
         <v>56</v>
       </c>
       <c r="B390" s="38" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="C390" s="43" t="s">
-        <v>607</v>
+        <v>640</v>
       </c>
       <c r="D390" s="38" t="s">
-        <v>573</v>
+        <v>1066</v>
       </c>
       <c r="E390" s="43"/>
       <c r="F390" s="38" t="s">
@@ -14947,15 +14949,15 @@
         <v>56</v>
       </c>
       <c r="B391" s="38" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="C391" s="43" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="D391" s="38" t="s">
-        <v>1064</v>
-      </c>
-      <c r="E391" s="38"/>
+        <v>573</v>
+      </c>
+      <c r="E391" s="43"/>
       <c r="F391" s="38" t="s">
         <v>1098</v>
       </c>
@@ -14965,13 +14967,13 @@
         <v>56</v>
       </c>
       <c r="B392" s="38" t="s">
-        <v>643</v>
-      </c>
-      <c r="C392" s="39" t="s">
-        <v>611</v>
+        <v>642</v>
+      </c>
+      <c r="C392" s="43" t="s">
+        <v>609</v>
       </c>
       <c r="D392" s="38" t="s">
-        <v>1062</v>
+        <v>1064</v>
       </c>
       <c r="E392" s="38"/>
       <c r="F392" s="38" t="s">
@@ -14982,62 +14984,62 @@
       <c r="A393" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="B393" s="38">
-        <v>11.3</v>
-      </c>
-      <c r="C393" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="D393" s="40"/>
-      <c r="E393" s="40"/>
-      <c r="F393" s="40"/>
+      <c r="B393" s="38" t="s">
+        <v>643</v>
+      </c>
+      <c r="C393" s="39" t="s">
+        <v>611</v>
+      </c>
+      <c r="D393" s="38" t="s">
+        <v>1062</v>
+      </c>
+      <c r="E393" s="38"/>
+      <c r="F393" s="38" t="s">
+        <v>1098</v>
+      </c>
     </row>
     <row r="394" spans="1:6">
       <c r="A394" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="B394" s="38" t="s">
-        <v>644</v>
-      </c>
-      <c r="C394" s="40" t="s">
-        <v>42</v>
+      <c r="B394" s="38">
+        <v>11.3</v>
+      </c>
+      <c r="C394" s="37" t="s">
+        <v>45</v>
       </c>
       <c r="D394" s="40"/>
       <c r="E394" s="40"/>
       <c r="F394" s="40"/>
     </row>
-    <row r="395" spans="1:6" ht="45">
+    <row r="395" spans="1:6">
       <c r="A395" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B395" s="38" t="s">
+        <v>644</v>
+      </c>
+      <c r="C395" s="40" t="s">
+        <v>42</v>
+      </c>
+      <c r="D395" s="40"/>
+      <c r="E395" s="40"/>
+      <c r="F395" s="40"/>
+    </row>
+    <row r="396" spans="1:6" ht="45">
+      <c r="A396" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="B396" s="38" t="s">
         <v>645</v>
       </c>
-      <c r="C395" s="43" t="s">
+      <c r="C396" s="43" t="s">
         <v>646</v>
       </c>
-      <c r="D395" s="38">
+      <c r="D396" s="38">
         <v>78.3</v>
       </c>
-      <c r="E395" s="43"/>
-      <c r="F395" s="38" t="s">
-        <v>1099</v>
-      </c>
-    </row>
-    <row r="396" spans="1:6">
-      <c r="A396" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="B396" s="38" t="s">
-        <v>647</v>
-      </c>
-      <c r="C396" s="38" t="s">
-        <v>648</v>
-      </c>
-      <c r="D396" s="38" t="s">
-        <v>996</v>
-      </c>
-      <c r="E396" s="38"/>
+      <c r="E396" s="43"/>
       <c r="F396" s="38" t="s">
         <v>1099</v>
       </c>
@@ -15047,15 +15049,15 @@
         <v>56</v>
       </c>
       <c r="B397" s="38" t="s">
-        <v>649</v>
-      </c>
-      <c r="C397" s="43" t="s">
-        <v>650</v>
-      </c>
-      <c r="D397" s="38">
-        <v>78.099999999999994</v>
-      </c>
-      <c r="E397" s="43"/>
+        <v>647</v>
+      </c>
+      <c r="C397" s="38" t="s">
+        <v>648</v>
+      </c>
+      <c r="D397" s="38" t="s">
+        <v>996</v>
+      </c>
+      <c r="E397" s="38"/>
       <c r="F397" s="38" t="s">
         <v>1099</v>
       </c>
@@ -15065,24 +15067,28 @@
         <v>56</v>
       </c>
       <c r="B398" s="38" t="s">
-        <v>651</v>
-      </c>
-      <c r="C398" s="40" t="s">
-        <v>43</v>
-      </c>
-      <c r="D398" s="40"/>
-      <c r="E398" s="40"/>
-      <c r="F398" s="40"/>
+        <v>649</v>
+      </c>
+      <c r="C398" s="43" t="s">
+        <v>650</v>
+      </c>
+      <c r="D398" s="38">
+        <v>78.099999999999994</v>
+      </c>
+      <c r="E398" s="43"/>
+      <c r="F398" s="38" t="s">
+        <v>1099</v>
+      </c>
     </row>
     <row r="399" spans="1:6">
       <c r="A399" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B399" s="38" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="C399" s="40" t="s">
-        <v>619</v>
+        <v>43</v>
       </c>
       <c r="D399" s="40"/>
       <c r="E399" s="40"/>
@@ -15093,31 +15099,27 @@
         <v>56</v>
       </c>
       <c r="B400" s="38" t="s">
-        <v>653</v>
-      </c>
-      <c r="C400" s="43" t="s">
-        <v>654</v>
-      </c>
-      <c r="D400" s="38" t="s">
-        <v>1036</v>
-      </c>
-      <c r="E400" s="43"/>
-      <c r="F400" s="38" t="s">
-        <v>1099</v>
-      </c>
+        <v>652</v>
+      </c>
+      <c r="C400" s="40" t="s">
+        <v>619</v>
+      </c>
+      <c r="D400" s="40"/>
+      <c r="E400" s="40"/>
+      <c r="F400" s="40"/>
     </row>
     <row r="401" spans="1:6">
       <c r="A401" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B401" s="38" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="C401" s="43" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="D401" s="38" t="s">
-        <v>657</v>
+        <v>1036</v>
       </c>
       <c r="E401" s="43"/>
       <c r="F401" s="38" t="s">
@@ -15129,119 +15131,119 @@
         <v>56</v>
       </c>
       <c r="B402" s="38" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="C402" s="43" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="D402" s="38" t="s">
-        <v>556</v>
+        <v>657</v>
       </c>
       <c r="E402" s="43"/>
       <c r="F402" s="38" t="s">
         <v>1099</v>
       </c>
     </row>
-    <row r="403" spans="1:6" ht="30">
+    <row r="403" spans="1:6">
       <c r="A403" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B403" s="38" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="C403" s="43" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="D403" s="38" t="s">
-        <v>579</v>
+        <v>556</v>
       </c>
       <c r="E403" s="43"/>
       <c r="F403" s="38" t="s">
         <v>1099</v>
       </c>
     </row>
-    <row r="404" spans="1:6">
+    <row r="404" spans="1:6" ht="30">
       <c r="A404" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B404" s="38" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="C404" s="43" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="D404" s="38" t="s">
-        <v>594</v>
+        <v>579</v>
       </c>
       <c r="E404" s="43"/>
       <c r="F404" s="38" t="s">
         <v>1099</v>
       </c>
     </row>
-    <row r="405" spans="1:6" ht="30">
+    <row r="405" spans="1:6">
       <c r="A405" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B405" s="38" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="C405" s="43" t="s">
-        <v>633</v>
+        <v>663</v>
       </c>
       <c r="D405" s="38" t="s">
-        <v>562</v>
+        <v>594</v>
       </c>
       <c r="E405" s="43"/>
       <c r="F405" s="38" t="s">
         <v>1099</v>
       </c>
     </row>
-    <row r="406" spans="1:6">
+    <row r="406" spans="1:6" ht="30">
       <c r="A406" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B406" s="38" t="s">
-        <v>665</v>
-      </c>
-      <c r="C406" s="40" t="s">
-        <v>596</v>
-      </c>
-      <c r="D406" s="40"/>
-      <c r="E406" s="40"/>
-      <c r="F406" s="40"/>
+        <v>664</v>
+      </c>
+      <c r="C406" s="43" t="s">
+        <v>633</v>
+      </c>
+      <c r="D406" s="38" t="s">
+        <v>562</v>
+      </c>
+      <c r="E406" s="43"/>
+      <c r="F406" s="38" t="s">
+        <v>1099</v>
+      </c>
     </row>
     <row r="407" spans="1:6">
       <c r="A407" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B407" s="38" t="s">
-        <v>666</v>
-      </c>
-      <c r="C407" s="43" t="s">
-        <v>598</v>
-      </c>
-      <c r="D407" s="38" t="s">
-        <v>573</v>
-      </c>
-      <c r="E407" s="43"/>
-      <c r="F407" s="38" t="s">
-        <v>1099</v>
-      </c>
+        <v>665</v>
+      </c>
+      <c r="C407" s="40" t="s">
+        <v>596</v>
+      </c>
+      <c r="D407" s="40"/>
+      <c r="E407" s="40"/>
+      <c r="F407" s="40"/>
     </row>
     <row r="408" spans="1:6">
       <c r="A408" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B408" s="38" t="s">
-        <v>667</v>
-      </c>
-      <c r="C408" s="39" t="s">
-        <v>600</v>
-      </c>
-      <c r="D408" s="39" t="s">
-        <v>1061</v>
-      </c>
-      <c r="E408" s="38"/>
+        <v>666</v>
+      </c>
+      <c r="C408" s="43" t="s">
+        <v>598</v>
+      </c>
+      <c r="D408" s="38" t="s">
+        <v>573</v>
+      </c>
+      <c r="E408" s="43"/>
       <c r="F408" s="38" t="s">
         <v>1099</v>
       </c>
@@ -15251,45 +15253,45 @@
         <v>56</v>
       </c>
       <c r="B409" s="38" t="s">
-        <v>668</v>
-      </c>
-      <c r="C409" s="40" t="s">
-        <v>602</v>
-      </c>
-      <c r="D409" s="40"/>
-      <c r="E409" s="40"/>
-      <c r="F409" s="40"/>
+        <v>667</v>
+      </c>
+      <c r="C409" s="39" t="s">
+        <v>600</v>
+      </c>
+      <c r="D409" s="39" t="s">
+        <v>1061</v>
+      </c>
+      <c r="E409" s="38"/>
+      <c r="F409" s="38" t="s">
+        <v>1099</v>
+      </c>
     </row>
     <row r="410" spans="1:6">
       <c r="A410" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B410" s="38" t="s">
-        <v>669</v>
-      </c>
-      <c r="C410" s="43" t="s">
-        <v>566</v>
-      </c>
-      <c r="D410" s="38" t="s">
-        <v>567</v>
-      </c>
-      <c r="E410" s="43"/>
-      <c r="F410" s="38" t="s">
-        <v>1099</v>
-      </c>
+        <v>668</v>
+      </c>
+      <c r="C410" s="40" t="s">
+        <v>602</v>
+      </c>
+      <c r="D410" s="40"/>
+      <c r="E410" s="40"/>
+      <c r="F410" s="40"/>
     </row>
     <row r="411" spans="1:6">
       <c r="A411" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B411" s="38" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="C411" s="43" t="s">
-        <v>640</v>
+        <v>566</v>
       </c>
       <c r="D411" s="38" t="s">
-        <v>1066</v>
+        <v>567</v>
       </c>
       <c r="E411" s="43"/>
       <c r="F411" s="38" t="s">
@@ -15301,13 +15303,13 @@
         <v>56</v>
       </c>
       <c r="B412" s="38" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C412" s="43" t="s">
-        <v>607</v>
+        <v>640</v>
       </c>
       <c r="D412" s="38" t="s">
-        <v>573</v>
+        <v>1066</v>
       </c>
       <c r="E412" s="43"/>
       <c r="F412" s="38" t="s">
@@ -15319,15 +15321,15 @@
         <v>56</v>
       </c>
       <c r="B413" s="38" t="s">
-        <v>672</v>
-      </c>
-      <c r="C413" s="38" t="s">
-        <v>609</v>
+        <v>671</v>
+      </c>
+      <c r="C413" s="43" t="s">
+        <v>607</v>
       </c>
       <c r="D413" s="38" t="s">
-        <v>1064</v>
-      </c>
-      <c r="E413" s="38"/>
+        <v>573</v>
+      </c>
+      <c r="E413" s="43"/>
       <c r="F413" s="38" t="s">
         <v>1099</v>
       </c>
@@ -15337,13 +15339,13 @@
         <v>56</v>
       </c>
       <c r="B414" s="38" t="s">
-        <v>673</v>
-      </c>
-      <c r="C414" s="39" t="s">
-        <v>611</v>
+        <v>672</v>
+      </c>
+      <c r="C414" s="38" t="s">
+        <v>609</v>
       </c>
       <c r="D414" s="38" t="s">
-        <v>1062</v>
+        <v>1064</v>
       </c>
       <c r="E414" s="38"/>
       <c r="F414" s="38" t="s">
@@ -15354,60 +15356,60 @@
       <c r="A415" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="B415" s="38">
-        <v>11.4</v>
-      </c>
-      <c r="C415" s="37" t="s">
-        <v>46</v>
-      </c>
-      <c r="D415" s="40"/>
-      <c r="E415" s="40"/>
-      <c r="F415" s="40"/>
+      <c r="B415" s="38" t="s">
+        <v>673</v>
+      </c>
+      <c r="C415" s="39" t="s">
+        <v>611</v>
+      </c>
+      <c r="D415" s="38" t="s">
+        <v>1062</v>
+      </c>
+      <c r="E415" s="38"/>
+      <c r="F415" s="38" t="s">
+        <v>1099</v>
+      </c>
     </row>
     <row r="416" spans="1:6">
       <c r="A416" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="B416" s="38" t="s">
-        <v>674</v>
-      </c>
-      <c r="C416" s="40" t="s">
-        <v>42</v>
+      <c r="B416" s="38">
+        <v>11.4</v>
+      </c>
+      <c r="C416" s="37" t="s">
+        <v>46</v>
       </c>
       <c r="D416" s="40"/>
       <c r="E416" s="40"/>
       <c r="F416" s="40"/>
     </row>
-    <row r="417" spans="1:6" ht="45">
+    <row r="417" spans="1:6">
       <c r="A417" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B417" s="38" t="s">
+        <v>674</v>
+      </c>
+      <c r="C417" s="40" t="s">
+        <v>42</v>
+      </c>
+      <c r="D417" s="40"/>
+      <c r="E417" s="40"/>
+      <c r="F417" s="40"/>
+    </row>
+    <row r="418" spans="1:6" ht="45">
+      <c r="A418" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="B418" s="38" t="s">
         <v>675</v>
       </c>
-      <c r="C417" s="43" t="s">
+      <c r="C418" s="43" t="s">
         <v>646</v>
       </c>
-      <c r="D417" s="38">
+      <c r="D418" s="38">
         <v>78.3</v>
-      </c>
-      <c r="E417" s="43"/>
-      <c r="F417" s="38" t="s">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="418" spans="1:6">
-      <c r="A418" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="B418" s="38" t="s">
-        <v>676</v>
-      </c>
-      <c r="C418" s="43" t="s">
-        <v>677</v>
-      </c>
-      <c r="D418" s="38">
-        <v>78.099999999999994</v>
       </c>
       <c r="E418" s="43"/>
       <c r="F418" s="38" t="s">
@@ -15419,10 +15421,10 @@
         <v>56</v>
       </c>
       <c r="B419" s="38" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="C419" s="43" t="s">
-        <v>650</v>
+        <v>677</v>
       </c>
       <c r="D419" s="38">
         <v>78.099999999999994</v>
@@ -15437,24 +15439,28 @@
         <v>56</v>
       </c>
       <c r="B420" s="38" t="s">
-        <v>679</v>
-      </c>
-      <c r="C420" s="40" t="s">
-        <v>43</v>
-      </c>
-      <c r="D420" s="40"/>
-      <c r="E420" s="40"/>
-      <c r="F420" s="40"/>
+        <v>678</v>
+      </c>
+      <c r="C420" s="43" t="s">
+        <v>650</v>
+      </c>
+      <c r="D420" s="38">
+        <v>78.099999999999994</v>
+      </c>
+      <c r="E420" s="43"/>
+      <c r="F420" s="38" t="s">
+        <v>1100</v>
+      </c>
     </row>
     <row r="421" spans="1:6">
       <c r="A421" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B421" s="38" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C421" s="40" t="s">
-        <v>619</v>
+        <v>43</v>
       </c>
       <c r="D421" s="40"/>
       <c r="E421" s="40"/>
@@ -15465,33 +15471,29 @@
         <v>56</v>
       </c>
       <c r="B422" s="38" t="s">
-        <v>681</v>
-      </c>
-      <c r="C422" s="38" t="s">
-        <v>621</v>
-      </c>
-      <c r="D422" s="38" t="s">
-        <v>622</v>
-      </c>
-      <c r="E422" s="38"/>
-      <c r="F422" s="38" t="s">
-        <v>1100</v>
-      </c>
+        <v>680</v>
+      </c>
+      <c r="C422" s="40" t="s">
+        <v>619</v>
+      </c>
+      <c r="D422" s="40"/>
+      <c r="E422" s="40"/>
+      <c r="F422" s="40"/>
     </row>
     <row r="423" spans="1:6">
       <c r="A423" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B423" s="38" t="s">
-        <v>682</v>
-      </c>
-      <c r="C423" s="43" t="s">
-        <v>683</v>
+        <v>681</v>
+      </c>
+      <c r="C423" s="38" t="s">
+        <v>621</v>
       </c>
       <c r="D423" s="38" t="s">
-        <v>553</v>
-      </c>
-      <c r="E423" s="43"/>
+        <v>622</v>
+      </c>
+      <c r="E423" s="38"/>
       <c r="F423" s="38" t="s">
         <v>1100</v>
       </c>
@@ -15501,13 +15503,13 @@
         <v>56</v>
       </c>
       <c r="B424" s="38" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="C424" s="43" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="D424" s="38" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="E424" s="43"/>
       <c r="F424" s="38" t="s">
@@ -15519,15 +15521,15 @@
         <v>56</v>
       </c>
       <c r="B425" s="38" t="s">
-        <v>686</v>
-      </c>
-      <c r="C425" s="38" t="s">
-        <v>687</v>
+        <v>684</v>
+      </c>
+      <c r="C425" s="43" t="s">
+        <v>685</v>
       </c>
       <c r="D425" s="38" t="s">
-        <v>562</v>
-      </c>
-      <c r="E425" s="38"/>
+        <v>556</v>
+      </c>
+      <c r="E425" s="43"/>
       <c r="F425" s="38" t="s">
         <v>1100</v>
       </c>
@@ -15537,45 +15539,45 @@
         <v>56</v>
       </c>
       <c r="B426" s="38" t="s">
-        <v>688</v>
-      </c>
-      <c r="C426" s="40" t="s">
-        <v>689</v>
-      </c>
-      <c r="D426" s="40"/>
-      <c r="E426" s="40"/>
-      <c r="F426" s="40"/>
+        <v>686</v>
+      </c>
+      <c r="C426" s="38" t="s">
+        <v>687</v>
+      </c>
+      <c r="D426" s="38" t="s">
+        <v>562</v>
+      </c>
+      <c r="E426" s="38"/>
+      <c r="F426" s="38" t="s">
+        <v>1100</v>
+      </c>
     </row>
     <row r="427" spans="1:6">
       <c r="A427" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B427" s="38" t="s">
-        <v>690</v>
-      </c>
-      <c r="C427" s="38" t="s">
-        <v>1243</v>
-      </c>
-      <c r="D427" s="38" t="s">
-        <v>692</v>
-      </c>
-      <c r="E427" s="38"/>
-      <c r="F427" s="38" t="s">
-        <v>1100</v>
-      </c>
+        <v>688</v>
+      </c>
+      <c r="C427" s="40" t="s">
+        <v>689</v>
+      </c>
+      <c r="D427" s="40"/>
+      <c r="E427" s="40"/>
+      <c r="F427" s="40"/>
     </row>
     <row r="428" spans="1:6">
       <c r="A428" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B428" s="38" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="C428" s="38" t="s">
-        <v>1241</v>
-      </c>
-      <c r="D428" s="39" t="s">
-        <v>695</v>
+        <v>1243</v>
+      </c>
+      <c r="D428" s="38" t="s">
+        <v>692</v>
       </c>
       <c r="E428" s="38"/>
       <c r="F428" s="38" t="s">
@@ -15587,10 +15589,10 @@
         <v>56</v>
       </c>
       <c r="B429" s="38" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="C429" s="38" t="s">
-        <v>697</v>
+        <v>1241</v>
       </c>
       <c r="D429" s="39" t="s">
         <v>695</v>
@@ -15605,45 +15607,45 @@
         <v>56</v>
       </c>
       <c r="B430" s="38" t="s">
-        <v>698</v>
-      </c>
-      <c r="C430" s="40" t="s">
-        <v>602</v>
-      </c>
-      <c r="D430" s="40"/>
-      <c r="E430" s="40"/>
-      <c r="F430" s="40"/>
+        <v>696</v>
+      </c>
+      <c r="C430" s="38" t="s">
+        <v>697</v>
+      </c>
+      <c r="D430" s="39" t="s">
+        <v>695</v>
+      </c>
+      <c r="E430" s="38"/>
+      <c r="F430" s="38" t="s">
+        <v>1100</v>
+      </c>
     </row>
     <row r="431" spans="1:6">
       <c r="A431" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B431" s="38" t="s">
-        <v>699</v>
-      </c>
-      <c r="C431" s="43" t="s">
-        <v>566</v>
-      </c>
-      <c r="D431" s="39" t="s">
-        <v>567</v>
-      </c>
-      <c r="E431" s="43"/>
-      <c r="F431" s="38" t="s">
-        <v>1100</v>
-      </c>
+        <v>698</v>
+      </c>
+      <c r="C431" s="40" t="s">
+        <v>602</v>
+      </c>
+      <c r="D431" s="40"/>
+      <c r="E431" s="40"/>
+      <c r="F431" s="40"/>
     </row>
     <row r="432" spans="1:6">
       <c r="A432" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B432" s="38" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="C432" s="43" t="s">
-        <v>701</v>
+        <v>566</v>
       </c>
       <c r="D432" s="39" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="E432" s="43"/>
       <c r="F432" s="38" t="s">
@@ -15655,13 +15657,13 @@
         <v>56</v>
       </c>
       <c r="B433" s="38" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="C433" s="43" t="s">
-        <v>607</v>
+        <v>701</v>
       </c>
       <c r="D433" s="39" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="E433" s="43"/>
       <c r="F433" s="38" t="s">
@@ -15673,15 +15675,15 @@
         <v>56</v>
       </c>
       <c r="B434" s="38" t="s">
-        <v>703</v>
-      </c>
-      <c r="C434" s="38" t="s">
-        <v>609</v>
+        <v>702</v>
+      </c>
+      <c r="C434" s="43" t="s">
+        <v>607</v>
       </c>
       <c r="D434" s="39" t="s">
         <v>573</v>
       </c>
-      <c r="E434" s="38"/>
+      <c r="E434" s="43"/>
       <c r="F434" s="38" t="s">
         <v>1100</v>
       </c>
@@ -15691,99 +15693,99 @@
         <v>56</v>
       </c>
       <c r="B435" s="38" t="s">
-        <v>704</v>
-      </c>
-      <c r="C435" s="43" t="s">
-        <v>575</v>
+        <v>703</v>
+      </c>
+      <c r="C435" s="38" t="s">
+        <v>609</v>
       </c>
       <c r="D435" s="39" t="s">
-        <v>576</v>
-      </c>
-      <c r="E435" s="43"/>
+        <v>573</v>
+      </c>
+      <c r="E435" s="38"/>
       <c r="F435" s="38" t="s">
         <v>1100</v>
       </c>
     </row>
-    <row r="436" spans="1:6" ht="30">
+    <row r="436" spans="1:6">
       <c r="A436" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B436" s="38" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="C436" s="43" t="s">
-        <v>661</v>
+        <v>575</v>
       </c>
       <c r="D436" s="39" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="E436" s="43"/>
       <c r="F436" s="38" t="s">
         <v>1100</v>
       </c>
     </row>
-    <row r="437" spans="1:6">
+    <row r="437" spans="1:6" ht="30">
       <c r="A437" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B437" s="38" t="s">
+        <v>705</v>
+      </c>
+      <c r="C437" s="43" t="s">
+        <v>661</v>
+      </c>
+      <c r="D437" s="39" t="s">
+        <v>579</v>
+      </c>
+      <c r="E437" s="43"/>
+      <c r="F437" s="38" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="438" spans="1:6">
+      <c r="A438" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="B438" s="38" t="s">
         <v>706</v>
       </c>
-      <c r="C437" s="40" t="s">
+      <c r="C438" s="40" t="s">
         <v>581</v>
       </c>
-      <c r="D437" s="40"/>
-      <c r="E437" s="40"/>
-      <c r="F437" s="40"/>
-    </row>
-    <row r="438" spans="1:6" ht="45">
-      <c r="A438" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="B438" s="38" t="s">
+      <c r="D438" s="40"/>
+      <c r="E438" s="40"/>
+      <c r="F438" s="40"/>
+    </row>
+    <row r="439" spans="1:6" ht="45">
+      <c r="A439" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="B439" s="38" t="s">
         <v>707</v>
       </c>
-      <c r="C438" s="43" t="s">
+      <c r="C439" s="43" t="s">
         <v>584</v>
       </c>
-      <c r="D438" s="39" t="s">
+      <c r="D439" s="39" t="s">
         <v>582</v>
-      </c>
-      <c r="E438" s="43"/>
-      <c r="F438" s="38" t="s">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="439" spans="1:6" ht="30">
-      <c r="A439" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="B439" s="38" t="s">
-        <v>708</v>
-      </c>
-      <c r="C439" s="43" t="s">
-        <v>586</v>
-      </c>
-      <c r="D439" s="39" t="s">
-        <v>1268</v>
       </c>
       <c r="E439" s="43"/>
       <c r="F439" s="38" t="s">
         <v>1100</v>
       </c>
     </row>
-    <row r="440" spans="1:6">
+    <row r="440" spans="1:6" ht="30">
       <c r="A440" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B440" s="38" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="C440" s="43" t="s">
-        <v>710</v>
+        <v>586</v>
       </c>
       <c r="D440" s="39" t="s">
-        <v>1270</v>
+        <v>1268</v>
       </c>
       <c r="E440" s="43"/>
       <c r="F440" s="38" t="s">
@@ -15795,13 +15797,13 @@
         <v>56</v>
       </c>
       <c r="B441" s="38" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="C441" s="43" t="s">
-        <v>663</v>
-      </c>
-      <c r="D441" s="38" t="s">
-        <v>594</v>
+        <v>710</v>
+      </c>
+      <c r="D441" s="39" t="s">
+        <v>1270</v>
       </c>
       <c r="E441" s="43"/>
       <c r="F441" s="38" t="s">
@@ -15813,47 +15815,47 @@
         <v>56</v>
       </c>
       <c r="B442" s="38" t="s">
-        <v>712</v>
-      </c>
-      <c r="C442" s="40" t="s">
-        <v>596</v>
-      </c>
-      <c r="D442" s="40"/>
-      <c r="E442" s="40"/>
-      <c r="F442" s="40"/>
+        <v>711</v>
+      </c>
+      <c r="C442" s="43" t="s">
+        <v>663</v>
+      </c>
+      <c r="D442" s="38" t="s">
+        <v>594</v>
+      </c>
+      <c r="E442" s="43"/>
+      <c r="F442" s="38" t="s">
+        <v>1100</v>
+      </c>
     </row>
     <row r="443" spans="1:6">
       <c r="A443" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B443" s="38" t="s">
-        <v>713</v>
-      </c>
-      <c r="C443" s="43" t="s">
-        <v>598</v>
-      </c>
-      <c r="D443" s="38" t="s">
-        <v>573</v>
-      </c>
-      <c r="E443" s="43"/>
-      <c r="F443" s="38" t="s">
-        <v>1100</v>
-      </c>
+        <v>712</v>
+      </c>
+      <c r="C443" s="40" t="s">
+        <v>596</v>
+      </c>
+      <c r="D443" s="40"/>
+      <c r="E443" s="40"/>
+      <c r="F443" s="40"/>
     </row>
     <row r="444" spans="1:6">
       <c r="A444" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B444" s="38" t="s">
-        <v>714</v>
-      </c>
-      <c r="C444" s="39" t="s">
-        <v>600</v>
-      </c>
-      <c r="D444" s="39" t="s">
-        <v>1061</v>
-      </c>
-      <c r="E444" s="38"/>
+        <v>713</v>
+      </c>
+      <c r="C444" s="43" t="s">
+        <v>598</v>
+      </c>
+      <c r="D444" s="38" t="s">
+        <v>573</v>
+      </c>
+      <c r="E444" s="43"/>
       <c r="F444" s="38" t="s">
         <v>1100</v>
       </c>
@@ -15863,70 +15865,74 @@
         <v>56</v>
       </c>
       <c r="B445" s="38" t="s">
-        <v>715</v>
-      </c>
-      <c r="C445" s="40" t="s">
-        <v>1071</v>
-      </c>
-      <c r="D445" s="40"/>
-      <c r="E445" s="40"/>
-      <c r="F445" s="40"/>
+        <v>714</v>
+      </c>
+      <c r="C445" s="39" t="s">
+        <v>600</v>
+      </c>
+      <c r="D445" s="39" t="s">
+        <v>1061</v>
+      </c>
+      <c r="E445" s="38"/>
+      <c r="F445" s="38" t="s">
+        <v>1100</v>
+      </c>
     </row>
     <row r="446" spans="1:6">
       <c r="A446" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B446" s="38" t="s">
-        <v>720</v>
-      </c>
-      <c r="C446" s="39" t="s">
-        <v>611</v>
-      </c>
-      <c r="D446" s="38" t="s">
-        <v>1062</v>
-      </c>
-      <c r="E446" s="38"/>
-      <c r="F446" s="38" t="s">
-        <v>1100</v>
-      </c>
+        <v>715</v>
+      </c>
+      <c r="C446" s="40" t="s">
+        <v>1071</v>
+      </c>
+      <c r="D446" s="40"/>
+      <c r="E446" s="40"/>
+      <c r="F446" s="40"/>
     </row>
     <row r="447" spans="1:6">
       <c r="A447" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="B447" s="38">
-        <v>11.5</v>
-      </c>
-      <c r="C447" s="37" t="s">
-        <v>47</v>
-      </c>
-      <c r="D447" s="40"/>
-      <c r="E447" s="37"/>
-      <c r="F447" s="40"/>
+      <c r="B447" s="38" t="s">
+        <v>720</v>
+      </c>
+      <c r="C447" s="39" t="s">
+        <v>611</v>
+      </c>
+      <c r="D447" s="38" t="s">
+        <v>1062</v>
+      </c>
+      <c r="E447" s="38"/>
+      <c r="F447" s="38" t="s">
+        <v>1100</v>
+      </c>
     </row>
     <row r="448" spans="1:6">
       <c r="A448" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="B448" s="38" t="s">
-        <v>721</v>
-      </c>
-      <c r="C448" s="43" t="s">
-        <v>48</v>
-      </c>
-      <c r="D448" s="38"/>
-      <c r="E448" s="43"/>
-      <c r="F448" s="38"/>
+      <c r="B448" s="38">
+        <v>11.5</v>
+      </c>
+      <c r="C448" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="D448" s="40"/>
+      <c r="E448" s="37"/>
+      <c r="F448" s="40"/>
     </row>
     <row r="449" spans="1:6">
       <c r="A449" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B449" s="38" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="C449" s="43" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="D449" s="38"/>
       <c r="E449" s="43"/>
@@ -15937,10 +15943,10 @@
         <v>56</v>
       </c>
       <c r="B450" s="38" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="C450" s="43" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D450" s="38"/>
       <c r="E450" s="43"/>
@@ -15950,39 +15956,39 @@
       <c r="A451" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="B451" s="38">
-        <v>11.6</v>
-      </c>
-      <c r="C451" s="37" t="s">
-        <v>49</v>
-      </c>
-      <c r="D451" s="40"/>
-      <c r="E451" s="37"/>
-      <c r="F451" s="40"/>
+      <c r="B451" s="38" t="s">
+        <v>723</v>
+      </c>
+      <c r="C451" s="43" t="s">
+        <v>43</v>
+      </c>
+      <c r="D451" s="38"/>
+      <c r="E451" s="43"/>
+      <c r="F451" s="38"/>
     </row>
     <row r="452" spans="1:6">
       <c r="A452" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="B452" s="38" t="s">
-        <v>724</v>
-      </c>
-      <c r="C452" s="43" t="s">
-        <v>50</v>
-      </c>
-      <c r="D452" s="38"/>
-      <c r="E452" s="43"/>
-      <c r="F452" s="38"/>
+      <c r="B452" s="38">
+        <v>11.6</v>
+      </c>
+      <c r="C452" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="D452" s="40"/>
+      <c r="E452" s="37"/>
+      <c r="F452" s="40"/>
     </row>
     <row r="453" spans="1:6">
       <c r="A453" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B453" s="38" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="C453" s="43" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="D453" s="38"/>
       <c r="E453" s="43"/>
@@ -15992,60 +15998,56 @@
       <c r="A454" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="B454" s="38">
-        <v>11.7</v>
-      </c>
-      <c r="C454" s="37" t="s">
-        <v>51</v>
-      </c>
-      <c r="D454" s="40"/>
-      <c r="E454" s="37"/>
-      <c r="F454" s="40"/>
+      <c r="B454" s="38" t="s">
+        <v>725</v>
+      </c>
+      <c r="C454" s="43" t="s">
+        <v>42</v>
+      </c>
+      <c r="D454" s="38"/>
+      <c r="E454" s="43"/>
+      <c r="F454" s="38"/>
     </row>
     <row r="455" spans="1:6">
       <c r="A455" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="B455" s="38" t="s">
+      <c r="B455" s="38">
+        <v>11.7</v>
+      </c>
+      <c r="C455" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="D455" s="40"/>
+      <c r="E455" s="37"/>
+      <c r="F455" s="40"/>
+    </row>
+    <row r="456" spans="1:6">
+      <c r="A456" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="B456" s="38" t="s">
         <v>726</v>
       </c>
-      <c r="C455" s="40" t="s">
+      <c r="C456" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="D455" s="40"/>
-      <c r="E455" s="40"/>
-      <c r="F455" s="40"/>
-    </row>
-    <row r="456" spans="1:6" ht="45">
-      <c r="A456" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="B456" s="38" t="s">
+      <c r="D456" s="40"/>
+      <c r="E456" s="40"/>
+      <c r="F456" s="40"/>
+    </row>
+    <row r="457" spans="1:6" ht="45">
+      <c r="A457" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="B457" s="38" t="s">
         <v>727</v>
       </c>
-      <c r="C456" s="43" t="s">
+      <c r="C457" s="43" t="s">
         <v>646</v>
       </c>
-      <c r="D456" s="38">
+      <c r="D457" s="38">
         <v>78.3</v>
-      </c>
-      <c r="E456" s="43"/>
-      <c r="F456" s="58" t="s">
-        <v>1093</v>
-      </c>
-    </row>
-    <row r="457" spans="1:6">
-      <c r="A457" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="B457" s="38" t="s">
-        <v>728</v>
-      </c>
-      <c r="C457" s="43" t="s">
-        <v>677</v>
-      </c>
-      <c r="D457" s="38">
-        <v>78.099999999999994</v>
       </c>
       <c r="E457" s="43"/>
       <c r="F457" s="58" t="s">
@@ -16057,10 +16059,10 @@
         <v>56</v>
       </c>
       <c r="B458" s="38" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="C458" s="43" t="s">
-        <v>650</v>
+        <v>677</v>
       </c>
       <c r="D458" s="38">
         <v>78.099999999999994</v>
@@ -16075,24 +16077,28 @@
         <v>56</v>
       </c>
       <c r="B459" s="38" t="s">
-        <v>730</v>
-      </c>
-      <c r="C459" s="40" t="s">
-        <v>43</v>
-      </c>
-      <c r="D459" s="40"/>
-      <c r="E459" s="40"/>
-      <c r="F459" s="40"/>
+        <v>729</v>
+      </c>
+      <c r="C459" s="43" t="s">
+        <v>650</v>
+      </c>
+      <c r="D459" s="38">
+        <v>78.099999999999994</v>
+      </c>
+      <c r="E459" s="43"/>
+      <c r="F459" s="58" t="s">
+        <v>1093</v>
+      </c>
     </row>
     <row r="460" spans="1:6">
       <c r="A460" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B460" s="38" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="C460" s="40" t="s">
-        <v>619</v>
+        <v>43</v>
       </c>
       <c r="D460" s="40"/>
       <c r="E460" s="40"/>
@@ -16103,31 +16109,27 @@
         <v>56</v>
       </c>
       <c r="B461" s="38" t="s">
-        <v>732</v>
-      </c>
-      <c r="C461" s="43" t="s">
-        <v>733</v>
-      </c>
-      <c r="D461" s="38" t="s">
-        <v>553</v>
-      </c>
-      <c r="E461" s="43"/>
-      <c r="F461" s="58" t="s">
-        <v>1093</v>
-      </c>
+        <v>731</v>
+      </c>
+      <c r="C461" s="40" t="s">
+        <v>619</v>
+      </c>
+      <c r="D461" s="40"/>
+      <c r="E461" s="40"/>
+      <c r="F461" s="40"/>
     </row>
     <row r="462" spans="1:6">
       <c r="A462" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B462" s="38" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="C462" s="43" t="s">
-        <v>685</v>
+        <v>733</v>
       </c>
       <c r="D462" s="38" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="E462" s="43"/>
       <c r="F462" s="58" t="s">
@@ -16139,15 +16141,15 @@
         <v>56</v>
       </c>
       <c r="B463" s="38" t="s">
-        <v>735</v>
-      </c>
-      <c r="C463" s="39" t="s">
-        <v>736</v>
+        <v>734</v>
+      </c>
+      <c r="C463" s="43" t="s">
+        <v>685</v>
       </c>
       <c r="D463" s="38" t="s">
-        <v>1063</v>
-      </c>
-      <c r="E463" s="38"/>
+        <v>556</v>
+      </c>
+      <c r="E463" s="43"/>
       <c r="F463" s="58" t="s">
         <v>1093</v>
       </c>
@@ -16157,13 +16159,13 @@
         <v>56</v>
       </c>
       <c r="B464" s="38" t="s">
-        <v>737</v>
-      </c>
-      <c r="C464" s="38" t="s">
-        <v>738</v>
+        <v>735</v>
+      </c>
+      <c r="C464" s="39" t="s">
+        <v>736</v>
       </c>
       <c r="D464" s="38" t="s">
-        <v>594</v>
+        <v>1063</v>
       </c>
       <c r="E464" s="38"/>
       <c r="F464" s="58" t="s">
@@ -16175,47 +16177,47 @@
         <v>56</v>
       </c>
       <c r="B465" s="38" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="C465" s="38" t="s">
-        <v>1079</v>
-      </c>
-      <c r="D465" s="38"/>
+        <v>738</v>
+      </c>
+      <c r="D465" s="38" t="s">
+        <v>594</v>
+      </c>
       <c r="E465" s="38"/>
       <c r="F465" s="58" t="s">
         <v>1093</v>
       </c>
     </row>
-    <row r="466" spans="1:6" ht="30">
+    <row r="466" spans="1:6">
       <c r="A466" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B466" s="38" t="s">
-        <v>1080</v>
+        <v>739</v>
       </c>
       <c r="C466" s="38" t="s">
-        <v>740</v>
-      </c>
-      <c r="D466" s="38" t="s">
-        <v>562</v>
-      </c>
+        <v>1079</v>
+      </c>
+      <c r="D466" s="38"/>
       <c r="E466" s="38"/>
       <c r="F466" s="58" t="s">
         <v>1093</v>
       </c>
     </row>
-    <row r="467" spans="1:6">
+    <row r="467" spans="1:6" ht="30">
       <c r="A467" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B467" s="38" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="C467" s="38" t="s">
-        <v>1078</v>
+        <v>740</v>
       </c>
       <c r="D467" s="38" t="s">
-        <v>695</v>
+        <v>562</v>
       </c>
       <c r="E467" s="38"/>
       <c r="F467" s="58" t="s">
@@ -16227,47 +16229,47 @@
         <v>56</v>
       </c>
       <c r="B468" s="38" t="s">
-        <v>742</v>
-      </c>
-      <c r="C468" s="40" t="s">
-        <v>596</v>
-      </c>
-      <c r="D468" s="40"/>
-      <c r="E468" s="40"/>
-      <c r="F468" s="40"/>
+        <v>1081</v>
+      </c>
+      <c r="C468" s="38" t="s">
+        <v>1078</v>
+      </c>
+      <c r="D468" s="38" t="s">
+        <v>695</v>
+      </c>
+      <c r="E468" s="38"/>
+      <c r="F468" s="58" t="s">
+        <v>1093</v>
+      </c>
     </row>
     <row r="469" spans="1:6">
       <c r="A469" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B469" s="38" t="s">
-        <v>743</v>
-      </c>
-      <c r="C469" s="43" t="s">
-        <v>598</v>
-      </c>
-      <c r="D469" s="38" t="s">
-        <v>573</v>
-      </c>
-      <c r="E469" s="43"/>
-      <c r="F469" s="58" t="s">
-        <v>1093</v>
-      </c>
+        <v>742</v>
+      </c>
+      <c r="C469" s="40" t="s">
+        <v>596</v>
+      </c>
+      <c r="D469" s="40"/>
+      <c r="E469" s="40"/>
+      <c r="F469" s="40"/>
     </row>
     <row r="470" spans="1:6">
       <c r="A470" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B470" s="38" t="s">
-        <v>744</v>
-      </c>
-      <c r="C470" s="39" t="s">
-        <v>600</v>
-      </c>
-      <c r="D470" s="39" t="s">
-        <v>1061</v>
-      </c>
-      <c r="E470" s="38"/>
+        <v>743</v>
+      </c>
+      <c r="C470" s="43" t="s">
+        <v>598</v>
+      </c>
+      <c r="D470" s="38" t="s">
+        <v>573</v>
+      </c>
+      <c r="E470" s="43"/>
       <c r="F470" s="58" t="s">
         <v>1093</v>
       </c>
@@ -16277,45 +16279,45 @@
         <v>56</v>
       </c>
       <c r="B471" s="38" t="s">
-        <v>745</v>
-      </c>
-      <c r="C471" s="40" t="s">
-        <v>602</v>
-      </c>
-      <c r="D471" s="40"/>
-      <c r="E471" s="40"/>
-      <c r="F471" s="40"/>
+        <v>744</v>
+      </c>
+      <c r="C471" s="39" t="s">
+        <v>600</v>
+      </c>
+      <c r="D471" s="39" t="s">
+        <v>1061</v>
+      </c>
+      <c r="E471" s="38"/>
+      <c r="F471" s="58" t="s">
+        <v>1093</v>
+      </c>
     </row>
     <row r="472" spans="1:6">
       <c r="A472" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B472" s="38" t="s">
-        <v>746</v>
-      </c>
-      <c r="C472" s="43" t="s">
-        <v>566</v>
-      </c>
-      <c r="D472" s="38" t="s">
-        <v>567</v>
-      </c>
-      <c r="E472" s="43"/>
-      <c r="F472" s="58" t="s">
-        <v>1093</v>
-      </c>
+        <v>745</v>
+      </c>
+      <c r="C472" s="40" t="s">
+        <v>602</v>
+      </c>
+      <c r="D472" s="40"/>
+      <c r="E472" s="40"/>
+      <c r="F472" s="40"/>
     </row>
     <row r="473" spans="1:6">
       <c r="A473" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B473" s="38" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="C473" s="43" t="s">
-        <v>640</v>
+        <v>566</v>
       </c>
       <c r="D473" s="38" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="E473" s="43"/>
       <c r="F473" s="58" t="s">
@@ -16327,13 +16329,13 @@
         <v>56</v>
       </c>
       <c r="B474" s="38" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="C474" s="43" t="s">
-        <v>607</v>
+        <v>640</v>
       </c>
       <c r="D474" s="38" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="E474" s="43"/>
       <c r="F474" s="58" t="s">
@@ -16345,15 +16347,15 @@
         <v>56</v>
       </c>
       <c r="B475" s="38" t="s">
-        <v>749</v>
-      </c>
-      <c r="C475" s="38" t="s">
-        <v>609</v>
+        <v>748</v>
+      </c>
+      <c r="C475" s="43" t="s">
+        <v>607</v>
       </c>
       <c r="D475" s="38" t="s">
-        <v>1064</v>
-      </c>
-      <c r="E475" s="38"/>
+        <v>573</v>
+      </c>
+      <c r="E475" s="43"/>
       <c r="F475" s="58" t="s">
         <v>1093</v>
       </c>
@@ -16363,16 +16365,34 @@
         <v>56</v>
       </c>
       <c r="B476" s="38" t="s">
-        <v>1267</v>
-      </c>
-      <c r="C476" s="39" t="s">
-        <v>611</v>
+        <v>749</v>
+      </c>
+      <c r="C476" s="38" t="s">
+        <v>609</v>
       </c>
       <c r="D476" s="38" t="s">
-        <v>1062</v>
+        <v>1064</v>
       </c>
       <c r="E476" s="38"/>
       <c r="F476" s="58" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="477" spans="1:6">
+      <c r="A477" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="B477" s="38" t="s">
+        <v>1267</v>
+      </c>
+      <c r="C477" s="39" t="s">
+        <v>611</v>
+      </c>
+      <c r="D477" s="38" t="s">
+        <v>1062</v>
+      </c>
+      <c r="E477" s="38"/>
+      <c r="F477" s="58" t="s">
         <v>1093</v>
       </c>
     </row>

--- a/conformancelib/testdata/PIV_Production_Cards.xlsx
+++ b/conformancelib/testdata/PIV_Production_Cards.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bob.fontana\Documents\GitRepos\piv-conformance\conformancelib\testdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\cygwin64\home\bf7450\git\piv-conformance\conformancelib\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1D85073-135A-418E-BD99-0595048EFF2E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83734D36-C9DB-4039-B4BC-ACDF5B706DF8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="30960" windowHeight="17070" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Steps Overview" sheetId="2" r:id="rId1"/>
@@ -4737,23 +4737,23 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:F489"/>
   <sheetViews>
-    <sheetView topLeftCell="A184" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B198" sqref="B198"/>
+    <sheetView tabSelected="1" topLeftCell="A355" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C369" sqref="C369"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.875" style="39" customWidth="1"/>
-    <col min="2" max="2" width="41.25" style="67" customWidth="1"/>
-    <col min="3" max="3" width="92.75" style="40" customWidth="1"/>
-    <col min="4" max="4" width="22.75" style="40" customWidth="1"/>
-    <col min="5" max="5" width="27.125" style="40" customWidth="1"/>
+    <col min="1" max="1" width="17.8984375" style="39" customWidth="1"/>
+    <col min="2" max="2" width="41.19921875" style="67" customWidth="1"/>
+    <col min="3" max="3" width="92.69921875" style="40" customWidth="1"/>
+    <col min="4" max="4" width="22.69921875" style="40" customWidth="1"/>
+    <col min="5" max="5" width="27.09765625" style="40" customWidth="1"/>
     <col min="6" max="6" width="65.5" style="37" customWidth="1"/>
     <col min="7" max="1025" width="8.5" style="37" customWidth="1"/>
     <col min="1026" max="16384" width="9" style="37"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="36" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="36" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="42" t="s">
         <v>51</v>
       </c>
@@ -4773,7 +4773,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="44" t="s">
         <v>55</v>
       </c>
@@ -4787,7 +4787,7 @@
       <c r="E2" s="41"/>
       <c r="F2" s="41"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="47" t="s">
         <v>55</v>
       </c>
@@ -4801,7 +4801,7 @@
       <c r="E3" s="41"/>
       <c r="F3" s="41"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="47" t="s">
         <v>55</v>
       </c>
@@ -4815,7 +4815,7 @@
       <c r="E4" s="41"/>
       <c r="F4" s="41"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="47" t="s">
         <v>55</v>
       </c>
@@ -4833,7 +4833,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="47" t="s">
         <v>55</v>
       </c>
@@ -4851,7 +4851,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="47" t="s">
         <v>55</v>
       </c>
@@ -4869,7 +4869,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="47" t="s">
         <v>55</v>
       </c>
@@ -4887,7 +4887,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="47" t="s">
         <v>55</v>
       </c>
@@ -4905,7 +4905,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="47" t="s">
         <v>55</v>
       </c>
@@ -4923,7 +4923,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A11" s="47" t="s">
         <v>55</v>
       </c>
@@ -4941,7 +4941,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A12" s="47" t="s">
         <v>55</v>
       </c>
@@ -4959,7 +4959,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="47" t="s">
         <v>55</v>
       </c>
@@ -4977,7 +4977,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="47" t="s">
         <v>55</v>
       </c>
@@ -4995,7 +4995,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="15" spans="1:6" s="38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="47" t="s">
         <v>55</v>
       </c>
@@ -5013,7 +5013,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="47" t="s">
         <v>55</v>
       </c>
@@ -5027,7 +5027,7 @@
       <c r="E16" s="41"/>
       <c r="F16" s="41"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="47" t="s">
         <v>55</v>
       </c>
@@ -5041,7 +5041,7 @@
       <c r="E17" s="41"/>
       <c r="F17" s="41"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="47" t="s">
         <v>55</v>
       </c>
@@ -5059,7 +5059,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="47" t="s">
         <v>55</v>
       </c>
@@ -5077,7 +5077,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="47" t="s">
         <v>55</v>
       </c>
@@ -5095,7 +5095,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="47" t="s">
         <v>55</v>
       </c>
@@ -5113,7 +5113,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="22" spans="1:6" s="38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="47" t="s">
         <v>55</v>
       </c>
@@ -5131,7 +5131,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="47" t="s">
         <v>55</v>
       </c>
@@ -5149,7 +5149,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="24" spans="1:6" s="38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="48" t="s">
         <v>55</v>
       </c>
@@ -5167,7 +5167,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="25" spans="1:6" s="38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="47" t="s">
         <v>55</v>
       </c>
@@ -5185,7 +5185,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="26" spans="1:6" s="38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="47" t="s">
         <v>55</v>
       </c>
@@ -5203,7 +5203,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="27" spans="1:6" s="38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="48" t="s">
         <v>55</v>
       </c>
@@ -5221,7 +5221,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="28" spans="1:6" s="38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="48" t="s">
         <v>55</v>
       </c>
@@ -5239,7 +5239,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="29" spans="1:6" s="38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="48" t="s">
         <v>55</v>
       </c>
@@ -5257,7 +5257,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="30" spans="1:6" s="38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="48" t="s">
         <v>55</v>
       </c>
@@ -5275,7 +5275,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="31" spans="1:6" s="38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="47" t="s">
         <v>55</v>
       </c>
@@ -5293,7 +5293,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="32" spans="1:6" s="38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" s="38" customFormat="1" ht="30" x14ac:dyDescent="0.3">
       <c r="A32" s="47" t="s">
         <v>55</v>
       </c>
@@ -5311,7 +5311,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="33" spans="1:6" s="38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="48" t="s">
         <v>55</v>
       </c>
@@ -5329,7 +5329,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="34" spans="1:6" s="38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="48" t="s">
         <v>55</v>
       </c>
@@ -5347,7 +5347,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="35" spans="1:6" s="38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="48" t="s">
         <v>55</v>
       </c>
@@ -5365,7 +5365,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="36" spans="1:6" s="38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="48" t="s">
         <v>55</v>
       </c>
@@ -5383,7 +5383,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="47" t="s">
         <v>55</v>
       </c>
@@ -5401,7 +5401,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="47" t="s">
         <v>55</v>
       </c>
@@ -5419,7 +5419,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="47" t="s">
         <v>55</v>
       </c>
@@ -5437,7 +5437,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="47" t="s">
         <v>55</v>
       </c>
@@ -5455,7 +5455,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A41" s="47" t="s">
         <v>55</v>
       </c>
@@ -5473,7 +5473,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="47" t="s">
         <v>55</v>
       </c>
@@ -5491,7 +5491,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="47" t="s">
         <v>119</v>
       </c>
@@ -5509,7 +5509,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="25" t="s">
         <v>55</v>
       </c>
@@ -5523,7 +5523,7 @@
       <c r="E44" s="41"/>
       <c r="F44" s="41"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="25" t="s">
         <v>55</v>
       </c>
@@ -5537,7 +5537,7 @@
       <c r="E45" s="41"/>
       <c r="F45" s="41"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="25" t="s">
         <v>55</v>
       </c>
@@ -5555,7 +5555,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="25" t="s">
         <v>55</v>
       </c>
@@ -5573,7 +5573,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="25" t="s">
         <v>55</v>
       </c>
@@ -5591,7 +5591,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="49" spans="1:6" s="38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A49" s="25" t="s">
         <v>55</v>
       </c>
@@ -5609,7 +5609,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="25" t="s">
         <v>55</v>
       </c>
@@ -5627,7 +5627,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="25" t="s">
         <v>55</v>
       </c>
@@ -5645,7 +5645,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="25" t="s">
         <v>55</v>
       </c>
@@ -5663,7 +5663,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="25" t="s">
         <v>55</v>
       </c>
@@ -5681,7 +5681,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="25" t="s">
         <v>55</v>
       </c>
@@ -5699,7 +5699,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="25" t="s">
         <v>119</v>
       </c>
@@ -5717,7 +5717,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="25" t="s">
         <v>55</v>
       </c>
@@ -5731,7 +5731,7 @@
       <c r="E56" s="41"/>
       <c r="F56" s="41"/>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="25" t="s">
         <v>55</v>
       </c>
@@ -5745,7 +5745,7 @@
       <c r="E57" s="41"/>
       <c r="F57" s="41"/>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="25" t="s">
         <v>55</v>
       </c>
@@ -5763,7 +5763,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="25" t="s">
         <v>55</v>
       </c>
@@ -5781,7 +5781,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="25" t="s">
         <v>55</v>
       </c>
@@ -5799,7 +5799,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="25" t="s">
         <v>55</v>
       </c>
@@ -5817,7 +5817,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="25" t="s">
         <v>55</v>
       </c>
@@ -5835,7 +5835,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="25" t="s">
         <v>55</v>
       </c>
@@ -5853,7 +5853,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="25" t="s">
         <v>55</v>
       </c>
@@ -5871,7 +5871,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="25" t="s">
         <v>55</v>
       </c>
@@ -5889,7 +5889,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="25" t="s">
         <v>55</v>
       </c>
@@ -5907,7 +5907,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="25" t="s">
         <v>55</v>
       </c>
@@ -5921,7 +5921,7 @@
       <c r="E67" s="41"/>
       <c r="F67" s="41"/>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="25" t="s">
         <v>55</v>
       </c>
@@ -5935,7 +5935,7 @@
       <c r="E68" s="41"/>
       <c r="F68" s="41"/>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="25" t="s">
         <v>55</v>
       </c>
@@ -5953,7 +5953,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" s="25" t="s">
         <v>55</v>
       </c>
@@ -5971,7 +5971,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" s="25" t="s">
         <v>55</v>
       </c>
@@ -5989,7 +5989,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="72" spans="1:6" s="38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A72" s="25" t="s">
         <v>55</v>
       </c>
@@ -6007,7 +6007,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" s="25" t="s">
         <v>55</v>
       </c>
@@ -6025,7 +6025,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="74" spans="1:6" s="38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A74" s="25" t="s">
         <v>55</v>
       </c>
@@ -6043,7 +6043,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="75" spans="1:6" s="38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A75" s="49" t="s">
         <v>55</v>
       </c>
@@ -6061,7 +6061,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" s="49" t="s">
         <v>55</v>
       </c>
@@ -6079,7 +6079,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" s="25" t="s">
         <v>55</v>
       </c>
@@ -6097,7 +6097,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" s="25" t="s">
         <v>55</v>
       </c>
@@ -6115,7 +6115,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" s="25" t="s">
         <v>55</v>
       </c>
@@ -6133,7 +6133,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" s="25" t="s">
         <v>119</v>
       </c>
@@ -6151,7 +6151,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" s="25" t="s">
         <v>55</v>
       </c>
@@ -6165,7 +6165,7 @@
       <c r="E81" s="41"/>
       <c r="F81" s="41"/>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" s="25" t="s">
         <v>55</v>
       </c>
@@ -6179,7 +6179,7 @@
       <c r="E82" s="41"/>
       <c r="F82" s="41"/>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" s="25" t="s">
         <v>55</v>
       </c>
@@ -6197,7 +6197,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" s="25" t="s">
         <v>55</v>
       </c>
@@ -6215,7 +6215,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" s="25" t="s">
         <v>55</v>
       </c>
@@ -6233,7 +6233,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" s="25" t="s">
         <v>55</v>
       </c>
@@ -6251,7 +6251,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" s="25" t="s">
         <v>55</v>
       </c>
@@ -6269,7 +6269,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" s="25" t="s">
         <v>55</v>
       </c>
@@ -6287,7 +6287,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" s="25" t="s">
         <v>55</v>
       </c>
@@ -6305,7 +6305,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" s="25" t="s">
         <v>119</v>
       </c>
@@ -6323,7 +6323,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" s="25" t="s">
         <v>55</v>
       </c>
@@ -6337,7 +6337,7 @@
       <c r="E91" s="41"/>
       <c r="F91" s="41"/>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" s="25" t="s">
         <v>55</v>
       </c>
@@ -6351,7 +6351,7 @@
       <c r="E92" s="41"/>
       <c r="F92" s="41"/>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" s="25" t="s">
         <v>55</v>
       </c>
@@ -6369,7 +6369,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" s="25" t="s">
         <v>55</v>
       </c>
@@ -6387,7 +6387,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" s="25" t="s">
         <v>55</v>
       </c>
@@ -6405,7 +6405,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="96" spans="1:6" s="38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A96" s="25" t="s">
         <v>55</v>
       </c>
@@ -6423,7 +6423,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" s="25" t="s">
         <v>55</v>
       </c>
@@ -6441,7 +6441,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" s="25" t="s">
         <v>55</v>
       </c>
@@ -6459,7 +6459,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" s="25" t="s">
         <v>55</v>
       </c>
@@ -6477,7 +6477,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" s="25" t="s">
         <v>55</v>
       </c>
@@ -6495,7 +6495,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" s="25" t="s">
         <v>55</v>
       </c>
@@ -6513,7 +6513,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" s="25" t="s">
         <v>119</v>
       </c>
@@ -6531,7 +6531,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" s="25" t="s">
         <v>55</v>
       </c>
@@ -6545,7 +6545,7 @@
       <c r="E103" s="41"/>
       <c r="F103" s="41"/>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" s="25" t="s">
         <v>55</v>
       </c>
@@ -6559,7 +6559,7 @@
       <c r="E104" s="41"/>
       <c r="F104" s="41"/>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" s="25" t="s">
         <v>55</v>
       </c>
@@ -6577,7 +6577,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" s="25" t="s">
         <v>55</v>
       </c>
@@ -6595,7 +6595,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" s="25" t="s">
         <v>55</v>
       </c>
@@ -6613,7 +6613,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="108" spans="1:6" s="38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A108" s="25" t="s">
         <v>55</v>
       </c>
@@ -6631,7 +6631,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" s="25" t="s">
         <v>55</v>
       </c>
@@ -6649,7 +6649,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" s="25" t="s">
         <v>55</v>
       </c>
@@ -6667,7 +6667,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" s="25" t="s">
         <v>55</v>
       </c>
@@ -6685,7 +6685,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" s="25" t="s">
         <v>55</v>
       </c>
@@ -6703,7 +6703,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" s="25" t="s">
         <v>55</v>
       </c>
@@ -6721,7 +6721,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" s="25" t="s">
         <v>119</v>
       </c>
@@ -6739,7 +6739,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" s="25" t="s">
         <v>55</v>
       </c>
@@ -6753,7 +6753,7 @@
       <c r="E115" s="41"/>
       <c r="F115" s="41"/>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" s="25" t="s">
         <v>55</v>
       </c>
@@ -6767,7 +6767,7 @@
       <c r="E116" s="41"/>
       <c r="F116" s="41"/>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" s="25" t="s">
         <v>55</v>
       </c>
@@ -6785,7 +6785,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118" s="25" t="s">
         <v>55</v>
       </c>
@@ -6803,7 +6803,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119" s="25" t="s">
         <v>55</v>
       </c>
@@ -6821,7 +6821,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="120" spans="1:6" s="38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A120" s="25" t="s">
         <v>55</v>
       </c>
@@ -6839,7 +6839,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121" s="25" t="s">
         <v>55</v>
       </c>
@@ -6857,7 +6857,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122" s="25" t="s">
         <v>55</v>
       </c>
@@ -6875,7 +6875,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123" s="25" t="s">
         <v>55</v>
       </c>
@@ -6893,7 +6893,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124" s="25" t="s">
         <v>55</v>
       </c>
@@ -6911,7 +6911,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125" s="25" t="s">
         <v>55</v>
       </c>
@@ -6929,7 +6929,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126" s="25" t="s">
         <v>119</v>
       </c>
@@ -6947,7 +6947,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127" s="25" t="s">
         <v>55</v>
       </c>
@@ -6961,7 +6961,7 @@
       <c r="E127" s="41"/>
       <c r="F127" s="41"/>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128" s="25" t="s">
         <v>55</v>
       </c>
@@ -6975,7 +6975,7 @@
       <c r="E128" s="41"/>
       <c r="F128" s="41"/>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129" s="25" t="s">
         <v>55</v>
       </c>
@@ -6993,7 +6993,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130" s="25" t="s">
         <v>55</v>
       </c>
@@ -7011,7 +7011,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" s="25" t="s">
         <v>55</v>
       </c>
@@ -7029,7 +7029,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="132" spans="1:6" s="38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:6" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A132" s="25" t="s">
         <v>55</v>
       </c>
@@ -7047,7 +7047,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133" s="25" t="s">
         <v>55</v>
       </c>
@@ -7065,7 +7065,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="134" spans="1:6" s="38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:6" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A134" s="25" t="s">
         <v>55</v>
       </c>
@@ -7083,7 +7083,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135" s="49" t="s">
         <v>55</v>
       </c>
@@ -7101,7 +7101,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136" s="25" t="s">
         <v>55</v>
       </c>
@@ -7119,7 +7119,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="137" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A137" s="25" t="s">
         <v>55</v>
       </c>
@@ -7137,7 +7137,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138" s="25" t="s">
         <v>55</v>
       </c>
@@ -7151,7 +7151,7 @@
       <c r="E138" s="41"/>
       <c r="F138" s="41"/>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139" s="25" t="s">
         <v>55</v>
       </c>
@@ -7165,7 +7165,7 @@
       <c r="E139" s="41"/>
       <c r="F139" s="41"/>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140" s="25" t="s">
         <v>55</v>
       </c>
@@ -7183,7 +7183,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141" s="25" t="s">
         <v>55</v>
       </c>
@@ -7201,7 +7201,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142" s="25" t="s">
         <v>55</v>
       </c>
@@ -7219,7 +7219,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143" s="25" t="s">
         <v>55</v>
       </c>
@@ -7237,7 +7237,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144" s="25" t="s">
         <v>55</v>
       </c>
@@ -7255,7 +7255,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="145" spans="1:6" s="38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:6" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A145" s="25" t="s">
         <v>55</v>
       </c>
@@ -7273,7 +7273,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A146" s="49" t="s">
         <v>55</v>
       </c>
@@ -7291,7 +7291,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147" s="25" t="s">
         <v>55</v>
       </c>
@@ -7309,7 +7309,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="148" spans="1:6" s="38" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:6" s="38" customFormat="1" ht="45" x14ac:dyDescent="0.3">
       <c r="A148" s="25" t="s">
         <v>55</v>
       </c>
@@ -7327,7 +7327,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A149" s="25" t="s">
         <v>119</v>
       </c>
@@ -7345,7 +7345,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A150" s="25" t="s">
         <v>119</v>
       </c>
@@ -7359,7 +7359,7 @@
       <c r="E150" s="51"/>
       <c r="F150" s="41"/>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A151" s="25" t="s">
         <v>55</v>
       </c>
@@ -7373,7 +7373,7 @@
       <c r="E151" s="51"/>
       <c r="F151" s="41"/>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A152" s="25" t="s">
         <v>55</v>
       </c>
@@ -7389,7 +7389,7 @@
       <c r="E152" s="25"/>
       <c r="F152" s="25"/>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A153" s="25" t="s">
         <v>55</v>
       </c>
@@ -7405,7 +7405,7 @@
       <c r="E153" s="25"/>
       <c r="F153" s="25"/>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A154" s="25" t="s">
         <v>55</v>
       </c>
@@ -7421,7 +7421,7 @@
       <c r="E154" s="25"/>
       <c r="F154" s="25"/>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A155" s="25" t="s">
         <v>55</v>
       </c>
@@ -7435,7 +7435,7 @@
       <c r="E155" s="51"/>
       <c r="F155" s="51"/>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A156" s="25" t="s">
         <v>55</v>
       </c>
@@ -7449,7 +7449,7 @@
       <c r="E156" s="51"/>
       <c r="F156" s="51"/>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A157" s="25" t="s">
         <v>55</v>
       </c>
@@ -7463,7 +7463,7 @@
       <c r="E157" s="51"/>
       <c r="F157" s="51"/>
     </row>
-    <row r="158" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A158" s="45" t="s">
         <v>55</v>
       </c>
@@ -7477,7 +7477,7 @@
       <c r="E158" s="52"/>
       <c r="F158" s="51"/>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A159" s="53" t="s">
         <v>55</v>
       </c>
@@ -7491,7 +7491,7 @@
       <c r="E159" s="51"/>
       <c r="F159" s="51"/>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A160" s="25" t="s">
         <v>55</v>
       </c>
@@ -7505,7 +7505,7 @@
       <c r="E160" s="51"/>
       <c r="F160" s="51"/>
     </row>
-    <row r="161" spans="1:6" s="38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:6" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A161" s="25" t="s">
         <v>55</v>
       </c>
@@ -7523,7 +7523,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A162" s="25" t="s">
         <v>55</v>
       </c>
@@ -7541,7 +7541,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A163" s="25" t="s">
         <v>55</v>
       </c>
@@ -7559,7 +7559,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A164" s="25" t="s">
         <v>55</v>
       </c>
@@ -7577,7 +7577,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A165" s="25" t="s">
         <v>55</v>
       </c>
@@ -7595,7 +7595,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A166" s="25" t="s">
         <v>55</v>
       </c>
@@ -7609,7 +7609,7 @@
       <c r="E166" s="51"/>
       <c r="F166" s="51"/>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A167" s="25" t="s">
         <v>55</v>
       </c>
@@ -7627,7 +7627,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A168" s="25" t="s">
         <v>55</v>
       </c>
@@ -7645,7 +7645,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="169" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A169" s="25" t="s">
         <v>55</v>
       </c>
@@ -7663,7 +7663,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A170" s="25" t="s">
         <v>55</v>
       </c>
@@ -7681,7 +7681,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="171" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A171" s="25" t="s">
         <v>55</v>
       </c>
@@ -7699,7 +7699,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A172" s="25" t="s">
         <v>55</v>
       </c>
@@ -7717,7 +7717,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A173" s="25" t="s">
         <v>55</v>
       </c>
@@ -7735,7 +7735,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="174" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A174" s="25" t="s">
         <v>55</v>
       </c>
@@ -7753,7 +7753,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A175" s="25" t="s">
         <v>55</v>
       </c>
@@ -7771,7 +7771,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="176" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:6" ht="45" x14ac:dyDescent="0.3">
       <c r="A176" s="25" t="s">
         <v>55</v>
       </c>
@@ -7789,7 +7789,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="177" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A177" s="25" t="s">
         <v>55</v>
       </c>
@@ -7805,7 +7805,7 @@
       <c r="E177" s="25"/>
       <c r="F177" s="25"/>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A178" s="25" t="s">
         <v>55</v>
       </c>
@@ -7823,7 +7823,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A179" s="25" t="s">
         <v>55</v>
       </c>
@@ -7837,7 +7837,7 @@
       <c r="E179" s="51"/>
       <c r="F179" s="51"/>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A180" s="25" t="s">
         <v>55</v>
       </c>
@@ -7851,7 +7851,7 @@
       <c r="E180" s="51"/>
       <c r="F180" s="51"/>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A181" s="25" t="s">
         <v>55</v>
       </c>
@@ -7869,7 +7869,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A182" s="25" t="s">
         <v>55</v>
       </c>
@@ -7887,7 +7887,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A183" s="25" t="s">
         <v>55</v>
       </c>
@@ -7905,7 +7905,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A184" s="25" t="s">
         <v>55</v>
       </c>
@@ -7923,7 +7923,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A185" s="25" t="s">
         <v>55</v>
       </c>
@@ -7937,7 +7937,7 @@
       <c r="E185" s="51"/>
       <c r="F185" s="51"/>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A186" s="25" t="s">
         <v>55</v>
       </c>
@@ -7955,7 +7955,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A187" s="25" t="s">
         <v>55</v>
       </c>
@@ -7973,7 +7973,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="188" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A188" s="25" t="s">
         <v>55</v>
       </c>
@@ -7991,7 +7991,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A189" s="25" t="s">
         <v>55</v>
       </c>
@@ -8009,7 +8009,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="190" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A190" s="25" t="s">
         <v>55</v>
       </c>
@@ -8027,7 +8027,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A191" s="25" t="s">
         <v>55</v>
       </c>
@@ -8045,7 +8045,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A192" s="25" t="s">
         <v>55</v>
       </c>
@@ -8063,7 +8063,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="193" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A193" s="25" t="s">
         <v>55</v>
       </c>
@@ -8081,7 +8081,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A194" s="25" t="s">
         <v>55</v>
       </c>
@@ -8099,7 +8099,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="195" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:6" ht="45" x14ac:dyDescent="0.3">
       <c r="A195" s="25" t="s">
         <v>55</v>
       </c>
@@ -8117,7 +8117,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="196" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A196" s="25" t="s">
         <v>55</v>
       </c>
@@ -8133,7 +8133,7 @@
       <c r="E196" s="25"/>
       <c r="F196" s="25"/>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A197" s="25" t="s">
         <v>55</v>
       </c>
@@ -8151,7 +8151,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A198" s="25" t="s">
         <v>55</v>
       </c>
@@ -8165,7 +8165,7 @@
       <c r="E198" s="51"/>
       <c r="F198" s="51"/>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A199" s="25" t="s">
         <v>55</v>
       </c>
@@ -8179,7 +8179,7 @@
       <c r="E199" s="51"/>
       <c r="F199" s="51"/>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A200" s="25" t="s">
         <v>55</v>
       </c>
@@ -8197,7 +8197,7 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A201" s="25" t="s">
         <v>55</v>
       </c>
@@ -8215,7 +8215,7 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A202" s="25" t="s">
         <v>55</v>
       </c>
@@ -8233,7 +8233,7 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A203" s="25" t="s">
         <v>55</v>
       </c>
@@ -8251,7 +8251,7 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A204" s="25" t="s">
         <v>55</v>
       </c>
@@ -8265,7 +8265,7 @@
       <c r="E204" s="51"/>
       <c r="F204" s="51"/>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A205" s="25" t="s">
         <v>55</v>
       </c>
@@ -8283,7 +8283,7 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A206" s="25" t="s">
         <v>55</v>
       </c>
@@ -8301,7 +8301,7 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A207" s="25" t="s">
         <v>55</v>
       </c>
@@ -8319,7 +8319,7 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A208" s="25" t="s">
         <v>55</v>
       </c>
@@ -8337,7 +8337,7 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="209" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A209" s="25" t="s">
         <v>55</v>
       </c>
@@ -8355,7 +8355,7 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A210" s="25" t="s">
         <v>55</v>
       </c>
@@ -8373,7 +8373,7 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A211" s="25" t="s">
         <v>55</v>
       </c>
@@ -8391,7 +8391,7 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="212" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A212" s="25" t="s">
         <v>55</v>
       </c>
@@ -8409,7 +8409,7 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A213" s="25" t="s">
         <v>55</v>
       </c>
@@ -8427,7 +8427,7 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="214" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:6" ht="45" x14ac:dyDescent="0.3">
       <c r="A214" s="25" t="s">
         <v>55</v>
       </c>
@@ -8445,7 +8445,7 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="215" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A215" s="25" t="s">
         <v>55</v>
       </c>
@@ -8463,7 +8463,7 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A216" s="25" t="s">
         <v>55</v>
       </c>
@@ -8481,7 +8481,7 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A217" s="25" t="s">
         <v>55</v>
       </c>
@@ -8495,7 +8495,7 @@
       <c r="E217" s="51"/>
       <c r="F217" s="51"/>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A218" s="25" t="s">
         <v>55</v>
       </c>
@@ -8509,7 +8509,7 @@
       <c r="E218" s="51"/>
       <c r="F218" s="51"/>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A219" s="25" t="s">
         <v>55</v>
       </c>
@@ -8527,7 +8527,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A220" s="25" t="s">
         <v>55</v>
       </c>
@@ -8545,7 +8545,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A221" s="25" t="s">
         <v>55</v>
       </c>
@@ -8563,7 +8563,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="222" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A222" s="25" t="s">
         <v>55</v>
       </c>
@@ -8581,7 +8581,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="223" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A223" s="25" t="s">
         <v>55</v>
       </c>
@@ -8599,7 +8599,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A224" s="25" t="s">
         <v>55</v>
       </c>
@@ -8617,7 +8617,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A225" s="25" t="s">
         <v>55</v>
       </c>
@@ -8635,7 +8635,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A226" s="25" t="s">
         <v>55</v>
       </c>
@@ -8653,7 +8653,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A227" s="25" t="s">
         <v>55</v>
       </c>
@@ -8671,7 +8671,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A228" s="25" t="s">
         <v>55</v>
       </c>
@@ -8689,7 +8689,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A229" s="25" t="s">
         <v>55</v>
       </c>
@@ -8707,7 +8707,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A230" s="25" t="s">
         <v>55</v>
       </c>
@@ -8725,7 +8725,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A231" s="25" t="s">
         <v>55</v>
       </c>
@@ -8739,7 +8739,7 @@
       <c r="E231" s="51"/>
       <c r="F231" s="51"/>
     </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A232" s="25" t="s">
         <v>55</v>
       </c>
@@ -8757,7 +8757,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A233" s="25" t="s">
         <v>55</v>
       </c>
@@ -8775,7 +8775,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A234" s="25" t="s">
         <v>55</v>
       </c>
@@ -8793,7 +8793,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A235" s="25" t="s">
         <v>55</v>
       </c>
@@ -8811,7 +8811,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A236" s="25" t="s">
         <v>55</v>
       </c>
@@ -8829,7 +8829,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A237" s="25" t="s">
         <v>55</v>
       </c>
@@ -8847,7 +8847,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A238" s="25" t="s">
         <v>55</v>
       </c>
@@ -8865,7 +8865,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A239" s="25" t="s">
         <v>55</v>
       </c>
@@ -8883,7 +8883,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A240" s="25" t="s">
         <v>55</v>
       </c>
@@ -8901,7 +8901,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A241" s="25" t="s">
         <v>55</v>
       </c>
@@ -8919,7 +8919,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A242" s="25" t="s">
         <v>55</v>
       </c>
@@ -8937,7 +8937,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A243" s="25" t="s">
         <v>55</v>
       </c>
@@ -8951,7 +8951,7 @@
       <c r="E243" s="51"/>
       <c r="F243" s="51"/>
     </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A244" s="25" t="s">
         <v>55</v>
       </c>
@@ -8969,7 +8969,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A245" s="25" t="s">
         <v>55</v>
       </c>
@@ -8987,7 +8987,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A246" s="47" t="s">
         <v>55</v>
       </c>
@@ -9001,7 +9001,7 @@
       <c r="E246" s="51"/>
       <c r="F246" s="51"/>
     </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A247" s="47" t="s">
         <v>55</v>
       </c>
@@ -9017,7 +9017,7 @@
       <c r="E247" s="25"/>
       <c r="F247" s="25"/>
     </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A248" s="47" t="s">
         <v>55</v>
       </c>
@@ -9031,7 +9031,7 @@
       <c r="E248" s="51"/>
       <c r="F248" s="51"/>
     </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A249" s="47" t="s">
         <v>55</v>
       </c>
@@ -9045,7 +9045,7 @@
       <c r="E249" s="51"/>
       <c r="F249" s="51"/>
     </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A250" s="47" t="s">
         <v>55</v>
       </c>
@@ -9063,7 +9063,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A251" s="47" t="s">
         <v>55</v>
       </c>
@@ -9081,7 +9081,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A252" s="47" t="s">
         <v>55</v>
       </c>
@@ -9099,7 +9099,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A253" s="47" t="s">
         <v>55</v>
       </c>
@@ -9117,7 +9117,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A254" s="47" t="s">
         <v>55</v>
       </c>
@@ -9131,7 +9131,7 @@
       <c r="E254" s="57"/>
       <c r="F254" s="57"/>
     </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A255" s="47" t="s">
         <v>55</v>
       </c>
@@ -9149,7 +9149,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A256" s="47" t="s">
         <v>55</v>
       </c>
@@ -9167,7 +9167,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A257" s="47" t="s">
         <v>55</v>
       </c>
@@ -9185,7 +9185,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A258" s="47" t="s">
         <v>55</v>
       </c>
@@ -9203,7 +9203,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A259" s="47" t="s">
         <v>55</v>
       </c>
@@ -9217,7 +9217,7 @@
       <c r="E259" s="51"/>
       <c r="F259" s="51"/>
     </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A260" s="47" t="s">
         <v>55</v>
       </c>
@@ -9235,7 +9235,7 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A261" s="47" t="s">
         <v>55</v>
       </c>
@@ -9253,7 +9253,7 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="262" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A262" s="58" t="s">
         <v>55</v>
       </c>
@@ -9267,7 +9267,7 @@
       <c r="E262" s="52"/>
       <c r="F262" s="51"/>
     </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A263" s="25" t="s">
         <v>55</v>
       </c>
@@ -9281,7 +9281,7 @@
       <c r="E263" s="51"/>
       <c r="F263" s="51"/>
     </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A264" s="25" t="s">
         <v>55</v>
       </c>
@@ -9295,7 +9295,7 @@
       <c r="E264" s="51"/>
       <c r="F264" s="51"/>
     </row>
-    <row r="265" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A265" s="25" t="s">
         <v>55</v>
       </c>
@@ -9313,7 +9313,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A266" s="25" t="s">
         <v>55</v>
       </c>
@@ -9331,7 +9331,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A267" s="25" t="s">
         <v>55</v>
       </c>
@@ -9349,7 +9349,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="268" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A268" s="25" t="s">
         <v>55</v>
       </c>
@@ -9367,7 +9367,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A269" s="25" t="s">
         <v>55</v>
       </c>
@@ -9385,7 +9385,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A270" s="25" t="s">
         <v>55</v>
       </c>
@@ -9403,7 +9403,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="271" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A271" s="25" t="s">
         <v>55</v>
       </c>
@@ -9421,7 +9421,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A272" s="47" t="s">
         <v>55</v>
       </c>
@@ -9435,7 +9435,7 @@
       <c r="E272" s="51"/>
       <c r="F272" s="51"/>
     </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A273" s="25" t="s">
         <v>55</v>
       </c>
@@ -9453,7 +9453,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="274" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A274" s="25" t="s">
         <v>55</v>
       </c>
@@ -9471,7 +9471,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="275" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:6" ht="45" x14ac:dyDescent="0.3">
       <c r="A275" s="25" t="s">
         <v>55</v>
       </c>
@@ -9489,7 +9489,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="276" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A276" s="25" t="s">
         <v>55</v>
       </c>
@@ -9507,7 +9507,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="277" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:6" ht="45" x14ac:dyDescent="0.3">
       <c r="A277" s="25" t="s">
         <v>55</v>
       </c>
@@ -9525,7 +9525,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A278" s="25" t="s">
         <v>55</v>
       </c>
@@ -9543,7 +9543,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A279" s="25" t="s">
         <v>55</v>
       </c>
@@ -9557,7 +9557,7 @@
       <c r="E279" s="51"/>
       <c r="F279" s="51"/>
     </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A280" s="25" t="s">
         <v>55</v>
       </c>
@@ -9571,7 +9571,7 @@
       <c r="E280" s="51"/>
       <c r="F280" s="51"/>
     </row>
-    <row r="281" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A281" s="25" t="s">
         <v>55</v>
       </c>
@@ -9589,7 +9589,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A282" s="25" t="s">
         <v>55</v>
       </c>
@@ -9607,7 +9607,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A283" s="25" t="s">
         <v>55</v>
       </c>
@@ -9625,7 +9625,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="284" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A284" s="25" t="s">
         <v>55</v>
       </c>
@@ -9643,7 +9643,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A285" s="25" t="s">
         <v>55</v>
       </c>
@@ -9661,7 +9661,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A286" s="25" t="s">
         <v>55</v>
       </c>
@@ -9679,7 +9679,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A287" s="25" t="s">
         <v>55</v>
       </c>
@@ -9697,7 +9697,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A288" s="25" t="s">
         <v>55</v>
       </c>
@@ -9715,7 +9715,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="289" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A289" s="47" t="s">
         <v>55</v>
       </c>
@@ -9729,7 +9729,7 @@
       <c r="E289" s="51"/>
       <c r="F289" s="51"/>
     </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A290" s="25" t="s">
         <v>55</v>
       </c>
@@ -9747,7 +9747,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="291" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A291" s="25" t="s">
         <v>55</v>
       </c>
@@ -9765,7 +9765,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="292" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A292" s="25" t="s">
         <v>55</v>
       </c>
@@ -9783,7 +9783,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="293" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A293" s="25" t="s">
         <v>55</v>
       </c>
@@ -9801,7 +9801,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="294" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:6" ht="45" x14ac:dyDescent="0.3">
       <c r="A294" s="25" t="s">
         <v>55</v>
       </c>
@@ -9819,7 +9819,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="295" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:6" ht="45" x14ac:dyDescent="0.3">
       <c r="A295" s="25" t="s">
         <v>55</v>
       </c>
@@ -9837,7 +9837,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="296" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A296" s="25" t="s">
         <v>55</v>
       </c>
@@ -9855,7 +9855,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A297" s="25" t="s">
         <v>55</v>
       </c>
@@ -9873,7 +9873,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="298" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A298" s="25" t="s">
         <v>55</v>
       </c>
@@ -9891,7 +9891,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="299" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A299" s="25" t="s">
         <v>55</v>
       </c>
@@ -9905,7 +9905,7 @@
       <c r="E299" s="51"/>
       <c r="F299" s="51"/>
     </row>
-    <row r="300" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A300" s="25" t="s">
         <v>55</v>
       </c>
@@ -9919,7 +9919,7 @@
       <c r="E300" s="51"/>
       <c r="F300" s="51"/>
     </row>
-    <row r="301" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A301" s="25" t="s">
         <v>55</v>
       </c>
@@ -9937,7 +9937,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="302" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A302" s="25" t="s">
         <v>55</v>
       </c>
@@ -9955,7 +9955,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="303" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A303" s="25" t="s">
         <v>55</v>
       </c>
@@ -9973,7 +9973,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="304" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A304" s="25" t="s">
         <v>55</v>
       </c>
@@ -9991,7 +9991,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="305" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A305" s="25" t="s">
         <v>55</v>
       </c>
@@ -10009,7 +10009,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="306" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A306" s="25" t="s">
         <v>55</v>
       </c>
@@ -10027,7 +10027,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="307" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A307" s="25" t="s">
         <v>55</v>
       </c>
@@ -10045,7 +10045,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="308" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A308" s="25" t="s">
         <v>55</v>
       </c>
@@ -10063,7 +10063,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="309" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A309" s="47" t="s">
         <v>55</v>
       </c>
@@ -10077,7 +10077,7 @@
       <c r="E309" s="51"/>
       <c r="F309" s="51"/>
     </row>
-    <row r="310" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A310" s="25" t="s">
         <v>55</v>
       </c>
@@ -10095,7 +10095,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="311" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A311" s="25" t="s">
         <v>55</v>
       </c>
@@ -10113,7 +10113,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="312" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A312" s="25" t="s">
         <v>55</v>
       </c>
@@ -10131,7 +10131,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="313" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A313" s="25" t="s">
         <v>55</v>
       </c>
@@ -10149,7 +10149,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="314" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:6" ht="45" x14ac:dyDescent="0.3">
       <c r="A314" s="25" t="s">
         <v>55</v>
       </c>
@@ -10167,7 +10167,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="315" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:6" ht="45" x14ac:dyDescent="0.3">
       <c r="A315" s="25" t="s">
         <v>55</v>
       </c>
@@ -10185,7 +10185,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="316" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A316" s="25" t="s">
         <v>55</v>
       </c>
@@ -10203,7 +10203,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="317" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A317" s="25" t="s">
         <v>55</v>
       </c>
@@ -10221,7 +10221,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="318" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A318" s="25" t="s">
         <v>55</v>
       </c>
@@ -10239,7 +10239,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="319" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A319" s="25" t="s">
         <v>55</v>
       </c>
@@ -10253,7 +10253,7 @@
       <c r="E319" s="51"/>
       <c r="F319" s="51"/>
     </row>
-    <row r="320" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A320" s="25" t="s">
         <v>55</v>
       </c>
@@ -10267,7 +10267,7 @@
       <c r="E320" s="51"/>
       <c r="F320" s="51"/>
     </row>
-    <row r="321" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A321" s="25" t="s">
         <v>55</v>
       </c>
@@ -10285,7 +10285,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="322" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A322" s="25" t="s">
         <v>55</v>
       </c>
@@ -10299,7 +10299,7 @@
       <c r="E322" s="51"/>
       <c r="F322" s="51"/>
     </row>
-    <row r="323" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A323" s="25" t="s">
         <v>55</v>
       </c>
@@ -10317,7 +10317,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="324" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A324" s="25" t="s">
         <v>55</v>
       </c>
@@ -10335,7 +10335,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="325" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A325" s="25" t="s">
         <v>55</v>
       </c>
@@ -10353,7 +10353,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="326" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A326" s="25" t="s">
         <v>55</v>
       </c>
@@ -10371,7 +10371,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="327" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A327" s="25" t="s">
         <v>55</v>
       </c>
@@ -10389,7 +10389,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="328" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A328" s="25" t="s">
         <v>55</v>
       </c>
@@ -10407,7 +10407,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="329" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:6" ht="45" x14ac:dyDescent="0.3">
       <c r="A329" s="25" t="s">
         <v>55</v>
       </c>
@@ -10425,7 +10425,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="330" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A330" s="25" t="s">
         <v>55</v>
       </c>
@@ -10439,7 +10439,7 @@
       <c r="E330" s="59"/>
       <c r="F330" s="59"/>
     </row>
-    <row r="331" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A331" s="25" t="s">
         <v>55</v>
       </c>
@@ -10457,7 +10457,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="332" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A332" s="25" t="s">
         <v>55</v>
       </c>
@@ -10475,7 +10475,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="333" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A333" s="25" t="s">
         <v>55</v>
       </c>
@@ -10489,7 +10489,7 @@
       <c r="E333" s="59"/>
       <c r="F333" s="59"/>
     </row>
-    <row r="334" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A334" s="25" t="s">
         <v>55</v>
       </c>
@@ -10503,7 +10503,7 @@
       <c r="E334" s="59"/>
       <c r="F334" s="59"/>
     </row>
-    <row r="335" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A335" s="47" t="s">
         <v>55</v>
       </c>
@@ -10521,7 +10521,7 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="336" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A336" s="47" t="s">
         <v>55</v>
       </c>
@@ -10539,7 +10539,7 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="337" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A337" s="47" t="s">
         <v>55</v>
       </c>
@@ -10557,7 +10557,7 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="338" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A338" s="47" t="s">
         <v>55</v>
       </c>
@@ -10575,7 +10575,7 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="339" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A339" s="47" t="s">
         <v>55</v>
       </c>
@@ -10593,7 +10593,7 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="340" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A340" s="47" t="s">
         <v>55</v>
       </c>
@@ -10611,7 +10611,7 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="341" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A341" s="47" t="s">
         <v>55</v>
       </c>
@@ -10629,7 +10629,7 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="342" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A342" s="47" t="s">
         <v>55</v>
       </c>
@@ -10647,7 +10647,7 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="343" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A343" s="47" t="s">
         <v>55</v>
       </c>
@@ -10661,7 +10661,7 @@
       <c r="E343" s="51"/>
       <c r="F343" s="51"/>
     </row>
-    <row r="344" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A344" s="47" t="s">
         <v>55</v>
       </c>
@@ -10679,7 +10679,7 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="345" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A345" s="47" t="s">
         <v>55</v>
       </c>
@@ -10697,7 +10697,7 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="346" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A346" s="47" t="s">
         <v>55</v>
       </c>
@@ -10715,7 +10715,7 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="347" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A347" s="47" t="s">
         <v>55</v>
       </c>
@@ -10733,7 +10733,7 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="348" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:6" ht="45" x14ac:dyDescent="0.3">
       <c r="A348" s="47" t="s">
         <v>55</v>
       </c>
@@ -10751,7 +10751,7 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="349" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:6" ht="45" x14ac:dyDescent="0.3">
       <c r="A349" s="47" t="s">
         <v>55</v>
       </c>
@@ -10769,7 +10769,7 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="350" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A350" s="47" t="s">
         <v>55</v>
       </c>
@@ -10787,7 +10787,7 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="351" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A351" s="47" t="s">
         <v>55</v>
       </c>
@@ -10805,7 +10805,7 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="352" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A352" s="25" t="s">
         <v>55</v>
       </c>
@@ -10823,7 +10823,7 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="353" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A353" s="58" t="s">
         <v>55</v>
       </c>
@@ -10837,7 +10837,7 @@
       <c r="E353" s="51"/>
       <c r="F353" s="51"/>
     </row>
-    <row r="354" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A354" s="25" t="s">
         <v>55</v>
       </c>
@@ -10851,7 +10851,7 @@
       <c r="E354" s="51"/>
       <c r="F354" s="51"/>
     </row>
-    <row r="355" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A355" s="25" t="s">
         <v>55</v>
       </c>
@@ -10865,7 +10865,7 @@
       <c r="E355" s="51"/>
       <c r="F355" s="51"/>
     </row>
-    <row r="356" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:6" ht="60" x14ac:dyDescent="0.3">
       <c r="A356" s="25" t="s">
         <v>55</v>
       </c>
@@ -10883,7 +10883,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="357" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A357" s="25" t="s">
         <v>55</v>
       </c>
@@ -10901,7 +10901,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="358" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A358" s="25" t="s">
         <v>55</v>
       </c>
@@ -10919,7 +10919,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="359" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A359" s="25" t="s">
         <v>55</v>
       </c>
@@ -10933,7 +10933,7 @@
       <c r="E359" s="51"/>
       <c r="F359" s="51"/>
     </row>
-    <row r="360" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A360" s="25" t="s">
         <v>55</v>
       </c>
@@ -10951,7 +10951,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="361" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A361" s="25" t="s">
         <v>55</v>
       </c>
@@ -10969,7 +10969,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="362" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A362" s="25" t="s">
         <v>55</v>
       </c>
@@ -10987,7 +10987,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="363" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A363" s="25" t="s">
         <v>55</v>
       </c>
@@ -11005,7 +11005,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="364" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A364" s="25" t="s">
         <v>55</v>
       </c>
@@ -11019,7 +11019,7 @@
       <c r="E364" s="51"/>
       <c r="F364" s="51"/>
     </row>
-    <row r="365" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A365" s="25" t="s">
         <v>55</v>
       </c>
@@ -11037,7 +11037,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="366" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A366" s="25" t="s">
         <v>55</v>
       </c>
@@ -11055,7 +11055,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="367" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A367" s="25" t="s">
         <v>55</v>
       </c>
@@ -11073,7 +11073,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="368" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A368" s="25" t="s">
         <v>55</v>
       </c>
@@ -11091,7 +11091,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="369" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A369" s="25" t="s">
         <v>55</v>
       </c>
@@ -11099,7 +11099,7 @@
         <v>524</v>
       </c>
       <c r="C369" s="32" t="s">
-        <v>525</v>
+        <v>573</v>
       </c>
       <c r="D369" s="25" t="s">
         <v>526</v>
@@ -11109,7 +11109,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="370" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A370" s="25" t="s">
         <v>55</v>
       </c>
@@ -11123,7 +11123,7 @@
       <c r="E370" s="51"/>
       <c r="F370" s="51"/>
     </row>
-    <row r="371" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:6" ht="45" x14ac:dyDescent="0.3">
       <c r="A371" s="25" t="s">
         <v>55</v>
       </c>
@@ -11141,7 +11141,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="372" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A372" s="25" t="s">
         <v>55</v>
       </c>
@@ -11159,7 +11159,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="373" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A373" s="25" t="s">
         <v>55</v>
       </c>
@@ -11177,7 +11177,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="374" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A374" s="25" t="s">
         <v>55</v>
       </c>
@@ -11195,7 +11195,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="375" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A375" s="25" t="s">
         <v>55</v>
       </c>
@@ -11209,7 +11209,7 @@
       <c r="E375" s="51"/>
       <c r="F375" s="51"/>
     </row>
-    <row r="376" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A376" s="25" t="s">
         <v>55</v>
       </c>
@@ -11227,7 +11227,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="377" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A377" s="25" t="s">
         <v>55</v>
       </c>
@@ -11245,7 +11245,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="378" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A378" s="25" t="s">
         <v>55</v>
       </c>
@@ -11259,7 +11259,7 @@
       <c r="E378" s="51"/>
       <c r="F378" s="51"/>
     </row>
-    <row r="379" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A379" s="25" t="s">
         <v>55</v>
       </c>
@@ -11277,7 +11277,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="380" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A380" s="25" t="s">
         <v>55</v>
       </c>
@@ -11295,7 +11295,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="381" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A381" s="25" t="s">
         <v>55</v>
       </c>
@@ -11313,7 +11313,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="382" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A382" s="25" t="s">
         <v>55</v>
       </c>
@@ -11331,7 +11331,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="383" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A383" s="25" t="s">
         <v>55</v>
       </c>
@@ -11349,7 +11349,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="384" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A384" s="25" t="s">
         <v>55</v>
       </c>
@@ -11363,7 +11363,7 @@
       <c r="E384" s="51"/>
       <c r="F384" s="51"/>
     </row>
-    <row r="385" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A385" s="25" t="s">
         <v>55</v>
       </c>
@@ -11377,7 +11377,7 @@
       <c r="E385" s="51"/>
       <c r="F385" s="51"/>
     </row>
-    <row r="386" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:6" ht="60" x14ac:dyDescent="0.3">
       <c r="A386" s="25" t="s">
         <v>55</v>
       </c>
@@ -11395,7 +11395,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="387" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A387" s="25" t="s">
         <v>55</v>
       </c>
@@ -11413,7 +11413,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="388" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A388" s="25" t="s">
         <v>55</v>
       </c>
@@ -11431,7 +11431,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="389" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A389" s="25" t="s">
         <v>55</v>
       </c>
@@ -11445,7 +11445,7 @@
       <c r="E389" s="51"/>
       <c r="F389" s="51"/>
     </row>
-    <row r="390" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A390" s="25" t="s">
         <v>55</v>
       </c>
@@ -11459,7 +11459,7 @@
       <c r="E390" s="51"/>
       <c r="F390" s="51"/>
     </row>
-    <row r="391" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A391" s="25" t="s">
         <v>55</v>
       </c>
@@ -11477,7 +11477,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="392" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A392" s="25" t="s">
         <v>55</v>
       </c>
@@ -11495,7 +11495,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="393" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A393" s="25" t="s">
         <v>55</v>
       </c>
@@ -11513,7 +11513,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="394" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A394" s="25" t="s">
         <v>55</v>
       </c>
@@ -11531,7 +11531,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="395" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A395" s="25" t="s">
         <v>55</v>
       </c>
@@ -11549,7 +11549,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="396" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A396" s="25" t="s">
         <v>55</v>
       </c>
@@ -11567,7 +11567,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="397" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A397" s="25" t="s">
         <v>55</v>
       </c>
@@ -11581,7 +11581,7 @@
       <c r="E397" s="51"/>
       <c r="F397" s="51"/>
     </row>
-    <row r="398" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A398" s="25" t="s">
         <v>55</v>
       </c>
@@ -11599,7 +11599,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="399" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A399" s="25" t="s">
         <v>55</v>
       </c>
@@ -11617,7 +11617,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="400" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A400" s="25" t="s">
         <v>55</v>
       </c>
@@ -11631,7 +11631,7 @@
       <c r="E400" s="51"/>
       <c r="F400" s="51"/>
     </row>
-    <row r="401" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A401" s="25" t="s">
         <v>55</v>
       </c>
@@ -11649,7 +11649,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="402" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A402" s="25" t="s">
         <v>55</v>
       </c>
@@ -11667,7 +11667,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="403" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A403" s="25" t="s">
         <v>55</v>
       </c>
@@ -11685,7 +11685,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="404" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A404" s="25" t="s">
         <v>55</v>
       </c>
@@ -11703,7 +11703,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="405" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A405" s="25" t="s">
         <v>55</v>
       </c>
@@ -11721,7 +11721,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="406" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A406" s="25" t="s">
         <v>55</v>
       </c>
@@ -11735,7 +11735,7 @@
       <c r="E406" s="51"/>
       <c r="F406" s="51"/>
     </row>
-    <row r="407" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A407" s="25" t="s">
         <v>55</v>
       </c>
@@ -11749,7 +11749,7 @@
       <c r="E407" s="51"/>
       <c r="F407" s="51"/>
     </row>
-    <row r="408" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:6" ht="45" x14ac:dyDescent="0.3">
       <c r="A408" s="25" t="s">
         <v>55</v>
       </c>
@@ -11767,7 +11767,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="409" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A409" s="25" t="s">
         <v>55</v>
       </c>
@@ -11785,7 +11785,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="410" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A410" s="25" t="s">
         <v>55</v>
       </c>
@@ -11803,7 +11803,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="411" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A411" s="25" t="s">
         <v>55</v>
       </c>
@@ -11817,7 +11817,7 @@
       <c r="E411" s="51"/>
       <c r="F411" s="51"/>
     </row>
-    <row r="412" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A412" s="25" t="s">
         <v>55</v>
       </c>
@@ -11831,7 +11831,7 @@
       <c r="E412" s="51"/>
       <c r="F412" s="51"/>
     </row>
-    <row r="413" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A413" s="25" t="s">
         <v>55</v>
       </c>
@@ -11849,7 +11849,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="414" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A414" s="25" t="s">
         <v>55</v>
       </c>
@@ -11867,7 +11867,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="415" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A415" s="25" t="s">
         <v>55</v>
       </c>
@@ -11885,7 +11885,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="416" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A416" s="25" t="s">
         <v>55</v>
       </c>
@@ -11903,7 +11903,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="417" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A417" s="25" t="s">
         <v>55</v>
       </c>
@@ -11921,7 +11921,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="418" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A418" s="25" t="s">
         <v>55</v>
       </c>
@@ -11939,7 +11939,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="419" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A419" s="25" t="s">
         <v>55</v>
       </c>
@@ -11953,7 +11953,7 @@
       <c r="E419" s="51"/>
       <c r="F419" s="51"/>
     </row>
-    <row r="420" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A420" s="25" t="s">
         <v>55</v>
       </c>
@@ -11971,7 +11971,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="421" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A421" s="25" t="s">
         <v>55</v>
       </c>
@@ -11989,7 +11989,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="422" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A422" s="25" t="s">
         <v>55</v>
       </c>
@@ -12003,7 +12003,7 @@
       <c r="E422" s="51"/>
       <c r="F422" s="51"/>
     </row>
-    <row r="423" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A423" s="25" t="s">
         <v>55</v>
       </c>
@@ -12021,7 +12021,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="424" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A424" s="25" t="s">
         <v>55</v>
       </c>
@@ -12039,7 +12039,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="425" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A425" s="25" t="s">
         <v>55</v>
       </c>
@@ -12057,7 +12057,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="426" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A426" s="25" t="s">
         <v>55</v>
       </c>
@@ -12075,7 +12075,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="427" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A427" s="25" t="s">
         <v>55</v>
       </c>
@@ -12093,7 +12093,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="428" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A428" s="25" t="s">
         <v>55</v>
       </c>
@@ -12107,7 +12107,7 @@
       <c r="E428" s="51"/>
       <c r="F428" s="51"/>
     </row>
-    <row r="429" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A429" s="25" t="s">
         <v>55</v>
       </c>
@@ -12121,7 +12121,7 @@
       <c r="E429" s="51"/>
       <c r="F429" s="51"/>
     </row>
-    <row r="430" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:6" ht="45" x14ac:dyDescent="0.3">
       <c r="A430" s="25" t="s">
         <v>55</v>
       </c>
@@ -12139,7 +12139,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="431" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A431" s="25" t="s">
         <v>55</v>
       </c>
@@ -12157,7 +12157,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="432" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A432" s="25" t="s">
         <v>55</v>
       </c>
@@ -12175,7 +12175,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="433" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A433" s="25" t="s">
         <v>55</v>
       </c>
@@ -12189,7 +12189,7 @@
       <c r="E433" s="51"/>
       <c r="F433" s="51"/>
     </row>
-    <row r="434" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A434" s="25" t="s">
         <v>55</v>
       </c>
@@ -12203,7 +12203,7 @@
       <c r="E434" s="51"/>
       <c r="F434" s="51"/>
     </row>
-    <row r="435" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A435" s="25" t="s">
         <v>55</v>
       </c>
@@ -12221,7 +12221,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="436" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A436" s="25" t="s">
         <v>55</v>
       </c>
@@ -12239,7 +12239,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="437" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A437" s="25" t="s">
         <v>55</v>
       </c>
@@ -12257,7 +12257,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="438" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A438" s="25" t="s">
         <v>55</v>
       </c>
@@ -12275,7 +12275,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="439" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A439" s="25" t="s">
         <v>55</v>
       </c>
@@ -12289,7 +12289,7 @@
       <c r="E439" s="51"/>
       <c r="F439" s="51"/>
     </row>
-    <row r="440" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A440" s="25" t="s">
         <v>55</v>
       </c>
@@ -12307,7 +12307,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="441" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A441" s="25" t="s">
         <v>55</v>
       </c>
@@ -12325,7 +12325,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="442" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A442" s="25" t="s">
         <v>55</v>
       </c>
@@ -12343,7 +12343,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="443" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A443" s="25" t="s">
         <v>55</v>
       </c>
@@ -12357,7 +12357,7 @@
       <c r="E443" s="51"/>
       <c r="F443" s="51"/>
     </row>
-    <row r="444" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A444" s="25" t="s">
         <v>55</v>
       </c>
@@ -12375,7 +12375,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="445" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A445" s="25" t="s">
         <v>55</v>
       </c>
@@ -12393,7 +12393,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="446" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A446" s="25" t="s">
         <v>55</v>
       </c>
@@ -12411,7 +12411,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="447" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A447" s="25" t="s">
         <v>55</v>
       </c>
@@ -12429,7 +12429,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="448" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A448" s="25" t="s">
         <v>55</v>
       </c>
@@ -12447,7 +12447,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="449" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A449" s="25" t="s">
         <v>55</v>
       </c>
@@ -12465,7 +12465,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="450" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A450" s="25" t="s">
         <v>55</v>
       </c>
@@ -12479,7 +12479,7 @@
       <c r="E450" s="51"/>
       <c r="F450" s="51"/>
     </row>
-    <row r="451" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:6" ht="45" x14ac:dyDescent="0.3">
       <c r="A451" s="25" t="s">
         <v>55</v>
       </c>
@@ -12497,7 +12497,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="452" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A452" s="25" t="s">
         <v>55</v>
       </c>
@@ -12515,7 +12515,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="453" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A453" s="25" t="s">
         <v>55</v>
       </c>
@@ -12533,7 +12533,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="454" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A454" s="25" t="s">
         <v>55</v>
       </c>
@@ -12551,7 +12551,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="455" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A455" s="25" t="s">
         <v>55</v>
       </c>
@@ -12565,7 +12565,7 @@
       <c r="E455" s="51"/>
       <c r="F455" s="51"/>
     </row>
-    <row r="456" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A456" s="25" t="s">
         <v>55</v>
       </c>
@@ -12583,7 +12583,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="457" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A457" s="25" t="s">
         <v>55</v>
       </c>
@@ -12601,7 +12601,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="458" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A458" s="25" t="s">
         <v>55</v>
       </c>
@@ -12615,7 +12615,7 @@
       <c r="E458" s="51"/>
       <c r="F458" s="51"/>
     </row>
-    <row r="459" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A459" s="25" t="s">
         <v>55</v>
       </c>
@@ -12633,7 +12633,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="460" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A460" s="25" t="s">
         <v>55</v>
       </c>
@@ -12647,7 +12647,7 @@
       <c r="E460" s="41"/>
       <c r="F460" s="51"/>
     </row>
-    <row r="461" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A461" s="25" t="s">
         <v>55</v>
       </c>
@@ -12663,7 +12663,7 @@
         <v>1283</v>
       </c>
     </row>
-    <row r="462" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A462" s="25" t="s">
         <v>55</v>
       </c>
@@ -12679,7 +12679,7 @@
         <v>1283</v>
       </c>
     </row>
-    <row r="463" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A463" s="25" t="s">
         <v>55</v>
       </c>
@@ -12695,7 +12695,7 @@
         <v>1283</v>
       </c>
     </row>
-    <row r="464" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A464" s="25" t="s">
         <v>55</v>
       </c>
@@ -12709,7 +12709,7 @@
       <c r="E464" s="41"/>
       <c r="F464" s="51"/>
     </row>
-    <row r="465" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A465" s="25" t="s">
         <v>55</v>
       </c>
@@ -12723,7 +12723,7 @@
       <c r="E465" s="32"/>
       <c r="F465" s="25"/>
     </row>
-    <row r="466" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A466" s="25" t="s">
         <v>55</v>
       </c>
@@ -12737,7 +12737,7 @@
       <c r="E466" s="32"/>
       <c r="F466" s="25"/>
     </row>
-    <row r="467" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A467" s="25" t="s">
         <v>55</v>
       </c>
@@ -12751,7 +12751,7 @@
       <c r="E467" s="41"/>
       <c r="F467" s="51"/>
     </row>
-    <row r="468" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A468" s="25" t="s">
         <v>55</v>
       </c>
@@ -12765,7 +12765,7 @@
       <c r="E468" s="51"/>
       <c r="F468" s="51"/>
     </row>
-    <row r="469" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:6" ht="45" x14ac:dyDescent="0.3">
       <c r="A469" s="25" t="s">
         <v>55</v>
       </c>
@@ -12783,7 +12783,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="470" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A470" s="25" t="s">
         <v>55</v>
       </c>
@@ -12801,7 +12801,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="471" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A471" s="25" t="s">
         <v>55</v>
       </c>
@@ -12819,7 +12819,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="472" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A472" s="25" t="s">
         <v>55</v>
       </c>
@@ -12833,7 +12833,7 @@
       <c r="E472" s="51"/>
       <c r="F472" s="51"/>
     </row>
-    <row r="473" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A473" s="25" t="s">
         <v>55</v>
       </c>
@@ -12847,7 +12847,7 @@
       <c r="E473" s="51"/>
       <c r="F473" s="51"/>
     </row>
-    <row r="474" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A474" s="25" t="s">
         <v>55</v>
       </c>
@@ -12865,7 +12865,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="475" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A475" s="25" t="s">
         <v>55</v>
       </c>
@@ -12883,7 +12883,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="476" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A476" s="25" t="s">
         <v>55</v>
       </c>
@@ -12901,7 +12901,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="477" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A477" s="25" t="s">
         <v>55</v>
       </c>
@@ -12919,7 +12919,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="478" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A478" s="25" t="s">
         <v>55</v>
       </c>
@@ -12935,7 +12935,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="479" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A479" s="25" t="s">
         <v>55</v>
       </c>
@@ -12953,7 +12953,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="480" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A480" s="25" t="s">
         <v>55</v>
       </c>
@@ -12971,7 +12971,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="481" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A481" s="25" t="s">
         <v>55</v>
       </c>
@@ -12985,7 +12985,7 @@
       <c r="E481" s="51"/>
       <c r="F481" s="51"/>
     </row>
-    <row r="482" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A482" s="25" t="s">
         <v>55</v>
       </c>
@@ -13003,7 +13003,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="483" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A483" s="25" t="s">
         <v>55</v>
       </c>
@@ -13021,7 +13021,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="484" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A484" s="25" t="s">
         <v>55</v>
       </c>
@@ -13035,7 +13035,7 @@
       <c r="E484" s="51"/>
       <c r="F484" s="51"/>
     </row>
-    <row r="485" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A485" s="25" t="s">
         <v>55</v>
       </c>
@@ -13053,7 +13053,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="486" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A486" s="25" t="s">
         <v>55</v>
       </c>
@@ -13071,7 +13071,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="487" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A487" s="25" t="s">
         <v>55</v>
       </c>
@@ -13089,7 +13089,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="488" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A488" s="25" t="s">
         <v>55</v>
       </c>
@@ -13107,7 +13107,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="489" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A489" s="25" t="s">
         <v>55</v>
       </c>
@@ -13138,18 +13138,18 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.5" style="2" customWidth="1"/>
-    <col min="2" max="2" width="45.125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="16.625" style="2" customWidth="1"/>
-    <col min="4" max="5" width="81.375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="45.09765625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="16.59765625" style="2" customWidth="1"/>
+    <col min="4" max="5" width="81.3984375" style="2" customWidth="1"/>
     <col min="6" max="7" width="10.5" style="2" customWidth="1"/>
-    <col min="8" max="1025" width="8.875" style="2" customWidth="1"/>
+    <col min="8" max="1025" width="8.8984375" style="2" customWidth="1"/>
     <col min="1026" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>689</v>
       </c>
@@ -13172,7 +13172,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>57</v>
       </c>
@@ -13191,7 +13191,7 @@
       </c>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>60</v>
       </c>
@@ -13210,7 +13210,7 @@
       </c>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>63</v>
       </c>
@@ -13229,7 +13229,7 @@
       </c>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:7" ht="126" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="140.4" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>66</v>
       </c>
@@ -13248,7 +13248,7 @@
       </c>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>703</v>
       </c>
@@ -13281,24 +13281,24 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:AMK56"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.5" style="17" customWidth="1"/>
-    <col min="2" max="2" width="44.875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="23.875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="65.125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="42.75" style="2" customWidth="1"/>
-    <col min="6" max="6" width="22.875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="44.8984375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="23.8984375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="65.09765625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="42.69921875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="22.8984375" style="2" customWidth="1"/>
     <col min="7" max="7" width="20" style="2" customWidth="1"/>
-    <col min="8" max="1025" width="8.875" style="2" customWidth="1"/>
+    <col min="8" max="1025" width="8.8984375" style="2" customWidth="1"/>
     <col min="1026" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1025" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1025" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="26" t="s">
         <v>689</v>
       </c>
@@ -14339,7 +14339,7 @@
       <c r="AMJ1" s="11"/>
       <c r="AMK1" s="11"/>
     </row>
-    <row r="2" spans="1:1025" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1025" x14ac:dyDescent="0.3">
       <c r="A2" s="27" t="s">
         <v>69</v>
       </c>
@@ -14358,7 +14358,7 @@
       </c>
       <c r="G2" s="18"/>
     </row>
-    <row r="3" spans="1:1025" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1025" x14ac:dyDescent="0.3">
       <c r="A3" s="27" t="s">
         <v>72</v>
       </c>
@@ -14377,7 +14377,7 @@
       </c>
       <c r="G3" s="18"/>
     </row>
-    <row r="4" spans="1:1025" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1025" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A4" s="27" t="s">
         <v>75</v>
       </c>
@@ -14396,7 +14396,7 @@
       </c>
       <c r="G4" s="18"/>
     </row>
-    <row r="5" spans="1:1025" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1025" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A5" s="27" t="s">
         <v>77</v>
       </c>
@@ -14415,7 +14415,7 @@
       </c>
       <c r="G5" s="18"/>
     </row>
-    <row r="6" spans="1:1025" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1025" x14ac:dyDescent="0.3">
       <c r="A6" s="27" t="s">
         <v>79</v>
       </c>
@@ -14434,7 +14434,7 @@
       </c>
       <c r="G6" s="18"/>
     </row>
-    <row r="7" spans="1:1025" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1025" x14ac:dyDescent="0.3">
       <c r="A7" s="27" t="s">
         <v>81</v>
       </c>
@@ -14453,7 +14453,7 @@
       </c>
       <c r="G7" s="18"/>
     </row>
-    <row r="8" spans="1:1025" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1025" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A8" s="27" t="s">
         <v>715</v>
       </c>
@@ -14472,7 +14472,7 @@
       </c>
       <c r="G8" s="18"/>
     </row>
-    <row r="9" spans="1:1025" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1025" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A9" s="27" t="s">
         <v>90</v>
       </c>
@@ -14491,7 +14491,7 @@
       </c>
       <c r="G9" s="18"/>
     </row>
-    <row r="10" spans="1:1025" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1025" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A10" s="27" t="s">
         <v>108</v>
       </c>
@@ -14510,7 +14510,7 @@
       </c>
       <c r="G10" s="18"/>
     </row>
-    <row r="11" spans="1:1025" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1025" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A11" s="27" t="s">
         <v>93</v>
       </c>
@@ -14529,7 +14529,7 @@
       </c>
       <c r="G11" s="18"/>
     </row>
-    <row r="12" spans="1:1025" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1025" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A12" s="27" t="s">
         <v>96</v>
       </c>
@@ -14548,7 +14548,7 @@
       </c>
       <c r="G12" s="18"/>
     </row>
-    <row r="13" spans="1:1025" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1025" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A13" s="27" t="s">
         <v>99</v>
       </c>
@@ -14567,7 +14567,7 @@
       </c>
       <c r="G13" s="18"/>
     </row>
-    <row r="14" spans="1:1025" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1025" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A14" s="27" t="s">
         <v>102</v>
       </c>
@@ -14586,7 +14586,7 @@
       </c>
       <c r="G14" s="18"/>
     </row>
-    <row r="15" spans="1:1025" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1025" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A15" s="27" t="s">
         <v>105</v>
       </c>
@@ -14605,7 +14605,7 @@
       </c>
       <c r="G15" s="18"/>
     </row>
-    <row r="16" spans="1:1025" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1025" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A16" s="27" t="s">
         <v>111</v>
       </c>
@@ -14624,7 +14624,7 @@
       </c>
       <c r="G16" s="18"/>
     </row>
-    <row r="17" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A17" s="27" t="s">
         <v>113</v>
       </c>
@@ -14647,7 +14647,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A18" s="27" t="s">
         <v>728</v>
       </c>
@@ -14666,7 +14666,7 @@
       </c>
       <c r="G18" s="18"/>
     </row>
-    <row r="19" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A19" s="26" t="s">
         <v>126</v>
       </c>
@@ -14685,7 +14685,7 @@
       </c>
       <c r="G19" s="18"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="27" t="s">
         <v>129</v>
       </c>
@@ -14704,7 +14704,7 @@
       </c>
       <c r="G20" s="18"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="27" t="s">
         <v>132</v>
       </c>
@@ -14723,7 +14723,7 @@
       </c>
       <c r="G21" s="18"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="27" t="s">
         <v>135</v>
       </c>
@@ -14742,7 +14742,7 @@
       </c>
       <c r="G22" s="18"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="27" t="s">
         <v>138</v>
       </c>
@@ -14761,7 +14761,7 @@
       </c>
       <c r="G23" s="18"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="27" t="s">
         <v>84</v>
       </c>
@@ -14780,7 +14780,7 @@
       </c>
       <c r="G24" s="18"/>
     </row>
-    <row r="25" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A25" s="27" t="s">
         <v>118</v>
       </c>
@@ -14799,7 +14799,7 @@
       </c>
       <c r="G25" s="18"/>
     </row>
-    <row r="26" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A26" s="27" t="s">
         <v>174</v>
       </c>
@@ -14818,7 +14818,7 @@
       </c>
       <c r="G26" s="18"/>
     </row>
-    <row r="27" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A27" s="27" t="s">
         <v>177</v>
       </c>
@@ -14837,7 +14837,7 @@
       </c>
       <c r="G27" s="18"/>
     </row>
-    <row r="28" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A28" s="27" t="s">
         <v>153</v>
       </c>
@@ -14856,7 +14856,7 @@
       </c>
       <c r="G28" s="18"/>
     </row>
-    <row r="29" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A29" s="27" t="s">
         <v>156</v>
       </c>
@@ -14875,7 +14875,7 @@
       </c>
       <c r="G29" s="18"/>
     </row>
-    <row r="30" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A30" s="27" t="s">
         <v>159</v>
       </c>
@@ -14894,7 +14894,7 @@
       </c>
       <c r="G30" s="18"/>
     </row>
-    <row r="31" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A31" s="27" t="s">
         <v>162</v>
       </c>
@@ -14913,7 +14913,7 @@
       </c>
       <c r="G31" s="18"/>
     </row>
-    <row r="32" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A32" s="27" t="s">
         <v>165</v>
       </c>
@@ -14932,7 +14932,7 @@
       </c>
       <c r="G32" s="18"/>
     </row>
-    <row r="33" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A33" s="27" t="s">
         <v>171</v>
       </c>
@@ -14951,7 +14951,7 @@
       </c>
       <c r="G33" s="18"/>
     </row>
-    <row r="34" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A34" s="27" t="s">
         <v>210</v>
       </c>
@@ -14970,7 +14970,7 @@
       </c>
       <c r="G34" s="18"/>
     </row>
-    <row r="35" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A35" s="27" t="s">
         <v>213</v>
       </c>
@@ -14989,7 +14989,7 @@
       </c>
       <c r="G35" s="18"/>
     </row>
-    <row r="36" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A36" s="27" t="s">
         <v>216</v>
       </c>
@@ -15008,7 +15008,7 @@
       </c>
       <c r="G36" s="18"/>
     </row>
-    <row r="37" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A37" s="27" t="s">
         <v>219</v>
       </c>
@@ -15027,7 +15027,7 @@
       </c>
       <c r="G37" s="35"/>
     </row>
-    <row r="38" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A38" s="27" t="s">
         <v>459</v>
       </c>
@@ -15046,7 +15046,7 @@
       </c>
       <c r="G38" s="18"/>
     </row>
-    <row r="39" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A39" s="27" t="s">
         <v>232</v>
       </c>
@@ -15065,7 +15065,7 @@
       </c>
       <c r="G39" s="18"/>
     </row>
-    <row r="40" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A40" s="27" t="s">
         <v>226</v>
       </c>
@@ -15084,7 +15084,7 @@
       </c>
       <c r="G40" s="18"/>
     </row>
-    <row r="41" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A41" s="27" t="s">
         <v>224</v>
       </c>
@@ -15103,7 +15103,7 @@
       </c>
       <c r="G41" s="18"/>
     </row>
-    <row r="42" spans="1:7" ht="63" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A42" s="27" t="s">
         <v>231</v>
       </c>
@@ -15122,7 +15122,7 @@
       </c>
       <c r="G42" s="18"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="62" t="s">
         <v>1063</v>
       </c>
@@ -15141,7 +15141,7 @@
       </c>
       <c r="G43" s="31"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="62" t="s">
         <v>1064</v>
       </c>
@@ -15160,7 +15160,7 @@
       </c>
       <c r="G44" s="31"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="62" t="s">
         <v>1065</v>
       </c>
@@ -15179,7 +15179,7 @@
       </c>
       <c r="G45" s="31"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="62" t="s">
         <v>1066</v>
       </c>
@@ -15198,7 +15198,7 @@
       </c>
       <c r="G46" s="31"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="62" t="s">
         <v>1067</v>
       </c>
@@ -15217,7 +15217,7 @@
       </c>
       <c r="G47" s="31"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="62" t="s">
         <v>1068</v>
       </c>
@@ -15236,7 +15236,7 @@
       </c>
       <c r="G48" s="31"/>
     </row>
-    <row r="49" spans="1:1025" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1025" x14ac:dyDescent="0.3">
       <c r="A49" s="62" t="s">
         <v>1069</v>
       </c>
@@ -15255,7 +15255,7 @@
       </c>
       <c r="G49" s="31"/>
     </row>
-    <row r="50" spans="1:1025" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1025" x14ac:dyDescent="0.3">
       <c r="A50" s="62" t="s">
         <v>1070</v>
       </c>
@@ -15274,7 +15274,7 @@
       </c>
       <c r="G50" s="31"/>
     </row>
-    <row r="51" spans="1:1025" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1025" x14ac:dyDescent="0.3">
       <c r="A51" s="62" t="s">
         <v>1071</v>
       </c>
@@ -15293,7 +15293,7 @@
       </c>
       <c r="G51" s="31"/>
     </row>
-    <row r="52" spans="1:1025" ht="30" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1025" x14ac:dyDescent="0.3">
       <c r="A52" s="62" t="s">
         <v>1072</v>
       </c>
@@ -15312,7 +15312,7 @@
       </c>
       <c r="G52" s="31"/>
     </row>
-    <row r="53" spans="1:1025" ht="30" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1025" x14ac:dyDescent="0.3">
       <c r="A53" s="62" t="s">
         <v>1073</v>
       </c>
@@ -15331,7 +15331,7 @@
       </c>
       <c r="G53" s="31"/>
     </row>
-    <row r="54" spans="1:1025" ht="30" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1025" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A54" s="62" t="s">
         <v>1102</v>
       </c>
@@ -15350,7 +15350,7 @@
       </c>
       <c r="G54" s="31"/>
     </row>
-    <row r="55" spans="1:1025" ht="30" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1025" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A55" s="62" t="s">
         <v>1104</v>
       </c>
@@ -15369,7 +15369,7 @@
       </c>
       <c r="G55" s="31"/>
     </row>
-    <row r="56" spans="1:1025" s="21" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1025" s="21" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A56" s="62" t="s">
         <v>1182</v>
       </c>
@@ -16422,19 +16422,19 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.875" style="17" customWidth="1"/>
-    <col min="2" max="2" width="47.375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="19.875" style="2" customWidth="1"/>
-    <col min="4" max="5" width="80.875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="10.8984375" style="17" customWidth="1"/>
+    <col min="2" max="2" width="47.3984375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="19.8984375" style="2" customWidth="1"/>
+    <col min="4" max="5" width="80.8984375" style="2" customWidth="1"/>
     <col min="6" max="7" width="10.5" style="2" customWidth="1"/>
-    <col min="8" max="256" width="8.875" style="2" customWidth="1"/>
-    <col min="257" max="1025" width="8.875" style="7" customWidth="1"/>
+    <col min="8" max="256" width="8.8984375" style="2" customWidth="1"/>
+    <col min="257" max="1025" width="8.8984375" style="7" customWidth="1"/>
     <col min="1026" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:256" s="12" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:256" s="12" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="27" t="s">
         <v>689</v>
       </c>
@@ -16706,7 +16706,7 @@
       <c r="IU1" s="11"/>
       <c r="IV1" s="11"/>
     </row>
-    <row r="2" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="27" t="s">
         <v>762</v>
       </c>
@@ -16725,7 +16725,7 @@
       </c>
       <c r="G2" s="18"/>
     </row>
-    <row r="3" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="27" t="s">
         <v>765</v>
       </c>
@@ -16744,7 +16744,7 @@
       </c>
       <c r="G3" s="18"/>
     </row>
-    <row r="4" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="27" t="s">
         <v>767</v>
       </c>
@@ -16763,7 +16763,7 @@
       </c>
       <c r="G4" s="18"/>
     </row>
-    <row r="5" spans="1:256" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:256" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="27" t="s">
         <v>769</v>
       </c>
@@ -16782,7 +16782,7 @@
       </c>
       <c r="G5" s="18"/>
     </row>
-    <row r="6" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="27" t="s">
         <v>771</v>
       </c>
@@ -16801,7 +16801,7 @@
       </c>
       <c r="G6" s="18"/>
     </row>
-    <row r="7" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="27" t="s">
         <v>774</v>
       </c>
@@ -16820,7 +16820,7 @@
       </c>
       <c r="G7" s="18"/>
     </row>
-    <row r="8" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="27" t="s">
         <v>777</v>
       </c>
@@ -16839,7 +16839,7 @@
       </c>
       <c r="G8" s="18"/>
     </row>
-    <row r="9" spans="1:256" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:256" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="27" t="s">
         <v>780</v>
       </c>
@@ -16858,7 +16858,7 @@
       </c>
       <c r="G9" s="18"/>
     </row>
-    <row r="10" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="27" t="s">
         <v>783</v>
       </c>
@@ -16877,7 +16877,7 @@
       </c>
       <c r="G10" s="18"/>
     </row>
-    <row r="11" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="27" t="s">
         <v>785</v>
       </c>
@@ -16896,7 +16896,7 @@
       </c>
       <c r="G11" s="18"/>
     </row>
-    <row r="12" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="27" t="s">
         <v>787</v>
       </c>
@@ -16915,7 +16915,7 @@
       </c>
       <c r="G12" s="18"/>
     </row>
-    <row r="13" spans="1:256" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:256" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="27" t="s">
         <v>790</v>
       </c>
@@ -16934,7 +16934,7 @@
       </c>
       <c r="G13" s="18"/>
     </row>
-    <row r="14" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="27" t="s">
         <v>792</v>
       </c>
@@ -16953,7 +16953,7 @@
       </c>
       <c r="G14" s="18"/>
     </row>
-    <row r="15" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="27" t="s">
         <v>794</v>
       </c>
@@ -16972,7 +16972,7 @@
       </c>
       <c r="G15" s="18"/>
     </row>
-    <row r="16" spans="1:256" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:256" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="26" t="s">
         <v>987</v>
       </c>
@@ -16991,7 +16991,7 @@
       </c>
       <c r="G16" s="18"/>
     </row>
-    <row r="17" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="26" t="s">
         <v>981</v>
       </c>
@@ -17010,7 +17010,7 @@
       </c>
       <c r="G17" s="18"/>
     </row>
-    <row r="18" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="27" t="s">
         <v>796</v>
       </c>
@@ -17029,7 +17029,7 @@
       </c>
       <c r="G18" s="18"/>
     </row>
-    <row r="19" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="27" t="s">
         <v>798</v>
       </c>
@@ -17048,7 +17048,7 @@
       </c>
       <c r="G19" s="18"/>
     </row>
-    <row r="20" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="27" t="s">
         <v>800</v>
       </c>
@@ -17067,7 +17067,7 @@
       </c>
       <c r="G20" s="18"/>
     </row>
-    <row r="21" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="27" t="s">
         <v>802</v>
       </c>
@@ -17086,7 +17086,7 @@
       </c>
       <c r="G21" s="18"/>
     </row>
-    <row r="22" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="27" t="s">
         <v>805</v>
       </c>
@@ -17105,7 +17105,7 @@
       </c>
       <c r="G22" s="18"/>
     </row>
-    <row r="23" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="27" t="s">
         <v>807</v>
       </c>
@@ -17124,7 +17124,7 @@
       </c>
       <c r="G23" s="18"/>
     </row>
-    <row r="24" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="27" t="s">
         <v>809</v>
       </c>
@@ -17143,7 +17143,7 @@
       </c>
       <c r="G24" s="18"/>
     </row>
-    <row r="25" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="27" t="s">
         <v>811</v>
       </c>
@@ -17162,7 +17162,7 @@
       </c>
       <c r="G25" s="18"/>
     </row>
-    <row r="26" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="27" t="s">
         <v>814</v>
       </c>
@@ -17181,7 +17181,7 @@
       </c>
       <c r="G26" s="18"/>
     </row>
-    <row r="27" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="27" t="s">
         <v>816</v>
       </c>
@@ -17200,7 +17200,7 @@
       </c>
       <c r="G27" s="18"/>
     </row>
-    <row r="28" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="27" t="s">
         <v>819</v>
       </c>
@@ -17219,7 +17219,7 @@
       </c>
       <c r="G28" s="18"/>
     </row>
-    <row r="29" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="27" t="s">
         <v>821</v>
       </c>
@@ -17238,7 +17238,7 @@
       </c>
       <c r="G29" s="18"/>
     </row>
-    <row r="30" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="27" t="s">
         <v>823</v>
       </c>
@@ -17257,7 +17257,7 @@
       </c>
       <c r="G30" s="18"/>
     </row>
-    <row r="31" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="27" t="s">
         <v>825</v>
       </c>
@@ -17276,7 +17276,7 @@
       </c>
       <c r="G31" s="18"/>
     </row>
-    <row r="32" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="27" t="s">
         <v>828</v>
       </c>
@@ -17295,7 +17295,7 @@
       </c>
       <c r="G32" s="18"/>
     </row>
-    <row r="33" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="27" t="s">
         <v>831</v>
       </c>
@@ -17314,7 +17314,7 @@
       </c>
       <c r="G33" s="18"/>
     </row>
-    <row r="34" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="27" t="s">
         <v>834</v>
       </c>
@@ -17333,7 +17333,7 @@
       </c>
       <c r="G34" s="18"/>
     </row>
-    <row r="35" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="27" t="s">
         <v>837</v>
       </c>
@@ -17352,7 +17352,7 @@
       </c>
       <c r="G35" s="18"/>
     </row>
-    <row r="36" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="27" t="s">
         <v>840</v>
       </c>
@@ -17371,7 +17371,7 @@
       </c>
       <c r="G36" s="18"/>
     </row>
-    <row r="37" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="27" t="s">
         <v>843</v>
       </c>
@@ -17390,7 +17390,7 @@
       </c>
       <c r="G37" s="18"/>
     </row>
-    <row r="38" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="27" t="s">
         <v>846</v>
       </c>
@@ -17409,7 +17409,7 @@
       </c>
       <c r="G38" s="18"/>
     </row>
-    <row r="39" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="27" t="s">
         <v>849</v>
       </c>
@@ -17428,7 +17428,7 @@
       </c>
       <c r="G39" s="18"/>
     </row>
-    <row r="40" spans="1:7" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="27" t="s">
         <v>852</v>
       </c>
@@ -17447,7 +17447,7 @@
       <c r="F40" s="18"/>
       <c r="G40" s="18"/>
     </row>
-    <row r="41" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="27" t="s">
         <v>856</v>
       </c>
@@ -17464,7 +17464,7 @@
       <c r="F41" s="18"/>
       <c r="G41" s="18"/>
     </row>
-    <row r="42" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="27" t="s">
         <v>859</v>
       </c>
@@ -17481,7 +17481,7 @@
       <c r="F42" s="18"/>
       <c r="G42" s="18"/>
     </row>
-    <row r="43" spans="1:7" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="27" t="s">
         <v>862</v>
       </c>
@@ -17500,7 +17500,7 @@
       <c r="F43" s="18"/>
       <c r="G43" s="18"/>
     </row>
-    <row r="44" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="27" t="s">
         <v>866</v>
       </c>
@@ -17519,7 +17519,7 @@
       <c r="F44" s="18"/>
       <c r="G44" s="18"/>
     </row>
-    <row r="45" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="27" t="s">
         <v>869</v>
       </c>
@@ -17538,7 +17538,7 @@
       <c r="F45" s="18"/>
       <c r="G45" s="18"/>
     </row>
-    <row r="46" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="27" t="s">
         <v>873</v>
       </c>
@@ -17555,7 +17555,7 @@
       <c r="F46" s="18"/>
       <c r="G46" s="18"/>
     </row>
-    <row r="47" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="27" t="s">
         <v>876</v>
       </c>
@@ -17572,7 +17572,7 @@
       <c r="F47" s="18"/>
       <c r="G47" s="18"/>
     </row>
-    <row r="48" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="27" t="s">
         <v>879</v>
       </c>
@@ -17589,7 +17589,7 @@
       <c r="F48" s="18"/>
       <c r="G48" s="18"/>
     </row>
-    <row r="49" spans="1:256" s="21" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:256" s="21" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A49" s="26" t="s">
         <v>882</v>
       </c>
@@ -17855,7 +17855,7 @@
       <c r="IU49" s="20"/>
       <c r="IV49" s="20"/>
     </row>
-    <row r="50" spans="1:256" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:256" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A50" s="26" t="s">
         <v>1151</v>
       </c>
@@ -17890,21 +17890,21 @@
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.5" style="17" customWidth="1"/>
     <col min="2" max="2" width="33.5" style="2" customWidth="1"/>
-    <col min="3" max="3" width="14.625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="44.375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="41.375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="12.625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="14.59765625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="44.3984375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="41.3984375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="12.59765625" style="2" customWidth="1"/>
     <col min="7" max="7" width="29" style="2" customWidth="1"/>
-    <col min="8" max="256" width="8.875" style="2" customWidth="1"/>
-    <col min="257" max="1025" width="8.875" style="7" customWidth="1"/>
+    <col min="8" max="256" width="8.8984375" style="2" customWidth="1"/>
+    <col min="257" max="1025" width="8.8984375" style="7" customWidth="1"/>
     <col min="1026" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:256" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:256" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="34" t="s">
         <v>689</v>
       </c>
@@ -18176,7 +18176,7 @@
       <c r="IU1" s="11"/>
       <c r="IV1" s="11"/>
     </row>
-    <row r="2" spans="1:256" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:256" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A2" s="34" t="s">
         <v>375</v>
       </c>
@@ -18195,7 +18195,7 @@
       </c>
       <c r="G2" s="18"/>
     </row>
-    <row r="3" spans="1:256" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:256" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A3" s="34" t="s">
         <v>378</v>
       </c>
@@ -18214,7 +18214,7 @@
       </c>
       <c r="G3" s="18"/>
     </row>
-    <row r="4" spans="1:256" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:256" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A4" s="34" t="s">
         <v>381</v>
       </c>
@@ -18233,7 +18233,7 @@
       </c>
       <c r="G4" s="18"/>
     </row>
-    <row r="5" spans="1:256" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:256" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A5" s="34" t="s">
         <v>395</v>
       </c>
@@ -18252,7 +18252,7 @@
       </c>
       <c r="G5" s="18"/>
     </row>
-    <row r="6" spans="1:256" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:256" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A6" s="34" t="s">
         <v>384</v>
       </c>
@@ -18271,7 +18271,7 @@
       </c>
       <c r="G6" s="18"/>
     </row>
-    <row r="7" spans="1:256" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:256" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A7" s="34" t="s">
         <v>387</v>
       </c>
@@ -18290,7 +18290,7 @@
       </c>
       <c r="G7" s="18"/>
     </row>
-    <row r="8" spans="1:256" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:256" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A8" s="34" t="s">
         <v>390</v>
       </c>
@@ -18309,7 +18309,7 @@
       </c>
       <c r="G8" s="18"/>
     </row>
-    <row r="9" spans="1:256" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:256" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A9" s="34" t="s">
         <v>393</v>
       </c>
@@ -18328,7 +18328,7 @@
       </c>
       <c r="G9" s="18"/>
     </row>
-    <row r="10" spans="1:256" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:256" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A10" s="34" t="s">
         <v>398</v>
       </c>
@@ -18347,7 +18347,7 @@
       </c>
       <c r="G10" s="18"/>
     </row>
-    <row r="11" spans="1:256" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:256" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A11" s="62" t="s">
         <v>1252</v>
       </c>
@@ -18366,7 +18366,7 @@
       </c>
       <c r="G11" s="18"/>
     </row>
-    <row r="12" spans="1:256" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:256" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A12" s="34" t="s">
         <v>902</v>
       </c>
@@ -18385,7 +18385,7 @@
       </c>
       <c r="G12" s="18"/>
     </row>
-    <row r="13" spans="1:256" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:256" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A13" s="34" t="s">
         <v>401</v>
       </c>
@@ -18406,7 +18406,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="14" spans="1:256" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:256" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A14" s="34" t="s">
         <v>403</v>
       </c>
@@ -18425,7 +18425,7 @@
       </c>
       <c r="G14" s="18"/>
     </row>
-    <row r="15" spans="1:256" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:256" ht="109.2" x14ac:dyDescent="0.3">
       <c r="A15" s="34" t="s">
         <v>406</v>
       </c>
@@ -18445,7 +18445,7 @@
         <v>1145</v>
       </c>
     </row>
-    <row r="16" spans="1:256" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:256" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A16" s="34" t="s">
         <v>436</v>
       </c>
@@ -18466,7 +18466,7 @@
       </c>
       <c r="G16" s="18"/>
     </row>
-    <row r="17" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A17" s="34" t="s">
         <v>438</v>
       </c>
@@ -18489,7 +18489,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A18" s="34" t="s">
         <v>464</v>
       </c>
@@ -18508,7 +18508,7 @@
       </c>
       <c r="G18" s="18"/>
     </row>
-    <row r="19" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A19" s="34" t="s">
         <v>467</v>
       </c>
@@ -18527,7 +18527,7 @@
       </c>
       <c r="G19" s="18"/>
     </row>
-    <row r="20" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A20" s="34" t="s">
         <v>470</v>
       </c>
@@ -18546,7 +18546,7 @@
       </c>
       <c r="G20" s="18"/>
     </row>
-    <row r="21" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A21" s="34" t="s">
         <v>473</v>
       </c>
@@ -18565,7 +18565,7 @@
       </c>
       <c r="G21" s="18"/>
     </row>
-    <row r="22" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A22" s="34" t="s">
         <v>477</v>
       </c>
@@ -18584,7 +18584,7 @@
       </c>
       <c r="G22" s="18"/>
     </row>
-    <row r="23" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A23" s="34" t="s">
         <v>424</v>
       </c>
@@ -18601,7 +18601,7 @@
       <c r="F23" s="18"/>
       <c r="G23" s="18"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="62" t="s">
         <v>1031</v>
       </c>
@@ -18618,7 +18618,7 @@
       <c r="F24" s="31"/>
       <c r="G24" s="31"/>
     </row>
-    <row r="25" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A25" s="62" t="s">
         <v>1035</v>
       </c>
@@ -18635,7 +18635,7 @@
       <c r="F25" s="31"/>
       <c r="G25" s="31"/>
     </row>
-    <row r="26" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A26" s="62" t="s">
         <v>1037</v>
       </c>
@@ -18652,7 +18652,7 @@
       <c r="F26" s="31"/>
       <c r="G26" s="31"/>
     </row>
-    <row r="27" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A27" s="62" t="s">
         <v>1040</v>
       </c>
@@ -18669,7 +18669,7 @@
       <c r="F27" s="31"/>
       <c r="G27" s="31"/>
     </row>
-    <row r="28" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A28" s="62" t="s">
         <v>1043</v>
       </c>
@@ -18686,7 +18686,7 @@
       <c r="F28" s="31"/>
       <c r="G28" s="31"/>
     </row>
-    <row r="29" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A29" s="62" t="s">
         <v>1046</v>
       </c>
@@ -18703,7 +18703,7 @@
       <c r="F29" s="31"/>
       <c r="G29" s="31"/>
     </row>
-    <row r="30" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A30" s="62" t="s">
         <v>1049</v>
       </c>
@@ -18738,20 +18738,20 @@
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="54.625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="19.875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="75.625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="132.375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="10.8984375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="54.59765625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="19.8984375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="75.59765625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="132.3984375" style="2" customWidth="1"/>
     <col min="6" max="7" width="10.5" style="2" customWidth="1"/>
-    <col min="8" max="256" width="8.875" style="2" customWidth="1"/>
-    <col min="257" max="1025" width="8.875" style="7" customWidth="1"/>
+    <col min="8" max="256" width="8.8984375" style="2" customWidth="1"/>
+    <col min="257" max="1025" width="8.8984375" style="7" customWidth="1"/>
     <col min="1026" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:256" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:256" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>689</v>
       </c>
@@ -18774,7 +18774,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="2" spans="1:256" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:256" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>925</v>
       </c>
@@ -19042,7 +19042,7 @@
       <c r="IU2" s="22"/>
       <c r="IV2" s="22"/>
     </row>
-    <row r="3" spans="1:256" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:256" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>928</v>
       </c>
@@ -19061,7 +19061,7 @@
       </c>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:256" ht="63" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:256" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>930</v>
       </c>
@@ -19098,21 +19098,21 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.5" style="13" customWidth="1"/>
-    <col min="2" max="2" width="53.375" style="8" customWidth="1"/>
+    <col min="2" max="2" width="53.3984375" style="8" customWidth="1"/>
     <col min="3" max="3" width="21.5" style="8" customWidth="1"/>
     <col min="4" max="4" width="44.5" style="8" customWidth="1"/>
-    <col min="5" max="5" width="58.25" style="8" customWidth="1"/>
-    <col min="6" max="6" width="11.875" style="8" customWidth="1"/>
+    <col min="5" max="5" width="58.19921875" style="8" customWidth="1"/>
+    <col min="6" max="6" width="11.8984375" style="8" customWidth="1"/>
     <col min="7" max="7" width="44.5" style="8" customWidth="1"/>
-    <col min="8" max="256" width="8.875" style="8" customWidth="1"/>
-    <col min="257" max="1025" width="8.875" style="9" customWidth="1"/>
+    <col min="8" max="256" width="8.8984375" style="8" customWidth="1"/>
+    <col min="257" max="1025" width="8.8984375" style="9" customWidth="1"/>
     <col min="1026" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:256" s="15" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:256" s="15" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="27" t="s">
         <v>689</v>
       </c>
@@ -19384,7 +19384,7 @@
       <c r="IU1" s="14"/>
       <c r="IV1" s="14"/>
     </row>
-    <row r="2" spans="1:256" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:256" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="27" t="s">
         <v>932</v>
       </c>
@@ -19405,7 +19405,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="3" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="27" t="s">
         <v>568</v>
       </c>
@@ -19424,7 +19424,7 @@
       </c>
       <c r="G3" s="18"/>
     </row>
-    <row r="4" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="27" t="s">
         <v>501</v>
       </c>
@@ -19443,7 +19443,7 @@
       </c>
       <c r="G4" s="18"/>
     </row>
-    <row r="5" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="27" t="s">
         <v>504</v>
       </c>
@@ -19462,7 +19462,7 @@
       </c>
       <c r="G5" s="18"/>
     </row>
-    <row r="6" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="27" t="s">
         <v>507</v>
       </c>
@@ -19481,7 +19481,7 @@
       </c>
       <c r="G6" s="18"/>
     </row>
-    <row r="7" spans="1:256" ht="126" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:256" ht="124.8" x14ac:dyDescent="0.3">
       <c r="A7" s="27" t="s">
         <v>510</v>
       </c>
@@ -19502,7 +19502,7 @@
       </c>
       <c r="G7" s="19"/>
     </row>
-    <row r="8" spans="1:256" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:256" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A8" s="27" t="s">
         <v>515</v>
       </c>
@@ -19521,7 +19521,7 @@
       </c>
       <c r="G8" s="18"/>
     </row>
-    <row r="9" spans="1:256" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:256" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="27" t="s">
         <v>518</v>
       </c>
@@ -19540,7 +19540,7 @@
       </c>
       <c r="G9" s="18"/>
     </row>
-    <row r="10" spans="1:256" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:256" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="27" t="s">
         <v>520</v>
       </c>
@@ -19559,7 +19559,7 @@
       </c>
       <c r="G10" s="18"/>
     </row>
-    <row r="11" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="27" t="s">
         <v>523</v>
       </c>
@@ -19578,7 +19578,7 @@
       </c>
       <c r="G11" s="18"/>
     </row>
-    <row r="12" spans="1:256" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:256" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="27" t="s">
         <v>526</v>
       </c>
@@ -19597,7 +19597,7 @@
       </c>
       <c r="G12" s="18"/>
     </row>
-    <row r="13" spans="1:256" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:256" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="27" t="s">
         <v>529</v>
       </c>
@@ -19620,7 +19620,7 @@
         <v>1282</v>
       </c>
     </row>
-    <row r="14" spans="1:256" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:256" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="27" t="s">
         <v>537</v>
       </c>
@@ -19641,7 +19641,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="15" spans="1:256" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:256" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="27" t="s">
         <v>540</v>
       </c>
@@ -19660,7 +19660,7 @@
       </c>
       <c r="G15" s="18"/>
     </row>
-    <row r="16" spans="1:256" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:256" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="27" t="s">
         <v>571</v>
       </c>
@@ -19679,7 +19679,7 @@
       </c>
       <c r="G16" s="18"/>
     </row>
-    <row r="17" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="27" t="s">
         <v>964</v>
       </c>
@@ -19698,7 +19698,7 @@
       </c>
       <c r="G17" s="18"/>
     </row>
-    <row r="18" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="27" t="s">
         <v>603</v>
       </c>
@@ -19717,7 +19717,7 @@
       </c>
       <c r="G18" s="18"/>
     </row>
-    <row r="19" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="27" t="s">
         <v>969</v>
       </c>
@@ -19740,7 +19740,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="27" t="s">
         <v>637</v>
       </c>
@@ -19759,7 +19759,7 @@
       </c>
       <c r="G20" s="18"/>
     </row>
-    <row r="21" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A21" s="27" t="s">
         <v>639</v>
       </c>
@@ -19782,7 +19782,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="27" t="s">
         <v>975</v>
       </c>
@@ -19805,7 +19805,7 @@
         <v>1146</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A23" s="27" t="s">
         <v>994</v>
       </c>
@@ -19824,7 +19824,7 @@
       </c>
       <c r="G23" s="18"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="27" t="s">
         <v>992</v>
       </c>
@@ -19843,7 +19843,7 @@
       </c>
       <c r="G24" s="18"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="27" t="s">
         <v>989</v>
       </c>
@@ -19864,7 +19864,7 @@
       </c>
       <c r="G25" s="18"/>
     </row>
-    <row r="26" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A26" s="27" t="s">
         <v>990</v>
       </c>
@@ -19883,7 +19883,7 @@
       </c>
       <c r="G26" s="18"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="33" t="s">
         <v>991</v>
       </c>
@@ -19902,7 +19902,7 @@
       </c>
       <c r="G27" s="18"/>
     </row>
-    <row r="28" spans="1:7" ht="63" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A28" s="27" t="s">
         <v>1164</v>
       </c>
@@ -19923,7 +19923,7 @@
       </c>
       <c r="G28" s="27"/>
     </row>
-    <row r="29" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A29" s="27" t="s">
         <v>1166</v>
       </c>
@@ -19958,20 +19958,20 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="19" style="10" customWidth="1"/>
-    <col min="2" max="2" width="53.375" style="7" customWidth="1"/>
+    <col min="2" max="2" width="53.3984375" style="7" customWidth="1"/>
     <col min="3" max="3" width="21.5" style="7" customWidth="1"/>
     <col min="4" max="4" width="25" style="7" customWidth="1"/>
     <col min="5" max="5" width="46" style="7" customWidth="1"/>
-    <col min="6" max="6" width="11.875" style="7" customWidth="1"/>
+    <col min="6" max="6" width="11.8984375" style="7" customWidth="1"/>
     <col min="7" max="7" width="44.5" style="7" customWidth="1"/>
-    <col min="8" max="1025" width="8.875" style="7" customWidth="1"/>
+    <col min="8" max="1025" width="8.8984375" style="7" customWidth="1"/>
     <col min="1026" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:256" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:256" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>689</v>
       </c>
@@ -20243,7 +20243,7 @@
       <c r="IU1" s="11"/>
       <c r="IV1" s="11"/>
     </row>
-    <row r="2" spans="1:256" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:256" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>1010</v>
       </c>
@@ -20264,7 +20264,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="3" spans="1:256" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:256" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>1014</v>
       </c>
@@ -20285,7 +20285,7 @@
       </c>
       <c r="G3" s="4"/>
     </row>
-    <row r="4" spans="1:256" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:256" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>1017</v>
       </c>

--- a/conformancelib/testdata/PIV_Production_Cards.xlsx
+++ b/conformancelib/testdata/PIV_Production_Cards.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\cygwin64\home\bf7450\git\piv-conformance\conformancelib\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4253ADAB-E0F4-46F7-BDB3-9FDBFF52EF2B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29959361-3EB1-4D9D-A9E0-2F455ED9F54F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-12" yWindow="-12" windowWidth="11520" windowHeight="12384" tabRatio="500" firstSheet="4" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Steps Overview" sheetId="2" r:id="rId1"/>
@@ -3500,9 +3500,6 @@
     <t>9.3.2.5</t>
   </si>
   <si>
-    <t>CARD_HOLDER_UNIQUE_IDENTIFIER_OID:2.16.840.1.101.3.6.7,X509_CERTIFICATE_FOR_CARD_AUTHENTICATION_OID:2.16.840.1.101.3.6.7</t>
-  </si>
-  <si>
     <t>10.2.1.15</t>
   </si>
   <si>
@@ -3900,6 +3897,9 @@
   </si>
   <si>
     <t>Number of years</t>
+  </si>
+  <si>
+    <t>X509_CERTIFICATE_FOR_CARD_AUTHENTICATION_OID:2.16.840.1.101.3.6.8,CARD_HOLDER_UNIQUE_IDENTIFIER_OID:2.16.840.1.101.3.6.7</t>
   </si>
 </sst>
 </file>
@@ -4734,7 +4734,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:F489"/>
   <sheetViews>
-    <sheetView topLeftCell="A355" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A415" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="C369" sqref="C369"/>
     </sheetView>
   </sheetViews>
@@ -4764,7 +4764,7 @@
         <v>54</v>
       </c>
       <c r="E1" s="43" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="F1" s="43" t="s">
         <v>1018</v>
@@ -4775,10 +4775,10 @@
         <v>55</v>
       </c>
       <c r="B2" s="65" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="C2" s="46" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="D2" s="41"/>
       <c r="E2" s="41"/>
@@ -4789,7 +4789,7 @@
         <v>55</v>
       </c>
       <c r="B3" s="66" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="C3" s="41" t="s">
         <v>0</v>
@@ -4820,7 +4820,7 @@
         <v>56</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="D5" s="25" t="s">
         <v>57</v>
@@ -4946,7 +4946,7 @@
         <v>76</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="D12" s="25" t="s">
         <v>77</v>
@@ -4964,7 +4964,7 @@
         <v>78</v>
       </c>
       <c r="C13" s="25" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="D13" s="25" t="s">
         <v>79</v>
@@ -5000,7 +5000,7 @@
         <v>82</v>
       </c>
       <c r="C15" s="25" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="D15" s="25" t="s">
         <v>81</v>
@@ -5015,7 +5015,7 @@
         <v>55</v>
       </c>
       <c r="B16" s="66" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="C16" s="41" t="s">
         <v>1</v>
@@ -5046,7 +5046,7 @@
         <v>85</v>
       </c>
       <c r="C18" s="25" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="D18" s="25" t="s">
         <v>57</v>
@@ -5118,7 +5118,7 @@
         <v>89</v>
       </c>
       <c r="C22" s="25" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="D22" s="25" t="s">
         <v>90</v>
@@ -5262,7 +5262,7 @@
         <v>1081</v>
       </c>
       <c r="C30" s="49" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="D30" s="49" t="s">
         <v>1066</v>
@@ -5403,7 +5403,7 @@
         <v>55</v>
       </c>
       <c r="B38" s="66" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="C38" s="25" t="s">
         <v>729</v>
@@ -5442,7 +5442,7 @@
         <v>112</v>
       </c>
       <c r="C40" s="25" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="D40" s="25" t="s">
         <v>113</v>
@@ -5511,7 +5511,7 @@
         <v>55</v>
       </c>
       <c r="B44" s="66" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="C44" s="41" t="s">
         <v>2</v>
@@ -5542,7 +5542,7 @@
         <v>121</v>
       </c>
       <c r="C46" s="25" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="D46" s="25" t="s">
         <v>57</v>
@@ -5614,10 +5614,10 @@
         <v>125</v>
       </c>
       <c r="C50" s="25" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="D50" s="25" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="E50" s="25"/>
       <c r="F50" s="25" t="s">
@@ -5719,7 +5719,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="66" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="C56" s="41" t="s">
         <v>3</v>
@@ -5750,7 +5750,7 @@
         <v>139</v>
       </c>
       <c r="C58" s="25" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="D58" s="25" t="s">
         <v>57</v>
@@ -5822,7 +5822,7 @@
         <v>143</v>
       </c>
       <c r="C62" s="25" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="D62" s="25" t="s">
         <v>118</v>
@@ -5909,7 +5909,7 @@
         <v>55</v>
       </c>
       <c r="B67" s="66" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="C67" s="41" t="s">
         <v>4</v>
@@ -5940,7 +5940,7 @@
         <v>148</v>
       </c>
       <c r="C69" s="25" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="D69" s="25" t="s">
         <v>57</v>
@@ -6012,7 +6012,7 @@
         <v>152</v>
       </c>
       <c r="C73" s="25" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="D73" s="25" t="s">
         <v>153</v>
@@ -6153,7 +6153,7 @@
         <v>55</v>
       </c>
       <c r="B81" s="66" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="C81" s="41" t="s">
         <v>5</v>
@@ -6184,7 +6184,7 @@
         <v>166</v>
       </c>
       <c r="C83" s="25" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="D83" s="25" t="s">
         <v>57</v>
@@ -6256,7 +6256,7 @@
         <v>170</v>
       </c>
       <c r="C87" s="25" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="D87" s="25" t="s">
         <v>171</v>
@@ -6325,7 +6325,7 @@
         <v>55</v>
       </c>
       <c r="B91" s="66" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="C91" s="41" t="s">
         <v>6</v>
@@ -6356,7 +6356,7 @@
         <v>178</v>
       </c>
       <c r="C93" s="25" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="D93" s="25" t="s">
         <v>57</v>
@@ -6428,10 +6428,10 @@
         <v>182</v>
       </c>
       <c r="C97" s="25" t="s">
+        <v>1179</v>
+      </c>
+      <c r="D97" s="25" t="s">
         <v>1180</v>
-      </c>
-      <c r="D97" s="25" t="s">
-        <v>1181</v>
       </c>
       <c r="E97" s="25"/>
       <c r="F97" s="25" t="s">
@@ -6533,7 +6533,7 @@
         <v>55</v>
       </c>
       <c r="B103" s="66" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="C103" s="41" t="s">
         <v>7</v>
@@ -6564,7 +6564,7 @@
         <v>187</v>
       </c>
       <c r="C105" s="25" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="D105" s="25" t="s">
         <v>57</v>
@@ -6636,10 +6636,10 @@
         <v>191</v>
       </c>
       <c r="C109" s="25" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="D109" s="25" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="E109" s="25"/>
       <c r="F109" s="25" t="s">
@@ -6741,7 +6741,7 @@
         <v>55</v>
       </c>
       <c r="B115" s="66" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="C115" s="41" t="s">
         <v>8</v>
@@ -6772,7 +6772,7 @@
         <v>196</v>
       </c>
       <c r="C117" s="25" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="D117" s="25" t="s">
         <v>57</v>
@@ -6844,10 +6844,10 @@
         <v>200</v>
       </c>
       <c r="C121" s="25" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="D121" s="25" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="E121" s="25"/>
       <c r="F121" s="25" t="s">
@@ -6949,7 +6949,7 @@
         <v>55</v>
       </c>
       <c r="B127" s="66" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="C127" s="41" t="s">
         <v>9</v>
@@ -6980,7 +6980,7 @@
         <v>205</v>
       </c>
       <c r="C129" s="25" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="D129" s="25" t="s">
         <v>57</v>
@@ -7052,7 +7052,7 @@
         <v>209</v>
       </c>
       <c r="C133" s="25" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="D133" s="25" t="s">
         <v>210</v>
@@ -7139,7 +7139,7 @@
         <v>55</v>
       </c>
       <c r="B138" s="66" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="C138" s="41" t="s">
         <v>10</v>
@@ -7170,7 +7170,7 @@
         <v>220</v>
       </c>
       <c r="C140" s="25" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="D140" s="25" t="s">
         <v>57</v>
@@ -7332,7 +7332,7 @@
         <v>1108</v>
       </c>
       <c r="C149" s="25" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="D149" s="25" t="s">
         <v>232</v>
@@ -7347,7 +7347,7 @@
         <v>119</v>
       </c>
       <c r="B150" s="66" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="C150" s="41" t="s">
         <v>11</v>
@@ -7361,7 +7361,7 @@
         <v>55</v>
       </c>
       <c r="B151" s="66" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="C151" s="41" t="s">
         <v>12</v>
@@ -7407,7 +7407,7 @@
         <v>55</v>
       </c>
       <c r="B154" s="66" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="C154" s="25" t="s">
         <v>235</v>
@@ -7423,7 +7423,7 @@
         <v>55</v>
       </c>
       <c r="B155" s="66" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="C155" s="51" t="s">
         <v>15</v>
@@ -7437,7 +7437,7 @@
         <v>55</v>
       </c>
       <c r="B156" s="66" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="C156" s="51" t="s">
         <v>16</v>
@@ -7451,7 +7451,7 @@
         <v>55</v>
       </c>
       <c r="B157" s="66" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="C157" s="51" t="s">
         <v>17</v>
@@ -7465,7 +7465,7 @@
         <v>55</v>
       </c>
       <c r="B158" s="65" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="C158" s="46" t="s">
         <v>18</v>
@@ -7479,7 +7479,7 @@
         <v>55</v>
       </c>
       <c r="B159" s="66" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="C159" s="41" t="s">
         <v>19</v>
@@ -7825,7 +7825,7 @@
         <v>55</v>
       </c>
       <c r="B179" s="66" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="C179" s="55" t="s">
         <v>22</v>
@@ -8153,7 +8153,7 @@
         <v>55</v>
       </c>
       <c r="B198" s="66" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="C198" s="41" t="s">
         <v>25</v>
@@ -8483,7 +8483,7 @@
         <v>55</v>
       </c>
       <c r="B217" s="66" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="C217" s="55" t="s">
         <v>311</v>
@@ -8989,7 +8989,7 @@
         <v>55</v>
       </c>
       <c r="B246" s="66" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="C246" s="41" t="s">
         <v>365</v>
@@ -9019,7 +9019,7 @@
         <v>55</v>
       </c>
       <c r="B248" s="66" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="C248" s="51" t="s">
         <v>28</v>
@@ -9047,10 +9047,10 @@
         <v>55</v>
       </c>
       <c r="B250" s="66" t="s">
+        <v>1225</v>
+      </c>
+      <c r="C250" s="32" t="s">
         <v>1226</v>
-      </c>
-      <c r="C250" s="32" t="s">
-        <v>1227</v>
       </c>
       <c r="D250" s="25" t="s">
         <v>824</v>
@@ -9065,10 +9065,10 @@
         <v>55</v>
       </c>
       <c r="B251" s="66" t="s">
+        <v>1227</v>
+      </c>
+      <c r="C251" s="32" t="s">
         <v>1228</v>
-      </c>
-      <c r="C251" s="32" t="s">
-        <v>1229</v>
       </c>
       <c r="D251" s="25" t="s">
         <v>827</v>
@@ -9083,10 +9083,10 @@
         <v>55</v>
       </c>
       <c r="B252" s="66" t="s">
+        <v>1229</v>
+      </c>
+      <c r="C252" s="32" t="s">
         <v>1230</v>
-      </c>
-      <c r="C252" s="32" t="s">
-        <v>1231</v>
       </c>
       <c r="D252" s="25" t="s">
         <v>830</v>
@@ -9101,10 +9101,10 @@
         <v>55</v>
       </c>
       <c r="B253" s="66" t="s">
+        <v>1231</v>
+      </c>
+      <c r="C253" s="32" t="s">
         <v>1232</v>
-      </c>
-      <c r="C253" s="32" t="s">
-        <v>1233</v>
       </c>
       <c r="D253" s="25" t="s">
         <v>833</v>
@@ -9133,10 +9133,10 @@
         <v>55</v>
       </c>
       <c r="B255" s="66" t="s">
+        <v>1233</v>
+      </c>
+      <c r="C255" s="25" t="s">
         <v>1234</v>
-      </c>
-      <c r="C255" s="25" t="s">
-        <v>1235</v>
       </c>
       <c r="D255" s="25" t="s">
         <v>1009</v>
@@ -9151,10 +9151,10 @@
         <v>55</v>
       </c>
       <c r="B256" s="66" t="s">
+        <v>1235</v>
+      </c>
+      <c r="C256" s="25" t="s">
         <v>1236</v>
-      </c>
-      <c r="C256" s="25" t="s">
-        <v>1237</v>
       </c>
       <c r="D256" s="25" t="s">
         <v>1009</v>
@@ -9169,10 +9169,10 @@
         <v>55</v>
       </c>
       <c r="B257" s="66" t="s">
+        <v>1237</v>
+      </c>
+      <c r="C257" s="25" t="s">
         <v>1238</v>
-      </c>
-      <c r="C257" s="25" t="s">
-        <v>1239</v>
       </c>
       <c r="D257" s="25" t="s">
         <v>1009</v>
@@ -9187,10 +9187,10 @@
         <v>55</v>
       </c>
       <c r="B258" s="66" t="s">
+        <v>1239</v>
+      </c>
+      <c r="C258" s="25" t="s">
         <v>1240</v>
-      </c>
-      <c r="C258" s="25" t="s">
-        <v>1241</v>
       </c>
       <c r="D258" s="25" t="s">
         <v>1009</v>
@@ -9205,7 +9205,7 @@
         <v>55</v>
       </c>
       <c r="B259" s="66" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="C259" s="41" t="s">
         <v>31</v>
@@ -9255,7 +9255,7 @@
         <v>55</v>
       </c>
       <c r="B262" s="65" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="C262" s="46" t="s">
         <v>34</v>
@@ -9269,7 +9269,7 @@
         <v>55</v>
       </c>
       <c r="B263" s="66" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="C263" s="41" t="s">
         <v>1</v>
@@ -9426,7 +9426,7 @@
         <v>394</v>
       </c>
       <c r="C272" s="51" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="D272" s="51"/>
       <c r="E272" s="51"/>
@@ -9455,7 +9455,7 @@
         <v>55</v>
       </c>
       <c r="B274" s="66" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="C274" s="32" t="s">
         <v>1135</v>
@@ -9545,7 +9545,7 @@
         <v>55</v>
       </c>
       <c r="B279" s="66" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="C279" s="41" t="s">
         <v>407</v>
@@ -9717,10 +9717,10 @@
         <v>55</v>
       </c>
       <c r="B289" s="66" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="C289" s="51" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="D289" s="51"/>
       <c r="E289" s="51"/>
@@ -9734,7 +9734,7 @@
         <v>423</v>
       </c>
       <c r="C290" s="25" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="D290" s="25" t="s">
         <v>424</v>
@@ -9842,7 +9842,7 @@
         <v>434</v>
       </c>
       <c r="C296" s="25" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="D296" s="25" t="s">
         <v>436</v>
@@ -9860,7 +9860,7 @@
         <v>437</v>
       </c>
       <c r="C297" s="32" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="D297" s="25" t="s">
         <v>1045</v>
@@ -9875,10 +9875,10 @@
         <v>55</v>
       </c>
       <c r="B298" s="66" t="s">
+        <v>1156</v>
+      </c>
+      <c r="C298" s="32" t="s">
         <v>1157</v>
-      </c>
-      <c r="C298" s="32" t="s">
-        <v>1158</v>
       </c>
       <c r="D298" s="25" t="s">
         <v>1048</v>
@@ -9893,7 +9893,7 @@
         <v>55</v>
       </c>
       <c r="B299" s="66" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="C299" s="41" t="s">
         <v>36</v>
@@ -10065,10 +10065,10 @@
         <v>55</v>
       </c>
       <c r="B309" s="66" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="C309" s="51" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="D309" s="51"/>
       <c r="E309" s="51"/>
@@ -10082,7 +10082,7 @@
         <v>448</v>
       </c>
       <c r="C310" s="25" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="D310" s="25" t="s">
         <v>424</v>
@@ -10190,7 +10190,7 @@
         <v>454</v>
       </c>
       <c r="C316" s="25" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="D316" s="25" t="s">
         <v>436</v>
@@ -10208,7 +10208,7 @@
         <v>455</v>
       </c>
       <c r="C317" s="32" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="D317" s="25" t="s">
         <v>1045</v>
@@ -10223,10 +10223,10 @@
         <v>55</v>
       </c>
       <c r="B318" s="66" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="C318" s="32" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="D318" s="25" t="s">
         <v>1048</v>
@@ -10241,7 +10241,7 @@
         <v>55</v>
       </c>
       <c r="B319" s="66" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="C319" s="41" t="s">
         <v>9</v>
@@ -10304,10 +10304,10 @@
         <v>461</v>
       </c>
       <c r="C323" s="25" t="s">
+        <v>1249</v>
+      </c>
+      <c r="D323" s="25" t="s">
         <v>1250</v>
-      </c>
-      <c r="D323" s="25" t="s">
-        <v>1251</v>
       </c>
       <c r="E323" s="25"/>
       <c r="F323" s="25" t="s">
@@ -10394,7 +10394,7 @@
         <v>474</v>
       </c>
       <c r="C328" s="25" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="D328" s="25" t="s">
         <v>424</v>
@@ -10427,10 +10427,10 @@
         <v>55</v>
       </c>
       <c r="B330" s="66" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="C330" s="51" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="D330" s="51"/>
       <c r="E330" s="59"/>
@@ -10441,10 +10441,10 @@
         <v>55</v>
       </c>
       <c r="B331" s="66" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="C331" s="25" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="D331" s="25" t="s">
         <v>424</v>
@@ -10459,7 +10459,7 @@
         <v>55</v>
       </c>
       <c r="B332" s="66" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="C332" s="25" t="s">
         <v>426</v>
@@ -10477,7 +10477,7 @@
         <v>55</v>
       </c>
       <c r="B333" s="66" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="C333" s="60" t="s">
         <v>38</v>
@@ -10613,7 +10613,7 @@
         <v>55</v>
       </c>
       <c r="B341" s="66" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="C341" s="25" t="s">
         <v>420</v>
@@ -10631,7 +10631,7 @@
         <v>55</v>
       </c>
       <c r="B342" s="66" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="C342" s="25" t="s">
         <v>422</v>
@@ -10652,7 +10652,7 @@
         <v>1139</v>
       </c>
       <c r="C343" s="51" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="D343" s="51"/>
       <c r="E343" s="51"/>
@@ -10663,10 +10663,10 @@
         <v>55</v>
       </c>
       <c r="B344" s="66" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="C344" s="25" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="D344" s="25" t="s">
         <v>424</v>
@@ -10681,7 +10681,7 @@
         <v>55</v>
       </c>
       <c r="B345" s="66" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="C345" s="25" t="s">
         <v>426</v>
@@ -10774,7 +10774,7 @@
         <v>488</v>
       </c>
       <c r="C350" s="25" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="D350" s="25" t="s">
         <v>436</v>
@@ -10792,7 +10792,7 @@
         <v>489</v>
       </c>
       <c r="C351" s="32" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="D351" s="25" t="s">
         <v>1045</v>
@@ -10810,7 +10810,7 @@
         <v>490</v>
       </c>
       <c r="C352" s="32" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="D352" s="25" t="s">
         <v>1048</v>
@@ -10825,7 +10825,7 @@
         <v>55</v>
       </c>
       <c r="B353" s="65" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="C353" s="51" t="s">
         <v>39</v>
@@ -10839,7 +10839,7 @@
         <v>55</v>
       </c>
       <c r="B354" s="66" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="C354" s="51" t="s">
         <v>40</v>
@@ -11149,7 +11149,7 @@
         <v>532</v>
       </c>
       <c r="D372" s="25" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="E372" s="32"/>
       <c r="F372" s="25" t="s">
@@ -11351,7 +11351,7 @@
         <v>55</v>
       </c>
       <c r="B384" s="66" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="C384" s="41" t="s">
         <v>43</v>
@@ -11723,7 +11723,7 @@
         <v>55</v>
       </c>
       <c r="B406" s="66" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="C406" s="41" t="s">
         <v>44</v>
@@ -12095,7 +12095,7 @@
         <v>55</v>
       </c>
       <c r="B428" s="66" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="C428" s="41" t="s">
         <v>45</v>
@@ -12505,7 +12505,7 @@
         <v>532</v>
       </c>
       <c r="D452" s="25" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="E452" s="32"/>
       <c r="F452" s="25" t="s">
@@ -12523,7 +12523,7 @@
         <v>653</v>
       </c>
       <c r="D453" s="25" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="E453" s="32"/>
       <c r="F453" s="25" t="s">
@@ -12635,7 +12635,7 @@
         <v>55</v>
       </c>
       <c r="B460" s="66" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="C460" s="41" t="s">
         <v>46</v>
@@ -12657,7 +12657,7 @@
       <c r="D461" s="25"/>
       <c r="E461" s="32"/>
       <c r="F461" s="25" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="462" spans="1:6" x14ac:dyDescent="0.3">
@@ -12673,7 +12673,7 @@
       <c r="D462" s="25"/>
       <c r="E462" s="32"/>
       <c r="F462" s="25" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="463" spans="1:6" x14ac:dyDescent="0.3">
@@ -12689,7 +12689,7 @@
       <c r="D463" s="25"/>
       <c r="E463" s="32"/>
       <c r="F463" s="25" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="464" spans="1:6" x14ac:dyDescent="0.3">
@@ -12697,7 +12697,7 @@
         <v>55</v>
       </c>
       <c r="B464" s="66" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="C464" s="41" t="s">
         <v>48</v>
@@ -12739,7 +12739,7 @@
         <v>55</v>
       </c>
       <c r="B467" s="66" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="C467" s="41" t="s">
         <v>50</v>
@@ -13109,7 +13109,7 @@
         <v>55</v>
       </c>
       <c r="B489" s="66" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="C489" s="25" t="s">
         <v>556</v>
@@ -14404,7 +14404,7 @@
         <v>710</v>
       </c>
       <c r="D5" s="27" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="E5" s="18"/>
       <c r="F5" s="18" t="s">
@@ -14423,7 +14423,7 @@
         <v>711</v>
       </c>
       <c r="D6" s="63" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="E6" s="18"/>
       <c r="F6" s="18" t="s">
@@ -14442,7 +14442,7 @@
         <v>712</v>
       </c>
       <c r="D7" s="27" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="18" t="s">
@@ -14480,7 +14480,7 @@
         <v>718</v>
       </c>
       <c r="D9" s="27" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="E9" s="18"/>
       <c r="F9" s="18" t="s">
@@ -14632,16 +14632,16 @@
         <v>726</v>
       </c>
       <c r="D17" s="27" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="E17" s="19" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="F17" s="18" t="s">
         <v>696</v>
       </c>
       <c r="G17" s="18" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
@@ -14674,7 +14674,7 @@
         <v>731</v>
       </c>
       <c r="D19" s="26" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="E19" s="18"/>
       <c r="F19" s="18" t="s">
@@ -14788,7 +14788,7 @@
         <v>738</v>
       </c>
       <c r="D25" s="27" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="E25" s="18"/>
       <c r="F25" s="18" t="s">
@@ -14845,7 +14845,7 @@
         <v>743</v>
       </c>
       <c r="D28" s="27" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="E28" s="18"/>
       <c r="F28" s="18" t="s">
@@ -14940,7 +14940,7 @@
         <v>749</v>
       </c>
       <c r="D33" s="27" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="E33" s="18"/>
       <c r="F33" s="18" t="s">
@@ -14959,7 +14959,7 @@
         <v>751</v>
       </c>
       <c r="D34" s="27" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="E34" s="18"/>
       <c r="F34" s="18" t="s">
@@ -15054,7 +15054,7 @@
         <v>756</v>
       </c>
       <c r="D39" s="27" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="E39" s="18"/>
       <c r="F39" s="18" t="s">
@@ -15130,7 +15130,7 @@
         <v>1051</v>
       </c>
       <c r="D43" s="62" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="E43" s="31"/>
       <c r="F43" s="18" t="s">
@@ -15149,7 +15149,7 @@
         <v>1052</v>
       </c>
       <c r="D44" s="62" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="E44" s="31"/>
       <c r="F44" s="18" t="s">
@@ -15168,7 +15168,7 @@
         <v>1053</v>
       </c>
       <c r="D45" s="62" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="E45" s="31"/>
       <c r="F45" s="18" t="s">
@@ -15187,7 +15187,7 @@
         <v>1054</v>
       </c>
       <c r="D46" s="62" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="E46" s="31"/>
       <c r="F46" s="18" t="s">
@@ -15206,7 +15206,7 @@
         <v>1055</v>
       </c>
       <c r="D47" s="62" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="E47" s="31"/>
       <c r="F47" s="18" t="s">
@@ -15225,7 +15225,7 @@
         <v>1056</v>
       </c>
       <c r="D48" s="62" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="E48" s="31"/>
       <c r="F48" s="18" t="s">
@@ -15244,7 +15244,7 @@
         <v>1057</v>
       </c>
       <c r="D49" s="62" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="E49" s="31"/>
       <c r="F49" s="18" t="s">
@@ -15263,7 +15263,7 @@
         <v>1058</v>
       </c>
       <c r="D50" s="62" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="E50" s="31"/>
       <c r="F50" s="18" t="s">
@@ -15282,7 +15282,7 @@
         <v>1059</v>
       </c>
       <c r="D51" s="62" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="E51" s="31"/>
       <c r="F51" s="18" t="s">
@@ -15301,7 +15301,7 @@
         <v>1060</v>
       </c>
       <c r="D52" s="62" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="E52" s="31"/>
       <c r="F52" s="18" t="s">
@@ -15320,7 +15320,7 @@
         <v>1061</v>
       </c>
       <c r="D53" s="62" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="E53" s="31"/>
       <c r="F53" s="18" t="s">
@@ -15339,7 +15339,7 @@
         <v>1078</v>
       </c>
       <c r="D54" s="62" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="E54" s="31"/>
       <c r="F54" s="18" t="s">
@@ -15368,16 +15368,16 @@
     </row>
     <row r="56" spans="1:1025" s="21" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A56" s="62" t="s">
+        <v>1180</v>
+      </c>
+      <c r="B56" s="62" t="s">
         <v>1181</v>
       </c>
-      <c r="B56" s="62" t="s">
+      <c r="C56" s="62" t="s">
         <v>1182</v>
       </c>
-      <c r="C56" s="62" t="s">
+      <c r="D56" s="34" t="s">
         <v>1183</v>
-      </c>
-      <c r="D56" s="34" t="s">
-        <v>1184</v>
       </c>
       <c r="E56" s="31"/>
       <c r="F56" s="31" t="s">
@@ -17511,7 +17511,7 @@
         <v>867</v>
       </c>
       <c r="E44" s="19" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="F44" s="18"/>
       <c r="G44" s="18"/>
@@ -18346,13 +18346,13 @@
     </row>
     <row r="11" spans="1:256" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A11" s="62" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="B11" s="62" t="s">
         <v>1031</v>
       </c>
       <c r="C11" s="62" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="D11" s="34" t="s">
         <v>884</v>
@@ -18374,7 +18374,7 @@
         <v>902</v>
       </c>
       <c r="D12" s="34" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="E12" s="18"/>
       <c r="F12" s="18" t="s">
@@ -18453,7 +18453,7 @@
         <v>909</v>
       </c>
       <c r="D16" s="34" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="E16" s="18" t="s">
         <v>910</v>
@@ -18592,7 +18592,7 @@
         <v>923</v>
       </c>
       <c r="D23" s="34" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="E23" s="18"/>
       <c r="F23" s="18"/>
@@ -19091,8 +19091,8 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:IV29"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -19100,8 +19100,8 @@
     <col min="1" max="1" width="10.5" style="13" customWidth="1"/>
     <col min="2" max="2" width="53.3984375" style="8" customWidth="1"/>
     <col min="3" max="3" width="21.5" style="8" customWidth="1"/>
-    <col min="4" max="4" width="44.5" style="8" customWidth="1"/>
-    <col min="5" max="5" width="58.19921875" style="8" customWidth="1"/>
+    <col min="4" max="4" width="7.19921875" style="8" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="82.19921875" style="8" customWidth="1"/>
     <col min="6" max="6" width="11.8984375" style="8" customWidth="1"/>
     <col min="7" max="7" width="44.5" style="8" customWidth="1"/>
     <col min="8" max="256" width="8.8984375" style="8" customWidth="1"/>
@@ -19489,10 +19489,10 @@
         <v>944</v>
       </c>
       <c r="D7" s="27" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="E7" s="26" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="F7" s="18" t="s">
         <v>696</v>
@@ -19608,13 +19608,13 @@
         <v>955</v>
       </c>
       <c r="E13" s="19" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="F13" s="18" t="s">
         <v>696</v>
       </c>
       <c r="G13" s="18" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="14" spans="1:256" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -19725,7 +19725,7 @@
         <v>969</v>
       </c>
       <c r="D19" s="27" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="E19" s="24" t="s">
         <v>1141</v>
@@ -19748,7 +19748,7 @@
         <v>970</v>
       </c>
       <c r="D20" s="27" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="E20"/>
       <c r="F20" s="18" t="s">
@@ -19756,7 +19756,7 @@
       </c>
       <c r="G20" s="18"/>
     </row>
-    <row r="21" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" ht="280.8" x14ac:dyDescent="0.3">
       <c r="A21" s="27" t="s">
         <v>638</v>
       </c>
@@ -19770,7 +19770,7 @@
         <v>972</v>
       </c>
       <c r="E21" s="19" t="s">
-        <v>1156</v>
+        <v>1289</v>
       </c>
       <c r="F21" s="18" t="s">
         <v>696</v>
@@ -19901,19 +19901,19 @@
     </row>
     <row r="28" spans="1:7" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A28" s="27" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="B28" s="27" t="s">
         <v>932</v>
       </c>
       <c r="C28" s="27" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="D28" s="27" t="s">
         <v>532</v>
       </c>
       <c r="E28" s="27" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="F28" s="18" t="s">
         <v>696</v>
@@ -19922,13 +19922,13 @@
     </row>
     <row r="29" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A29" s="27" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="B29" s="27" t="s">
         <v>932</v>
       </c>
       <c r="C29" s="27" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="D29" s="27" t="s">
         <v>533</v>

--- a/conformancelib/testdata/PIV_Production_Cards.xlsx
+++ b/conformancelib/testdata/PIV_Production_Cards.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\cygwin64\home\bf7450\git\piv-conformance\conformancelib\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29959361-3EB1-4D9D-A9E0-2F455ED9F54F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41FB8C8D-1752-4C88-A117-13BE3657679F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-12" yWindow="-12" windowWidth="11520" windowHeight="12384" tabRatio="500" firstSheet="4" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="204" yWindow="0" windowWidth="23040" windowHeight="12360" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Steps Overview" sheetId="2" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3078" uniqueCount="1290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3078" uniqueCount="1291">
   <si>
     <t>Card Capabilities Container</t>
   </si>
@@ -3900,6 +3900,9 @@
   </si>
   <si>
     <t>X509_CERTIFICATE_FOR_CARD_AUTHENTICATION_OID:2.16.840.1.101.3.6.8,CARD_HOLDER_UNIQUE_IDENTIFIER_OID:2.16.840.1.101.3.6.7</t>
+  </si>
+  <si>
+    <t>Message digest from signed attributes bag matches the digest over Facial Image biometric data (excluding contents of digital signature field)</t>
   </si>
 </sst>
 </file>
@@ -4734,8 +4737,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:F489"/>
   <sheetViews>
-    <sheetView topLeftCell="A415" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C369" sqref="C369"/>
+    <sheetView tabSelected="1" topLeftCell="A292" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C301" sqref="C301"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -10118,7 +10121,7 @@
         <v>450</v>
       </c>
       <c r="C312" s="25" t="s">
-        <v>428</v>
+        <v>1290</v>
       </c>
       <c r="D312" s="25" t="s">
         <v>901</v>
@@ -19091,7 +19094,7 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:IV29"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E10" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="E10" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
@@ -19478,7 +19481,7 @@
       </c>
       <c r="G6" s="18"/>
     </row>
-    <row r="7" spans="1:256" ht="124.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:256" ht="343.2" x14ac:dyDescent="0.3">
       <c r="A7" s="27" t="s">
         <v>510</v>
       </c>
@@ -19499,7 +19502,7 @@
       </c>
       <c r="G7" s="19"/>
     </row>
-    <row r="8" spans="1:256" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:256" ht="156" x14ac:dyDescent="0.3">
       <c r="A8" s="27" t="s">
         <v>515</v>
       </c>
@@ -19737,7 +19740,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" ht="140.4" x14ac:dyDescent="0.3">
       <c r="A20" s="27" t="s">
         <v>636</v>
       </c>
@@ -19802,7 +19805,7 @@
         <v>1145</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" ht="171.6" x14ac:dyDescent="0.3">
       <c r="A23" s="27" t="s">
         <v>993</v>
       </c>
@@ -19821,7 +19824,7 @@
       </c>
       <c r="G23" s="18"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" ht="78" x14ac:dyDescent="0.3">
       <c r="A24" s="27" t="s">
         <v>991</v>
       </c>
@@ -19840,7 +19843,7 @@
       </c>
       <c r="G24" s="18"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" ht="124.8" x14ac:dyDescent="0.3">
       <c r="A25" s="27" t="s">
         <v>988</v>
       </c>
@@ -19861,7 +19864,7 @@
       </c>
       <c r="G25" s="18"/>
     </row>
-    <row r="26" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" ht="171.6" x14ac:dyDescent="0.3">
       <c r="A26" s="27" t="s">
         <v>989</v>
       </c>
@@ -19880,7 +19883,7 @@
       </c>
       <c r="G26" s="18"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" ht="140.4" x14ac:dyDescent="0.3">
       <c r="A27" s="33" t="s">
         <v>990</v>
       </c>
@@ -19899,7 +19902,7 @@
       </c>
       <c r="G27" s="18"/>
     </row>
-    <row r="28" spans="1:7" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" ht="374.4" x14ac:dyDescent="0.3">
       <c r="A28" s="27" t="s">
         <v>1162</v>
       </c>
@@ -19920,7 +19923,7 @@
       </c>
       <c r="G28" s="27"/>
     </row>
-    <row r="29" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" ht="171.6" x14ac:dyDescent="0.3">
       <c r="A29" s="27" t="s">
         <v>1164</v>
       </c>

--- a/conformancelib/testdata/PIV_Production_Cards.xlsx
+++ b/conformancelib/testdata/PIV_Production_Cards.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\cygwin64\home\bf7450\git\piv-conformance\conformancelib\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41FB8C8D-1752-4C88-A117-13BE3657679F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C078D109-8AD3-4311-9BCF-D91BB807E477}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="204" yWindow="0" windowWidth="23040" windowHeight="12360" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6084" yWindow="0" windowWidth="23040" windowHeight="12360" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Steps Overview" sheetId="2" r:id="rId1"/>
@@ -23,14 +23,14 @@
     <sheet name="Placeholders" sheetId="9" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Steps Overview'!$C$1:$C$476</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Steps Overview'!$C$1:$C$474</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3078" uniqueCount="1291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3070" uniqueCount="1290">
   <si>
     <t>Card Capabilities Container</t>
   </si>
@@ -3791,12 +3791,6 @@
     <t>10.4.2.8</t>
   </si>
   <si>
-    <t>10.4.2.8.1</t>
-  </si>
-  <si>
-    <t>10.4.2.8.2</t>
-  </si>
-  <si>
     <t>10.5.1.6.1</t>
   </si>
   <si>
@@ -3903,6 +3897,9 @@
   </si>
   <si>
     <t>Message digest from signed attributes bag matches the digest over Facial Image biometric data (excluding contents of digital signature field)</t>
+  </si>
+  <si>
+    <t>The signature in the SignerInfo corresponds to the signed security object and that it is it signed with the certificate that is used to sign the CHUID.</t>
   </si>
 </sst>
 </file>
@@ -3976,7 +3973,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4039,6 +4036,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4143,7 +4146,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -4346,6 +4349,9 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4735,10 +4741,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:F489"/>
+  <dimension ref="A1:F487"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A292" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C301" sqref="C301"/>
+    <sheetView tabSelected="1" topLeftCell="A322" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A331" sqref="A331:XFD332"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -4967,7 +4973,7 @@
         <v>78</v>
       </c>
       <c r="C13" s="25" t="s">
-        <v>1279</v>
+        <v>1277</v>
       </c>
       <c r="D13" s="25" t="s">
         <v>79</v>
@@ -7482,7 +7488,7 @@
         <v>55</v>
       </c>
       <c r="B159" s="66" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
       <c r="C159" s="41" t="s">
         <v>19</v>
@@ -7828,7 +7834,7 @@
         <v>55</v>
       </c>
       <c r="B179" s="66" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
       <c r="C179" s="55" t="s">
         <v>22</v>
@@ -8156,7 +8162,7 @@
         <v>55</v>
       </c>
       <c r="B198" s="66" t="s">
-        <v>1283</v>
+        <v>1281</v>
       </c>
       <c r="C198" s="41" t="s">
         <v>25</v>
@@ -8486,7 +8492,7 @@
         <v>55</v>
       </c>
       <c r="B217" s="66" t="s">
-        <v>1285</v>
+        <v>1283</v>
       </c>
       <c r="C217" s="55" t="s">
         <v>311</v>
@@ -8992,7 +8998,7 @@
         <v>55</v>
       </c>
       <c r="B246" s="66" t="s">
-        <v>1286</v>
+        <v>1284</v>
       </c>
       <c r="C246" s="41" t="s">
         <v>365</v>
@@ -10121,7 +10127,7 @@
         <v>450</v>
       </c>
       <c r="C312" s="25" t="s">
-        <v>1290</v>
+        <v>1288</v>
       </c>
       <c r="D312" s="25" t="s">
         <v>901</v>
@@ -10425,114 +10431,118 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="330" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A330" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="B330" s="66" t="s">
+    <row r="330" spans="1:6" ht="30" x14ac:dyDescent="0.3">
+      <c r="A330" s="68" t="s">
+        <v>55</v>
+      </c>
+      <c r="B330" s="68" t="s">
         <v>1252</v>
       </c>
-      <c r="C330" s="51" t="s">
-        <v>1242</v>
-      </c>
-      <c r="D330" s="51"/>
-      <c r="E330" s="59"/>
-      <c r="F330" s="59"/>
+      <c r="C330" s="68" t="s">
+        <v>1289</v>
+      </c>
+      <c r="D330" s="68" t="s">
+        <v>406</v>
+      </c>
+      <c r="E330" s="68"/>
+      <c r="F330" s="25" t="s">
+        <v>1028</v>
+      </c>
     </row>
     <row r="331" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A331" s="25" t="s">
         <v>55</v>
       </c>
       <c r="B331" s="66" t="s">
-        <v>1253</v>
-      </c>
-      <c r="C331" s="25" t="s">
-        <v>1245</v>
-      </c>
-      <c r="D331" s="25" t="s">
-        <v>424</v>
-      </c>
-      <c r="E331" s="32"/>
-      <c r="F331" s="25" t="s">
-        <v>1028</v>
-      </c>
-    </row>
-    <row r="332" spans="1:6" ht="30" x14ac:dyDescent="0.3">
+        <v>1202</v>
+      </c>
+      <c r="C331" s="60" t="s">
+        <v>38</v>
+      </c>
+      <c r="D331" s="59"/>
+      <c r="E331" s="59"/>
+      <c r="F331" s="59"/>
+    </row>
+    <row r="332" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A332" s="25" t="s">
         <v>55</v>
       </c>
       <c r="B332" s="66" t="s">
-        <v>1254</v>
-      </c>
-      <c r="C332" s="25" t="s">
-        <v>426</v>
-      </c>
-      <c r="D332" s="25" t="s">
-        <v>1034</v>
-      </c>
-      <c r="E332" s="32"/>
-      <c r="F332" s="25" t="s">
-        <v>1028</v>
-      </c>
-    </row>
-    <row r="333" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A333" s="25" t="s">
+        <v>478</v>
+      </c>
+      <c r="C332" s="61" t="s">
+        <v>35</v>
+      </c>
+      <c r="D332" s="59"/>
+      <c r="E332" s="59"/>
+      <c r="F332" s="59"/>
+    </row>
+    <row r="333" spans="1:6" ht="30" x14ac:dyDescent="0.3">
+      <c r="A333" s="47" t="s">
         <v>55</v>
       </c>
       <c r="B333" s="66" t="s">
-        <v>1202</v>
-      </c>
-      <c r="C333" s="60" t="s">
-        <v>38</v>
-      </c>
-      <c r="D333" s="59"/>
-      <c r="E333" s="59"/>
-      <c r="F333" s="59"/>
+        <v>479</v>
+      </c>
+      <c r="C333" s="25" t="s">
+        <v>410</v>
+      </c>
+      <c r="D333" s="25" t="s">
+        <v>375</v>
+      </c>
+      <c r="E333" s="25"/>
+      <c r="F333" s="25" t="s">
+        <v>1154</v>
+      </c>
     </row>
     <row r="334" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A334" s="25" t="s">
+      <c r="A334" s="47" t="s">
         <v>55</v>
       </c>
       <c r="B334" s="66" t="s">
-        <v>478</v>
-      </c>
-      <c r="C334" s="61" t="s">
-        <v>35</v>
-      </c>
-      <c r="D334" s="59"/>
-      <c r="E334" s="59"/>
-      <c r="F334" s="59"/>
-    </row>
-    <row r="335" spans="1:6" ht="30" x14ac:dyDescent="0.3">
+        <v>480</v>
+      </c>
+      <c r="C334" s="25" t="s">
+        <v>412</v>
+      </c>
+      <c r="D334" s="25" t="s">
+        <v>378</v>
+      </c>
+      <c r="E334" s="25"/>
+      <c r="F334" s="25" t="s">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="335" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A335" s="47" t="s">
         <v>55</v>
       </c>
       <c r="B335" s="66" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="C335" s="25" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="D335" s="25" t="s">
-        <v>375</v>
+        <v>395</v>
       </c>
       <c r="E335" s="25"/>
       <c r="F335" s="25" t="s">
         <v>1154</v>
       </c>
     </row>
-    <row r="336" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A336" s="47" t="s">
         <v>55</v>
       </c>
       <c r="B336" s="66" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="C336" s="25" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="D336" s="25" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="E336" s="25"/>
       <c r="F336" s="25" t="s">
@@ -10544,31 +10554,31 @@
         <v>55</v>
       </c>
       <c r="B337" s="66" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="C337" s="25" t="s">
-        <v>414</v>
+        <v>386</v>
       </c>
       <c r="D337" s="25" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="E337" s="25"/>
       <c r="F337" s="25" t="s">
         <v>1154</v>
       </c>
     </row>
-    <row r="338" spans="1:6" ht="30" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A338" s="47" t="s">
         <v>55</v>
       </c>
       <c r="B338" s="66" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="C338" s="25" t="s">
-        <v>416</v>
+        <v>389</v>
       </c>
       <c r="D338" s="25" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="E338" s="25"/>
       <c r="F338" s="25" t="s">
@@ -10580,13 +10590,13 @@
         <v>55</v>
       </c>
       <c r="B339" s="66" t="s">
-        <v>483</v>
+        <v>1253</v>
       </c>
       <c r="C339" s="25" t="s">
-        <v>386</v>
+        <v>420</v>
       </c>
       <c r="D339" s="25" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="E339" s="25"/>
       <c r="F339" s="25" t="s">
@@ -10598,13 +10608,13 @@
         <v>55</v>
       </c>
       <c r="B340" s="66" t="s">
-        <v>484</v>
+        <v>1254</v>
       </c>
       <c r="C340" s="25" t="s">
-        <v>389</v>
+        <v>422</v>
       </c>
       <c r="D340" s="25" t="s">
-        <v>390</v>
+        <v>398</v>
       </c>
       <c r="E340" s="25"/>
       <c r="F340" s="25" t="s">
@@ -10616,63 +10626,63 @@
         <v>55</v>
       </c>
       <c r="B341" s="66" t="s">
-        <v>1255</v>
-      </c>
-      <c r="C341" s="25" t="s">
-        <v>420</v>
-      </c>
-      <c r="D341" s="25" t="s">
-        <v>393</v>
-      </c>
-      <c r="E341" s="25"/>
-      <c r="F341" s="25" t="s">
-        <v>1154</v>
-      </c>
+        <v>1139</v>
+      </c>
+      <c r="C341" s="51" t="s">
+        <v>1242</v>
+      </c>
+      <c r="D341" s="51"/>
+      <c r="E341" s="51"/>
+      <c r="F341" s="51"/>
     </row>
     <row r="342" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A342" s="47" t="s">
         <v>55</v>
       </c>
       <c r="B342" s="66" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="C342" s="25" t="s">
-        <v>422</v>
+        <v>1251</v>
       </c>
       <c r="D342" s="25" t="s">
-        <v>398</v>
+        <v>424</v>
       </c>
       <c r="E342" s="25"/>
       <c r="F342" s="25" t="s">
         <v>1154</v>
       </c>
     </row>
-    <row r="343" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A343" s="47" t="s">
         <v>55</v>
       </c>
       <c r="B343" s="66" t="s">
-        <v>1139</v>
-      </c>
-      <c r="C343" s="51" t="s">
-        <v>1242</v>
-      </c>
-      <c r="D343" s="51"/>
-      <c r="E343" s="51"/>
-      <c r="F343" s="51"/>
-    </row>
-    <row r="344" spans="1:6" x14ac:dyDescent="0.3">
+        <v>1256</v>
+      </c>
+      <c r="C343" s="25" t="s">
+        <v>426</v>
+      </c>
+      <c r="D343" s="25" t="s">
+        <v>1034</v>
+      </c>
+      <c r="E343" s="25"/>
+      <c r="F343" s="25" t="s">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="344" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A344" s="47" t="s">
         <v>55</v>
       </c>
       <c r="B344" s="66" t="s">
-        <v>1257</v>
+        <v>1138</v>
       </c>
       <c r="C344" s="25" t="s">
-        <v>1251</v>
+        <v>428</v>
       </c>
       <c r="D344" s="25" t="s">
-        <v>424</v>
+        <v>901</v>
       </c>
       <c r="E344" s="25"/>
       <c r="F344" s="25" t="s">
@@ -10684,199 +10694,199 @@
         <v>55</v>
       </c>
       <c r="B345" s="66" t="s">
-        <v>1258</v>
+        <v>485</v>
       </c>
       <c r="C345" s="25" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="D345" s="25" t="s">
-        <v>1034</v>
+        <v>401</v>
       </c>
       <c r="E345" s="25"/>
       <c r="F345" s="25" t="s">
         <v>1154</v>
       </c>
     </row>
-    <row r="346" spans="1:6" ht="30" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:6" ht="45" x14ac:dyDescent="0.3">
       <c r="A346" s="47" t="s">
         <v>55</v>
       </c>
       <c r="B346" s="66" t="s">
-        <v>1138</v>
-      </c>
-      <c r="C346" s="25" t="s">
-        <v>428</v>
+        <v>486</v>
+      </c>
+      <c r="C346" s="32" t="s">
+        <v>432</v>
       </c>
       <c r="D346" s="25" t="s">
-        <v>901</v>
+        <v>403</v>
       </c>
       <c r="E346" s="25"/>
       <c r="F346" s="25" t="s">
         <v>1154</v>
       </c>
     </row>
-    <row r="347" spans="1:6" ht="30" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:6" ht="45" x14ac:dyDescent="0.3">
       <c r="A347" s="47" t="s">
         <v>55</v>
       </c>
       <c r="B347" s="66" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="C347" s="25" t="s">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="D347" s="25" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="E347" s="25"/>
       <c r="F347" s="25" t="s">
         <v>1154</v>
       </c>
     </row>
-    <row r="348" spans="1:6" ht="45" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A348" s="47" t="s">
         <v>55</v>
       </c>
       <c r="B348" s="66" t="s">
-        <v>486</v>
-      </c>
-      <c r="C348" s="32" t="s">
-        <v>432</v>
+        <v>488</v>
+      </c>
+      <c r="C348" s="25" t="s">
+        <v>1248</v>
       </c>
       <c r="D348" s="25" t="s">
-        <v>403</v>
+        <v>436</v>
       </c>
       <c r="E348" s="25"/>
       <c r="F348" s="25" t="s">
         <v>1154</v>
       </c>
     </row>
-    <row r="349" spans="1:6" ht="45" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A349" s="47" t="s">
         <v>55</v>
       </c>
       <c r="B349" s="66" t="s">
-        <v>487</v>
-      </c>
-      <c r="C349" s="25" t="s">
-        <v>435</v>
+        <v>489</v>
+      </c>
+      <c r="C349" s="32" t="s">
+        <v>1159</v>
       </c>
       <c r="D349" s="25" t="s">
-        <v>406</v>
+        <v>1045</v>
       </c>
       <c r="E349" s="25"/>
       <c r="F349" s="25" t="s">
         <v>1154</v>
       </c>
     </row>
-    <row r="350" spans="1:6" ht="30" x14ac:dyDescent="0.3">
-      <c r="A350" s="47" t="s">
+    <row r="350" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A350" s="25" t="s">
         <v>55</v>
       </c>
       <c r="B350" s="66" t="s">
-        <v>488</v>
-      </c>
-      <c r="C350" s="25" t="s">
-        <v>1248</v>
+        <v>490</v>
+      </c>
+      <c r="C350" s="32" t="s">
+        <v>1157</v>
       </c>
       <c r="D350" s="25" t="s">
-        <v>436</v>
+        <v>1048</v>
       </c>
       <c r="E350" s="25"/>
       <c r="F350" s="25" t="s">
         <v>1154</v>
       </c>
     </row>
-    <row r="351" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A351" s="47" t="s">
-        <v>55</v>
-      </c>
-      <c r="B351" s="66" t="s">
-        <v>489</v>
-      </c>
-      <c r="C351" s="32" t="s">
-        <v>1159</v>
-      </c>
-      <c r="D351" s="25" t="s">
-        <v>1045</v>
-      </c>
-      <c r="E351" s="25"/>
-      <c r="F351" s="25" t="s">
-        <v>1154</v>
-      </c>
+    <row r="351" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A351" s="58" t="s">
+        <v>55</v>
+      </c>
+      <c r="B351" s="65" t="s">
+        <v>1204</v>
+      </c>
+      <c r="C351" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="D351" s="51"/>
+      <c r="E351" s="51"/>
+      <c r="F351" s="51"/>
     </row>
     <row r="352" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A352" s="25" t="s">
         <v>55</v>
       </c>
       <c r="B352" s="66" t="s">
-        <v>490</v>
-      </c>
-      <c r="C352" s="32" t="s">
-        <v>1157</v>
-      </c>
-      <c r="D352" s="25" t="s">
-        <v>1048</v>
-      </c>
-      <c r="E352" s="25"/>
-      <c r="F352" s="25" t="s">
-        <v>1154</v>
-      </c>
-    </row>
-    <row r="353" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A353" s="58" t="s">
-        <v>55</v>
-      </c>
-      <c r="B353" s="65" t="s">
-        <v>1204</v>
+        <v>1203</v>
+      </c>
+      <c r="C352" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="D352" s="51"/>
+      <c r="E352" s="51"/>
+      <c r="F352" s="51"/>
+    </row>
+    <row r="353" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A353" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="B353" s="66" t="s">
+        <v>491</v>
       </c>
       <c r="C353" s="51" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D353" s="51"/>
       <c r="E353" s="51"/>
       <c r="F353" s="51"/>
     </row>
-    <row r="354" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:6" ht="60" x14ac:dyDescent="0.3">
       <c r="A354" s="25" t="s">
         <v>55</v>
       </c>
       <c r="B354" s="66" t="s">
-        <v>1203</v>
-      </c>
-      <c r="C354" s="51" t="s">
-        <v>40</v>
-      </c>
-      <c r="D354" s="51"/>
-      <c r="E354" s="51"/>
-      <c r="F354" s="51"/>
+        <v>492</v>
+      </c>
+      <c r="C354" s="32" t="s">
+        <v>493</v>
+      </c>
+      <c r="D354" s="25">
+        <v>78.3</v>
+      </c>
+      <c r="E354" s="25"/>
+      <c r="F354" s="25" t="s">
+        <v>1021</v>
+      </c>
     </row>
     <row r="355" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A355" s="25" t="s">
         <v>55</v>
       </c>
       <c r="B355" s="66" t="s">
-        <v>491</v>
-      </c>
-      <c r="C355" s="51" t="s">
-        <v>41</v>
-      </c>
-      <c r="D355" s="51"/>
-      <c r="E355" s="51"/>
-      <c r="F355" s="51"/>
-    </row>
-    <row r="356" spans="1:6" ht="60" x14ac:dyDescent="0.3">
+        <v>494</v>
+      </c>
+      <c r="C355" s="32" t="s">
+        <v>495</v>
+      </c>
+      <c r="D355" s="25">
+        <v>78.099999999999994</v>
+      </c>
+      <c r="E355" s="25"/>
+      <c r="F355" s="25" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="356" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A356" s="25" t="s">
         <v>55</v>
       </c>
       <c r="B356" s="66" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="C356" s="32" t="s">
-        <v>493</v>
+        <v>1140</v>
       </c>
       <c r="D356" s="25">
-        <v>78.3</v>
+        <v>78.099999999999994</v>
       </c>
       <c r="E356" s="25"/>
       <c r="F356" s="25" t="s">
@@ -10888,31 +10898,27 @@
         <v>55</v>
       </c>
       <c r="B357" s="66" t="s">
-        <v>494</v>
-      </c>
-      <c r="C357" s="32" t="s">
-        <v>495</v>
-      </c>
-      <c r="D357" s="25">
-        <v>78.099999999999994</v>
-      </c>
-      <c r="E357" s="25"/>
-      <c r="F357" s="25" t="s">
-        <v>1021</v>
-      </c>
+        <v>498</v>
+      </c>
+      <c r="C357" s="51" t="s">
+        <v>42</v>
+      </c>
+      <c r="D357" s="51"/>
+      <c r="E357" s="51"/>
+      <c r="F357" s="51"/>
     </row>
     <row r="358" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A358" s="25" t="s">
         <v>55</v>
       </c>
       <c r="B358" s="66" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="C358" s="32" t="s">
-        <v>1140</v>
-      </c>
-      <c r="D358" s="25">
-        <v>78.099999999999994</v>
+        <v>500</v>
+      </c>
+      <c r="D358" s="25" t="s">
+        <v>501</v>
       </c>
       <c r="E358" s="25"/>
       <c r="F358" s="25" t="s">
@@ -10924,27 +10930,31 @@
         <v>55</v>
       </c>
       <c r="B359" s="66" t="s">
-        <v>498</v>
-      </c>
-      <c r="C359" s="51" t="s">
-        <v>42</v>
-      </c>
-      <c r="D359" s="51"/>
-      <c r="E359" s="51"/>
-      <c r="F359" s="51"/>
+        <v>502</v>
+      </c>
+      <c r="C359" s="32" t="s">
+        <v>503</v>
+      </c>
+      <c r="D359" s="25" t="s">
+        <v>504</v>
+      </c>
+      <c r="E359" s="25"/>
+      <c r="F359" s="25" t="s">
+        <v>1021</v>
+      </c>
     </row>
     <row r="360" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A360" s="25" t="s">
         <v>55</v>
       </c>
       <c r="B360" s="66" t="s">
-        <v>499</v>
-      </c>
-      <c r="C360" s="32" t="s">
-        <v>500</v>
+        <v>505</v>
+      </c>
+      <c r="C360" s="25" t="s">
+        <v>506</v>
       </c>
       <c r="D360" s="25" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
       <c r="E360" s="25"/>
       <c r="F360" s="25" t="s">
@@ -10956,13 +10966,13 @@
         <v>55</v>
       </c>
       <c r="B361" s="66" t="s">
-        <v>502</v>
+        <v>508</v>
       </c>
       <c r="C361" s="32" t="s">
-        <v>503</v>
+        <v>509</v>
       </c>
       <c r="D361" s="25" t="s">
-        <v>504</v>
+        <v>510</v>
       </c>
       <c r="E361" s="25"/>
       <c r="F361" s="25" t="s">
@@ -10974,31 +10984,27 @@
         <v>55</v>
       </c>
       <c r="B362" s="66" t="s">
-        <v>505</v>
-      </c>
-      <c r="C362" s="25" t="s">
-        <v>506</v>
-      </c>
-      <c r="D362" s="25" t="s">
-        <v>507</v>
-      </c>
-      <c r="E362" s="25"/>
-      <c r="F362" s="25" t="s">
-        <v>1021</v>
-      </c>
+        <v>511</v>
+      </c>
+      <c r="C362" s="51" t="s">
+        <v>512</v>
+      </c>
+      <c r="D362" s="51"/>
+      <c r="E362" s="51"/>
+      <c r="F362" s="51"/>
     </row>
     <row r="363" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A363" s="25" t="s">
         <v>55</v>
       </c>
       <c r="B363" s="66" t="s">
-        <v>508</v>
+        <v>513</v>
       </c>
       <c r="C363" s="32" t="s">
-        <v>509</v>
+        <v>514</v>
       </c>
       <c r="D363" s="25" t="s">
-        <v>510</v>
+        <v>515</v>
       </c>
       <c r="E363" s="25"/>
       <c r="F363" s="25" t="s">
@@ -11010,27 +11016,31 @@
         <v>55</v>
       </c>
       <c r="B364" s="66" t="s">
-        <v>511</v>
-      </c>
-      <c r="C364" s="51" t="s">
-        <v>512</v>
-      </c>
-      <c r="D364" s="51"/>
-      <c r="E364" s="51"/>
-      <c r="F364" s="51"/>
+        <v>516</v>
+      </c>
+      <c r="C364" s="32" t="s">
+        <v>517</v>
+      </c>
+      <c r="D364" s="25" t="s">
+        <v>518</v>
+      </c>
+      <c r="E364" s="25"/>
+      <c r="F364" s="25" t="s">
+        <v>1021</v>
+      </c>
     </row>
     <row r="365" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A365" s="25" t="s">
         <v>55</v>
       </c>
       <c r="B365" s="66" t="s">
-        <v>513</v>
+        <v>519</v>
       </c>
       <c r="C365" s="32" t="s">
-        <v>514</v>
+        <v>992</v>
       </c>
       <c r="D365" s="25" t="s">
-        <v>515</v>
+        <v>991</v>
       </c>
       <c r="E365" s="25"/>
       <c r="F365" s="25" t="s">
@@ -11042,33 +11052,33 @@
         <v>55</v>
       </c>
       <c r="B366" s="66" t="s">
-        <v>516</v>
+        <v>521</v>
       </c>
       <c r="C366" s="32" t="s">
-        <v>517</v>
+        <v>522</v>
       </c>
       <c r="D366" s="25" t="s">
-        <v>518</v>
+        <v>523</v>
       </c>
       <c r="E366" s="25"/>
       <c r="F366" s="25" t="s">
         <v>1021</v>
       </c>
     </row>
-    <row r="367" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A367" s="25" t="s">
         <v>55</v>
       </c>
       <c r="B367" s="66" t="s">
-        <v>519</v>
+        <v>524</v>
       </c>
       <c r="C367" s="32" t="s">
-        <v>992</v>
+        <v>572</v>
       </c>
       <c r="D367" s="25" t="s">
-        <v>991</v>
-      </c>
-      <c r="E367" s="25"/>
+        <v>525</v>
+      </c>
+      <c r="E367" s="32"/>
       <c r="F367" s="25" t="s">
         <v>1021</v>
       </c>
@@ -11078,119 +11088,115 @@
         <v>55</v>
       </c>
       <c r="B368" s="66" t="s">
-        <v>521</v>
-      </c>
-      <c r="C368" s="32" t="s">
-        <v>522</v>
-      </c>
-      <c r="D368" s="25" t="s">
-        <v>523</v>
-      </c>
-      <c r="E368" s="25"/>
-      <c r="F368" s="25" t="s">
-        <v>1021</v>
-      </c>
-    </row>
-    <row r="369" spans="1:6" ht="30" x14ac:dyDescent="0.3">
+        <v>526</v>
+      </c>
+      <c r="C368" s="51" t="s">
+        <v>527</v>
+      </c>
+      <c r="D368" s="51"/>
+      <c r="E368" s="51"/>
+      <c r="F368" s="51"/>
+    </row>
+    <row r="369" spans="1:6" ht="45" x14ac:dyDescent="0.3">
       <c r="A369" s="25" t="s">
         <v>55</v>
       </c>
       <c r="B369" s="66" t="s">
-        <v>524</v>
+        <v>529</v>
       </c>
       <c r="C369" s="32" t="s">
-        <v>572</v>
+        <v>530</v>
       </c>
       <c r="D369" s="25" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="E369" s="32"/>
       <c r="F369" s="25" t="s">
         <v>1021</v>
       </c>
     </row>
-    <row r="370" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A370" s="25" t="s">
         <v>55</v>
       </c>
       <c r="B370" s="66" t="s">
-        <v>526</v>
-      </c>
-      <c r="C370" s="51" t="s">
-        <v>527</v>
-      </c>
-      <c r="D370" s="51"/>
-      <c r="E370" s="51"/>
-      <c r="F370" s="51"/>
-    </row>
-    <row r="371" spans="1:6" ht="45" x14ac:dyDescent="0.3">
+        <v>531</v>
+      </c>
+      <c r="C370" s="32" t="s">
+        <v>532</v>
+      </c>
+      <c r="D370" s="25" t="s">
+        <v>1162</v>
+      </c>
+      <c r="E370" s="32"/>
+      <c r="F370" s="25" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="371" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A371" s="25" t="s">
         <v>55</v>
       </c>
       <c r="B371" s="66" t="s">
-        <v>529</v>
+        <v>534</v>
       </c>
       <c r="C371" s="32" t="s">
-        <v>530</v>
+        <v>535</v>
       </c>
       <c r="D371" s="25" t="s">
-        <v>528</v>
+        <v>536</v>
       </c>
       <c r="E371" s="32"/>
       <c r="F371" s="25" t="s">
         <v>1021</v>
       </c>
     </row>
-    <row r="372" spans="1:6" ht="30" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A372" s="25" t="s">
         <v>55</v>
       </c>
       <c r="B372" s="66" t="s">
-        <v>531</v>
+        <v>537</v>
       </c>
       <c r="C372" s="32" t="s">
-        <v>532</v>
+        <v>538</v>
       </c>
       <c r="D372" s="25" t="s">
-        <v>1162</v>
+        <v>539</v>
       </c>
       <c r="E372" s="32"/>
       <c r="F372" s="25" t="s">
         <v>1021</v>
       </c>
     </row>
-    <row r="373" spans="1:6" ht="30" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A373" s="25" t="s">
         <v>55</v>
       </c>
       <c r="B373" s="66" t="s">
-        <v>534</v>
-      </c>
-      <c r="C373" s="32" t="s">
-        <v>535</v>
-      </c>
-      <c r="D373" s="25" t="s">
-        <v>536</v>
-      </c>
-      <c r="E373" s="32"/>
-      <c r="F373" s="25" t="s">
-        <v>1021</v>
-      </c>
+        <v>540</v>
+      </c>
+      <c r="C373" s="51" t="s">
+        <v>541</v>
+      </c>
+      <c r="D373" s="51"/>
+      <c r="E373" s="51"/>
+      <c r="F373" s="51"/>
     </row>
     <row r="374" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A374" s="25" t="s">
         <v>55</v>
       </c>
       <c r="B374" s="66" t="s">
-        <v>537</v>
+        <v>542</v>
       </c>
       <c r="C374" s="32" t="s">
-        <v>538</v>
+        <v>543</v>
       </c>
       <c r="D374" s="25" t="s">
-        <v>539</v>
-      </c>
-      <c r="E374" s="32"/>
+        <v>520</v>
+      </c>
+      <c r="E374" s="25"/>
       <c r="F374" s="25" t="s">
         <v>1021</v>
       </c>
@@ -11200,47 +11206,47 @@
         <v>55</v>
       </c>
       <c r="B375" s="66" t="s">
-        <v>540</v>
-      </c>
-      <c r="C375" s="51" t="s">
-        <v>541</v>
-      </c>
-      <c r="D375" s="51"/>
-      <c r="E375" s="51"/>
-      <c r="F375" s="51"/>
+        <v>544</v>
+      </c>
+      <c r="C375" s="25" t="s">
+        <v>545</v>
+      </c>
+      <c r="D375" s="25" t="s">
+        <v>988</v>
+      </c>
+      <c r="E375" s="25"/>
+      <c r="F375" s="25" t="s">
+        <v>1021</v>
+      </c>
     </row>
     <row r="376" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A376" s="25" t="s">
         <v>55</v>
       </c>
       <c r="B376" s="66" t="s">
-        <v>542</v>
-      </c>
-      <c r="C376" s="32" t="s">
-        <v>543</v>
-      </c>
-      <c r="D376" s="25" t="s">
-        <v>520</v>
-      </c>
-      <c r="E376" s="25"/>
-      <c r="F376" s="25" t="s">
-        <v>1021</v>
-      </c>
+        <v>546</v>
+      </c>
+      <c r="C376" s="51" t="s">
+        <v>547</v>
+      </c>
+      <c r="D376" s="51"/>
+      <c r="E376" s="51"/>
+      <c r="F376" s="51"/>
     </row>
     <row r="377" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A377" s="25" t="s">
         <v>55</v>
       </c>
       <c r="B377" s="66" t="s">
-        <v>544</v>
-      </c>
-      <c r="C377" s="25" t="s">
-        <v>545</v>
+        <v>548</v>
+      </c>
+      <c r="C377" s="32" t="s">
+        <v>514</v>
       </c>
       <c r="D377" s="25" t="s">
-        <v>988</v>
-      </c>
-      <c r="E377" s="25"/>
+        <v>515</v>
+      </c>
+      <c r="E377" s="32"/>
       <c r="F377" s="25" t="s">
         <v>1021</v>
       </c>
@@ -11250,27 +11256,31 @@
         <v>55</v>
       </c>
       <c r="B378" s="66" t="s">
-        <v>546</v>
-      </c>
-      <c r="C378" s="51" t="s">
-        <v>547</v>
-      </c>
-      <c r="D378" s="51"/>
-      <c r="E378" s="51"/>
-      <c r="F378" s="51"/>
+        <v>549</v>
+      </c>
+      <c r="C378" s="32" t="s">
+        <v>550</v>
+      </c>
+      <c r="D378" s="25" t="s">
+        <v>993</v>
+      </c>
+      <c r="E378" s="32"/>
+      <c r="F378" s="25" t="s">
+        <v>1021</v>
+      </c>
     </row>
     <row r="379" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A379" s="25" t="s">
         <v>55</v>
       </c>
       <c r="B379" s="66" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
       <c r="C379" s="32" t="s">
-        <v>514</v>
+        <v>552</v>
       </c>
       <c r="D379" s="25" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="E379" s="32"/>
       <c r="F379" s="25" t="s">
@@ -11282,13 +11292,13 @@
         <v>55</v>
       </c>
       <c r="B380" s="66" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
       <c r="C380" s="32" t="s">
-        <v>550</v>
+        <v>554</v>
       </c>
       <c r="D380" s="25" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="E380" s="32"/>
       <c r="F380" s="25" t="s">
@@ -11300,15 +11310,15 @@
         <v>55</v>
       </c>
       <c r="B381" s="66" t="s">
-        <v>551</v>
-      </c>
-      <c r="C381" s="32" t="s">
-        <v>552</v>
+        <v>555</v>
+      </c>
+      <c r="C381" s="25" t="s">
+        <v>556</v>
       </c>
       <c r="D381" s="25" t="s">
-        <v>520</v>
-      </c>
-      <c r="E381" s="32"/>
+        <v>989</v>
+      </c>
+      <c r="E381" s="25"/>
       <c r="F381" s="25" t="s">
         <v>1021</v>
       </c>
@@ -11318,77 +11328,77 @@
         <v>55</v>
       </c>
       <c r="B382" s="66" t="s">
-        <v>553</v>
-      </c>
-      <c r="C382" s="32" t="s">
-        <v>554</v>
-      </c>
-      <c r="D382" s="25" t="s">
-        <v>991</v>
-      </c>
-      <c r="E382" s="32"/>
-      <c r="F382" s="25" t="s">
-        <v>1021</v>
-      </c>
+        <v>1205</v>
+      </c>
+      <c r="C382" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="D382" s="51"/>
+      <c r="E382" s="51"/>
+      <c r="F382" s="51"/>
     </row>
     <row r="383" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A383" s="25" t="s">
         <v>55</v>
       </c>
       <c r="B383" s="66" t="s">
-        <v>555</v>
-      </c>
-      <c r="C383" s="25" t="s">
-        <v>556</v>
-      </c>
-      <c r="D383" s="25" t="s">
-        <v>989</v>
-      </c>
-      <c r="E383" s="25"/>
-      <c r="F383" s="25" t="s">
-        <v>1021</v>
-      </c>
-    </row>
-    <row r="384" spans="1:6" x14ac:dyDescent="0.3">
+        <v>557</v>
+      </c>
+      <c r="C383" s="51" t="s">
+        <v>41</v>
+      </c>
+      <c r="D383" s="51"/>
+      <c r="E383" s="51"/>
+      <c r="F383" s="51"/>
+    </row>
+    <row r="384" spans="1:6" ht="60" x14ac:dyDescent="0.3">
       <c r="A384" s="25" t="s">
         <v>55</v>
       </c>
       <c r="B384" s="66" t="s">
-        <v>1205</v>
-      </c>
-      <c r="C384" s="41" t="s">
-        <v>43</v>
-      </c>
-      <c r="D384" s="51"/>
-      <c r="E384" s="51"/>
-      <c r="F384" s="51"/>
+        <v>558</v>
+      </c>
+      <c r="C384" s="32" t="s">
+        <v>493</v>
+      </c>
+      <c r="D384" s="25" t="s">
+        <v>929</v>
+      </c>
+      <c r="E384" s="32"/>
+      <c r="F384" s="25" t="s">
+        <v>1025</v>
+      </c>
     </row>
     <row r="385" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A385" s="25" t="s">
         <v>55</v>
       </c>
       <c r="B385" s="66" t="s">
-        <v>557</v>
-      </c>
-      <c r="C385" s="51" t="s">
-        <v>41</v>
-      </c>
-      <c r="D385" s="51"/>
-      <c r="E385" s="51"/>
-      <c r="F385" s="51"/>
-    </row>
-    <row r="386" spans="1:6" ht="60" x14ac:dyDescent="0.3">
+        <v>559</v>
+      </c>
+      <c r="C385" s="32" t="s">
+        <v>560</v>
+      </c>
+      <c r="D385" s="25" t="s">
+        <v>924</v>
+      </c>
+      <c r="E385" s="32"/>
+      <c r="F385" s="25" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="386" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A386" s="25" t="s">
         <v>55</v>
       </c>
       <c r="B386" s="66" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
       <c r="C386" s="32" t="s">
-        <v>493</v>
-      </c>
-      <c r="D386" s="25" t="s">
-        <v>929</v>
+        <v>497</v>
+      </c>
+      <c r="D386" s="25">
+        <v>78.099999999999994</v>
       </c>
       <c r="E386" s="32"/>
       <c r="F386" s="25" t="s">
@@ -11400,113 +11410,113 @@
         <v>55</v>
       </c>
       <c r="B387" s="66" t="s">
-        <v>559</v>
-      </c>
-      <c r="C387" s="32" t="s">
-        <v>560</v>
-      </c>
-      <c r="D387" s="25" t="s">
-        <v>924</v>
-      </c>
-      <c r="E387" s="32"/>
-      <c r="F387" s="25" t="s">
-        <v>1025</v>
-      </c>
+        <v>562</v>
+      </c>
+      <c r="C387" s="51" t="s">
+        <v>42</v>
+      </c>
+      <c r="D387" s="51"/>
+      <c r="E387" s="51"/>
+      <c r="F387" s="51"/>
     </row>
     <row r="388" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A388" s="25" t="s">
         <v>55</v>
       </c>
       <c r="B388" s="66" t="s">
-        <v>561</v>
-      </c>
-      <c r="C388" s="32" t="s">
-        <v>497</v>
-      </c>
-      <c r="D388" s="25">
-        <v>78.099999999999994</v>
-      </c>
-      <c r="E388" s="32"/>
-      <c r="F388" s="25" t="s">
-        <v>1025</v>
-      </c>
+        <v>563</v>
+      </c>
+      <c r="C388" s="51" t="s">
+        <v>564</v>
+      </c>
+      <c r="D388" s="51"/>
+      <c r="E388" s="51"/>
+      <c r="F388" s="51"/>
     </row>
     <row r="389" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A389" s="25" t="s">
         <v>55</v>
       </c>
       <c r="B389" s="66" t="s">
-        <v>562</v>
-      </c>
-      <c r="C389" s="51" t="s">
-        <v>42</v>
-      </c>
-      <c r="D389" s="51"/>
-      <c r="E389" s="51"/>
-      <c r="F389" s="51"/>
+        <v>565</v>
+      </c>
+      <c r="C389" s="25" t="s">
+        <v>566</v>
+      </c>
+      <c r="D389" s="25" t="s">
+        <v>567</v>
+      </c>
+      <c r="E389" s="32"/>
+      <c r="F389" s="25" t="s">
+        <v>1025</v>
+      </c>
     </row>
     <row r="390" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A390" s="25" t="s">
         <v>55</v>
       </c>
       <c r="B390" s="66" t="s">
-        <v>563</v>
-      </c>
-      <c r="C390" s="51" t="s">
-        <v>564</v>
-      </c>
-      <c r="D390" s="51"/>
-      <c r="E390" s="51"/>
-      <c r="F390" s="51"/>
-    </row>
-    <row r="391" spans="1:6" x14ac:dyDescent="0.3">
+        <v>568</v>
+      </c>
+      <c r="C390" s="32" t="s">
+        <v>569</v>
+      </c>
+      <c r="D390" s="25" t="s">
+        <v>570</v>
+      </c>
+      <c r="E390" s="32"/>
+      <c r="F390" s="25" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="391" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A391" s="25" t="s">
         <v>55</v>
       </c>
       <c r="B391" s="66" t="s">
-        <v>565</v>
-      </c>
-      <c r="C391" s="25" t="s">
-        <v>566</v>
+        <v>571</v>
+      </c>
+      <c r="C391" s="32" t="s">
+        <v>572</v>
       </c>
       <c r="D391" s="25" t="s">
-        <v>567</v>
+        <v>525</v>
       </c>
       <c r="E391" s="32"/>
       <c r="F391" s="25" t="s">
         <v>1025</v>
       </c>
     </row>
-    <row r="392" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A392" s="25" t="s">
         <v>55</v>
       </c>
       <c r="B392" s="66" t="s">
-        <v>568</v>
+        <v>573</v>
       </c>
       <c r="C392" s="32" t="s">
-        <v>569</v>
+        <v>574</v>
       </c>
       <c r="D392" s="25" t="s">
-        <v>570</v>
+        <v>536</v>
       </c>
       <c r="E392" s="32"/>
       <c r="F392" s="25" t="s">
         <v>1025</v>
       </c>
     </row>
-    <row r="393" spans="1:6" ht="30" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A393" s="25" t="s">
         <v>55</v>
       </c>
       <c r="B393" s="66" t="s">
-        <v>571</v>
+        <v>575</v>
       </c>
       <c r="C393" s="32" t="s">
-        <v>572</v>
+        <v>576</v>
       </c>
       <c r="D393" s="25" t="s">
-        <v>525</v>
+        <v>539</v>
       </c>
       <c r="E393" s="32"/>
       <c r="F393" s="25" t="s">
@@ -11518,13 +11528,13 @@
         <v>55</v>
       </c>
       <c r="B394" s="66" t="s">
-        <v>573</v>
+        <v>577</v>
       </c>
       <c r="C394" s="32" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
       <c r="D394" s="25" t="s">
-        <v>536</v>
+        <v>510</v>
       </c>
       <c r="E394" s="32"/>
       <c r="F394" s="25" t="s">
@@ -11536,31 +11546,27 @@
         <v>55</v>
       </c>
       <c r="B395" s="66" t="s">
-        <v>575</v>
-      </c>
-      <c r="C395" s="32" t="s">
-        <v>576</v>
-      </c>
-      <c r="D395" s="25" t="s">
-        <v>539</v>
-      </c>
-      <c r="E395" s="32"/>
-      <c r="F395" s="25" t="s">
-        <v>1025</v>
-      </c>
-    </row>
-    <row r="396" spans="1:6" ht="30" x14ac:dyDescent="0.3">
+        <v>579</v>
+      </c>
+      <c r="C395" s="51" t="s">
+        <v>541</v>
+      </c>
+      <c r="D395" s="51"/>
+      <c r="E395" s="51"/>
+      <c r="F395" s="51"/>
+    </row>
+    <row r="396" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A396" s="25" t="s">
         <v>55</v>
       </c>
       <c r="B396" s="66" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="C396" s="32" t="s">
-        <v>578</v>
+        <v>543</v>
       </c>
       <c r="D396" s="25" t="s">
-        <v>510</v>
+        <v>520</v>
       </c>
       <c r="E396" s="32"/>
       <c r="F396" s="25" t="s">
@@ -11572,47 +11578,47 @@
         <v>55</v>
       </c>
       <c r="B397" s="66" t="s">
-        <v>579</v>
-      </c>
-      <c r="C397" s="51" t="s">
-        <v>541</v>
-      </c>
-      <c r="D397" s="51"/>
-      <c r="E397" s="51"/>
-      <c r="F397" s="51"/>
+        <v>581</v>
+      </c>
+      <c r="C397" s="25" t="s">
+        <v>545</v>
+      </c>
+      <c r="D397" s="25" t="s">
+        <v>988</v>
+      </c>
+      <c r="E397" s="25"/>
+      <c r="F397" s="25" t="s">
+        <v>1025</v>
+      </c>
     </row>
     <row r="398" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A398" s="25" t="s">
         <v>55</v>
       </c>
       <c r="B398" s="66" t="s">
-        <v>580</v>
-      </c>
-      <c r="C398" s="32" t="s">
-        <v>543</v>
-      </c>
-      <c r="D398" s="25" t="s">
-        <v>520</v>
-      </c>
-      <c r="E398" s="32"/>
-      <c r="F398" s="25" t="s">
-        <v>1025</v>
-      </c>
+        <v>582</v>
+      </c>
+      <c r="C398" s="51" t="s">
+        <v>547</v>
+      </c>
+      <c r="D398" s="51"/>
+      <c r="E398" s="51"/>
+      <c r="F398" s="51"/>
     </row>
     <row r="399" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A399" s="25" t="s">
         <v>55</v>
       </c>
       <c r="B399" s="66" t="s">
-        <v>581</v>
-      </c>
-      <c r="C399" s="25" t="s">
-        <v>545</v>
+        <v>583</v>
+      </c>
+      <c r="C399" s="32" t="s">
+        <v>514</v>
       </c>
       <c r="D399" s="25" t="s">
-        <v>988</v>
-      </c>
-      <c r="E399" s="25"/>
+        <v>515</v>
+      </c>
+      <c r="E399" s="32"/>
       <c r="F399" s="25" t="s">
         <v>1025</v>
       </c>
@@ -11622,27 +11628,31 @@
         <v>55</v>
       </c>
       <c r="B400" s="66" t="s">
-        <v>582</v>
-      </c>
-      <c r="C400" s="51" t="s">
-        <v>547</v>
-      </c>
-      <c r="D400" s="51"/>
-      <c r="E400" s="51"/>
-      <c r="F400" s="51"/>
+        <v>584</v>
+      </c>
+      <c r="C400" s="32" t="s">
+        <v>585</v>
+      </c>
+      <c r="D400" s="25" t="s">
+        <v>993</v>
+      </c>
+      <c r="E400" s="32"/>
+      <c r="F400" s="25" t="s">
+        <v>1025</v>
+      </c>
     </row>
     <row r="401" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A401" s="25" t="s">
         <v>55</v>
       </c>
       <c r="B401" s="66" t="s">
-        <v>583</v>
+        <v>586</v>
       </c>
       <c r="C401" s="32" t="s">
-        <v>514</v>
+        <v>552</v>
       </c>
       <c r="D401" s="25" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="E401" s="32"/>
       <c r="F401" s="25" t="s">
@@ -11654,15 +11664,15 @@
         <v>55</v>
       </c>
       <c r="B402" s="66" t="s">
-        <v>584</v>
+        <v>587</v>
       </c>
       <c r="C402" s="32" t="s">
-        <v>585</v>
+        <v>554</v>
       </c>
       <c r="D402" s="25" t="s">
-        <v>993</v>
-      </c>
-      <c r="E402" s="32"/>
+        <v>991</v>
+      </c>
+      <c r="E402" s="25"/>
       <c r="F402" s="25" t="s">
         <v>1025</v>
       </c>
@@ -11672,15 +11682,15 @@
         <v>55</v>
       </c>
       <c r="B403" s="66" t="s">
-        <v>586</v>
-      </c>
-      <c r="C403" s="32" t="s">
-        <v>552</v>
+        <v>588</v>
+      </c>
+      <c r="C403" s="25" t="s">
+        <v>556</v>
       </c>
       <c r="D403" s="25" t="s">
-        <v>520</v>
-      </c>
-      <c r="E403" s="32"/>
+        <v>989</v>
+      </c>
+      <c r="E403" s="25"/>
       <c r="F403" s="25" t="s">
         <v>1025</v>
       </c>
@@ -11690,77 +11700,77 @@
         <v>55</v>
       </c>
       <c r="B404" s="66" t="s">
-        <v>587</v>
-      </c>
-      <c r="C404" s="32" t="s">
-        <v>554</v>
-      </c>
-      <c r="D404" s="25" t="s">
-        <v>991</v>
-      </c>
-      <c r="E404" s="25"/>
-      <c r="F404" s="25" t="s">
-        <v>1025</v>
-      </c>
+        <v>1206</v>
+      </c>
+      <c r="C404" s="41" t="s">
+        <v>44</v>
+      </c>
+      <c r="D404" s="51"/>
+      <c r="E404" s="51"/>
+      <c r="F404" s="51"/>
     </row>
     <row r="405" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A405" s="25" t="s">
         <v>55</v>
       </c>
       <c r="B405" s="66" t="s">
-        <v>588</v>
-      </c>
-      <c r="C405" s="25" t="s">
-        <v>556</v>
-      </c>
-      <c r="D405" s="25" t="s">
-        <v>989</v>
-      </c>
-      <c r="E405" s="25"/>
-      <c r="F405" s="25" t="s">
-        <v>1025</v>
-      </c>
-    </row>
-    <row r="406" spans="1:6" x14ac:dyDescent="0.3">
+        <v>589</v>
+      </c>
+      <c r="C405" s="51" t="s">
+        <v>41</v>
+      </c>
+      <c r="D405" s="51"/>
+      <c r="E405" s="51"/>
+      <c r="F405" s="51"/>
+    </row>
+    <row r="406" spans="1:6" ht="45" x14ac:dyDescent="0.3">
       <c r="A406" s="25" t="s">
         <v>55</v>
       </c>
       <c r="B406" s="66" t="s">
-        <v>1206</v>
-      </c>
-      <c r="C406" s="41" t="s">
-        <v>44</v>
-      </c>
-      <c r="D406" s="51"/>
-      <c r="E406" s="51"/>
-      <c r="F406" s="51"/>
+        <v>590</v>
+      </c>
+      <c r="C406" s="32" t="s">
+        <v>591</v>
+      </c>
+      <c r="D406" s="25">
+        <v>78.3</v>
+      </c>
+      <c r="E406" s="32"/>
+      <c r="F406" s="25" t="s">
+        <v>1026</v>
+      </c>
     </row>
     <row r="407" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A407" s="25" t="s">
         <v>55</v>
       </c>
       <c r="B407" s="66" t="s">
-        <v>589</v>
-      </c>
-      <c r="C407" s="51" t="s">
-        <v>41</v>
-      </c>
-      <c r="D407" s="51"/>
-      <c r="E407" s="51"/>
-      <c r="F407" s="51"/>
-    </row>
-    <row r="408" spans="1:6" ht="45" x14ac:dyDescent="0.3">
+        <v>592</v>
+      </c>
+      <c r="C407" s="25" t="s">
+        <v>593</v>
+      </c>
+      <c r="D407" s="25" t="s">
+        <v>924</v>
+      </c>
+      <c r="E407" s="25"/>
+      <c r="F407" s="25" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="408" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A408" s="25" t="s">
         <v>55</v>
       </c>
       <c r="B408" s="66" t="s">
-        <v>590</v>
+        <v>594</v>
       </c>
       <c r="C408" s="32" t="s">
-        <v>591</v>
+        <v>595</v>
       </c>
       <c r="D408" s="25">
-        <v>78.3</v>
+        <v>78.099999999999994</v>
       </c>
       <c r="E408" s="32"/>
       <c r="F408" s="25" t="s">
@@ -11772,95 +11782,95 @@
         <v>55</v>
       </c>
       <c r="B409" s="66" t="s">
-        <v>592</v>
-      </c>
-      <c r="C409" s="25" t="s">
-        <v>593</v>
-      </c>
-      <c r="D409" s="25" t="s">
-        <v>924</v>
-      </c>
-      <c r="E409" s="25"/>
-      <c r="F409" s="25" t="s">
-        <v>1026</v>
-      </c>
+        <v>596</v>
+      </c>
+      <c r="C409" s="51" t="s">
+        <v>42</v>
+      </c>
+      <c r="D409" s="51"/>
+      <c r="E409" s="51"/>
+      <c r="F409" s="51"/>
     </row>
     <row r="410" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A410" s="25" t="s">
         <v>55</v>
       </c>
       <c r="B410" s="66" t="s">
-        <v>594</v>
-      </c>
-      <c r="C410" s="32" t="s">
-        <v>595</v>
-      </c>
-      <c r="D410" s="25">
-        <v>78.099999999999994</v>
-      </c>
-      <c r="E410" s="32"/>
-      <c r="F410" s="25" t="s">
-        <v>1026</v>
-      </c>
+        <v>597</v>
+      </c>
+      <c r="C410" s="51" t="s">
+        <v>564</v>
+      </c>
+      <c r="D410" s="51"/>
+      <c r="E410" s="51"/>
+      <c r="F410" s="51"/>
     </row>
     <row r="411" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A411" s="25" t="s">
         <v>55</v>
       </c>
       <c r="B411" s="66" t="s">
-        <v>596</v>
-      </c>
-      <c r="C411" s="51" t="s">
-        <v>42</v>
-      </c>
-      <c r="D411" s="51"/>
-      <c r="E411" s="51"/>
-      <c r="F411" s="51"/>
+        <v>598</v>
+      </c>
+      <c r="C411" s="32" t="s">
+        <v>599</v>
+      </c>
+      <c r="D411" s="25" t="s">
+        <v>963</v>
+      </c>
+      <c r="E411" s="32"/>
+      <c r="F411" s="25" t="s">
+        <v>1026</v>
+      </c>
     </row>
     <row r="412" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A412" s="25" t="s">
         <v>55</v>
       </c>
       <c r="B412" s="66" t="s">
-        <v>597</v>
-      </c>
-      <c r="C412" s="51" t="s">
-        <v>564</v>
-      </c>
-      <c r="D412" s="51"/>
-      <c r="E412" s="51"/>
-      <c r="F412" s="51"/>
+        <v>600</v>
+      </c>
+      <c r="C412" s="32" t="s">
+        <v>601</v>
+      </c>
+      <c r="D412" s="25" t="s">
+        <v>602</v>
+      </c>
+      <c r="E412" s="32"/>
+      <c r="F412" s="25" t="s">
+        <v>1026</v>
+      </c>
     </row>
     <row r="413" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A413" s="25" t="s">
         <v>55</v>
       </c>
       <c r="B413" s="66" t="s">
-        <v>598</v>
+        <v>603</v>
       </c>
       <c r="C413" s="32" t="s">
-        <v>599</v>
+        <v>604</v>
       </c>
       <c r="D413" s="25" t="s">
-        <v>963</v>
+        <v>504</v>
       </c>
       <c r="E413" s="32"/>
       <c r="F413" s="25" t="s">
         <v>1026</v>
       </c>
     </row>
-    <row r="414" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A414" s="25" t="s">
         <v>55</v>
       </c>
       <c r="B414" s="66" t="s">
-        <v>600</v>
+        <v>605</v>
       </c>
       <c r="C414" s="32" t="s">
-        <v>601</v>
+        <v>606</v>
       </c>
       <c r="D414" s="25" t="s">
-        <v>602</v>
+        <v>525</v>
       </c>
       <c r="E414" s="32"/>
       <c r="F414" s="25" t="s">
@@ -11872,13 +11882,13 @@
         <v>55</v>
       </c>
       <c r="B415" s="66" t="s">
-        <v>603</v>
+        <v>607</v>
       </c>
       <c r="C415" s="32" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="D415" s="25" t="s">
-        <v>504</v>
+        <v>539</v>
       </c>
       <c r="E415" s="32"/>
       <c r="F415" s="25" t="s">
@@ -11890,13 +11900,13 @@
         <v>55</v>
       </c>
       <c r="B416" s="66" t="s">
-        <v>605</v>
+        <v>609</v>
       </c>
       <c r="C416" s="32" t="s">
-        <v>606</v>
+        <v>578</v>
       </c>
       <c r="D416" s="25" t="s">
-        <v>525</v>
+        <v>510</v>
       </c>
       <c r="E416" s="32"/>
       <c r="F416" s="25" t="s">
@@ -11908,31 +11918,27 @@
         <v>55</v>
       </c>
       <c r="B417" s="66" t="s">
-        <v>607</v>
-      </c>
-      <c r="C417" s="32" t="s">
-        <v>608</v>
-      </c>
-      <c r="D417" s="25" t="s">
-        <v>539</v>
-      </c>
-      <c r="E417" s="32"/>
-      <c r="F417" s="25" t="s">
-        <v>1026</v>
-      </c>
-    </row>
-    <row r="418" spans="1:6" ht="30" x14ac:dyDescent="0.3">
+        <v>610</v>
+      </c>
+      <c r="C417" s="51" t="s">
+        <v>541</v>
+      </c>
+      <c r="D417" s="51"/>
+      <c r="E417" s="51"/>
+      <c r="F417" s="51"/>
+    </row>
+    <row r="418" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A418" s="25" t="s">
         <v>55</v>
       </c>
       <c r="B418" s="66" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="C418" s="32" t="s">
-        <v>578</v>
+        <v>543</v>
       </c>
       <c r="D418" s="25" t="s">
-        <v>510</v>
+        <v>520</v>
       </c>
       <c r="E418" s="32"/>
       <c r="F418" s="25" t="s">
@@ -11944,47 +11950,47 @@
         <v>55</v>
       </c>
       <c r="B419" s="66" t="s">
-        <v>610</v>
-      </c>
-      <c r="C419" s="51" t="s">
-        <v>541</v>
-      </c>
-      <c r="D419" s="51"/>
-      <c r="E419" s="51"/>
-      <c r="F419" s="51"/>
+        <v>612</v>
+      </c>
+      <c r="C419" s="25" t="s">
+        <v>545</v>
+      </c>
+      <c r="D419" s="25" t="s">
+        <v>988</v>
+      </c>
+      <c r="E419" s="25"/>
+      <c r="F419" s="25" t="s">
+        <v>1026</v>
+      </c>
     </row>
     <row r="420" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A420" s="25" t="s">
         <v>55</v>
       </c>
       <c r="B420" s="66" t="s">
-        <v>611</v>
-      </c>
-      <c r="C420" s="32" t="s">
-        <v>543</v>
-      </c>
-      <c r="D420" s="25" t="s">
-        <v>520</v>
-      </c>
-      <c r="E420" s="32"/>
-      <c r="F420" s="25" t="s">
-        <v>1026</v>
-      </c>
+        <v>613</v>
+      </c>
+      <c r="C420" s="51" t="s">
+        <v>547</v>
+      </c>
+      <c r="D420" s="51"/>
+      <c r="E420" s="51"/>
+      <c r="F420" s="51"/>
     </row>
     <row r="421" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A421" s="25" t="s">
         <v>55</v>
       </c>
       <c r="B421" s="66" t="s">
-        <v>612</v>
-      </c>
-      <c r="C421" s="25" t="s">
-        <v>545</v>
+        <v>614</v>
+      </c>
+      <c r="C421" s="32" t="s">
+        <v>514</v>
       </c>
       <c r="D421" s="25" t="s">
-        <v>988</v>
-      </c>
-      <c r="E421" s="25"/>
+        <v>515</v>
+      </c>
+      <c r="E421" s="32"/>
       <c r="F421" s="25" t="s">
         <v>1026</v>
       </c>
@@ -11994,27 +12000,31 @@
         <v>55</v>
       </c>
       <c r="B422" s="66" t="s">
-        <v>613</v>
-      </c>
-      <c r="C422" s="51" t="s">
-        <v>547</v>
-      </c>
-      <c r="D422" s="51"/>
-      <c r="E422" s="51"/>
-      <c r="F422" s="51"/>
+        <v>615</v>
+      </c>
+      <c r="C422" s="32" t="s">
+        <v>585</v>
+      </c>
+      <c r="D422" s="25" t="s">
+        <v>993</v>
+      </c>
+      <c r="E422" s="32"/>
+      <c r="F422" s="25" t="s">
+        <v>1026</v>
+      </c>
     </row>
     <row r="423" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A423" s="25" t="s">
         <v>55</v>
       </c>
       <c r="B423" s="66" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="C423" s="32" t="s">
-        <v>514</v>
+        <v>552</v>
       </c>
       <c r="D423" s="25" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="E423" s="32"/>
       <c r="F423" s="25" t="s">
@@ -12026,15 +12036,15 @@
         <v>55</v>
       </c>
       <c r="B424" s="66" t="s">
-        <v>615</v>
-      </c>
-      <c r="C424" s="32" t="s">
-        <v>585</v>
+        <v>617</v>
+      </c>
+      <c r="C424" s="25" t="s">
+        <v>554</v>
       </c>
       <c r="D424" s="25" t="s">
-        <v>993</v>
-      </c>
-      <c r="E424" s="32"/>
+        <v>991</v>
+      </c>
+      <c r="E424" s="25"/>
       <c r="F424" s="25" t="s">
         <v>1026</v>
       </c>
@@ -12044,15 +12054,15 @@
         <v>55</v>
       </c>
       <c r="B425" s="66" t="s">
-        <v>616</v>
-      </c>
-      <c r="C425" s="32" t="s">
-        <v>552</v>
+        <v>618</v>
+      </c>
+      <c r="C425" s="25" t="s">
+        <v>556</v>
       </c>
       <c r="D425" s="25" t="s">
-        <v>520</v>
-      </c>
-      <c r="E425" s="32"/>
+        <v>989</v>
+      </c>
+      <c r="E425" s="25"/>
       <c r="F425" s="25" t="s">
         <v>1026</v>
       </c>
@@ -12062,77 +12072,77 @@
         <v>55</v>
       </c>
       <c r="B426" s="66" t="s">
-        <v>617</v>
-      </c>
-      <c r="C426" s="25" t="s">
-        <v>554</v>
-      </c>
-      <c r="D426" s="25" t="s">
-        <v>991</v>
-      </c>
-      <c r="E426" s="25"/>
-      <c r="F426" s="25" t="s">
-        <v>1026</v>
-      </c>
+        <v>1207</v>
+      </c>
+      <c r="C426" s="41" t="s">
+        <v>45</v>
+      </c>
+      <c r="D426" s="51"/>
+      <c r="E426" s="51"/>
+      <c r="F426" s="51"/>
     </row>
     <row r="427" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A427" s="25" t="s">
         <v>55</v>
       </c>
       <c r="B427" s="66" t="s">
-        <v>618</v>
-      </c>
-      <c r="C427" s="25" t="s">
-        <v>556</v>
-      </c>
-      <c r="D427" s="25" t="s">
-        <v>989</v>
-      </c>
-      <c r="E427" s="25"/>
-      <c r="F427" s="25" t="s">
-        <v>1026</v>
-      </c>
-    </row>
-    <row r="428" spans="1:6" x14ac:dyDescent="0.3">
+        <v>619</v>
+      </c>
+      <c r="C427" s="51" t="s">
+        <v>41</v>
+      </c>
+      <c r="D427" s="51"/>
+      <c r="E427" s="51"/>
+      <c r="F427" s="51"/>
+    </row>
+    <row r="428" spans="1:6" ht="45" x14ac:dyDescent="0.3">
       <c r="A428" s="25" t="s">
         <v>55</v>
       </c>
       <c r="B428" s="66" t="s">
-        <v>1207</v>
-      </c>
-      <c r="C428" s="41" t="s">
-        <v>45</v>
-      </c>
-      <c r="D428" s="51"/>
-      <c r="E428" s="51"/>
-      <c r="F428" s="51"/>
+        <v>620</v>
+      </c>
+      <c r="C428" s="32" t="s">
+        <v>591</v>
+      </c>
+      <c r="D428" s="25">
+        <v>78.3</v>
+      </c>
+      <c r="E428" s="32"/>
+      <c r="F428" s="25" t="s">
+        <v>1027</v>
+      </c>
     </row>
     <row r="429" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A429" s="25" t="s">
         <v>55</v>
       </c>
       <c r="B429" s="66" t="s">
-        <v>619</v>
-      </c>
-      <c r="C429" s="51" t="s">
-        <v>41</v>
-      </c>
-      <c r="D429" s="51"/>
-      <c r="E429" s="51"/>
-      <c r="F429" s="51"/>
-    </row>
-    <row r="430" spans="1:6" ht="45" x14ac:dyDescent="0.3">
+        <v>621</v>
+      </c>
+      <c r="C429" s="32" t="s">
+        <v>622</v>
+      </c>
+      <c r="D429" s="25">
+        <v>78.099999999999994</v>
+      </c>
+      <c r="E429" s="32"/>
+      <c r="F429" s="25" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="430" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A430" s="25" t="s">
         <v>55</v>
       </c>
       <c r="B430" s="66" t="s">
-        <v>620</v>
+        <v>623</v>
       </c>
       <c r="C430" s="32" t="s">
-        <v>591</v>
+        <v>595</v>
       </c>
       <c r="D430" s="25">
-        <v>78.3</v>
+        <v>78.099999999999994</v>
       </c>
       <c r="E430" s="32"/>
       <c r="F430" s="25" t="s">
@@ -12144,79 +12154,79 @@
         <v>55</v>
       </c>
       <c r="B431" s="66" t="s">
-        <v>621</v>
-      </c>
-      <c r="C431" s="32" t="s">
-        <v>622</v>
-      </c>
-      <c r="D431" s="25">
-        <v>78.099999999999994</v>
-      </c>
-      <c r="E431" s="32"/>
-      <c r="F431" s="25" t="s">
-        <v>1027</v>
-      </c>
+        <v>624</v>
+      </c>
+      <c r="C431" s="51" t="s">
+        <v>42</v>
+      </c>
+      <c r="D431" s="51"/>
+      <c r="E431" s="51"/>
+      <c r="F431" s="51"/>
     </row>
     <row r="432" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A432" s="25" t="s">
         <v>55</v>
       </c>
       <c r="B432" s="66" t="s">
-        <v>623</v>
-      </c>
-      <c r="C432" s="32" t="s">
-        <v>595</v>
-      </c>
-      <c r="D432" s="25">
-        <v>78.099999999999994</v>
-      </c>
-      <c r="E432" s="32"/>
-      <c r="F432" s="25" t="s">
-        <v>1027</v>
-      </c>
+        <v>625</v>
+      </c>
+      <c r="C432" s="51" t="s">
+        <v>564</v>
+      </c>
+      <c r="D432" s="51"/>
+      <c r="E432" s="51"/>
+      <c r="F432" s="51"/>
     </row>
     <row r="433" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A433" s="25" t="s">
         <v>55</v>
       </c>
       <c r="B433" s="66" t="s">
-        <v>624</v>
-      </c>
-      <c r="C433" s="51" t="s">
-        <v>42</v>
-      </c>
-      <c r="D433" s="51"/>
-      <c r="E433" s="51"/>
-      <c r="F433" s="51"/>
+        <v>626</v>
+      </c>
+      <c r="C433" s="25" t="s">
+        <v>566</v>
+      </c>
+      <c r="D433" s="25" t="s">
+        <v>567</v>
+      </c>
+      <c r="E433" s="25"/>
+      <c r="F433" s="25" t="s">
+        <v>1027</v>
+      </c>
     </row>
     <row r="434" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A434" s="25" t="s">
         <v>55</v>
       </c>
       <c r="B434" s="66" t="s">
-        <v>625</v>
-      </c>
-      <c r="C434" s="51" t="s">
-        <v>564</v>
-      </c>
-      <c r="D434" s="51"/>
-      <c r="E434" s="51"/>
-      <c r="F434" s="51"/>
+        <v>627</v>
+      </c>
+      <c r="C434" s="32" t="s">
+        <v>628</v>
+      </c>
+      <c r="D434" s="25" t="s">
+        <v>501</v>
+      </c>
+      <c r="E434" s="32"/>
+      <c r="F434" s="25" t="s">
+        <v>1027</v>
+      </c>
     </row>
     <row r="435" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A435" s="25" t="s">
         <v>55</v>
       </c>
       <c r="B435" s="66" t="s">
-        <v>626</v>
-      </c>
-      <c r="C435" s="25" t="s">
-        <v>566</v>
+        <v>629</v>
+      </c>
+      <c r="C435" s="32" t="s">
+        <v>630</v>
       </c>
       <c r="D435" s="25" t="s">
-        <v>567</v>
-      </c>
-      <c r="E435" s="25"/>
+        <v>504</v>
+      </c>
+      <c r="E435" s="32"/>
       <c r="F435" s="25" t="s">
         <v>1027</v>
       </c>
@@ -12226,15 +12236,15 @@
         <v>55</v>
       </c>
       <c r="B436" s="66" t="s">
-        <v>627</v>
-      </c>
-      <c r="C436" s="32" t="s">
-        <v>628</v>
+        <v>631</v>
+      </c>
+      <c r="C436" s="25" t="s">
+        <v>632</v>
       </c>
       <c r="D436" s="25" t="s">
-        <v>501</v>
-      </c>
-      <c r="E436" s="32"/>
+        <v>510</v>
+      </c>
+      <c r="E436" s="25"/>
       <c r="F436" s="25" t="s">
         <v>1027</v>
       </c>
@@ -12244,31 +12254,27 @@
         <v>55</v>
       </c>
       <c r="B437" s="66" t="s">
-        <v>629</v>
-      </c>
-      <c r="C437" s="32" t="s">
-        <v>630</v>
-      </c>
-      <c r="D437" s="25" t="s">
-        <v>504</v>
-      </c>
-      <c r="E437" s="32"/>
-      <c r="F437" s="25" t="s">
-        <v>1027</v>
-      </c>
+        <v>633</v>
+      </c>
+      <c r="C437" s="51" t="s">
+        <v>634</v>
+      </c>
+      <c r="D437" s="51"/>
+      <c r="E437" s="51"/>
+      <c r="F437" s="51"/>
     </row>
     <row r="438" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A438" s="25" t="s">
         <v>55</v>
       </c>
       <c r="B438" s="66" t="s">
-        <v>631</v>
+        <v>635</v>
       </c>
       <c r="C438" s="25" t="s">
-        <v>632</v>
+        <v>1147</v>
       </c>
       <c r="D438" s="25" t="s">
-        <v>510</v>
+        <v>636</v>
       </c>
       <c r="E438" s="25"/>
       <c r="F438" s="25" t="s">
@@ -12280,27 +12286,31 @@
         <v>55</v>
       </c>
       <c r="B439" s="66" t="s">
-        <v>633</v>
-      </c>
-      <c r="C439" s="51" t="s">
-        <v>634</v>
-      </c>
-      <c r="D439" s="51"/>
-      <c r="E439" s="51"/>
-      <c r="F439" s="51"/>
+        <v>637</v>
+      </c>
+      <c r="C439" s="25" t="s">
+        <v>1146</v>
+      </c>
+      <c r="D439" s="25" t="s">
+        <v>638</v>
+      </c>
+      <c r="E439" s="25"/>
+      <c r="F439" s="25" t="s">
+        <v>1027</v>
+      </c>
     </row>
     <row r="440" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A440" s="25" t="s">
         <v>55</v>
       </c>
       <c r="B440" s="66" t="s">
-        <v>635</v>
+        <v>639</v>
       </c>
       <c r="C440" s="25" t="s">
-        <v>1147</v>
+        <v>640</v>
       </c>
       <c r="D440" s="25" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="E440" s="25"/>
       <c r="F440" s="25" t="s">
@@ -12312,33 +12322,29 @@
         <v>55</v>
       </c>
       <c r="B441" s="66" t="s">
-        <v>637</v>
-      </c>
-      <c r="C441" s="25" t="s">
-        <v>1146</v>
-      </c>
-      <c r="D441" s="25" t="s">
-        <v>638</v>
-      </c>
-      <c r="E441" s="25"/>
-      <c r="F441" s="25" t="s">
-        <v>1027</v>
-      </c>
+        <v>641</v>
+      </c>
+      <c r="C441" s="51" t="s">
+        <v>547</v>
+      </c>
+      <c r="D441" s="51"/>
+      <c r="E441" s="51"/>
+      <c r="F441" s="51"/>
     </row>
     <row r="442" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A442" s="25" t="s">
         <v>55</v>
       </c>
       <c r="B442" s="66" t="s">
-        <v>639</v>
-      </c>
-      <c r="C442" s="25" t="s">
-        <v>640</v>
+        <v>642</v>
+      </c>
+      <c r="C442" s="32" t="s">
+        <v>514</v>
       </c>
       <c r="D442" s="25" t="s">
-        <v>638</v>
-      </c>
-      <c r="E442" s="25"/>
+        <v>515</v>
+      </c>
+      <c r="E442" s="32"/>
       <c r="F442" s="25" t="s">
         <v>1027</v>
       </c>
@@ -12348,27 +12354,31 @@
         <v>55</v>
       </c>
       <c r="B443" s="66" t="s">
-        <v>641</v>
-      </c>
-      <c r="C443" s="51" t="s">
-        <v>547</v>
-      </c>
-      <c r="D443" s="51"/>
-      <c r="E443" s="51"/>
-      <c r="F443" s="51"/>
+        <v>643</v>
+      </c>
+      <c r="C443" s="32" t="s">
+        <v>644</v>
+      </c>
+      <c r="D443" s="25" t="s">
+        <v>518</v>
+      </c>
+      <c r="E443" s="32"/>
+      <c r="F443" s="25" t="s">
+        <v>1027</v>
+      </c>
     </row>
     <row r="444" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A444" s="25" t="s">
         <v>55</v>
       </c>
       <c r="B444" s="66" t="s">
-        <v>642</v>
+        <v>645</v>
       </c>
       <c r="C444" s="32" t="s">
-        <v>514</v>
+        <v>552</v>
       </c>
       <c r="D444" s="25" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="E444" s="32"/>
       <c r="F444" s="25" t="s">
@@ -12380,15 +12390,15 @@
         <v>55</v>
       </c>
       <c r="B445" s="66" t="s">
-        <v>643</v>
-      </c>
-      <c r="C445" s="32" t="s">
-        <v>644</v>
+        <v>646</v>
+      </c>
+      <c r="C445" s="25" t="s">
+        <v>554</v>
       </c>
       <c r="D445" s="25" t="s">
-        <v>518</v>
-      </c>
-      <c r="E445" s="32"/>
+        <v>520</v>
+      </c>
+      <c r="E445" s="25"/>
       <c r="F445" s="25" t="s">
         <v>1027</v>
       </c>
@@ -12398,33 +12408,33 @@
         <v>55</v>
       </c>
       <c r="B446" s="66" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="C446" s="32" t="s">
-        <v>552</v>
+        <v>522</v>
       </c>
       <c r="D446" s="25" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="E446" s="32"/>
       <c r="F446" s="25" t="s">
         <v>1027</v>
       </c>
     </row>
-    <row r="447" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A447" s="25" t="s">
         <v>55</v>
       </c>
       <c r="B447" s="66" t="s">
-        <v>646</v>
-      </c>
-      <c r="C447" s="25" t="s">
-        <v>554</v>
+        <v>648</v>
+      </c>
+      <c r="C447" s="32" t="s">
+        <v>606</v>
       </c>
       <c r="D447" s="25" t="s">
-        <v>520</v>
-      </c>
-      <c r="E447" s="25"/>
+        <v>525</v>
+      </c>
+      <c r="E447" s="32"/>
       <c r="F447" s="25" t="s">
         <v>1027</v>
       </c>
@@ -12434,81 +12444,81 @@
         <v>55</v>
       </c>
       <c r="B448" s="66" t="s">
-        <v>647</v>
-      </c>
-      <c r="C448" s="32" t="s">
-        <v>522</v>
-      </c>
-      <c r="D448" s="25" t="s">
-        <v>523</v>
-      </c>
-      <c r="E448" s="32"/>
-      <c r="F448" s="25" t="s">
-        <v>1027</v>
-      </c>
-    </row>
-    <row r="449" spans="1:6" ht="30" x14ac:dyDescent="0.3">
+        <v>649</v>
+      </c>
+      <c r="C448" s="51" t="s">
+        <v>527</v>
+      </c>
+      <c r="D448" s="51"/>
+      <c r="E448" s="51"/>
+      <c r="F448" s="51"/>
+    </row>
+    <row r="449" spans="1:6" ht="45" x14ac:dyDescent="0.3">
       <c r="A449" s="25" t="s">
         <v>55</v>
       </c>
       <c r="B449" s="66" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="C449" s="32" t="s">
-        <v>606</v>
+        <v>530</v>
       </c>
       <c r="D449" s="25" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="E449" s="32"/>
       <c r="F449" s="25" t="s">
         <v>1027</v>
       </c>
     </row>
-    <row r="450" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A450" s="25" t="s">
         <v>55</v>
       </c>
       <c r="B450" s="66" t="s">
-        <v>649</v>
-      </c>
-      <c r="C450" s="51" t="s">
-        <v>527</v>
-      </c>
-      <c r="D450" s="51"/>
-      <c r="E450" s="51"/>
-      <c r="F450" s="51"/>
-    </row>
-    <row r="451" spans="1:6" ht="45" x14ac:dyDescent="0.3">
+        <v>651</v>
+      </c>
+      <c r="C450" s="32" t="s">
+        <v>532</v>
+      </c>
+      <c r="D450" s="25" t="s">
+        <v>1162</v>
+      </c>
+      <c r="E450" s="32"/>
+      <c r="F450" s="25" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="451" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A451" s="25" t="s">
         <v>55</v>
       </c>
       <c r="B451" s="66" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="C451" s="32" t="s">
-        <v>530</v>
+        <v>653</v>
       </c>
       <c r="D451" s="25" t="s">
-        <v>528</v>
+        <v>1164</v>
       </c>
       <c r="E451" s="32"/>
       <c r="F451" s="25" t="s">
         <v>1027</v>
       </c>
     </row>
-    <row r="452" spans="1:6" ht="30" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A452" s="25" t="s">
         <v>55</v>
       </c>
       <c r="B452" s="66" t="s">
-        <v>651</v>
+        <v>654</v>
       </c>
       <c r="C452" s="32" t="s">
-        <v>532</v>
+        <v>608</v>
       </c>
       <c r="D452" s="25" t="s">
-        <v>1162</v>
+        <v>539</v>
       </c>
       <c r="E452" s="32"/>
       <c r="F452" s="25" t="s">
@@ -12520,31 +12530,27 @@
         <v>55</v>
       </c>
       <c r="B453" s="66" t="s">
-        <v>652</v>
-      </c>
-      <c r="C453" s="32" t="s">
-        <v>653</v>
-      </c>
-      <c r="D453" s="25" t="s">
-        <v>1164</v>
-      </c>
-      <c r="E453" s="32"/>
-      <c r="F453" s="25" t="s">
-        <v>1027</v>
-      </c>
+        <v>655</v>
+      </c>
+      <c r="C453" s="51" t="s">
+        <v>541</v>
+      </c>
+      <c r="D453" s="51"/>
+      <c r="E453" s="51"/>
+      <c r="F453" s="51"/>
     </row>
     <row r="454" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A454" s="25" t="s">
         <v>55</v>
       </c>
       <c r="B454" s="66" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="C454" s="32" t="s">
-        <v>608</v>
+        <v>543</v>
       </c>
       <c r="D454" s="25" t="s">
-        <v>539</v>
+        <v>520</v>
       </c>
       <c r="E454" s="32"/>
       <c r="F454" s="25" t="s">
@@ -12556,45 +12562,45 @@
         <v>55</v>
       </c>
       <c r="B455" s="66" t="s">
-        <v>655</v>
-      </c>
-      <c r="C455" s="51" t="s">
-        <v>541</v>
-      </c>
-      <c r="D455" s="51"/>
-      <c r="E455" s="51"/>
-      <c r="F455" s="51"/>
+        <v>657</v>
+      </c>
+      <c r="C455" s="25" t="s">
+        <v>545</v>
+      </c>
+      <c r="D455" s="25" t="s">
+        <v>988</v>
+      </c>
+      <c r="E455" s="25"/>
+      <c r="F455" s="25" t="s">
+        <v>1027</v>
+      </c>
     </row>
     <row r="456" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A456" s="25" t="s">
         <v>55</v>
       </c>
       <c r="B456" s="66" t="s">
-        <v>656</v>
-      </c>
-      <c r="C456" s="32" t="s">
-        <v>543</v>
-      </c>
-      <c r="D456" s="25" t="s">
-        <v>520</v>
-      </c>
-      <c r="E456" s="32"/>
-      <c r="F456" s="25" t="s">
-        <v>1027</v>
-      </c>
+        <v>658</v>
+      </c>
+      <c r="C456" s="51" t="s">
+        <v>998</v>
+      </c>
+      <c r="D456" s="51"/>
+      <c r="E456" s="51"/>
+      <c r="F456" s="51"/>
     </row>
     <row r="457" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A457" s="25" t="s">
         <v>55</v>
       </c>
       <c r="B457" s="66" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="C457" s="25" t="s">
-        <v>545</v>
+        <v>556</v>
       </c>
       <c r="D457" s="25" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="E457" s="25"/>
       <c r="F457" s="25" t="s">
@@ -12606,13 +12612,13 @@
         <v>55</v>
       </c>
       <c r="B458" s="66" t="s">
-        <v>658</v>
-      </c>
-      <c r="C458" s="51" t="s">
-        <v>998</v>
+        <v>1208</v>
+      </c>
+      <c r="C458" s="41" t="s">
+        <v>46</v>
       </c>
       <c r="D458" s="51"/>
-      <c r="E458" s="51"/>
+      <c r="E458" s="41"/>
       <c r="F458" s="51"/>
     </row>
     <row r="459" spans="1:6" x14ac:dyDescent="0.3">
@@ -12620,17 +12626,15 @@
         <v>55</v>
       </c>
       <c r="B459" s="66" t="s">
-        <v>659</v>
-      </c>
-      <c r="C459" s="25" t="s">
-        <v>556</v>
-      </c>
-      <c r="D459" s="25" t="s">
-        <v>989</v>
-      </c>
-      <c r="E459" s="25"/>
+        <v>660</v>
+      </c>
+      <c r="C459" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="D459" s="25"/>
+      <c r="E459" s="32"/>
       <c r="F459" s="25" t="s">
-        <v>1027</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="460" spans="1:6" x14ac:dyDescent="0.3">
@@ -12638,29 +12642,31 @@
         <v>55</v>
       </c>
       <c r="B460" s="66" t="s">
-        <v>1208</v>
-      </c>
-      <c r="C460" s="41" t="s">
-        <v>46</v>
-      </c>
-      <c r="D460" s="51"/>
-      <c r="E460" s="41"/>
-      <c r="F460" s="51"/>
+        <v>661</v>
+      </c>
+      <c r="C460" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="D460" s="25"/>
+      <c r="E460" s="32"/>
+      <c r="F460" s="25" t="s">
+        <v>1279</v>
+      </c>
     </row>
     <row r="461" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A461" s="25" t="s">
         <v>55</v>
       </c>
       <c r="B461" s="66" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="C461" s="32" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D461" s="25"/>
       <c r="E461" s="32"/>
       <c r="F461" s="25" t="s">
-        <v>1281</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="462" spans="1:6" x14ac:dyDescent="0.3">
@@ -12668,115 +12674,119 @@
         <v>55</v>
       </c>
       <c r="B462" s="66" t="s">
-        <v>661</v>
-      </c>
-      <c r="C462" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="D462" s="25"/>
-      <c r="E462" s="32"/>
-      <c r="F462" s="25" t="s">
-        <v>1281</v>
-      </c>
+        <v>1209</v>
+      </c>
+      <c r="C462" s="41" t="s">
+        <v>48</v>
+      </c>
+      <c r="D462" s="51"/>
+      <c r="E462" s="41"/>
+      <c r="F462" s="51"/>
     </row>
     <row r="463" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A463" s="25" t="s">
         <v>55</v>
       </c>
       <c r="B463" s="66" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="C463" s="32" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="D463" s="25"/>
       <c r="E463" s="32"/>
-      <c r="F463" s="25" t="s">
-        <v>1281</v>
-      </c>
+      <c r="F463" s="25"/>
     </row>
     <row r="464" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A464" s="25" t="s">
         <v>55</v>
       </c>
       <c r="B464" s="66" t="s">
-        <v>1209</v>
-      </c>
-      <c r="C464" s="41" t="s">
-        <v>48</v>
-      </c>
-      <c r="D464" s="51"/>
-      <c r="E464" s="41"/>
-      <c r="F464" s="51"/>
+        <v>664</v>
+      </c>
+      <c r="C464" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="D464" s="25"/>
+      <c r="E464" s="32"/>
+      <c r="F464" s="25"/>
     </row>
     <row r="465" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A465" s="25" t="s">
         <v>55</v>
       </c>
       <c r="B465" s="66" t="s">
-        <v>663</v>
-      </c>
-      <c r="C465" s="32" t="s">
-        <v>49</v>
-      </c>
-      <c r="D465" s="25"/>
-      <c r="E465" s="32"/>
-      <c r="F465" s="25"/>
+        <v>1257</v>
+      </c>
+      <c r="C465" s="41" t="s">
+        <v>50</v>
+      </c>
+      <c r="D465" s="51"/>
+      <c r="E465" s="41"/>
+      <c r="F465" s="51"/>
     </row>
     <row r="466" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A466" s="25" t="s">
         <v>55</v>
       </c>
       <c r="B466" s="66" t="s">
-        <v>664</v>
-      </c>
-      <c r="C466" s="32" t="s">
+        <v>665</v>
+      </c>
+      <c r="C466" s="51" t="s">
         <v>41</v>
       </c>
-      <c r="D466" s="25"/>
-      <c r="E466" s="32"/>
-      <c r="F466" s="25"/>
-    </row>
-    <row r="467" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D466" s="51"/>
+      <c r="E466" s="51"/>
+      <c r="F466" s="51"/>
+    </row>
+    <row r="467" spans="1:6" ht="45" x14ac:dyDescent="0.3">
       <c r="A467" s="25" t="s">
         <v>55</v>
       </c>
       <c r="B467" s="66" t="s">
-        <v>1259</v>
-      </c>
-      <c r="C467" s="41" t="s">
-        <v>50</v>
-      </c>
-      <c r="D467" s="51"/>
-      <c r="E467" s="41"/>
-      <c r="F467" s="51"/>
+        <v>666</v>
+      </c>
+      <c r="C467" s="32" t="s">
+        <v>591</v>
+      </c>
+      <c r="D467" s="25">
+        <v>78.3</v>
+      </c>
+      <c r="E467" s="32"/>
+      <c r="F467" s="25" t="s">
+        <v>1020</v>
+      </c>
     </row>
     <row r="468" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A468" s="25" t="s">
         <v>55</v>
       </c>
       <c r="B468" s="66" t="s">
-        <v>665</v>
-      </c>
-      <c r="C468" s="51" t="s">
-        <v>41</v>
-      </c>
-      <c r="D468" s="51"/>
-      <c r="E468" s="51"/>
-      <c r="F468" s="51"/>
-    </row>
-    <row r="469" spans="1:6" ht="45" x14ac:dyDescent="0.3">
+        <v>667</v>
+      </c>
+      <c r="C468" s="32" t="s">
+        <v>622</v>
+      </c>
+      <c r="D468" s="25">
+        <v>78.099999999999994</v>
+      </c>
+      <c r="E468" s="32"/>
+      <c r="F468" s="25" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="469" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A469" s="25" t="s">
         <v>55</v>
       </c>
       <c r="B469" s="66" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="C469" s="32" t="s">
-        <v>591</v>
+        <v>595</v>
       </c>
       <c r="D469" s="25">
-        <v>78.3</v>
+        <v>78.099999999999994</v>
       </c>
       <c r="E469" s="32"/>
       <c r="F469" s="25" t="s">
@@ -12788,79 +12798,79 @@
         <v>55</v>
       </c>
       <c r="B470" s="66" t="s">
-        <v>667</v>
-      </c>
-      <c r="C470" s="32" t="s">
-        <v>622</v>
-      </c>
-      <c r="D470" s="25">
-        <v>78.099999999999994</v>
-      </c>
-      <c r="E470" s="32"/>
-      <c r="F470" s="25" t="s">
-        <v>1020</v>
-      </c>
+        <v>669</v>
+      </c>
+      <c r="C470" s="51" t="s">
+        <v>42</v>
+      </c>
+      <c r="D470" s="51"/>
+      <c r="E470" s="51"/>
+      <c r="F470" s="51"/>
     </row>
     <row r="471" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A471" s="25" t="s">
         <v>55</v>
       </c>
       <c r="B471" s="66" t="s">
-        <v>668</v>
-      </c>
-      <c r="C471" s="32" t="s">
-        <v>595</v>
-      </c>
-      <c r="D471" s="25">
-        <v>78.099999999999994</v>
-      </c>
-      <c r="E471" s="32"/>
-      <c r="F471" s="25" t="s">
-        <v>1020</v>
-      </c>
+        <v>670</v>
+      </c>
+      <c r="C471" s="51" t="s">
+        <v>564</v>
+      </c>
+      <c r="D471" s="51"/>
+      <c r="E471" s="51"/>
+      <c r="F471" s="51"/>
     </row>
     <row r="472" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A472" s="25" t="s">
         <v>55</v>
       </c>
       <c r="B472" s="66" t="s">
-        <v>669</v>
-      </c>
-      <c r="C472" s="51" t="s">
-        <v>42</v>
-      </c>
-      <c r="D472" s="51"/>
-      <c r="E472" s="51"/>
-      <c r="F472" s="51"/>
+        <v>671</v>
+      </c>
+      <c r="C472" s="32" t="s">
+        <v>672</v>
+      </c>
+      <c r="D472" s="25" t="s">
+        <v>501</v>
+      </c>
+      <c r="E472" s="32"/>
+      <c r="F472" s="25" t="s">
+        <v>1020</v>
+      </c>
     </row>
     <row r="473" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A473" s="25" t="s">
         <v>55</v>
       </c>
       <c r="B473" s="66" t="s">
-        <v>670</v>
-      </c>
-      <c r="C473" s="51" t="s">
-        <v>564</v>
-      </c>
-      <c r="D473" s="51"/>
-      <c r="E473" s="51"/>
-      <c r="F473" s="51"/>
+        <v>673</v>
+      </c>
+      <c r="C473" s="32" t="s">
+        <v>630</v>
+      </c>
+      <c r="D473" s="25" t="s">
+        <v>504</v>
+      </c>
+      <c r="E473" s="32"/>
+      <c r="F473" s="25" t="s">
+        <v>1020</v>
+      </c>
     </row>
     <row r="474" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A474" s="25" t="s">
         <v>55</v>
       </c>
       <c r="B474" s="66" t="s">
-        <v>671</v>
-      </c>
-      <c r="C474" s="32" t="s">
-        <v>672</v>
+        <v>674</v>
+      </c>
+      <c r="C474" s="25" t="s">
+        <v>675</v>
       </c>
       <c r="D474" s="25" t="s">
-        <v>501</v>
-      </c>
-      <c r="E474" s="32"/>
+        <v>990</v>
+      </c>
+      <c r="E474" s="25"/>
       <c r="F474" s="25" t="s">
         <v>1020</v>
       </c>
@@ -12870,15 +12880,15 @@
         <v>55</v>
       </c>
       <c r="B475" s="66" t="s">
-        <v>673</v>
-      </c>
-      <c r="C475" s="32" t="s">
-        <v>630</v>
+        <v>676</v>
+      </c>
+      <c r="C475" s="25" t="s">
+        <v>677</v>
       </c>
       <c r="D475" s="25" t="s">
-        <v>504</v>
-      </c>
-      <c r="E475" s="32"/>
+        <v>539</v>
+      </c>
+      <c r="E475" s="25"/>
       <c r="F475" s="25" t="s">
         <v>1020</v>
       </c>
@@ -12888,31 +12898,29 @@
         <v>55</v>
       </c>
       <c r="B476" s="66" t="s">
-        <v>674</v>
+        <v>678</v>
       </c>
       <c r="C476" s="25" t="s">
-        <v>675</v>
-      </c>
-      <c r="D476" s="25" t="s">
-        <v>990</v>
-      </c>
+        <v>1006</v>
+      </c>
+      <c r="D476" s="25"/>
       <c r="E476" s="25"/>
       <c r="F476" s="25" t="s">
         <v>1020</v>
       </c>
     </row>
-    <row r="477" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A477" s="25" t="s">
         <v>55</v>
       </c>
       <c r="B477" s="66" t="s">
-        <v>676</v>
+        <v>1007</v>
       </c>
       <c r="C477" s="25" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="D477" s="25" t="s">
-        <v>539</v>
+        <v>510</v>
       </c>
       <c r="E477" s="25"/>
       <c r="F477" s="25" t="s">
@@ -12924,49 +12932,47 @@
         <v>55</v>
       </c>
       <c r="B478" s="66" t="s">
-        <v>678</v>
+        <v>1008</v>
       </c>
       <c r="C478" s="25" t="s">
-        <v>1006</v>
-      </c>
-      <c r="D478" s="25"/>
+        <v>1005</v>
+      </c>
+      <c r="D478" s="25" t="s">
+        <v>638</v>
+      </c>
       <c r="E478" s="25"/>
       <c r="F478" s="25" t="s">
         <v>1020</v>
       </c>
     </row>
-    <row r="479" spans="1:6" ht="30" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A479" s="25" t="s">
         <v>55</v>
       </c>
       <c r="B479" s="66" t="s">
-        <v>1007</v>
-      </c>
-      <c r="C479" s="25" t="s">
-        <v>679</v>
-      </c>
-      <c r="D479" s="25" t="s">
-        <v>510</v>
-      </c>
-      <c r="E479" s="25"/>
-      <c r="F479" s="25" t="s">
-        <v>1020</v>
-      </c>
+        <v>680</v>
+      </c>
+      <c r="C479" s="51" t="s">
+        <v>541</v>
+      </c>
+      <c r="D479" s="51"/>
+      <c r="E479" s="51"/>
+      <c r="F479" s="51"/>
     </row>
     <row r="480" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A480" s="25" t="s">
         <v>55</v>
       </c>
       <c r="B480" s="66" t="s">
-        <v>1008</v>
-      </c>
-      <c r="C480" s="25" t="s">
-        <v>1005</v>
+        <v>681</v>
+      </c>
+      <c r="C480" s="32" t="s">
+        <v>543</v>
       </c>
       <c r="D480" s="25" t="s">
-        <v>638</v>
-      </c>
-      <c r="E480" s="25"/>
+        <v>520</v>
+      </c>
+      <c r="E480" s="32"/>
       <c r="F480" s="25" t="s">
         <v>1020</v>
       </c>
@@ -12976,47 +12982,47 @@
         <v>55</v>
       </c>
       <c r="B481" s="66" t="s">
-        <v>680</v>
-      </c>
-      <c r="C481" s="51" t="s">
-        <v>541</v>
-      </c>
-      <c r="D481" s="51"/>
-      <c r="E481" s="51"/>
-      <c r="F481" s="51"/>
+        <v>682</v>
+      </c>
+      <c r="C481" s="25" t="s">
+        <v>545</v>
+      </c>
+      <c r="D481" s="25" t="s">
+        <v>988</v>
+      </c>
+      <c r="E481" s="25"/>
+      <c r="F481" s="25" t="s">
+        <v>1020</v>
+      </c>
     </row>
     <row r="482" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A482" s="25" t="s">
         <v>55</v>
       </c>
       <c r="B482" s="66" t="s">
-        <v>681</v>
-      </c>
-      <c r="C482" s="32" t="s">
-        <v>543</v>
-      </c>
-      <c r="D482" s="25" t="s">
-        <v>520</v>
-      </c>
-      <c r="E482" s="32"/>
-      <c r="F482" s="25" t="s">
-        <v>1020</v>
-      </c>
+        <v>683</v>
+      </c>
+      <c r="C482" s="51" t="s">
+        <v>547</v>
+      </c>
+      <c r="D482" s="51"/>
+      <c r="E482" s="51"/>
+      <c r="F482" s="51"/>
     </row>
     <row r="483" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A483" s="25" t="s">
         <v>55</v>
       </c>
       <c r="B483" s="66" t="s">
-        <v>682</v>
-      </c>
-      <c r="C483" s="25" t="s">
-        <v>545</v>
+        <v>684</v>
+      </c>
+      <c r="C483" s="32" t="s">
+        <v>514</v>
       </c>
       <c r="D483" s="25" t="s">
-        <v>988</v>
-      </c>
-      <c r="E483" s="25"/>
+        <v>515</v>
+      </c>
+      <c r="E483" s="32"/>
       <c r="F483" s="25" t="s">
         <v>1020</v>
       </c>
@@ -13026,27 +13032,31 @@
         <v>55</v>
       </c>
       <c r="B484" s="66" t="s">
-        <v>683</v>
-      </c>
-      <c r="C484" s="51" t="s">
-        <v>547</v>
-      </c>
-      <c r="D484" s="51"/>
-      <c r="E484" s="51"/>
-      <c r="F484" s="51"/>
+        <v>685</v>
+      </c>
+      <c r="C484" s="32" t="s">
+        <v>585</v>
+      </c>
+      <c r="D484" s="25" t="s">
+        <v>518</v>
+      </c>
+      <c r="E484" s="32"/>
+      <c r="F484" s="25" t="s">
+        <v>1020</v>
+      </c>
     </row>
     <row r="485" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A485" s="25" t="s">
         <v>55</v>
       </c>
       <c r="B485" s="66" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="C485" s="32" t="s">
-        <v>514</v>
+        <v>552</v>
       </c>
       <c r="D485" s="25" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="E485" s="32"/>
       <c r="F485" s="25" t="s">
@@ -13058,15 +13068,15 @@
         <v>55</v>
       </c>
       <c r="B486" s="66" t="s">
-        <v>685</v>
-      </c>
-      <c r="C486" s="32" t="s">
-        <v>585</v>
+        <v>687</v>
+      </c>
+      <c r="C486" s="25" t="s">
+        <v>554</v>
       </c>
       <c r="D486" s="25" t="s">
-        <v>518</v>
-      </c>
-      <c r="E486" s="32"/>
+        <v>991</v>
+      </c>
+      <c r="E486" s="25"/>
       <c r="F486" s="25" t="s">
         <v>1020</v>
       </c>
@@ -13076,52 +13086,16 @@
         <v>55</v>
       </c>
       <c r="B487" s="66" t="s">
-        <v>686</v>
-      </c>
-      <c r="C487" s="32" t="s">
-        <v>552</v>
+        <v>1161</v>
+      </c>
+      <c r="C487" s="25" t="s">
+        <v>556</v>
       </c>
       <c r="D487" s="25" t="s">
-        <v>520</v>
-      </c>
-      <c r="E487" s="32"/>
+        <v>989</v>
+      </c>
+      <c r="E487" s="25"/>
       <c r="F487" s="25" t="s">
-        <v>1020</v>
-      </c>
-    </row>
-    <row r="488" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A488" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="B488" s="66" t="s">
-        <v>687</v>
-      </c>
-      <c r="C488" s="25" t="s">
-        <v>554</v>
-      </c>
-      <c r="D488" s="25" t="s">
-        <v>991</v>
-      </c>
-      <c r="E488" s="25"/>
-      <c r="F488" s="25" t="s">
-        <v>1020</v>
-      </c>
-    </row>
-    <row r="489" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A489" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="B489" s="66" t="s">
-        <v>1161</v>
-      </c>
-      <c r="C489" s="25" t="s">
-        <v>556</v>
-      </c>
-      <c r="D489" s="25" t="s">
-        <v>989</v>
-      </c>
-      <c r="E489" s="25"/>
-      <c r="F489" s="25" t="s">
         <v>1020</v>
       </c>
     </row>
@@ -14426,7 +14400,7 @@
         <v>711</v>
       </c>
       <c r="D6" s="63" t="s">
-        <v>1279</v>
+        <v>1277</v>
       </c>
       <c r="E6" s="18"/>
       <c r="F6" s="18" t="s">
@@ -14638,13 +14612,13 @@
         <v>1219</v>
       </c>
       <c r="E17" s="19" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
       <c r="F17" s="18" t="s">
         <v>696</v>
       </c>
       <c r="G17" s="18" t="s">
-        <v>1288</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
@@ -15133,7 +15107,7 @@
         <v>1051</v>
       </c>
       <c r="D43" s="62" t="s">
-        <v>1266</v>
+        <v>1264</v>
       </c>
       <c r="E43" s="31"/>
       <c r="F43" s="18" t="s">
@@ -15152,7 +15126,7 @@
         <v>1052</v>
       </c>
       <c r="D44" s="62" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
       <c r="E44" s="31"/>
       <c r="F44" s="18" t="s">
@@ -15171,7 +15145,7 @@
         <v>1053</v>
       </c>
       <c r="D45" s="62" t="s">
-        <v>1268</v>
+        <v>1266</v>
       </c>
       <c r="E45" s="31"/>
       <c r="F45" s="18" t="s">
@@ -15190,7 +15164,7 @@
         <v>1054</v>
       </c>
       <c r="D46" s="62" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
       <c r="E46" s="31"/>
       <c r="F46" s="18" t="s">
@@ -15209,7 +15183,7 @@
         <v>1055</v>
       </c>
       <c r="D47" s="62" t="s">
-        <v>1270</v>
+        <v>1268</v>
       </c>
       <c r="E47" s="31"/>
       <c r="F47" s="18" t="s">
@@ -15228,7 +15202,7 @@
         <v>1056</v>
       </c>
       <c r="D48" s="62" t="s">
-        <v>1271</v>
+        <v>1269</v>
       </c>
       <c r="E48" s="31"/>
       <c r="F48" s="18" t="s">
@@ -15247,7 +15221,7 @@
         <v>1057</v>
       </c>
       <c r="D49" s="62" t="s">
-        <v>1272</v>
+        <v>1270</v>
       </c>
       <c r="E49" s="31"/>
       <c r="F49" s="18" t="s">
@@ -15266,7 +15240,7 @@
         <v>1058</v>
       </c>
       <c r="D50" s="62" t="s">
-        <v>1273</v>
+        <v>1271</v>
       </c>
       <c r="E50" s="31"/>
       <c r="F50" s="18" t="s">
@@ -15285,7 +15259,7 @@
         <v>1059</v>
       </c>
       <c r="D51" s="62" t="s">
-        <v>1274</v>
+        <v>1272</v>
       </c>
       <c r="E51" s="31"/>
       <c r="F51" s="18" t="s">
@@ -15304,7 +15278,7 @@
         <v>1060</v>
       </c>
       <c r="D52" s="62" t="s">
-        <v>1275</v>
+        <v>1273</v>
       </c>
       <c r="E52" s="31"/>
       <c r="F52" s="18" t="s">
@@ -15323,7 +15297,7 @@
         <v>1061</v>
       </c>
       <c r="D53" s="62" t="s">
-        <v>1276</v>
+        <v>1274</v>
       </c>
       <c r="E53" s="31"/>
       <c r="F53" s="18" t="s">
@@ -15342,7 +15316,7 @@
         <v>1078</v>
       </c>
       <c r="D54" s="62" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
       <c r="E54" s="31"/>
       <c r="F54" s="18" t="s">
@@ -18355,7 +18329,7 @@
         <v>1031</v>
       </c>
       <c r="C11" s="62" t="s">
-        <v>1263</v>
+        <v>1261</v>
       </c>
       <c r="D11" s="34" t="s">
         <v>884</v>
@@ -18377,7 +18351,7 @@
         <v>902</v>
       </c>
       <c r="D12" s="34" t="s">
-        <v>1264</v>
+        <v>1262</v>
       </c>
       <c r="E12" s="18"/>
       <c r="F12" s="18" t="s">
@@ -18456,7 +18430,7 @@
         <v>909</v>
       </c>
       <c r="D16" s="34" t="s">
-        <v>1265</v>
+        <v>1263</v>
       </c>
       <c r="E16" s="18" t="s">
         <v>910</v>
@@ -19492,10 +19466,10 @@
         <v>944</v>
       </c>
       <c r="D7" s="27" t="s">
-        <v>1260</v>
+        <v>1258</v>
       </c>
       <c r="E7" s="26" t="s">
-        <v>1278</v>
+        <v>1276</v>
       </c>
       <c r="F7" s="18" t="s">
         <v>696</v>
@@ -19617,7 +19591,7 @@
         <v>696</v>
       </c>
       <c r="G13" s="18" t="s">
-        <v>1280</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="14" spans="1:256" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -19728,7 +19702,7 @@
         <v>969</v>
       </c>
       <c r="D19" s="27" t="s">
-        <v>1261</v>
+        <v>1259</v>
       </c>
       <c r="E19" s="24" t="s">
         <v>1141</v>
@@ -19751,7 +19725,7 @@
         <v>970</v>
       </c>
       <c r="D20" s="27" t="s">
-        <v>1262</v>
+        <v>1260</v>
       </c>
       <c r="E20"/>
       <c r="F20" s="18" t="s">
@@ -19773,7 +19747,7 @@
         <v>972</v>
       </c>
       <c r="E21" s="19" t="s">
-        <v>1289</v>
+        <v>1287</v>
       </c>
       <c r="F21" s="18" t="s">
         <v>696</v>

--- a/conformancelib/testdata/PIV_Production_Cards.xlsx
+++ b/conformancelib/testdata/PIV_Production_Cards.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\cygwin64\home\bf7450\git\piv-conformance\conformancelib\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C078D109-8AD3-4311-9BCF-D91BB807E477}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E64EAA6-A0DF-4E4C-B228-70A11AC1216D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6084" yWindow="0" windowWidth="23040" windowHeight="12360" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="276" yWindow="168" windowWidth="23040" windowHeight="12360" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Steps Overview" sheetId="2" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3070" uniqueCount="1290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3071" uniqueCount="1291">
   <si>
     <t>Card Capabilities Container</t>
   </si>
@@ -3900,6 +3900,9 @@
   </si>
   <si>
     <t>The signature in the SignerInfo corresponds to the signed security object and that it is it signed with the certificate that is used to sign the CHUID.</t>
+  </si>
+  <si>
+    <t>CARD_HOLDER_UNIQUE_IDENTIFIER_OID:2.16.840.1.101.3.6.1,CARDHOLDER_FINGERPRINTS_OID:2.16.840.1.101.3.6.2,CARDHOLDER_FACIAL_IMAGE_OID:2.16.840.1.101.3.6.2,CARDHOLDER_IRIS_IMAGES_OID:2.16.840.1.101.3.6.2</t>
   </si>
 </sst>
 </file>
@@ -4146,7 +4149,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -4352,6 +4355,12 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4743,7 +4752,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:F487"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A322" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A322" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="A331" sqref="A331:XFD332"/>
     </sheetView>
   </sheetViews>
@@ -17860,8 +17869,8 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:IV30"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -18226,20 +18235,22 @@
       </c>
       <c r="G5" s="18"/>
     </row>
-    <row r="6" spans="1:256" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="34" t="s">
+    <row r="6" spans="1:256" ht="78" x14ac:dyDescent="0.3">
+      <c r="A6" s="69" t="s">
         <v>384</v>
       </c>
-      <c r="B6" s="34" t="s">
+      <c r="B6" s="69" t="s">
         <v>1004</v>
       </c>
-      <c r="C6" s="34" t="s">
+      <c r="C6" s="69" t="s">
         <v>891</v>
       </c>
-      <c r="D6" s="34" t="s">
+      <c r="D6" s="69" t="s">
         <v>892</v>
       </c>
-      <c r="E6" s="18"/>
+      <c r="E6" s="70" t="s">
+        <v>1290</v>
+      </c>
       <c r="F6" s="18" t="s">
         <v>696</v>
       </c>

--- a/conformancelib/testdata/PIV_Production_Cards.xlsx
+++ b/conformancelib/testdata/PIV_Production_Cards.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\cygwin64\home\bf7450\git\piv-conformance\conformancelib\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C684D734-9576-480D-9FCF-7A22824323CE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61FF1E27-A1FA-4F47-BECD-B3A764CB172E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3600" yWindow="168" windowWidth="22992" windowHeight="12360" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3540" yWindow="1056" windowWidth="22992" windowHeight="12360" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Steps Overview" sheetId="2" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3071" uniqueCount="1292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3073" uniqueCount="1292">
   <si>
     <t>Card Capabilities Container</t>
   </si>
@@ -3979,7 +3979,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4042,12 +4042,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4152,7 +4146,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -4355,15 +4349,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
@@ -4761,8 +4746,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:F487"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+    <sheetView tabSelected="1" topLeftCell="A298" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C318" sqref="C318"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -5426,16 +5411,16 @@
       </c>
     </row>
     <row r="38" spans="1:6" ht="45" x14ac:dyDescent="0.3">
-      <c r="A38" s="71" t="s">
-        <v>55</v>
-      </c>
-      <c r="B38" s="72" t="s">
+      <c r="A38" s="68" t="s">
+        <v>55</v>
+      </c>
+      <c r="B38" s="69" t="s">
         <v>1222</v>
       </c>
-      <c r="C38" s="72" t="s">
+      <c r="C38" s="69" t="s">
         <v>1291</v>
       </c>
-      <c r="D38" s="72" t="s">
+      <c r="D38" s="69" t="s">
         <v>98</v>
       </c>
       <c r="E38" s="25"/>
@@ -10450,19 +10435,19 @@
       </c>
     </row>
     <row r="330" spans="1:6" ht="30" x14ac:dyDescent="0.3">
-      <c r="A330" s="68" t="s">
-        <v>55</v>
-      </c>
-      <c r="B330" s="68" t="s">
+      <c r="A330" s="69" t="s">
+        <v>55</v>
+      </c>
+      <c r="B330" s="69" t="s">
         <v>1251</v>
       </c>
-      <c r="C330" s="68" t="s">
+      <c r="C330" s="69" t="s">
         <v>1288</v>
       </c>
-      <c r="D330" s="68" t="s">
+      <c r="D330" s="69" t="s">
         <v>405</v>
       </c>
-      <c r="E330" s="68"/>
+      <c r="E330" s="69"/>
       <c r="F330" s="25" t="s">
         <v>1027</v>
       </c>
@@ -13128,7 +13113,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:AMK6"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
@@ -13273,9 +13258,7 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:AMK56"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:XFD15"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
@@ -16412,7 +16395,7 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:IV50"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
@@ -17878,9 +17861,7 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:IV30"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
@@ -18245,19 +18226,19 @@
       <c r="G5" s="18"/>
     </row>
     <row r="6" spans="1:256" ht="78" x14ac:dyDescent="0.3">
-      <c r="A6" s="69" t="s">
+      <c r="A6" s="34" t="s">
         <v>383</v>
       </c>
-      <c r="B6" s="69" t="s">
+      <c r="B6" s="34" t="s">
         <v>1003</v>
       </c>
-      <c r="C6" s="69" t="s">
+      <c r="C6" s="34" t="s">
         <v>890</v>
       </c>
-      <c r="D6" s="69" t="s">
+      <c r="D6" s="34" t="s">
         <v>891</v>
       </c>
-      <c r="E6" s="70" t="s">
+      <c r="E6" s="34" t="s">
         <v>1289</v>
       </c>
       <c r="F6" s="18" t="s">
@@ -18693,7 +18674,9 @@
       <c r="D29" s="62" t="s">
         <v>1046</v>
       </c>
-      <c r="E29" s="31"/>
+      <c r="E29" s="31" t="s">
+        <v>1165</v>
+      </c>
       <c r="F29" s="31"/>
       <c r="G29" s="31"/>
     </row>
@@ -18710,7 +18693,9 @@
       <c r="D30" s="62" t="s">
         <v>1049</v>
       </c>
-      <c r="E30" s="31"/>
+      <c r="E30" s="31" t="s">
+        <v>1166</v>
+      </c>
       <c r="F30" s="31"/>
       <c r="G30" s="31"/>
     </row>
@@ -18728,7 +18713,7 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:IV4"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
@@ -19088,8 +19073,8 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:IV29"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="E10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView showGridLines="0" topLeftCell="C27" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>

--- a/conformancelib/testdata/PIV_Production_Cards.xlsx
+++ b/conformancelib/testdata/PIV_Production_Cards.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\cygwin64\home\bf7450\git\piv-conformance\conformancelib\testdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bf7450\git\piv-conformance-new\conformancelib\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61FF1E27-A1FA-4F47-BECD-B3A764CB172E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C2754C4-E2EA-4B8E-A863-B2E8E5E3CFBE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3540" yWindow="1056" windowWidth="22992" windowHeight="12360" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="20220" windowHeight="11940" tabRatio="500" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Steps Overview" sheetId="2" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3073" uniqueCount="1292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3073" uniqueCount="1291">
   <si>
     <t>Card Capabilities Container</t>
   </si>
@@ -2144,9 +2144,6 @@
     <t>Setting final byte of command string to 0x00 retrieves entire data object regardless of size</t>
   </si>
   <si>
-    <t>gov.gsa.conformancelib.tests.SP800_73_4CCCTests</t>
-  </si>
-  <si>
     <t xml:space="preserve">sp800_73_4_Test_1 </t>
   </si>
   <si>
@@ -2180,9 +2177,6 @@
     <t>No tags other than (0xF0, 0xF1, 0xF2, 0xF3, 0xF4, 0xF5, 0xF6, 0xF7, 0xFA, 0xFB, 0xFC, 0xFD, 0xE3, 0xE4, 0xFE) are present</t>
   </si>
   <si>
-    <t>gov.gsa.conformancelib.tests.SP800_73_4CHUIDTests</t>
-  </si>
-  <si>
     <t xml:space="preserve">sp800_73_4_Test_8 </t>
   </si>
   <si>
@@ -2219,9 +2213,6 @@
     <t>No tags other than (0xEE, 0x30, 0x32, 0x33, 0x34, 0x35, 0x36, 0x3E, 0xFE) are present</t>
   </si>
   <si>
-    <t>gov.gsa.conformancelib.tests.X509DataObjectTests</t>
-  </si>
-  <si>
     <t>sp800_73_4_Test_18</t>
   </si>
   <si>
@@ -2240,9 +2231,6 @@
     <t>sp800_73_4_Test_23</t>
   </si>
   <si>
-    <t>gov.gsa.conformancelib.tests.SP800_73_4FingerprintsTests</t>
-  </si>
-  <si>
     <t>sp800_73_4_Test_24</t>
   </si>
   <si>
@@ -2255,9 +2243,6 @@
     <t>sp800_73_4_Test_26</t>
   </si>
   <si>
-    <t>gov.gsa.conformancelib.tests.SP800_73_4PrintedInfoTests</t>
-  </si>
-  <si>
     <t>sp800_73_4_Test_27</t>
   </si>
   <si>
@@ -2273,15 +2258,9 @@
     <t>sp800_73_4_Test_31</t>
   </si>
   <si>
-    <t>gov.gsa.conformancelib.tests.SP800_73_4FacialImageTests</t>
-  </si>
-  <si>
     <t>sp800_73_4_Test_32</t>
   </si>
   <si>
-    <t>gov.gsa.conformancelib.tests.SP800_73_4SecurityObjectTests</t>
-  </si>
-  <si>
     <t>sp800_73_4_Test_33</t>
   </si>
   <si>
@@ -2315,9 +2294,6 @@
     <t>76.1</t>
   </si>
   <si>
-    <t>gov.gsa.conformancelib.tests.SP800_76_Tests</t>
-  </si>
-  <si>
     <t>sp800_76Test_1</t>
   </si>
   <si>
@@ -2804,9 +2780,6 @@
     <t>78.1</t>
   </si>
   <si>
-    <t>gov.gsa.conformancelib.tests.SP800_78_X509DataObjectTests</t>
-  </si>
-  <si>
     <t>sp800_78_Test_1</t>
   </si>
   <si>
@@ -2825,9 +2798,6 @@
     <t>PKIX.1</t>
   </si>
   <si>
-    <t>gov.gsa.conformancelib.tests.PKIX_X509DataObjectTests</t>
-  </si>
-  <si>
     <t>PKIX_Test_1</t>
   </si>
   <si>
@@ -2966,9 +2936,6 @@
     <t>Used to track missing atoms</t>
   </si>
   <si>
-    <t>gov.gsa.conformancelib.tests.SP800_73_4DiscoveryObjectTests</t>
-  </si>
-  <si>
     <t>76.15b</t>
   </si>
   <si>
@@ -3038,12 +3005,6 @@
     <t>Card Auth ICAM Test Card certificate policy OID</t>
   </si>
   <si>
-    <t>gov.gsa.conformancelib.tests.BER_TLVTests</t>
-  </si>
-  <si>
-    <t>gov.gsa.conformancelib.tests.CMSTests</t>
-  </si>
-  <si>
     <t>extended key usage (extKeyUsage) asserts id-PIV-content-signing.</t>
   </si>
   <si>
@@ -3080,9 +3041,6 @@
     <t>PlaceholderTest.3</t>
   </si>
   <si>
-    <t>gov.gsa.conformancelib.tests.PlaceholderTests</t>
-  </si>
-  <si>
     <t>Container ID</t>
   </si>
   <si>
@@ -3122,9 +3080,6 @@
     <t>CMS.24</t>
   </si>
   <si>
-    <t>gov.gsa.conformanceLib.tests.CMSTests</t>
-  </si>
-  <si>
     <t>CMS_Test_24</t>
   </si>
   <si>
@@ -3572,9 +3527,6 @@
     <t>73-4.56</t>
   </si>
   <si>
-    <t>gov.gsa.conformancelib.tests.SP800_73_4CommmonObjectTests</t>
-  </si>
-  <si>
     <t>sp800_73_4_Test_56</t>
   </si>
   <si>
@@ -3906,6 +3858,51 @@
   </si>
   <si>
     <t>The Agency Code, System Code, and Credential Number of the FASC-N are present. The credential series, individual credential issue, person identifier, organizational category, organizational identifier, and person/organization association category of the FASC-N are populated</t>
+  </si>
+  <si>
+    <t>gov.gsa.pivconformance.conformancelib.tests.PKIX_X509DataObjectTests</t>
+  </si>
+  <si>
+    <t>gov.gsa.pivconformance.conformancelib.tests.SP800_78_X509DataObjectTests</t>
+  </si>
+  <si>
+    <t>gov.gsa.pivconformance.conformancelib.tests.CMSTests</t>
+  </si>
+  <si>
+    <t>gov.gsa.pivconformance.conformancelib.tests.SP800_76_Tests</t>
+  </si>
+  <si>
+    <t>gov.gsa.pivconformance.conformancelib.tests.SP800_73_4CCCTests</t>
+  </si>
+  <si>
+    <t>gov.gsa.pivconformance.conformancelib.tests.SP800_73_4CHUIDTests</t>
+  </si>
+  <si>
+    <t>gov.gsa.pivconformance.conformancelib.tests.X509DataObjectTests</t>
+  </si>
+  <si>
+    <t>gov.gsa.pivconformance.conformancelib.tests.SP800_73_4FingerprintsTests</t>
+  </si>
+  <si>
+    <t>gov.gsa.pivconformance.conformancelib.tests.SP800_73_4PrintedInfoTests</t>
+  </si>
+  <si>
+    <t>gov.gsa.pivconformance.conformancelib.tests.SP800_73_4FacialImageTests</t>
+  </si>
+  <si>
+    <t>gov.gsa.pivconformance.conformancelib.tests.SP800_73_4SecurityObjectTests</t>
+  </si>
+  <si>
+    <t>gov.gsa.pivconformance.conformancelib.tests.SP800_73_4DiscoveryObjectTests</t>
+  </si>
+  <si>
+    <t>gov.gsa.pivconformance.conformancelib.tests.SP800_73_4CommmonObjectTests</t>
+  </si>
+  <si>
+    <t>gov.gsa.pivconformance.conformancelib.tests.BER_TLVTests</t>
+  </si>
+  <si>
+    <t>gov.gsa.pivconformance.conformancelib.tests.PlaceholderTests</t>
   </si>
 </sst>
 </file>
@@ -4746,9 +4743,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:F487"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A298" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C318" sqref="C318"/>
-    </sheetView>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
@@ -4776,10 +4771,10 @@
         <v>54</v>
       </c>
       <c r="E1" s="43" t="s">
-        <v>1159</v>
+        <v>1144</v>
       </c>
       <c r="F1" s="43" t="s">
-        <v>1017</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
@@ -4787,10 +4782,10 @@
         <v>55</v>
       </c>
       <c r="B2" s="65" t="s">
-        <v>1209</v>
+        <v>1193</v>
       </c>
       <c r="C2" s="46" t="s">
-        <v>1220</v>
+        <v>1204</v>
       </c>
       <c r="D2" s="41"/>
       <c r="E2" s="41"/>
@@ -4801,7 +4796,7 @@
         <v>55</v>
       </c>
       <c r="B3" s="66" t="s">
-        <v>1184</v>
+        <v>1168</v>
       </c>
       <c r="C3" s="41" t="s">
         <v>0</v>
@@ -4815,10 +4810,10 @@
         <v>55</v>
       </c>
       <c r="B4" s="66" t="s">
-        <v>1111</v>
+        <v>1096</v>
       </c>
       <c r="C4" s="41" t="s">
-        <v>1112</v>
+        <v>1097</v>
       </c>
       <c r="D4" s="41"/>
       <c r="E4" s="41"/>
@@ -4832,14 +4827,14 @@
         <v>56</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>1168</v>
+        <v>1153</v>
       </c>
       <c r="D5" s="25" t="s">
         <v>57</v>
       </c>
       <c r="E5" s="25"/>
       <c r="F5" s="25" t="s">
-        <v>1018</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -4857,7 +4852,7 @@
       </c>
       <c r="E6" s="25"/>
       <c r="F6" s="25" t="s">
-        <v>1018</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -4875,7 +4870,7 @@
       </c>
       <c r="E7" s="25"/>
       <c r="F7" s="25" t="s">
-        <v>1018</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -4893,7 +4888,7 @@
       </c>
       <c r="E8" s="25"/>
       <c r="F8" s="25" t="s">
-        <v>1018</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -4911,7 +4906,7 @@
       </c>
       <c r="E9" s="25"/>
       <c r="F9" s="25" t="s">
-        <v>1018</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -4929,7 +4924,7 @@
       </c>
       <c r="E10" s="25"/>
       <c r="F10" s="25" t="s">
-        <v>1018</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.3">
@@ -4947,7 +4942,7 @@
       </c>
       <c r="E11" s="25"/>
       <c r="F11" s="25" t="s">
-        <v>1018</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.3">
@@ -4958,14 +4953,14 @@
         <v>76</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>1219</v>
+        <v>1203</v>
       </c>
       <c r="D12" s="25" t="s">
         <v>77</v>
       </c>
       <c r="E12" s="25"/>
       <c r="F12" s="25" t="s">
-        <v>1018</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -4976,14 +4971,14 @@
         <v>78</v>
       </c>
       <c r="C13" s="25" t="s">
-        <v>1276</v>
+        <v>1260</v>
       </c>
       <c r="D13" s="25" t="s">
         <v>79</v>
       </c>
       <c r="E13" s="25"/>
       <c r="F13" s="25" t="s">
-        <v>1018</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -5001,7 +4996,7 @@
       </c>
       <c r="E14" s="25"/>
       <c r="F14" s="25" t="s">
-        <v>1018</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="15" spans="1:6" s="38" customFormat="1" x14ac:dyDescent="0.3">
@@ -5012,14 +5007,14 @@
         <v>82</v>
       </c>
       <c r="C15" s="25" t="s">
-        <v>1169</v>
+        <v>1154</v>
       </c>
       <c r="D15" s="25" t="s">
         <v>81</v>
       </c>
       <c r="E15" s="25"/>
       <c r="F15" s="25" t="s">
-        <v>1018</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -5027,7 +5022,7 @@
         <v>55</v>
       </c>
       <c r="B16" s="25" t="s">
-        <v>1185</v>
+        <v>1169</v>
       </c>
       <c r="C16" s="41" t="s">
         <v>1</v>
@@ -5041,10 +5036,10 @@
         <v>55</v>
       </c>
       <c r="B17" s="25" t="s">
-        <v>1113</v>
+        <v>1098</v>
       </c>
       <c r="C17" s="41" t="s">
-        <v>1112</v>
+        <v>1097</v>
       </c>
       <c r="D17" s="41"/>
       <c r="E17" s="41"/>
@@ -5058,14 +5053,14 @@
         <v>85</v>
       </c>
       <c r="C18" s="25" t="s">
-        <v>1168</v>
+        <v>1153</v>
       </c>
       <c r="D18" s="25" t="s">
         <v>57</v>
       </c>
       <c r="E18" s="25"/>
       <c r="F18" s="25" t="s">
-        <v>1019</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -5083,7 +5078,7 @@
       </c>
       <c r="E19" s="25"/>
       <c r="F19" s="25" t="s">
-        <v>1019</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -5101,7 +5096,7 @@
       </c>
       <c r="E20" s="25"/>
       <c r="F20" s="25" t="s">
-        <v>1019</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -5119,7 +5114,7 @@
       </c>
       <c r="E21" s="25"/>
       <c r="F21" s="25" t="s">
-        <v>1019</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="22" spans="1:6" s="38" customFormat="1" x14ac:dyDescent="0.3">
@@ -5130,14 +5125,14 @@
         <v>89</v>
       </c>
       <c r="C22" s="25" t="s">
-        <v>1170</v>
+        <v>1155</v>
       </c>
       <c r="D22" s="25" t="s">
         <v>90</v>
       </c>
       <c r="E22" s="25"/>
       <c r="F22" s="25" t="s">
-        <v>1019</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -5148,14 +5143,14 @@
         <v>91</v>
       </c>
       <c r="C23" s="25" t="s">
-        <v>1073</v>
+        <v>1058</v>
       </c>
       <c r="D23" s="25" t="s">
         <v>93</v>
       </c>
       <c r="E23" s="25"/>
       <c r="F23" s="25" t="s">
-        <v>1019</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="24" spans="1:6" s="38" customFormat="1" x14ac:dyDescent="0.3">
@@ -5166,14 +5161,14 @@
         <v>94</v>
       </c>
       <c r="C24" s="49" t="s">
-        <v>1072</v>
+        <v>1057</v>
       </c>
       <c r="D24" s="49" t="s">
-        <v>1061</v>
+        <v>1046</v>
       </c>
       <c r="E24" s="49"/>
       <c r="F24" s="49" t="s">
-        <v>1019</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="25" spans="1:6" s="38" customFormat="1" x14ac:dyDescent="0.3">
@@ -5191,7 +5186,7 @@
       </c>
       <c r="E25" s="25"/>
       <c r="F25" s="25" t="s">
-        <v>1019</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="26" spans="1:6" s="38" customFormat="1" x14ac:dyDescent="0.3">
@@ -5202,14 +5197,14 @@
         <v>99</v>
       </c>
       <c r="C26" s="49" t="s">
-        <v>1076</v>
+        <v>1061</v>
       </c>
       <c r="D26" s="49" t="s">
-        <v>1062</v>
+        <v>1047</v>
       </c>
       <c r="E26" s="25"/>
       <c r="F26" s="25" t="s">
-        <v>1019</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="27" spans="1:6" s="38" customFormat="1" x14ac:dyDescent="0.3">
@@ -5220,14 +5215,14 @@
         <v>102</v>
       </c>
       <c r="C27" s="49" t="s">
-        <v>1088</v>
+        <v>1073</v>
       </c>
       <c r="D27" s="49" t="s">
-        <v>1063</v>
+        <v>1048</v>
       </c>
       <c r="E27" s="49"/>
       <c r="F27" s="49" t="s">
-        <v>1019</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="28" spans="1:6" s="38" customFormat="1" x14ac:dyDescent="0.3">
@@ -5238,14 +5233,14 @@
         <v>105</v>
       </c>
       <c r="C28" s="49" t="s">
-        <v>1074</v>
+        <v>1059</v>
       </c>
       <c r="D28" s="49" t="s">
-        <v>1064</v>
+        <v>1049</v>
       </c>
       <c r="E28" s="49"/>
       <c r="F28" s="49" t="s">
-        <v>1019</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="29" spans="1:6" s="38" customFormat="1" x14ac:dyDescent="0.3">
@@ -5253,17 +5248,17 @@
         <v>55</v>
       </c>
       <c r="B29" s="49" t="s">
-        <v>1079</v>
+        <v>1064</v>
       </c>
       <c r="C29" s="49" t="s">
-        <v>1221</v>
+        <v>1205</v>
       </c>
       <c r="D29" s="49" t="s">
-        <v>1065</v>
+        <v>1050</v>
       </c>
       <c r="E29" s="49"/>
       <c r="F29" s="49" t="s">
-        <v>1019</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="30" spans="1:6" s="38" customFormat="1" x14ac:dyDescent="0.3">
@@ -5271,17 +5266,17 @@
         <v>55</v>
       </c>
       <c r="B30" s="25" t="s">
-        <v>1080</v>
+        <v>1065</v>
       </c>
       <c r="C30" s="25" t="s">
-        <v>1075</v>
+        <v>1060</v>
       </c>
       <c r="D30" s="25" t="s">
         <v>101</v>
       </c>
       <c r="E30" s="49"/>
       <c r="F30" s="49" t="s">
-        <v>1019</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="31" spans="1:6" s="38" customFormat="1" x14ac:dyDescent="0.3">
@@ -5289,17 +5284,17 @@
         <v>55</v>
       </c>
       <c r="B31" s="25" t="s">
-        <v>1081</v>
+        <v>1066</v>
       </c>
       <c r="C31" s="25" t="s">
-        <v>1290</v>
+        <v>1274</v>
       </c>
       <c r="D31" s="25" t="s">
         <v>104</v>
       </c>
       <c r="E31" s="25"/>
       <c r="F31" s="25" t="s">
-        <v>1019</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="32" spans="1:6" s="38" customFormat="1" x14ac:dyDescent="0.3">
@@ -5307,17 +5302,17 @@
         <v>55</v>
       </c>
       <c r="B32" s="49" t="s">
-        <v>1082</v>
+        <v>1067</v>
       </c>
       <c r="C32" s="49" t="s">
-        <v>1089</v>
+        <v>1074</v>
       </c>
       <c r="D32" s="49" t="s">
-        <v>1066</v>
+        <v>1051</v>
       </c>
       <c r="E32" s="25"/>
       <c r="F32" s="25" t="s">
-        <v>1019</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="33" spans="1:6" s="38" customFormat="1" x14ac:dyDescent="0.3">
@@ -5325,17 +5320,17 @@
         <v>55</v>
       </c>
       <c r="B33" s="49" t="s">
-        <v>1083</v>
+        <v>1068</v>
       </c>
       <c r="C33" s="49" t="s">
-        <v>1090</v>
+        <v>1075</v>
       </c>
       <c r="D33" s="49" t="s">
-        <v>1067</v>
+        <v>1052</v>
       </c>
       <c r="E33" s="49"/>
       <c r="F33" s="49" t="s">
-        <v>1019</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="34" spans="1:6" s="38" customFormat="1" x14ac:dyDescent="0.3">
@@ -5343,17 +5338,17 @@
         <v>55</v>
       </c>
       <c r="B34" s="49" t="s">
-        <v>1084</v>
+        <v>1069</v>
       </c>
       <c r="C34" s="49" t="s">
-        <v>1091</v>
+        <v>1076</v>
       </c>
       <c r="D34" s="49" t="s">
-        <v>1068</v>
+        <v>1053</v>
       </c>
       <c r="E34" s="49"/>
       <c r="F34" s="49" t="s">
-        <v>1019</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="35" spans="1:6" s="38" customFormat="1" x14ac:dyDescent="0.3">
@@ -5361,17 +5356,17 @@
         <v>55</v>
       </c>
       <c r="B35" s="49" t="s">
-        <v>1085</v>
+        <v>1070</v>
       </c>
       <c r="C35" s="49" t="s">
-        <v>1092</v>
+        <v>1077</v>
       </c>
       <c r="D35" s="49" t="s">
-        <v>1069</v>
+        <v>1054</v>
       </c>
       <c r="E35" s="49"/>
       <c r="F35" s="49" t="s">
-        <v>1019</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="36" spans="1:6" s="38" customFormat="1" x14ac:dyDescent="0.3">
@@ -5379,7 +5374,7 @@
         <v>55</v>
       </c>
       <c r="B36" s="25" t="s">
-        <v>1086</v>
+        <v>1071</v>
       </c>
       <c r="C36" s="25" t="s">
         <v>106</v>
@@ -5389,7 +5384,7 @@
       </c>
       <c r="E36" s="49"/>
       <c r="F36" s="49" t="s">
-        <v>1019</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
@@ -5397,17 +5392,17 @@
         <v>55</v>
       </c>
       <c r="B37" s="25" t="s">
-        <v>1087</v>
+        <v>1072</v>
       </c>
       <c r="C37" s="25" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="D37" s="25" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="E37" s="25"/>
       <c r="F37" s="25" t="s">
-        <v>1019</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="45" x14ac:dyDescent="0.3">
@@ -5415,17 +5410,17 @@
         <v>55</v>
       </c>
       <c r="B38" s="69" t="s">
-        <v>1222</v>
+        <v>1206</v>
       </c>
       <c r="C38" s="69" t="s">
-        <v>1291</v>
+        <v>1275</v>
       </c>
       <c r="D38" s="69" t="s">
         <v>98</v>
       </c>
       <c r="E38" s="25"/>
       <c r="F38" s="25" t="s">
-        <v>1019</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
@@ -5443,7 +5438,7 @@
       </c>
       <c r="E39" s="25"/>
       <c r="F39" s="25" t="s">
-        <v>1019</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
@@ -5454,14 +5449,14 @@
         <v>111</v>
       </c>
       <c r="C40" s="25" t="s">
-        <v>1218</v>
+        <v>1202</v>
       </c>
       <c r="D40" s="25" t="s">
         <v>112</v>
       </c>
       <c r="E40" s="25"/>
       <c r="F40" s="25" t="s">
-        <v>1019</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="30" x14ac:dyDescent="0.3">
@@ -5479,7 +5474,7 @@
       </c>
       <c r="E41" s="25"/>
       <c r="F41" s="25" t="s">
-        <v>1019</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
@@ -5497,7 +5492,7 @@
       </c>
       <c r="E42" s="25"/>
       <c r="F42" s="25" t="s">
-        <v>1019</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
@@ -5505,7 +5500,7 @@
         <v>118</v>
       </c>
       <c r="B43" s="66" t="s">
-        <v>1124</v>
+        <v>1109</v>
       </c>
       <c r="C43" s="25" t="s">
         <v>119</v>
@@ -5515,7 +5510,7 @@
       </c>
       <c r="E43" s="25"/>
       <c r="F43" s="25" t="s">
-        <v>1019</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
@@ -5523,7 +5518,7 @@
         <v>55</v>
       </c>
       <c r="B44" s="66" t="s">
-        <v>1186</v>
+        <v>1170</v>
       </c>
       <c r="C44" s="41" t="s">
         <v>2</v>
@@ -5537,10 +5532,10 @@
         <v>55</v>
       </c>
       <c r="B45" s="66" t="s">
-        <v>1114</v>
+        <v>1099</v>
       </c>
       <c r="C45" s="41" t="s">
-        <v>1112</v>
+        <v>1097</v>
       </c>
       <c r="D45" s="41"/>
       <c r="E45" s="41"/>
@@ -5554,14 +5549,14 @@
         <v>120</v>
       </c>
       <c r="C46" s="25" t="s">
-        <v>1168</v>
+        <v>1153</v>
       </c>
       <c r="D46" s="25" t="s">
         <v>57</v>
       </c>
       <c r="E46" s="25"/>
       <c r="F46" s="25" t="s">
-        <v>1020</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
@@ -5579,7 +5574,7 @@
       </c>
       <c r="E47" s="25"/>
       <c r="F47" s="25" t="s">
-        <v>1020</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
@@ -5597,7 +5592,7 @@
       </c>
       <c r="E48" s="25"/>
       <c r="F48" s="25" t="s">
-        <v>1020</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="49" spans="1:6" s="38" customFormat="1" x14ac:dyDescent="0.3">
@@ -5615,7 +5610,7 @@
       </c>
       <c r="E49" s="25"/>
       <c r="F49" s="25" t="s">
-        <v>1020</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
@@ -5626,14 +5621,14 @@
         <v>124</v>
       </c>
       <c r="C50" s="25" t="s">
-        <v>1171</v>
+        <v>1156</v>
       </c>
       <c r="D50" s="25" t="s">
-        <v>1179</v>
+        <v>1164</v>
       </c>
       <c r="E50" s="25"/>
       <c r="F50" s="25" t="s">
-        <v>1020</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
@@ -5651,7 +5646,7 @@
       </c>
       <c r="E51" s="25"/>
       <c r="F51" s="25" t="s">
-        <v>1020</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
@@ -5669,7 +5664,7 @@
       </c>
       <c r="E52" s="25"/>
       <c r="F52" s="25" t="s">
-        <v>1020</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
@@ -5687,7 +5682,7 @@
       </c>
       <c r="E53" s="25"/>
       <c r="F53" s="25" t="s">
-        <v>1020</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
@@ -5705,7 +5700,7 @@
       </c>
       <c r="E54" s="25"/>
       <c r="F54" s="25" t="s">
-        <v>1020</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
@@ -5713,7 +5708,7 @@
         <v>118</v>
       </c>
       <c r="B55" s="66" t="s">
-        <v>1116</v>
+        <v>1101</v>
       </c>
       <c r="C55" s="25" t="s">
         <v>119</v>
@@ -5723,7 +5718,7 @@
       </c>
       <c r="E55" s="25"/>
       <c r="F55" s="25" t="s">
-        <v>1020</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
@@ -5731,7 +5726,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="66" t="s">
-        <v>1189</v>
+        <v>1173</v>
       </c>
       <c r="C56" s="41" t="s">
         <v>3</v>
@@ -5745,10 +5740,10 @@
         <v>55</v>
       </c>
       <c r="B57" s="66" t="s">
-        <v>1115</v>
+        <v>1100</v>
       </c>
       <c r="C57" s="41" t="s">
-        <v>1112</v>
+        <v>1097</v>
       </c>
       <c r="D57" s="41"/>
       <c r="E57" s="41"/>
@@ -5762,14 +5757,14 @@
         <v>138</v>
       </c>
       <c r="C58" s="25" t="s">
-        <v>1168</v>
+        <v>1153</v>
       </c>
       <c r="D58" s="25" t="s">
         <v>57</v>
       </c>
       <c r="E58" s="25"/>
       <c r="F58" s="25" t="s">
-        <v>1021</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
@@ -5787,7 +5782,7 @@
       </c>
       <c r="E59" s="25"/>
       <c r="F59" s="25" t="s">
-        <v>1021</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
@@ -5805,7 +5800,7 @@
       </c>
       <c r="E60" s="25"/>
       <c r="F60" s="25" t="s">
-        <v>1021</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
@@ -5823,7 +5818,7 @@
       </c>
       <c r="E61" s="25"/>
       <c r="F61" s="25" t="s">
-        <v>1021</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
@@ -5834,14 +5829,14 @@
         <v>142</v>
       </c>
       <c r="C62" s="25" t="s">
-        <v>1172</v>
+        <v>1157</v>
       </c>
       <c r="D62" s="25" t="s">
         <v>117</v>
       </c>
       <c r="E62" s="25"/>
       <c r="F62" s="25" t="s">
-        <v>1021</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
@@ -5859,7 +5854,7 @@
       </c>
       <c r="E63" s="25"/>
       <c r="F63" s="25" t="s">
-        <v>1021</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
@@ -5877,7 +5872,7 @@
       </c>
       <c r="E64" s="25"/>
       <c r="F64" s="25" t="s">
-        <v>1021</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
@@ -5895,7 +5890,7 @@
       </c>
       <c r="E65" s="25"/>
       <c r="F65" s="25" t="s">
-        <v>1021</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
@@ -5913,7 +5908,7 @@
       </c>
       <c r="E66" s="25"/>
       <c r="F66" s="25" t="s">
-        <v>1021</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
@@ -5921,7 +5916,7 @@
         <v>55</v>
       </c>
       <c r="B67" s="66" t="s">
-        <v>1187</v>
+        <v>1171</v>
       </c>
       <c r="C67" s="41" t="s">
         <v>4</v>
@@ -5935,10 +5930,10 @@
         <v>55</v>
       </c>
       <c r="B68" s="66" t="s">
-        <v>1117</v>
+        <v>1102</v>
       </c>
       <c r="C68" s="41" t="s">
-        <v>1112</v>
+        <v>1097</v>
       </c>
       <c r="D68" s="41"/>
       <c r="E68" s="41"/>
@@ -5952,14 +5947,14 @@
         <v>147</v>
       </c>
       <c r="C69" s="25" t="s">
-        <v>1168</v>
+        <v>1153</v>
       </c>
       <c r="D69" s="25" t="s">
         <v>57</v>
       </c>
       <c r="E69" s="25"/>
       <c r="F69" s="25" t="s">
-        <v>1022</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
@@ -5977,7 +5972,7 @@
       </c>
       <c r="E70" s="25"/>
       <c r="F70" s="25" t="s">
-        <v>1022</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
@@ -5995,7 +5990,7 @@
       </c>
       <c r="E71" s="25"/>
       <c r="F71" s="25" t="s">
-        <v>1022</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="72" spans="1:6" s="38" customFormat="1" x14ac:dyDescent="0.3">
@@ -6013,7 +6008,7 @@
       </c>
       <c r="E72" s="25"/>
       <c r="F72" s="25" t="s">
-        <v>1022</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
@@ -6024,14 +6019,14 @@
         <v>151</v>
       </c>
       <c r="C73" s="25" t="s">
-        <v>1173</v>
+        <v>1158</v>
       </c>
       <c r="D73" s="25" t="s">
         <v>152</v>
       </c>
       <c r="E73" s="25"/>
       <c r="F73" s="25" t="s">
-        <v>1022</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="74" spans="1:6" s="38" customFormat="1" x14ac:dyDescent="0.3">
@@ -6049,7 +6044,7 @@
       </c>
       <c r="E74" s="25"/>
       <c r="F74" s="25" t="s">
-        <v>1022</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="75" spans="1:6" s="38" customFormat="1" x14ac:dyDescent="0.3">
@@ -6060,14 +6055,14 @@
         <v>156</v>
       </c>
       <c r="C75" s="49" t="s">
-        <v>1095</v>
+        <v>1080</v>
       </c>
       <c r="D75" s="49" t="s">
-        <v>1070</v>
+        <v>1055</v>
       </c>
       <c r="E75" s="49"/>
       <c r="F75" s="49" t="s">
-        <v>1022</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
@@ -6078,14 +6073,14 @@
         <v>159</v>
       </c>
       <c r="C76" s="49" t="s">
-        <v>1096</v>
+        <v>1081</v>
       </c>
       <c r="D76" s="49" t="s">
-        <v>1071</v>
+        <v>1056</v>
       </c>
       <c r="E76" s="49"/>
       <c r="F76" s="49" t="s">
-        <v>1022</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
@@ -6103,7 +6098,7 @@
       </c>
       <c r="E77" s="25"/>
       <c r="F77" s="25" t="s">
-        <v>1022</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
@@ -6111,7 +6106,7 @@
         <v>55</v>
       </c>
       <c r="B78" s="66" t="s">
-        <v>1110</v>
+        <v>1095</v>
       </c>
       <c r="C78" s="25" t="s">
         <v>160</v>
@@ -6121,7 +6116,7 @@
       </c>
       <c r="E78" s="25"/>
       <c r="F78" s="25" t="s">
-        <v>1022</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
@@ -6129,7 +6124,7 @@
         <v>55</v>
       </c>
       <c r="B79" s="66" t="s">
-        <v>1093</v>
+        <v>1078</v>
       </c>
       <c r="C79" s="25" t="s">
         <v>163</v>
@@ -6139,7 +6134,7 @@
       </c>
       <c r="E79" s="25"/>
       <c r="F79" s="25" t="s">
-        <v>1022</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
@@ -6147,7 +6142,7 @@
         <v>118</v>
       </c>
       <c r="B80" s="66" t="s">
-        <v>1094</v>
+        <v>1079</v>
       </c>
       <c r="C80" s="25" t="s">
         <v>119</v>
@@ -6157,7 +6152,7 @@
       </c>
       <c r="E80" s="25"/>
       <c r="F80" s="25" t="s">
-        <v>1022</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
@@ -6165,7 +6160,7 @@
         <v>55</v>
       </c>
       <c r="B81" s="66" t="s">
-        <v>1188</v>
+        <v>1172</v>
       </c>
       <c r="C81" s="41" t="s">
         <v>5</v>
@@ -6179,10 +6174,10 @@
         <v>55</v>
       </c>
       <c r="B82" s="66" t="s">
-        <v>1118</v>
+        <v>1103</v>
       </c>
       <c r="C82" s="41" t="s">
-        <v>1112</v>
+        <v>1097</v>
       </c>
       <c r="D82" s="41"/>
       <c r="E82" s="41"/>
@@ -6196,14 +6191,14 @@
         <v>165</v>
       </c>
       <c r="C83" s="25" t="s">
-        <v>1168</v>
+        <v>1153</v>
       </c>
       <c r="D83" s="25" t="s">
         <v>57</v>
       </c>
       <c r="E83" s="25"/>
       <c r="F83" s="25" t="s">
-        <v>1023</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
@@ -6221,7 +6216,7 @@
       </c>
       <c r="E84" s="25"/>
       <c r="F84" s="25" t="s">
-        <v>1023</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
@@ -6239,7 +6234,7 @@
       </c>
       <c r="E85" s="25"/>
       <c r="F85" s="25" t="s">
-        <v>1023</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
@@ -6257,7 +6252,7 @@
       </c>
       <c r="E86" s="25"/>
       <c r="F86" s="25" t="s">
-        <v>1023</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
@@ -6268,14 +6263,14 @@
         <v>169</v>
       </c>
       <c r="C87" s="25" t="s">
-        <v>1216</v>
+        <v>1200</v>
       </c>
       <c r="D87" s="25" t="s">
         <v>170</v>
       </c>
       <c r="E87" s="25"/>
       <c r="F87" s="25" t="s">
-        <v>1023</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
@@ -6293,7 +6288,7 @@
       </c>
       <c r="E88" s="25"/>
       <c r="F88" s="25" t="s">
-        <v>1023</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
@@ -6311,7 +6306,7 @@
       </c>
       <c r="E89" s="25"/>
       <c r="F89" s="25" t="s">
-        <v>1023</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
@@ -6319,7 +6314,7 @@
         <v>118</v>
       </c>
       <c r="B90" s="66" t="s">
-        <v>1125</v>
+        <v>1110</v>
       </c>
       <c r="C90" s="25" t="s">
         <v>119</v>
@@ -6329,7 +6324,7 @@
       </c>
       <c r="E90" s="25"/>
       <c r="F90" s="25" t="s">
-        <v>1023</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
@@ -6337,7 +6332,7 @@
         <v>55</v>
       </c>
       <c r="B91" s="66" t="s">
-        <v>1190</v>
+        <v>1174</v>
       </c>
       <c r="C91" s="41" t="s">
         <v>6</v>
@@ -6351,10 +6346,10 @@
         <v>55</v>
       </c>
       <c r="B92" s="66" t="s">
-        <v>1119</v>
+        <v>1104</v>
       </c>
       <c r="C92" s="41" t="s">
-        <v>1112</v>
+        <v>1097</v>
       </c>
       <c r="D92" s="41"/>
       <c r="E92" s="41"/>
@@ -6368,14 +6363,14 @@
         <v>177</v>
       </c>
       <c r="C93" s="25" t="s">
-        <v>1168</v>
+        <v>1153</v>
       </c>
       <c r="D93" s="25" t="s">
         <v>57</v>
       </c>
       <c r="E93" s="25"/>
       <c r="F93" s="25" t="s">
-        <v>1024</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
@@ -6393,7 +6388,7 @@
       </c>
       <c r="E94" s="25"/>
       <c r="F94" s="25" t="s">
-        <v>1024</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.3">
@@ -6411,7 +6406,7 @@
       </c>
       <c r="E95" s="25"/>
       <c r="F95" s="25" t="s">
-        <v>1024</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="96" spans="1:6" s="38" customFormat="1" x14ac:dyDescent="0.3">
@@ -6429,7 +6424,7 @@
       </c>
       <c r="E96" s="25"/>
       <c r="F96" s="25" t="s">
-        <v>1024</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.3">
@@ -6440,14 +6435,14 @@
         <v>181</v>
       </c>
       <c r="C97" s="25" t="s">
-        <v>1178</v>
+        <v>1163</v>
       </c>
       <c r="D97" s="25" t="s">
-        <v>1179</v>
+        <v>1164</v>
       </c>
       <c r="E97" s="25"/>
       <c r="F97" s="25" t="s">
-        <v>1024</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.3">
@@ -6465,7 +6460,7 @@
       </c>
       <c r="E98" s="25"/>
       <c r="F98" s="25" t="s">
-        <v>1024</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.3">
@@ -6483,7 +6478,7 @@
       </c>
       <c r="E99" s="25"/>
       <c r="F99" s="25" t="s">
-        <v>1024</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.3">
@@ -6501,7 +6496,7 @@
       </c>
       <c r="E100" s="25"/>
       <c r="F100" s="25" t="s">
-        <v>1024</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.3">
@@ -6519,7 +6514,7 @@
       </c>
       <c r="E101" s="25"/>
       <c r="F101" s="25" t="s">
-        <v>1024</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.3">
@@ -6527,7 +6522,7 @@
         <v>118</v>
       </c>
       <c r="B102" s="66" t="s">
-        <v>1126</v>
+        <v>1111</v>
       </c>
       <c r="C102" s="25" t="s">
         <v>119</v>
@@ -6537,7 +6532,7 @@
       </c>
       <c r="E102" s="25"/>
       <c r="F102" s="25" t="s">
-        <v>1024</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.3">
@@ -6545,7 +6540,7 @@
         <v>55</v>
       </c>
       <c r="B103" s="66" t="s">
-        <v>1191</v>
+        <v>1175</v>
       </c>
       <c r="C103" s="41" t="s">
         <v>7</v>
@@ -6559,10 +6554,10 @@
         <v>55</v>
       </c>
       <c r="B104" s="66" t="s">
-        <v>1120</v>
+        <v>1105</v>
       </c>
       <c r="C104" s="41" t="s">
-        <v>1112</v>
+        <v>1097</v>
       </c>
       <c r="D104" s="41"/>
       <c r="E104" s="41"/>
@@ -6576,14 +6571,14 @@
         <v>186</v>
       </c>
       <c r="C105" s="25" t="s">
-        <v>1168</v>
+        <v>1153</v>
       </c>
       <c r="D105" s="25" t="s">
         <v>57</v>
       </c>
       <c r="E105" s="25"/>
       <c r="F105" s="25" t="s">
-        <v>1025</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.3">
@@ -6601,7 +6596,7 @@
       </c>
       <c r="E106" s="25"/>
       <c r="F106" s="25" t="s">
-        <v>1025</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.3">
@@ -6619,7 +6614,7 @@
       </c>
       <c r="E107" s="25"/>
       <c r="F107" s="25" t="s">
-        <v>1025</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="108" spans="1:6" s="38" customFormat="1" x14ac:dyDescent="0.3">
@@ -6637,7 +6632,7 @@
       </c>
       <c r="E108" s="25"/>
       <c r="F108" s="25" t="s">
-        <v>1025</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.3">
@@ -6648,14 +6643,14 @@
         <v>190</v>
       </c>
       <c r="C109" s="25" t="s">
-        <v>1177</v>
+        <v>1162</v>
       </c>
       <c r="D109" s="25" t="s">
-        <v>1179</v>
+        <v>1164</v>
       </c>
       <c r="E109" s="25"/>
       <c r="F109" s="25" t="s">
-        <v>1025</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.3">
@@ -6673,7 +6668,7 @@
       </c>
       <c r="E110" s="25"/>
       <c r="F110" s="25" t="s">
-        <v>1025</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.3">
@@ -6691,7 +6686,7 @@
       </c>
       <c r="E111" s="25"/>
       <c r="F111" s="25" t="s">
-        <v>1025</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.3">
@@ -6709,7 +6704,7 @@
       </c>
       <c r="E112" s="25"/>
       <c r="F112" s="25" t="s">
-        <v>1025</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.3">
@@ -6727,7 +6722,7 @@
       </c>
       <c r="E113" s="25"/>
       <c r="F113" s="25" t="s">
-        <v>1025</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.3">
@@ -6735,7 +6730,7 @@
         <v>118</v>
       </c>
       <c r="B114" s="66" t="s">
-        <v>1127</v>
+        <v>1112</v>
       </c>
       <c r="C114" s="25" t="s">
         <v>119</v>
@@ -6745,7 +6740,7 @@
       </c>
       <c r="E114" s="25"/>
       <c r="F114" s="25" t="s">
-        <v>1025</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.3">
@@ -6753,7 +6748,7 @@
         <v>55</v>
       </c>
       <c r="B115" s="66" t="s">
-        <v>1192</v>
+        <v>1176</v>
       </c>
       <c r="C115" s="41" t="s">
         <v>8</v>
@@ -6767,10 +6762,10 @@
         <v>55</v>
       </c>
       <c r="B116" s="66" t="s">
-        <v>1121</v>
+        <v>1106</v>
       </c>
       <c r="C116" s="41" t="s">
-        <v>1112</v>
+        <v>1097</v>
       </c>
       <c r="D116" s="41"/>
       <c r="E116" s="41"/>
@@ -6784,14 +6779,14 @@
         <v>195</v>
       </c>
       <c r="C117" s="25" t="s">
-        <v>1168</v>
+        <v>1153</v>
       </c>
       <c r="D117" s="25" t="s">
         <v>57</v>
       </c>
       <c r="E117" s="25"/>
       <c r="F117" s="25" t="s">
-        <v>1026</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.3">
@@ -6809,7 +6804,7 @@
       </c>
       <c r="E118" s="25"/>
       <c r="F118" s="25" t="s">
-        <v>1026</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.3">
@@ -6827,7 +6822,7 @@
       </c>
       <c r="E119" s="25"/>
       <c r="F119" s="25" t="s">
-        <v>1026</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="120" spans="1:6" s="38" customFormat="1" x14ac:dyDescent="0.3">
@@ -6845,7 +6840,7 @@
       </c>
       <c r="E120" s="25"/>
       <c r="F120" s="25" t="s">
-        <v>1026</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.3">
@@ -6856,14 +6851,14 @@
         <v>199</v>
       </c>
       <c r="C121" s="25" t="s">
-        <v>1217</v>
+        <v>1201</v>
       </c>
       <c r="D121" s="25" t="s">
-        <v>1179</v>
+        <v>1164</v>
       </c>
       <c r="E121" s="25"/>
       <c r="F121" s="25" t="s">
-        <v>1026</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.3">
@@ -6881,7 +6876,7 @@
       </c>
       <c r="E122" s="25"/>
       <c r="F122" s="25" t="s">
-        <v>1026</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.3">
@@ -6899,7 +6894,7 @@
       </c>
       <c r="E123" s="25"/>
       <c r="F123" s="25" t="s">
-        <v>1026</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.3">
@@ -6917,7 +6912,7 @@
       </c>
       <c r="E124" s="25"/>
       <c r="F124" s="25" t="s">
-        <v>1026</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.3">
@@ -6935,7 +6930,7 @@
       </c>
       <c r="E125" s="25"/>
       <c r="F125" s="25" t="s">
-        <v>1026</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.3">
@@ -6943,7 +6938,7 @@
         <v>118</v>
       </c>
       <c r="B126" s="66" t="s">
-        <v>1128</v>
+        <v>1113</v>
       </c>
       <c r="C126" s="25" t="s">
         <v>119</v>
@@ -6953,7 +6948,7 @@
       </c>
       <c r="E126" s="25"/>
       <c r="F126" s="25" t="s">
-        <v>1026</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.3">
@@ -6961,7 +6956,7 @@
         <v>55</v>
       </c>
       <c r="B127" s="66" t="s">
-        <v>1193</v>
+        <v>1177</v>
       </c>
       <c r="C127" s="41" t="s">
         <v>9</v>
@@ -6975,10 +6970,10 @@
         <v>55</v>
       </c>
       <c r="B128" s="66" t="s">
-        <v>1122</v>
+        <v>1107</v>
       </c>
       <c r="C128" s="41" t="s">
-        <v>1112</v>
+        <v>1097</v>
       </c>
       <c r="D128" s="41"/>
       <c r="E128" s="41"/>
@@ -6992,14 +6987,14 @@
         <v>204</v>
       </c>
       <c r="C129" s="25" t="s">
-        <v>1168</v>
+        <v>1153</v>
       </c>
       <c r="D129" s="25" t="s">
         <v>57</v>
       </c>
       <c r="E129" s="25"/>
       <c r="F129" s="25" t="s">
-        <v>1027</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.3">
@@ -7017,7 +7012,7 @@
       </c>
       <c r="E130" s="25"/>
       <c r="F130" s="25" t="s">
-        <v>1027</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.3">
@@ -7035,7 +7030,7 @@
       </c>
       <c r="E131" s="25"/>
       <c r="F131" s="25" t="s">
-        <v>1027</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="132" spans="1:6" s="38" customFormat="1" x14ac:dyDescent="0.3">
@@ -7053,7 +7048,7 @@
       </c>
       <c r="E132" s="25"/>
       <c r="F132" s="25" t="s">
-        <v>1027</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.3">
@@ -7064,14 +7059,14 @@
         <v>208</v>
       </c>
       <c r="C133" s="25" t="s">
-        <v>1174</v>
+        <v>1159</v>
       </c>
       <c r="D133" s="25" t="s">
         <v>209</v>
       </c>
       <c r="E133" s="25"/>
       <c r="F133" s="25" t="s">
-        <v>1027</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="134" spans="1:6" s="38" customFormat="1" x14ac:dyDescent="0.3">
@@ -7082,14 +7077,14 @@
         <v>210</v>
       </c>
       <c r="C134" s="25" t="s">
-        <v>1097</v>
+        <v>1082</v>
       </c>
       <c r="D134" s="25" t="s">
         <v>212</v>
       </c>
       <c r="E134" s="25"/>
       <c r="F134" s="25" t="s">
-        <v>1027</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.3">
@@ -7100,14 +7095,14 @@
         <v>213</v>
       </c>
       <c r="C135" s="49" t="s">
-        <v>1098</v>
+        <v>1083</v>
       </c>
       <c r="D135" s="49" t="s">
-        <v>1100</v>
+        <v>1085</v>
       </c>
       <c r="E135" s="49"/>
       <c r="F135" s="49" t="s">
-        <v>1027</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.3">
@@ -7125,7 +7120,7 @@
       </c>
       <c r="E136" s="25"/>
       <c r="F136" s="25" t="s">
-        <v>1027</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="137" spans="1:6" ht="30" x14ac:dyDescent="0.3">
@@ -7133,7 +7128,7 @@
         <v>55</v>
       </c>
       <c r="B137" s="66" t="s">
-        <v>1099</v>
+        <v>1084</v>
       </c>
       <c r="C137" s="25" t="s">
         <v>217</v>
@@ -7143,7 +7138,7 @@
       </c>
       <c r="E137" s="25"/>
       <c r="F137" s="25" t="s">
-        <v>1027</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.3">
@@ -7151,7 +7146,7 @@
         <v>55</v>
       </c>
       <c r="B138" s="66" t="s">
-        <v>1194</v>
+        <v>1178</v>
       </c>
       <c r="C138" s="41" t="s">
         <v>10</v>
@@ -7165,10 +7160,10 @@
         <v>55</v>
       </c>
       <c r="B139" s="66" t="s">
-        <v>1123</v>
+        <v>1108</v>
       </c>
       <c r="C139" s="41" t="s">
-        <v>1112</v>
+        <v>1097</v>
       </c>
       <c r="D139" s="41"/>
       <c r="E139" s="41"/>
@@ -7182,14 +7177,14 @@
         <v>219</v>
       </c>
       <c r="C140" s="25" t="s">
-        <v>1168</v>
+        <v>1153</v>
       </c>
       <c r="D140" s="25" t="s">
         <v>57</v>
       </c>
       <c r="E140" s="25"/>
       <c r="F140" s="25" t="s">
-        <v>1028</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.3">
@@ -7207,7 +7202,7 @@
       </c>
       <c r="E141" s="25"/>
       <c r="F141" s="25" t="s">
-        <v>1028</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.3">
@@ -7225,7 +7220,7 @@
       </c>
       <c r="E142" s="25"/>
       <c r="F142" s="25" t="s">
-        <v>1028</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.3">
@@ -7243,7 +7238,7 @@
       </c>
       <c r="E143" s="25"/>
       <c r="F143" s="25" t="s">
-        <v>1028</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.3">
@@ -7254,14 +7249,14 @@
         <v>224</v>
       </c>
       <c r="C144" s="25" t="s">
-        <v>1104</v>
+        <v>1089</v>
       </c>
       <c r="D144" s="25" t="s">
         <v>225</v>
       </c>
       <c r="E144" s="25"/>
       <c r="F144" s="25" t="s">
-        <v>1028</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="145" spans="1:6" s="38" customFormat="1" x14ac:dyDescent="0.3">
@@ -7272,14 +7267,14 @@
         <v>226</v>
       </c>
       <c r="C145" s="25" t="s">
-        <v>1103</v>
+        <v>1088</v>
       </c>
       <c r="D145" s="25" t="s">
         <v>223</v>
       </c>
       <c r="E145" s="25"/>
       <c r="F145" s="25" t="s">
-        <v>1028</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.3">
@@ -7290,14 +7285,14 @@
         <v>228</v>
       </c>
       <c r="C146" s="49" t="s">
-        <v>1101</v>
+        <v>1086</v>
       </c>
       <c r="D146" s="49" t="s">
-        <v>1102</v>
+        <v>1087</v>
       </c>
       <c r="E146" s="49"/>
       <c r="F146" s="49" t="s">
-        <v>1028</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.3">
@@ -7305,17 +7300,17 @@
         <v>55</v>
       </c>
       <c r="B147" s="66" t="s">
-        <v>1105</v>
+        <v>1090</v>
       </c>
       <c r="C147" s="25" t="s">
         <v>227</v>
       </c>
       <c r="D147" s="25" t="s">
-        <v>1008</v>
+        <v>995</v>
       </c>
       <c r="E147" s="25"/>
       <c r="F147" s="49" t="s">
-        <v>1028</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="148" spans="1:6" s="38" customFormat="1" ht="45" x14ac:dyDescent="0.3">
@@ -7323,7 +7318,7 @@
         <v>55</v>
       </c>
       <c r="B148" s="66" t="s">
-        <v>1106</v>
+        <v>1091</v>
       </c>
       <c r="C148" s="25" t="s">
         <v>229</v>
@@ -7333,7 +7328,7 @@
       </c>
       <c r="E148" s="25"/>
       <c r="F148" s="25" t="s">
-        <v>1028</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.3">
@@ -7341,17 +7336,17 @@
         <v>118</v>
       </c>
       <c r="B149" s="66" t="s">
-        <v>1107</v>
+        <v>1092</v>
       </c>
       <c r="C149" s="25" t="s">
-        <v>1175</v>
+        <v>1160</v>
       </c>
       <c r="D149" s="25" t="s">
         <v>231</v>
       </c>
       <c r="E149" s="25"/>
       <c r="F149" s="25" t="s">
-        <v>1028</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.3">
@@ -7359,7 +7354,7 @@
         <v>118</v>
       </c>
       <c r="B150" s="66" t="s">
-        <v>1210</v>
+        <v>1194</v>
       </c>
       <c r="C150" s="41" t="s">
         <v>11</v>
@@ -7373,7 +7368,7 @@
         <v>55</v>
       </c>
       <c r="B151" s="66" t="s">
-        <v>1213</v>
+        <v>1197</v>
       </c>
       <c r="C151" s="41" t="s">
         <v>12</v>
@@ -7393,7 +7388,7 @@
         <v>13</v>
       </c>
       <c r="D152" s="25" t="s">
-        <v>1008</v>
+        <v>995</v>
       </c>
       <c r="E152" s="25"/>
       <c r="F152" s="25"/>
@@ -7409,7 +7404,7 @@
         <v>14</v>
       </c>
       <c r="D153" s="25" t="s">
-        <v>1008</v>
+        <v>995</v>
       </c>
       <c r="E153" s="25"/>
       <c r="F153" s="25"/>
@@ -7419,13 +7414,13 @@
         <v>55</v>
       </c>
       <c r="B154" s="66" t="s">
-        <v>1214</v>
+        <v>1198</v>
       </c>
       <c r="C154" s="25" t="s">
         <v>234</v>
       </c>
       <c r="D154" s="25" t="s">
-        <v>1008</v>
+        <v>995</v>
       </c>
       <c r="E154" s="25"/>
       <c r="F154" s="25"/>
@@ -7435,7 +7430,7 @@
         <v>55</v>
       </c>
       <c r="B155" s="66" t="s">
-        <v>1211</v>
+        <v>1195</v>
       </c>
       <c r="C155" s="51" t="s">
         <v>15</v>
@@ -7449,7 +7444,7 @@
         <v>55</v>
       </c>
       <c r="B156" s="66" t="s">
-        <v>1212</v>
+        <v>1196</v>
       </c>
       <c r="C156" s="51" t="s">
         <v>16</v>
@@ -7463,7 +7458,7 @@
         <v>55</v>
       </c>
       <c r="B157" s="66" t="s">
-        <v>1215</v>
+        <v>1199</v>
       </c>
       <c r="C157" s="51" t="s">
         <v>17</v>
@@ -7477,7 +7472,7 @@
         <v>55</v>
       </c>
       <c r="B158" s="65" t="s">
-        <v>1195</v>
+        <v>1179</v>
       </c>
       <c r="C158" s="46" t="s">
         <v>18</v>
@@ -7491,7 +7486,7 @@
         <v>55</v>
       </c>
       <c r="B159" s="66" t="s">
-        <v>1281</v>
+        <v>1265</v>
       </c>
       <c r="C159" s="41" t="s">
         <v>19</v>
@@ -7529,7 +7524,7 @@
       </c>
       <c r="E161" s="54"/>
       <c r="F161" s="25" t="s">
-        <v>1021</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.3">
@@ -7540,14 +7535,14 @@
         <v>238</v>
       </c>
       <c r="C162" s="25" t="s">
-        <v>1147</v>
+        <v>1132</v>
       </c>
       <c r="D162" s="25">
         <v>76.2</v>
       </c>
       <c r="E162" s="25"/>
       <c r="F162" s="25" t="s">
-        <v>1021</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.3">
@@ -7561,11 +7556,11 @@
         <v>243</v>
       </c>
       <c r="D163" s="25" t="s">
-        <v>765</v>
+        <v>757</v>
       </c>
       <c r="E163" s="25"/>
       <c r="F163" s="25" t="s">
-        <v>1021</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.3">
@@ -7576,14 +7571,14 @@
         <v>242</v>
       </c>
       <c r="C164" s="25" t="s">
-        <v>1148</v>
+        <v>1133</v>
       </c>
       <c r="D164" s="25" t="s">
-        <v>1149</v>
+        <v>1134</v>
       </c>
       <c r="E164" s="25"/>
       <c r="F164" s="25" t="s">
-        <v>1021</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.3">
@@ -7591,17 +7586,17 @@
         <v>55</v>
       </c>
       <c r="B165" s="66" t="s">
-        <v>1151</v>
+        <v>1136</v>
       </c>
       <c r="C165" s="25" t="s">
         <v>246</v>
       </c>
       <c r="D165" s="25" t="s">
-        <v>767</v>
+        <v>759</v>
       </c>
       <c r="E165" s="25"/>
       <c r="F165" s="25" t="s">
-        <v>1021</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.3">
@@ -7626,14 +7621,14 @@
         <v>245</v>
       </c>
       <c r="C167" s="25" t="s">
-        <v>1152</v>
+        <v>1137</v>
       </c>
       <c r="D167" s="25" t="s">
-        <v>769</v>
+        <v>761</v>
       </c>
       <c r="E167" s="25"/>
       <c r="F167" s="25" t="s">
-        <v>1021</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.3">
@@ -7651,7 +7646,7 @@
       </c>
       <c r="E168" s="25"/>
       <c r="F168" s="25" t="s">
-        <v>1021</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="169" spans="1:6" ht="30" x14ac:dyDescent="0.3">
@@ -7669,7 +7664,7 @@
       </c>
       <c r="E169" s="25"/>
       <c r="F169" s="25" t="s">
-        <v>1021</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.3">
@@ -7680,14 +7675,14 @@
         <v>251</v>
       </c>
       <c r="C170" s="25" t="s">
-        <v>1000</v>
+        <v>989</v>
       </c>
       <c r="D170" s="25" t="s">
-        <v>850</v>
+        <v>842</v>
       </c>
       <c r="E170" s="25"/>
       <c r="F170" s="25" t="s">
-        <v>1021</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="171" spans="1:6" ht="30" x14ac:dyDescent="0.3">
@@ -7705,7 +7700,7 @@
       </c>
       <c r="E171" s="25"/>
       <c r="F171" s="25" t="s">
-        <v>1021</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.3">
@@ -7723,7 +7718,7 @@
       </c>
       <c r="E172" s="25"/>
       <c r="F172" s="25" t="s">
-        <v>1021</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.3">
@@ -7741,7 +7736,7 @@
       </c>
       <c r="E173" s="25"/>
       <c r="F173" s="25" t="s">
-        <v>1021</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="174" spans="1:6" ht="30" x14ac:dyDescent="0.3">
@@ -7759,7 +7754,7 @@
       </c>
       <c r="E174" s="25"/>
       <c r="F174" s="25" t="s">
-        <v>1021</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.3">
@@ -7777,7 +7772,7 @@
       </c>
       <c r="E175" s="25"/>
       <c r="F175" s="25" t="s">
-        <v>1021</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="176" spans="1:6" ht="45" x14ac:dyDescent="0.3">
@@ -7795,7 +7790,7 @@
       </c>
       <c r="E176" s="25"/>
       <c r="F176" s="25" t="s">
-        <v>1021</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="177" spans="1:6" ht="30" x14ac:dyDescent="0.3">
@@ -7809,7 +7804,7 @@
         <v>264</v>
       </c>
       <c r="D177" s="25" t="s">
-        <v>874</v>
+        <v>866</v>
       </c>
       <c r="E177" s="25"/>
       <c r="F177" s="25"/>
@@ -7829,7 +7824,7 @@
       </c>
       <c r="E178" s="25"/>
       <c r="F178" s="25" t="s">
-        <v>1021</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.3">
@@ -7837,7 +7832,7 @@
         <v>55</v>
       </c>
       <c r="B179" s="66" t="s">
-        <v>1279</v>
+        <v>1263</v>
       </c>
       <c r="C179" s="55" t="s">
         <v>22</v>
@@ -7875,7 +7870,7 @@
       </c>
       <c r="E181" s="25"/>
       <c r="F181" s="25" t="s">
-        <v>1023</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.3">
@@ -7893,7 +7888,7 @@
       </c>
       <c r="E182" s="25"/>
       <c r="F182" s="25" t="s">
-        <v>1023</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.3">
@@ -7907,11 +7902,11 @@
         <v>241</v>
       </c>
       <c r="D183" s="25" t="s">
-        <v>765</v>
+        <v>757</v>
       </c>
       <c r="E183" s="25"/>
       <c r="F183" s="25" t="s">
-        <v>1023</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.3">
@@ -7925,11 +7920,11 @@
         <v>243</v>
       </c>
       <c r="D184" s="25" t="s">
-        <v>1149</v>
+        <v>1134</v>
       </c>
       <c r="E184" s="25"/>
       <c r="F184" s="25" t="s">
-        <v>1023</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.3">
@@ -7961,7 +7956,7 @@
       </c>
       <c r="E186" s="25"/>
       <c r="F186" s="25" t="s">
-        <v>1023</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.3">
@@ -7979,7 +7974,7 @@
       </c>
       <c r="E187" s="25"/>
       <c r="F187" s="25" t="s">
-        <v>1023</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="188" spans="1:6" ht="30" x14ac:dyDescent="0.3">
@@ -7997,7 +7992,7 @@
       </c>
       <c r="E188" s="25"/>
       <c r="F188" s="25" t="s">
-        <v>1023</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.3">
@@ -8008,14 +8003,14 @@
         <v>276</v>
       </c>
       <c r="C189" s="25" t="s">
-        <v>999</v>
+        <v>988</v>
       </c>
       <c r="D189" s="25" t="s">
-        <v>850</v>
+        <v>842</v>
       </c>
       <c r="E189" s="25"/>
       <c r="F189" s="25" t="s">
-        <v>1023</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="190" spans="1:6" ht="30" x14ac:dyDescent="0.3">
@@ -8033,7 +8028,7 @@
       </c>
       <c r="E190" s="25"/>
       <c r="F190" s="25" t="s">
-        <v>1023</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.3">
@@ -8051,7 +8046,7 @@
       </c>
       <c r="E191" s="25"/>
       <c r="F191" s="25" t="s">
-        <v>1023</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.3">
@@ -8069,7 +8064,7 @@
       </c>
       <c r="E192" s="25"/>
       <c r="F192" s="25" t="s">
-        <v>1023</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="193" spans="1:6" ht="30" x14ac:dyDescent="0.3">
@@ -8087,7 +8082,7 @@
       </c>
       <c r="E193" s="25"/>
       <c r="F193" s="25" t="s">
-        <v>1023</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.3">
@@ -8105,7 +8100,7 @@
       </c>
       <c r="E194" s="25"/>
       <c r="F194" s="25" t="s">
-        <v>1023</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="195" spans="1:6" ht="45" x14ac:dyDescent="0.3">
@@ -8123,7 +8118,7 @@
       </c>
       <c r="E195" s="25"/>
       <c r="F195" s="25" t="s">
-        <v>1023</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="196" spans="1:6" ht="30" x14ac:dyDescent="0.3">
@@ -8137,7 +8132,7 @@
         <v>264</v>
       </c>
       <c r="D196" s="25" t="s">
-        <v>874</v>
+        <v>866</v>
       </c>
       <c r="E196" s="25"/>
       <c r="F196" s="25"/>
@@ -8157,7 +8152,7 @@
       </c>
       <c r="E197" s="25"/>
       <c r="F197" s="25" t="s">
-        <v>1023</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.3">
@@ -8165,7 +8160,7 @@
         <v>55</v>
       </c>
       <c r="B198" s="66" t="s">
-        <v>1280</v>
+        <v>1264</v>
       </c>
       <c r="C198" s="41" t="s">
         <v>25</v>
@@ -8203,7 +8198,7 @@
       </c>
       <c r="E200" s="25"/>
       <c r="F200" s="25" t="s">
-        <v>1153</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.3">
@@ -8221,7 +8216,7 @@
       </c>
       <c r="E201" s="25"/>
       <c r="F201" s="25" t="s">
-        <v>1153</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.3">
@@ -8235,11 +8230,11 @@
         <v>241</v>
       </c>
       <c r="D202" s="25" t="s">
-        <v>765</v>
+        <v>757</v>
       </c>
       <c r="E202" s="25"/>
       <c r="F202" s="25" t="s">
-        <v>1153</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.3">
@@ -8253,11 +8248,11 @@
         <v>243</v>
       </c>
       <c r="D203" s="25" t="s">
-        <v>1149</v>
+        <v>1134</v>
       </c>
       <c r="E203" s="25"/>
       <c r="F203" s="25" t="s">
-        <v>1153</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.3">
@@ -8285,11 +8280,11 @@
         <v>295</v>
       </c>
       <c r="D205" s="25" t="s">
-        <v>769</v>
+        <v>761</v>
       </c>
       <c r="E205" s="25"/>
       <c r="F205" s="25" t="s">
-        <v>1153</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.3">
@@ -8307,7 +8302,7 @@
       </c>
       <c r="E206" s="25"/>
       <c r="F206" s="25" t="s">
-        <v>1153</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.3">
@@ -8325,7 +8320,7 @@
       </c>
       <c r="E207" s="25"/>
       <c r="F207" s="25" t="s">
-        <v>1153</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.3">
@@ -8339,11 +8334,11 @@
         <v>300</v>
       </c>
       <c r="D208" s="25" t="s">
-        <v>850</v>
+        <v>842</v>
       </c>
       <c r="E208" s="25"/>
       <c r="F208" s="25" t="s">
-        <v>1153</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="209" spans="1:6" ht="30" x14ac:dyDescent="0.3">
@@ -8351,7 +8346,7 @@
         <v>55</v>
       </c>
       <c r="B209" s="66" t="s">
-        <v>1154</v>
+        <v>1139</v>
       </c>
       <c r="C209" s="25" t="s">
         <v>253</v>
@@ -8361,7 +8356,7 @@
       </c>
       <c r="E209" s="25"/>
       <c r="F209" s="25" t="s">
-        <v>1153</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.3">
@@ -8379,7 +8374,7 @@
       </c>
       <c r="E210" s="25"/>
       <c r="F210" s="25" t="s">
-        <v>1153</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.3">
@@ -8397,7 +8392,7 @@
       </c>
       <c r="E211" s="25"/>
       <c r="F211" s="25" t="s">
-        <v>1153</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="212" spans="1:6" ht="30" x14ac:dyDescent="0.3">
@@ -8415,7 +8410,7 @@
       </c>
       <c r="E212" s="25"/>
       <c r="F212" s="25" t="s">
-        <v>1153</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.3">
@@ -8433,7 +8428,7 @@
       </c>
       <c r="E213" s="25"/>
       <c r="F213" s="25" t="s">
-        <v>1153</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="214" spans="1:6" ht="45" x14ac:dyDescent="0.3">
@@ -8451,7 +8446,7 @@
       </c>
       <c r="E214" s="25"/>
       <c r="F214" s="25" t="s">
-        <v>1153</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="215" spans="1:6" ht="30" x14ac:dyDescent="0.3">
@@ -8465,11 +8460,11 @@
         <v>264</v>
       </c>
       <c r="D215" s="25" t="s">
-        <v>874</v>
+        <v>866</v>
       </c>
       <c r="E215" s="25"/>
       <c r="F215" s="25" t="s">
-        <v>1153</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.3">
@@ -8487,7 +8482,7 @@
       </c>
       <c r="E216" s="25"/>
       <c r="F216" s="25" t="s">
-        <v>1153</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.3">
@@ -8495,7 +8490,7 @@
         <v>55</v>
       </c>
       <c r="B217" s="66" t="s">
-        <v>1282</v>
+        <v>1266</v>
       </c>
       <c r="C217" s="55" t="s">
         <v>310</v>
@@ -8533,7 +8528,7 @@
       </c>
       <c r="E219" s="25"/>
       <c r="F219" s="25" t="s">
-        <v>1021</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.3">
@@ -8551,7 +8546,7 @@
       </c>
       <c r="E220" s="25"/>
       <c r="F220" s="25" t="s">
-        <v>1021</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.3">
@@ -8569,7 +8564,7 @@
       </c>
       <c r="E221" s="25"/>
       <c r="F221" s="25" t="s">
-        <v>1021</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="222" spans="1:6" ht="30" x14ac:dyDescent="0.3">
@@ -8587,7 +8582,7 @@
       </c>
       <c r="E222" s="25"/>
       <c r="F222" s="25" t="s">
-        <v>1021</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="223" spans="1:6" ht="30" x14ac:dyDescent="0.3">
@@ -8605,7 +8600,7 @@
       </c>
       <c r="E223" s="25"/>
       <c r="F223" s="25" t="s">
-        <v>1021</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.3">
@@ -8619,11 +8614,11 @@
         <v>323</v>
       </c>
       <c r="D224" s="25" t="s">
-        <v>790</v>
+        <v>782</v>
       </c>
       <c r="E224" s="25"/>
       <c r="F224" s="25" t="s">
-        <v>1021</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.3">
@@ -8641,7 +8636,7 @@
       </c>
       <c r="E225" s="25"/>
       <c r="F225" s="25" t="s">
-        <v>1021</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.3">
@@ -8652,14 +8647,14 @@
         <v>326</v>
       </c>
       <c r="C226" s="25" t="s">
-        <v>980</v>
+        <v>969</v>
       </c>
       <c r="D226" s="25" t="s">
-        <v>1008</v>
+        <v>995</v>
       </c>
       <c r="E226" s="25"/>
       <c r="F226" s="25" t="s">
-        <v>1021</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.3">
@@ -8673,11 +8668,11 @@
         <v>328</v>
       </c>
       <c r="D227" s="25" t="s">
-        <v>1008</v>
+        <v>995</v>
       </c>
       <c r="E227" s="25"/>
       <c r="F227" s="25" t="s">
-        <v>1021</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.3">
@@ -8688,14 +8683,14 @@
         <v>329</v>
       </c>
       <c r="C228" s="25" t="s">
-        <v>986</v>
+        <v>975</v>
       </c>
       <c r="D228" s="25">
         <v>76.16</v>
       </c>
       <c r="E228" s="25"/>
       <c r="F228" s="25" t="s">
-        <v>1021</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.3">
@@ -8713,7 +8708,7 @@
       </c>
       <c r="E229" s="25"/>
       <c r="F229" s="25" t="s">
-        <v>1021</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.3">
@@ -8731,7 +8726,7 @@
       </c>
       <c r="E230" s="25"/>
       <c r="F230" s="25" t="s">
-        <v>1021</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.3">
@@ -8763,7 +8758,7 @@
       </c>
       <c r="E232" s="25"/>
       <c r="F232" s="25" t="s">
-        <v>1021</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.3">
@@ -8777,11 +8772,11 @@
         <v>339</v>
       </c>
       <c r="D233" s="25" t="s">
-        <v>803</v>
+        <v>795</v>
       </c>
       <c r="E233" s="25"/>
       <c r="F233" s="25" t="s">
-        <v>1021</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.3">
@@ -8799,7 +8794,7 @@
       </c>
       <c r="E234" s="25"/>
       <c r="F234" s="25" t="s">
-        <v>1021</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.3">
@@ -8817,7 +8812,7 @@
       </c>
       <c r="E235" s="25"/>
       <c r="F235" s="25" t="s">
-        <v>1021</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.3">
@@ -8831,11 +8826,11 @@
         <v>345</v>
       </c>
       <c r="D236" s="25" t="s">
-        <v>880</v>
+        <v>872</v>
       </c>
       <c r="E236" s="25"/>
       <c r="F236" s="25" t="s">
-        <v>1021</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.3">
@@ -8853,7 +8848,7 @@
       </c>
       <c r="E237" s="25"/>
       <c r="F237" s="25" t="s">
-        <v>1021</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.3">
@@ -8871,7 +8866,7 @@
       </c>
       <c r="E238" s="25"/>
       <c r="F238" s="25" t="s">
-        <v>1021</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.3">
@@ -8889,7 +8884,7 @@
       </c>
       <c r="E239" s="25"/>
       <c r="F239" s="25" t="s">
-        <v>1021</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.3">
@@ -8907,7 +8902,7 @@
       </c>
       <c r="E240" s="25"/>
       <c r="F240" s="25" t="s">
-        <v>1021</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.3">
@@ -8925,7 +8920,7 @@
       </c>
       <c r="E241" s="25"/>
       <c r="F241" s="25" t="s">
-        <v>1021</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.3">
@@ -8943,7 +8938,7 @@
       </c>
       <c r="E242" s="25"/>
       <c r="F242" s="25" t="s">
-        <v>1021</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.3">
@@ -8975,7 +8970,7 @@
       </c>
       <c r="E244" s="25"/>
       <c r="F244" s="25" t="s">
-        <v>1021</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.3">
@@ -8993,7 +8988,7 @@
       </c>
       <c r="E245" s="25"/>
       <c r="F245" s="25" t="s">
-        <v>1021</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.3">
@@ -9001,7 +8996,7 @@
         <v>55</v>
       </c>
       <c r="B246" s="66" t="s">
-        <v>1283</v>
+        <v>1267</v>
       </c>
       <c r="C246" s="41" t="s">
         <v>364</v>
@@ -9021,7 +9016,7 @@
         <v>366</v>
       </c>
       <c r="D247" s="25" t="s">
-        <v>1008</v>
+        <v>995</v>
       </c>
       <c r="E247" s="25"/>
       <c r="F247" s="25"/>
@@ -9031,7 +9026,7 @@
         <v>55</v>
       </c>
       <c r="B248" s="66" t="s">
-        <v>1223</v>
+        <v>1207</v>
       </c>
       <c r="C248" s="51" t="s">
         <v>28</v>
@@ -9059,17 +9054,17 @@
         <v>55</v>
       </c>
       <c r="B250" s="66" t="s">
-        <v>1224</v>
+        <v>1208</v>
       </c>
       <c r="C250" s="32" t="s">
-        <v>1225</v>
+        <v>1209</v>
       </c>
       <c r="D250" s="25" t="s">
-        <v>823</v>
+        <v>815</v>
       </c>
       <c r="E250" s="25"/>
       <c r="F250" s="25" t="s">
-        <v>1023</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.3">
@@ -9077,17 +9072,17 @@
         <v>55</v>
       </c>
       <c r="B251" s="66" t="s">
-        <v>1226</v>
+        <v>1210</v>
       </c>
       <c r="C251" s="32" t="s">
-        <v>1227</v>
+        <v>1211</v>
       </c>
       <c r="D251" s="25" t="s">
-        <v>826</v>
+        <v>818</v>
       </c>
       <c r="E251" s="25"/>
       <c r="F251" s="25" t="s">
-        <v>1023</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.3">
@@ -9095,17 +9090,17 @@
         <v>55</v>
       </c>
       <c r="B252" s="66" t="s">
-        <v>1228</v>
+        <v>1212</v>
       </c>
       <c r="C252" s="32" t="s">
-        <v>1229</v>
+        <v>1213</v>
       </c>
       <c r="D252" s="25" t="s">
-        <v>829</v>
+        <v>821</v>
       </c>
       <c r="E252" s="25"/>
       <c r="F252" s="25" t="s">
-        <v>1023</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.3">
@@ -9113,17 +9108,17 @@
         <v>55</v>
       </c>
       <c r="B253" s="66" t="s">
-        <v>1230</v>
+        <v>1214</v>
       </c>
       <c r="C253" s="32" t="s">
-        <v>1231</v>
+        <v>1215</v>
       </c>
       <c r="D253" s="25" t="s">
-        <v>832</v>
+        <v>824</v>
       </c>
       <c r="E253" s="25"/>
       <c r="F253" s="25" t="s">
-        <v>1023</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.3">
@@ -9145,17 +9140,17 @@
         <v>55</v>
       </c>
       <c r="B255" s="66" t="s">
-        <v>1232</v>
+        <v>1216</v>
       </c>
       <c r="C255" s="25" t="s">
-        <v>1233</v>
+        <v>1217</v>
       </c>
       <c r="D255" s="25" t="s">
-        <v>1008</v>
+        <v>995</v>
       </c>
       <c r="E255" s="25"/>
       <c r="F255" s="25" t="s">
-        <v>1023</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.3">
@@ -9163,17 +9158,17 @@
         <v>55</v>
       </c>
       <c r="B256" s="66" t="s">
-        <v>1234</v>
+        <v>1218</v>
       </c>
       <c r="C256" s="25" t="s">
-        <v>1235</v>
+        <v>1219</v>
       </c>
       <c r="D256" s="25" t="s">
-        <v>1008</v>
+        <v>995</v>
       </c>
       <c r="E256" s="25"/>
       <c r="F256" s="25" t="s">
-        <v>1023</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.3">
@@ -9181,17 +9176,17 @@
         <v>55</v>
       </c>
       <c r="B257" s="66" t="s">
-        <v>1236</v>
+        <v>1220</v>
       </c>
       <c r="C257" s="25" t="s">
-        <v>1237</v>
+        <v>1221</v>
       </c>
       <c r="D257" s="25" t="s">
-        <v>1008</v>
+        <v>995</v>
       </c>
       <c r="E257" s="25"/>
       <c r="F257" s="25" t="s">
-        <v>1023</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.3">
@@ -9199,17 +9194,17 @@
         <v>55</v>
       </c>
       <c r="B258" s="66" t="s">
-        <v>1238</v>
+        <v>1222</v>
       </c>
       <c r="C258" s="25" t="s">
-        <v>1239</v>
+        <v>1223</v>
       </c>
       <c r="D258" s="25" t="s">
-        <v>1008</v>
+        <v>995</v>
       </c>
       <c r="E258" s="25"/>
       <c r="F258" s="25" t="s">
-        <v>1023</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.3">
@@ -9217,7 +9212,7 @@
         <v>55</v>
       </c>
       <c r="B259" s="66" t="s">
-        <v>1240</v>
+        <v>1224</v>
       </c>
       <c r="C259" s="41" t="s">
         <v>31</v>
@@ -9237,11 +9232,11 @@
         <v>32</v>
       </c>
       <c r="D260" s="25" t="s">
-        <v>1008</v>
+        <v>995</v>
       </c>
       <c r="E260" s="25"/>
       <c r="F260" s="25" t="s">
-        <v>1153</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.3">
@@ -9255,11 +9250,11 @@
         <v>33</v>
       </c>
       <c r="D261" s="25" t="s">
-        <v>1008</v>
+        <v>995</v>
       </c>
       <c r="E261" s="25"/>
       <c r="F261" s="25" t="s">
-        <v>1153</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="262" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
@@ -9267,7 +9262,7 @@
         <v>55</v>
       </c>
       <c r="B262" s="65" t="s">
-        <v>1196</v>
+        <v>1180</v>
       </c>
       <c r="C262" s="46" t="s">
         <v>34</v>
@@ -9281,7 +9276,7 @@
         <v>55</v>
       </c>
       <c r="B263" s="66" t="s">
-        <v>1197</v>
+        <v>1181</v>
       </c>
       <c r="C263" s="41" t="s">
         <v>1</v>
@@ -9319,7 +9314,7 @@
       </c>
       <c r="E265" s="32"/>
       <c r="F265" s="25" t="s">
-        <v>1019</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.3">
@@ -9337,7 +9332,7 @@
       </c>
       <c r="E266" s="32"/>
       <c r="F266" s="25" t="s">
-        <v>1019</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.3">
@@ -9355,7 +9350,7 @@
       </c>
       <c r="E267" s="32"/>
       <c r="F267" s="25" t="s">
-        <v>1019</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="268" spans="1:6" ht="30" x14ac:dyDescent="0.3">
@@ -9373,7 +9368,7 @@
       </c>
       <c r="E268" s="32"/>
       <c r="F268" s="25" t="s">
-        <v>1019</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.3">
@@ -9391,7 +9386,7 @@
       </c>
       <c r="E269" s="32"/>
       <c r="F269" s="25" t="s">
-        <v>1019</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.3">
@@ -9409,7 +9404,7 @@
       </c>
       <c r="E270" s="32"/>
       <c r="F270" s="25" t="s">
-        <v>1019</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="271" spans="1:6" ht="30" x14ac:dyDescent="0.3">
@@ -9427,7 +9422,7 @@
       </c>
       <c r="E271" s="32"/>
       <c r="F271" s="25" t="s">
-        <v>1019</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.3">
@@ -9438,7 +9433,7 @@
         <v>393</v>
       </c>
       <c r="C272" s="51" t="s">
-        <v>1241</v>
+        <v>1225</v>
       </c>
       <c r="D272" s="51"/>
       <c r="E272" s="51"/>
@@ -9449,17 +9444,17 @@
         <v>55</v>
       </c>
       <c r="B273" s="66" t="s">
-        <v>1133</v>
+        <v>1118</v>
       </c>
       <c r="C273" s="32" t="s">
-        <v>1132</v>
+        <v>1117</v>
       </c>
       <c r="D273" s="25" t="s">
         <v>423</v>
       </c>
       <c r="E273" s="32"/>
       <c r="F273" s="25" t="s">
-        <v>1019</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="274" spans="1:6" ht="30" x14ac:dyDescent="0.3">
@@ -9467,17 +9462,17 @@
         <v>55</v>
       </c>
       <c r="B274" s="66" t="s">
-        <v>1242</v>
+        <v>1226</v>
       </c>
       <c r="C274" s="32" t="s">
-        <v>1134</v>
+        <v>1119</v>
       </c>
       <c r="D274" s="25" t="s">
-        <v>1033</v>
+        <v>1018</v>
       </c>
       <c r="E274" s="32"/>
       <c r="F274" s="25" t="s">
-        <v>1019</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="275" spans="1:6" ht="45" x14ac:dyDescent="0.3">
@@ -9491,11 +9486,11 @@
         <v>396</v>
       </c>
       <c r="D275" s="25" t="s">
-        <v>900</v>
+        <v>892</v>
       </c>
       <c r="E275" s="32"/>
       <c r="F275" s="25" t="s">
-        <v>1019</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="276" spans="1:6" ht="30" x14ac:dyDescent="0.3">
@@ -9513,7 +9508,7 @@
       </c>
       <c r="E276" s="32"/>
       <c r="F276" s="25" t="s">
-        <v>1019</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="277" spans="1:6" ht="45" x14ac:dyDescent="0.3">
@@ -9531,7 +9526,7 @@
       </c>
       <c r="E277" s="32"/>
       <c r="F277" s="25" t="s">
-        <v>1019</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.3">
@@ -9539,7 +9534,7 @@
         <v>55</v>
       </c>
       <c r="B278" s="66" t="s">
-        <v>1136</v>
+        <v>1121</v>
       </c>
       <c r="C278" s="32" t="s">
         <v>404</v>
@@ -9549,7 +9544,7 @@
       </c>
       <c r="E278" s="32"/>
       <c r="F278" s="25" t="s">
-        <v>1019</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.3">
@@ -9557,7 +9552,7 @@
         <v>55</v>
       </c>
       <c r="B279" s="66" t="s">
-        <v>1198</v>
+        <v>1182</v>
       </c>
       <c r="C279" s="41" t="s">
         <v>406</v>
@@ -9595,7 +9590,7 @@
       </c>
       <c r="E281" s="32"/>
       <c r="F281" s="25" t="s">
-        <v>1021</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.3">
@@ -9613,7 +9608,7 @@
       </c>
       <c r="E282" s="32"/>
       <c r="F282" s="25" t="s">
-        <v>1021</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.3">
@@ -9631,7 +9626,7 @@
       </c>
       <c r="E283" s="32"/>
       <c r="F283" s="25" t="s">
-        <v>1021</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="284" spans="1:6" ht="30" x14ac:dyDescent="0.3">
@@ -9649,7 +9644,7 @@
       </c>
       <c r="E284" s="32"/>
       <c r="F284" s="25" t="s">
-        <v>1021</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.3">
@@ -9667,7 +9662,7 @@
       </c>
       <c r="E285" s="32"/>
       <c r="F285" s="25" t="s">
-        <v>1021</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.3">
@@ -9685,7 +9680,7 @@
       </c>
       <c r="E286" s="32"/>
       <c r="F286" s="25" t="s">
-        <v>1021</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.3">
@@ -9703,7 +9698,7 @@
       </c>
       <c r="E287" s="32"/>
       <c r="F287" s="25" t="s">
-        <v>1021</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.3">
@@ -9721,7 +9716,7 @@
       </c>
       <c r="E288" s="32"/>
       <c r="F288" s="25" t="s">
-        <v>1021</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.3">
@@ -9729,10 +9724,10 @@
         <v>55</v>
       </c>
       <c r="B289" s="66" t="s">
-        <v>1243</v>
+        <v>1227</v>
       </c>
       <c r="C289" s="51" t="s">
-        <v>1241</v>
+        <v>1225</v>
       </c>
       <c r="D289" s="51"/>
       <c r="E289" s="51"/>
@@ -9746,14 +9741,14 @@
         <v>422</v>
       </c>
       <c r="C290" s="25" t="s">
-        <v>1244</v>
+        <v>1228</v>
       </c>
       <c r="D290" s="25" t="s">
         <v>423</v>
       </c>
       <c r="E290" s="32"/>
       <c r="F290" s="25" t="s">
-        <v>1021</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="291" spans="1:6" ht="30" x14ac:dyDescent="0.3">
@@ -9767,11 +9762,11 @@
         <v>425</v>
       </c>
       <c r="D291" s="25" t="s">
-        <v>1033</v>
+        <v>1018</v>
       </c>
       <c r="E291" s="32"/>
       <c r="F291" s="25" t="s">
-        <v>1021</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="292" spans="1:6" ht="30" x14ac:dyDescent="0.3">
@@ -9785,11 +9780,11 @@
         <v>427</v>
       </c>
       <c r="D292" s="25" t="s">
-        <v>900</v>
+        <v>892</v>
       </c>
       <c r="E292" s="32"/>
       <c r="F292" s="25" t="s">
-        <v>1021</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="293" spans="1:6" ht="30" x14ac:dyDescent="0.3">
@@ -9807,7 +9802,7 @@
       </c>
       <c r="E293" s="25"/>
       <c r="F293" s="25" t="s">
-        <v>1021</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="294" spans="1:6" ht="45" x14ac:dyDescent="0.3">
@@ -9825,7 +9820,7 @@
       </c>
       <c r="E294" s="32"/>
       <c r="F294" s="25" t="s">
-        <v>1021</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="295" spans="1:6" ht="45" x14ac:dyDescent="0.3">
@@ -9843,7 +9838,7 @@
       </c>
       <c r="E295" s="25"/>
       <c r="F295" s="25" t="s">
-        <v>1021</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="296" spans="1:6" x14ac:dyDescent="0.3">
@@ -9854,14 +9849,14 @@
         <v>433</v>
       </c>
       <c r="C296" s="25" t="s">
-        <v>1245</v>
+        <v>1229</v>
       </c>
       <c r="D296" s="25" t="s">
         <v>435</v>
       </c>
       <c r="E296" s="32"/>
       <c r="F296" s="25" t="s">
-        <v>1021</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.3">
@@ -9872,14 +9867,14 @@
         <v>436</v>
       </c>
       <c r="C297" s="32" t="s">
-        <v>1158</v>
+        <v>1143</v>
       </c>
       <c r="D297" s="25" t="s">
-        <v>1044</v>
+        <v>1029</v>
       </c>
       <c r="E297" s="32"/>
       <c r="F297" s="25" t="s">
-        <v>1021</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="298" spans="1:6" x14ac:dyDescent="0.3">
@@ -9887,17 +9882,17 @@
         <v>55</v>
       </c>
       <c r="B298" s="66" t="s">
-        <v>1155</v>
+        <v>1140</v>
       </c>
       <c r="C298" s="32" t="s">
-        <v>1156</v>
+        <v>1141</v>
       </c>
       <c r="D298" s="25" t="s">
-        <v>1047</v>
+        <v>1032</v>
       </c>
       <c r="E298" s="32"/>
       <c r="F298" s="25" t="s">
-        <v>1021</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="299" spans="1:6" x14ac:dyDescent="0.3">
@@ -9905,7 +9900,7 @@
         <v>55</v>
       </c>
       <c r="B299" s="66" t="s">
-        <v>1199</v>
+        <v>1183</v>
       </c>
       <c r="C299" s="41" t="s">
         <v>36</v>
@@ -9943,7 +9938,7 @@
       </c>
       <c r="E301" s="32"/>
       <c r="F301" s="25" t="s">
-        <v>1023</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="302" spans="1:6" x14ac:dyDescent="0.3">
@@ -9961,7 +9956,7 @@
       </c>
       <c r="E302" s="32"/>
       <c r="F302" s="25" t="s">
-        <v>1023</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="303" spans="1:6" x14ac:dyDescent="0.3">
@@ -9979,7 +9974,7 @@
       </c>
       <c r="E303" s="32"/>
       <c r="F303" s="25" t="s">
-        <v>1023</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="304" spans="1:6" ht="30" x14ac:dyDescent="0.3">
@@ -9997,7 +9992,7 @@
       </c>
       <c r="E304" s="32"/>
       <c r="F304" s="25" t="s">
-        <v>1023</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="305" spans="1:6" x14ac:dyDescent="0.3">
@@ -10015,7 +10010,7 @@
       </c>
       <c r="E305" s="32"/>
       <c r="F305" s="25" t="s">
-        <v>1023</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="306" spans="1:6" x14ac:dyDescent="0.3">
@@ -10033,7 +10028,7 @@
       </c>
       <c r="E306" s="32"/>
       <c r="F306" s="25" t="s">
-        <v>1023</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="307" spans="1:6" x14ac:dyDescent="0.3">
@@ -10051,7 +10046,7 @@
       </c>
       <c r="E307" s="32"/>
       <c r="F307" s="25" t="s">
-        <v>1023</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="308" spans="1:6" x14ac:dyDescent="0.3">
@@ -10069,7 +10064,7 @@
       </c>
       <c r="E308" s="32"/>
       <c r="F308" s="25" t="s">
-        <v>1023</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="309" spans="1:6" x14ac:dyDescent="0.3">
@@ -10077,10 +10072,10 @@
         <v>55</v>
       </c>
       <c r="B309" s="66" t="s">
-        <v>1246</v>
+        <v>1230</v>
       </c>
       <c r="C309" s="51" t="s">
-        <v>1241</v>
+        <v>1225</v>
       </c>
       <c r="D309" s="51"/>
       <c r="E309" s="51"/>
@@ -10094,14 +10089,14 @@
         <v>447</v>
       </c>
       <c r="C310" s="25" t="s">
-        <v>1244</v>
+        <v>1228</v>
       </c>
       <c r="D310" s="25" t="s">
         <v>423</v>
       </c>
       <c r="E310" s="32"/>
       <c r="F310" s="25" t="s">
-        <v>1023</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="311" spans="1:6" ht="30" x14ac:dyDescent="0.3">
@@ -10115,11 +10110,11 @@
         <v>425</v>
       </c>
       <c r="D311" s="25" t="s">
-        <v>1033</v>
+        <v>1018</v>
       </c>
       <c r="E311" s="32"/>
       <c r="F311" s="25" t="s">
-        <v>1023</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="312" spans="1:6" ht="30" x14ac:dyDescent="0.3">
@@ -10130,14 +10125,14 @@
         <v>449</v>
       </c>
       <c r="C312" s="25" t="s">
-        <v>1287</v>
+        <v>1271</v>
       </c>
       <c r="D312" s="25" t="s">
-        <v>900</v>
+        <v>892</v>
       </c>
       <c r="E312" s="32"/>
       <c r="F312" s="25" t="s">
-        <v>1023</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="313" spans="1:6" ht="30" x14ac:dyDescent="0.3">
@@ -10155,7 +10150,7 @@
       </c>
       <c r="E313" s="25"/>
       <c r="F313" s="25" t="s">
-        <v>1023</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="314" spans="1:6" ht="45" x14ac:dyDescent="0.3">
@@ -10173,7 +10168,7 @@
       </c>
       <c r="E314" s="32"/>
       <c r="F314" s="25" t="s">
-        <v>1023</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="315" spans="1:6" ht="45" x14ac:dyDescent="0.3">
@@ -10191,7 +10186,7 @@
       </c>
       <c r="E315" s="25"/>
       <c r="F315" s="25" t="s">
-        <v>1023</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="316" spans="1:6" ht="30" x14ac:dyDescent="0.3">
@@ -10202,14 +10197,14 @@
         <v>453</v>
       </c>
       <c r="C316" s="25" t="s">
-        <v>1247</v>
+        <v>1231</v>
       </c>
       <c r="D316" s="25" t="s">
         <v>435</v>
       </c>
       <c r="E316" s="32"/>
       <c r="F316" s="25" t="s">
-        <v>1023</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="317" spans="1:6" x14ac:dyDescent="0.3">
@@ -10220,14 +10215,14 @@
         <v>454</v>
       </c>
       <c r="C317" s="32" t="s">
-        <v>1158</v>
+        <v>1143</v>
       </c>
       <c r="D317" s="25" t="s">
-        <v>1044</v>
+        <v>1029</v>
       </c>
       <c r="E317" s="32"/>
       <c r="F317" s="25" t="s">
-        <v>1023</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="318" spans="1:6" x14ac:dyDescent="0.3">
@@ -10235,17 +10230,17 @@
         <v>55</v>
       </c>
       <c r="B318" s="66" t="s">
-        <v>1157</v>
+        <v>1142</v>
       </c>
       <c r="C318" s="32" t="s">
-        <v>1156</v>
+        <v>1141</v>
       </c>
       <c r="D318" s="25" t="s">
-        <v>1047</v>
+        <v>1032</v>
       </c>
       <c r="E318" s="32"/>
       <c r="F318" s="25" t="s">
-        <v>1023</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="319" spans="1:6" x14ac:dyDescent="0.3">
@@ -10253,7 +10248,7 @@
         <v>55</v>
       </c>
       <c r="B319" s="66" t="s">
-        <v>1200</v>
+        <v>1184</v>
       </c>
       <c r="C319" s="41" t="s">
         <v>9</v>
@@ -10291,7 +10286,7 @@
       </c>
       <c r="E321" s="32"/>
       <c r="F321" s="25" t="s">
-        <v>1027</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="322" spans="1:6" x14ac:dyDescent="0.3">
@@ -10316,14 +10311,14 @@
         <v>460</v>
       </c>
       <c r="C323" s="25" t="s">
-        <v>1248</v>
+        <v>1232</v>
       </c>
       <c r="D323" s="25" t="s">
-        <v>1249</v>
+        <v>1233</v>
       </c>
       <c r="E323" s="25"/>
       <c r="F323" s="25" t="s">
-        <v>1027</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="324" spans="1:6" x14ac:dyDescent="0.3">
@@ -10341,7 +10336,7 @@
       </c>
       <c r="E324" s="32"/>
       <c r="F324" s="25" t="s">
-        <v>1027</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="325" spans="1:6" x14ac:dyDescent="0.3">
@@ -10359,7 +10354,7 @@
       </c>
       <c r="E325" s="32"/>
       <c r="F325" s="25" t="s">
-        <v>1027</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="326" spans="1:6" ht="30" x14ac:dyDescent="0.3">
@@ -10377,7 +10372,7 @@
       </c>
       <c r="E326" s="32"/>
       <c r="F326" s="25" t="s">
-        <v>1027</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="327" spans="1:6" x14ac:dyDescent="0.3">
@@ -10395,7 +10390,7 @@
       </c>
       <c r="E327" s="32"/>
       <c r="F327" s="25" t="s">
-        <v>1027</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="328" spans="1:6" x14ac:dyDescent="0.3">
@@ -10406,14 +10401,14 @@
         <v>473</v>
       </c>
       <c r="C328" s="25" t="s">
-        <v>1250</v>
+        <v>1234</v>
       </c>
       <c r="D328" s="25" t="s">
         <v>423</v>
       </c>
       <c r="E328" s="32"/>
       <c r="F328" s="25" t="s">
-        <v>1027</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="329" spans="1:6" ht="45" x14ac:dyDescent="0.3">
@@ -10431,7 +10426,7 @@
       </c>
       <c r="E329" s="32"/>
       <c r="F329" s="25" t="s">
-        <v>1027</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="330" spans="1:6" ht="30" x14ac:dyDescent="0.3">
@@ -10439,17 +10434,17 @@
         <v>55</v>
       </c>
       <c r="B330" s="69" t="s">
-        <v>1251</v>
+        <v>1235</v>
       </c>
       <c r="C330" s="69" t="s">
-        <v>1288</v>
+        <v>1272</v>
       </c>
       <c r="D330" s="69" t="s">
         <v>405</v>
       </c>
       <c r="E330" s="69"/>
       <c r="F330" s="25" t="s">
-        <v>1027</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="331" spans="1:6" x14ac:dyDescent="0.3">
@@ -10457,7 +10452,7 @@
         <v>55</v>
       </c>
       <c r="B331" s="66" t="s">
-        <v>1201</v>
+        <v>1185</v>
       </c>
       <c r="C331" s="60" t="s">
         <v>38</v>
@@ -10495,7 +10490,7 @@
       </c>
       <c r="E333" s="25"/>
       <c r="F333" s="25" t="s">
-        <v>1153</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="334" spans="1:6" x14ac:dyDescent="0.3">
@@ -10513,7 +10508,7 @@
       </c>
       <c r="E334" s="25"/>
       <c r="F334" s="25" t="s">
-        <v>1153</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="335" spans="1:6" x14ac:dyDescent="0.3">
@@ -10531,7 +10526,7 @@
       </c>
       <c r="E335" s="25"/>
       <c r="F335" s="25" t="s">
-        <v>1153</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="336" spans="1:6" ht="30" x14ac:dyDescent="0.3">
@@ -10549,7 +10544,7 @@
       </c>
       <c r="E336" s="25"/>
       <c r="F336" s="25" t="s">
-        <v>1153</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="337" spans="1:6" x14ac:dyDescent="0.3">
@@ -10567,7 +10562,7 @@
       </c>
       <c r="E337" s="25"/>
       <c r="F337" s="25" t="s">
-        <v>1153</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="338" spans="1:6" x14ac:dyDescent="0.3">
@@ -10585,7 +10580,7 @@
       </c>
       <c r="E338" s="25"/>
       <c r="F338" s="25" t="s">
-        <v>1153</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="339" spans="1:6" x14ac:dyDescent="0.3">
@@ -10593,7 +10588,7 @@
         <v>55</v>
       </c>
       <c r="B339" s="66" t="s">
-        <v>1252</v>
+        <v>1236</v>
       </c>
       <c r="C339" s="25" t="s">
         <v>419</v>
@@ -10603,7 +10598,7 @@
       </c>
       <c r="E339" s="25"/>
       <c r="F339" s="25" t="s">
-        <v>1153</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="340" spans="1:6" x14ac:dyDescent="0.3">
@@ -10611,7 +10606,7 @@
         <v>55</v>
       </c>
       <c r="B340" s="66" t="s">
-        <v>1253</v>
+        <v>1237</v>
       </c>
       <c r="C340" s="25" t="s">
         <v>421</v>
@@ -10621,7 +10616,7 @@
       </c>
       <c r="E340" s="25"/>
       <c r="F340" s="25" t="s">
-        <v>1153</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="341" spans="1:6" x14ac:dyDescent="0.3">
@@ -10629,10 +10624,10 @@
         <v>55</v>
       </c>
       <c r="B341" s="66" t="s">
-        <v>1138</v>
+        <v>1123</v>
       </c>
       <c r="C341" s="51" t="s">
-        <v>1241</v>
+        <v>1225</v>
       </c>
       <c r="D341" s="51"/>
       <c r="E341" s="51"/>
@@ -10643,17 +10638,17 @@
         <v>55</v>
       </c>
       <c r="B342" s="66" t="s">
-        <v>1254</v>
+        <v>1238</v>
       </c>
       <c r="C342" s="25" t="s">
-        <v>1250</v>
+        <v>1234</v>
       </c>
       <c r="D342" s="25" t="s">
         <v>423</v>
       </c>
       <c r="E342" s="25"/>
       <c r="F342" s="25" t="s">
-        <v>1153</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="343" spans="1:6" ht="30" x14ac:dyDescent="0.3">
@@ -10661,17 +10656,17 @@
         <v>55</v>
       </c>
       <c r="B343" s="66" t="s">
-        <v>1255</v>
+        <v>1239</v>
       </c>
       <c r="C343" s="25" t="s">
         <v>425</v>
       </c>
       <c r="D343" s="25" t="s">
-        <v>1033</v>
+        <v>1018</v>
       </c>
       <c r="E343" s="25"/>
       <c r="F343" s="25" t="s">
-        <v>1153</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="344" spans="1:6" ht="30" x14ac:dyDescent="0.3">
@@ -10679,17 +10674,17 @@
         <v>55</v>
       </c>
       <c r="B344" s="66" t="s">
-        <v>1137</v>
+        <v>1122</v>
       </c>
       <c r="C344" s="25" t="s">
         <v>427</v>
       </c>
       <c r="D344" s="25" t="s">
-        <v>900</v>
+        <v>892</v>
       </c>
       <c r="E344" s="25"/>
       <c r="F344" s="25" t="s">
-        <v>1153</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="345" spans="1:6" ht="30" x14ac:dyDescent="0.3">
@@ -10707,7 +10702,7 @@
       </c>
       <c r="E345" s="25"/>
       <c r="F345" s="25" t="s">
-        <v>1153</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="346" spans="1:6" ht="45" x14ac:dyDescent="0.3">
@@ -10725,7 +10720,7 @@
       </c>
       <c r="E346" s="25"/>
       <c r="F346" s="25" t="s">
-        <v>1153</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="347" spans="1:6" ht="45" x14ac:dyDescent="0.3">
@@ -10743,7 +10738,7 @@
       </c>
       <c r="E347" s="25"/>
       <c r="F347" s="25" t="s">
-        <v>1153</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="348" spans="1:6" ht="30" x14ac:dyDescent="0.3">
@@ -10754,14 +10749,14 @@
         <v>487</v>
       </c>
       <c r="C348" s="25" t="s">
-        <v>1247</v>
+        <v>1231</v>
       </c>
       <c r="D348" s="25" t="s">
         <v>435</v>
       </c>
       <c r="E348" s="25"/>
       <c r="F348" s="25" t="s">
-        <v>1153</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="349" spans="1:6" x14ac:dyDescent="0.3">
@@ -10772,14 +10767,14 @@
         <v>488</v>
       </c>
       <c r="C349" s="32" t="s">
-        <v>1158</v>
+        <v>1143</v>
       </c>
       <c r="D349" s="25" t="s">
-        <v>1044</v>
+        <v>1029</v>
       </c>
       <c r="E349" s="25"/>
       <c r="F349" s="25" t="s">
-        <v>1153</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="350" spans="1:6" x14ac:dyDescent="0.3">
@@ -10790,14 +10785,14 @@
         <v>489</v>
       </c>
       <c r="C350" s="32" t="s">
-        <v>1156</v>
+        <v>1141</v>
       </c>
       <c r="D350" s="25" t="s">
-        <v>1047</v>
+        <v>1032</v>
       </c>
       <c r="E350" s="25"/>
       <c r="F350" s="25" t="s">
-        <v>1153</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="351" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
@@ -10805,7 +10800,7 @@
         <v>55</v>
       </c>
       <c r="B351" s="65" t="s">
-        <v>1203</v>
+        <v>1187</v>
       </c>
       <c r="C351" s="51" t="s">
         <v>39</v>
@@ -10819,7 +10814,7 @@
         <v>55</v>
       </c>
       <c r="B352" s="66" t="s">
-        <v>1202</v>
+        <v>1186</v>
       </c>
       <c r="C352" s="51" t="s">
         <v>40</v>
@@ -10857,7 +10852,7 @@
       </c>
       <c r="E354" s="25"/>
       <c r="F354" s="25" t="s">
-        <v>1020</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="355" spans="1:6" x14ac:dyDescent="0.3">
@@ -10875,7 +10870,7 @@
       </c>
       <c r="E355" s="25"/>
       <c r="F355" s="25" t="s">
-        <v>1020</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="356" spans="1:6" x14ac:dyDescent="0.3">
@@ -10886,14 +10881,14 @@
         <v>495</v>
       </c>
       <c r="C356" s="32" t="s">
-        <v>1139</v>
+        <v>1124</v>
       </c>
       <c r="D356" s="25">
         <v>78.099999999999994</v>
       </c>
       <c r="E356" s="25"/>
       <c r="F356" s="25" t="s">
-        <v>1020</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="357" spans="1:6" x14ac:dyDescent="0.3">
@@ -10925,7 +10920,7 @@
       </c>
       <c r="E358" s="25"/>
       <c r="F358" s="25" t="s">
-        <v>1020</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="359" spans="1:6" x14ac:dyDescent="0.3">
@@ -10943,7 +10938,7 @@
       </c>
       <c r="E359" s="25"/>
       <c r="F359" s="25" t="s">
-        <v>1020</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="360" spans="1:6" x14ac:dyDescent="0.3">
@@ -10961,7 +10956,7 @@
       </c>
       <c r="E360" s="25"/>
       <c r="F360" s="25" t="s">
-        <v>1020</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="361" spans="1:6" x14ac:dyDescent="0.3">
@@ -10979,7 +10974,7 @@
       </c>
       <c r="E361" s="25"/>
       <c r="F361" s="25" t="s">
-        <v>1020</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="362" spans="1:6" x14ac:dyDescent="0.3">
@@ -11011,7 +11006,7 @@
       </c>
       <c r="E363" s="25"/>
       <c r="F363" s="25" t="s">
-        <v>1020</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="364" spans="1:6" x14ac:dyDescent="0.3">
@@ -11029,7 +11024,7 @@
       </c>
       <c r="E364" s="25"/>
       <c r="F364" s="25" t="s">
-        <v>1020</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="365" spans="1:6" x14ac:dyDescent="0.3">
@@ -11040,14 +11035,14 @@
         <v>518</v>
       </c>
       <c r="C365" s="32" t="s">
-        <v>991</v>
+        <v>980</v>
       </c>
       <c r="D365" s="25" t="s">
-        <v>990</v>
+        <v>979</v>
       </c>
       <c r="E365" s="25"/>
       <c r="F365" s="25" t="s">
-        <v>1020</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="366" spans="1:6" x14ac:dyDescent="0.3">
@@ -11065,7 +11060,7 @@
       </c>
       <c r="E366" s="25"/>
       <c r="F366" s="25" t="s">
-        <v>1020</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="367" spans="1:6" ht="30" x14ac:dyDescent="0.3">
@@ -11083,7 +11078,7 @@
       </c>
       <c r="E367" s="32"/>
       <c r="F367" s="25" t="s">
-        <v>1020</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="368" spans="1:6" x14ac:dyDescent="0.3">
@@ -11115,7 +11110,7 @@
       </c>
       <c r="E369" s="32"/>
       <c r="F369" s="25" t="s">
-        <v>1020</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="370" spans="1:6" ht="30" x14ac:dyDescent="0.3">
@@ -11129,11 +11124,11 @@
         <v>531</v>
       </c>
       <c r="D370" s="25" t="s">
-        <v>1161</v>
+        <v>1146</v>
       </c>
       <c r="E370" s="32"/>
       <c r="F370" s="25" t="s">
-        <v>1020</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="371" spans="1:6" ht="30" x14ac:dyDescent="0.3">
@@ -11151,7 +11146,7 @@
       </c>
       <c r="E371" s="32"/>
       <c r="F371" s="25" t="s">
-        <v>1020</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="372" spans="1:6" x14ac:dyDescent="0.3">
@@ -11169,7 +11164,7 @@
       </c>
       <c r="E372" s="32"/>
       <c r="F372" s="25" t="s">
-        <v>1020</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="373" spans="1:6" x14ac:dyDescent="0.3">
@@ -11201,7 +11196,7 @@
       </c>
       <c r="E374" s="25"/>
       <c r="F374" s="25" t="s">
-        <v>1020</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="375" spans="1:6" x14ac:dyDescent="0.3">
@@ -11215,11 +11210,11 @@
         <v>544</v>
       </c>
       <c r="D375" s="25" t="s">
-        <v>987</v>
+        <v>976</v>
       </c>
       <c r="E375" s="25"/>
       <c r="F375" s="25" t="s">
-        <v>1020</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="376" spans="1:6" x14ac:dyDescent="0.3">
@@ -11251,7 +11246,7 @@
       </c>
       <c r="E377" s="32"/>
       <c r="F377" s="25" t="s">
-        <v>1020</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="378" spans="1:6" x14ac:dyDescent="0.3">
@@ -11265,11 +11260,11 @@
         <v>549</v>
       </c>
       <c r="D378" s="25" t="s">
-        <v>992</v>
+        <v>981</v>
       </c>
       <c r="E378" s="32"/>
       <c r="F378" s="25" t="s">
-        <v>1020</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="379" spans="1:6" x14ac:dyDescent="0.3">
@@ -11287,7 +11282,7 @@
       </c>
       <c r="E379" s="32"/>
       <c r="F379" s="25" t="s">
-        <v>1020</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="380" spans="1:6" x14ac:dyDescent="0.3">
@@ -11301,11 +11296,11 @@
         <v>553</v>
       </c>
       <c r="D380" s="25" t="s">
-        <v>990</v>
+        <v>979</v>
       </c>
       <c r="E380" s="32"/>
       <c r="F380" s="25" t="s">
-        <v>1020</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="381" spans="1:6" x14ac:dyDescent="0.3">
@@ -11319,11 +11314,11 @@
         <v>555</v>
       </c>
       <c r="D381" s="25" t="s">
-        <v>988</v>
+        <v>977</v>
       </c>
       <c r="E381" s="25"/>
       <c r="F381" s="25" t="s">
-        <v>1020</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="382" spans="1:6" x14ac:dyDescent="0.3">
@@ -11331,7 +11326,7 @@
         <v>55</v>
       </c>
       <c r="B382" s="66" t="s">
-        <v>1204</v>
+        <v>1188</v>
       </c>
       <c r="C382" s="41" t="s">
         <v>43</v>
@@ -11365,11 +11360,11 @@
         <v>492</v>
       </c>
       <c r="D384" s="25" t="s">
-        <v>928</v>
+        <v>919</v>
       </c>
       <c r="E384" s="32"/>
       <c r="F384" s="25" t="s">
-        <v>1024</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="385" spans="1:6" x14ac:dyDescent="0.3">
@@ -11383,11 +11378,11 @@
         <v>559</v>
       </c>
       <c r="D385" s="25" t="s">
-        <v>923</v>
+        <v>915</v>
       </c>
       <c r="E385" s="32"/>
       <c r="F385" s="25" t="s">
-        <v>1024</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="386" spans="1:6" x14ac:dyDescent="0.3">
@@ -11405,7 +11400,7 @@
       </c>
       <c r="E386" s="32"/>
       <c r="F386" s="25" t="s">
-        <v>1024</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="387" spans="1:6" x14ac:dyDescent="0.3">
@@ -11451,7 +11446,7 @@
       </c>
       <c r="E389" s="32"/>
       <c r="F389" s="25" t="s">
-        <v>1024</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="390" spans="1:6" x14ac:dyDescent="0.3">
@@ -11469,7 +11464,7 @@
       </c>
       <c r="E390" s="32"/>
       <c r="F390" s="25" t="s">
-        <v>1024</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="391" spans="1:6" ht="30" x14ac:dyDescent="0.3">
@@ -11487,7 +11482,7 @@
       </c>
       <c r="E391" s="32"/>
       <c r="F391" s="25" t="s">
-        <v>1024</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="392" spans="1:6" ht="30" x14ac:dyDescent="0.3">
@@ -11505,7 +11500,7 @@
       </c>
       <c r="E392" s="32"/>
       <c r="F392" s="25" t="s">
-        <v>1024</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="393" spans="1:6" x14ac:dyDescent="0.3">
@@ -11523,7 +11518,7 @@
       </c>
       <c r="E393" s="32"/>
       <c r="F393" s="25" t="s">
-        <v>1024</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="394" spans="1:6" ht="30" x14ac:dyDescent="0.3">
@@ -11541,7 +11536,7 @@
       </c>
       <c r="E394" s="32"/>
       <c r="F394" s="25" t="s">
-        <v>1024</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="395" spans="1:6" x14ac:dyDescent="0.3">
@@ -11573,7 +11568,7 @@
       </c>
       <c r="E396" s="32"/>
       <c r="F396" s="25" t="s">
-        <v>1024</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="397" spans="1:6" x14ac:dyDescent="0.3">
@@ -11587,11 +11582,11 @@
         <v>544</v>
       </c>
       <c r="D397" s="25" t="s">
-        <v>987</v>
+        <v>976</v>
       </c>
       <c r="E397" s="25"/>
       <c r="F397" s="25" t="s">
-        <v>1024</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="398" spans="1:6" x14ac:dyDescent="0.3">
@@ -11623,7 +11618,7 @@
       </c>
       <c r="E399" s="32"/>
       <c r="F399" s="25" t="s">
-        <v>1024</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="400" spans="1:6" x14ac:dyDescent="0.3">
@@ -11637,11 +11632,11 @@
         <v>584</v>
       </c>
       <c r="D400" s="25" t="s">
-        <v>992</v>
+        <v>981</v>
       </c>
       <c r="E400" s="32"/>
       <c r="F400" s="25" t="s">
-        <v>1024</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="401" spans="1:6" x14ac:dyDescent="0.3">
@@ -11659,7 +11654,7 @@
       </c>
       <c r="E401" s="32"/>
       <c r="F401" s="25" t="s">
-        <v>1024</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="402" spans="1:6" x14ac:dyDescent="0.3">
@@ -11673,11 +11668,11 @@
         <v>553</v>
       </c>
       <c r="D402" s="25" t="s">
-        <v>990</v>
+        <v>979</v>
       </c>
       <c r="E402" s="25"/>
       <c r="F402" s="25" t="s">
-        <v>1024</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="403" spans="1:6" x14ac:dyDescent="0.3">
@@ -11691,11 +11686,11 @@
         <v>555</v>
       </c>
       <c r="D403" s="25" t="s">
-        <v>988</v>
+        <v>977</v>
       </c>
       <c r="E403" s="25"/>
       <c r="F403" s="25" t="s">
-        <v>1024</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="404" spans="1:6" x14ac:dyDescent="0.3">
@@ -11703,7 +11698,7 @@
         <v>55</v>
       </c>
       <c r="B404" s="66" t="s">
-        <v>1205</v>
+        <v>1189</v>
       </c>
       <c r="C404" s="41" t="s">
         <v>44</v>
@@ -11741,7 +11736,7 @@
       </c>
       <c r="E406" s="32"/>
       <c r="F406" s="25" t="s">
-        <v>1025</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="407" spans="1:6" x14ac:dyDescent="0.3">
@@ -11755,11 +11750,11 @@
         <v>592</v>
       </c>
       <c r="D407" s="25" t="s">
-        <v>923</v>
+        <v>915</v>
       </c>
       <c r="E407" s="25"/>
       <c r="F407" s="25" t="s">
-        <v>1025</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="408" spans="1:6" x14ac:dyDescent="0.3">
@@ -11777,7 +11772,7 @@
       </c>
       <c r="E408" s="32"/>
       <c r="F408" s="25" t="s">
-        <v>1025</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="409" spans="1:6" x14ac:dyDescent="0.3">
@@ -11819,11 +11814,11 @@
         <v>598</v>
       </c>
       <c r="D411" s="25" t="s">
-        <v>962</v>
+        <v>952</v>
       </c>
       <c r="E411" s="32"/>
       <c r="F411" s="25" t="s">
-        <v>1025</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="412" spans="1:6" x14ac:dyDescent="0.3">
@@ -11841,7 +11836,7 @@
       </c>
       <c r="E412" s="32"/>
       <c r="F412" s="25" t="s">
-        <v>1025</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="413" spans="1:6" x14ac:dyDescent="0.3">
@@ -11859,7 +11854,7 @@
       </c>
       <c r="E413" s="32"/>
       <c r="F413" s="25" t="s">
-        <v>1025</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="414" spans="1:6" ht="30" x14ac:dyDescent="0.3">
@@ -11877,7 +11872,7 @@
       </c>
       <c r="E414" s="32"/>
       <c r="F414" s="25" t="s">
-        <v>1025</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="415" spans="1:6" x14ac:dyDescent="0.3">
@@ -11895,7 +11890,7 @@
       </c>
       <c r="E415" s="32"/>
       <c r="F415" s="25" t="s">
-        <v>1025</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="416" spans="1:6" ht="30" x14ac:dyDescent="0.3">
@@ -11913,7 +11908,7 @@
       </c>
       <c r="E416" s="32"/>
       <c r="F416" s="25" t="s">
-        <v>1025</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="417" spans="1:6" x14ac:dyDescent="0.3">
@@ -11945,7 +11940,7 @@
       </c>
       <c r="E418" s="32"/>
       <c r="F418" s="25" t="s">
-        <v>1025</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="419" spans="1:6" x14ac:dyDescent="0.3">
@@ -11959,11 +11954,11 @@
         <v>544</v>
       </c>
       <c r="D419" s="25" t="s">
-        <v>987</v>
+        <v>976</v>
       </c>
       <c r="E419" s="25"/>
       <c r="F419" s="25" t="s">
-        <v>1025</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="420" spans="1:6" x14ac:dyDescent="0.3">
@@ -11995,7 +11990,7 @@
       </c>
       <c r="E421" s="32"/>
       <c r="F421" s="25" t="s">
-        <v>1025</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="422" spans="1:6" x14ac:dyDescent="0.3">
@@ -12009,11 +12004,11 @@
         <v>584</v>
       </c>
       <c r="D422" s="25" t="s">
-        <v>992</v>
+        <v>981</v>
       </c>
       <c r="E422" s="32"/>
       <c r="F422" s="25" t="s">
-        <v>1025</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="423" spans="1:6" x14ac:dyDescent="0.3">
@@ -12031,7 +12026,7 @@
       </c>
       <c r="E423" s="32"/>
       <c r="F423" s="25" t="s">
-        <v>1025</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="424" spans="1:6" x14ac:dyDescent="0.3">
@@ -12045,11 +12040,11 @@
         <v>553</v>
       </c>
       <c r="D424" s="25" t="s">
-        <v>990</v>
+        <v>979</v>
       </c>
       <c r="E424" s="25"/>
       <c r="F424" s="25" t="s">
-        <v>1025</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="425" spans="1:6" x14ac:dyDescent="0.3">
@@ -12063,11 +12058,11 @@
         <v>555</v>
       </c>
       <c r="D425" s="25" t="s">
-        <v>988</v>
+        <v>977</v>
       </c>
       <c r="E425" s="25"/>
       <c r="F425" s="25" t="s">
-        <v>1025</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="426" spans="1:6" x14ac:dyDescent="0.3">
@@ -12075,7 +12070,7 @@
         <v>55</v>
       </c>
       <c r="B426" s="66" t="s">
-        <v>1206</v>
+        <v>1190</v>
       </c>
       <c r="C426" s="41" t="s">
         <v>45</v>
@@ -12113,7 +12108,7 @@
       </c>
       <c r="E428" s="32"/>
       <c r="F428" s="25" t="s">
-        <v>1026</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="429" spans="1:6" x14ac:dyDescent="0.3">
@@ -12131,7 +12126,7 @@
       </c>
       <c r="E429" s="32"/>
       <c r="F429" s="25" t="s">
-        <v>1026</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="430" spans="1:6" x14ac:dyDescent="0.3">
@@ -12149,7 +12144,7 @@
       </c>
       <c r="E430" s="32"/>
       <c r="F430" s="25" t="s">
-        <v>1026</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="431" spans="1:6" x14ac:dyDescent="0.3">
@@ -12195,7 +12190,7 @@
       </c>
       <c r="E433" s="25"/>
       <c r="F433" s="25" t="s">
-        <v>1026</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="434" spans="1:6" x14ac:dyDescent="0.3">
@@ -12213,7 +12208,7 @@
       </c>
       <c r="E434" s="32"/>
       <c r="F434" s="25" t="s">
-        <v>1026</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="435" spans="1:6" x14ac:dyDescent="0.3">
@@ -12231,7 +12226,7 @@
       </c>
       <c r="E435" s="32"/>
       <c r="F435" s="25" t="s">
-        <v>1026</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="436" spans="1:6" x14ac:dyDescent="0.3">
@@ -12249,7 +12244,7 @@
       </c>
       <c r="E436" s="25"/>
       <c r="F436" s="25" t="s">
-        <v>1026</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="437" spans="1:6" x14ac:dyDescent="0.3">
@@ -12274,14 +12269,14 @@
         <v>634</v>
       </c>
       <c r="C438" s="25" t="s">
-        <v>1146</v>
+        <v>1131</v>
       </c>
       <c r="D438" s="25" t="s">
         <v>635</v>
       </c>
       <c r="E438" s="25"/>
       <c r="F438" s="25" t="s">
-        <v>1026</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="439" spans="1:6" x14ac:dyDescent="0.3">
@@ -12292,14 +12287,14 @@
         <v>636</v>
       </c>
       <c r="C439" s="25" t="s">
-        <v>1145</v>
+        <v>1130</v>
       </c>
       <c r="D439" s="25" t="s">
         <v>637</v>
       </c>
       <c r="E439" s="25"/>
       <c r="F439" s="25" t="s">
-        <v>1026</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="440" spans="1:6" x14ac:dyDescent="0.3">
@@ -12317,7 +12312,7 @@
       </c>
       <c r="E440" s="25"/>
       <c r="F440" s="25" t="s">
-        <v>1026</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="441" spans="1:6" x14ac:dyDescent="0.3">
@@ -12349,7 +12344,7 @@
       </c>
       <c r="E442" s="32"/>
       <c r="F442" s="25" t="s">
-        <v>1026</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="443" spans="1:6" x14ac:dyDescent="0.3">
@@ -12367,7 +12362,7 @@
       </c>
       <c r="E443" s="32"/>
       <c r="F443" s="25" t="s">
-        <v>1026</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="444" spans="1:6" x14ac:dyDescent="0.3">
@@ -12385,7 +12380,7 @@
       </c>
       <c r="E444" s="32"/>
       <c r="F444" s="25" t="s">
-        <v>1026</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="445" spans="1:6" x14ac:dyDescent="0.3">
@@ -12403,7 +12398,7 @@
       </c>
       <c r="E445" s="25"/>
       <c r="F445" s="25" t="s">
-        <v>1026</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="446" spans="1:6" x14ac:dyDescent="0.3">
@@ -12421,7 +12416,7 @@
       </c>
       <c r="E446" s="32"/>
       <c r="F446" s="25" t="s">
-        <v>1026</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="447" spans="1:6" ht="30" x14ac:dyDescent="0.3">
@@ -12439,7 +12434,7 @@
       </c>
       <c r="E447" s="32"/>
       <c r="F447" s="25" t="s">
-        <v>1026</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="448" spans="1:6" x14ac:dyDescent="0.3">
@@ -12471,7 +12466,7 @@
       </c>
       <c r="E449" s="32"/>
       <c r="F449" s="25" t="s">
-        <v>1026</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="450" spans="1:6" ht="30" x14ac:dyDescent="0.3">
@@ -12485,11 +12480,11 @@
         <v>531</v>
       </c>
       <c r="D450" s="25" t="s">
-        <v>1161</v>
+        <v>1146</v>
       </c>
       <c r="E450" s="32"/>
       <c r="F450" s="25" t="s">
-        <v>1026</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="451" spans="1:6" x14ac:dyDescent="0.3">
@@ -12503,11 +12498,11 @@
         <v>652</v>
       </c>
       <c r="D451" s="25" t="s">
-        <v>1163</v>
+        <v>1148</v>
       </c>
       <c r="E451" s="32"/>
       <c r="F451" s="25" t="s">
-        <v>1026</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="452" spans="1:6" x14ac:dyDescent="0.3">
@@ -12525,7 +12520,7 @@
       </c>
       <c r="E452" s="32"/>
       <c r="F452" s="25" t="s">
-        <v>1026</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="453" spans="1:6" x14ac:dyDescent="0.3">
@@ -12557,7 +12552,7 @@
       </c>
       <c r="E454" s="32"/>
       <c r="F454" s="25" t="s">
-        <v>1026</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="455" spans="1:6" x14ac:dyDescent="0.3">
@@ -12571,11 +12566,11 @@
         <v>544</v>
       </c>
       <c r="D455" s="25" t="s">
-        <v>987</v>
+        <v>976</v>
       </c>
       <c r="E455" s="25"/>
       <c r="F455" s="25" t="s">
-        <v>1026</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="456" spans="1:6" x14ac:dyDescent="0.3">
@@ -12586,7 +12581,7 @@
         <v>657</v>
       </c>
       <c r="C456" s="51" t="s">
-        <v>997</v>
+        <v>986</v>
       </c>
       <c r="D456" s="51"/>
       <c r="E456" s="51"/>
@@ -12603,11 +12598,11 @@
         <v>555</v>
       </c>
       <c r="D457" s="25" t="s">
-        <v>988</v>
+        <v>977</v>
       </c>
       <c r="E457" s="25"/>
       <c r="F457" s="25" t="s">
-        <v>1026</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="458" spans="1:6" x14ac:dyDescent="0.3">
@@ -12615,7 +12610,7 @@
         <v>55</v>
       </c>
       <c r="B458" s="66" t="s">
-        <v>1207</v>
+        <v>1191</v>
       </c>
       <c r="C458" s="41" t="s">
         <v>46</v>
@@ -12637,7 +12632,7 @@
       <c r="D459" s="25"/>
       <c r="E459" s="32"/>
       <c r="F459" s="25" t="s">
-        <v>1278</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="460" spans="1:6" x14ac:dyDescent="0.3">
@@ -12653,7 +12648,7 @@
       <c r="D460" s="25"/>
       <c r="E460" s="32"/>
       <c r="F460" s="25" t="s">
-        <v>1278</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="461" spans="1:6" x14ac:dyDescent="0.3">
@@ -12669,7 +12664,7 @@
       <c r="D461" s="25"/>
       <c r="E461" s="32"/>
       <c r="F461" s="25" t="s">
-        <v>1278</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="462" spans="1:6" x14ac:dyDescent="0.3">
@@ -12677,7 +12672,7 @@
         <v>55</v>
       </c>
       <c r="B462" s="66" t="s">
-        <v>1208</v>
+        <v>1192</v>
       </c>
       <c r="C462" s="41" t="s">
         <v>48</v>
@@ -12719,7 +12714,7 @@
         <v>55</v>
       </c>
       <c r="B465" s="66" t="s">
-        <v>1256</v>
+        <v>1240</v>
       </c>
       <c r="C465" s="41" t="s">
         <v>50</v>
@@ -12757,7 +12752,7 @@
       </c>
       <c r="E467" s="32"/>
       <c r="F467" s="25" t="s">
-        <v>1019</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="468" spans="1:6" x14ac:dyDescent="0.3">
@@ -12775,7 +12770,7 @@
       </c>
       <c r="E468" s="32"/>
       <c r="F468" s="25" t="s">
-        <v>1019</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="469" spans="1:6" x14ac:dyDescent="0.3">
@@ -12793,7 +12788,7 @@
       </c>
       <c r="E469" s="32"/>
       <c r="F469" s="25" t="s">
-        <v>1019</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="470" spans="1:6" x14ac:dyDescent="0.3">
@@ -12839,7 +12834,7 @@
       </c>
       <c r="E472" s="32"/>
       <c r="F472" s="25" t="s">
-        <v>1019</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="473" spans="1:6" x14ac:dyDescent="0.3">
@@ -12857,7 +12852,7 @@
       </c>
       <c r="E473" s="32"/>
       <c r="F473" s="25" t="s">
-        <v>1019</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="474" spans="1:6" x14ac:dyDescent="0.3">
@@ -12871,11 +12866,11 @@
         <v>674</v>
       </c>
       <c r="D474" s="25" t="s">
-        <v>989</v>
+        <v>978</v>
       </c>
       <c r="E474" s="25"/>
       <c r="F474" s="25" t="s">
-        <v>1019</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="475" spans="1:6" x14ac:dyDescent="0.3">
@@ -12893,7 +12888,7 @@
       </c>
       <c r="E475" s="25"/>
       <c r="F475" s="25" t="s">
-        <v>1019</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="476" spans="1:6" x14ac:dyDescent="0.3">
@@ -12904,12 +12899,12 @@
         <v>677</v>
       </c>
       <c r="C476" s="25" t="s">
-        <v>1005</v>
+        <v>992</v>
       </c>
       <c r="D476" s="25"/>
       <c r="E476" s="25"/>
       <c r="F476" s="25" t="s">
-        <v>1019</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="477" spans="1:6" ht="30" x14ac:dyDescent="0.3">
@@ -12917,7 +12912,7 @@
         <v>55</v>
       </c>
       <c r="B477" s="66" t="s">
-        <v>1006</v>
+        <v>993</v>
       </c>
       <c r="C477" s="25" t="s">
         <v>678</v>
@@ -12927,7 +12922,7 @@
       </c>
       <c r="E477" s="25"/>
       <c r="F477" s="25" t="s">
-        <v>1019</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="478" spans="1:6" x14ac:dyDescent="0.3">
@@ -12935,17 +12930,17 @@
         <v>55</v>
       </c>
       <c r="B478" s="66" t="s">
-        <v>1007</v>
+        <v>994</v>
       </c>
       <c r="C478" s="25" t="s">
-        <v>1004</v>
+        <v>991</v>
       </c>
       <c r="D478" s="25" t="s">
         <v>637</v>
       </c>
       <c r="E478" s="25"/>
       <c r="F478" s="25" t="s">
-        <v>1019</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="479" spans="1:6" x14ac:dyDescent="0.3">
@@ -12977,7 +12972,7 @@
       </c>
       <c r="E480" s="32"/>
       <c r="F480" s="25" t="s">
-        <v>1019</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="481" spans="1:6" x14ac:dyDescent="0.3">
@@ -12991,11 +12986,11 @@
         <v>544</v>
       </c>
       <c r="D481" s="25" t="s">
-        <v>987</v>
+        <v>976</v>
       </c>
       <c r="E481" s="25"/>
       <c r="F481" s="25" t="s">
-        <v>1019</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="482" spans="1:6" x14ac:dyDescent="0.3">
@@ -13027,7 +13022,7 @@
       </c>
       <c r="E483" s="32"/>
       <c r="F483" s="25" t="s">
-        <v>1019</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="484" spans="1:6" x14ac:dyDescent="0.3">
@@ -13045,7 +13040,7 @@
       </c>
       <c r="E484" s="32"/>
       <c r="F484" s="25" t="s">
-        <v>1019</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="485" spans="1:6" x14ac:dyDescent="0.3">
@@ -13063,7 +13058,7 @@
       </c>
       <c r="E485" s="32"/>
       <c r="F485" s="25" t="s">
-        <v>1019</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="486" spans="1:6" x14ac:dyDescent="0.3">
@@ -13077,11 +13072,11 @@
         <v>553</v>
       </c>
       <c r="D486" s="25" t="s">
-        <v>990</v>
+        <v>979</v>
       </c>
       <c r="E486" s="25"/>
       <c r="F486" s="25" t="s">
-        <v>1019</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="487" spans="1:6" x14ac:dyDescent="0.3">
@@ -13089,17 +13084,17 @@
         <v>55</v>
       </c>
       <c r="B487" s="66" t="s">
-        <v>1160</v>
+        <v>1145</v>
       </c>
       <c r="C487" s="25" t="s">
         <v>555</v>
       </c>
       <c r="D487" s="25" t="s">
-        <v>988</v>
+        <v>977</v>
       </c>
       <c r="E487" s="25"/>
       <c r="F487" s="25" t="s">
-        <v>1019</v>
+        <v>1005</v>
       </c>
     </row>
   </sheetData>
@@ -13149,12 +13144,12 @@
         <v>693</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>57</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>1002</v>
+        <v>1289</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>694</v>
@@ -13168,12 +13163,12 @@
       </c>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>1002</v>
+        <v>1289</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>696</v>
@@ -13187,12 +13182,12 @@
       </c>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>63</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>1002</v>
+        <v>1289</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>697</v>
@@ -13211,7 +13206,7 @@
         <v>66</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>1002</v>
+        <v>1289</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>698</v>
@@ -13225,12 +13220,12 @@
       </c>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>701</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>1002</v>
+        <v>1289</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>702</v>
@@ -13258,7 +13253,7 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:AMK56"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
@@ -14314,18 +14309,18 @@
       <c r="AMJ1" s="11"/>
       <c r="AMK1" s="11"/>
     </row>
-    <row r="2" spans="1:1025" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1025" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A2" s="27" t="s">
         <v>69</v>
       </c>
       <c r="B2" s="27" t="s">
+        <v>1280</v>
+      </c>
+      <c r="C2" s="27" t="s">
         <v>704</v>
       </c>
-      <c r="C2" s="27" t="s">
+      <c r="D2" s="27" t="s">
         <v>705</v>
-      </c>
-      <c r="D2" s="27" t="s">
-        <v>706</v>
       </c>
       <c r="E2" s="18"/>
       <c r="F2" s="18" t="s">
@@ -14333,15 +14328,15 @@
       </c>
       <c r="G2" s="18"/>
     </row>
-    <row r="3" spans="1:1025" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1025" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A3" s="27" t="s">
         <v>72</v>
       </c>
       <c r="B3" s="27" t="s">
-        <v>704</v>
+        <v>1280</v>
       </c>
       <c r="C3" s="27" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="D3" s="27" t="s">
         <v>71</v>
@@ -14357,10 +14352,10 @@
         <v>75</v>
       </c>
       <c r="B4" s="27" t="s">
-        <v>704</v>
+        <v>1280</v>
       </c>
       <c r="C4" s="27" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="D4" s="27" t="s">
         <v>74</v>
@@ -14376,13 +14371,13 @@
         <v>77</v>
       </c>
       <c r="B5" s="27" t="s">
-        <v>704</v>
+        <v>1280</v>
       </c>
       <c r="C5" s="27" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="D5" s="27" t="s">
-        <v>1219</v>
+        <v>1203</v>
       </c>
       <c r="E5" s="18"/>
       <c r="F5" s="18" t="s">
@@ -14390,18 +14385,18 @@
       </c>
       <c r="G5" s="18"/>
     </row>
-    <row r="6" spans="1:1025" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1025" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A6" s="27" t="s">
         <v>79</v>
       </c>
       <c r="B6" s="27" t="s">
-        <v>704</v>
+        <v>1280</v>
       </c>
       <c r="C6" s="27" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="D6" s="63" t="s">
-        <v>1276</v>
+        <v>1260</v>
       </c>
       <c r="E6" s="18"/>
       <c r="F6" s="18" t="s">
@@ -14409,18 +14404,18 @@
       </c>
       <c r="G6" s="18"/>
     </row>
-    <row r="7" spans="1:1025" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1025" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A7" s="27" t="s">
         <v>81</v>
       </c>
       <c r="B7" s="27" t="s">
-        <v>704</v>
+        <v>1280</v>
       </c>
       <c r="C7" s="27" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="D7" s="27" t="s">
-        <v>1169</v>
+        <v>1154</v>
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="18" t="s">
@@ -14430,16 +14425,16 @@
     </row>
     <row r="8" spans="1:1025" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A8" s="27" t="s">
+        <v>712</v>
+      </c>
+      <c r="B8" s="27" t="s">
+        <v>1280</v>
+      </c>
+      <c r="C8" s="27" t="s">
         <v>713</v>
       </c>
-      <c r="B8" s="27" t="s">
-        <v>704</v>
-      </c>
-      <c r="C8" s="27" t="s">
+      <c r="D8" s="27" t="s">
         <v>714</v>
-      </c>
-      <c r="D8" s="27" t="s">
-        <v>715</v>
       </c>
       <c r="E8" s="18"/>
       <c r="F8" s="18" t="s">
@@ -14452,13 +14447,13 @@
         <v>90</v>
       </c>
       <c r="B9" s="27" t="s">
-        <v>716</v>
+        <v>1281</v>
       </c>
       <c r="C9" s="27" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="D9" s="27" t="s">
-        <v>1170</v>
+        <v>1155</v>
       </c>
       <c r="E9" s="18"/>
       <c r="F9" s="18" t="s">
@@ -14471,10 +14466,10 @@
         <v>107</v>
       </c>
       <c r="B10" s="27" t="s">
+        <v>1281</v>
+      </c>
+      <c r="C10" s="27" t="s">
         <v>716</v>
-      </c>
-      <c r="C10" s="27" t="s">
-        <v>718</v>
       </c>
       <c r="D10" s="27" t="s">
         <v>106</v>
@@ -14490,10 +14485,10 @@
         <v>93</v>
       </c>
       <c r="B11" s="27" t="s">
-        <v>716</v>
+        <v>1281</v>
       </c>
       <c r="C11" s="27" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="D11" s="27" t="s">
         <v>92</v>
@@ -14509,10 +14504,10 @@
         <v>96</v>
       </c>
       <c r="B12" s="27" t="s">
-        <v>716</v>
+        <v>1281</v>
       </c>
       <c r="C12" s="27" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="D12" s="27" t="s">
         <v>95</v>
@@ -14528,13 +14523,13 @@
         <v>98</v>
       </c>
       <c r="B13" s="27" t="s">
-        <v>716</v>
+        <v>1281</v>
       </c>
       <c r="C13" s="27" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="D13" s="27" t="s">
-        <v>1291</v>
+        <v>1275</v>
       </c>
       <c r="E13" s="18"/>
       <c r="F13" s="18" t="s">
@@ -14547,10 +14542,10 @@
         <v>101</v>
       </c>
       <c r="B14" s="27" t="s">
-        <v>716</v>
+        <v>1281</v>
       </c>
       <c r="C14" s="27" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="D14" s="27" t="s">
         <v>100</v>
@@ -14566,10 +14561,10 @@
         <v>104</v>
       </c>
       <c r="B15" s="27" t="s">
-        <v>716</v>
+        <v>1281</v>
       </c>
       <c r="C15" s="27" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="D15" s="27" t="s">
         <v>103</v>
@@ -14585,10 +14580,10 @@
         <v>110</v>
       </c>
       <c r="B16" s="27" t="s">
-        <v>716</v>
+        <v>1281</v>
       </c>
       <c r="C16" s="27" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="D16" s="27" t="s">
         <v>109</v>
@@ -14604,36 +14599,36 @@
         <v>112</v>
       </c>
       <c r="B17" s="27" t="s">
-        <v>716</v>
+        <v>1281</v>
       </c>
       <c r="C17" s="27" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="D17" s="27" t="s">
-        <v>1218</v>
+        <v>1202</v>
       </c>
       <c r="E17" s="19" t="s">
-        <v>1284</v>
+        <v>1268</v>
       </c>
       <c r="F17" s="18" t="s">
         <v>695</v>
       </c>
       <c r="G17" s="18" t="s">
-        <v>1285</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A18" s="27" t="s">
+        <v>724</v>
+      </c>
+      <c r="B18" s="27" t="s">
+        <v>1281</v>
+      </c>
+      <c r="C18" s="27" t="s">
+        <v>725</v>
+      </c>
+      <c r="D18" s="27" t="s">
         <v>726</v>
-      </c>
-      <c r="B18" s="27" t="s">
-        <v>716</v>
-      </c>
-      <c r="C18" s="27" t="s">
-        <v>727</v>
-      </c>
-      <c r="D18" s="27" t="s">
-        <v>728</v>
       </c>
       <c r="E18" s="18"/>
       <c r="F18" s="18" t="s">
@@ -14646,13 +14641,13 @@
         <v>125</v>
       </c>
       <c r="B19" s="26" t="s">
-        <v>729</v>
+        <v>1282</v>
       </c>
       <c r="C19" s="26" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="D19" s="26" t="s">
-        <v>1183</v>
+        <v>1167</v>
       </c>
       <c r="E19" s="18"/>
       <c r="F19" s="18" t="s">
@@ -14660,15 +14655,15 @@
       </c>
       <c r="G19" s="18"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A20" s="27" t="s">
         <v>128</v>
       </c>
       <c r="B20" s="27" t="s">
-        <v>729</v>
+        <v>1282</v>
       </c>
       <c r="C20" s="27" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D20" s="27" t="s">
         <v>127</v>
@@ -14679,15 +14674,15 @@
       </c>
       <c r="G20" s="18"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A21" s="27" t="s">
         <v>131</v>
       </c>
       <c r="B21" s="27" t="s">
+        <v>1282</v>
+      </c>
+      <c r="C21" s="27" t="s">
         <v>729</v>
-      </c>
-      <c r="C21" s="27" t="s">
-        <v>732</v>
       </c>
       <c r="D21" s="27" t="s">
         <v>130</v>
@@ -14698,15 +14693,15 @@
       </c>
       <c r="G21" s="18"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A22" s="27" t="s">
         <v>134</v>
       </c>
       <c r="B22" s="27" t="s">
-        <v>729</v>
+        <v>1282</v>
       </c>
       <c r="C22" s="27" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="D22" s="27" t="s">
         <v>133</v>
@@ -14717,15 +14712,15 @@
       </c>
       <c r="G22" s="18"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A23" s="27" t="s">
         <v>137</v>
       </c>
       <c r="B23" s="27" t="s">
-        <v>729</v>
+        <v>1282</v>
       </c>
       <c r="C23" s="27" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="D23" s="27" t="s">
         <v>136</v>
@@ -14736,15 +14731,15 @@
       </c>
       <c r="G23" s="18"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A24" s="27" t="s">
         <v>84</v>
       </c>
       <c r="B24" s="27" t="s">
-        <v>729</v>
+        <v>1282</v>
       </c>
       <c r="C24" s="27" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="D24" s="27" t="s">
         <v>83</v>
@@ -14760,13 +14755,13 @@
         <v>117</v>
       </c>
       <c r="B25" s="27" t="s">
-        <v>736</v>
+        <v>1283</v>
       </c>
       <c r="C25" s="27" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="D25" s="27" t="s">
-        <v>1172</v>
+        <v>1157</v>
       </c>
       <c r="E25" s="18"/>
       <c r="F25" s="18" t="s">
@@ -14779,13 +14774,13 @@
         <v>173</v>
       </c>
       <c r="B26" s="27" t="s">
-        <v>736</v>
+        <v>1283</v>
       </c>
       <c r="C26" s="27" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="D26" s="27" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="E26" s="18"/>
       <c r="F26" s="18" t="s">
@@ -14798,10 +14793,10 @@
         <v>176</v>
       </c>
       <c r="B27" s="27" t="s">
+        <v>1283</v>
+      </c>
+      <c r="C27" s="27" t="s">
         <v>736</v>
-      </c>
-      <c r="C27" s="27" t="s">
-        <v>740</v>
       </c>
       <c r="D27" s="27" t="s">
         <v>175</v>
@@ -14817,13 +14812,13 @@
         <v>152</v>
       </c>
       <c r="B28" s="27" t="s">
-        <v>741</v>
+        <v>1284</v>
       </c>
       <c r="C28" s="27" t="s">
-        <v>742</v>
+        <v>737</v>
       </c>
       <c r="D28" s="27" t="s">
-        <v>1173</v>
+        <v>1158</v>
       </c>
       <c r="E28" s="18"/>
       <c r="F28" s="18" t="s">
@@ -14836,10 +14831,10 @@
         <v>155</v>
       </c>
       <c r="B29" s="27" t="s">
-        <v>741</v>
+        <v>1284</v>
       </c>
       <c r="C29" s="27" t="s">
-        <v>743</v>
+        <v>738</v>
       </c>
       <c r="D29" s="27" t="s">
         <v>154</v>
@@ -14855,10 +14850,10 @@
         <v>158</v>
       </c>
       <c r="B30" s="27" t="s">
-        <v>741</v>
+        <v>1284</v>
       </c>
       <c r="C30" s="27" t="s">
-        <v>744</v>
+        <v>739</v>
       </c>
       <c r="D30" s="27" t="s">
         <v>157</v>
@@ -14874,10 +14869,10 @@
         <v>161</v>
       </c>
       <c r="B31" s="27" t="s">
-        <v>741</v>
+        <v>1284</v>
       </c>
       <c r="C31" s="27" t="s">
-        <v>745</v>
+        <v>740</v>
       </c>
       <c r="D31" s="27" t="s">
         <v>160</v>
@@ -14893,10 +14888,10 @@
         <v>164</v>
       </c>
       <c r="B32" s="27" t="s">
+        <v>1284</v>
+      </c>
+      <c r="C32" s="27" t="s">
         <v>741</v>
-      </c>
-      <c r="C32" s="27" t="s">
-        <v>746</v>
       </c>
       <c r="D32" s="27" t="s">
         <v>163</v>
@@ -14912,13 +14907,13 @@
         <v>170</v>
       </c>
       <c r="B33" s="27" t="s">
-        <v>747</v>
+        <v>1285</v>
       </c>
       <c r="C33" s="27" t="s">
-        <v>748</v>
+        <v>742</v>
       </c>
       <c r="D33" s="27" t="s">
-        <v>1176</v>
+        <v>1161</v>
       </c>
       <c r="E33" s="18"/>
       <c r="F33" s="18" t="s">
@@ -14931,13 +14926,13 @@
         <v>209</v>
       </c>
       <c r="B34" s="27" t="s">
-        <v>749</v>
+        <v>1286</v>
       </c>
       <c r="C34" s="27" t="s">
-        <v>750</v>
+        <v>743</v>
       </c>
       <c r="D34" s="27" t="s">
-        <v>1174</v>
+        <v>1159</v>
       </c>
       <c r="E34" s="18"/>
       <c r="F34" s="18" t="s">
@@ -14950,10 +14945,10 @@
         <v>212</v>
       </c>
       <c r="B35" s="27" t="s">
-        <v>749</v>
+        <v>1286</v>
       </c>
       <c r="C35" s="27" t="s">
-        <v>751</v>
+        <v>744</v>
       </c>
       <c r="D35" s="27" t="s">
         <v>211</v>
@@ -14969,10 +14964,10 @@
         <v>215</v>
       </c>
       <c r="B36" s="27" t="s">
-        <v>749</v>
+        <v>1286</v>
       </c>
       <c r="C36" s="27" t="s">
-        <v>752</v>
+        <v>745</v>
       </c>
       <c r="D36" s="27" t="s">
         <v>214</v>
@@ -14988,17 +14983,17 @@
         <v>218</v>
       </c>
       <c r="B37" s="27" t="s">
-        <v>749</v>
+        <v>1286</v>
       </c>
       <c r="C37" s="27" t="s">
-        <v>753</v>
+        <v>746</v>
       </c>
       <c r="D37" s="27" t="s">
         <v>217</v>
       </c>
       <c r="E37" s="18"/>
       <c r="F37" s="18" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="G37" s="35"/>
     </row>
@@ -15007,17 +15002,17 @@
         <v>458</v>
       </c>
       <c r="B38" s="27" t="s">
-        <v>749</v>
+        <v>1286</v>
       </c>
       <c r="C38" s="27" t="s">
-        <v>754</v>
+        <v>747</v>
       </c>
       <c r="D38" s="27" t="s">
         <v>457</v>
       </c>
       <c r="E38" s="18"/>
       <c r="F38" s="18" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="G38" s="18"/>
     </row>
@@ -15026,13 +15021,13 @@
         <v>231</v>
       </c>
       <c r="B39" s="27" t="s">
-        <v>978</v>
+        <v>1287</v>
       </c>
       <c r="C39" s="27" t="s">
-        <v>755</v>
+        <v>748</v>
       </c>
       <c r="D39" s="27" t="s">
-        <v>1175</v>
+        <v>1160</v>
       </c>
       <c r="E39" s="18"/>
       <c r="F39" s="18" t="s">
@@ -15045,13 +15040,13 @@
         <v>225</v>
       </c>
       <c r="B40" s="27" t="s">
-        <v>978</v>
+        <v>1287</v>
       </c>
       <c r="C40" s="26" t="s">
-        <v>756</v>
+        <v>749</v>
       </c>
       <c r="D40" s="26" t="s">
-        <v>1108</v>
+        <v>1093</v>
       </c>
       <c r="E40" s="18"/>
       <c r="F40" s="18" t="s">
@@ -15064,13 +15059,13 @@
         <v>223</v>
       </c>
       <c r="B41" s="26" t="s">
-        <v>978</v>
+        <v>1287</v>
       </c>
       <c r="C41" s="27" t="s">
-        <v>757</v>
+        <v>750</v>
       </c>
       <c r="D41" s="63" t="s">
-        <v>1109</v>
+        <v>1094</v>
       </c>
       <c r="E41" s="18"/>
       <c r="F41" s="18" t="s">
@@ -15083,13 +15078,13 @@
         <v>230</v>
       </c>
       <c r="B42" s="27" t="s">
-        <v>978</v>
+        <v>1287</v>
       </c>
       <c r="C42" s="27" t="s">
-        <v>758</v>
+        <v>751</v>
       </c>
       <c r="D42" s="27" t="s">
-        <v>759</v>
+        <v>752</v>
       </c>
       <c r="E42" s="18"/>
       <c r="F42" s="18" t="s">
@@ -15097,18 +15092,18 @@
       </c>
       <c r="G42" s="18"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A43" s="62" t="s">
-        <v>1061</v>
+        <v>1046</v>
       </c>
       <c r="B43" s="62" t="s">
-        <v>716</v>
+        <v>1281</v>
       </c>
       <c r="C43" s="62" t="s">
-        <v>1050</v>
+        <v>1035</v>
       </c>
       <c r="D43" s="62" t="s">
-        <v>1263</v>
+        <v>1247</v>
       </c>
       <c r="E43" s="31"/>
       <c r="F43" s="18" t="s">
@@ -15116,18 +15111,18 @@
       </c>
       <c r="G43" s="31"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A44" s="62" t="s">
-        <v>1062</v>
+        <v>1047</v>
       </c>
       <c r="B44" s="62" t="s">
-        <v>716</v>
+        <v>1281</v>
       </c>
       <c r="C44" s="62" t="s">
-        <v>1051</v>
+        <v>1036</v>
       </c>
       <c r="D44" s="62" t="s">
-        <v>1264</v>
+        <v>1248</v>
       </c>
       <c r="E44" s="31"/>
       <c r="F44" s="18" t="s">
@@ -15135,18 +15130,18 @@
       </c>
       <c r="G44" s="31"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A45" s="62" t="s">
-        <v>1063</v>
+        <v>1048</v>
       </c>
       <c r="B45" s="62" t="s">
-        <v>716</v>
+        <v>1281</v>
       </c>
       <c r="C45" s="62" t="s">
-        <v>1052</v>
+        <v>1037</v>
       </c>
       <c r="D45" s="62" t="s">
-        <v>1265</v>
+        <v>1249</v>
       </c>
       <c r="E45" s="31"/>
       <c r="F45" s="18" t="s">
@@ -15154,18 +15149,18 @@
       </c>
       <c r="G45" s="31"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A46" s="62" t="s">
-        <v>1064</v>
+        <v>1049</v>
       </c>
       <c r="B46" s="62" t="s">
-        <v>716</v>
+        <v>1281</v>
       </c>
       <c r="C46" s="62" t="s">
-        <v>1053</v>
+        <v>1038</v>
       </c>
       <c r="D46" s="62" t="s">
-        <v>1266</v>
+        <v>1250</v>
       </c>
       <c r="E46" s="31"/>
       <c r="F46" s="18" t="s">
@@ -15173,18 +15168,18 @@
       </c>
       <c r="G46" s="31"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A47" s="62" t="s">
-        <v>1065</v>
+        <v>1050</v>
       </c>
       <c r="B47" s="62" t="s">
-        <v>716</v>
+        <v>1281</v>
       </c>
       <c r="C47" s="62" t="s">
-        <v>1054</v>
+        <v>1039</v>
       </c>
       <c r="D47" s="62" t="s">
-        <v>1267</v>
+        <v>1251</v>
       </c>
       <c r="E47" s="31"/>
       <c r="F47" s="18" t="s">
@@ -15192,18 +15187,18 @@
       </c>
       <c r="G47" s="31"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A48" s="62" t="s">
-        <v>1066</v>
+        <v>1051</v>
       </c>
       <c r="B48" s="62" t="s">
-        <v>716</v>
+        <v>1281</v>
       </c>
       <c r="C48" s="62" t="s">
-        <v>1055</v>
+        <v>1040</v>
       </c>
       <c r="D48" s="62" t="s">
-        <v>1268</v>
+        <v>1252</v>
       </c>
       <c r="E48" s="31"/>
       <c r="F48" s="18" t="s">
@@ -15211,18 +15206,18 @@
       </c>
       <c r="G48" s="31"/>
     </row>
-    <row r="49" spans="1:1025" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:1025" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A49" s="62" t="s">
-        <v>1067</v>
+        <v>1052</v>
       </c>
       <c r="B49" s="62" t="s">
-        <v>716</v>
+        <v>1281</v>
       </c>
       <c r="C49" s="62" t="s">
-        <v>1056</v>
+        <v>1041</v>
       </c>
       <c r="D49" s="62" t="s">
-        <v>1269</v>
+        <v>1253</v>
       </c>
       <c r="E49" s="31"/>
       <c r="F49" s="18" t="s">
@@ -15230,18 +15225,18 @@
       </c>
       <c r="G49" s="31"/>
     </row>
-    <row r="50" spans="1:1025" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:1025" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A50" s="62" t="s">
-        <v>1068</v>
+        <v>1053</v>
       </c>
       <c r="B50" s="62" t="s">
-        <v>716</v>
+        <v>1281</v>
       </c>
       <c r="C50" s="62" t="s">
-        <v>1057</v>
+        <v>1042</v>
       </c>
       <c r="D50" s="62" t="s">
-        <v>1270</v>
+        <v>1254</v>
       </c>
       <c r="E50" s="31"/>
       <c r="F50" s="18" t="s">
@@ -15249,18 +15244,18 @@
       </c>
       <c r="G50" s="31"/>
     </row>
-    <row r="51" spans="1:1025" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:1025" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A51" s="62" t="s">
-        <v>1069</v>
+        <v>1054</v>
       </c>
       <c r="B51" s="62" t="s">
-        <v>716</v>
+        <v>1281</v>
       </c>
       <c r="C51" s="62" t="s">
-        <v>1058</v>
+        <v>1043</v>
       </c>
       <c r="D51" s="62" t="s">
-        <v>1271</v>
+        <v>1255</v>
       </c>
       <c r="E51" s="31"/>
       <c r="F51" s="18" t="s">
@@ -15268,18 +15263,18 @@
       </c>
       <c r="G51" s="31"/>
     </row>
-    <row r="52" spans="1:1025" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:1025" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A52" s="62" t="s">
-        <v>1070</v>
+        <v>1055</v>
       </c>
       <c r="B52" s="62" t="s">
-        <v>741</v>
+        <v>1284</v>
       </c>
       <c r="C52" s="62" t="s">
-        <v>1059</v>
+        <v>1044</v>
       </c>
       <c r="D52" s="62" t="s">
-        <v>1272</v>
+        <v>1256</v>
       </c>
       <c r="E52" s="31"/>
       <c r="F52" s="18" t="s">
@@ -15287,18 +15282,18 @@
       </c>
       <c r="G52" s="31"/>
     </row>
-    <row r="53" spans="1:1025" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:1025" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A53" s="62" t="s">
-        <v>1071</v>
+        <v>1056</v>
       </c>
       <c r="B53" s="62" t="s">
-        <v>741</v>
+        <v>1284</v>
       </c>
       <c r="C53" s="62" t="s">
-        <v>1060</v>
+        <v>1045</v>
       </c>
       <c r="D53" s="62" t="s">
-        <v>1273</v>
+        <v>1257</v>
       </c>
       <c r="E53" s="31"/>
       <c r="F53" s="18" t="s">
@@ -15308,16 +15303,16 @@
     </row>
     <row r="54" spans="1:1025" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A54" s="62" t="s">
-        <v>1100</v>
+        <v>1085</v>
       </c>
       <c r="B54" s="62" t="s">
-        <v>749</v>
+        <v>1286</v>
       </c>
       <c r="C54" s="62" t="s">
-        <v>1077</v>
+        <v>1062</v>
       </c>
       <c r="D54" s="62" t="s">
-        <v>1274</v>
+        <v>1258</v>
       </c>
       <c r="E54" s="31"/>
       <c r="F54" s="18" t="s">
@@ -15327,16 +15322,16 @@
     </row>
     <row r="55" spans="1:1025" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A55" s="62" t="s">
-        <v>1102</v>
+        <v>1087</v>
       </c>
       <c r="B55" s="62" t="s">
-        <v>978</v>
+        <v>1287</v>
       </c>
       <c r="C55" s="62" t="s">
-        <v>1078</v>
+        <v>1063</v>
       </c>
       <c r="D55" s="62" t="s">
-        <v>1101</v>
+        <v>1086</v>
       </c>
       <c r="E55" s="31"/>
       <c r="F55" s="18" t="s">
@@ -15346,16 +15341,16 @@
     </row>
     <row r="56" spans="1:1025" s="21" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A56" s="62" t="s">
-        <v>1179</v>
+        <v>1164</v>
       </c>
       <c r="B56" s="62" t="s">
-        <v>1180</v>
+        <v>1288</v>
       </c>
       <c r="C56" s="62" t="s">
-        <v>1181</v>
+        <v>1165</v>
       </c>
       <c r="D56" s="34" t="s">
-        <v>1182</v>
+        <v>1166</v>
       </c>
       <c r="E56" s="31"/>
       <c r="F56" s="31" t="s">
@@ -16395,7 +16390,9 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:IV50"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
@@ -16683,13 +16680,13 @@
     </row>
     <row r="2" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="27" t="s">
-        <v>760</v>
+        <v>753</v>
       </c>
       <c r="B2" s="27" t="s">
-        <v>761</v>
+        <v>1279</v>
       </c>
       <c r="C2" s="27" t="s">
-        <v>762</v>
+        <v>754</v>
       </c>
       <c r="D2" s="27" t="s">
         <v>239</v>
@@ -16702,16 +16699,16 @@
     </row>
     <row r="3" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="27" t="s">
-        <v>763</v>
+        <v>755</v>
       </c>
       <c r="B3" s="27" t="s">
-        <v>761</v>
+        <v>1279</v>
       </c>
       <c r="C3" s="27" t="s">
-        <v>764</v>
+        <v>756</v>
       </c>
       <c r="D3" s="27" t="s">
-        <v>1147</v>
+        <v>1132</v>
       </c>
       <c r="E3" s="18"/>
       <c r="F3" s="18" t="s">
@@ -16721,13 +16718,13 @@
     </row>
     <row r="4" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="27" t="s">
-        <v>765</v>
+        <v>757</v>
       </c>
       <c r="B4" s="27" t="s">
-        <v>761</v>
+        <v>1279</v>
       </c>
       <c r="C4" s="27" t="s">
-        <v>766</v>
+        <v>758</v>
       </c>
       <c r="D4" s="27" t="s">
         <v>243</v>
@@ -16740,13 +16737,13 @@
     </row>
     <row r="5" spans="1:256" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="27" t="s">
-        <v>767</v>
+        <v>759</v>
       </c>
       <c r="B5" s="27" t="s">
-        <v>761</v>
+        <v>1279</v>
       </c>
       <c r="C5" s="27" t="s">
-        <v>768</v>
+        <v>760</v>
       </c>
       <c r="D5" s="27" t="s">
         <v>246</v>
@@ -16759,16 +16756,16 @@
     </row>
     <row r="6" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="27" t="s">
-        <v>769</v>
+        <v>761</v>
       </c>
       <c r="B6" s="27" t="s">
-        <v>761</v>
+        <v>1279</v>
       </c>
       <c r="C6" s="27" t="s">
-        <v>770</v>
+        <v>762</v>
       </c>
       <c r="D6" s="27" t="s">
-        <v>771</v>
+        <v>763</v>
       </c>
       <c r="E6" s="18"/>
       <c r="F6" s="18" t="s">
@@ -16778,16 +16775,16 @@
     </row>
     <row r="7" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="27" t="s">
-        <v>772</v>
+        <v>764</v>
       </c>
       <c r="B7" s="27" t="s">
-        <v>761</v>
+        <v>1279</v>
       </c>
       <c r="C7" s="27" t="s">
-        <v>773</v>
+        <v>765</v>
       </c>
       <c r="D7" s="27" t="s">
-        <v>774</v>
+        <v>766</v>
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="18" t="s">
@@ -16797,16 +16794,16 @@
     </row>
     <row r="8" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="27" t="s">
-        <v>775</v>
+        <v>767</v>
       </c>
       <c r="B8" s="27" t="s">
-        <v>761</v>
+        <v>1279</v>
       </c>
       <c r="C8" s="27" t="s">
-        <v>776</v>
+        <v>768</v>
       </c>
       <c r="D8" s="27" t="s">
-        <v>777</v>
+        <v>769</v>
       </c>
       <c r="E8" s="18"/>
       <c r="F8" s="18" t="s">
@@ -16816,16 +16813,16 @@
     </row>
     <row r="9" spans="1:256" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="27" t="s">
-        <v>778</v>
+        <v>770</v>
       </c>
       <c r="B9" s="27" t="s">
-        <v>761</v>
+        <v>1279</v>
       </c>
       <c r="C9" s="27" t="s">
-        <v>779</v>
+        <v>771</v>
       </c>
       <c r="D9" s="27" t="s">
-        <v>780</v>
+        <v>772</v>
       </c>
       <c r="E9" s="18"/>
       <c r="F9" s="18" t="s">
@@ -16835,13 +16832,13 @@
     </row>
     <row r="10" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="27" t="s">
-        <v>781</v>
+        <v>773</v>
       </c>
       <c r="B10" s="27" t="s">
-        <v>761</v>
+        <v>1279</v>
       </c>
       <c r="C10" s="27" t="s">
-        <v>782</v>
+        <v>774</v>
       </c>
       <c r="D10" s="27" t="s">
         <v>314</v>
@@ -16854,13 +16851,13 @@
     </row>
     <row r="11" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="27" t="s">
-        <v>783</v>
+        <v>775</v>
       </c>
       <c r="B11" s="27" t="s">
-        <v>761</v>
+        <v>1279</v>
       </c>
       <c r="C11" s="27" t="s">
-        <v>784</v>
+        <v>776</v>
       </c>
       <c r="D11" s="27" t="s">
         <v>316</v>
@@ -16873,16 +16870,16 @@
     </row>
     <row r="12" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="27" t="s">
-        <v>785</v>
+        <v>777</v>
       </c>
       <c r="B12" s="27" t="s">
-        <v>761</v>
+        <v>1279</v>
       </c>
       <c r="C12" s="27" t="s">
-        <v>786</v>
+        <v>778</v>
       </c>
       <c r="D12" s="27" t="s">
-        <v>787</v>
+        <v>779</v>
       </c>
       <c r="E12" s="18"/>
       <c r="F12" s="18" t="s">
@@ -16892,13 +16889,13 @@
     </row>
     <row r="13" spans="1:256" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="27" t="s">
-        <v>788</v>
+        <v>780</v>
       </c>
       <c r="B13" s="27" t="s">
-        <v>761</v>
+        <v>1279</v>
       </c>
       <c r="C13" s="27" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
       <c r="D13" s="27" t="s">
         <v>320</v>
@@ -16911,13 +16908,13 @@
     </row>
     <row r="14" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="27" t="s">
-        <v>790</v>
+        <v>782</v>
       </c>
       <c r="B14" s="27" t="s">
-        <v>761</v>
+        <v>1279</v>
       </c>
       <c r="C14" s="27" t="s">
-        <v>791</v>
+        <v>783</v>
       </c>
       <c r="D14" s="27" t="s">
         <v>323</v>
@@ -16930,13 +16927,13 @@
     </row>
     <row r="15" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="27" t="s">
-        <v>792</v>
+        <v>784</v>
       </c>
       <c r="B15" s="27" t="s">
-        <v>761</v>
+        <v>1279</v>
       </c>
       <c r="C15" s="27" t="s">
-        <v>793</v>
+        <v>785</v>
       </c>
       <c r="D15" s="27" t="s">
         <v>325</v>
@@ -16949,16 +16946,16 @@
     </row>
     <row r="16" spans="1:256" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="26" t="s">
-        <v>985</v>
+        <v>974</v>
       </c>
       <c r="B16" s="27" t="s">
-        <v>761</v>
+        <v>1279</v>
       </c>
       <c r="C16" s="26" t="s">
-        <v>984</v>
+        <v>973</v>
       </c>
       <c r="D16" s="26" t="s">
-        <v>980</v>
+        <v>969</v>
       </c>
       <c r="E16" s="18"/>
       <c r="F16" s="18" t="s">
@@ -16968,16 +16965,16 @@
     </row>
     <row r="17" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="26" t="s">
-        <v>979</v>
+        <v>968</v>
       </c>
       <c r="B17" s="27" t="s">
-        <v>761</v>
+        <v>1279</v>
       </c>
       <c r="C17" s="26" t="s">
-        <v>982</v>
+        <v>971</v>
       </c>
       <c r="D17" s="26" t="s">
-        <v>983</v>
+        <v>972</v>
       </c>
       <c r="E17" s="18"/>
       <c r="F17" s="18" t="s">
@@ -16987,16 +16984,16 @@
     </row>
     <row r="18" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="27" t="s">
-        <v>794</v>
+        <v>786</v>
       </c>
       <c r="B18" s="27" t="s">
-        <v>761</v>
+        <v>1279</v>
       </c>
       <c r="C18" s="27" t="s">
-        <v>795</v>
+        <v>787</v>
       </c>
       <c r="D18" s="26" t="s">
-        <v>986</v>
+        <v>975</v>
       </c>
       <c r="E18" s="18"/>
       <c r="F18" s="18" t="s">
@@ -17006,13 +17003,13 @@
     </row>
     <row r="19" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="27" t="s">
-        <v>796</v>
+        <v>788</v>
       </c>
       <c r="B19" s="27" t="s">
-        <v>761</v>
+        <v>1279</v>
       </c>
       <c r="C19" s="27" t="s">
-        <v>797</v>
+        <v>789</v>
       </c>
       <c r="D19" s="27" t="s">
         <v>331</v>
@@ -17025,13 +17022,13 @@
     </row>
     <row r="20" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="27" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="B20" s="27" t="s">
-        <v>761</v>
+        <v>1279</v>
       </c>
       <c r="C20" s="27" t="s">
-        <v>799</v>
+        <v>791</v>
       </c>
       <c r="D20" s="27" t="s">
         <v>333</v>
@@ -17044,16 +17041,16 @@
     </row>
     <row r="21" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="27" t="s">
-        <v>800</v>
+        <v>792</v>
       </c>
       <c r="B21" s="27" t="s">
-        <v>761</v>
+        <v>1279</v>
       </c>
       <c r="C21" s="27" t="s">
-        <v>801</v>
+        <v>793</v>
       </c>
       <c r="D21" s="27" t="s">
-        <v>802</v>
+        <v>794</v>
       </c>
       <c r="E21" s="18"/>
       <c r="F21" s="18" t="s">
@@ -17063,13 +17060,13 @@
     </row>
     <row r="22" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="27" t="s">
-        <v>803</v>
+        <v>795</v>
       </c>
       <c r="B22" s="27" t="s">
-        <v>761</v>
+        <v>1279</v>
       </c>
       <c r="C22" s="27" t="s">
-        <v>804</v>
+        <v>796</v>
       </c>
       <c r="D22" s="27" t="s">
         <v>339</v>
@@ -17082,13 +17079,13 @@
     </row>
     <row r="23" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="27" t="s">
-        <v>805</v>
+        <v>797</v>
       </c>
       <c r="B23" s="27" t="s">
-        <v>761</v>
+        <v>1279</v>
       </c>
       <c r="C23" s="27" t="s">
-        <v>806</v>
+        <v>798</v>
       </c>
       <c r="D23" s="27" t="s">
         <v>341</v>
@@ -17101,13 +17098,13 @@
     </row>
     <row r="24" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="27" t="s">
-        <v>807</v>
+        <v>799</v>
       </c>
       <c r="B24" s="27" t="s">
-        <v>761</v>
+        <v>1279</v>
       </c>
       <c r="C24" s="27" t="s">
-        <v>808</v>
+        <v>800</v>
       </c>
       <c r="D24" s="27" t="s">
         <v>343</v>
@@ -17120,16 +17117,16 @@
     </row>
     <row r="25" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="27" t="s">
-        <v>809</v>
+        <v>801</v>
       </c>
       <c r="B25" s="27" t="s">
-        <v>761</v>
+        <v>1279</v>
       </c>
       <c r="C25" s="27" t="s">
-        <v>810</v>
+        <v>802</v>
       </c>
       <c r="D25" s="27" t="s">
-        <v>811</v>
+        <v>803</v>
       </c>
       <c r="E25" s="18"/>
       <c r="F25" s="18" t="s">
@@ -17139,13 +17136,13 @@
     </row>
     <row r="26" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="27" t="s">
-        <v>812</v>
+        <v>804</v>
       </c>
       <c r="B26" s="27" t="s">
-        <v>761</v>
+        <v>1279</v>
       </c>
       <c r="C26" s="27" t="s">
-        <v>813</v>
+        <v>805</v>
       </c>
       <c r="D26" s="27" t="s">
         <v>349</v>
@@ -17158,16 +17155,16 @@
     </row>
     <row r="27" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="27" t="s">
-        <v>814</v>
+        <v>806</v>
       </c>
       <c r="B27" s="27" t="s">
-        <v>761</v>
+        <v>1279</v>
       </c>
       <c r="C27" s="27" t="s">
-        <v>815</v>
+        <v>807</v>
       </c>
       <c r="D27" s="27" t="s">
-        <v>816</v>
+        <v>808</v>
       </c>
       <c r="E27" s="18"/>
       <c r="F27" s="18" t="s">
@@ -17177,13 +17174,13 @@
     </row>
     <row r="28" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="27" t="s">
-        <v>817</v>
+        <v>809</v>
       </c>
       <c r="B28" s="27" t="s">
-        <v>761</v>
+        <v>1279</v>
       </c>
       <c r="C28" s="27" t="s">
-        <v>818</v>
+        <v>810</v>
       </c>
       <c r="D28" s="27" t="s">
         <v>353</v>
@@ -17196,13 +17193,13 @@
     </row>
     <row r="29" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="27" t="s">
-        <v>819</v>
+        <v>811</v>
       </c>
       <c r="B29" s="27" t="s">
-        <v>761</v>
+        <v>1279</v>
       </c>
       <c r="C29" s="27" t="s">
-        <v>820</v>
+        <v>812</v>
       </c>
       <c r="D29" s="27" t="s">
         <v>355</v>
@@ -17215,13 +17212,13 @@
     </row>
     <row r="30" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="27" t="s">
-        <v>821</v>
+        <v>813</v>
       </c>
       <c r="B30" s="27" t="s">
-        <v>761</v>
+        <v>1279</v>
       </c>
       <c r="C30" s="27" t="s">
-        <v>822</v>
+        <v>814</v>
       </c>
       <c r="D30" s="27" t="s">
         <v>357</v>
@@ -17234,16 +17231,16 @@
     </row>
     <row r="31" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="27" t="s">
-        <v>823</v>
+        <v>815</v>
       </c>
       <c r="B31" s="27" t="s">
-        <v>761</v>
+        <v>1279</v>
       </c>
       <c r="C31" s="27" t="s">
-        <v>824</v>
+        <v>816</v>
       </c>
       <c r="D31" s="27" t="s">
-        <v>825</v>
+        <v>817</v>
       </c>
       <c r="E31" s="18"/>
       <c r="F31" s="18" t="s">
@@ -17253,16 +17250,16 @@
     </row>
     <row r="32" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="27" t="s">
-        <v>826</v>
+        <v>818</v>
       </c>
       <c r="B32" s="27" t="s">
-        <v>761</v>
+        <v>1279</v>
       </c>
       <c r="C32" s="27" t="s">
-        <v>827</v>
+        <v>819</v>
       </c>
       <c r="D32" s="27" t="s">
-        <v>828</v>
+        <v>820</v>
       </c>
       <c r="E32" s="18"/>
       <c r="F32" s="18" t="s">
@@ -17272,16 +17269,16 @@
     </row>
     <row r="33" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="27" t="s">
-        <v>829</v>
+        <v>821</v>
       </c>
       <c r="B33" s="27" t="s">
-        <v>761</v>
+        <v>1279</v>
       </c>
       <c r="C33" s="27" t="s">
-        <v>830</v>
+        <v>822</v>
       </c>
       <c r="D33" s="27" t="s">
-        <v>831</v>
+        <v>823</v>
       </c>
       <c r="E33" s="18"/>
       <c r="F33" s="18" t="s">
@@ -17291,16 +17288,16 @@
     </row>
     <row r="34" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="27" t="s">
-        <v>832</v>
+        <v>824</v>
       </c>
       <c r="B34" s="27" t="s">
-        <v>761</v>
+        <v>1279</v>
       </c>
       <c r="C34" s="27" t="s">
-        <v>833</v>
+        <v>825</v>
       </c>
       <c r="D34" s="27" t="s">
-        <v>834</v>
+        <v>826</v>
       </c>
       <c r="E34" s="18"/>
       <c r="F34" s="18" t="s">
@@ -17310,16 +17307,16 @@
     </row>
     <row r="35" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="27" t="s">
-        <v>835</v>
+        <v>827</v>
       </c>
       <c r="B35" s="27" t="s">
-        <v>761</v>
+        <v>1279</v>
       </c>
       <c r="C35" s="27" t="s">
-        <v>836</v>
+        <v>828</v>
       </c>
       <c r="D35" s="27" t="s">
-        <v>837</v>
+        <v>829</v>
       </c>
       <c r="E35" s="18"/>
       <c r="F35" s="18" t="s">
@@ -17329,16 +17326,16 @@
     </row>
     <row r="36" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="27" t="s">
-        <v>838</v>
+        <v>830</v>
       </c>
       <c r="B36" s="27" t="s">
-        <v>761</v>
+        <v>1279</v>
       </c>
       <c r="C36" s="27" t="s">
-        <v>839</v>
+        <v>831</v>
       </c>
       <c r="D36" s="27" t="s">
-        <v>840</v>
+        <v>832</v>
       </c>
       <c r="E36" s="18"/>
       <c r="F36" s="18" t="s">
@@ -17348,16 +17345,16 @@
     </row>
     <row r="37" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="27" t="s">
-        <v>841</v>
+        <v>833</v>
       </c>
       <c r="B37" s="27" t="s">
-        <v>761</v>
+        <v>1279</v>
       </c>
       <c r="C37" s="27" t="s">
-        <v>842</v>
+        <v>834</v>
       </c>
       <c r="D37" s="27" t="s">
-        <v>843</v>
+        <v>835</v>
       </c>
       <c r="E37" s="18"/>
       <c r="F37" s="18" t="s">
@@ -17367,16 +17364,16 @@
     </row>
     <row r="38" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="27" t="s">
-        <v>844</v>
+        <v>836</v>
       </c>
       <c r="B38" s="27" t="s">
-        <v>761</v>
+        <v>1279</v>
       </c>
       <c r="C38" s="27" t="s">
-        <v>845</v>
+        <v>837</v>
       </c>
       <c r="D38" s="27" t="s">
-        <v>846</v>
+        <v>838</v>
       </c>
       <c r="E38" s="18"/>
       <c r="F38" s="18" t="s">
@@ -17386,16 +17383,16 @@
     </row>
     <row r="39" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="27" t="s">
-        <v>847</v>
+        <v>839</v>
       </c>
       <c r="B39" s="27" t="s">
-        <v>761</v>
+        <v>1279</v>
       </c>
       <c r="C39" s="27" t="s">
-        <v>848</v>
+        <v>840</v>
       </c>
       <c r="D39" s="27" t="s">
-        <v>849</v>
+        <v>841</v>
       </c>
       <c r="E39" s="18"/>
       <c r="F39" s="18" t="s">
@@ -17405,35 +17402,35 @@
     </row>
     <row r="40" spans="1:7" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="27" t="s">
-        <v>850</v>
+        <v>842</v>
       </c>
       <c r="B40" s="27" t="s">
-        <v>761</v>
+        <v>1279</v>
       </c>
       <c r="C40" s="27" t="s">
-        <v>851</v>
+        <v>843</v>
       </c>
       <c r="D40" s="27" t="s">
-        <v>852</v>
+        <v>844</v>
       </c>
       <c r="E40" s="18" t="s">
-        <v>853</v>
+        <v>845</v>
       </c>
       <c r="F40" s="18"/>
       <c r="G40" s="18"/>
     </row>
     <row r="41" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="27" t="s">
-        <v>854</v>
+        <v>846</v>
       </c>
       <c r="B41" s="27" t="s">
-        <v>761</v>
+        <v>1279</v>
       </c>
       <c r="C41" s="27" t="s">
-        <v>855</v>
+        <v>847</v>
       </c>
       <c r="D41" s="27" t="s">
-        <v>856</v>
+        <v>848</v>
       </c>
       <c r="E41" s="18"/>
       <c r="F41" s="18"/>
@@ -17441,16 +17438,16 @@
     </row>
     <row r="42" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="27" t="s">
-        <v>857</v>
+        <v>849</v>
       </c>
       <c r="B42" s="27" t="s">
-        <v>761</v>
+        <v>1279</v>
       </c>
       <c r="C42" s="27" t="s">
-        <v>858</v>
+        <v>850</v>
       </c>
       <c r="D42" s="27" t="s">
-        <v>859</v>
+        <v>851</v>
       </c>
       <c r="E42" s="18"/>
       <c r="F42" s="18"/>
@@ -17458,73 +17455,73 @@
     </row>
     <row r="43" spans="1:7" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="27" t="s">
-        <v>860</v>
+        <v>852</v>
       </c>
       <c r="B43" s="27" t="s">
-        <v>761</v>
+        <v>1279</v>
       </c>
       <c r="C43" s="27" t="s">
-        <v>861</v>
+        <v>853</v>
       </c>
       <c r="D43" s="27" t="s">
-        <v>862</v>
+        <v>854</v>
       </c>
       <c r="E43" s="18" t="s">
-        <v>863</v>
+        <v>855</v>
       </c>
       <c r="F43" s="18"/>
       <c r="G43" s="18"/>
     </row>
     <row r="44" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="27" t="s">
-        <v>864</v>
+        <v>856</v>
       </c>
       <c r="B44" s="27" t="s">
-        <v>761</v>
+        <v>1279</v>
       </c>
       <c r="C44" s="27" t="s">
-        <v>865</v>
+        <v>857</v>
       </c>
       <c r="D44" s="27" t="s">
-        <v>866</v>
+        <v>858</v>
       </c>
       <c r="E44" s="19" t="s">
-        <v>1167</v>
+        <v>1152</v>
       </c>
       <c r="F44" s="18"/>
       <c r="G44" s="18"/>
     </row>
     <row r="45" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="27" t="s">
-        <v>867</v>
+        <v>859</v>
       </c>
       <c r="B45" s="27" t="s">
-        <v>761</v>
+        <v>1279</v>
       </c>
       <c r="C45" s="27" t="s">
-        <v>868</v>
+        <v>860</v>
       </c>
       <c r="D45" s="27" t="s">
-        <v>869</v>
+        <v>861</v>
       </c>
       <c r="E45" s="18" t="s">
-        <v>870</v>
+        <v>862</v>
       </c>
       <c r="F45" s="18"/>
       <c r="G45" s="18"/>
     </row>
     <row r="46" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="27" t="s">
-        <v>871</v>
+        <v>863</v>
       </c>
       <c r="B46" s="27" t="s">
-        <v>761</v>
+        <v>1279</v>
       </c>
       <c r="C46" s="27" t="s">
-        <v>872</v>
+        <v>864</v>
       </c>
       <c r="D46" s="27" t="s">
-        <v>873</v>
+        <v>865</v>
       </c>
       <c r="E46" s="18"/>
       <c r="F46" s="18"/>
@@ -17532,16 +17529,16 @@
     </row>
     <row r="47" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="27" t="s">
-        <v>874</v>
+        <v>866</v>
       </c>
       <c r="B47" s="27" t="s">
-        <v>761</v>
+        <v>1279</v>
       </c>
       <c r="C47" s="27" t="s">
-        <v>875</v>
+        <v>867</v>
       </c>
       <c r="D47" s="27" t="s">
-        <v>876</v>
+        <v>868</v>
       </c>
       <c r="E47" s="18"/>
       <c r="F47" s="18"/>
@@ -17549,16 +17546,16 @@
     </row>
     <row r="48" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="27" t="s">
-        <v>877</v>
+        <v>869</v>
       </c>
       <c r="B48" s="27" t="s">
-        <v>761</v>
+        <v>1279</v>
       </c>
       <c r="C48" s="27" t="s">
-        <v>878</v>
+        <v>870</v>
       </c>
       <c r="D48" s="27" t="s">
-        <v>879</v>
+        <v>871</v>
       </c>
       <c r="E48" s="18"/>
       <c r="F48" s="18"/>
@@ -17566,16 +17563,16 @@
     </row>
     <row r="49" spans="1:256" s="21" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A49" s="26" t="s">
-        <v>880</v>
+        <v>872</v>
       </c>
       <c r="B49" s="27" t="s">
-        <v>761</v>
+        <v>1279</v>
       </c>
       <c r="C49" s="30" t="s">
-        <v>881</v>
+        <v>873</v>
       </c>
       <c r="D49" s="30" t="s">
-        <v>981</v>
+        <v>970</v>
       </c>
       <c r="E49" s="18"/>
       <c r="F49" s="18"/>
@@ -17830,18 +17827,18 @@
       <c r="IU49" s="20"/>
       <c r="IV49" s="20"/>
     </row>
-    <row r="50" spans="1:256" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:256" s="29" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A50" s="26" t="s">
-        <v>1149</v>
+        <v>1134</v>
       </c>
       <c r="B50" s="27" t="s">
-        <v>761</v>
+        <v>1279</v>
       </c>
       <c r="C50" s="27" t="s">
-        <v>1150</v>
+        <v>1135</v>
       </c>
       <c r="D50" s="27" t="s">
-        <v>1148</v>
+        <v>1133</v>
       </c>
       <c r="E50" s="27"/>
       <c r="F50" s="27"/>
@@ -17861,7 +17858,9 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:IV30"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
@@ -18154,13 +18153,13 @@
         <v>374</v>
       </c>
       <c r="B2" s="34" t="s">
-        <v>1003</v>
+        <v>1278</v>
       </c>
       <c r="C2" s="34" t="s">
-        <v>882</v>
+        <v>874</v>
       </c>
       <c r="D2" s="34" t="s">
-        <v>883</v>
+        <v>875</v>
       </c>
       <c r="E2" s="18"/>
       <c r="F2" s="18" t="s">
@@ -18173,13 +18172,13 @@
         <v>377</v>
       </c>
       <c r="B3" s="34" t="s">
-        <v>1003</v>
+        <v>1278</v>
       </c>
       <c r="C3" s="34" t="s">
-        <v>884</v>
+        <v>876</v>
       </c>
       <c r="D3" s="34" t="s">
-        <v>885</v>
+        <v>877</v>
       </c>
       <c r="E3" s="18"/>
       <c r="F3" s="18" t="s">
@@ -18192,13 +18191,13 @@
         <v>380</v>
       </c>
       <c r="B4" s="34" t="s">
-        <v>1003</v>
+        <v>1278</v>
       </c>
       <c r="C4" s="34" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
       <c r="D4" s="34" t="s">
-        <v>887</v>
+        <v>879</v>
       </c>
       <c r="E4" s="18"/>
       <c r="F4" s="18" t="s">
@@ -18211,13 +18210,13 @@
         <v>394</v>
       </c>
       <c r="B5" s="34" t="s">
-        <v>1003</v>
+        <v>1278</v>
       </c>
       <c r="C5" s="34" t="s">
-        <v>888</v>
+        <v>880</v>
       </c>
       <c r="D5" s="34" t="s">
-        <v>889</v>
+        <v>881</v>
       </c>
       <c r="E5" s="18"/>
       <c r="F5" s="18" t="s">
@@ -18230,16 +18229,16 @@
         <v>383</v>
       </c>
       <c r="B6" s="34" t="s">
-        <v>1003</v>
+        <v>1278</v>
       </c>
       <c r="C6" s="34" t="s">
-        <v>890</v>
+        <v>882</v>
       </c>
       <c r="D6" s="34" t="s">
-        <v>891</v>
+        <v>883</v>
       </c>
       <c r="E6" s="34" t="s">
-        <v>1289</v>
+        <v>1273</v>
       </c>
       <c r="F6" s="18" t="s">
         <v>695</v>
@@ -18251,13 +18250,13 @@
         <v>386</v>
       </c>
       <c r="B7" s="34" t="s">
-        <v>1003</v>
+        <v>1278</v>
       </c>
       <c r="C7" s="34" t="s">
-        <v>892</v>
+        <v>884</v>
       </c>
       <c r="D7" s="34" t="s">
-        <v>893</v>
+        <v>885</v>
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="18" t="s">
@@ -18270,13 +18269,13 @@
         <v>389</v>
       </c>
       <c r="B8" s="34" t="s">
-        <v>1003</v>
+        <v>1278</v>
       </c>
       <c r="C8" s="34" t="s">
-        <v>894</v>
+        <v>886</v>
       </c>
       <c r="D8" s="34" t="s">
-        <v>895</v>
+        <v>887</v>
       </c>
       <c r="E8" s="18"/>
       <c r="F8" s="18" t="s">
@@ -18289,13 +18288,13 @@
         <v>392</v>
       </c>
       <c r="B9" s="34" t="s">
-        <v>1003</v>
+        <v>1278</v>
       </c>
       <c r="C9" s="34" t="s">
-        <v>896</v>
+        <v>888</v>
       </c>
       <c r="D9" s="34" t="s">
-        <v>897</v>
+        <v>889</v>
       </c>
       <c r="E9" s="18"/>
       <c r="F9" s="18" t="s">
@@ -18308,13 +18307,13 @@
         <v>397</v>
       </c>
       <c r="B10" s="34" t="s">
-        <v>1003</v>
+        <v>1278</v>
       </c>
       <c r="C10" s="34" t="s">
-        <v>898</v>
+        <v>890</v>
       </c>
       <c r="D10" s="34" t="s">
-        <v>899</v>
+        <v>891</v>
       </c>
       <c r="E10" s="18"/>
       <c r="F10" s="18" t="s">
@@ -18324,16 +18323,16 @@
     </row>
     <row r="11" spans="1:256" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A11" s="62" t="s">
-        <v>1249</v>
+        <v>1233</v>
       </c>
       <c r="B11" s="62" t="s">
-        <v>1030</v>
+        <v>1278</v>
       </c>
       <c r="C11" s="62" t="s">
-        <v>1260</v>
+        <v>1244</v>
       </c>
       <c r="D11" s="34" t="s">
-        <v>883</v>
+        <v>875</v>
       </c>
       <c r="E11" s="18"/>
       <c r="F11" s="18" t="s">
@@ -18343,16 +18342,16 @@
     </row>
     <row r="12" spans="1:256" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A12" s="34" t="s">
-        <v>900</v>
+        <v>892</v>
       </c>
       <c r="B12" s="34" t="s">
-        <v>1003</v>
+        <v>1278</v>
       </c>
       <c r="C12" s="34" t="s">
-        <v>901</v>
+        <v>893</v>
       </c>
       <c r="D12" s="34" t="s">
-        <v>1261</v>
+        <v>1245</v>
       </c>
       <c r="E12" s="18"/>
       <c r="F12" s="18" t="s">
@@ -18365,20 +18364,20 @@
         <v>400</v>
       </c>
       <c r="B13" s="34" t="s">
-        <v>1003</v>
+        <v>1278</v>
       </c>
       <c r="C13" s="34" t="s">
-        <v>902</v>
+        <v>894</v>
       </c>
       <c r="D13" s="34" t="s">
-        <v>903</v>
+        <v>895</v>
       </c>
       <c r="E13" s="18"/>
       <c r="F13" s="18" t="s">
         <v>695</v>
       </c>
       <c r="G13" s="18" t="s">
-        <v>906</v>
+        <v>898</v>
       </c>
     </row>
     <row r="14" spans="1:256" ht="93.6" x14ac:dyDescent="0.3">
@@ -18386,13 +18385,13 @@
         <v>402</v>
       </c>
       <c r="B14" s="34" t="s">
-        <v>1003</v>
+        <v>1278</v>
       </c>
       <c r="C14" s="34" t="s">
-        <v>904</v>
+        <v>896</v>
       </c>
       <c r="D14" s="34" t="s">
-        <v>905</v>
+        <v>897</v>
       </c>
       <c r="E14" s="18"/>
       <c r="F14" s="18" t="s">
@@ -18405,10 +18404,10 @@
         <v>405</v>
       </c>
       <c r="B15" s="34" t="s">
-        <v>1003</v>
+        <v>1278</v>
       </c>
       <c r="C15" s="34" t="s">
-        <v>907</v>
+        <v>899</v>
       </c>
       <c r="D15" s="34" t="s">
         <v>434</v>
@@ -18417,7 +18416,7 @@
         <v>695</v>
       </c>
       <c r="G15" s="18" t="s">
-        <v>1143</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="16" spans="1:256" ht="46.8" x14ac:dyDescent="0.3">
@@ -18425,16 +18424,16 @@
         <v>435</v>
       </c>
       <c r="B16" s="34" t="s">
-        <v>1003</v>
+        <v>1278</v>
       </c>
       <c r="C16" s="34" t="s">
-        <v>908</v>
+        <v>900</v>
       </c>
       <c r="D16" s="34" t="s">
-        <v>1262</v>
+        <v>1246</v>
       </c>
       <c r="E16" s="18" t="s">
-        <v>909</v>
+        <v>901</v>
       </c>
       <c r="F16" s="18" t="s">
         <v>695</v>
@@ -18446,22 +18445,22 @@
         <v>437</v>
       </c>
       <c r="B17" s="34" t="s">
-        <v>1003</v>
+        <v>1278</v>
       </c>
       <c r="C17" s="34" t="s">
-        <v>910</v>
+        <v>902</v>
       </c>
       <c r="D17" s="34" t="s">
-        <v>911</v>
+        <v>903</v>
       </c>
       <c r="E17" s="18" t="s">
-        <v>912</v>
+        <v>904</v>
       </c>
       <c r="F17" s="18" t="s">
         <v>695</v>
       </c>
       <c r="G17" s="18" t="s">
-        <v>913</v>
+        <v>905</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
@@ -18469,10 +18468,10 @@
         <v>463</v>
       </c>
       <c r="B18" s="34" t="s">
-        <v>1003</v>
+        <v>1278</v>
       </c>
       <c r="C18" s="34" t="s">
-        <v>914</v>
+        <v>906</v>
       </c>
       <c r="D18" s="34" t="s">
         <v>462</v>
@@ -18488,10 +18487,10 @@
         <v>466</v>
       </c>
       <c r="B19" s="34" t="s">
-        <v>1003</v>
+        <v>1278</v>
       </c>
       <c r="C19" s="34" t="s">
-        <v>915</v>
+        <v>907</v>
       </c>
       <c r="D19" s="34" t="s">
         <v>465</v>
@@ -18507,13 +18506,13 @@
         <v>469</v>
       </c>
       <c r="B20" s="34" t="s">
-        <v>1003</v>
+        <v>1278</v>
       </c>
       <c r="C20" s="34" t="s">
-        <v>916</v>
+        <v>908</v>
       </c>
       <c r="D20" s="34" t="s">
-        <v>917</v>
+        <v>909</v>
       </c>
       <c r="E20" s="18"/>
       <c r="F20" s="18" t="s">
@@ -18526,13 +18525,13 @@
         <v>472</v>
       </c>
       <c r="B21" s="34" t="s">
-        <v>1003</v>
+        <v>1278</v>
       </c>
       <c r="C21" s="34" t="s">
-        <v>918</v>
+        <v>910</v>
       </c>
       <c r="D21" s="34" t="s">
-        <v>919</v>
+        <v>911</v>
       </c>
       <c r="E21" s="18"/>
       <c r="F21" s="18" t="s">
@@ -18545,13 +18544,13 @@
         <v>476</v>
       </c>
       <c r="B22" s="34" t="s">
-        <v>1003</v>
+        <v>1278</v>
       </c>
       <c r="C22" s="34" t="s">
-        <v>920</v>
+        <v>912</v>
       </c>
       <c r="D22" s="34" t="s">
-        <v>921</v>
+        <v>913</v>
       </c>
       <c r="E22" s="18"/>
       <c r="F22" s="18" t="s">
@@ -18564,30 +18563,30 @@
         <v>423</v>
       </c>
       <c r="B23" s="34" t="s">
-        <v>1003</v>
+        <v>1278</v>
       </c>
       <c r="C23" s="34" t="s">
-        <v>922</v>
+        <v>914</v>
       </c>
       <c r="D23" s="34" t="s">
-        <v>1244</v>
+        <v>1228</v>
       </c>
       <c r="E23" s="18"/>
       <c r="F23" s="18"/>
       <c r="G23" s="18"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A24" s="62" t="s">
-        <v>1029</v>
+        <v>1015</v>
       </c>
       <c r="B24" s="62" t="s">
-        <v>1030</v>
+        <v>1278</v>
       </c>
       <c r="C24" s="62" t="s">
-        <v>1031</v>
+        <v>1016</v>
       </c>
       <c r="D24" s="62" t="s">
-        <v>1032</v>
+        <v>1017</v>
       </c>
       <c r="E24" s="31"/>
       <c r="F24" s="31"/>
@@ -18595,16 +18594,16 @@
     </row>
     <row r="25" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A25" s="62" t="s">
-        <v>1033</v>
+        <v>1018</v>
       </c>
       <c r="B25" s="62" t="s">
-        <v>1030</v>
+        <v>1278</v>
       </c>
       <c r="C25" s="62" t="s">
-        <v>1034</v>
+        <v>1019</v>
       </c>
       <c r="D25" s="62" t="s">
-        <v>1135</v>
+        <v>1120</v>
       </c>
       <c r="E25" s="31"/>
       <c r="F25" s="31"/>
@@ -18612,16 +18611,16 @@
     </row>
     <row r="26" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A26" s="62" t="s">
-        <v>1035</v>
+        <v>1020</v>
       </c>
       <c r="B26" s="62" t="s">
-        <v>1030</v>
+        <v>1278</v>
       </c>
       <c r="C26" s="62" t="s">
-        <v>1036</v>
+        <v>1021</v>
       </c>
       <c r="D26" s="62" t="s">
-        <v>1037</v>
+        <v>1022</v>
       </c>
       <c r="E26" s="31"/>
       <c r="F26" s="31"/>
@@ -18629,16 +18628,16 @@
     </row>
     <row r="27" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A27" s="62" t="s">
-        <v>1038</v>
+        <v>1023</v>
       </c>
       <c r="B27" s="62" t="s">
-        <v>1030</v>
+        <v>1278</v>
       </c>
       <c r="C27" s="62" t="s">
-        <v>1039</v>
+        <v>1024</v>
       </c>
       <c r="D27" s="62" t="s">
-        <v>1040</v>
+        <v>1025</v>
       </c>
       <c r="E27" s="31"/>
       <c r="F27" s="31"/>
@@ -18646,16 +18645,16 @@
     </row>
     <row r="28" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A28" s="62" t="s">
-        <v>1041</v>
+        <v>1026</v>
       </c>
       <c r="B28" s="62" t="s">
-        <v>1030</v>
+        <v>1278</v>
       </c>
       <c r="C28" s="62" t="s">
-        <v>1042</v>
+        <v>1027</v>
       </c>
       <c r="D28" s="62" t="s">
-        <v>1043</v>
+        <v>1028</v>
       </c>
       <c r="E28" s="31"/>
       <c r="F28" s="31"/>
@@ -18663,38 +18662,38 @@
     </row>
     <row r="29" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A29" s="62" t="s">
-        <v>1044</v>
+        <v>1029</v>
       </c>
       <c r="B29" s="62" t="s">
+        <v>1278</v>
+      </c>
+      <c r="C29" s="62" t="s">
         <v>1030</v>
       </c>
-      <c r="C29" s="62" t="s">
-        <v>1045</v>
-      </c>
       <c r="D29" s="62" t="s">
-        <v>1046</v>
+        <v>1031</v>
       </c>
       <c r="E29" s="31" t="s">
-        <v>1165</v>
+        <v>1150</v>
       </c>
       <c r="F29" s="31"/>
       <c r="G29" s="31"/>
     </row>
     <row r="30" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A30" s="62" t="s">
-        <v>1047</v>
+        <v>1032</v>
       </c>
       <c r="B30" s="62" t="s">
-        <v>1030</v>
+        <v>1278</v>
       </c>
       <c r="C30" s="62" t="s">
-        <v>1048</v>
+        <v>1033</v>
       </c>
       <c r="D30" s="62" t="s">
-        <v>1049</v>
+        <v>1034</v>
       </c>
       <c r="E30" s="31" t="s">
-        <v>1166</v>
+        <v>1151</v>
       </c>
       <c r="F30" s="31"/>
       <c r="G30" s="31"/>
@@ -18714,7 +18713,7 @@
   <dimension ref="A1:IV4"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -18753,18 +18752,18 @@
         <v>693</v>
       </c>
     </row>
-    <row r="2" spans="1:256" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:256" s="23" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
-        <v>923</v>
+        <v>915</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>924</v>
+        <v>1277</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>925</v>
+        <v>916</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>1129</v>
+        <v>1114</v>
       </c>
       <c r="E2" s="18"/>
       <c r="F2" s="16" t="s">
@@ -19021,18 +19020,18 @@
       <c r="IU2" s="22"/>
       <c r="IV2" s="22"/>
     </row>
-    <row r="3" spans="1:256" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:256" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>926</v>
+        <v>917</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>924</v>
+        <v>1277</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>927</v>
+        <v>918</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>1130</v>
+        <v>1115</v>
       </c>
       <c r="E3" s="19"/>
       <c r="F3" s="1" t="s">
@@ -19042,16 +19041,16 @@
     </row>
     <row r="4" spans="1:256" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>928</v>
+        <v>919</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>924</v>
+        <v>1277</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>929</v>
+        <v>920</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>1131</v>
+        <v>1116</v>
       </c>
       <c r="E4" s="18"/>
       <c r="F4" s="1" t="s">
@@ -19073,8 +19072,8 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:IV29"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="C27" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -19365,23 +19364,23 @@
     </row>
     <row r="2" spans="1:256" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="27" t="s">
-        <v>930</v>
+        <v>921</v>
       </c>
       <c r="B2" s="27" t="s">
-        <v>931</v>
+        <v>1276</v>
       </c>
       <c r="C2" s="27" t="s">
-        <v>932</v>
+        <v>922</v>
       </c>
       <c r="D2" s="27" t="s">
-        <v>933</v>
+        <v>923</v>
       </c>
       <c r="E2" s="18"/>
       <c r="F2" s="18" t="s">
         <v>695</v>
       </c>
       <c r="G2" s="18" t="s">
-        <v>934</v>
+        <v>924</v>
       </c>
     </row>
     <row r="3" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -19389,13 +19388,13 @@
         <v>566</v>
       </c>
       <c r="B3" s="27" t="s">
-        <v>931</v>
+        <v>1276</v>
       </c>
       <c r="C3" s="27" t="s">
-        <v>935</v>
+        <v>925</v>
       </c>
       <c r="D3" s="27" t="s">
-        <v>936</v>
+        <v>926</v>
       </c>
       <c r="E3" s="18"/>
       <c r="F3" s="18" t="s">
@@ -19408,13 +19407,13 @@
         <v>500</v>
       </c>
       <c r="B4" s="27" t="s">
-        <v>931</v>
+        <v>1276</v>
       </c>
       <c r="C4" s="27" t="s">
-        <v>937</v>
+        <v>927</v>
       </c>
       <c r="D4" s="27" t="s">
-        <v>938</v>
+        <v>928</v>
       </c>
       <c r="E4" s="18"/>
       <c r="F4" s="18" t="s">
@@ -19427,13 +19426,13 @@
         <v>503</v>
       </c>
       <c r="B5" s="27" t="s">
-        <v>931</v>
+        <v>1276</v>
       </c>
       <c r="C5" s="27" t="s">
-        <v>939</v>
+        <v>929</v>
       </c>
       <c r="D5" s="27" t="s">
-        <v>940</v>
+        <v>930</v>
       </c>
       <c r="E5" s="18"/>
       <c r="F5" s="18" t="s">
@@ -19446,13 +19445,13 @@
         <v>506</v>
       </c>
       <c r="B6" s="27" t="s">
+        <v>1276</v>
+      </c>
+      <c r="C6" s="27" t="s">
         <v>931</v>
       </c>
-      <c r="C6" s="27" t="s">
-        <v>941</v>
-      </c>
       <c r="D6" s="27" t="s">
-        <v>942</v>
+        <v>932</v>
       </c>
       <c r="E6" s="18"/>
       <c r="F6" s="18" t="s">
@@ -19465,16 +19464,16 @@
         <v>509</v>
       </c>
       <c r="B7" s="27" t="s">
-        <v>931</v>
+        <v>1276</v>
       </c>
       <c r="C7" s="27" t="s">
-        <v>943</v>
+        <v>933</v>
       </c>
       <c r="D7" s="27" t="s">
-        <v>1257</v>
+        <v>1241</v>
       </c>
       <c r="E7" s="26" t="s">
-        <v>1275</v>
+        <v>1259</v>
       </c>
       <c r="F7" s="18" t="s">
         <v>695</v>
@@ -19486,13 +19485,13 @@
         <v>514</v>
       </c>
       <c r="B8" s="27" t="s">
-        <v>931</v>
+        <v>1276</v>
       </c>
       <c r="C8" s="27" t="s">
-        <v>944</v>
+        <v>934</v>
       </c>
       <c r="D8" s="27" t="s">
-        <v>945</v>
+        <v>935</v>
       </c>
       <c r="E8" s="18"/>
       <c r="F8" s="18" t="s">
@@ -19505,13 +19504,13 @@
         <v>517</v>
       </c>
       <c r="B9" s="27" t="s">
-        <v>931</v>
+        <v>1276</v>
       </c>
       <c r="C9" s="27" t="s">
-        <v>946</v>
+        <v>936</v>
       </c>
       <c r="D9" s="27" t="s">
-        <v>947</v>
+        <v>937</v>
       </c>
       <c r="E9" s="18"/>
       <c r="F9" s="18" t="s">
@@ -19524,13 +19523,13 @@
         <v>519</v>
       </c>
       <c r="B10" s="27" t="s">
-        <v>931</v>
+        <v>1276</v>
       </c>
       <c r="C10" s="27" t="s">
-        <v>948</v>
+        <v>938</v>
       </c>
       <c r="D10" s="27" t="s">
-        <v>949</v>
+        <v>939</v>
       </c>
       <c r="E10" s="18"/>
       <c r="F10" s="18" t="s">
@@ -19543,13 +19542,13 @@
         <v>522</v>
       </c>
       <c r="B11" s="27" t="s">
-        <v>931</v>
+        <v>1276</v>
       </c>
       <c r="C11" s="27" t="s">
-        <v>950</v>
+        <v>940</v>
       </c>
       <c r="D11" s="27" t="s">
-        <v>951</v>
+        <v>941</v>
       </c>
       <c r="E11" s="18"/>
       <c r="F11" s="18" t="s">
@@ -19562,10 +19561,10 @@
         <v>524</v>
       </c>
       <c r="B12" s="27" t="s">
-        <v>931</v>
+        <v>1276</v>
       </c>
       <c r="C12" s="27" t="s">
-        <v>952</v>
+        <v>942</v>
       </c>
       <c r="D12" s="27" t="s">
         <v>571</v>
@@ -19581,22 +19580,22 @@
         <v>527</v>
       </c>
       <c r="B13" s="27" t="s">
-        <v>931</v>
+        <v>1276</v>
       </c>
       <c r="C13" s="27" t="s">
-        <v>953</v>
+        <v>943</v>
       </c>
       <c r="D13" s="27" t="s">
-        <v>954</v>
+        <v>944</v>
       </c>
       <c r="E13" s="19" t="s">
-        <v>1165</v>
+        <v>1150</v>
       </c>
       <c r="F13" s="18" t="s">
         <v>695</v>
       </c>
       <c r="G13" s="18" t="s">
-        <v>1277</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="14" spans="1:256" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -19604,20 +19603,20 @@
         <v>535</v>
       </c>
       <c r="B14" s="27" t="s">
-        <v>931</v>
+        <v>1276</v>
       </c>
       <c r="C14" s="27" t="s">
-        <v>955</v>
+        <v>945</v>
       </c>
       <c r="D14" s="27" t="s">
-        <v>956</v>
+        <v>946</v>
       </c>
       <c r="E14" s="18"/>
       <c r="F14" s="18" t="s">
         <v>695</v>
       </c>
       <c r="G14" s="18" t="s">
-        <v>957</v>
+        <v>947</v>
       </c>
     </row>
     <row r="15" spans="1:256" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -19625,13 +19624,13 @@
         <v>538</v>
       </c>
       <c r="B15" s="27" t="s">
-        <v>931</v>
+        <v>1276</v>
       </c>
       <c r="C15" s="27" t="s">
-        <v>958</v>
+        <v>948</v>
       </c>
       <c r="D15" s="27" t="s">
-        <v>959</v>
+        <v>949</v>
       </c>
       <c r="E15" s="18"/>
       <c r="F15" s="18" t="s">
@@ -19644,13 +19643,13 @@
         <v>569</v>
       </c>
       <c r="B16" s="27" t="s">
-        <v>931</v>
+        <v>1276</v>
       </c>
       <c r="C16" s="27" t="s">
-        <v>960</v>
+        <v>950</v>
       </c>
       <c r="D16" s="27" t="s">
-        <v>961</v>
+        <v>951</v>
       </c>
       <c r="E16" s="18"/>
       <c r="F16" s="18" t="s">
@@ -19660,16 +19659,16 @@
     </row>
     <row r="17" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="27" t="s">
-        <v>962</v>
+        <v>952</v>
       </c>
       <c r="B17" s="27" t="s">
-        <v>931</v>
+        <v>1276</v>
       </c>
       <c r="C17" s="27" t="s">
-        <v>963</v>
+        <v>953</v>
       </c>
       <c r="D17" s="27" t="s">
-        <v>964</v>
+        <v>954</v>
       </c>
       <c r="E17" s="18"/>
       <c r="F17" s="18" t="s">
@@ -19682,13 +19681,13 @@
         <v>601</v>
       </c>
       <c r="B18" s="27" t="s">
-        <v>931</v>
+        <v>1276</v>
       </c>
       <c r="C18" s="27" t="s">
-        <v>965</v>
+        <v>955</v>
       </c>
       <c r="D18" s="27" t="s">
-        <v>966</v>
+        <v>956</v>
       </c>
       <c r="E18" s="18"/>
       <c r="F18" s="18" t="s">
@@ -19698,25 +19697,25 @@
     </row>
     <row r="19" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="27" t="s">
-        <v>967</v>
+        <v>957</v>
       </c>
       <c r="B19" s="27" t="s">
-        <v>931</v>
+        <v>1276</v>
       </c>
       <c r="C19" s="27" t="s">
-        <v>968</v>
+        <v>958</v>
       </c>
       <c r="D19" s="27" t="s">
-        <v>1258</v>
+        <v>1242</v>
       </c>
       <c r="E19" s="24" t="s">
-        <v>1140</v>
+        <v>1125</v>
       </c>
       <c r="F19" s="18" t="s">
         <v>695</v>
       </c>
       <c r="G19" s="19" t="s">
-        <v>1001</v>
+        <v>990</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="140.4" x14ac:dyDescent="0.3">
@@ -19724,13 +19723,13 @@
         <v>635</v>
       </c>
       <c r="B20" s="27" t="s">
-        <v>931</v>
+        <v>1276</v>
       </c>
       <c r="C20" s="27" t="s">
-        <v>969</v>
+        <v>959</v>
       </c>
       <c r="D20" s="27" t="s">
-        <v>1259</v>
+        <v>1243</v>
       </c>
       <c r="E20"/>
       <c r="F20" s="18" t="s">
@@ -19743,56 +19742,56 @@
         <v>637</v>
       </c>
       <c r="B21" s="27" t="s">
-        <v>931</v>
+        <v>1276</v>
       </c>
       <c r="C21" s="27" t="s">
-        <v>970</v>
+        <v>960</v>
       </c>
       <c r="D21" s="27" t="s">
-        <v>971</v>
+        <v>961</v>
       </c>
       <c r="E21" s="19" t="s">
-        <v>1286</v>
+        <v>1270</v>
       </c>
       <c r="F21" s="18" t="s">
         <v>695</v>
       </c>
       <c r="G21" s="18" t="s">
-        <v>972</v>
+        <v>962</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="27" t="s">
-        <v>973</v>
+        <v>963</v>
       </c>
       <c r="B22" s="27" t="s">
-        <v>931</v>
+        <v>1276</v>
       </c>
       <c r="C22" s="27" t="s">
-        <v>974</v>
+        <v>964</v>
       </c>
       <c r="D22" s="27" t="s">
-        <v>975</v>
+        <v>965</v>
       </c>
       <c r="E22" s="24" t="s">
-        <v>1141</v>
+        <v>1126</v>
       </c>
       <c r="F22" s="18" t="s">
         <v>695</v>
       </c>
       <c r="G22" s="18" t="s">
-        <v>1144</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="171.6" x14ac:dyDescent="0.3">
       <c r="A23" s="27" t="s">
-        <v>992</v>
+        <v>981</v>
       </c>
       <c r="B23" s="27" t="s">
-        <v>931</v>
+        <v>1276</v>
       </c>
       <c r="C23" s="27" t="s">
-        <v>993</v>
+        <v>982</v>
       </c>
       <c r="D23" s="27" t="s">
         <v>549</v>
@@ -19805,13 +19804,13 @@
     </row>
     <row r="24" spans="1:7" ht="78" x14ac:dyDescent="0.3">
       <c r="A24" s="27" t="s">
-        <v>990</v>
+        <v>979</v>
       </c>
       <c r="B24" s="27" t="s">
-        <v>931</v>
+        <v>1276</v>
       </c>
       <c r="C24" s="27" t="s">
-        <v>994</v>
+        <v>983</v>
       </c>
       <c r="D24" s="27" t="s">
         <v>553</v>
@@ -19824,19 +19823,19 @@
     </row>
     <row r="25" spans="1:7" ht="124.8" x14ac:dyDescent="0.3">
       <c r="A25" s="27" t="s">
-        <v>987</v>
+        <v>976</v>
       </c>
       <c r="B25" s="27" t="s">
-        <v>931</v>
+        <v>1276</v>
       </c>
       <c r="C25" s="27" t="s">
-        <v>995</v>
+        <v>984</v>
       </c>
       <c r="D25" s="27" t="s">
         <v>544</v>
       </c>
       <c r="E25" s="18" t="s">
-        <v>1142</v>
+        <v>1127</v>
       </c>
       <c r="F25" s="18" t="s">
         <v>695</v>
@@ -19845,13 +19844,13 @@
     </row>
     <row r="26" spans="1:7" ht="171.6" x14ac:dyDescent="0.3">
       <c r="A26" s="27" t="s">
-        <v>988</v>
+        <v>977</v>
       </c>
       <c r="B26" s="27" t="s">
-        <v>931</v>
+        <v>1276</v>
       </c>
       <c r="C26" s="27" t="s">
-        <v>996</v>
+        <v>985</v>
       </c>
       <c r="D26" s="27" t="s">
         <v>555</v>
@@ -19864,13 +19863,13 @@
     </row>
     <row r="27" spans="1:7" ht="140.4" x14ac:dyDescent="0.3">
       <c r="A27" s="33" t="s">
-        <v>989</v>
+        <v>978</v>
       </c>
       <c r="B27" s="27" t="s">
-        <v>931</v>
+        <v>1276</v>
       </c>
       <c r="C27" s="26" t="s">
-        <v>998</v>
+        <v>987</v>
       </c>
       <c r="D27" s="27" t="s">
         <v>674</v>
@@ -19883,19 +19882,19 @@
     </row>
     <row r="28" spans="1:7" ht="374.4" x14ac:dyDescent="0.3">
       <c r="A28" s="27" t="s">
-        <v>1161</v>
+        <v>1146</v>
       </c>
       <c r="B28" s="27" t="s">
-        <v>931</v>
+        <v>1276</v>
       </c>
       <c r="C28" s="27" t="s">
-        <v>1162</v>
+        <v>1147</v>
       </c>
       <c r="D28" s="27" t="s">
         <v>531</v>
       </c>
       <c r="E28" s="27" t="s">
-        <v>1166</v>
+        <v>1151</v>
       </c>
       <c r="F28" s="18" t="s">
         <v>695</v>
@@ -19904,13 +19903,13 @@
     </row>
     <row r="29" spans="1:7" ht="171.6" x14ac:dyDescent="0.3">
       <c r="A29" s="27" t="s">
-        <v>1163</v>
+        <v>1148</v>
       </c>
       <c r="B29" s="27" t="s">
-        <v>931</v>
+        <v>1276</v>
       </c>
       <c r="C29" s="27" t="s">
-        <v>1164</v>
+        <v>1149</v>
       </c>
       <c r="D29" s="27" t="s">
         <v>532</v>
@@ -20222,66 +20221,66 @@
       <c r="IU1" s="11"/>
       <c r="IV1" s="11"/>
     </row>
-    <row r="2" spans="1:256" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:256" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>1008</v>
+        <v>995</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>1016</v>
+        <v>1290</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>1009</v>
+        <v>996</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>976</v>
+        <v>966</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4" t="s">
         <v>695</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>977</v>
-      </c>
-    </row>
-    <row r="3" spans="1:256" x14ac:dyDescent="0.3">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="3" spans="1:256" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>1012</v>
+        <v>999</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>1016</v>
+        <v>1290</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>1010</v>
+        <v>997</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>976</v>
+        <v>966</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>1011</v>
+        <v>998</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="G3" s="4"/>
     </row>
-    <row r="4" spans="1:256" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:256" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>1015</v>
+        <v>1002</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>1016</v>
+        <v>1290</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>1013</v>
+        <v>1000</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>976</v>
+        <v>966</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>1014</v>
+        <v>1001</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="G4" s="4"/>
     </row>

--- a/conformancelib/testdata/PIV_Production_Cards.xlsx
+++ b/conformancelib/testdata/PIV_Production_Cards.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\cygwin64\home\bf7450\git\piv-conformance-0.2.3-beta\conformancelib\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7961A9B7-88DA-4D0A-9BEE-EDEFE7D798D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1912679C-69E1-4058-A74A-9D495572C2FE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="852" windowWidth="20112" windowHeight="12948" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="120" yWindow="1152" windowWidth="22920" windowHeight="12948" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Steps Overview" sheetId="1" r:id="rId1"/>
@@ -10816,7 +10816,7 @@
       </c>
       <c r="E356" s="51"/>
       <c r="F356" s="43" t="s">
-        <v>206</v>
+        <v>124</v>
       </c>
     </row>
     <row r="357" spans="1:6" x14ac:dyDescent="0.3">
@@ -11396,7 +11396,7 @@
       </c>
       <c r="E390" s="51"/>
       <c r="F390" s="43" t="s">
-        <v>221</v>
+        <v>206</v>
       </c>
     </row>
     <row r="391" spans="1:6" ht="30" x14ac:dyDescent="0.3">
@@ -11750,7 +11750,7 @@
       </c>
       <c r="E411" s="51"/>
       <c r="F411" s="43" t="s">
-        <v>206</v>
+        <v>221</v>
       </c>
     </row>
     <row r="412" spans="1:6" x14ac:dyDescent="0.3">
@@ -12778,7 +12778,7 @@
       </c>
       <c r="E473" s="43"/>
       <c r="F473" s="43" t="s">
-        <v>236</v>
+        <v>51</v>
       </c>
     </row>
     <row r="474" spans="1:6" x14ac:dyDescent="0.3">

--- a/conformancelib/testdata/PIV_Production_Cards.xlsx
+++ b/conformancelib/testdata/PIV_Production_Cards.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\cygwin64\home\bf7450\git\piv-conformance-0.2.3-beta\conformancelib\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88090F67-D271-4D5A-B8E5-FD9F24452AB9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6BC24FE-899D-4670-8798-0A78081688C3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="384" windowWidth="19320" windowHeight="12948" tabRatio="524" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="336" windowWidth="22296" windowHeight="12960" tabRatio="524" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Steps Overview" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3107" uniqueCount="1307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3106" uniqueCount="1306">
   <si>
     <t>Document</t>
   </si>
@@ -3785,9 +3785,6 @@
   </si>
   <si>
     <t>PKIX_Test_24</t>
-  </si>
-  <si>
-    <t>2.5.29.31</t>
   </si>
   <si>
     <t>PKIX_Test_25</t>
@@ -5462,7 +5459,7 @@
         <v>109</v>
       </c>
       <c r="C40" s="36" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="D40" s="36" t="s">
         <v>111</v>
@@ -6273,7 +6270,7 @@
         <v>117</v>
       </c>
       <c r="B87" s="36" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="C87" s="36" t="s">
         <v>119</v>
@@ -7351,7 +7348,7 @@
       </c>
       <c r="E149" s="36"/>
       <c r="F149" s="36" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.3">
@@ -7369,7 +7366,7 @@
       </c>
       <c r="E150" s="36"/>
       <c r="F150" s="36" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.3">
@@ -7387,7 +7384,7 @@
       </c>
       <c r="E151" s="36"/>
       <c r="F151" s="36" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.3">
@@ -7451,7 +7448,7 @@
         <v>6</v>
       </c>
       <c r="B156" s="36" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="C156" s="35" t="s">
         <v>314</v>
@@ -7799,7 +7796,7 @@
         <v>6</v>
       </c>
       <c r="B176" s="36" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="C176" s="43" t="s">
         <v>359</v>
@@ -8129,7 +8126,7 @@
         <v>6</v>
       </c>
       <c r="B195" s="36" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="C195" s="35" t="s">
         <v>385</v>
@@ -8459,7 +8456,7 @@
         <v>6</v>
       </c>
       <c r="B214" s="36" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="C214" s="43" t="s">
         <v>412</v>
@@ -9330,7 +9327,7 @@
         <v>520</v>
       </c>
       <c r="C265" s="44" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="D265" s="36" t="s">
         <v>521</v>
@@ -9606,7 +9603,7 @@
         <v>560</v>
       </c>
       <c r="C281" s="44" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="D281" s="36" t="s">
         <v>521</v>
@@ -9954,7 +9951,7 @@
         <v>596</v>
       </c>
       <c r="C301" s="44" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="D301" s="36" t="s">
         <v>521</v>
@@ -10506,7 +10503,7 @@
         <v>648</v>
       </c>
       <c r="C333" s="36" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="D333" s="36" t="s">
         <v>521</v>
@@ -10879,7 +10876,7 @@
         <v>6</v>
       </c>
       <c r="B355" s="36" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="C355" s="38" t="s">
         <v>749</v>
@@ -10929,7 +10926,7 @@
         <v>6</v>
       </c>
       <c r="B358" s="36" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="C358" s="44" t="s">
         <v>681</v>
@@ -10947,7 +10944,7 @@
         <v>6</v>
       </c>
       <c r="B359" s="36" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="C359" s="36" t="s">
         <v>684</v>
@@ -11000,7 +10997,7 @@
         <v>690</v>
       </c>
       <c r="C362" s="44" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="D362" s="36" t="s">
         <v>692</v>
@@ -11036,7 +11033,7 @@
         <v>696</v>
       </c>
       <c r="C364" s="47" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="D364" s="47" t="s">
         <v>722</v>
@@ -11051,10 +11048,10 @@
         <v>6</v>
       </c>
       <c r="B365" s="48" t="s">
+        <v>1286</v>
+      </c>
+      <c r="C365" s="48" t="s">
         <v>1287</v>
-      </c>
-      <c r="C365" s="48" t="s">
-        <v>1288</v>
       </c>
       <c r="D365" s="48" t="s">
         <v>697</v>
@@ -11208,10 +11205,10 @@
         <v>720</v>
       </c>
       <c r="C374" s="50" t="s">
+        <v>1288</v>
+      </c>
+      <c r="D374" s="49" t="s">
         <v>1289</v>
-      </c>
-      <c r="D374" s="49" t="s">
-        <v>1290</v>
       </c>
       <c r="E374" s="49"/>
       <c r="F374" s="49" t="s">
@@ -11294,10 +11291,10 @@
         <v>732</v>
       </c>
       <c r="C379" s="47" t="s">
+        <v>1290</v>
+      </c>
+      <c r="D379" s="47" t="s">
         <v>1291</v>
-      </c>
-      <c r="D379" s="47" t="s">
-        <v>1292</v>
       </c>
       <c r="E379" s="47"/>
       <c r="F379" s="47" t="s">
@@ -11312,10 +11309,10 @@
         <v>733</v>
       </c>
       <c r="C380" s="48" t="s">
+        <v>1292</v>
+      </c>
+      <c r="D380" s="48" t="s">
         <v>1293</v>
-      </c>
-      <c r="D380" s="48" t="s">
-        <v>1294</v>
       </c>
       <c r="E380" s="48"/>
       <c r="F380" s="48" t="s">
@@ -11491,7 +11488,7 @@
         <v>6</v>
       </c>
       <c r="B391" s="36" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="C391" s="44" t="s">
         <v>788</v>
@@ -11598,10 +11595,10 @@
         <v>764</v>
       </c>
       <c r="C397" s="49" t="s">
+        <v>1288</v>
+      </c>
+      <c r="D397" s="49" t="s">
         <v>1289</v>
-      </c>
-      <c r="D397" s="49" t="s">
-        <v>1290</v>
       </c>
       <c r="E397" s="49"/>
       <c r="F397" s="49" t="s">
@@ -11684,10 +11681,10 @@
         <v>769</v>
       </c>
       <c r="C402" s="47" t="s">
+        <v>1290</v>
+      </c>
+      <c r="D402" s="47" t="s">
         <v>1291</v>
-      </c>
-      <c r="D402" s="47" t="s">
-        <v>1292</v>
       </c>
       <c r="E402" s="47"/>
       <c r="F402" s="47" t="s">
@@ -11702,10 +11699,10 @@
         <v>770</v>
       </c>
       <c r="C403" s="48" t="s">
+        <v>1292</v>
+      </c>
+      <c r="D403" s="48" t="s">
         <v>1293</v>
-      </c>
-      <c r="D403" s="48" t="s">
-        <v>1294</v>
       </c>
       <c r="E403" s="48"/>
       <c r="F403" s="48" t="s">
@@ -11863,7 +11860,7 @@
         <v>6</v>
       </c>
       <c r="B413" s="36" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="C413" s="44" t="s">
         <v>784</v>
@@ -11881,7 +11878,7 @@
         <v>6</v>
       </c>
       <c r="B414" s="36" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="C414" s="44" t="s">
         <v>786</v>
@@ -11899,7 +11896,7 @@
         <v>6</v>
       </c>
       <c r="B415" s="36" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="C415" s="44" t="s">
         <v>788</v>
@@ -11991,7 +11988,7 @@
         <v>721</v>
       </c>
       <c r="D420" s="49" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="E420" s="49"/>
       <c r="F420" s="49" t="s">
@@ -12074,10 +12071,10 @@
         <v>800</v>
       </c>
       <c r="C425" s="47" t="s">
+        <v>1290</v>
+      </c>
+      <c r="D425" s="47" t="s">
         <v>1291</v>
-      </c>
-      <c r="D425" s="47" t="s">
-        <v>1292</v>
       </c>
       <c r="E425" s="47"/>
       <c r="F425" s="47" t="s">
@@ -12092,10 +12089,10 @@
         <v>801</v>
       </c>
       <c r="C426" s="48" t="s">
+        <v>1292</v>
+      </c>
+      <c r="D426" s="48" t="s">
         <v>1293</v>
-      </c>
-      <c r="D426" s="48" t="s">
-        <v>1294</v>
       </c>
       <c r="E426" s="48"/>
       <c r="F426" s="48" t="s">
@@ -12428,10 +12425,10 @@
         <v>832</v>
       </c>
       <c r="C446" s="47" t="s">
+        <v>1290</v>
+      </c>
+      <c r="D446" s="47" t="s">
         <v>1291</v>
-      </c>
-      <c r="D446" s="47" t="s">
-        <v>1292</v>
       </c>
       <c r="E446" s="47"/>
       <c r="F446" s="47" t="s">
@@ -12446,10 +12443,10 @@
         <v>833</v>
       </c>
       <c r="C447" s="48" t="s">
+        <v>1292</v>
+      </c>
+      <c r="D447" s="48" t="s">
         <v>1293</v>
-      </c>
-      <c r="D447" s="48" t="s">
-        <v>1294</v>
       </c>
       <c r="E447" s="48"/>
       <c r="F447" s="48" t="s">
@@ -12600,10 +12597,10 @@
         <v>844</v>
       </c>
       <c r="C456" s="49" t="s">
+        <v>1288</v>
+      </c>
+      <c r="D456" s="49" t="s">
         <v>1289</v>
-      </c>
-      <c r="D456" s="49" t="s">
-        <v>1290</v>
       </c>
       <c r="E456" s="49"/>
       <c r="F456" s="49" t="s">
@@ -12909,7 +12906,7 @@
         <v>6</v>
       </c>
       <c r="B476" s="36" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="C476" s="44" t="s">
         <v>816</v>
@@ -13032,10 +13029,10 @@
         <v>883</v>
       </c>
       <c r="C483" s="49" t="s">
+        <v>1288</v>
+      </c>
+      <c r="D483" s="49" t="s">
         <v>1289</v>
-      </c>
-      <c r="D483" s="49" t="s">
-        <v>1290</v>
       </c>
       <c r="E483" s="49"/>
       <c r="F483" s="49" t="s">
@@ -13118,10 +13115,10 @@
         <v>888</v>
       </c>
       <c r="C488" s="47" t="s">
+        <v>1290</v>
+      </c>
+      <c r="D488" s="47" t="s">
         <v>1291</v>
-      </c>
-      <c r="D488" s="47" t="s">
-        <v>1292</v>
       </c>
       <c r="E488" s="47"/>
       <c r="F488" s="47" t="s">
@@ -13136,10 +13133,10 @@
         <v>889</v>
       </c>
       <c r="C489" s="48" t="s">
+        <v>1292</v>
+      </c>
+      <c r="D489" s="48" t="s">
         <v>1293</v>
-      </c>
-      <c r="D489" s="48" t="s">
-        <v>1294</v>
       </c>
       <c r="E489" s="48"/>
       <c r="F489" s="48" t="s">
@@ -17092,9 +17089,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:AMK32"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30:XFD32"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="155.4" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
@@ -17499,7 +17494,7 @@
         <v>901</v>
       </c>
       <c r="G7" s="52" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="8" spans="1:256" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -17513,7 +17508,7 @@
         <v>1213</v>
       </c>
       <c r="D8" s="51" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="E8" s="52"/>
       <c r="F8" s="51" t="s">
@@ -17551,7 +17546,7 @@
         <v>1215</v>
       </c>
       <c r="D10" s="58" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="E10" s="52"/>
       <c r="F10" s="51" t="s">
@@ -17617,7 +17612,7 @@
         <v>901</v>
       </c>
       <c r="G13" s="52" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="14" spans="1:256" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -17802,7 +17797,7 @@
         <v>901</v>
       </c>
       <c r="G22" s="52" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -17835,7 +17830,7 @@
         <v>1248</v>
       </c>
       <c r="D24" s="51" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="E24" s="52"/>
       <c r="F24" s="51" t="s">
@@ -17856,9 +17851,7 @@
       <c r="D25" s="51" t="s">
         <v>724</v>
       </c>
-      <c r="E25" s="52" t="s">
-        <v>1250</v>
-      </c>
+      <c r="E25" s="52"/>
       <c r="F25" s="51" t="s">
         <v>901</v>
       </c>
@@ -17872,7 +17865,7 @@
         <v>1198</v>
       </c>
       <c r="C26" s="51" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="D26" s="51" t="s">
         <v>735</v>
@@ -17891,7 +17884,7 @@
         <v>1198</v>
       </c>
       <c r="C27" s="52" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="D27" s="51" t="s">
         <v>872</v>
@@ -17910,7 +17903,7 @@
         <v>1198</v>
       </c>
       <c r="C28" s="51" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="D28" s="51" t="s">
         <v>710</v>
@@ -17922,7 +17915,7 @@
         <v>901</v>
       </c>
       <c r="G28" s="52" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -17933,10 +17926,10 @@
         <v>1198</v>
       </c>
       <c r="C29" s="51" t="s">
+        <v>1253</v>
+      </c>
+      <c r="D29" s="51" t="s">
         <v>1254</v>
-      </c>
-      <c r="D29" s="51" t="s">
-        <v>1255</v>
       </c>
       <c r="E29" s="52"/>
       <c r="F29" s="51" t="s">
@@ -17946,16 +17939,16 @@
     </row>
     <row r="30" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="58" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="B30" s="51" t="s">
         <v>1198</v>
       </c>
       <c r="C30" s="58" t="s">
+        <v>1296</v>
+      </c>
+      <c r="D30" s="58" t="s">
         <v>1297</v>
-      </c>
-      <c r="D30" s="58" t="s">
-        <v>1298</v>
       </c>
       <c r="E30" s="52"/>
       <c r="F30" s="51" t="s">
@@ -17965,16 +17958,16 @@
     </row>
     <row r="31" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="58" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="B31" s="51" t="s">
         <v>1198</v>
       </c>
       <c r="C31" s="58" t="s">
+        <v>1298</v>
+      </c>
+      <c r="D31" s="58" t="s">
         <v>1299</v>
-      </c>
-      <c r="D31" s="58" t="s">
-        <v>1300</v>
       </c>
       <c r="E31" s="52"/>
       <c r="F31" s="51" t="s">
@@ -17984,16 +17977,16 @@
     </row>
     <row r="32" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="58" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="B32" s="51" t="s">
         <v>1198</v>
       </c>
       <c r="C32" s="58" t="s">
+        <v>1300</v>
+      </c>
+      <c r="D32" s="58" t="s">
         <v>1301</v>
-      </c>
-      <c r="D32" s="58" t="s">
-        <v>1302</v>
       </c>
       <c r="E32" s="52"/>
       <c r="F32" s="51" t="s">
@@ -18305,37 +18298,37 @@
         <v>289</v>
       </c>
       <c r="B2" s="11" t="s">
+        <v>1255</v>
+      </c>
+      <c r="C2" s="11" t="s">
         <v>1256</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="D2" s="11" t="s">
         <v>1257</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>1258</v>
       </c>
       <c r="E2" s="8"/>
       <c r="F2" s="8" t="s">
         <v>901</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="3" spans="1:256" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
+        <v>1259</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>1255</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>1260</v>
       </c>
-      <c r="B3" s="11" t="s">
-        <v>1256</v>
-      </c>
-      <c r="C3" s="8" t="s">
+      <c r="D3" s="8" t="s">
+        <v>1257</v>
+      </c>
+      <c r="E3" s="8" t="s">
         <v>1261</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>1258</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>1262</v>
       </c>
       <c r="F3" s="8" t="s">
         <v>965</v>
@@ -18344,19 +18337,19 @@
     </row>
     <row r="4" spans="1:256" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
+        <v>1262</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>1255</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>1263</v>
       </c>
-      <c r="B4" s="11" t="s">
-        <v>1256</v>
-      </c>
-      <c r="C4" s="8" t="s">
+      <c r="D4" s="8" t="s">
+        <v>1257</v>
+      </c>
+      <c r="E4" s="8" t="s">
         <v>1264</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>1258</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>1265</v>
       </c>
       <c r="F4" s="8" t="s">
         <v>965</v>

--- a/conformancelib/testdata/PIV_Production_Cards.xlsx
+++ b/conformancelib/testdata/PIV_Production_Cards.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\cygwin64\home\bf7450\git\piv-conformance-0.2.3-beta\conformancelib\testdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\cygwin64\home\bf7450\git\piv-conformance\conformancelib\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14997149-DA75-4FD6-BA4D-B0D31FEF25B4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4BEE78E-FBC2-4F67-973A-538665B62C16}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1440" yWindow="732" windowWidth="16800" windowHeight="13416" tabRatio="524" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" tabRatio="524" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Steps Overview" sheetId="1" r:id="rId1"/>
@@ -2227,9 +2227,6 @@
     <t>11.1.2.10.5</t>
   </si>
   <si>
-    <t>File contains a CMS a certs-only CMS message (see RFC 3851).</t>
-  </si>
-  <si>
     <t>PKIX.25</t>
   </si>
   <si>
@@ -3971,6 +3968,9 @@
   </si>
   <si>
     <t>Verify that container tag order and value lengths comply with Appendix A SP 800-73-4</t>
+  </si>
+  <si>
+    <t>File has an extension of “.p7c” containing a certs-only CMS message (see RFC 3851)</t>
   </si>
 </sst>
 </file>
@@ -4775,8 +4775,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMK490"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A385" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C388" sqref="C388"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -5040,7 +5040,7 @@
         <v>44</v>
       </c>
       <c r="C15" s="36" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="D15" s="36" t="s">
         <v>129</v>
@@ -5158,7 +5158,7 @@
         <v>55</v>
       </c>
       <c r="C22" s="36" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="D22" s="36" t="s">
         <v>129</v>
@@ -5482,7 +5482,7 @@
         <v>109</v>
       </c>
       <c r="C40" s="36" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="D40" s="36" t="s">
         <v>111</v>
@@ -5646,7 +5646,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A50" s="36" t="s">
         <v>6</v>
       </c>
@@ -5654,7 +5654,7 @@
         <v>128</v>
       </c>
       <c r="C50" s="36" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="D50" s="36" t="s">
         <v>129</v>
@@ -5862,7 +5862,7 @@
         <v>151</v>
       </c>
       <c r="C62" s="36" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="D62" s="36" t="s">
         <v>129</v>
@@ -5998,7 +5998,7 @@
         <v>162</v>
       </c>
       <c r="C70" s="36" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="D70" s="36" t="s">
         <v>129</v>
@@ -6242,7 +6242,7 @@
         <v>192</v>
       </c>
       <c r="C84" s="36" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="D84" s="36" t="s">
         <v>129</v>
@@ -6293,7 +6293,7 @@
         <v>117</v>
       </c>
       <c r="B87" s="36" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="C87" s="36" t="s">
         <v>119</v>
@@ -6406,7 +6406,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A94" s="36" t="s">
         <v>6</v>
       </c>
@@ -6414,7 +6414,7 @@
         <v>208</v>
       </c>
       <c r="C94" s="36" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="D94" s="36" t="s">
         <v>129</v>
@@ -6614,7 +6614,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A106" s="36" t="s">
         <v>6</v>
       </c>
@@ -6622,7 +6622,7 @@
         <v>222</v>
       </c>
       <c r="C106" s="36" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="D106" s="36" t="s">
         <v>129</v>
@@ -6822,7 +6822,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A118" s="36" t="s">
         <v>6</v>
       </c>
@@ -6830,7 +6830,7 @@
         <v>236</v>
       </c>
       <c r="C118" s="36" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="D118" s="36" t="s">
         <v>129</v>
@@ -7038,7 +7038,7 @@
         <v>250</v>
       </c>
       <c r="C130" s="36" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="D130" s="36" t="s">
         <v>129</v>
@@ -7318,7 +7318,7 @@
         <v>288</v>
       </c>
       <c r="C146" s="36" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="D146" s="36" t="s">
         <v>129</v>
@@ -7371,7 +7371,7 @@
       </c>
       <c r="E149" s="36"/>
       <c r="F149" s="36" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.3">
@@ -7389,7 +7389,7 @@
       </c>
       <c r="E150" s="36"/>
       <c r="F150" s="36" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.3">
@@ -7407,7 +7407,7 @@
       </c>
       <c r="E151" s="36"/>
       <c r="F151" s="36" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.3">
@@ -7471,7 +7471,7 @@
         <v>6</v>
       </c>
       <c r="B156" s="36" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="C156" s="35" t="s">
         <v>309</v>
@@ -7819,7 +7819,7 @@
         <v>6</v>
       </c>
       <c r="B176" s="36" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="C176" s="43" t="s">
         <v>354</v>
@@ -8149,7 +8149,7 @@
         <v>6</v>
       </c>
       <c r="B195" s="36" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="C195" s="35" t="s">
         <v>380</v>
@@ -8479,7 +8479,7 @@
         <v>6</v>
       </c>
       <c r="B214" s="36" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="C214" s="43" t="s">
         <v>407</v>
@@ -9350,7 +9350,7 @@
         <v>515</v>
       </c>
       <c r="C265" s="44" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="D265" s="36" t="s">
         <v>516</v>
@@ -9626,7 +9626,7 @@
         <v>555</v>
       </c>
       <c r="C281" s="44" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="D281" s="36" t="s">
         <v>516</v>
@@ -9974,7 +9974,7 @@
         <v>591</v>
       </c>
       <c r="C301" s="44" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="D301" s="36" t="s">
         <v>516</v>
@@ -10526,7 +10526,7 @@
         <v>643</v>
       </c>
       <c r="C333" s="36" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="D333" s="36" t="s">
         <v>516</v>
@@ -10899,10 +10899,10 @@
         <v>6</v>
       </c>
       <c r="B355" s="36" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="C355" s="38" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="D355" s="38"/>
       <c r="E355" s="38"/>
@@ -10916,10 +10916,10 @@
         <v>672</v>
       </c>
       <c r="C356" s="36" t="s">
+        <v>745</v>
+      </c>
+      <c r="D356" s="36" t="s">
         <v>746</v>
-      </c>
-      <c r="D356" s="36" t="s">
-        <v>747</v>
       </c>
       <c r="E356" s="44"/>
       <c r="F356" s="36" t="s">
@@ -10949,7 +10949,7 @@
         <v>6</v>
       </c>
       <c r="B358" s="36" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="C358" s="44" t="s">
         <v>676</v>
@@ -10967,7 +10967,7 @@
         <v>6</v>
       </c>
       <c r="B359" s="36" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="C359" s="36" t="s">
         <v>679</v>
@@ -11020,7 +11020,7 @@
         <v>685</v>
       </c>
       <c r="C362" s="44" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="D362" s="36" t="s">
         <v>687</v>
@@ -11056,7 +11056,7 @@
         <v>691</v>
       </c>
       <c r="C364" s="47" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="D364" s="47" t="s">
         <v>717</v>
@@ -11071,10 +11071,10 @@
         <v>6</v>
       </c>
       <c r="B365" s="48" t="s">
+        <v>1279</v>
+      </c>
+      <c r="C365" s="48" t="s">
         <v>1280</v>
-      </c>
-      <c r="C365" s="48" t="s">
-        <v>1281</v>
       </c>
       <c r="D365" s="48" t="s">
         <v>692</v>
@@ -11228,10 +11228,10 @@
         <v>715</v>
       </c>
       <c r="C374" s="50" t="s">
+        <v>1281</v>
+      </c>
+      <c r="D374" s="49" t="s">
         <v>1282</v>
-      </c>
-      <c r="D374" s="49" t="s">
-        <v>1283</v>
       </c>
       <c r="E374" s="49"/>
       <c r="F374" s="49" t="s">
@@ -11314,10 +11314,10 @@
         <v>727</v>
       </c>
       <c r="C379" s="47" t="s">
+        <v>1283</v>
+      </c>
+      <c r="D379" s="47" t="s">
         <v>1284</v>
-      </c>
-      <c r="D379" s="47" t="s">
-        <v>1285</v>
       </c>
       <c r="E379" s="47"/>
       <c r="F379" s="47" t="s">
@@ -11332,10 +11332,10 @@
         <v>728</v>
       </c>
       <c r="C380" s="48" t="s">
+        <v>1285</v>
+      </c>
+      <c r="D380" s="48" t="s">
         <v>1286</v>
-      </c>
-      <c r="D380" s="48" t="s">
-        <v>1287</v>
       </c>
       <c r="E380" s="48"/>
       <c r="F380" s="48" t="s">
@@ -11350,10 +11350,10 @@
         <v>729</v>
       </c>
       <c r="C381" s="36" t="s">
+        <v>1311</v>
+      </c>
+      <c r="D381" s="36" t="s">
         <v>730</v>
-      </c>
-      <c r="D381" s="36" t="s">
-        <v>731</v>
       </c>
       <c r="E381" s="36"/>
       <c r="F381" s="36" t="s">
@@ -11365,10 +11365,10 @@
         <v>6</v>
       </c>
       <c r="B382" s="36" t="s">
+        <v>731</v>
+      </c>
+      <c r="C382" s="35" t="s">
         <v>732</v>
-      </c>
-      <c r="C382" s="35" t="s">
-        <v>733</v>
       </c>
       <c r="D382" s="38"/>
       <c r="E382" s="38"/>
@@ -11379,7 +11379,7 @@
         <v>6</v>
       </c>
       <c r="B383" s="36" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="C383" s="38" t="s">
         <v>663</v>
@@ -11393,13 +11393,13 @@
         <v>6</v>
       </c>
       <c r="B384" s="36" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="C384" s="44" t="s">
         <v>665</v>
       </c>
       <c r="D384" s="36" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="E384" s="44"/>
       <c r="F384" s="36" t="s">
@@ -11411,13 +11411,13 @@
         <v>6</v>
       </c>
       <c r="B385" s="36" t="s">
+        <v>736</v>
+      </c>
+      <c r="C385" s="44" t="s">
         <v>737</v>
       </c>
-      <c r="C385" s="44" t="s">
+      <c r="D385" s="36" t="s">
         <v>738</v>
-      </c>
-      <c r="D385" s="36" t="s">
-        <v>739</v>
       </c>
       <c r="E385" s="44"/>
       <c r="F385" s="36" t="s">
@@ -11429,10 +11429,10 @@
         <v>6</v>
       </c>
       <c r="B386" s="36" t="s">
+        <v>739</v>
+      </c>
+      <c r="C386" s="44" t="s">
         <v>740</v>
-      </c>
-      <c r="C386" s="44" t="s">
-        <v>741</v>
       </c>
       <c r="D386" s="36">
         <v>78.099999999999994</v>
@@ -11447,7 +11447,7 @@
         <v>6</v>
       </c>
       <c r="B387" s="36" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="C387" s="38" t="s">
         <v>671</v>
@@ -11461,10 +11461,10 @@
         <v>6</v>
       </c>
       <c r="B388" s="36" t="s">
+        <v>742</v>
+      </c>
+      <c r="C388" s="38" t="s">
         <v>743</v>
-      </c>
-      <c r="C388" s="38" t="s">
-        <v>744</v>
       </c>
       <c r="D388" s="38"/>
       <c r="E388" s="38"/>
@@ -11475,13 +11475,13 @@
         <v>6</v>
       </c>
       <c r="B389" s="36" t="s">
+        <v>744</v>
+      </c>
+      <c r="C389" s="36" t="s">
         <v>745</v>
       </c>
-      <c r="C389" s="36" t="s">
+      <c r="D389" s="36" t="s">
         <v>746</v>
-      </c>
-      <c r="D389" s="36" t="s">
-        <v>747</v>
       </c>
       <c r="E389" s="44"/>
       <c r="F389" s="36" t="s">
@@ -11493,10 +11493,10 @@
         <v>6</v>
       </c>
       <c r="B390" s="36" t="s">
+        <v>747</v>
+      </c>
+      <c r="C390" s="44" t="s">
         <v>748</v>
-      </c>
-      <c r="C390" s="44" t="s">
-        <v>749</v>
       </c>
       <c r="D390" s="36" t="s">
         <v>677</v>
@@ -11511,10 +11511,10 @@
         <v>6</v>
       </c>
       <c r="B391" s="36" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="C391" s="44" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="D391" s="36" t="s">
         <v>677</v>
@@ -11529,7 +11529,7 @@
         <v>6</v>
       </c>
       <c r="B392" s="36" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="C392" s="44" t="s">
         <v>697</v>
@@ -11547,10 +11547,10 @@
         <v>6</v>
       </c>
       <c r="B393" s="36" t="s">
+        <v>751</v>
+      </c>
+      <c r="C393" s="44" t="s">
         <v>752</v>
-      </c>
-      <c r="C393" s="44" t="s">
-        <v>753</v>
       </c>
       <c r="D393" s="36" t="s">
         <v>709</v>
@@ -11565,10 +11565,10 @@
         <v>6</v>
       </c>
       <c r="B394" s="36" t="s">
+        <v>753</v>
+      </c>
+      <c r="C394" s="44" t="s">
         <v>754</v>
-      </c>
-      <c r="C394" s="44" t="s">
-        <v>755</v>
       </c>
       <c r="D394" s="36" t="s">
         <v>712</v>
@@ -11583,10 +11583,10 @@
         <v>6</v>
       </c>
       <c r="B395" s="36" t="s">
+        <v>755</v>
+      </c>
+      <c r="C395" s="44" t="s">
         <v>756</v>
-      </c>
-      <c r="C395" s="44" t="s">
-        <v>757</v>
       </c>
       <c r="D395" s="36" t="s">
         <v>682</v>
@@ -11601,7 +11601,7 @@
         <v>6</v>
       </c>
       <c r="B396" s="36" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="C396" s="38" t="s">
         <v>714</v>
@@ -11615,13 +11615,13 @@
         <v>6</v>
       </c>
       <c r="B397" s="49" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="C397" s="49" t="s">
+        <v>1281</v>
+      </c>
+      <c r="D397" s="49" t="s">
         <v>1282</v>
-      </c>
-      <c r="D397" s="49" t="s">
-        <v>1283</v>
       </c>
       <c r="E397" s="49"/>
       <c r="F397" s="49" t="s">
@@ -11633,7 +11633,7 @@
         <v>6</v>
       </c>
       <c r="B398" s="36" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="C398" s="36" t="s">
         <v>719</v>
@@ -11651,7 +11651,7 @@
         <v>6</v>
       </c>
       <c r="B399" s="36" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="C399" s="38" t="s">
         <v>722</v>
@@ -11665,7 +11665,7 @@
         <v>6</v>
       </c>
       <c r="B400" s="36" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C400" s="44" t="s">
         <v>686</v>
@@ -11683,7 +11683,7 @@
         <v>6</v>
       </c>
       <c r="B401" s="46" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="C401" s="46" t="s">
         <v>725</v>
@@ -11701,13 +11701,13 @@
         <v>6</v>
       </c>
       <c r="B402" s="47" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="C402" s="47" t="s">
+        <v>1283</v>
+      </c>
+      <c r="D402" s="47" t="s">
         <v>1284</v>
-      </c>
-      <c r="D402" s="47" t="s">
-        <v>1285</v>
       </c>
       <c r="E402" s="47"/>
       <c r="F402" s="47" t="s">
@@ -11719,13 +11719,13 @@
         <v>6</v>
       </c>
       <c r="B403" s="48" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="C403" s="48" t="s">
+        <v>1285</v>
+      </c>
+      <c r="D403" s="48" t="s">
         <v>1286</v>
-      </c>
-      <c r="D403" s="48" t="s">
-        <v>1287</v>
       </c>
       <c r="E403" s="48"/>
       <c r="F403" s="48" t="s">
@@ -11737,13 +11737,13 @@
         <v>6</v>
       </c>
       <c r="B404" s="36" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="C404" s="36" t="s">
+        <v>1311</v>
+      </c>
+      <c r="D404" s="36" t="s">
         <v>730</v>
-      </c>
-      <c r="D404" s="36" t="s">
-        <v>731</v>
       </c>
       <c r="E404" s="36"/>
       <c r="F404" s="36" t="s">
@@ -11755,10 +11755,10 @@
         <v>6</v>
       </c>
       <c r="B405" s="36" t="s">
+        <v>766</v>
+      </c>
+      <c r="C405" s="35" t="s">
         <v>767</v>
-      </c>
-      <c r="C405" s="35" t="s">
-        <v>768</v>
       </c>
       <c r="D405" s="38"/>
       <c r="E405" s="38"/>
@@ -11769,7 +11769,7 @@
         <v>6</v>
       </c>
       <c r="B406" s="36" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="C406" s="38" t="s">
         <v>663</v>
@@ -11783,10 +11783,10 @@
         <v>6</v>
       </c>
       <c r="B407" s="36" t="s">
+        <v>769</v>
+      </c>
+      <c r="C407" s="44" t="s">
         <v>770</v>
-      </c>
-      <c r="C407" s="44" t="s">
-        <v>771</v>
       </c>
       <c r="D407" s="36">
         <v>78.3</v>
@@ -11801,13 +11801,13 @@
         <v>6</v>
       </c>
       <c r="B408" s="36" t="s">
+        <v>771</v>
+      </c>
+      <c r="C408" s="36" t="s">
         <v>772</v>
       </c>
-      <c r="C408" s="36" t="s">
-        <v>773</v>
-      </c>
       <c r="D408" s="36" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="E408" s="36"/>
       <c r="F408" s="36" t="s">
@@ -11819,10 +11819,10 @@
         <v>6</v>
       </c>
       <c r="B409" s="36" t="s">
+        <v>773</v>
+      </c>
+      <c r="C409" s="44" t="s">
         <v>774</v>
-      </c>
-      <c r="C409" s="44" t="s">
-        <v>775</v>
       </c>
       <c r="D409" s="36">
         <v>78.099999999999994</v>
@@ -11837,7 +11837,7 @@
         <v>6</v>
       </c>
       <c r="B410" s="36" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="C410" s="38" t="s">
         <v>671</v>
@@ -11851,10 +11851,10 @@
         <v>6</v>
       </c>
       <c r="B411" s="36" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="C411" s="38" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="D411" s="38"/>
       <c r="E411" s="38"/>
@@ -11865,13 +11865,13 @@
         <v>6</v>
       </c>
       <c r="B412" s="36" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="C412" s="36" t="s">
+        <v>745</v>
+      </c>
+      <c r="D412" s="36" t="s">
         <v>746</v>
-      </c>
-      <c r="D412" s="36" t="s">
-        <v>747</v>
       </c>
       <c r="E412" s="44"/>
       <c r="F412" s="36" t="s">
@@ -11883,10 +11883,10 @@
         <v>6</v>
       </c>
       <c r="B413" s="36" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="C413" s="44" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="D413" s="36" t="s">
         <v>677</v>
@@ -11901,10 +11901,10 @@
         <v>6</v>
       </c>
       <c r="B414" s="36" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="C414" s="44" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="D414" s="36" t="s">
         <v>677</v>
@@ -11919,10 +11919,10 @@
         <v>6</v>
       </c>
       <c r="B415" s="36" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="C415" s="44" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="D415" s="36" t="s">
         <v>677</v>
@@ -11937,10 +11937,10 @@
         <v>6</v>
       </c>
       <c r="B416" s="36" t="s">
+        <v>783</v>
+      </c>
+      <c r="C416" s="44" t="s">
         <v>784</v>
-      </c>
-      <c r="C416" s="44" t="s">
-        <v>785</v>
       </c>
       <c r="D416" s="36" t="s">
         <v>698</v>
@@ -11955,10 +11955,10 @@
         <v>6</v>
       </c>
       <c r="B417" s="36" t="s">
+        <v>785</v>
+      </c>
+      <c r="C417" s="44" t="s">
         <v>786</v>
-      </c>
-      <c r="C417" s="44" t="s">
-        <v>787</v>
       </c>
       <c r="D417" s="36" t="s">
         <v>712</v>
@@ -11973,10 +11973,10 @@
         <v>6</v>
       </c>
       <c r="B418" s="36" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="C418" s="44" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="D418" s="36" t="s">
         <v>682</v>
@@ -11991,7 +11991,7 @@
         <v>6</v>
       </c>
       <c r="B419" s="36" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="C419" s="38" t="s">
         <v>714</v>
@@ -12005,13 +12005,13 @@
         <v>6</v>
       </c>
       <c r="B420" s="49" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="C420" s="49" t="s">
         <v>716</v>
       </c>
       <c r="D420" s="49" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="E420" s="49"/>
       <c r="F420" s="49" t="s">
@@ -12023,7 +12023,7 @@
         <v>6</v>
       </c>
       <c r="B421" s="36" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="C421" s="36" t="s">
         <v>719</v>
@@ -12041,7 +12041,7 @@
         <v>6</v>
       </c>
       <c r="B422" s="36" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="C422" s="38" t="s">
         <v>722</v>
@@ -12055,7 +12055,7 @@
         <v>6</v>
       </c>
       <c r="B423" s="36" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="C423" s="44" t="s">
         <v>686</v>
@@ -12073,7 +12073,7 @@
         <v>6</v>
       </c>
       <c r="B424" s="46" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C424" s="46" t="s">
         <v>725</v>
@@ -12091,13 +12091,13 @@
         <v>6</v>
       </c>
       <c r="B425" s="47" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="C425" s="47" t="s">
+        <v>1283</v>
+      </c>
+      <c r="D425" s="47" t="s">
         <v>1284</v>
-      </c>
-      <c r="D425" s="47" t="s">
-        <v>1285</v>
       </c>
       <c r="E425" s="47"/>
       <c r="F425" s="47" t="s">
@@ -12109,13 +12109,13 @@
         <v>6</v>
       </c>
       <c r="B426" s="48" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="C426" s="48" t="s">
+        <v>1285</v>
+      </c>
+      <c r="D426" s="48" t="s">
         <v>1286</v>
-      </c>
-      <c r="D426" s="48" t="s">
-        <v>1287</v>
       </c>
       <c r="E426" s="48"/>
       <c r="F426" s="48" t="s">
@@ -12127,13 +12127,13 @@
         <v>6</v>
       </c>
       <c r="B427" s="36" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="C427" s="36" t="s">
+        <v>1311</v>
+      </c>
+      <c r="D427" s="36" t="s">
         <v>730</v>
-      </c>
-      <c r="D427" s="36" t="s">
-        <v>731</v>
       </c>
       <c r="E427" s="36"/>
       <c r="F427" s="36" t="s">
@@ -12145,10 +12145,10 @@
         <v>6</v>
       </c>
       <c r="B428" s="36" t="s">
+        <v>797</v>
+      </c>
+      <c r="C428" s="35" t="s">
         <v>798</v>
-      </c>
-      <c r="C428" s="35" t="s">
-        <v>799</v>
       </c>
       <c r="D428" s="38"/>
       <c r="E428" s="38"/>
@@ -12159,7 +12159,7 @@
         <v>6</v>
       </c>
       <c r="B429" s="36" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="C429" s="38" t="s">
         <v>663</v>
@@ -12173,10 +12173,10 @@
         <v>6</v>
       </c>
       <c r="B430" s="36" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="C430" s="44" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="D430" s="36">
         <v>78.3</v>
@@ -12191,10 +12191,10 @@
         <v>6</v>
       </c>
       <c r="B431" s="36" t="s">
+        <v>801</v>
+      </c>
+      <c r="C431" s="44" t="s">
         <v>802</v>
-      </c>
-      <c r="C431" s="44" t="s">
-        <v>803</v>
       </c>
       <c r="D431" s="36">
         <v>78.099999999999994</v>
@@ -12209,10 +12209,10 @@
         <v>6</v>
       </c>
       <c r="B432" s="36" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="C432" s="44" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="D432" s="36">
         <v>78.099999999999994</v>
@@ -12227,7 +12227,7 @@
         <v>6</v>
       </c>
       <c r="B433" s="36" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="C433" s="38" t="s">
         <v>671</v>
@@ -12241,10 +12241,10 @@
         <v>6</v>
       </c>
       <c r="B434" s="36" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="C434" s="38" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="D434" s="38"/>
       <c r="E434" s="38"/>
@@ -12255,13 +12255,13 @@
         <v>6</v>
       </c>
       <c r="B435" s="36" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="C435" s="36" t="s">
+        <v>745</v>
+      </c>
+      <c r="D435" s="36" t="s">
         <v>746</v>
-      </c>
-      <c r="D435" s="36" t="s">
-        <v>747</v>
       </c>
       <c r="E435" s="36"/>
       <c r="F435" s="36" t="s">
@@ -12273,10 +12273,10 @@
         <v>6</v>
       </c>
       <c r="B436" s="36" t="s">
+        <v>807</v>
+      </c>
+      <c r="C436" s="44" t="s">
         <v>808</v>
-      </c>
-      <c r="C436" s="44" t="s">
-        <v>809</v>
       </c>
       <c r="D436" s="36" t="s">
         <v>677</v>
@@ -12291,10 +12291,10 @@
         <v>6</v>
       </c>
       <c r="B437" s="36" t="s">
+        <v>809</v>
+      </c>
+      <c r="C437" s="44" t="s">
         <v>810</v>
-      </c>
-      <c r="C437" s="44" t="s">
-        <v>811</v>
       </c>
       <c r="D437" s="36" t="s">
         <v>677</v>
@@ -12309,10 +12309,10 @@
         <v>6</v>
       </c>
       <c r="B438" s="36" t="s">
+        <v>811</v>
+      </c>
+      <c r="C438" s="36" t="s">
         <v>812</v>
-      </c>
-      <c r="C438" s="36" t="s">
-        <v>813</v>
       </c>
       <c r="D438" s="36" t="s">
         <v>682</v>
@@ -12327,10 +12327,10 @@
         <v>6</v>
       </c>
       <c r="B439" s="36" t="s">
+        <v>813</v>
+      </c>
+      <c r="C439" s="38" t="s">
         <v>814</v>
-      </c>
-      <c r="C439" s="38" t="s">
-        <v>815</v>
       </c>
       <c r="D439" s="38"/>
       <c r="E439" s="38"/>
@@ -12341,13 +12341,13 @@
         <v>6</v>
       </c>
       <c r="B440" s="36" t="s">
+        <v>815</v>
+      </c>
+      <c r="C440" s="36" t="s">
         <v>816</v>
       </c>
-      <c r="C440" s="36" t="s">
+      <c r="D440" s="36" t="s">
         <v>817</v>
-      </c>
-      <c r="D440" s="36" t="s">
-        <v>818</v>
       </c>
       <c r="E440" s="36"/>
       <c r="F440" s="36" t="s">
@@ -12359,13 +12359,13 @@
         <v>6</v>
       </c>
       <c r="B441" s="36" t="s">
+        <v>818</v>
+      </c>
+      <c r="C441" s="36" t="s">
         <v>819</v>
       </c>
-      <c r="C441" s="36" t="s">
+      <c r="D441" s="36" t="s">
         <v>820</v>
-      </c>
-      <c r="D441" s="36" t="s">
-        <v>821</v>
       </c>
       <c r="E441" s="36"/>
       <c r="F441" s="36" t="s">
@@ -12377,13 +12377,13 @@
         <v>6</v>
       </c>
       <c r="B442" s="36" t="s">
+        <v>821</v>
+      </c>
+      <c r="C442" s="36" t="s">
         <v>822</v>
       </c>
-      <c r="C442" s="36" t="s">
-        <v>823</v>
-      </c>
       <c r="D442" s="36" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="E442" s="36"/>
       <c r="F442" s="36" t="s">
@@ -12395,7 +12395,7 @@
         <v>6</v>
       </c>
       <c r="B443" s="36" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="C443" s="38" t="s">
         <v>722</v>
@@ -12409,7 +12409,7 @@
         <v>6</v>
       </c>
       <c r="B444" s="36" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="C444" s="44" t="s">
         <v>686</v>
@@ -12427,7 +12427,7 @@
         <v>6</v>
       </c>
       <c r="B445" s="46" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="C445" s="46" t="s">
         <v>725</v>
@@ -12445,13 +12445,13 @@
         <v>6</v>
       </c>
       <c r="B446" s="47" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C446" s="47" t="s">
+        <v>1283</v>
+      </c>
+      <c r="D446" s="47" t="s">
         <v>1284</v>
-      </c>
-      <c r="D446" s="47" t="s">
-        <v>1285</v>
       </c>
       <c r="E446" s="47"/>
       <c r="F446" s="47" t="s">
@@ -12463,13 +12463,13 @@
         <v>6</v>
       </c>
       <c r="B447" s="48" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="C447" s="48" t="s">
+        <v>1285</v>
+      </c>
+      <c r="D447" s="48" t="s">
         <v>1286</v>
-      </c>
-      <c r="D447" s="48" t="s">
-        <v>1287</v>
       </c>
       <c r="E447" s="48"/>
       <c r="F447" s="48" t="s">
@@ -12481,7 +12481,7 @@
         <v>6</v>
       </c>
       <c r="B448" s="36" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="C448" s="44" t="s">
         <v>694</v>
@@ -12499,10 +12499,10 @@
         <v>6</v>
       </c>
       <c r="B449" s="36" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C449" s="44" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="D449" s="36" t="s">
         <v>698</v>
@@ -12517,7 +12517,7 @@
         <v>6</v>
       </c>
       <c r="B450" s="36" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="C450" s="38" t="s">
         <v>700</v>
@@ -12531,7 +12531,7 @@
         <v>6</v>
       </c>
       <c r="B451" s="36" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="C451" s="44" t="s">
         <v>702</v>
@@ -12549,7 +12549,7 @@
         <v>6</v>
       </c>
       <c r="B452" s="36" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C452" s="44" t="s">
         <v>705</v>
@@ -12567,13 +12567,13 @@
         <v>6</v>
       </c>
       <c r="B453" s="36" t="s">
+        <v>833</v>
+      </c>
+      <c r="C453" s="44" t="s">
         <v>834</v>
       </c>
-      <c r="C453" s="44" t="s">
+      <c r="D453" s="36" t="s">
         <v>835</v>
-      </c>
-      <c r="D453" s="36" t="s">
-        <v>836</v>
       </c>
       <c r="E453" s="44"/>
       <c r="F453" s="36" t="s">
@@ -12585,10 +12585,10 @@
         <v>6</v>
       </c>
       <c r="B454" s="36" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="C454" s="44" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="D454" s="36" t="s">
         <v>712</v>
@@ -12603,7 +12603,7 @@
         <v>6</v>
       </c>
       <c r="B455" s="36" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="C455" s="38" t="s">
         <v>714</v>
@@ -12617,13 +12617,13 @@
         <v>6</v>
       </c>
       <c r="B456" s="49" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="C456" s="49" t="s">
+        <v>1281</v>
+      </c>
+      <c r="D456" s="49" t="s">
         <v>1282</v>
-      </c>
-      <c r="D456" s="49" t="s">
-        <v>1283</v>
       </c>
       <c r="E456" s="49"/>
       <c r="F456" s="49" t="s">
@@ -12635,7 +12635,7 @@
         <v>6</v>
       </c>
       <c r="B457" s="36" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="C457" s="36" t="s">
         <v>719</v>
@@ -12653,10 +12653,10 @@
         <v>6</v>
       </c>
       <c r="B458" s="36" t="s">
+        <v>840</v>
+      </c>
+      <c r="C458" s="38" t="s">
         <v>841</v>
-      </c>
-      <c r="C458" s="38" t="s">
-        <v>842</v>
       </c>
       <c r="D458" s="38"/>
       <c r="E458" s="38"/>
@@ -12667,13 +12667,13 @@
         <v>6</v>
       </c>
       <c r="B459" s="36" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="C459" s="36" t="s">
+        <v>1311</v>
+      </c>
+      <c r="D459" s="36" t="s">
         <v>730</v>
-      </c>
-      <c r="D459" s="36" t="s">
-        <v>731</v>
       </c>
       <c r="E459" s="36"/>
       <c r="F459" s="36" t="s">
@@ -12685,10 +12685,10 @@
         <v>6</v>
       </c>
       <c r="B460" s="36" t="s">
+        <v>843</v>
+      </c>
+      <c r="C460" s="35" t="s">
         <v>844</v>
-      </c>
-      <c r="C460" s="35" t="s">
-        <v>845</v>
       </c>
       <c r="D460" s="38"/>
       <c r="E460" s="35"/>
@@ -12699,10 +12699,10 @@
         <v>6</v>
       </c>
       <c r="B461" s="36" t="s">
+        <v>845</v>
+      </c>
+      <c r="C461" s="44" t="s">
         <v>846</v>
-      </c>
-      <c r="C461" s="44" t="s">
-        <v>847</v>
       </c>
       <c r="D461" s="36"/>
       <c r="E461" s="44"/>
@@ -12713,7 +12713,7 @@
         <v>6</v>
       </c>
       <c r="B462" s="36" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="C462" s="44" t="s">
         <v>663</v>
@@ -12727,7 +12727,7 @@
         <v>6</v>
       </c>
       <c r="B463" s="36" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="C463" s="44" t="s">
         <v>671</v>
@@ -12741,10 +12741,10 @@
         <v>6</v>
       </c>
       <c r="B464" s="36" t="s">
+        <v>849</v>
+      </c>
+      <c r="C464" s="35" t="s">
         <v>850</v>
-      </c>
-      <c r="C464" s="35" t="s">
-        <v>851</v>
       </c>
       <c r="D464" s="38"/>
       <c r="E464" s="35"/>
@@ -12755,10 +12755,10 @@
         <v>6</v>
       </c>
       <c r="B465" s="36" t="s">
+        <v>851</v>
+      </c>
+      <c r="C465" s="44" t="s">
         <v>852</v>
-      </c>
-      <c r="C465" s="44" t="s">
-        <v>853</v>
       </c>
       <c r="D465" s="36"/>
       <c r="E465" s="44"/>
@@ -12769,7 +12769,7 @@
         <v>6</v>
       </c>
       <c r="B466" s="36" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="C466" s="44" t="s">
         <v>663</v>
@@ -12783,10 +12783,10 @@
         <v>6</v>
       </c>
       <c r="B467" s="36" t="s">
+        <v>854</v>
+      </c>
+      <c r="C467" s="35" t="s">
         <v>855</v>
-      </c>
-      <c r="C467" s="35" t="s">
-        <v>856</v>
       </c>
       <c r="D467" s="38"/>
       <c r="E467" s="35"/>
@@ -12797,7 +12797,7 @@
         <v>6</v>
       </c>
       <c r="B468" s="36" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="C468" s="38" t="s">
         <v>663</v>
@@ -12811,10 +12811,10 @@
         <v>6</v>
       </c>
       <c r="B469" s="36" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="C469" s="44" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="D469" s="36">
         <v>78.3</v>
@@ -12829,10 +12829,10 @@
         <v>6</v>
       </c>
       <c r="B470" s="36" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="C470" s="44" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D470" s="36">
         <v>78.099999999999994</v>
@@ -12847,10 +12847,10 @@
         <v>6</v>
       </c>
       <c r="B471" s="36" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="C471" s="44" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="D471" s="36">
         <v>78.099999999999994</v>
@@ -12865,7 +12865,7 @@
         <v>6</v>
       </c>
       <c r="B472" s="36" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="C472" s="38" t="s">
         <v>671</v>
@@ -12879,10 +12879,10 @@
         <v>6</v>
       </c>
       <c r="B473" s="36" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="C473" s="38" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="D473" s="38"/>
       <c r="E473" s="38"/>
@@ -12893,13 +12893,13 @@
         <v>6</v>
       </c>
       <c r="B474" s="36" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="C474" s="36" t="s">
+        <v>745</v>
+      </c>
+      <c r="D474" s="36" t="s">
         <v>746</v>
-      </c>
-      <c r="D474" s="36" t="s">
-        <v>747</v>
       </c>
       <c r="E474" s="36"/>
       <c r="F474" s="36" t="s">
@@ -12911,10 +12911,10 @@
         <v>6</v>
       </c>
       <c r="B475" s="36" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="C475" s="44" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="D475" s="36" t="s">
         <v>677</v>
@@ -12929,10 +12929,10 @@
         <v>6</v>
       </c>
       <c r="B476" s="36" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="C476" s="44" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="D476" s="36" t="s">
         <v>677</v>
@@ -12947,13 +12947,13 @@
         <v>6</v>
       </c>
       <c r="B477" s="36" t="s">
+        <v>865</v>
+      </c>
+      <c r="C477" s="36" t="s">
         <v>866</v>
       </c>
-      <c r="C477" s="36" t="s">
+      <c r="D477" s="36" t="s">
         <v>867</v>
-      </c>
-      <c r="D477" s="36" t="s">
-        <v>868</v>
       </c>
       <c r="E477" s="36"/>
       <c r="F477" s="36" t="s">
@@ -12965,10 +12965,10 @@
         <v>6</v>
       </c>
       <c r="B478" s="36" t="s">
+        <v>868</v>
+      </c>
+      <c r="C478" s="36" t="s">
         <v>869</v>
-      </c>
-      <c r="C478" s="36" t="s">
-        <v>870</v>
       </c>
       <c r="D478" s="36" t="s">
         <v>712</v>
@@ -12983,10 +12983,10 @@
         <v>6</v>
       </c>
       <c r="B479" s="36" t="s">
+        <v>870</v>
+      </c>
+      <c r="C479" s="36" t="s">
         <v>871</v>
-      </c>
-      <c r="C479" s="36" t="s">
-        <v>872</v>
       </c>
       <c r="D479" s="36"/>
       <c r="E479" s="36"/>
@@ -12999,10 +12999,10 @@
         <v>6</v>
       </c>
       <c r="B480" s="36" t="s">
+        <v>872</v>
+      </c>
+      <c r="C480" s="36" t="s">
         <v>873</v>
-      </c>
-      <c r="C480" s="36" t="s">
-        <v>874</v>
       </c>
       <c r="D480" s="36" t="s">
         <v>682</v>
@@ -13017,13 +13017,13 @@
         <v>6</v>
       </c>
       <c r="B481" s="36" t="s">
+        <v>874</v>
+      </c>
+      <c r="C481" s="36" t="s">
         <v>875</v>
       </c>
-      <c r="C481" s="36" t="s">
-        <v>876</v>
-      </c>
       <c r="D481" s="36" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="E481" s="36"/>
       <c r="F481" s="36" t="s">
@@ -13035,7 +13035,7 @@
         <v>6</v>
       </c>
       <c r="B482" s="36" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="C482" s="38" t="s">
         <v>714</v>
@@ -13049,13 +13049,13 @@
         <v>6</v>
       </c>
       <c r="B483" s="49" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="C483" s="49" t="s">
+        <v>1281</v>
+      </c>
+      <c r="D483" s="49" t="s">
         <v>1282</v>
-      </c>
-      <c r="D483" s="49" t="s">
-        <v>1283</v>
       </c>
       <c r="E483" s="49"/>
       <c r="F483" s="49" t="s">
@@ -13067,7 +13067,7 @@
         <v>6</v>
       </c>
       <c r="B484" s="36" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="C484" s="36" t="s">
         <v>719</v>
@@ -13085,7 +13085,7 @@
         <v>6</v>
       </c>
       <c r="B485" s="36" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="C485" s="38" t="s">
         <v>722</v>
@@ -13099,7 +13099,7 @@
         <v>6</v>
       </c>
       <c r="B486" s="36" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="C486" s="44" t="s">
         <v>686</v>
@@ -13117,7 +13117,7 @@
         <v>6</v>
       </c>
       <c r="B487" s="46" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="C487" s="46" t="s">
         <v>725</v>
@@ -13135,13 +13135,13 @@
         <v>6</v>
       </c>
       <c r="B488" s="47" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="C488" s="47" t="s">
+        <v>1283</v>
+      </c>
+      <c r="D488" s="47" t="s">
         <v>1284</v>
-      </c>
-      <c r="D488" s="47" t="s">
-        <v>1285</v>
       </c>
       <c r="E488" s="47"/>
       <c r="F488" s="47" t="s">
@@ -13153,13 +13153,13 @@
         <v>6</v>
       </c>
       <c r="B489" s="48" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="C489" s="48" t="s">
+        <v>1285</v>
+      </c>
+      <c r="D489" s="48" t="s">
         <v>1286</v>
-      </c>
-      <c r="D489" s="48" t="s">
-        <v>1287</v>
       </c>
       <c r="E489" s="48"/>
       <c r="F489" s="48" t="s">
@@ -13171,13 +13171,13 @@
         <v>6</v>
       </c>
       <c r="B490" s="36" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="C490" s="36" t="s">
+        <v>1311</v>
+      </c>
+      <c r="D490" s="36" t="s">
         <v>730</v>
-      </c>
-      <c r="D490" s="36" t="s">
-        <v>731</v>
       </c>
       <c r="E490" s="36"/>
       <c r="F490" s="36" t="s">
@@ -13208,25 +13208,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
+        <v>885</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>886</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="C1" s="9" t="s">
         <v>887</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="D1" s="9" t="s">
         <v>888</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="E1" s="9" t="s">
         <v>889</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="F1" s="9" t="s">
         <v>890</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="G1" s="9" t="s">
         <v>891</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>892</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
@@ -13234,17 +13234,17 @@
         <v>15</v>
       </c>
       <c r="B2" s="11" t="s">
+        <v>892</v>
+      </c>
+      <c r="C2" s="10" t="s">
         <v>893</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="D2" s="9" t="s">
         <v>894</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>895</v>
       </c>
       <c r="E2" s="9"/>
       <c r="F2" s="10" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="G2" s="10"/>
     </row>
@@ -13253,17 +13253,17 @@
         <v>19</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>18</v>
       </c>
       <c r="E3" s="9"/>
       <c r="F3" s="10" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="G3" s="10"/>
     </row>
@@ -13272,17 +13272,17 @@
         <v>22</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>21</v>
       </c>
       <c r="E4" s="9"/>
       <c r="F4" s="10" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="G4" s="10"/>
     </row>
@@ -13291,36 +13291,36 @@
         <v>25</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>24</v>
       </c>
       <c r="E5" s="9"/>
       <c r="F5" s="10" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="G5" s="10"/>
     </row>
     <row r="6" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
+        <v>900</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>892</v>
+      </c>
+      <c r="C6" s="10" t="s">
         <v>901</v>
       </c>
-      <c r="B6" s="11" t="s">
-        <v>893</v>
-      </c>
-      <c r="C6" s="10" t="s">
+      <c r="D6" s="9" t="s">
         <v>902</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>903</v>
       </c>
       <c r="E6" s="9"/>
       <c r="F6" s="10" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="G6" s="10"/>
     </row>
@@ -13337,7 +13337,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AMK56"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A40" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A40" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
@@ -13355,25 +13355,25 @@
   <sheetData>
     <row r="1" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
+        <v>885</v>
+      </c>
+      <c r="B1" s="14" t="s">
         <v>886</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="C1" s="14" t="s">
         <v>887</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="D1" s="14" t="s">
         <v>888</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="E1" s="15" t="s">
         <v>889</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="F1" s="15" t="s">
         <v>890</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="G1" s="15" t="s">
         <v>891</v>
-      </c>
-      <c r="G1" s="15" t="s">
-        <v>892</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
@@ -13381,17 +13381,17 @@
         <v>28</v>
       </c>
       <c r="B2" s="14" t="s">
+        <v>903</v>
+      </c>
+      <c r="C2" s="14" t="s">
         <v>904</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="D2" s="14" t="s">
         <v>905</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>906</v>
       </c>
       <c r="E2" s="15"/>
       <c r="F2" s="15" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="G2" s="15"/>
     </row>
@@ -13400,17 +13400,17 @@
         <v>31</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="D3" s="14" t="s">
         <v>30</v>
       </c>
       <c r="E3" s="15"/>
       <c r="F3" s="15" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="G3" s="15"/>
     </row>
@@ -13419,17 +13419,17 @@
         <v>34</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="D4" s="14" t="s">
         <v>33</v>
       </c>
       <c r="E4" s="15"/>
       <c r="F4" s="15" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="G4" s="15"/>
     </row>
@@ -13438,17 +13438,17 @@
         <v>37</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="D5" s="14" t="s">
         <v>36</v>
       </c>
       <c r="E5" s="15"/>
       <c r="F5" s="15" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="G5" s="15"/>
     </row>
@@ -13457,17 +13457,17 @@
         <v>40</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="D6" s="13" t="s">
         <v>39</v>
       </c>
       <c r="E6" s="15"/>
       <c r="F6" s="15" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="G6" s="15"/>
     </row>
@@ -13476,36 +13476,36 @@
         <v>46</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="D7" s="14" t="s">
         <v>45</v>
       </c>
       <c r="E7" s="15"/>
       <c r="F7" s="15" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="G7" s="15"/>
     </row>
     <row r="8" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A8" s="14" t="s">
+        <v>911</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>903</v>
+      </c>
+      <c r="C8" s="14" t="s">
         <v>912</v>
       </c>
-      <c r="B8" s="14" t="s">
-        <v>904</v>
-      </c>
-      <c r="C8" s="14" t="s">
+      <c r="D8" s="14" t="s">
         <v>913</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>914</v>
       </c>
       <c r="E8" s="15"/>
       <c r="F8" s="15" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="G8" s="15"/>
     </row>
@@ -13514,17 +13514,17 @@
         <v>57</v>
       </c>
       <c r="B9" s="14" t="s">
+        <v>914</v>
+      </c>
+      <c r="C9" s="14" t="s">
         <v>915</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>916</v>
       </c>
       <c r="D9" s="14" t="s">
         <v>56</v>
       </c>
       <c r="E9" s="15"/>
       <c r="F9" s="15" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="G9" s="15"/>
     </row>
@@ -13533,17 +13533,17 @@
         <v>99</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="D10" s="14" t="s">
         <v>98</v>
       </c>
       <c r="E10" s="15"/>
       <c r="F10" s="15" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="G10" s="15"/>
     </row>
@@ -13552,17 +13552,17 @@
         <v>60</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="C11" s="14" t="s">
+        <v>917</v>
+      </c>
+      <c r="D11" s="14" t="s">
         <v>918</v>
-      </c>
-      <c r="D11" s="14" t="s">
-        <v>919</v>
       </c>
       <c r="E11" s="15"/>
       <c r="F11" s="15" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="G11" s="15"/>
     </row>
@@ -13571,17 +13571,17 @@
         <v>66</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="D12" s="14" t="s">
         <v>65</v>
       </c>
       <c r="E12" s="15"/>
       <c r="F12" s="15" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="G12" s="15"/>
     </row>
@@ -13590,17 +13590,17 @@
         <v>105</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="D13" s="14" t="s">
         <v>104</v>
       </c>
       <c r="E13" s="15"/>
       <c r="F13" s="15" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="G13" s="15"/>
     </row>
@@ -13609,17 +13609,17 @@
         <v>81</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="C14" s="14" t="s">
+        <v>921</v>
+      </c>
+      <c r="D14" s="14" t="s">
         <v>922</v>
-      </c>
-      <c r="D14" s="14" t="s">
-        <v>923</v>
       </c>
       <c r="E14" s="15"/>
       <c r="F14" s="15" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="G14" s="15"/>
     </row>
@@ -13628,17 +13628,17 @@
         <v>84</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="C15" s="14" t="s">
+        <v>923</v>
+      </c>
+      <c r="D15" s="14" t="s">
         <v>924</v>
-      </c>
-      <c r="D15" s="14" t="s">
-        <v>925</v>
       </c>
       <c r="E15" s="15"/>
       <c r="F15" s="15" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="G15" s="15"/>
     </row>
@@ -13647,17 +13647,17 @@
         <v>108</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="D16" s="14" t="s">
         <v>107</v>
       </c>
       <c r="E16" s="15"/>
       <c r="F16" s="15" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="G16" s="15"/>
     </row>
@@ -13666,22 +13666,22 @@
         <v>111</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="D17" s="14" t="s">
         <v>110</v>
       </c>
       <c r="E17" s="17" t="s">
+        <v>927</v>
+      </c>
+      <c r="F17" s="15" t="s">
+        <v>895</v>
+      </c>
+      <c r="G17" s="15" t="s">
         <v>928</v>
-      </c>
-      <c r="F17" s="15" t="s">
-        <v>896</v>
-      </c>
-      <c r="G17" s="15" t="s">
-        <v>929</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
@@ -13689,36 +13689,36 @@
         <v>102</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="D18" s="14" t="s">
         <v>101</v>
       </c>
       <c r="E18" s="15"/>
       <c r="F18" s="15" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="G18" s="15"/>
     </row>
     <row r="19" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A19" s="13" t="s">
+        <v>930</v>
+      </c>
+      <c r="B19" s="13" t="s">
         <v>931</v>
       </c>
-      <c r="B19" s="13" t="s">
+      <c r="C19" s="13" t="s">
         <v>932</v>
       </c>
-      <c r="C19" s="13" t="s">
+      <c r="D19" s="13" t="s">
         <v>933</v>
-      </c>
-      <c r="D19" s="13" t="s">
-        <v>934</v>
       </c>
       <c r="E19" s="15"/>
       <c r="F19" s="15" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="G19" s="15"/>
     </row>
@@ -13727,17 +13727,17 @@
         <v>132</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="D20" s="14" t="s">
         <v>131</v>
       </c>
       <c r="E20" s="15"/>
       <c r="F20" s="15" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="G20" s="15"/>
     </row>
@@ -13746,17 +13746,17 @@
         <v>135</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="D21" s="14" t="s">
         <v>134</v>
       </c>
       <c r="E21" s="15"/>
       <c r="F21" s="15" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="G21" s="15"/>
     </row>
@@ -13765,17 +13765,17 @@
         <v>138</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="D22" s="14" t="s">
         <v>137</v>
       </c>
       <c r="E22" s="15"/>
       <c r="F22" s="15" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="G22" s="15"/>
     </row>
@@ -13784,17 +13784,17 @@
         <v>141</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="D23" s="14" t="s">
         <v>140</v>
       </c>
       <c r="E23" s="15"/>
       <c r="F23" s="15" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="G23" s="15"/>
     </row>
@@ -13803,17 +13803,17 @@
         <v>43</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="D24" s="14" t="s">
         <v>42</v>
       </c>
       <c r="E24" s="15"/>
       <c r="F24" s="15" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="G24" s="15"/>
     </row>
@@ -13822,17 +13822,17 @@
         <v>116</v>
       </c>
       <c r="B25" s="14" t="s">
+        <v>939</v>
+      </c>
+      <c r="C25" s="14" t="s">
         <v>940</v>
-      </c>
-      <c r="C25" s="14" t="s">
-        <v>941</v>
       </c>
       <c r="D25" s="14" t="s">
         <v>152</v>
       </c>
       <c r="E25" s="15"/>
       <c r="F25" s="15" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="G25" s="15"/>
     </row>
@@ -13841,17 +13841,17 @@
         <v>196</v>
       </c>
       <c r="B26" s="14" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="C26" s="14" t="s">
+        <v>941</v>
+      </c>
+      <c r="D26" s="14" t="s">
         <v>942</v>
-      </c>
-      <c r="D26" s="14" t="s">
-        <v>943</v>
       </c>
       <c r="E26" s="15"/>
       <c r="F26" s="15" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="G26" s="15"/>
     </row>
@@ -13860,17 +13860,17 @@
         <v>199</v>
       </c>
       <c r="B27" s="14" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="D27" s="14" t="s">
         <v>198</v>
       </c>
       <c r="E27" s="15"/>
       <c r="F27" s="15" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="G27" s="15"/>
     </row>
@@ -13879,17 +13879,17 @@
         <v>164</v>
       </c>
       <c r="B28" s="14" t="s">
+        <v>944</v>
+      </c>
+      <c r="C28" s="14" t="s">
         <v>945</v>
-      </c>
-      <c r="C28" s="14" t="s">
-        <v>946</v>
       </c>
       <c r="D28" s="14" t="s">
         <v>163</v>
       </c>
       <c r="E28" s="15"/>
       <c r="F28" s="15" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="G28" s="15"/>
     </row>
@@ -13898,17 +13898,17 @@
         <v>167</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="D29" s="14" t="s">
         <v>166</v>
       </c>
       <c r="E29" s="15"/>
       <c r="F29" s="15" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="G29" s="15"/>
     </row>
@@ -13917,17 +13917,17 @@
         <v>176</v>
       </c>
       <c r="B30" s="14" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="C30" s="14" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="D30" s="14" t="s">
         <v>175</v>
       </c>
       <c r="E30" s="15"/>
       <c r="F30" s="15" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="G30" s="15"/>
     </row>
@@ -13936,17 +13936,17 @@
         <v>179</v>
       </c>
       <c r="B31" s="14" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="D31" s="14" t="s">
         <v>178</v>
       </c>
       <c r="E31" s="15"/>
       <c r="F31" s="15" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="G31" s="15"/>
     </row>
@@ -13955,17 +13955,17 @@
         <v>182</v>
       </c>
       <c r="B32" s="14" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="D32" s="14" t="s">
         <v>181</v>
       </c>
       <c r="E32" s="15"/>
       <c r="F32" s="15" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="G32" s="15"/>
     </row>
@@ -13974,17 +13974,17 @@
         <v>193</v>
       </c>
       <c r="B33" s="14" t="s">
+        <v>950</v>
+      </c>
+      <c r="C33" s="14" t="s">
         <v>951</v>
       </c>
-      <c r="C33" s="14" t="s">
+      <c r="D33" s="14" t="s">
         <v>952</v>
-      </c>
-      <c r="D33" s="14" t="s">
-        <v>953</v>
       </c>
       <c r="E33" s="15"/>
       <c r="F33" s="15" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="G33" s="15"/>
     </row>
@@ -13993,17 +13993,17 @@
         <v>252</v>
       </c>
       <c r="B34" s="14" t="s">
+        <v>953</v>
+      </c>
+      <c r="C34" s="14" t="s">
         <v>954</v>
-      </c>
-      <c r="C34" s="14" t="s">
-        <v>955</v>
       </c>
       <c r="D34" s="14" t="s">
         <v>251</v>
       </c>
       <c r="E34" s="15"/>
       <c r="F34" s="15" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="G34" s="15"/>
     </row>
@@ -14012,17 +14012,17 @@
         <v>255</v>
       </c>
       <c r="B35" s="14" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="C35" s="14" t="s">
+        <v>955</v>
+      </c>
+      <c r="D35" s="14" t="s">
         <v>956</v>
-      </c>
-      <c r="D35" s="14" t="s">
-        <v>957</v>
       </c>
       <c r="E35" s="15"/>
       <c r="F35" s="15" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="G35" s="15"/>
     </row>
@@ -14031,17 +14031,17 @@
         <v>261</v>
       </c>
       <c r="B36" s="14" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="C36" s="14" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="D36" s="14" t="s">
         <v>260</v>
       </c>
       <c r="E36" s="15"/>
       <c r="F36" s="15" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="G36" s="15"/>
     </row>
@@ -14050,17 +14050,17 @@
         <v>264</v>
       </c>
       <c r="B37" s="14" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="C37" s="14" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="D37" s="14" t="s">
         <v>263</v>
       </c>
       <c r="E37" s="15"/>
       <c r="F37" s="15" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="G37" s="17"/>
     </row>
@@ -14069,17 +14069,17 @@
         <v>613</v>
       </c>
       <c r="B38" s="14" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="C38" s="14" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="D38" s="14" t="s">
         <v>612</v>
       </c>
       <c r="E38" s="15"/>
       <c r="F38" s="15" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="G38" s="15"/>
     </row>
@@ -14088,17 +14088,17 @@
         <v>290</v>
       </c>
       <c r="B39" s="14" t="s">
+        <v>961</v>
+      </c>
+      <c r="C39" s="14" t="s">
         <v>962</v>
-      </c>
-      <c r="C39" s="14" t="s">
-        <v>963</v>
       </c>
       <c r="D39" s="14" t="s">
         <v>289</v>
       </c>
       <c r="E39" s="15"/>
       <c r="F39" s="15" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="G39" s="15"/>
     </row>
@@ -14107,17 +14107,17 @@
         <v>275</v>
       </c>
       <c r="B40" s="14" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="C40" s="13" t="s">
+        <v>963</v>
+      </c>
+      <c r="D40" s="13" t="s">
         <v>964</v>
-      </c>
-      <c r="D40" s="13" t="s">
-        <v>965</v>
       </c>
       <c r="E40" s="15"/>
       <c r="F40" s="15" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="G40" s="15"/>
     </row>
@@ -14126,17 +14126,17 @@
         <v>278</v>
       </c>
       <c r="B41" s="13" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="C41" s="14" t="s">
+        <v>965</v>
+      </c>
+      <c r="D41" s="13" t="s">
         <v>966</v>
-      </c>
-      <c r="D41" s="13" t="s">
-        <v>967</v>
       </c>
       <c r="E41" s="15"/>
       <c r="F41" s="15" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="G41" s="15"/>
     </row>
@@ -14145,17 +14145,17 @@
         <v>287</v>
       </c>
       <c r="B42" s="14" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="C42" s="14" t="s">
+        <v>967</v>
+      </c>
+      <c r="D42" s="14" t="s">
         <v>968</v>
-      </c>
-      <c r="D42" s="14" t="s">
-        <v>969</v>
       </c>
       <c r="E42" s="15"/>
       <c r="F42" s="15" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="G42" s="15"/>
     </row>
@@ -14164,17 +14164,17 @@
         <v>63</v>
       </c>
       <c r="B43" s="18" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="C43" s="18" t="s">
+        <v>969</v>
+      </c>
+      <c r="D43" s="18" t="s">
         <v>970</v>
-      </c>
-      <c r="D43" s="18" t="s">
-        <v>971</v>
       </c>
       <c r="E43" s="19"/>
       <c r="F43" s="15" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="G43" s="19"/>
     </row>
@@ -14183,17 +14183,17 @@
         <v>69</v>
       </c>
       <c r="B44" s="18" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="C44" s="18" t="s">
+        <v>971</v>
+      </c>
+      <c r="D44" s="18" t="s">
         <v>972</v>
-      </c>
-      <c r="D44" s="18" t="s">
-        <v>973</v>
       </c>
       <c r="E44" s="19"/>
       <c r="F44" s="15" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="G44" s="19"/>
     </row>
@@ -14202,17 +14202,17 @@
         <v>72</v>
       </c>
       <c r="B45" s="18" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="C45" s="18" t="s">
+        <v>973</v>
+      </c>
+      <c r="D45" s="18" t="s">
         <v>974</v>
-      </c>
-      <c r="D45" s="18" t="s">
-        <v>975</v>
       </c>
       <c r="E45" s="19"/>
       <c r="F45" s="15" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="G45" s="19"/>
     </row>
@@ -14221,17 +14221,17 @@
         <v>75</v>
       </c>
       <c r="B46" s="18" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="C46" s="18" t="s">
+        <v>975</v>
+      </c>
+      <c r="D46" s="18" t="s">
         <v>976</v>
-      </c>
-      <c r="D46" s="18" t="s">
-        <v>977</v>
       </c>
       <c r="E46" s="19"/>
       <c r="F46" s="15" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="G46" s="19"/>
     </row>
@@ -14240,17 +14240,17 @@
         <v>78</v>
       </c>
       <c r="B47" s="18" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="C47" s="18" t="s">
+        <v>977</v>
+      </c>
+      <c r="D47" s="18" t="s">
         <v>978</v>
-      </c>
-      <c r="D47" s="18" t="s">
-        <v>979</v>
       </c>
       <c r="E47" s="19"/>
       <c r="F47" s="15" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="G47" s="19"/>
     </row>
@@ -14259,17 +14259,17 @@
         <v>87</v>
       </c>
       <c r="B48" s="18" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="C48" s="18" t="s">
+        <v>979</v>
+      </c>
+      <c r="D48" s="18" t="s">
         <v>980</v>
-      </c>
-      <c r="D48" s="18" t="s">
-        <v>981</v>
       </c>
       <c r="E48" s="19"/>
       <c r="F48" s="15" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="G48" s="19"/>
     </row>
@@ -14278,17 +14278,17 @@
         <v>90</v>
       </c>
       <c r="B49" s="18" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="C49" s="18" t="s">
+        <v>981</v>
+      </c>
+      <c r="D49" s="18" t="s">
         <v>982</v>
-      </c>
-      <c r="D49" s="18" t="s">
-        <v>983</v>
       </c>
       <c r="E49" s="19"/>
       <c r="F49" s="15" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="G49" s="19"/>
     </row>
@@ -14297,17 +14297,17 @@
         <v>93</v>
       </c>
       <c r="B50" s="18" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="C50" s="18" t="s">
+        <v>983</v>
+      </c>
+      <c r="D50" s="18" t="s">
         <v>984</v>
-      </c>
-      <c r="D50" s="18" t="s">
-        <v>985</v>
       </c>
       <c r="E50" s="19"/>
       <c r="F50" s="15" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="G50" s="19"/>
     </row>
@@ -14316,17 +14316,17 @@
         <v>96</v>
       </c>
       <c r="B51" s="18" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="C51" s="18" t="s">
+        <v>985</v>
+      </c>
+      <c r="D51" s="18" t="s">
         <v>986</v>
-      </c>
-      <c r="D51" s="18" t="s">
-        <v>987</v>
       </c>
       <c r="E51" s="19"/>
       <c r="F51" s="15" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="G51" s="19"/>
     </row>
@@ -14335,17 +14335,17 @@
         <v>170</v>
       </c>
       <c r="B52" s="18" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="C52" s="18" t="s">
+        <v>987</v>
+      </c>
+      <c r="D52" s="18" t="s">
         <v>988</v>
-      </c>
-      <c r="D52" s="18" t="s">
-        <v>989</v>
       </c>
       <c r="E52" s="19"/>
       <c r="F52" s="15" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="G52" s="19"/>
     </row>
@@ -14354,17 +14354,17 @@
         <v>173</v>
       </c>
       <c r="B53" s="18" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="C53" s="18" t="s">
+        <v>989</v>
+      </c>
+      <c r="D53" s="18" t="s">
         <v>990</v>
-      </c>
-      <c r="D53" s="18" t="s">
-        <v>991</v>
       </c>
       <c r="E53" s="19"/>
       <c r="F53" s="15" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="G53" s="19"/>
     </row>
@@ -14373,17 +14373,17 @@
         <v>258</v>
       </c>
       <c r="B54" s="18" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="C54" s="18" t="s">
+        <v>991</v>
+      </c>
+      <c r="D54" s="18" t="s">
         <v>992</v>
-      </c>
-      <c r="D54" s="18" t="s">
-        <v>993</v>
       </c>
       <c r="E54" s="19"/>
       <c r="F54" s="15" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="G54" s="19"/>
     </row>
@@ -14392,17 +14392,17 @@
         <v>281</v>
       </c>
       <c r="B55" s="18" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="C55" s="18" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="D55" s="18" t="s">
         <v>280</v>
       </c>
       <c r="E55" s="19"/>
       <c r="F55" s="15" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="G55" s="19"/>
     </row>
@@ -14411,17 +14411,17 @@
         <v>129</v>
       </c>
       <c r="B56" s="18" t="s">
+        <v>994</v>
+      </c>
+      <c r="C56" s="18" t="s">
         <v>995</v>
       </c>
-      <c r="C56" s="18" t="s">
-        <v>996</v>
-      </c>
       <c r="D56" s="20" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="E56" s="19"/>
       <c r="F56" s="19" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="G56" s="19"/>
     </row>
@@ -14438,7 +14438,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AMK50"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -14455,25 +14455,25 @@
   <sheetData>
     <row r="1" spans="1:256" s="23" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
+        <v>885</v>
+      </c>
+      <c r="B1" s="14" t="s">
         <v>886</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="C1" s="14" t="s">
         <v>887</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="D1" s="14" t="s">
         <v>888</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="E1" s="15" t="s">
         <v>889</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="F1" s="15" t="s">
         <v>890</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="G1" s="15" t="s">
         <v>891</v>
-      </c>
-      <c r="G1" s="15" t="s">
-        <v>892</v>
       </c>
       <c r="H1" s="16"/>
       <c r="I1" s="16"/>
@@ -14727,39 +14727,39 @@
     </row>
     <row r="2" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="14" t="s">
+        <v>996</v>
+      </c>
+      <c r="B2" s="14" t="s">
         <v>997</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="C2" s="14" t="s">
         <v>998</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>999</v>
       </c>
       <c r="D2" s="14" t="s">
         <v>313</v>
       </c>
       <c r="E2" s="15"/>
       <c r="F2" s="15" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="G2" s="15"/>
     </row>
     <row r="3" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
+        <v>999</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>997</v>
+      </c>
+      <c r="C3" s="14" t="s">
         <v>1000</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>998</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>1001</v>
       </c>
       <c r="D3" s="14" t="s">
         <v>315</v>
       </c>
       <c r="E3" s="15"/>
       <c r="F3" s="15" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="G3" s="15"/>
     </row>
@@ -14768,17 +14768,17 @@
         <v>318</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="D4" s="14" t="s">
         <v>317</v>
       </c>
       <c r="E4" s="15"/>
       <c r="F4" s="15" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="G4" s="15"/>
     </row>
@@ -14787,17 +14787,17 @@
         <v>324</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="D5" s="14" t="s">
         <v>323</v>
       </c>
       <c r="E5" s="15"/>
       <c r="F5" s="15" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="G5" s="15"/>
     </row>
@@ -14806,150 +14806,150 @@
         <v>329</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="C6" s="14" t="s">
+        <v>1003</v>
+      </c>
+      <c r="D6" s="14" t="s">
         <v>1004</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>1005</v>
       </c>
       <c r="E6" s="15"/>
       <c r="F6" s="15" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="G6" s="15"/>
     </row>
     <row r="7" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="14" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>997</v>
+      </c>
+      <c r="C7" s="14" t="s">
         <v>1006</v>
       </c>
-      <c r="B7" s="14" t="s">
-        <v>998</v>
-      </c>
-      <c r="C7" s="14" t="s">
+      <c r="D7" s="14" t="s">
         <v>1007</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>1008</v>
       </c>
       <c r="E7" s="15"/>
       <c r="F7" s="15" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="G7" s="15"/>
     </row>
     <row r="8" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="14" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>997</v>
+      </c>
+      <c r="C8" s="14" t="s">
         <v>1009</v>
       </c>
-      <c r="B8" s="14" t="s">
-        <v>998</v>
-      </c>
-      <c r="C8" s="14" t="s">
+      <c r="D8" s="14" t="s">
         <v>1010</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>1011</v>
       </c>
       <c r="E8" s="15"/>
       <c r="F8" s="15" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="G8" s="15"/>
     </row>
     <row r="9" spans="1:256" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="14" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>997</v>
+      </c>
+      <c r="C9" s="14" t="s">
         <v>1012</v>
       </c>
-      <c r="B9" s="14" t="s">
-        <v>998</v>
-      </c>
-      <c r="C9" s="14" t="s">
+      <c r="D9" s="14" t="s">
         <v>1013</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>1014</v>
       </c>
       <c r="E9" s="15"/>
       <c r="F9" s="15" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="G9" s="15"/>
     </row>
     <row r="10" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="14" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>997</v>
+      </c>
+      <c r="C10" s="14" t="s">
         <v>1015</v>
-      </c>
-      <c r="B10" s="14" t="s">
-        <v>998</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>1016</v>
       </c>
       <c r="D10" s="14" t="s">
         <v>411</v>
       </c>
       <c r="E10" s="15"/>
       <c r="F10" s="15" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="G10" s="15"/>
     </row>
     <row r="11" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="14" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>997</v>
+      </c>
+      <c r="C11" s="14" t="s">
         <v>1017</v>
-      </c>
-      <c r="B11" s="14" t="s">
-        <v>998</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>1018</v>
       </c>
       <c r="D11" s="14" t="s">
         <v>413</v>
       </c>
       <c r="E11" s="15"/>
       <c r="F11" s="15" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="G11" s="15"/>
     </row>
     <row r="12" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="14" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>997</v>
+      </c>
+      <c r="C12" s="14" t="s">
         <v>1019</v>
       </c>
-      <c r="B12" s="14" t="s">
-        <v>998</v>
-      </c>
-      <c r="C12" s="14" t="s">
+      <c r="D12" s="14" t="s">
         <v>1020</v>
-      </c>
-      <c r="D12" s="14" t="s">
-        <v>1021</v>
       </c>
       <c r="E12" s="15"/>
       <c r="F12" s="15" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="G12" s="15"/>
     </row>
     <row r="13" spans="1:256" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="14" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>997</v>
+      </c>
+      <c r="C13" s="14" t="s">
         <v>1022</v>
-      </c>
-      <c r="B13" s="14" t="s">
-        <v>998</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>1023</v>
       </c>
       <c r="D13" s="14" t="s">
         <v>417</v>
       </c>
       <c r="E13" s="15"/>
       <c r="F13" s="15" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="G13" s="15"/>
     </row>
@@ -14958,150 +14958,150 @@
         <v>421</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="D14" s="14" t="s">
         <v>420</v>
       </c>
       <c r="E14" s="15"/>
       <c r="F14" s="15" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="G14" s="15"/>
     </row>
     <row r="15" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="14" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>997</v>
+      </c>
+      <c r="C15" s="14" t="s">
         <v>1025</v>
-      </c>
-      <c r="B15" s="14" t="s">
-        <v>998</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>1026</v>
       </c>
       <c r="D15" s="14" t="s">
         <v>423</v>
       </c>
       <c r="E15" s="15"/>
       <c r="F15" s="15" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="G15" s="15"/>
     </row>
     <row r="16" spans="1:256" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="13" t="s">
+        <v>1026</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>997</v>
+      </c>
+      <c r="C16" s="13" t="s">
         <v>1027</v>
-      </c>
-      <c r="B16" s="14" t="s">
-        <v>998</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>1028</v>
       </c>
       <c r="D16" s="13" t="s">
         <v>425</v>
       </c>
       <c r="E16" s="15"/>
       <c r="F16" s="15" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="G16" s="15"/>
     </row>
     <row r="17" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="13" t="s">
+        <v>1028</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>997</v>
+      </c>
+      <c r="C17" s="13" t="s">
         <v>1029</v>
       </c>
-      <c r="B17" s="14" t="s">
-        <v>998</v>
-      </c>
-      <c r="C17" s="13" t="s">
+      <c r="D17" s="13" t="s">
         <v>1030</v>
-      </c>
-      <c r="D17" s="13" t="s">
-        <v>1031</v>
       </c>
       <c r="E17" s="15"/>
       <c r="F17" s="15" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="G17" s="15"/>
     </row>
     <row r="18" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="14" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>997</v>
+      </c>
+      <c r="C18" s="14" t="s">
         <v>1032</v>
-      </c>
-      <c r="B18" s="14" t="s">
-        <v>998</v>
-      </c>
-      <c r="C18" s="14" t="s">
-        <v>1033</v>
       </c>
       <c r="D18" s="13" t="s">
         <v>429</v>
       </c>
       <c r="E18" s="15"/>
       <c r="F18" s="15" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="G18" s="15"/>
     </row>
     <row r="19" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="14" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>997</v>
+      </c>
+      <c r="C19" s="14" t="s">
         <v>1034</v>
-      </c>
-      <c r="B19" s="14" t="s">
-        <v>998</v>
-      </c>
-      <c r="C19" s="14" t="s">
-        <v>1035</v>
       </c>
       <c r="D19" s="14" t="s">
         <v>431</v>
       </c>
       <c r="E19" s="15"/>
       <c r="F19" s="15" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="G19" s="15"/>
     </row>
     <row r="20" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="14" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>997</v>
+      </c>
+      <c r="C20" s="14" t="s">
         <v>1036</v>
-      </c>
-      <c r="B20" s="14" t="s">
-        <v>998</v>
-      </c>
-      <c r="C20" s="14" t="s">
-        <v>1037</v>
       </c>
       <c r="D20" s="14" t="s">
         <v>433</v>
       </c>
       <c r="E20" s="15"/>
       <c r="F20" s="15" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="G20" s="15"/>
     </row>
     <row r="21" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="14" t="s">
+        <v>1037</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>997</v>
+      </c>
+      <c r="C21" s="14" t="s">
         <v>1038</v>
       </c>
-      <c r="B21" s="14" t="s">
-        <v>998</v>
-      </c>
-      <c r="C21" s="14" t="s">
+      <c r="D21" s="14" t="s">
         <v>1039</v>
-      </c>
-      <c r="D21" s="14" t="s">
-        <v>1040</v>
       </c>
       <c r="E21" s="15"/>
       <c r="F21" s="15" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="G21" s="15"/>
     </row>
@@ -15110,169 +15110,169 @@
         <v>440</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="D22" s="14" t="s">
         <v>439</v>
       </c>
       <c r="E22" s="15"/>
       <c r="F22" s="15" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="G22" s="15"/>
     </row>
     <row r="23" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="14" t="s">
+        <v>1041</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>997</v>
+      </c>
+      <c r="C23" s="14" t="s">
         <v>1042</v>
-      </c>
-      <c r="B23" s="14" t="s">
-        <v>998</v>
-      </c>
-      <c r="C23" s="14" t="s">
-        <v>1043</v>
       </c>
       <c r="D23" s="14" t="s">
         <v>442</v>
       </c>
       <c r="E23" s="15"/>
       <c r="F23" s="15" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="G23" s="15"/>
     </row>
     <row r="24" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="14" t="s">
+        <v>1043</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>997</v>
+      </c>
+      <c r="C24" s="14" t="s">
         <v>1044</v>
-      </c>
-      <c r="B24" s="14" t="s">
-        <v>998</v>
-      </c>
-      <c r="C24" s="14" t="s">
-        <v>1045</v>
       </c>
       <c r="D24" s="14" t="s">
         <v>444</v>
       </c>
       <c r="E24" s="15"/>
       <c r="F24" s="15" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="G24" s="15"/>
     </row>
     <row r="25" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="14" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>997</v>
+      </c>
+      <c r="C25" s="14" t="s">
         <v>1046</v>
       </c>
-      <c r="B25" s="14" t="s">
-        <v>998</v>
-      </c>
-      <c r="C25" s="14" t="s">
+      <c r="D25" s="14" t="s">
         <v>1047</v>
-      </c>
-      <c r="D25" s="14" t="s">
-        <v>1048</v>
       </c>
       <c r="E25" s="15"/>
       <c r="F25" s="15" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="G25" s="15"/>
     </row>
     <row r="26" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="14" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B26" s="14" t="s">
+        <v>997</v>
+      </c>
+      <c r="C26" s="14" t="s">
         <v>1049</v>
-      </c>
-      <c r="B26" s="14" t="s">
-        <v>998</v>
-      </c>
-      <c r="C26" s="14" t="s">
-        <v>1050</v>
       </c>
       <c r="D26" s="14" t="s">
         <v>451</v>
       </c>
       <c r="E26" s="15"/>
       <c r="F26" s="15" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="G26" s="15"/>
     </row>
     <row r="27" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="14" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B27" s="14" t="s">
+        <v>997</v>
+      </c>
+      <c r="C27" s="14" t="s">
         <v>1051</v>
       </c>
-      <c r="B27" s="14" t="s">
-        <v>998</v>
-      </c>
-      <c r="C27" s="14" t="s">
+      <c r="D27" s="14" t="s">
         <v>1052</v>
-      </c>
-      <c r="D27" s="14" t="s">
-        <v>1053</v>
       </c>
       <c r="E27" s="15"/>
       <c r="F27" s="15" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="G27" s="15"/>
     </row>
     <row r="28" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="14" t="s">
+        <v>1053</v>
+      </c>
+      <c r="B28" s="14" t="s">
+        <v>997</v>
+      </c>
+      <c r="C28" s="14" t="s">
         <v>1054</v>
-      </c>
-      <c r="B28" s="14" t="s">
-        <v>998</v>
-      </c>
-      <c r="C28" s="14" t="s">
-        <v>1055</v>
       </c>
       <c r="D28" s="14" t="s">
         <v>455</v>
       </c>
       <c r="E28" s="15"/>
       <c r="F28" s="15" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="G28" s="15"/>
     </row>
     <row r="29" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="14" t="s">
+        <v>1055</v>
+      </c>
+      <c r="B29" s="14" t="s">
+        <v>997</v>
+      </c>
+      <c r="C29" s="14" t="s">
         <v>1056</v>
-      </c>
-      <c r="B29" s="14" t="s">
-        <v>998</v>
-      </c>
-      <c r="C29" s="14" t="s">
-        <v>1057</v>
       </c>
       <c r="D29" s="14" t="s">
         <v>457</v>
       </c>
       <c r="E29" s="15"/>
       <c r="F29" s="15" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="G29" s="15"/>
     </row>
     <row r="30" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="14" t="s">
+        <v>1057</v>
+      </c>
+      <c r="B30" s="14" t="s">
+        <v>997</v>
+      </c>
+      <c r="C30" s="14" t="s">
         <v>1058</v>
-      </c>
-      <c r="B30" s="14" t="s">
-        <v>998</v>
-      </c>
-      <c r="C30" s="14" t="s">
-        <v>1059</v>
       </c>
       <c r="D30" s="14" t="s">
         <v>459</v>
       </c>
       <c r="E30" s="15"/>
       <c r="F30" s="15" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="G30" s="15"/>
     </row>
@@ -15281,17 +15281,17 @@
         <v>475</v>
       </c>
       <c r="B31" s="14" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="C31" s="14" t="s">
+        <v>1059</v>
+      </c>
+      <c r="D31" s="14" t="s">
         <v>1060</v>
-      </c>
-      <c r="D31" s="14" t="s">
-        <v>1061</v>
       </c>
       <c r="E31" s="15"/>
       <c r="F31" s="15" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="G31" s="15"/>
     </row>
@@ -15300,17 +15300,17 @@
         <v>478</v>
       </c>
       <c r="B32" s="14" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="C32" s="14" t="s">
+        <v>1061</v>
+      </c>
+      <c r="D32" s="14" t="s">
         <v>1062</v>
-      </c>
-      <c r="D32" s="14" t="s">
-        <v>1063</v>
       </c>
       <c r="E32" s="15"/>
       <c r="F32" s="15" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="G32" s="15"/>
     </row>
@@ -15319,17 +15319,17 @@
         <v>481</v>
       </c>
       <c r="B33" s="14" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="C33" s="14" t="s">
+        <v>1063</v>
+      </c>
+      <c r="D33" s="14" t="s">
         <v>1064</v>
-      </c>
-      <c r="D33" s="14" t="s">
-        <v>1065</v>
       </c>
       <c r="E33" s="15"/>
       <c r="F33" s="15" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="G33" s="15"/>
     </row>
@@ -15338,112 +15338,112 @@
         <v>484</v>
       </c>
       <c r="B34" s="14" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="C34" s="14" t="s">
+        <v>1065</v>
+      </c>
+      <c r="D34" s="14" t="s">
         <v>1066</v>
-      </c>
-      <c r="D34" s="14" t="s">
-        <v>1067</v>
       </c>
       <c r="E34" s="15"/>
       <c r="F34" s="15" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="G34" s="15"/>
     </row>
     <row r="35" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="14" t="s">
+        <v>1067</v>
+      </c>
+      <c r="B35" s="14" t="s">
+        <v>997</v>
+      </c>
+      <c r="C35" s="14" t="s">
         <v>1068</v>
       </c>
-      <c r="B35" s="14" t="s">
-        <v>998</v>
-      </c>
-      <c r="C35" s="14" t="s">
+      <c r="D35" s="14" t="s">
         <v>1069</v>
-      </c>
-      <c r="D35" s="14" t="s">
-        <v>1070</v>
       </c>
       <c r="E35" s="15"/>
       <c r="F35" s="15" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="G35" s="15"/>
     </row>
     <row r="36" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="14" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B36" s="14" t="s">
+        <v>997</v>
+      </c>
+      <c r="C36" s="14" t="s">
         <v>1071</v>
       </c>
-      <c r="B36" s="14" t="s">
-        <v>998</v>
-      </c>
-      <c r="C36" s="14" t="s">
+      <c r="D36" s="14" t="s">
         <v>1072</v>
-      </c>
-      <c r="D36" s="14" t="s">
-        <v>1073</v>
       </c>
       <c r="E36" s="15"/>
       <c r="F36" s="15" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="G36" s="15"/>
     </row>
     <row r="37" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="14" t="s">
+        <v>1073</v>
+      </c>
+      <c r="B37" s="14" t="s">
+        <v>997</v>
+      </c>
+      <c r="C37" s="14" t="s">
         <v>1074</v>
       </c>
-      <c r="B37" s="14" t="s">
-        <v>998</v>
-      </c>
-      <c r="C37" s="14" t="s">
+      <c r="D37" s="14" t="s">
         <v>1075</v>
-      </c>
-      <c r="D37" s="14" t="s">
-        <v>1076</v>
       </c>
       <c r="E37" s="15"/>
       <c r="F37" s="15" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="G37" s="15"/>
     </row>
     <row r="38" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="14" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B38" s="14" t="s">
+        <v>997</v>
+      </c>
+      <c r="C38" s="14" t="s">
         <v>1077</v>
       </c>
-      <c r="B38" s="14" t="s">
-        <v>998</v>
-      </c>
-      <c r="C38" s="14" t="s">
+      <c r="D38" s="14" t="s">
         <v>1078</v>
-      </c>
-      <c r="D38" s="14" t="s">
-        <v>1079</v>
       </c>
       <c r="E38" s="15"/>
       <c r="F38" s="15" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="G38" s="15"/>
     </row>
     <row r="39" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="14" t="s">
+        <v>1079</v>
+      </c>
+      <c r="B39" s="14" t="s">
+        <v>997</v>
+      </c>
+      <c r="C39" s="14" t="s">
         <v>1080</v>
       </c>
-      <c r="B39" s="14" t="s">
-        <v>998</v>
-      </c>
-      <c r="C39" s="14" t="s">
+      <c r="D39" s="14" t="s">
         <v>1081</v>
-      </c>
-      <c r="D39" s="14" t="s">
-        <v>1082</v>
       </c>
       <c r="E39" s="15"/>
       <c r="F39" s="15" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="G39" s="15"/>
     </row>
@@ -15452,32 +15452,32 @@
         <v>336</v>
       </c>
       <c r="B40" s="14" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="C40" s="14" t="s">
+        <v>1082</v>
+      </c>
+      <c r="D40" s="14" t="s">
         <v>1083</v>
       </c>
-      <c r="D40" s="14" t="s">
+      <c r="E40" s="15" t="s">
         <v>1084</v>
-      </c>
-      <c r="E40" s="15" t="s">
-        <v>1085</v>
       </c>
       <c r="F40" s="15"/>
       <c r="G40" s="15"/>
     </row>
     <row r="41" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="14" t="s">
+        <v>1085</v>
+      </c>
+      <c r="B41" s="14" t="s">
+        <v>997</v>
+      </c>
+      <c r="C41" s="14" t="s">
         <v>1086</v>
       </c>
-      <c r="B41" s="14" t="s">
-        <v>998</v>
-      </c>
-      <c r="C41" s="14" t="s">
+      <c r="D41" s="14" t="s">
         <v>1087</v>
-      </c>
-      <c r="D41" s="14" t="s">
-        <v>1088</v>
       </c>
       <c r="E41" s="15"/>
       <c r="F41" s="15"/>
@@ -15485,16 +15485,16 @@
     </row>
     <row r="42" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="14" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B42" s="14" t="s">
+        <v>997</v>
+      </c>
+      <c r="C42" s="14" t="s">
         <v>1089</v>
       </c>
-      <c r="B42" s="14" t="s">
-        <v>998</v>
-      </c>
-      <c r="C42" s="14" t="s">
+      <c r="D42" s="14" t="s">
         <v>1090</v>
-      </c>
-      <c r="D42" s="14" t="s">
-        <v>1091</v>
       </c>
       <c r="E42" s="15"/>
       <c r="F42" s="15"/>
@@ -15502,73 +15502,73 @@
     </row>
     <row r="43" spans="1:7" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="14" t="s">
+        <v>1091</v>
+      </c>
+      <c r="B43" s="14" t="s">
+        <v>997</v>
+      </c>
+      <c r="C43" s="14" t="s">
         <v>1092</v>
       </c>
-      <c r="B43" s="14" t="s">
-        <v>998</v>
-      </c>
-      <c r="C43" s="14" t="s">
+      <c r="D43" s="14" t="s">
         <v>1093</v>
       </c>
-      <c r="D43" s="14" t="s">
+      <c r="E43" s="15" t="s">
         <v>1094</v>
-      </c>
-      <c r="E43" s="15" t="s">
-        <v>1095</v>
       </c>
       <c r="F43" s="15"/>
       <c r="G43" s="15"/>
     </row>
     <row r="44" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="14" t="s">
+        <v>1095</v>
+      </c>
+      <c r="B44" s="14" t="s">
+        <v>997</v>
+      </c>
+      <c r="C44" s="14" t="s">
         <v>1096</v>
       </c>
-      <c r="B44" s="14" t="s">
-        <v>998</v>
-      </c>
-      <c r="C44" s="14" t="s">
+      <c r="D44" s="14" t="s">
         <v>1097</v>
       </c>
-      <c r="D44" s="14" t="s">
+      <c r="E44" s="17" t="s">
         <v>1098</v>
-      </c>
-      <c r="E44" s="17" t="s">
-        <v>1099</v>
       </c>
       <c r="F44" s="15"/>
       <c r="G44" s="15"/>
     </row>
     <row r="45" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="14" t="s">
+        <v>1099</v>
+      </c>
+      <c r="B45" s="14" t="s">
+        <v>997</v>
+      </c>
+      <c r="C45" s="14" t="s">
         <v>1100</v>
       </c>
-      <c r="B45" s="14" t="s">
-        <v>998</v>
-      </c>
-      <c r="C45" s="14" t="s">
+      <c r="D45" s="14" t="s">
         <v>1101</v>
       </c>
-      <c r="D45" s="14" t="s">
+      <c r="E45" s="15" t="s">
         <v>1102</v>
-      </c>
-      <c r="E45" s="15" t="s">
-        <v>1103</v>
       </c>
       <c r="F45" s="15"/>
       <c r="G45" s="15"/>
     </row>
     <row r="46" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="14" t="s">
+        <v>1103</v>
+      </c>
+      <c r="B46" s="14" t="s">
+        <v>997</v>
+      </c>
+      <c r="C46" s="14" t="s">
         <v>1104</v>
       </c>
-      <c r="B46" s="14" t="s">
-        <v>998</v>
-      </c>
-      <c r="C46" s="14" t="s">
+      <c r="D46" s="14" t="s">
         <v>1105</v>
-      </c>
-      <c r="D46" s="14" t="s">
-        <v>1106</v>
       </c>
       <c r="E46" s="15"/>
       <c r="F46" s="15"/>
@@ -15579,13 +15579,13 @@
         <v>351</v>
       </c>
       <c r="B47" s="14" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="C47" s="14" t="s">
+        <v>1106</v>
+      </c>
+      <c r="D47" s="14" t="s">
         <v>1107</v>
-      </c>
-      <c r="D47" s="14" t="s">
-        <v>1108</v>
       </c>
       <c r="E47" s="15"/>
       <c r="F47" s="15"/>
@@ -15593,16 +15593,16 @@
     </row>
     <row r="48" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="14" t="s">
+        <v>1108</v>
+      </c>
+      <c r="B48" s="14" t="s">
+        <v>997</v>
+      </c>
+      <c r="C48" s="14" t="s">
         <v>1109</v>
       </c>
-      <c r="B48" s="14" t="s">
-        <v>998</v>
-      </c>
-      <c r="C48" s="14" t="s">
+      <c r="D48" s="14" t="s">
         <v>1110</v>
-      </c>
-      <c r="D48" s="14" t="s">
-        <v>1111</v>
       </c>
       <c r="E48" s="15"/>
       <c r="F48" s="15"/>
@@ -15613,13 +15613,13 @@
         <v>447</v>
       </c>
       <c r="B49" s="14" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="C49" s="24" t="s">
+        <v>1111</v>
+      </c>
+      <c r="D49" s="24" t="s">
         <v>1112</v>
-      </c>
-      <c r="D49" s="24" t="s">
-        <v>1113</v>
       </c>
       <c r="E49" s="15"/>
       <c r="F49" s="15"/>
@@ -15879,10 +15879,10 @@
         <v>321</v>
       </c>
       <c r="B50" s="14" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="C50" s="14" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="D50" s="14" t="s">
         <v>320</v>
@@ -15923,25 +15923,25 @@
   <sheetData>
     <row r="1" spans="1:256" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
+        <v>885</v>
+      </c>
+      <c r="B1" s="20" t="s">
         <v>886</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="C1" s="20" t="s">
         <v>887</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="D1" s="20" t="s">
         <v>888</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="E1" s="15" t="s">
         <v>889</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="F1" s="15" t="s">
         <v>890</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="G1" s="15" t="s">
         <v>891</v>
-      </c>
-      <c r="G1" s="15" t="s">
-        <v>892</v>
       </c>
       <c r="H1" s="16"/>
       <c r="I1" s="16"/>
@@ -16198,17 +16198,17 @@
         <v>508</v>
       </c>
       <c r="B2" s="20" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C2" s="20" t="s">
         <v>1115</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="D2" s="20" t="s">
         <v>1116</v>
-      </c>
-      <c r="D2" s="20" t="s">
-        <v>1117</v>
       </c>
       <c r="E2" s="15"/>
       <c r="F2" s="15" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="G2" s="15"/>
     </row>
@@ -16217,17 +16217,17 @@
         <v>511</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="C3" s="20" t="s">
+        <v>1117</v>
+      </c>
+      <c r="D3" s="20" t="s">
         <v>1118</v>
-      </c>
-      <c r="D3" s="20" t="s">
-        <v>1119</v>
       </c>
       <c r="E3" s="15"/>
       <c r="F3" s="15" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="G3" s="15"/>
     </row>
@@ -16236,17 +16236,17 @@
         <v>514</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="C4" s="20" t="s">
+        <v>1119</v>
+      </c>
+      <c r="D4" s="20" t="s">
         <v>1120</v>
-      </c>
-      <c r="D4" s="20" t="s">
-        <v>1121</v>
       </c>
       <c r="E4" s="15"/>
       <c r="F4" s="15" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="G4" s="15"/>
     </row>
@@ -16255,17 +16255,17 @@
         <v>642</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="C5" s="20" t="s">
+        <v>1121</v>
+      </c>
+      <c r="D5" s="20" t="s">
         <v>1122</v>
-      </c>
-      <c r="D5" s="20" t="s">
-        <v>1123</v>
       </c>
       <c r="E5" s="15"/>
       <c r="F5" s="15" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="G5" s="15"/>
     </row>
@@ -16274,19 +16274,19 @@
         <v>516</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="C6" s="20" t="s">
+        <v>1123</v>
+      </c>
+      <c r="D6" s="20" t="s">
         <v>1124</v>
       </c>
-      <c r="D6" s="20" t="s">
+      <c r="E6" s="20" t="s">
         <v>1125</v>
       </c>
-      <c r="E6" s="20" t="s">
-        <v>1126</v>
-      </c>
       <c r="F6" s="15" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="G6" s="15"/>
     </row>
@@ -16295,17 +16295,17 @@
         <v>519</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="C7" s="20" t="s">
+        <v>1126</v>
+      </c>
+      <c r="D7" s="20" t="s">
         <v>1127</v>
-      </c>
-      <c r="D7" s="20" t="s">
-        <v>1128</v>
       </c>
       <c r="E7" s="15"/>
       <c r="F7" s="15" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="G7" s="15"/>
     </row>
@@ -16314,17 +16314,17 @@
         <v>522</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="C8" s="20" t="s">
+        <v>1128</v>
+      </c>
+      <c r="D8" s="20" t="s">
         <v>1129</v>
-      </c>
-      <c r="D8" s="20" t="s">
-        <v>1130</v>
       </c>
       <c r="E8" s="15"/>
       <c r="F8" s="15" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="G8" s="15"/>
     </row>
@@ -16333,17 +16333,17 @@
         <v>525</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="C9" s="20" t="s">
+        <v>1130</v>
+      </c>
+      <c r="D9" s="20" t="s">
         <v>1131</v>
-      </c>
-      <c r="D9" s="20" t="s">
-        <v>1132</v>
       </c>
       <c r="E9" s="15"/>
       <c r="F9" s="15" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="G9" s="15"/>
     </row>
@@ -16352,17 +16352,17 @@
         <v>562</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="C10" s="20" t="s">
+        <v>1132</v>
+      </c>
+      <c r="D10" s="20" t="s">
         <v>1133</v>
-      </c>
-      <c r="D10" s="20" t="s">
-        <v>1134</v>
       </c>
       <c r="E10" s="15"/>
       <c r="F10" s="15" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="G10" s="15"/>
     </row>
@@ -16371,17 +16371,17 @@
         <v>617</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="D11" s="20" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="E11" s="15"/>
       <c r="F11" s="15" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="G11" s="15"/>
     </row>
@@ -16390,17 +16390,17 @@
         <v>536</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="C12" s="20" t="s">
+        <v>1135</v>
+      </c>
+      <c r="D12" s="20" t="s">
         <v>1136</v>
-      </c>
-      <c r="D12" s="20" t="s">
-        <v>1137</v>
       </c>
       <c r="E12" s="15"/>
       <c r="F12" s="15" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="G12" s="15"/>
     </row>
@@ -16409,20 +16409,20 @@
         <v>539</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="C13" s="20" t="s">
+        <v>1137</v>
+      </c>
+      <c r="D13" s="20" t="s">
         <v>1138</v>
-      </c>
-      <c r="D13" s="20" t="s">
-        <v>1139</v>
       </c>
       <c r="E13" s="15"/>
       <c r="F13" s="15" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="G13" s="15" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="14" spans="1:256" ht="93.6" x14ac:dyDescent="0.3">
@@ -16430,17 +16430,17 @@
         <v>542</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="C14" s="20" t="s">
+        <v>1140</v>
+      </c>
+      <c r="D14" s="20" t="s">
         <v>1141</v>
-      </c>
-      <c r="D14" s="20" t="s">
-        <v>1142</v>
       </c>
       <c r="E14" s="15"/>
       <c r="F14" s="15" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="G14" s="15"/>
     </row>
@@ -16449,19 +16449,19 @@
         <v>545</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="D15" s="20" t="s">
         <v>575</v>
       </c>
       <c r="F15" s="15" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="G15" s="15" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="16" spans="1:256" ht="46.8" x14ac:dyDescent="0.3">
@@ -16469,43 +16469,43 @@
         <v>578</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="C16" s="20" t="s">
+        <v>1144</v>
+      </c>
+      <c r="D16" s="20" t="s">
         <v>1145</v>
       </c>
-      <c r="D16" s="20" t="s">
+      <c r="E16" s="15" t="s">
         <v>1146</v>
       </c>
-      <c r="E16" s="15" t="s">
-        <v>1147</v>
-      </c>
       <c r="F16" s="15" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="G16" s="15"/>
     </row>
     <row r="17" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A17" s="20" t="s">
+        <v>1147</v>
+      </c>
+      <c r="B17" s="20" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C17" s="20" t="s">
         <v>1148</v>
       </c>
-      <c r="B17" s="20" t="s">
-        <v>1115</v>
-      </c>
-      <c r="C17" s="20" t="s">
+      <c r="D17" s="20" t="s">
         <v>1149</v>
       </c>
-      <c r="D17" s="20" t="s">
+      <c r="E17" s="15" t="s">
         <v>1150</v>
       </c>
-      <c r="E17" s="15" t="s">
+      <c r="F17" s="15" t="s">
+        <v>895</v>
+      </c>
+      <c r="G17" s="15" t="s">
         <v>1151</v>
-      </c>
-      <c r="F17" s="15" t="s">
-        <v>896</v>
-      </c>
-      <c r="G17" s="15" t="s">
-        <v>1152</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
@@ -16513,17 +16513,17 @@
         <v>620</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="C18" s="20" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="D18" s="20" t="s">
         <v>619</v>
       </c>
       <c r="E18" s="15"/>
       <c r="F18" s="15" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="G18" s="15"/>
     </row>
@@ -16532,17 +16532,17 @@
         <v>623</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="D19" s="20" t="s">
         <v>622</v>
       </c>
       <c r="E19" s="15"/>
       <c r="F19" s="15" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="G19" s="15"/>
     </row>
@@ -16551,17 +16551,17 @@
         <v>626</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="C20" s="20" t="s">
+        <v>1154</v>
+      </c>
+      <c r="D20" s="20" t="s">
         <v>1155</v>
-      </c>
-      <c r="D20" s="20" t="s">
-        <v>1156</v>
       </c>
       <c r="E20" s="15"/>
       <c r="F20" s="15" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="G20" s="15"/>
     </row>
@@ -16570,36 +16570,36 @@
         <v>629</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="C21" s="20" t="s">
+        <v>1156</v>
+      </c>
+      <c r="D21" s="20" t="s">
         <v>1157</v>
-      </c>
-      <c r="D21" s="20" t="s">
-        <v>1158</v>
       </c>
       <c r="E21" s="15"/>
       <c r="F21" s="15" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="G21" s="15"/>
     </row>
     <row r="22" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A22" s="20" t="s">
+        <v>1158</v>
+      </c>
+      <c r="B22" s="20" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C22" s="20" t="s">
         <v>1159</v>
       </c>
-      <c r="B22" s="20" t="s">
-        <v>1115</v>
-      </c>
-      <c r="C22" s="20" t="s">
+      <c r="D22" s="20" t="s">
         <v>1160</v>
-      </c>
-      <c r="D22" s="20" t="s">
-        <v>1161</v>
       </c>
       <c r="E22" s="15"/>
       <c r="F22" s="15" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="G22" s="15"/>
     </row>
@@ -16608,10 +16608,10 @@
         <v>530</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="C23" s="20" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="D23" s="20" t="s">
         <v>565</v>
@@ -16622,16 +16622,16 @@
     </row>
     <row r="24" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A24" s="18" t="s">
+        <v>1162</v>
+      </c>
+      <c r="B24" s="18" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C24" s="18" t="s">
         <v>1163</v>
       </c>
-      <c r="B24" s="18" t="s">
-        <v>1115</v>
-      </c>
-      <c r="C24" s="18" t="s">
+      <c r="D24" s="18" t="s">
         <v>1164</v>
-      </c>
-      <c r="D24" s="18" t="s">
-        <v>1165</v>
       </c>
       <c r="E24" s="19"/>
       <c r="F24" s="19"/>
@@ -16642,13 +16642,13 @@
         <v>533</v>
       </c>
       <c r="B25" s="18" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="C25" s="18" t="s">
+        <v>1165</v>
+      </c>
+      <c r="D25" s="18" t="s">
         <v>1166</v>
-      </c>
-      <c r="D25" s="18" t="s">
-        <v>1167</v>
       </c>
       <c r="E25" s="19"/>
       <c r="F25" s="19"/>
@@ -16656,16 +16656,16 @@
     </row>
     <row r="26" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A26" s="18" t="s">
+        <v>1167</v>
+      </c>
+      <c r="B26" s="18" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C26" s="18" t="s">
         <v>1168</v>
       </c>
-      <c r="B26" s="18" t="s">
-        <v>1115</v>
-      </c>
-      <c r="C26" s="18" t="s">
+      <c r="D26" s="18" t="s">
         <v>1169</v>
-      </c>
-      <c r="D26" s="18" t="s">
-        <v>1170</v>
       </c>
       <c r="E26" s="19"/>
       <c r="F26" s="19"/>
@@ -16673,16 +16673,16 @@
     </row>
     <row r="27" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A27" s="18" t="s">
+        <v>1170</v>
+      </c>
+      <c r="B27" s="18" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C27" s="18" t="s">
         <v>1171</v>
       </c>
-      <c r="B27" s="18" t="s">
-        <v>1115</v>
-      </c>
-      <c r="C27" s="18" t="s">
+      <c r="D27" s="18" t="s">
         <v>1172</v>
-      </c>
-      <c r="D27" s="18" t="s">
-        <v>1173</v>
       </c>
       <c r="E27" s="19"/>
       <c r="F27" s="19"/>
@@ -16690,16 +16690,16 @@
     </row>
     <row r="28" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A28" s="18" t="s">
+        <v>1173</v>
+      </c>
+      <c r="B28" s="18" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C28" s="18" t="s">
         <v>1174</v>
       </c>
-      <c r="B28" s="18" t="s">
-        <v>1115</v>
-      </c>
-      <c r="C28" s="18" t="s">
+      <c r="D28" s="18" t="s">
         <v>1175</v>
-      </c>
-      <c r="D28" s="18" t="s">
-        <v>1176</v>
       </c>
       <c r="E28" s="19"/>
       <c r="F28" s="19"/>
@@ -16710,16 +16710,16 @@
         <v>581</v>
       </c>
       <c r="B29" s="18" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="C29" s="18" t="s">
+        <v>1176</v>
+      </c>
+      <c r="D29" s="18" t="s">
         <v>1177</v>
       </c>
-      <c r="D29" s="18" t="s">
+      <c r="E29" s="19" t="s">
         <v>1178</v>
-      </c>
-      <c r="E29" s="19" t="s">
-        <v>1179</v>
       </c>
       <c r="F29" s="19"/>
       <c r="G29" s="19"/>
@@ -16729,16 +16729,16 @@
         <v>584</v>
       </c>
       <c r="B30" s="18" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="C30" s="18" t="s">
+        <v>1179</v>
+      </c>
+      <c r="D30" s="18" t="s">
         <v>1180</v>
       </c>
-      <c r="D30" s="18" t="s">
+      <c r="E30" s="19" t="s">
         <v>1181</v>
-      </c>
-      <c r="E30" s="19" t="s">
-        <v>1182</v>
       </c>
       <c r="F30" s="19"/>
       <c r="G30" s="19"/>
@@ -16774,43 +16774,43 @@
   <sheetData>
     <row r="1" spans="1:256" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
+        <v>885</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>886</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="C1" s="9" t="s">
         <v>887</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="D1" s="9" t="s">
         <v>888</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="E1" s="9" t="s">
         <v>889</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="F1" s="9" t="s">
         <v>890</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="G1" s="9" t="s">
         <v>891</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>892</v>
       </c>
     </row>
     <row r="2" spans="1:256" s="30" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A2" s="28" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="B2" s="28" t="s">
+        <v>1182</v>
+      </c>
+      <c r="C2" s="28" t="s">
         <v>1183</v>
       </c>
-      <c r="C2" s="28" t="s">
+      <c r="D2" s="28" t="s">
         <v>1184</v>
-      </c>
-      <c r="D2" s="28" t="s">
-        <v>1185</v>
       </c>
       <c r="E2" s="15"/>
       <c r="F2" s="11" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="G2" s="11"/>
       <c r="H2" s="29"/>
@@ -17065,39 +17065,39 @@
     </row>
     <row r="3" spans="1:256" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
+        <v>1185</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>1182</v>
+      </c>
+      <c r="C3" s="9" t="s">
         <v>1186</v>
       </c>
-      <c r="B3" s="9" t="s">
-        <v>1183</v>
-      </c>
-      <c r="C3" s="9" t="s">
+      <c r="D3" s="9" t="s">
         <v>1187</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>1188</v>
       </c>
       <c r="E3" s="17"/>
       <c r="F3" s="10" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="G3" s="10"/>
     </row>
     <row r="4" spans="1:256" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="C4" s="9" t="s">
+        <v>1188</v>
+      </c>
+      <c r="D4" s="28" t="s">
         <v>1189</v>
-      </c>
-      <c r="D4" s="28" t="s">
-        <v>1190</v>
       </c>
       <c r="E4" s="15"/>
       <c r="F4" s="10" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="G4" s="10"/>
     </row>
@@ -17132,25 +17132,25 @@
   <sheetData>
     <row r="1" spans="1:256" s="54" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="51" t="s">
+        <v>885</v>
+      </c>
+      <c r="B1" s="51" t="s">
         <v>886</v>
       </c>
-      <c r="B1" s="51" t="s">
+      <c r="C1" s="51" t="s">
         <v>887</v>
       </c>
-      <c r="C1" s="51" t="s">
+      <c r="D1" s="51" t="s">
         <v>888</v>
       </c>
-      <c r="D1" s="51" t="s">
+      <c r="E1" s="52" t="s">
         <v>889</v>
       </c>
-      <c r="E1" s="52" t="s">
+      <c r="F1" s="51" t="s">
         <v>890</v>
       </c>
-      <c r="F1" s="51" t="s">
+      <c r="G1" s="52" t="s">
         <v>891</v>
-      </c>
-      <c r="G1" s="52" t="s">
-        <v>892</v>
       </c>
       <c r="H1" s="53"/>
       <c r="I1" s="53"/>
@@ -17404,41 +17404,41 @@
     </row>
     <row r="2" spans="1:256" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="51" t="s">
+        <v>1190</v>
+      </c>
+      <c r="B2" s="51" t="s">
         <v>1191</v>
       </c>
-      <c r="B2" s="51" t="s">
+      <c r="C2" s="51" t="s">
         <v>1192</v>
       </c>
-      <c r="C2" s="51" t="s">
+      <c r="D2" s="51" t="s">
         <v>1193</v>
-      </c>
-      <c r="D2" s="51" t="s">
-        <v>1194</v>
       </c>
       <c r="E2" s="52"/>
       <c r="F2" s="51" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="G2" s="52" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="3" spans="1:256" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="51" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="B3" s="51" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="C3" s="51" t="s">
+        <v>1195</v>
+      </c>
+      <c r="D3" s="51" t="s">
         <v>1196</v>
-      </c>
-      <c r="D3" s="51" t="s">
-        <v>1197</v>
       </c>
       <c r="E3" s="52"/>
       <c r="F3" s="51" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="G3" s="52"/>
     </row>
@@ -17447,17 +17447,17 @@
         <v>674</v>
       </c>
       <c r="B4" s="51" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="C4" s="51" t="s">
+        <v>1197</v>
+      </c>
+      <c r="D4" s="51" t="s">
         <v>1198</v>
-      </c>
-      <c r="D4" s="51" t="s">
-        <v>1199</v>
       </c>
       <c r="E4" s="52"/>
       <c r="F4" s="51" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="G4" s="52"/>
     </row>
@@ -17466,17 +17466,17 @@
         <v>677</v>
       </c>
       <c r="B5" s="51" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="C5" s="51" t="s">
+        <v>1199</v>
+      </c>
+      <c r="D5" s="51" t="s">
         <v>1200</v>
-      </c>
-      <c r="D5" s="51" t="s">
-        <v>1201</v>
       </c>
       <c r="E5" s="52"/>
       <c r="F5" s="51" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="G5" s="52"/>
     </row>
@@ -17485,17 +17485,17 @@
         <v>680</v>
       </c>
       <c r="B6" s="51" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="C6" s="51" t="s">
+        <v>1201</v>
+      </c>
+      <c r="D6" s="51" t="s">
         <v>1202</v>
-      </c>
-      <c r="D6" s="51" t="s">
-        <v>1203</v>
       </c>
       <c r="E6" s="52"/>
       <c r="F6" s="51" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="G6" s="52"/>
     </row>
@@ -17504,22 +17504,22 @@
         <v>682</v>
       </c>
       <c r="B7" s="51" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="C7" s="51" t="s">
+        <v>1203</v>
+      </c>
+      <c r="D7" s="51" t="s">
         <v>1204</v>
       </c>
-      <c r="D7" s="51" t="s">
+      <c r="E7" s="52" t="s">
         <v>1205</v>
       </c>
-      <c r="E7" s="52" t="s">
-        <v>1206</v>
-      </c>
       <c r="F7" s="51" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="G7" s="52" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="8" spans="1:256" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -17527,17 +17527,17 @@
         <v>687</v>
       </c>
       <c r="B8" s="51" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="C8" s="51" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="D8" s="51" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="E8" s="52"/>
       <c r="F8" s="51" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="G8" s="52"/>
     </row>
@@ -17546,17 +17546,17 @@
         <v>690</v>
       </c>
       <c r="B9" s="51" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="C9" s="51" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="D9" s="51" t="s">
         <v>689</v>
       </c>
       <c r="E9" s="52"/>
       <c r="F9" s="51" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="G9" s="52"/>
     </row>
@@ -17565,17 +17565,17 @@
         <v>717</v>
       </c>
       <c r="B10" s="51" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="C10" s="51" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="D10" s="58" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="E10" s="52"/>
       <c r="F10" s="51" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="G10" s="52"/>
     </row>
@@ -17584,17 +17584,17 @@
         <v>695</v>
       </c>
       <c r="B11" s="51" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="C11" s="51" t="s">
+        <v>1209</v>
+      </c>
+      <c r="D11" s="51" t="s">
         <v>1210</v>
-      </c>
-      <c r="D11" s="51" t="s">
-        <v>1211</v>
       </c>
       <c r="E11" s="52"/>
       <c r="F11" s="51" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="G11" s="52"/>
     </row>
@@ -17603,17 +17603,17 @@
         <v>698</v>
       </c>
       <c r="B12" s="51" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="C12" s="51" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="D12" s="51" t="s">
         <v>697</v>
       </c>
       <c r="E12" s="52"/>
       <c r="F12" s="51" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="G12" s="52"/>
     </row>
@@ -17622,22 +17622,22 @@
         <v>703</v>
       </c>
       <c r="B13" s="51" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="C13" s="51" t="s">
+        <v>1212</v>
+      </c>
+      <c r="D13" s="51" t="s">
         <v>1213</v>
       </c>
-      <c r="D13" s="51" t="s">
-        <v>1214</v>
-      </c>
       <c r="E13" s="52" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="F13" s="51" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="G13" s="52" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="14" spans="1:256" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -17645,20 +17645,20 @@
         <v>709</v>
       </c>
       <c r="B14" s="51" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="C14" s="51" t="s">
+        <v>1214</v>
+      </c>
+      <c r="D14" s="51" t="s">
         <v>1215</v>
-      </c>
-      <c r="D14" s="51" t="s">
-        <v>1216</v>
       </c>
       <c r="E14" s="52"/>
       <c r="F14" s="51" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="G14" s="52" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="15" spans="1:256" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -17666,163 +17666,163 @@
         <v>712</v>
       </c>
       <c r="B15" s="51" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="C15" s="51" t="s">
+        <v>1217</v>
+      </c>
+      <c r="D15" s="51" t="s">
         <v>1218</v>
-      </c>
-      <c r="D15" s="51" t="s">
-        <v>1219</v>
       </c>
       <c r="E15" s="52"/>
       <c r="F15" s="51" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="G15" s="52"/>
     </row>
     <row r="16" spans="1:256" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="51" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B16" s="51" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="C16" s="51" t="s">
+        <v>1219</v>
+      </c>
+      <c r="D16" s="51" t="s">
         <v>1220</v>
-      </c>
-      <c r="D16" s="51" t="s">
-        <v>1221</v>
       </c>
       <c r="E16" s="52"/>
       <c r="F16" s="51" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="G16" s="52"/>
     </row>
     <row r="17" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="51" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="B17" s="51" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="C17" s="51" t="s">
+        <v>1221</v>
+      </c>
+      <c r="D17" s="51" t="s">
         <v>1222</v>
-      </c>
-      <c r="D17" s="51" t="s">
-        <v>1223</v>
       </c>
       <c r="E17" s="52"/>
       <c r="F17" s="51" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="G17" s="52"/>
     </row>
     <row r="18" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="51" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="B18" s="51" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="C18" s="51" t="s">
+        <v>1223</v>
+      </c>
+      <c r="D18" s="51" t="s">
         <v>1224</v>
-      </c>
-      <c r="D18" s="51" t="s">
-        <v>1225</v>
       </c>
       <c r="E18" s="52"/>
       <c r="F18" s="51" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="G18" s="52"/>
     </row>
     <row r="19" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="51" t="s">
+        <v>1225</v>
+      </c>
+      <c r="B19" s="51" t="s">
+        <v>1191</v>
+      </c>
+      <c r="C19" s="51" t="s">
         <v>1226</v>
       </c>
-      <c r="B19" s="51" t="s">
-        <v>1192</v>
-      </c>
-      <c r="C19" s="51" t="s">
+      <c r="D19" s="51" t="s">
         <v>1227</v>
       </c>
-      <c r="D19" s="51" t="s">
+      <c r="E19" s="52" t="s">
         <v>1228</v>
       </c>
-      <c r="E19" s="52" t="s">
+      <c r="F19" s="51" t="s">
+        <v>895</v>
+      </c>
+      <c r="G19" s="52" t="s">
         <v>1229</v>
-      </c>
-      <c r="F19" s="51" t="s">
-        <v>896</v>
-      </c>
-      <c r="G19" s="52" t="s">
-        <v>1230</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="51" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B20" s="51" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="C20" s="51" t="s">
+        <v>1230</v>
+      </c>
+      <c r="D20" s="51" t="s">
         <v>1231</v>
-      </c>
-      <c r="D20" s="51" t="s">
-        <v>1232</v>
       </c>
       <c r="E20" s="52"/>
       <c r="F20" s="51" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="G20" s="52"/>
     </row>
     <row r="21" spans="1:7" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="51" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="B21" s="51" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="C21" s="51" t="s">
+        <v>1232</v>
+      </c>
+      <c r="D21" s="51" t="s">
         <v>1233</v>
       </c>
-      <c r="D21" s="51" t="s">
+      <c r="E21" s="52" t="s">
         <v>1234</v>
       </c>
-      <c r="E21" s="52" t="s">
+      <c r="F21" s="51" t="s">
+        <v>895</v>
+      </c>
+      <c r="G21" s="52" t="s">
         <v>1235</v>
-      </c>
-      <c r="F21" s="51" t="s">
-        <v>896</v>
-      </c>
-      <c r="G21" s="52" t="s">
-        <v>1236</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="51" t="s">
+        <v>1236</v>
+      </c>
+      <c r="B22" s="51" t="s">
+        <v>1191</v>
+      </c>
+      <c r="C22" s="51" t="s">
         <v>1237</v>
       </c>
-      <c r="B22" s="51" t="s">
-        <v>1192</v>
-      </c>
-      <c r="C22" s="51" t="s">
+      <c r="D22" s="51" t="s">
         <v>1238</v>
       </c>
-      <c r="D22" s="51" t="s">
+      <c r="E22" s="52" t="s">
         <v>1239</v>
       </c>
-      <c r="E22" s="52" t="s">
-        <v>1240</v>
-      </c>
       <c r="F22" s="51" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="G22" s="52" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -17830,17 +17830,17 @@
         <v>726</v>
       </c>
       <c r="B23" s="51" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="C23" s="51" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="D23" s="51" t="s">
         <v>725</v>
       </c>
       <c r="E23" s="52"/>
       <c r="F23" s="51" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="G23" s="52"/>
     </row>
@@ -17849,17 +17849,17 @@
         <v>692</v>
       </c>
       <c r="B24" s="51" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="C24" s="51" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="D24" s="51" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="E24" s="52"/>
       <c r="F24" s="51" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="G24" s="52"/>
     </row>
@@ -17868,55 +17868,55 @@
         <v>720</v>
       </c>
       <c r="B25" s="51" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="C25" s="51" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="D25" s="51" t="s">
         <v>719</v>
       </c>
       <c r="E25" s="52"/>
       <c r="F25" s="51" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="G25" s="52"/>
     </row>
     <row r="26" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="51" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="B26" s="51" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="C26" s="51" t="s">
-        <v>1244</v>
-      </c>
-      <c r="D26" s="51" t="s">
-        <v>730</v>
+        <v>1243</v>
+      </c>
+      <c r="D26" s="36" t="s">
+        <v>1311</v>
       </c>
       <c r="E26" s="52"/>
       <c r="F26" s="51" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="G26" s="52"/>
     </row>
     <row r="27" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="51" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="B27" s="51" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="C27" s="52" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="D27" s="51" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="E27" s="52"/>
       <c r="F27" s="51" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="G27" s="52"/>
     </row>
@@ -17925,97 +17925,97 @@
         <v>706</v>
       </c>
       <c r="B28" s="51" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="C28" s="51" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="D28" s="51" t="s">
         <v>705</v>
       </c>
       <c r="E28" s="52" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="F28" s="51" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="G28" s="52" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="51" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="B29" s="51" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="C29" s="51" t="s">
+        <v>1246</v>
+      </c>
+      <c r="D29" s="51" t="s">
         <v>1247</v>
-      </c>
-      <c r="D29" s="51" t="s">
-        <v>1248</v>
       </c>
       <c r="E29" s="52"/>
       <c r="F29" s="51" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="G29" s="52"/>
     </row>
     <row r="30" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="58" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="B30" s="51" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="C30" s="58" t="s">
+        <v>1289</v>
+      </c>
+      <c r="D30" s="58" t="s">
         <v>1290</v>
-      </c>
-      <c r="D30" s="58" t="s">
-        <v>1291</v>
       </c>
       <c r="E30" s="52"/>
       <c r="F30" s="51" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="G30" s="52"/>
     </row>
     <row r="31" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="58" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="B31" s="51" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="C31" s="58" t="s">
+        <v>1291</v>
+      </c>
+      <c r="D31" s="58" t="s">
         <v>1292</v>
-      </c>
-      <c r="D31" s="58" t="s">
-        <v>1293</v>
       </c>
       <c r="E31" s="52"/>
       <c r="F31" s="51" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="G31" s="52"/>
     </row>
     <row r="32" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="58" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="B32" s="51" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="C32" s="58" t="s">
+        <v>1293</v>
+      </c>
+      <c r="D32" s="58" t="s">
         <v>1294</v>
-      </c>
-      <c r="D32" s="58" t="s">
-        <v>1295</v>
       </c>
       <c r="E32" s="52"/>
       <c r="F32" s="51" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="G32" s="52"/>
     </row>
@@ -18048,25 +18048,25 @@
   <sheetData>
     <row r="1" spans="1:256" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
+        <v>885</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>886</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="C1" s="9" t="s">
         <v>887</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="D1" s="9" t="s">
         <v>888</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="E1" s="9" t="s">
         <v>889</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="F1" s="9" t="s">
         <v>890</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="G1" s="9" t="s">
         <v>891</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>892</v>
       </c>
       <c r="H1" s="16"/>
       <c r="I1" s="16"/>
@@ -18323,61 +18323,61 @@
         <v>284</v>
       </c>
       <c r="B2" s="11" t="s">
+        <v>1248</v>
+      </c>
+      <c r="C2" s="11" t="s">
         <v>1249</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="D2" s="11" t="s">
         <v>1250</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>1251</v>
       </c>
       <c r="E2" s="8"/>
       <c r="F2" s="8" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="3" spans="1:256" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
+        <v>1252</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>1248</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>1253</v>
       </c>
-      <c r="B3" s="11" t="s">
-        <v>1249</v>
-      </c>
-      <c r="C3" s="8" t="s">
+      <c r="D3" s="8" t="s">
+        <v>1250</v>
+      </c>
+      <c r="E3" s="8" t="s">
         <v>1254</v>
       </c>
-      <c r="D3" s="8" t="s">
-        <v>1251</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>1255</v>
-      </c>
       <c r="F3" s="8" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="G3" s="8"/>
     </row>
     <row r="4" spans="1:256" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>1248</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>1256</v>
       </c>
-      <c r="B4" s="11" t="s">
-        <v>1249</v>
-      </c>
-      <c r="C4" s="8" t="s">
+      <c r="D4" s="8" t="s">
+        <v>1250</v>
+      </c>
+      <c r="E4" s="8" t="s">
         <v>1257</v>
       </c>
-      <c r="D4" s="8" t="s">
-        <v>1251</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>1258</v>
-      </c>
       <c r="F4" s="8" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="G4" s="8"/>
     </row>
